--- a/state_of_state_speeches.xlsx
+++ b/state_of_state_speeches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurahatt/Documents/GitHub/Data_Skills_2_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8B0B7-F0B8-FF42-8DA2-661D7CDDC3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C02F5-0024-2D4C-B917-E42AB139745B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{7F8666E8-E344-2C45-827F-70CBA3A1BB52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>AL</t>
   </si>
@@ -240,239 +240,7 @@
     <t>AK</t>
   </si>
   <si>
-    <t>Thank you Lieutenant Governor Meyer, Senate President Micciche, Speaker
-Stutes, and members of the 32nd Legislature.
-I’m glad to be back at the capitol addressing the Legislature in person, and I thank
-you for the invitation to speak to you tonight.
-I first want to recognize my wife of 34 years, First Lady Rose Dunleavy.
-Alaska made history this past year. A stellar young Alaskan who could not be here
-tonight also deserves some recognition.
-Lydia Jacoby of Seward stunned the world last summer in Tokyo when she won
-gold with a thrilling finish to the 100-meter breaststroke in record time.
-We saw Lydia’s friends and neighbors cheering her on in that famous video that
-quickly went around the world from the Seward ferry terminal.
-Alaskans around the state were cheering right along with them.
-On behalf of Lydia’s fellow Alaskans, I know we’re going to keep cheering her on
-in everything she does going forward.
-We can’t wait to see what else she’ll accomplish. Let’s all give Lydia a great round
-of applause.
-Another special guest that made history this past year is our own Miss Alaska now
-known as Miss America, Emma Broyles.
-Emma, a graduate of Service High in Anchorage, broke through as the first Miss
-Alaska, and first of Korean heritage, to win the title of Miss America in the 100-
-year history of the competition.
-Because of her personal experiences, she is using her platform to bring awareness
-to ADHD and OCD, and highlighting community building through the Special
-Olympics.
-This past semester at Arizona State, where she is enrolled in the Honors College
-studying biomedicine with plans to enter medical school, Emma passed 21 credit
-hours, worked two jobs, and took three finals on the day she left for the Miss
-America competition.
-2
-Her hard work and tenacity embodies the 21st Century Miss America.
-But her victory almost didn’t happen.
-During the interview competition, Emma shared her experience of hitting “rock
-bottom” while isolated in her dorm early in the pandemic.
-At times, her schoolwork and distance from her home state made her wonder if
-she should give up her Miss Alaska title.
-At the competition, Emma was asked why she was sharing her most vulnerable
-self with the rest of the world.
-“A lot of people,” she said, “don’t recognize that their low points are what are
-going to propel them to their future.”
-Emma, we are so glad you stuck with it, and we are so proud of you.
-You have only just begun a lifetime of making a positive difference in the lives of
-others with the story you share, and the example you set.
-You represent Alaska’s strength, our diversity, and how we stand up when we get
-knocked down.
-Thank you, Emma, for being here tonight, and for being an inspiration to all of us.
-Could you please stand and be recognized?
-Young people like Emma and Lydia are showing the world what Alaskans are
-made of.
-We take great pride in being Alaskans.
-We take great pride in facing challenges head on.
-We don’t retreat, and we don’t accept defeat.
-We also take great pride in helping our neighbors when things get tough.
-From the Interior to Western Alaska, from the Mat-Su Valley to Southeast,
-including right here in Juneau, we have seen winter weather that has wrought
-tremendous destruction on our Great State.
-The storms have required state disaster declarations covering almost half of our
-boroughs and the communities they include. We are so thankful that we haven’t suffered any loss of life, and it’s always
-heartening to see and hear stories of Alaskans pitching in to help each other.
-Neighbors, utility workers, contractors, our Department of Transportation, our
-National Guard, and countless others, have all answered the call to help,
-sometimes under the most hazardous conditions.
-We couldn’t be more grateful.
-Our National Guard is ready to respond at a moment’s notice when called upon
-thanks to members like Captain Andrew Viray.
-Captain Viray is a lifelong Alaskan, a graduate of East High in 2010, and the
-University of Alaska Anchorage and ROTC in 2014.
-He was commissioned into the Army National Guard as an infantry officer after
-graduating, and is serving as a plans and projects officer with the First-297th until
-he takes command of an Infantry Rifle Company in the coming months.
-Captain Viray has been a leader in our COVID response through the Joint Task
-Force we stood up in March 2020.
-After returning from deployment to Kosovo in June 2020, he volunteered for the
-Joint Task Force assignment.
-He has assisted in warehouse operations, our airport testing program, and
-elections support in the Y-K Delta.
-More recently, he’s served as a staff planner in our Joint Task Force emergency
-responses in Fairbanks, the Mat-Su, and Yakutat.
-When he’s not answering the call for our National Guard, he is enrolled at the
-University of Alaska Anchorage pursuing his master of social work degree and is
-on track to graduate in May 2023.
-Captain Viray is here tonight, and I’d like to ask him to stand and be recognized
-for his dedication to Alaska, his exemplary service, and on behalf of all our
-National Guard members.
-Thank you for being here tonight, Captain, and for standing up for all Alaskans.
-4
-After everything we’ve faced over the past three years, it’s my honor to report
-that not only is the State of our State Resilient, we’re fulfilling our motto of
-“North to the Future.”
-Despite earthquakes; despite floods; despite fires, wind, ice, and snow;
-Despite hostile policies coming from Washington, DC; despite a once-in-a-lifetime
-pandemic;
-Despite these obstacles and against all odds, we’re not only still here, we are
-moving forward, and, yes, we are Open for Business.
-Here’s what I’m talking about:
-The state of our fiscal situation has vastly improved from the budget deficit of
-$1.6 billion I inherited upon taking office.
-Thanks in part to our fiscal restraint over the past three years, we’re on track for a
-budget surplus in the current fiscal year for the first time in a decade.
-Based on current trends, we could see revenue in the current year increase by
-more than $281 million over the fall forecast and by $466 million in the upcoming
-fiscal year.
-This can generate a surplus this year, and next, even without one-time federal
-funds.
-Regarding crime, thanks to the repeal of Senate Bill 91, Alaskans are safer today
-than we have been in decades!
-When I first stood before this chamber three years ago, I declared war on
-criminals and asked for the Legislature to repeal and replace the catch-andrelease policies in SB 91.
-With the help of many of you, we got it done.
-Policies do matter. We’ve seen our overall crime rate decline by 10 percent in
-2019 and another 18.5 percent in 2020!
-According to the FBI, reported property crimes are at the lowest level since 1974.
-The murder rate has declined by a whopping 31 percent from 2019 to 2020.
-We all remember the huge spike in car thefts after SB 91 was signed in 2016.Following the repeal of SB 91, vehicle thefts were down 54 percent in 2020
-compared to 2017.
-Burglary and larceny theft dropped by 22 percent from 2019 to 2020; robberies
-dropped by almost 15 percent in the same time.
-These figures from the FBI are indisputable.
-Never again can we put criminals ahead of victims, or social engineering ahead of
-public safety.
-When we express appreciation for law enforcement, we usually just think about
-our State Troopers or local Police forces.
-Too often, we forget about our men and women serving in the Department of
-Corrections.
-It’s a difficult, typically thankless job, but no less critical to public safety.
-One of our most senior Corrections officers is Staff Sergeant of Operations Ken
-Noland.
-Sergeant Noland, an Alaskan since age 8 and a graduate of Bartlett High School in
-Anchorage, started his career with the department in 1994 at Spring Creek in
-Seward.
-He’s been at the Anchorage Correctional Complex since April 1998, and he was
-promoted to Sergeant in June of 2005.
-Sergeant Noland is a diligent and generous officer who has mentored and trained
-his peers in those values for more than 25 years.
-According to those peers, his positive attitude and exceptional work ethic help
-create an environment that recognizes the difficulties faced by Corrections staff
-while treating everyone with the dignity they deserve.
-Sergeant Noland is a fine example for our Corrections Department, and I’m happy
-he is here tonight to be recognized not only for his service, but for the service of
-all his fellow officers he represents.
-Sergeant Noland, could you please stand and be recognized?
-Thank you, Sergeant.</t>
-  </si>
-  <si>
     <t>AZ</t>
-  </si>
-  <si>
-    <t>Speaker Bowers, President Fann, Leaders Rios and Bolding, Chief Justice Brutinel, Members of the Legislature and Judiciary, everyone assembled here – the families, the friends, the special guests and dignitaries – all my fellow Arizonans: There is nowhere else I’d rather be right now than here, in this chamber, on this floor, together, in person, smiling, shaking hands, and celebrating the strength and the future of the State of Arizona. 
-Typically in an even numbered year, we’ve logged a lot of hours working together. But today we have an unusually large number of fresh faces. And that makes it all the more exciting. Would all the new members of the House and Senate – those sworn in since our last sine die – please rise? Welcome.
-Without citizens like yourselves and your colleagues willing to participate and make the sacrifices that inevitably come along the way – the cornerstone of our great democracy, “We the People” – is merely words. You make it a reality. Thank you all for your service and civic participation.
-We’ve also got some not so fresh faces among us. Near the top of the list – me.
-​​I have the unique privilege of doing something today no Arizona governor has done in more than three decades, reporting on the State of our State for my 8th time. And so I begin by expressing my sincere and eternal gratitude to the people of Arizona for entrusting me with two terms in this incredible job – and to all of you for your partnership along the way. Thank you.
-And to my family for supporting me, and for all that you didn’t sign up for – most of all, tolerating State of the State rehearsals around the kitchen table year after year – and especially to Angela for her continued advocacy for the most vulnerable children and citizens of our state: I love you, and thank you.
-But for those who think it’s going to be a quiet year on the 9th Floor, you haven’t been paying attention. As I enter the fourth and final quarter, I’m reminded of something my high school coach told me – “Get in and get the job done.” And as I stand here today, the job isn’t done. The goodbyes will come later – much later. I’ve got 357 days, 21 hours, 44 minutes, and 18 seconds before the end of the game, and I intend to make the most of every moment and work hard all along the way for my employers – the citizens of this state.
-Ladies and gentleman, at the risk of sounding repetitive, the State of our State is strong. And we are poised to do what everyone in public service strives for: to leave it stronger than we found it. 
-Last session was one for the record books. Together, we made it the most successful since I’ve been down here – and I’m not just talking about cocktails to-go.
-Liability reform for our small businesses. Bipartisan wildfire solutions and funding to match. New revenue streams through a modernization of our tribal gaming compacts. New school choice options for kids and families. A record investment in roads, infrastructure, broadband and affordable housing. Nearly 100 percent of citizens 65 and older with at least one shot of the vaccine thanks to a national model for distribution brought to you by Dr. Cara Christ, Michael Bidwill and the Arizona Cardinals. We led the way with universal licensing reform. And with the leadership of Dr. Regina Cobb, we passed another first in the nation Arizona policy that everyone is rushing to copy: telemedicine. And a list we are very proud to be at the top of: the largest tax cut in Arizona history, with the passage of the lowest flat tax in the nation.
-And yet anyone who has ever worked with me will attest: I have a hard time stopping to celebrate victory. It was true at Cold Stone, and it’s been true in the public square. So naturally, after we signed the budget, I told my staff: “In 2022, we’re going to top all of this.” And so we’ve been hard at work to make this a banner year.
-One thing that was clear when we went back to review the tape on the last seven years: As co-equal branches of government, working in good faith with the Legislature, we have set the bar very high.
-Arizona is better positioned than at any time in our 110 year history. And that makes our work and our priorities much different than when I stood before you the first time.
-You know the facts: Back then, the state budget was broken – in the red by $1 billion. 
-I remember meeting just days after the 2014 election, and reviewing options. In the easy column, budget gimmicks and tax increases. On the other side, budget cuts and tough decisions.
-In that election, I ran on having built a business, and I committed to shrink a government and grow an economy. And together, we have done just that.
-Today, a lot is different in Arizona. We have lived within our means: We have more citizens, our budget is balanced, our economy is roaring and our government is smaller and more efficient than it's ever been. In fact, we believe so strongly in shrinking government that for the first time ever we are demolishing unneeded state buildings, on track to reduce our footprint by nearly 750,000 square feet since we got here. 
-We are sitting atop a surplus of several billion dollars, fueled not by tax increases – but by the opposite: historic economic growth. It turns out free-market capitalism works. Supply-side economics might not be the sexiest thing for candidates to run on these days, but it sure looks good on a spreadsheet.
-Today, our state revenue is growing at an even faster rate than the so-called experts predicted. So this year, just like in the past, we are going to double-down on what works. Rather than endless, needless programs that waste the people’s money, we are going to be targeted and responsible. 
-We will resist the cries from the spending lobby, and once again, we will allow the people to keep their hard-earned money. We will cut taxes.
-It’s really not that complicated; it’s just basic common sense. Government takes in more than it needs to pay the bills, and the taxpayer should get to keep his or her hard-earned dollars.
-Today, jobs are plentiful. Back in 2014, I remember getting grilled on the campaign trail about how all the jobs Arizona was getting were call centers and construction. My response? There’s dignity in all work, and it was true. But for far too many employers and businesses, Arizona was, in fact, a flyover state on their way to Texas. We knew we could do better if we could get those decision-makers to stop here, so we could make the pitch to show what a beautiful state we live in. Now, because of our combined work, we have an all-of-the-above approach on jobs. Not just call centers but also car manufacturers, autonomous vehicles, tech start-ups and world-class semiconductors. We said we wanted to be a jobs juggernaut, and in the process, we became a paycheck paradise. Plus, unlike California, Illinois and New York, here you actually get to keep your paycheck.
-But still, there’s no denying what’s happening on a national level is straining families and seniors’ checkbooks. Washington’s spending spree, combined with mismanagement of COVID, has broken our supply chain and inflated the cost of everything. A staggering surge of 6.8 percent – food, clothing, gas, prescription drugs. The largest increase in the cost of daily life in nearly four decades. A White House in denial it’s even occurring. And a President hell bent on printing and borrowing money while raising taxes. This is not a strategy that will help working people.
-It all makes our commitment of returning money to the people more important than ever. Washington D.C. might have their eye on your paycheck – but at this Capitol, the only special interest on our mind is the taxpayer.
-We have made Arizona a top destination for jobs and companies. Low taxes. A strong, reliable energy grid, with the largest nuclear power plant in the United States. And a great quality of life — they all go a long way. 
-But as any business person knows: The hidden taxes of the regulatory state can be the real killer. And for small businesses, start-ups and independent contractors, these regulations are a death sentence. 
-We’ve taken a baseball bat to that bureaucracy, with a moratorium on new regulations ever since 2015. I don’t know about you, but I haven’t heard any complaints. Maybe because we’ve already saved taxpayers $169 million. Let’s make these reforms permanent, in law, and ensure Arizona is always the land of economic freedom and opportunity for all.
-Arizona workers are the ones truly fueling our healthy and transformed economy. Our manufacturing sector is on fire – it’s even outpaced construction, which is a tough hill to climb. If we weren’t turning out so many electric cars, I’d say: ‘Let’s pour on the gas.’ Instead – I’ll put it this way: Let’s invest in the worker, arming them with the skills they need for our growing semiconductor and advanced manufacturing industries. Whether your top issue is workforce or rural jobs, this is the way to do it: Our budget makes historic investments into community colleges to empower our people with a quality education and the skills of the future.
-Nevertheless, leave it to Washington D.C. – politicians there are doing everything they can to stand in the way of freedom. Big government socialism is a failed and dangerous experiment. But it doesn’t stop some from trying it time and time again – paying people not to work and disincentivizing initiative and self-determination.
-That’s not the Arizona way. So we called D.C.’s bluff and instead said: “Thanks, but no thanks” to unnecessary unemployment benefits. There’s no such thing as a free lunch or free money. Instead we will focus on rewarding hard work.
-This approach has meant that people keep moving here. Less taxes means more taxpayers. During the pandemic, as other states grandstanded, Arizona protected lives, livelihoods and individual liberty. People flocked here, and they’ve stayed. And who wouldn’t love it?
-President Ronald Reagan once said that if the pilgrims had landed on the west coast, they wouldn’t have bothered to discover the rest of the country.  But today, there is an exodus from California. And the same is true of other states with similar flawed policies. The lack of opportunity, fueled by bad governing philosophies, are hurting real Americans and pushing them out to states like Arizona, where opportunity is abundant.
-Sure, some have groaned, but growth is a good problem to have. The alternative is to be a state in decline, misery and decay. No state’s path to success has ever been paved with “Closed for Business” signs. Our only request to our new citizens is: Don’t forget why you came here in the first place. Freedom, opportunity and good government matter. 
-Make no mistake: We will keep Arizona – Arizona. 
-Our way is tried and true. In the past, when Arizona has veered off course, it hasn’t turned out well. And that brings us to another thing we found seven years ago when we got here. The state had amassed billions of dollars in debt through the recession, fueled by out-of-control spending in the early 2000s and budget shellgames. They even had to sell off this building. A couple of years ago, thanks to the leadership here, we got the deed back. And last year, we paid off billions more in debt – ratcheting it down to historically low levels. We took our Rainy Day fund to a record-breaking $1 billion. As a result, we have higher credit ratings than when we got here and that means even more savings to the taxpayer. So why stop now?
-I’ll present a budget on Friday that keeps this stewardship going – paying off more debt, and topping off our Rainy Day Fund, so that we don’t just own this house, but we leave the people’s house truly in order.
-We are blessed to be a magnet for America’s veterans. They represent the best of our country, and as any hiring manager will tell you: Veterans are among their most prized and productive employees. 
-We celebrate our veterans and want more of them in the State of Arizona. Would all the veterans here today please rise so we can recognize your service to our nation?
-We continue to find ways to honor our veterans. In the State of Arizona today, thanks to the efforts of Representative Gail Griffin and Senator David Gowan, veterans pay no taxes on their military pension. 
-Under the G.I. Bill, they also get to attend our in-state universities and community colleges free of charge. After all, they’ve already given so much. But how about their spouses? These dedicated husbands and wives have served and sacrificed as well. So this session, let’s launch a program to waive their tuition too.
-K-12 education is one of the reasons so many of us ran for office in the first place. But as an outsider, it was striking to me when I got to this Capitol that our school discussions weren’t about what kids actually learned. Bureaucrats were competing for who could spend more money. Fewer dollars were going to the classroom, and instead lining the pockets of trial attorneys.
-But we pressed forward: positioning Arizona as the number one school choice state in the nation.
-When COVID hit, that designation was a lifeline for families. Some school leaders did everything possible to keep kids in the classroom. But too often, politics and virtue signaling took center stage. In the process, more parents got involved. And thank God they did. Some voted with their feet – moving schools or school districts or to totally different learning models – whether that’s homeschooling or microschools. 
-But other families have seen their kids fall behind. There’s been too much attention put on masks and not nearly enough placed on math; a focus on restrictions rather than reading and writing. And it’s students of color and those in poverty who have been most impacted by the COVID-era posturing and politics of some school board bureaucrats.
-So come June, we’re launching a summer camp with an emphasis on catching kids up in key areas: math, reading and American civics. We will lead the way to eliminate learning loss. And in case you haven’t checked Twitter lately: Arizona schools are open and they will remain open. 
-In Arizona schools, we will not divide people by race. Arizona schools should be instructing our kids in the Golden Rule – to treat one another with respect, and judge people as Martin Luther King Junior taught, on the content of their character and not the color of their skin. This session we’ll make it clear. Students should be taught to think critically – not taught critical race theory. 
-But let’s not stop there. Parents deserve respect – and the occasional parent-teacher conference isn’t enough. It’s 2022. We’ve got the technology. Let’s require all that a child is taught, all curriculum and academic materials be put online and available to search and review by every parent, grandparent and interested citizen.  
-Arizona has set the standard for school choice and innovative education solutions – and it’s because of the vision of Arizona leaders that paved the way. Leaders like Governor Fife Symington, Superintendent of Public Instruction Lisa Graham Keegan and Democratic Representative Armando Ruiz, who worked in a bipartisan way to create new opportunities for students – open enrollment, charter schools. They knew that parents were best equipped to make decisions around their child's education.
-And new people are stepping up every day. Leaders like Janelle Wood, a mom and founder of the Black Mothers Forum. Janelle has led the way in creating new learning models where students receive personalized support. Many of Janelle's students were several grades behind, but with her unique focus on ensuring students feel safe, secure and ready to learn and grow, they quickly made gains towards academic excellence. 
-Janelle is here today. Janelle – thank you for your service and work to benefit Arizona kids.
-Fifty-plus years ago politicians stood in the schoolhouse door and wouldn’t let minorities in, today union-backed politicians stand in the schoolhouse door and won’t let minorities out. Many of our poor kids and children of color are trapped in a failing school. It’s time to set these families free.
-This session, let’s expand school choice any way we can — greater open enrollment, new transportation models, more charter schools and more educational freedom for families, especially those in failing schools or who can’t afford to pick up and move to a new neighborhood. Let’s think big and find more ways to get kids into the school of their parents’ choice. Send me the bills, and I’ll sign them.
-For Angela and I, the children in the care of the state - our foster kids - have had a special place in our hearts. I know you all feel the same. We’ve made notable strides in this area, thanks to our dedicated Child Safety caseworkers. With investments, we’ve seen lower caseloads and rapid placement of kids into safe, loving homes. And when other states switched to virtual home-inspections, in Arizona, these dedicated women and men showed up in person every day to keep these kids safe. 
-But unfortunately, we will never work ourselves out of a job in this area – and the pandemic hasn’t been good for these vulnerable children.
-Often, it’s grandma or grandpa, an aunt or uncle, who steps up to care for these kids. It can be better for the child, and often cheaper for the state because historically, they haven’t been treated as foster families. More than 6,000 children in Arizona live in these homes — all the evidence you need that you can’t put a price tag on love. So moving forward, these loving extended family members should have the same resources as any other foster family. We’ll make sure of that this year.
-We’ve had success getting good ideas done together. But there’s also something to be said for just saying “no” to really bad ideas. When the Left demanded “defund the police”, Arizona said, “no chance.” Instead we invested more in our men and women in blue. And we plan to do it again. 
-Arizona, Texas, Florida, Tennessee: All are among the fastest growing states in the nation. And the policies that made us so attractive can be applied to cities as well. 
-If you are an elected official charged with overseeing a police department and you don’t believe there’s a correlation between the attacks on law enforcement and rising crime rates nationally, you need a reality check because you’re putting public safety and human life at risk. We intend to keep Arizona a place where we honor and value our cops and all of law enforcement, including correctional officers and first responders. A place where public safety matters. No riots. No smash and grab. And a news flash for the DOJ and Merrick Garland: Mr. Attorney General, instead of attacking Police Chief Jeri Williams and her officers for risking their lives and keeping Arizona streets safe during civil unrest, your time would be better spent protecting the federal courthouses in Portland, Seattle and San Francisco. Do your job.
-When we need them, Arizona law enforcement is there. No matter the circumstance. No complaints. No virtual work. Some of our State Troopers are here with us today. Join me in showing our appreciation for their selfless service.
-When it comes to building a budget, public safety will always be at the top of our list. And this year, we have a record surplus. So our budget proposes making our State Troopers in Arizona the highest paid law enforcement professionals in the state. I know you agree – they’ve earned it.
-And we’re going to be leaning on their dedication more than ever. Our southern border has never been more deadly or more dangerous. Meanwhile, the White House and Congress have decided to turn a blind eye. This is a national crisis – and it calls for leadership.
-A few years ago, we came together – every Republican and Democrat in this entire chamber – and passed the Arizona Opioid Epidemic Act. It was historic. But now President Biden and his cabinet members are working against us. Fentanyl is streaming across the border. It’s causing death and devastation, and there’s no plan and zero action from the administration. Secretary Mayorkas is AWOL. The White House has canceled the word “crisis.” And for self-proclaimed border czar, Kamala Harris, this is just another laughing matter. This is a dereliction of duty by the highest officeholders in our nation. And in Arizona, we will do what they refuse to do. 
-We’ve got a strong track record:
-In 2015, we created the Arizona Border Strike Force to take on the cartels and protect our state against the flow of criminals, narcotics, weapons and ammunition. President Biden refuses to deploy the National Guard despite the fact it's been done by every other President in recent history, including Barack Obama. So in April, we deployed them ourselves, providing much needed assistance to local law enforcement. And with the leadership here, we invested $55 million in last year’s budget to amplify all these efforts.
-But more action and manpower are needed. Here’s the plan:
-Number one: Resources.
-Our budget will make significant new investments to strengthen the border strike force, provide advanced equipment to aid in the pursuit of dangerous criminals, and deploy the latest drone technology to bolster surveillance and stop the cartels in their tracks.
-Next: The rule of law.
-This is not just a public safety crisis; it’s a humanitarian crisis. And the human traffickers that prey on the desperation of people looking for a better life need to pay the consequences. It’s time for us to increase the criminal penalties against human smuggling and provide more funding to border counties to ensure prosecution and incarceration. 
-Third: Boots on the ground and multistate intelligence sharing.
-Border security is national security, and the lack of action from D.C. puts every American at risk. In November, I dispatched Arizona’s top-ranking enforcement officers to partner with their peers in Texas: Major General Kerry Muehlenbeck, Department of Public Safety Colonel Heston Silbert, and Department of Homeland Security Director Tim Roemer. In December, we finalized the plan. Texas Governor Greg Abbott and I are teaming up to form the American Governor’s Border Strike Force – a commitment between states to do what the Biden administration is unwilling to do: Patrol and secure our border.
-Fourth: The Wall and physical barriers. They work.
-Representatives Joanne Osborne and Tim Dunn and Senator Sine Kerr were with me in Yuma a few weeks ago and we saw it first hand – people walking across a wide-open and unprotected border. Our border is a patchwork of federal, state, tribal and private lands. Where Arizona can add physical barriers to the border, we will.
-But if the entire southern border isn’t secure, neither is our nation. So fifth: I’m calling on our United States senators to join this fight to secure our border. No member of the Arizona congressional delegation that actually cares about the safety of our communities should vote “yes” on any legislation until the President agrees to language that does the following: Secures our border with a wall, a physical barrier and virtual surveillance; increases resources to the local communities that have been devastated by these dangerous open border policies; and makes it clear that our border is not open to illegal immigration. 
-Senator Kelly, Senator Sinema - check my website. We’ve even drafted the language for you. 
-The takeaway: In Arizona, we will secure our border. We will protect public safety. We will not back down. We will fight this fight until Washington D.C. finally acts.
-Rule of law and equal justice under the law have been bedrocks of our Republic and guiding principles of our work together. A few years ago, when we learned of the massive backlog of untested rape kits, we worked in a bipartisan manner to clear that backlog and to make sure victims were prioritized. But as we’ve learned, government bureaucrats often find a way around the law. In this case, some counties are charging these women – these victims – up to $800 in processing charges, and sending the bill to collections. It’s shameful, so we will be cracking down on this government abuse and with your help, tightening the law.
-One area where our work clearly isn’t done is on water. We passed a monumental policy that we were told would never happen – the Drought Contingency Plan. After that one, I determined – in Arizona, if we can do this, we can do just about anything. Then last year, with Speaker Bowers’ leadership, we put our money where our mouth is: $200 million to invest in the water technology of the future. Now, with resources available in our budget, a relationship with Mexico that we’ve built and strengthened over the last seven years, and the need clear – what better place to invest more? Instead of just talking about desalination – the technology that made Israel the world’s water superpower – how about we pave the way to make it actually happen? So Speaker Bowers, President Fann and I have been working, and we propose that we make a historic investment: $1 billion.
-Our goal: Secure Arizona’s water future for the next 100 years.
-Our state has grown and thrived because of the foresight of past leaders on this issue – Carl Hayden, Barry Goldwater, Bruce Babbitt and Jon Kyl. The result: the Central Arizona Project, the Salt River Project, the Hoover Dam, the Roosevelt Dam. Now it’s our turn, our moment, to leave this state better than we found it. Let’s rise to the occasion.
-More people means more infrastructure needs. Not just on water, but roads and bridges. We’ve made record investments in road repairs and improvements. A few years ago, we got together and prioritized expansion of the I-17. Then, thanks to the leadership of Senator T.J. Shope and Governor Lewis of the Gila River Indian Community, we paved the way for a wider I-10 to improve movement and commerce between Tucson and Phoenix. But that project is still scheduled several years out from now, and 94 visits as Governor to southern Arizona will remind you how important this issue is. So, let’s finish the job. Our budget will invest more dollars to get the I-10 completion leap-frogged to the front of the priority list, ahead of schedule, connecting our entire state, North to South.
-As you see, as much progress as we’ve made – there’s plenty left to do on so many fronts. And we’ll have all year to grind it out together: a continued focus on the health of our citizens, and support for our hospitals, and dedicated healthcare workers; investments in cyber security to protect the identity and data of our citizens; improvements to our elections, to bring confidence and security; better broadband connectivity all across rural Arizona; more efforts to prevent wildfires; maintaining Arizona’s position as the number one pro-second amendment state in the nation; protecting life in every way possible; and all along the way, preparing for another Super Bowl, where our beautiful state will be center stage just a year from now.
-An ambitious agenda, to be sure. One that can cement our successes and the good reforms we’ve made, and further expand opportunity and optimism here in our state. 
-No doubt, there will be challenges. In fact, some have said we can’t get much done this year. Divided chambers. An election. Why bother? I disagree. Let’s aim high and think big.
-We’re smarter today, and as I look around this chamber – I see the wisdom of our veteran lawmakers, side by side with the energy and fresh perspective of the newcomers – and that’s a combo that is sure to produce results.
-So whether you’re like me, in the camp with my friends Rusty and Karen – we’ve only got a year left in these jobs – or you’re just getting started, let’s recommit today to giving our all to getting the job done for the people who have hired us.
-Thank you, and God bless the great State of Arizona.</t>
   </si>
   <si>
     <t>STATE</t>
@@ -482,257 +250,6 @@
   </si>
   <si>
     <t>AR</t>
-  </si>
-  <si>
-    <t>Thank you, Speaker Shepherd; Senate Pro Tem Hickey; Lt. Gov. Griffin; Mr. Chief Justice Kemp
-and Justices of the Supreme Court; and Members of the General Assembly.
-It is an honor to stand before the joint chambers today for my 8th and final State of the State
-speech.
-For that reason please allow me a moment of personal reflection.
-The opportunity to serve and lead the state I love has been the highest privilege of my public
-career.
-As you know, I was raised on a farm on the Spavinaw Creek near Gravette. I was the youngest of
-six children born to John Malcolm and Coral Hutchinson. They were married in the Great
-Depression and understood tough times; they did not have college degrees but they valued
-learning and encouraged me to pursue my dreams and, most importantly, to have faith and trust
-in our Creator who reigns sovereign in the affairs of man.
-But the most important person in my life is the girl I was so crazy about that I hitchhiked from
-Fayetteville to Memphis on the weekends to see her. Susan has celebrated every victory with me
-and walked with me through every trial. Let me introduce my sweetheart of 48 years and the
-First Lady, Susan Hutchinson.
-Susan has devoted time, energy, and her voice to helping the abused and neglected children in
-our state.
-My family is important to me, and I am grateful, my son and namesake is here, Asa Hutchinson
-III.
-1
-Today, I am also grateful for the partnership of the General Assembly. Every once in a while we
-disagree, but all in all, we have worked together and accomplished a great deal for the people of
-our state. Our work together has not been for the weak of heart but it has been transformative and
-will impact generations to come.
-Seven years ago, I took office with the desire to improve the quality of life in Arkansas by
-improving education, increasing our manufacturing, preserving our outdoor heritage, and
-supporting our farmers.
-I wanted to be the jobs governor, and through the work of Mike Preston and the Arkansas
-Economic Development Commission and our many partners, we’ve had historic success.
-We now have the lowest unemployment ever at 3.1% and a record number of Arkansans
-working.
-We have signed 556 incentive agreements that created 25,000 jobs.
-81,000 more people are employed now than when I took office in 2015.
-On my first day in office, I called the CEOs of six companies. One of those companies was Sig
-Sauer.
-A year later, they opened a facility in Jacksonville employing Arkansans and continue to grow.
-The long list of companies that have expanded or moved to Arkansas represents billions of
-dollars of investment.
-This is a sampling of the companies that have moved here or expanded
-- Cynergy Cargo in Crossett.
-- Nestle in Jonesboro.
-- Aerojet Rocketdyne in Camden
-- Trex in Little Rock.
-- EnviroTech in Helena-West Helena.
-- Vexus Boats in Flippin.
-2
-- Canoo in Bentonville.
-- Resolute Forest Products in El Dorado and Glenwood.
-- West Rock Coffee in Conway.
-- Riceland in Stuttgart.
-- Mars Petcare in Fort Smith.
-- Drax in Russellville,
-- Tractor Supply in Maumelle
-Last week we broke ground on the largest economic development project in state history. The
-U.S. Steel announcement on the construction of a new steel mill in Osceola. This is another
-calling card for our state.
-It means:
-- A $3 billion investment with more than 900 new high-paying jobs;
-- Mississippi County will be the Number 1 steel-producing county in the nation.
-- And this would not have been possible without the support of the General Assembly in passing
-legislation necessary to win the project. Thank you.
-But there is more. In Arkansas, we support our military bases and their missions. That is why we
-worked so hard to bring in the F-35 pilot training mission to Ebbing Air National Guard Base in
-Fort Smith. This will be an economic boon for Western Arkansas for decades to come.
-But another reason that we have been successful in job creation is that we made it a priority to
-cut taxes.
-When I came into office I promised to cut middle-income taxes by $100 million. People said it
-couldn’t be done. Well, we did it in the first year. Then we went on to provide tax relief to every
-Arkansan. We have lowered the individual income tax rate from 7.0% when I was elected to
-5.5% this year. And there is more to come.
-3
-These reductions return money from the government coffers to the hard-working Arkansans who
-need this money to pay for the increasing costs of providing for their family. They need fuel to
-get to work each day and tax cuts allow them to have more money in their pocket to invest or
-spend on the necessities of life.
-The cumulative total of these annual income tax reductions over the past seven years exceeds $1
-billion.
-We did this while also giving teachers raises, increasing funding for education, and creating a
-record $1.2 billion reserve fund.
-In addition, we saw the need for improved roads and highways in Arkansas, so we met the
-challenge by doing the heavy lifting of passing the largest highway funding plan in history.
-We saw the need of our foster children and we gave them HOPE.
-We wanted a more efficient and responsive state government, so we transformed it from 42
-departments down to 15. We have reduced the number of state employees by over 2,000 since
-2015.
-We navigated our way through a pandemic and we kept our schools open because we knew our
-children needed to be in the classroom. I knew in Arkansas every business was essential, so we
-never sheltered in place or stopped producing.
-These businesses are not only essential for our families but also for the world. We produce and
-the world depends upon us.
-In the spirit of comity and friendship, the General Assembly and the Executive Branch came to
-an agreement on most issues during the last two years; and when we disagreed, well we just
-disagreed. But that did not stop the goodwill or our ability to work together.
-Now, let me pause and recognize 3 representatives of public servants who have sacrificed and
-endured extraordinary hardship to get us through this pandemic.
-Let me introduce Juanita Ellison. Juanita was a senior in high school in Camden when she
-decided she wanted to teach school. She earned a degree at Southern Arkansas University. She
-4
-taught at Camden Public Schools and then moved to Jacksonville where she teaches K-5 special
-education.
-Juanita Ellison is a dedicated teacher and she represents all of our teachers who have gone the
-extra mile to help our students.
-Please join me in recognizing Juanita Ellison and saying thanks to our teachers across Arkansas.
-Next, I want to introduce Emily McGee who is a critical care nurse in the ICU unit of St.
-Bernard Regional Medical Center in Jonesboro. Emily was the director of critical care and
-oversaw the expansion of critical care at the hospital during the pandemic.
-Emily represents our health care professionals who we all celebrate as heroes during the last two
-years. They serve us every day. Let’s express our thanks and God bless you.
-Our third and last special guest is Trooper Zenda Staab of the Arkansas State Police. Zenda was
-an Assistant Basketball Coach before she joined the State Police. She is also an MP in the
-Arkansas National Guard.
-Without going into all the details Zenda took heroic actions in 3 separate incidences in order to
-save lives. In one instance, Zenda initiated the pursuit of a stolen car. When the suspect crossed
-over to drive against traffic on a four-lane highway, she executed a U-turn and stopped him
-head-on with her cruiser. The suspect was traveling 70 mph. Before the stolen car stopped
-spinning, she was out of her seatbelt, out of the car, and drawing her weapon. The actions of
-Trooper Staab, at great risk to her own safety, kept the public safe and saved lives.
-Please recognize Trooper Staab. She represents all those in law enforcement that risk their lives
-every day for our safety and to enforce the rule of law.
-Thank you to Juanita, Emily and Zenda for your service.
-Before we move into the future, let’s spend a moment reflecting on history. In 1956, the
-Eisenhower administration laid out a bold plan to change the way Americans moved. The
-Interstate Highway System connected all parts of America, even previously remote states like
-Arkansas. This concept was bold at a time when many Americans traveled interstate by train.
-Investment in the interstate system helped create unprecedented growth in travel, business, and
-tourism. Without our interstates, companies like Walmart, J.B. Hunt, and FedEx may never have
-5
-grown into the business titans they are today. President Eisenhower wisely saw where the future
-of mobility was heading, and his vision made America a leader in that future.
-Now, let’s talk about our own future. You have supported our students by giving them
-opportunities in computer science education that make Arkansas a national leader. Tens of
-thousands of more students have an opportunity to choose a path that will make a difference in
-shaping the world and will provide them with a high-paying job.
-But now, Arkansas is in a unique position to lead in future technologies that will change our
-world.
-Today, I am challenging Arkansas to lead in this world of innovation by focusing on the future of
-advanced mobility. This focus includes autonomous vehicles, upward mobility platforms, electric
-vehicles, and modes of transportation that do not exist today but could be the dream of an
-Arkansas student right now.
-Why Arkansas?
-We have always led in transportation from entrepreneurs like J.B. Hunt who started hauling rice
-hulls from Stuttgart to NWA; and Sheridan Garrison who started Arkansas Freightways that is
-now FedEx Freight; and also Steve Williams of Maverick Transportation.
-We all know that the success of our transportation industry is critical to the economic future of
-Arkansas. And to position our state for the future we must act today because the future of supply
-chain deliveries will be different tomorrow from the trucks on our road today. So, let’s keep
-leading.
-This past year between the Delta variant surge and Omicron, I was able to make an economic
-development trip to Israel. I spoke at the Prime Minister’s Mobility Summit. I was preceded on
-the stage by the Israeli Transportation Minister who announced that they hope to get a bill
-through the Knesset to allow the piloting of autonomous vehicles.
-Well, I was the next speaker following the Minister and I announced that Arkansas passed a law
-in 2019 (2 years ago) that allowed the piloting of autonomous vehicles. Further, the pilot
-program was successful, and we are now using fully automated vehicles delivering goods from
-the warehouse to the retail store. It was a proud moment for Arkansas. But to accomplish this, it
-6
-took the work of the General Assembly, the Arkansas Department of Transportation, and the
-leadership of the private sector. In this case, Walmart and Gatik.
-We have also recruited the headquarters of an electric vehicle manufacturing company, Canoo;
-and in south Arkansas, Standard Lithium is piloting the production of a critical element in the
-supply chain for electric vehicles. In eastern Arkansas, we produce the steel that is required for
-the battery casing in electric vehicles. So, we are in a good position to shape the future from
-Arkansas.
-In order for us to lead, we need to have electric charging stations across the state. Arkansas is
-scheduled to receive $54 million over the next 5 years from the federal government for electric
-charging station infrastructure. Quite frankly, this needs to be accelerated. Oklahoma already has
-it in place and we may need to devote state dollars to get it done more quickly.
-As governor, I won’t be here for the end of the story but together we can write the first chapter.
-Today, I am announcing the creation of the Arkansas Council on Future Mobility. The Advisory
-Council will be charged with identifying state laws and regulations that create a barrier to the
-development and enhancement of electrification, autonomous vehicles, drone delivery, and
-advanced air mobility in Arkansas. It will examine workforce training, accessing federal funding,
-and will make recommendations before the next general session of the legislature.
-In the future, you will have choices to make. You will have the opportunity to remove regulatory
-burdens and to pass legislation to advance new modes of transportation that will keep Arkansas
-in the lead. I encourage you to build on the private sector success we have in Arkansas and allow
-innovation and new technologies to bolster our future. The businesses that drive these
-innovations in mobility will be leaders in the future economy. I want these companies to find a
-home in Arkansas and for our state to be a leader in future mobility.
-Of course, the reason we are here is the Fiscal Session of the General Assembly. So, let me
-discuss the budget that has been presented.
-The budget before you includes increased funding for education, health care and public safety. It
-includes stable funding for the victims of crime through the Crime Victims Reparations program.
-It provides funding for child abduction response teams and for 2 new drug courts. And even with
-those spending priorities, we will continue to have a healthy surplus.
-7
-Most importantly, this session will be remembered for our support of law enforcement.
-Because of your advocacy and hard work, I am able to announce support for the $5,000 one-time
-payment to every county and city-certified law enforcement officer. This will be one-time
-payment from our surplus effective June 30 when the fiscal year ends. It is designed to reward
-and incentivize those dedicated officers who keep our streets safe and our homes protected. The
-total costs of this initiative in support of law enforcement will be approximately $45 million.
-Next, you passed Act 786 of 2021 to create the Public Safety Equipment Grant Program. This
-was one of the recommendations of the Task Force on the Advancement of Law Enforcement
-that I convened after the murder of George Floyd and the subsequent nationwide protests. The
-Task Force wanted to increase trust between police and our communities and to improve the
-training, equipment and pay for our law enforcement officers.
-The grant program has received applications for funding to purchase everything from body
-cameras to bulletproof vests. We have about $5 million in equipment requests from cities and
-counties but we don’t have $5 million to cover those grant requests. I recommend $10 million of
-one-time funding from our June 30 surplus to adequately fund the $5 million in applications and
-another $5m for new requests.
-Currently, our law enforcement is underfunded, underpaid, and underappreciated. The actions of
-this General Assembly to fund more, pay more, and to appreciate more will send the
-unmistakable message that in Arkansas…..we support and value our law enforcement partners.
-As part of this effort, our budget will significantly increase the pay of our state troopers. Col. Bill
-Bryant has been a star in leading the State Police and the troopers are deserving of a more
-competitive salary. The troopers not only patrol the highways but their SWAT units are regularly
-deployed in crisis situations across the state. They back up local law enforcement in the response
-and investigation of violent crime. I am very proud of their dedication and professionalism. So,
-while some across the country advocate for reducing police funding, we are doing the opposite.
-We are increasing support and affirming that the first duty of government is public safety.
-I also challenge our counties and cities to step up to the plate and do more. Police funding must
-be a priority at every level.
-8
-Currently, we have a record back up of state prisoners in our county jails. This limits the counties
-and cities in their capacity to enforce local laws. This backlog must be remedied and for that
-reason, I recommend another one-time investment from our surplus to fund a new 498 inmate
-prison facility.
-Let me emphasize that this need for a new facility is not a reflection of a change in incarceration
-policy. It is simply the fact that we have a growing state. We are growing in projections of 1.4%
-percent.
-My finance team led by Secretary Larry Walther conservatively estimates that we will have a
-$500 million surplus on June 30. We have sufficient room to address these urgent public safety
-needs.
-And, yes, if this surplus continues to grow then there will be an opportunity next year to return
-part of the growing surplus to the taxpayers.
-As to the state of our state, I am grateful to say that Arkansas is leading. We are leading in
-computer science education; technology innovation; agriculture; tourism; job creation; and
-support for veterans and law enforcement. Sure, we have more to do but our state is blessed.
-And our nation is blessed as well. I think back in my lifetime and I can recall the division and
-protests of the Viet Nam War; the turmoil of Watergate; the assassinations of Presidents and civil
-rights leaders; and the bitter political fights in Washington. If you simply concentrated on those
-tragic moments in our history then you might be discouraged about America. But I also
-remember and lived through the Berlin airlift; the Cuban Missile Crisis when our leaders stood
-tall against a Soviet threat; I witnessed Neil Armstrong land on the moon to win the space race
-and I saw the fall of the Berlin wall. I observed from a very personal standpoint how we all came
-together as a nation after the 9-11 attack.
-These moments in history remind us that leaders make a difference and that we can do more, and
-earn the respect of the world when we are united and when we are following the better angels of
-the American spirit.
-Leaders can appeal to the instincts of fear or they can lead with hope. In today’s world and, yes,
-in Arkansas, let’s join together to bring out the best of our fellow citizens. I have never been
-9
-more hopeful and optimistic about the future of our state. Let’s work with courage to unite,
-inspire and lead with hope.
-Thank you. May God bless the state of Arkansas and give us the courage to keep America
-strong, united, and free.</t>
   </si>
   <si>
     <t>CA</t>
@@ -1875,6 +1392,8905 @@
 Thank you, may God bless you, and may God continue to bless the great state of Georgia!
 </t>
   </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Good morning and aloha.
+Before I begin —
+In normal times we would gather together in the House Chambers for the State of the
+State address.
+We would have family, friends, former Governors, and community leaders here, and have opportunities to acknowledge and thank the many people who have helped us along the way.
+Because of the pandemic, they cannot be here in person.
+But I wanted to take a moment to express my appreciation for their partnership during this crisis.
+All of them answered the call to serve the people of Hawaiʻi:
+Speaker Scott Saiki, Chair Syliva Luke and all the members of the House;
+Senate President Ron Kouchi, Chair Donovan Dela Cruz and all the members of the Senate;
+First Lady Dawn Amano Ige, Lt. Governor Josh Green, Dr. Libby Char and all the members of my cabinet; and
+Mayors Rick Blangiardi, Mitch Roth, Mike Victorino and Derek Kawakami, and former Mayors Kirk Caldwell and Harry Kim.
+I also want to thank the business community: the visitor industry, including hotels,
+airlines and attractions; the Hawaiʻi Restaurant Association; the Business Roundtable
+and the chambers of commerce; and
+Our nonprofit partners who delivered help and services to support so many in need.
+And there are so many others, too many to name.
+Please know that all of your efforts are very much appreciated.
+We’ve endured tremendous hardship over the last two years —
+Throughout the pandemic, we’ve sacrificed, delayed, or canceled so many of life’s cherished milestones: weddings and graduations; first birthdays and holiday gatherings.
+We’ve had to face shutdowns, restrictions of all kinds, and two variants that have changed how we deal with the coronavirus.
+And the fight is far from over.
+But I’m proud of the way that we, as a community, have responded to the pandemic.
+Our nurses, doctors and healthcare professionals have worked endless shifts to provide quality care and keep our families healthy.
+Our teachers and principals have gone above and beyond to make sure students have the opportunity to learn despite the many challenges.
+Our public employees on both the county and state levels have worked together to ensure that we keep everyone safe.
+And you have done what you’ve had to do to protect all of us—by getting vaccinated and conducting your daily lives responsibly.
+This pandemic is re-defining us as a generation—in the same way that the Great Depression, Pearl Harbor and the Vietnam War shaped their generations.
+Events and history have a way of repeatedly testing us.
+Each generation must find its own strengths, its own answers, and its own path forward.
+In many instances, we’ve had to choose between what is best for ourselves as individuals and what is best for us as a community.
+As a state, we’ve never been one to take the easy path.
+Instead, we choose to do the right things for the right reasons.
+Last week, we celebrated Martin Luther King day.  He said, “The time is always right to do what’s right.”
+In Hawai’i, we have a name for this: pono or righteousness.
+An idea so important that it’s imprinted on our state seal.
+Ua Mau ke Ea o ka ‘Āina i ka Pono.
+The life of the land is perpetuated in righteousness.
+We have much to do in this session.
+I have three goals this year:  To continue to steer us through the pandemic, to strengthen our families and communities, and to move toward full economic recovery.
+With your help, I know we can accomplish all three.
+Protecting our Health
+I believe everything begins with keeping us healthy and safe.
+Over the last seven years, we focused on modernizing our telehealth infrastructure, providing health services to underserved populations, and strengthening mental health services.
+In response to the pandemic, we moved quickly to:
+Take immediate action to protect our health,
+Provide healthcare for another 110,000 residents under our Medicaid program (a 34-percent increase since the start of the pandemic), and
+Make sure that everyone had good healthcare coverage.
+At the same time, we distributed critical medical supplies, including PPEs, test kits, vaccines and medicines to protect the elderly, rural communities, as well as the entire state.
+I deeply appreciate the thousands involved in this task, whose scale and complexity rivals anything we’ve ever done statewide.
+Vaccinations have proven to be our strongest weapon against the Coronavirus.
+In all, we’ve provided more than two and a half million shots at hundreds of clinics across the state.
+Needless to say, this effort remains ongoing.
+But the virus has been relentless in exposing gaps in our healthcare infrastructure, including critical shortages of doctors and nurses.
+To address these concerns, we’re asking the Legislature to fund the expansion of the University of Hawai’i’s doctor residency program.
+In this way, we can increase the number of doctors doing their residency on the neighbor islands from only five to 50.
+More importantly, the numbers tell us that most young doctors end up practicing where they do their residency.
+We’re also asking for funding to strengthen the university’s nursing program and add more clinical instructors at our community colleges.
+We want to add 39 lecturers across multiple campuses to handle the increased demand for nursing programs.
+In addition, a new $3.7 million, federally funded project will improve access to health information, especially for underserved communities.
+The project will train and employ high school and undergraduate students to be health and digital “navigators” in 50 libraries across the state.
+These navigators will help individuals access telehealth services and find information on the coronavirus and other health topics.
+Covid outbreaks at Oʻahu Community Correctional Center made it clear that we also need to strengthen the medical facilities in our prisons to protect the health of our inmates, staff and the general public.
+Our plans to relocate OCCC to Halawa will create a modern facility better suited to support the behavioral, mental health and medical needs of its population.
+In our current budget request, we’ve also asked the Legislature for $45 million to build a consolidated healthcare unit at Halawa that will allow us to better deliver medical and health services there.
+Clearly, the coronavirus has shown us how persistent and adaptive it can be, as we’ve seen with the Delta and Omicron variants.
+Even as we learn how to better protect ourselves, we need to remain vigilant.
+Strengthen Community
+While we work to maintain our health, we must also strengthen our communities.
+To do that, we must first help our struggling families—to malama pono, make things right for them.
+It means making sure they can secure the very basics of food, shelter, and jobs.
+That’s why our Department of Human Services developed online applications for SNAP benefits (formerly Food Stamps) and added 32,000 additional families during the pandemic.
+As many faced job losses, we provided $6.6 billion in unemployment benefits, allowing those who are out-of-work to continue to receive essential income for their families.
+The pandemic also caused many workers to lose long-held jobs and pursue new career paths.
+To help them, the Department of Labor is rolling out the Hawai’i Career Acceleration Navigator, with its one-stop, online hub to help unemployed workers with new career and training opportunities.
+The pandemic also highlighted the need for childcare for working families and how it is essential for many to continue to hold jobs.
+To help them, the state’s Child Care Program Office is distributing nearly $80 million to support access to childcare and provide much needed relief for young families.
+These funds will support childcare businesses weathering the challenges of the pandemic, and can be used for personnel costs, training, rent, mortgage, utilities, supplies, and equipment related to COVID-19.
+To assist renters and homeowners, we provided $260 million in emergency rent and mortgage assistance to ensure that no family would be evicted because of the pandemic.
+Meanwhile, the Hawaiian Homes Commission postponed mortgage payments and provided its beneficiaries with rent and utility assistance.
+The state is also working closely with the counties to increase the number of affordable rentals on all islands.
+These projects include rentals in Moiliili, Downtown and Chinatown on Oahu and more than a thousand affordable rentals units across the neighbor islands since we took office.
+Two years ago, the Legislature created Ohana Zones.
+Working with the counties, we opened 20 sites across all islands that provide a wide range of services for individuals and families.
+These projects have assisted over 5,500 homeless individuals statewide, with more than 1,300 placed directly into permanent housing.
+By increasing funding for the homeless by 68 percent since taking office, we’ve assisted more individuals to, not only find temporary shelter, but lift them out of the vicious cycle of homelessness.
+And our proposed infrastructural development in West Oahu will allow us to greatly increase our inventory of affordable homes, including those for teachers.
+But the biggest factor affecting home ownership in Hawai’i is supply.
+That’s why we set out to build 10,000 new homes by 2020—and we did it!
+We also expect to build another 3,000 homes by the end of this year.
+We can strengthen our communities in another way too.
+Given the recent revenue projections, we’re asking the Legislature to return some of those dollars back to taxpayers.
+We want to issue refund checks of $100 for every taxpayer and for each dependent.
+For a family of four that means an extra $400.
+In this way, we’ll also inject $110 million back into our economy, giving it a boost as well.
+EDUCATION
+No community can be strong without taking care of their keiki—our future.
+Empowering our schools and enriching Hawaiʻi’s community of lifelong learners have always been among our top priorities.
+That’s why I’ve asked legislators to restore funds taken away from our schools during the pandemic—for programs so important to our children’s learning and for the upkeep of their classrooms.
+This includes funds to take care of those who teach our students and to support the development of new teachers, especially in areas with chronic shortages such as Hawaiian immersion and special needs.
+That’s also why safely reopening schools was one of our top priorities after the pandemic hit.
+We knew that children learned best when they are physically in the classroom.
+But that wasn’t possible during the early days of the shutdown.
+Our schools and teachers had to literally reinvent education—overnight.
+Virtual classrooms became a necessity, but we also learned that they could supplement in-person classes and provide opportunities that would not otherwise be available.
+That’s why we’re supporting the expansion of virtual classrooms and the Hawai’i Virtual Learning Network.
+If a school on Moloka’i can’t provide a class on physics, why should a student there be denied the opportunity to learn?
+We’ve long talked about distance learning—but more as an alternative to the traditional classroom.
+The pandemic made us realize that we could use virtual classrooms to ensure that every student has every opportunity to learn no matter where they live.
+Using the federal Governors’ Emergency Education Relief fund, we’re also empowering
+schools and teachers to innovate and create projects to recover learning lost due to the
+pandemic.
+We dedicated $5 million for UH to launch a Hawai’i Online Portal for Education, which is
+developing curriculum for distance learning and additional training for teachers.
+The projects include everything from STEM education to agriculture.
+One of these projects is Ka’u Dream, a place-based, community-focused education
+initiative on Hawaiʻi island.
+Educators and the community have worked together to align the curriculum to career
+and business opportunities in Ka’u.
+They created enhanced learning activities that will engage and inspire students beyond
+graduation.
+This community-led initiative is a model for building thriving communities across the state.
+And it’s time to retool our underutilized community resources.
+For generations, our public libraries, like the one in Pearl City, have been quietly supporting our students and communities.
+We want to “reimagine” how we use those facilities.
+We want Pearl City to be the role model for other libraries across the state—a place where groups can meet and exchange ideas.
+We want them to house early learning centers, as well as gathering places for our kupuna.
+And we want to equip them with the latest technologies, where the community can learn, create, and enrich their lives.
+“Reimagine,” if you will, Pearl City Library, becoming a beehive of activity as a community-based learning center.
+There have been a lot of things we’ve had to postpone because of the pandemic.
+One of the most important was our proposal to create a universal preschool system in Hawai’i.
+We can’t leave it there.
+Research tells us that early learning is crucial in preparing our children for school and life in general.
+We will continue to nurture our early learners through our community-based centers.
+But let’s work together to take the next step to provide preschools for every child in Hawai’i.
+Economic Recovery
+The real balancing act during the pandemic has been between the economy and our health.
+The fact is that keeping us safe—and making Hawai’i a safe place to visit—is an essential step to restoring our visitor industry, reviving our small businesses, and re-energizing our economy.
+We ordered a mandatory quarantine for all trans-pacific travelers to slow the spread of
+COVID-19 in Hawaiʻi.
+And our Safe Travels Program for pre-travel testing and vaccine verification remains the only program of its kind in the country.
+At the same time, we worked hard to keep insurance rates down for small businesses, even as unemployment ballooned.
+And as the economy recovers, we’ll continue to make sure that our small businesses are brought along with the rising tide, through programs that:
+Expand our locally produced goods and services,
+Support business innovations,
+Back local manufacturers, and
+Fund low-interest, small business loans.
+With federal funds, the state is also helping small businesses through digital marketing and e-commerce initiatives, assisting more than 500 companies with training and virtual marketing events.
+Hawai’i also became one of the safest locations to film during the pandemic, as our film office worked with producers and unions to create a plan with strict covid protocols to resume filming here.
+People all over the world can now watch NCIS Hawai’i, as well as Magnum P.I.
+We also know that keeping up is not good enough to be competitive.
+We must stay ahead of the game.
+That’s why we’re proposing to:
+Fortify the Hawai’i Tourism Authority and the Hawai’i Convention Center,
+Support Hawai’i Small Business Innovation Research projects, and
+Provide fuel for our business accelerator programs and manufacturing assistance grants.
+We’ll also launch a $56-million State Small Business Credit Initiative to provide capital for local start-up tech companies.
+One of government’s primary roles is to provide a strong and reliable infrastructure to support economic growth.
+Our visitor industry cannot exist without reliable airports.
+Our stores cannot operate without efficient roads and harbors to transport goods and services.
+During an economic downturn, public works projects not only build critical infrastructure, they also provide a shot in the arm to businesses, labor and the economy.
+For the last two years, Hawai’i’s construction industry has led the state’s economic recovery, thanks in large part to our investment in public infrastructure.
+Those investments help stabilize the local construction industry and, with a record bond sale of $1.88 billion, this trend will continue.
+In addition, an estimated $2.8 billion from the federal infrastructure law is expected to further boost the development of transportation, clean energy, and our internet capacity.
+And government too needs to upgrade and reinvent itself.
+That is one of the most important tasks we’ve been doing over the last seven years:
+Modernizing government operations across all agencies,
+Transitioning from antiquated paper-based systems to computerized ones,
+Modernizing our tax and payroll system, and
+Transforming walk-in services to convenient virtual centers.
+And we’re asking the Legislature to help us make government more efficient by replacing a statewide accounting system that hasn’t been updated in the last 50 years.
+Whether it’s filing tax returns or seeking a birth certificate, our goal has centered around creating greater efficiency, a larger return on taxpayers’ dollars, and better service to the public.
+PROTECTING THE ‘Ā I N A
+We cannot be a strong state without protecting the resources upon which we depend.
+That is also a part of being pono and making things right.
+At the heart of these resources is the environment.
+In Hawai’i, we’re no strangers to the need to protect these islands.
+There’s a reverence for the ʻāina that goes beyond issues of sustainability.
+That’s why we’ve always been so protective of the environment.
+As an island community, we see the impacts of climate change and global warming more intensely.
+In 2015, three category-4 hurricanes approached Hawai’i for the first time in recorded history.
+In 2018, torrential rain in Hanalei dropped more than 49 inches in 24 hours, setting a new U.S. record.
+Last year, the worst drought in decades on Maui County drove thousands of invasive axis deer into Kahului.
+And severe drought on Hawai’i Island fueled the Mana Road wildfire, among the largest ever.
+We know that the climate crisis is real.
+But by working together, Hawai’i has become a world leader in actions to fight the climate crisis.
+Hawai’i was the first state to set a goal of 100-percent renewable energy by 2045, with 12 other states following our lead.
+Hawai’i was also the first state to commit, by law, to the goals of the Paris Agreement.
+Still—experiencing first-hand the severe impacts of climate change—we know that net-zero carbon emission is not good enough.
+That’s why Hawai’i became the first state to commit to a net-negative goal by 2045 to capture more carbon than we produce.
+We’ll do that by protecting our oceans, expanding our native forests and supporting sustainable agriculture.
+Again, my thanks to our legislators for making all of this happen.
+But we need to continue this good work:
+We need to:
+Retire Hawai’i’s last coal plant,
+Establish a rebate for working families to buy electric cars,
+Expand the State-To-Farm program to support local farmers, and
+Move forward with the Royal Kunia Agricultural Park to encourage food self-sufficiency
+Creating a more sustainable lifestyle is all part of being good stewards of these islands.
+So is protecting them from harm.
+The recent events at the Navy’s Red Hill facility alarmed and shocked everyone.
+We’ve met with Navy leaders and let them know that their first job is to ensure that our drinking water stays safe and clean.
+Draining the fuel tanks at Red Hill is a good first step.
+But we must work to find long-term solutions.
+National security cannot come at the expense of our people’s health.
+I believe we can protect both national security and public health.
+But it will take determination and the collaborative efforts of everyone.
+BUDGET
+In the first year of the pandemic, we were forced to cut over a billion dollars from the budget, with every state agency scrambling to find new ways to continue to provide essential services to our residents.
+More than that, we faced the prospect that it would take the economy decades to recover.
+Describing our financial prospects back then as bleak would be an understatement.
+But we took the hard and necessary steps to address the very thing that threatened the life of our economy: the pandemic.
+Many wanted us to immediately fix the symptom of the problem, the devastated economy.
+But we needed to balance that with putting people’s health first.
+As painful as it was, it was the right remedy for the long term—to make things pono.
+When things seemed to get better, we tempered our optimism.
+And we continue to do so—with economic, as well as health issues.
+As you heard last month, we now expect a positive balance in our budget of more than a billion dollars.
+Tax collections have jumped by an astounding 27.3 percent over last year’s totals—that’s a direct reflection of the rebound in visitor arrivals, increased consumer spending, and the growing strength of our local businesses.
+We have a chance to restore painful cuts that have been made over the last two years, to repay outstanding loans, and to replenish various state funds, including:
+Loans to the Unemployment Trust Fund,
+The state’s depleted “Rainy Day” fund, and
+Cuts from our schools and state agencies that provide essential services to our people.
+In other words, we have a chance to safeguard our future and our children’s future.
+When we face another catastrophic emergency, will we be prepared to deal with it?
+For the first time in a long time, we have the resources to take care of both our immediate and long-term needs.
+We can rebuild the solid fiscal foundation that we created before the pandemic.
+We also have a chance to pursue new initiatives, including the development of an all-inclusive broadband infrastructure.
+If the pandemic has taught us anything, it’s about the crucial role that the internet plays in all of our lives.
+That’s why we’re leveraging state resources to maximize federal funding for Broadband and proposing the largest investment in technology in state history—a total of more than $400 million.
+We’re calling it Apakau Ka La, “spreading of the sun’s rays.”
+It is critical infrastructure for the future connecting all of the main Hawaiian Islands.
+This initiative will not only close the digital divide between the haves and the have-nots, it will strengthen us as a community.
+We also recently launched the Affordable Connectivity Program, which extends federal emergency broadband benefits to those who would not otherwise be able to afford internet service.
+It’s estimated that more than 100,000 Hawai’i families will be able to qualify for internet service under this program.
+More than that, we have a chance to lift every business and every family with this incoming tide—to take everyone with us, whether we’re talking about business growth, career opportunities, healthcare, housing or education.
+In spite of the strengthening economy, there are still many businesses on the brink of failure and many families who are struggling to make ends meet.
+We cannot leave them behind. As a community, it’s not in our nature to leave them behind.
+The tide is rising, and it should lift all of us.
+CONCLUSION
+Hawai’i is unique—our geography, our people and our history.
+As the only island-state in the nation and as an amazing multicultural community, we celebrate our diversity.
+This distinction is at the heart of how we govern. There’s no One-Size-Fits-All way of governing.
+That’s why we’re a government “of the people, by the people and for the people.”
+That’s not just a cliché, but a recognition that our government should reflect and respond to that diversity.
+This is also what has directed and shaped my decisions.
+It’s also been one of my greatest challenges.
+There’s a popular local saying: “Keep the country country.”
+In an era that is propelling us through unprecedented changes and challenges, how do you keep Hawai’i, Hawai’i?
+How do you sustain and nurture what makes us, us?
+How do you do that, even as we must change to meet the times?
+How do you make things pono?
+Like our response to the pandemic, there is no easy answer.
+But I believe it lies somewhere deep within all of us who call Hawai’i home.
+It lies in our willingness to share—to give, even when we have very little to give.
+It is tucked deep within our desire to lift and lighten the burden of others.
+It’s our deep-seated belief that we’re part of a greater ʻohana and that we have a responsibility to our community.
+We are all connected.
+It’s taken generations, stretching back to those pathfinding sea-voyagers, to create this amazing and wonderful sense of community.
+There are some who fear we’re in danger of losing it through the many changes that we’ve endured.
+I am not one of them.
+From my vantage point, I see a Hawai’i that remains strong and true to itself.
+I see families come together, even when they cannot not physically get together.
+I see a generation reaching down to take hold of a younger one, and the young reaching up for guidance from their kupuna—something we’ve always done here in the islands.
+I see a Hawai’i that has been tested and tested over, and over again during this pandemic.
+We may have bent, but we did not break.
+I believe in Hawai’i, in its people and in its purpose.
+When we work together, we can do great things—things like those I’ve talked about today, to:
+Help all who are struggling to make ends meet, whether it’s $100 or $400;
+Provide childcare for working parents and preschools for every child in Hawai’i; and
+Create a broadband network that includes everyone in every community.
+I am proud of the work that we do. And I am proud…. proud to be your governor.
+For all that you do and all that you are, my thanks and deeply felt aloha.
+Mahalo.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Mr. Speaker, Mr. Pro Tem, Madam President, honored legislators, my fellow
+constitutional officers, Mr. Chief Justice and members of the judiciary, my family, friends, and
+my fellow Idahoans.
+It’s good to deliver this speech back in the chambers. Last year I closed my State of the
+State address by saying, “In times of hardship, opportunity for growth emerges.”
+There’s no doubt the past couple of years have presented incredible challenges. Our
+frontline workers in healthcare, public safety, and education in particular have done an
+exceptional job.
+Today, we have a few of these pandemic heroes here with us. They are nurses, doctors,
+police officers, guardsmen, and teachers. I would like to invite them to please stand up. Please,
+everyone, join me in recognizing them and their colleagues and thanking them for their service to
+our great state.
+My friends, I stand before you today with great optimism and excitement about the oncein-a-lifetime opportunity before us.
+Idaho’s economy is stronger than ever before.
+We’re one of only four states with more jobs today than before the pandemic.
+Idahoans are working. We have one of the lowest unemployment rates in the country.
+Our budget is balanced.
+We have robust reserves.
+Idaho businesses and citizens benefit from living and working in the least regulated state
+in the nation.
+Page 2 of 9
+We’ve turned more money back to the citizens through historic tax relief and strategic
+investments in the areas that impact their daily lives.
+And for the second year in a row, we have yet another record budget surplus.
+My friends, our success is no accident.
+While other states liquidated their rainy-day funds and begged politicians in Washington,
+D.C. for a bailout, together we rolled up our sleeves, made tough decisions, and led Idaho.
+In Idaho, we manage government the same way families manage a household budget. It is
+basic “kitchen table economics.” It means facing tradeoffs head on, choosing to live within our
+means, saving for hard times, cutting waste, and stretching our dollars further.
+While D.C. is digging the country into a $29 trillion hole, Idaho has a record surplus of
+$1.9 billion and counting.
+While D.C. continues to crank out onerous new regulations, we took an axe to Idaho’s
+regulations for three straight years, and we continue to widen our lead as the least regulated state
+in the nation. In fact, since I took office three years ago, we have cut or simplified 95-percent of
+Idaho regulations. And now, through our Zero-Based Regulation initiative, this year we aim to
+cut or simplify another 20-percent of what remains, removing rocks from the shoes of small
+businesses.
+While D.C. wants to raise taxes on all citizens as Bidenflation surges, Idaho has put more
+money back into the people’s pockets. Last year, together we cut income taxes and returned $450
+million to all Idaho citizens and businesses.
+It was called the biggest tax cut in state history, but I call it a good start.
+While President Biden divides Americans in his attempts to elevate the role of
+government in citizens’ lives, coercing Americans with government-imposed vaccine mandates,
+Idaho says, “No.”
+Our lawsuits challenging Biden’s polarizing vaccine mandates are working.
+I banned divisive “vaccine passports.”
+I never mandated masks or vaccines.
+We responded to a crisis with a balanced approach and kept Idaho open.
+And, while President Biden continues to dismiss the catastrophe at the U.S.-Mexico
+border, Idaho is banding together with other states to act.
+Page 3 of 9
+I traveled to the border last summer, where I saw for myself how Mexico drug cartels
+control access into our country! All because of President Biden’s flawed border policies. This is
+completely unacceptable. Biden’s inaction has spawned a growing drug threat in our state. The
+vast majority of illicit drugs in Idaho are now sourced in Mexico.
+Idaho families deserve better.
+Last summer, I sent a specialized team of Idaho State Troopers to Arizona to help fight
+the drug flow into our country and our state. We sent our best to protect Americans and Idahoans
+from the drug cartels, and those troopers returned with new knowledge and training to help law
+enforcement here at home fight the drugs that have devastated so many lives.
+We have some of those troopers here with us today. Gentlemen, please stand so we can
+recognize you.
+And now, I am asking for your support to deploy “Operation Esto Perpetua.” I will have
+more to share in the coming weeks, but “Operation Esto Perpetua” will bring together law
+enforcement and communities in new ways.
+We will continue to fight the consequences of our loose border and curb the smuggling of
+killer drugs such as fentanyl into our state from Mexico.
+Folks, we have been able to set the example of accountable, responsible government here
+in Idaho. My family and Teresa’s have been in Idaho for generations. We want nothing more
+than for our grandchildren to stay settled in Idaho and enjoy their grandchildren here too.
+Teresa and I want the same for your grandchildren, too.
+By now, you know my goal – for Idaho to be the place where we all can have the
+opportunity to thrive, where our children and grandchildren choose to stay, and for the ones who
+have left to choose to return.
+Think about someone you know who demonstrated true leadership. For me, my father,
+David Little, Teresa’s father, Phil Soulen, and an old friend, Louise Shadduck, come to mind.
+Here’s what I’ve learned from them.
+Leaders give people confidence and show the way through humble strength.
+Leaders go through life with a spirit of service.
+Leaders listen.
+The voice of a leader is effective, not just loud.
+Page 4 of 9
+Every day I endeavor to live up to the example of my mentors. That is what the people of
+Idaho deserve from their Governor, and it is what they deserve from all those elected to public
+office.
+I have a plan for Idaho – a path to give back our record budget surplus to Idahoans
+through continued tax relief and strategic investments where they make the biggest difference in
+their daily lives.
+My plan is called LEADING IDAHO.
+My plan is rooted in a longstanding conservative principle – fiscal discipline.
+For the first time in state history, Idaho was upgraded to a Triple-A credit rating. It is an
+achievement that will save taxpayer dollars and, importantly, reflects our dedication to
+conservative, responsible budgeting.
+Earlier today I delivered a budget that is balanced and holds the line on spending.
+My budget pays off state building debt, saving taxpayers tens of millions of dollars in
+interest payments.
+My budget also puts us on a path to pay off all known deferred maintenance needs –
+those backlogged repairs needed in our infrastructure – over the next ten years.
+And my budget bolsters our rainy-day funds to a record level, putting more than $1
+billion in the bank to guard against future downturns.
+We must be even more vigilant in perceived times of plenty to make decisions that are
+prudent and will withstand the test of time. We did not spend our way to a surplus, and budget
+surpluses must never become an excuse for wasteful spending.
+There’s no better feeling than giving back to hardworking Idahoans more of what they
+earned.
+To date, in my first term, we have cut nearly $1 billion in taxes.
+Let me repeat that.
+Together, we have given back nearly $1 billion to Idahoans through income tax relief,
+property tax relief, and relief from unemployment taxes on Idaho businesses.
+And today, I am proposing we double down on our efforts.
+I propose we return more than $1 billion in income tax relief to Idaho taxpayers over the
+next five years!
+Page 5 of 9
+And let’s not wait. Right now, Idaho families are forced to pay more for food, gas, and
+everyday goods as inflation swells under Biden’s watch. Poor handling of the economy,
+oppressive regulations, and a bloated federal budget have all contributed to inflation rates we
+have not seen in 40 years.
+With Bidenflation exploding, let’s immediately pass $600 million in income tax relief
+that we can get back into the wallets of all Idahoans this spring!
+I propose $350 million in immediate rebates and $250 million in ongoing income tax
+relief, allowing working families to keep more of what they earned and free them from the
+penalty of living with historic inflation.
+We cannot delay in deploying this investment in working families.
+We must also support Idaho’s small businesses, the backbone of our economy.
+Last year, we strengthened our unemployment insurance trust fund, making it one of the
+most solvent funds in the country. Doing so led to a $200 million tax cut for Idaho businesses.
+I propose we lock in these lower rates for the next two years, saving Idaho businesses $64
+million so they can continue creating good Idaho jobs.
+Some say we shouldn’t cut taxes, that we have to choose between cutting taxes and
+meeting important needs within our state.
+This is false.
+My budget shows we can do both.
+We can spend less than we bring in, offer tax relief, and fund the top priorities –
+education and infrastructure.
+More than 130 years ago, the founders of our state in writing the Idaho Constitution
+recognized the stability and endurance of our republican form of government depends mainly on
+“the intelligence of the people.”
+A person’s education starts in the home. Parents are in the drivers’ seat, as they should be
+and always will be in Idaho.
+The children today will become the workforce of tomorrow. They will be the engineers,
+loggers, doctors, farmers, construction workers, entrepreneurs, teachers, truckers, you name it.
+We want our Idaho students to receive a strong foundation of learning now so they can stay here
+and make our state strong for future generations.
+And Idaho schools partner with parents in the education of their children.
+Page 6 of 9
+That’s why I propose making the largest investment in Idaho education, ever.
+My budget adds $1.1 billion over the next five years to improve Idaho education.
+And it all starts with literacy.
+Today, I propose adding $47 million in ongoing funding to literacy programs – to build
+on the reading success that parents instill at home. Local school districts across Idaho, with input
+from families, will decide how best to deploy the resources.
+Literacy has been my top priority because it just makes sense. Our investments in
+education later on will have more impact if we can work with families to get more students to
+read proficiently early on.
+Adding these investments now will increase state literacy funding five-fold since I took
+office just three years ago.
+I cannot think of a more “back to basics” investment that will make a meaningful
+difference in students’ lives today and for years to come.
+The key to strong schools is parental involvement. Our system of public education in
+Idaho is locally driven, and the system works best when parents and families engage.
+Parents partner with teachers in the education of their children, and we cannot meet our
+commitment to our students without supporting the people who teach them in the classroom.
+If you’re running a business, you know you can only attract and retain dedicated, quality
+workers by paying them competitively, offering good benefits, and making them feel valued.
+Our educator workforce is no different.
+My budget invests in these partners – our teachers – which ultimately serves Idaho
+families.
+The pandemic pushed many parents toward new ways of meeting the educational needs
+of their children. Last year, we served 18,000 Idaho families and 46,000 students with grants to
+help cover educational needs outside the classroom.
+And now, to build on our success, I am proposing $50 million for the new Empowering
+Parents grants. The grants will cover things such as computers, tutoring, internet connectivity
+and other needs so students have the best chance for success.
+The Empowering Parents grants put families in control of their child’s education, as it
+should be.
+Page 7 of 9
+My Leading Idaho plan also makes other key investments to support law enforcement,
+our veterans, our valued members of the Idaho National Guard, and safe and secure elections.
+I want to add more than $60 million to address needs within the Idaho State Police. Idaho
+is a state that openly values its police officers. While others seek to “defund the police,” Idaho
+DEFENDS the police. Idaho truly is a state that “backs the blue.”
+I also propose we make the biggest investment ever in our State Veterans Homes - $75
+million – to give our veterans better quality of life and improve services for them. Our veterans
+have done so much for us, and they deserve it.
+I also want to invest in the soldiers and airmen of the Idaho National Guard. My plan
+doubles our investment in scholarships for Guardsmen, which boosts our efforts to get more
+Idahoans to sign up for the Guard. Military service has always been and always will be one of
+the most honorable ways for a person to serve their community, state, and country. We are so
+grateful to our Guardsmen and all military service members and veterans for all they have done
+and continue to do to promote freedom and peace in our country.
+We can honor the sacrifice of our military heroes by doing our part to make America as
+strong as possible – and we all know free and fair elections are the cornerstone of our
+democracy.
+We’re very fortunate to live in Idaho where our elections are free of fraud. But there is
+more we can do to elevate Idahoans’ trust in their elections.
+Last year, I established my Cybersecurity Task Force to come up with new ways to
+protect Idaho from cyber-attacks and bolster election integrity. My Leading Idaho plan
+implements recommendations from the task force.
+I am proposing $12 million to establish the new Cyber Response and Defense Fund to
+ensure the state is prepared to respond to any cyber-attack from bad actors in China, Russia, or
+elsewhere.
+I’m also pushing for proactive integrity audits to enhance transparency and confidence in
+our elections here in Idaho.
+We must make election integrity a priority, to give our citizens confidence that their vote
+matters.
+Idaho has a strong track record of giving back through tax relief and by making
+significant investments in the areas that impact Idahoans’ daily lives the most.
+Things like… clean and plentiful water for a strong agricultural sector; improved
+broadband access; increased medical capacity to support a healthy Idaho and our healthcare
+heroes; better access to outdoor recreation and improved land and fire management; and better 
+Page 8 of 9
+opportunities through investments in career technical education, colleges, workforce
+development and housing, and childcare.
+The list goes on and on. My Leading Idaho plan will continue to invest in all of these
+important areas and many others.
+Protecting Idahoans of all ages from the afflictions of mental illness and addiction led to
+the creation of the three-branch Behavioral Health Council in 2020. It was a step that is now
+helping Idaho families access the services they need when they need it most.
+Behavioral health issues affect Idaho’s corrections system, judicial system, hospitals,
+local communities, and schools.
+Today, we are joined by Krista Gneiting, the brave teacher who confronted and disarmed
+a 12-year-old girl at school last May in Rigby. Krista calmly took the gun away from a little girl
+in crisis, and then held her in her arms until police arrived.
+Krista, please stand so we can recognize you for protecting everyone in the building that
+day and for your compassion with that sixth-grade girl.
+As I know Krista can attest, there is a strong connection between safe communities and
+access to behavioral health resources for Idahoans of all ages.
+Today, I am proposing we accelerate the implementation of the Behavioral Health
+Council’s recommendations by investing $50 million to improve behavioral healthcare across
+Idaho. It is one step of many we will take to help prevent tragedy, improve lives, and make our
+communities safer.
+Another area where we are making real progress to improve safety is the time Idahoans
+spend on the road.
+Last year, together we passed the largest transportation funding package in state history.
+Our sustainable transportation funding solution added historic amounts for new infrastructure to
+improve safety and ease congestion, giving all Idahoans more precious time with their families.
+And we did it without raising taxes.
+But we cannot stop there.
+The continued prosperity of our farmers, ranchers, and the folks who work in the woods
+depends on a safe, efficient system of roads and bridges.
+We cannot continue our record economic trajectory if our logging trucks can’t get across
+old bridges or we can’t get our farm products to market.
+Page 9 of 9
+My budget invests another $200 million in ongoing funding to fully address our known
+maintenance needs locally and statewide. I also propose we invest another $200 million in onetime funding to clear out one-third of the backlog of deficient bridges.
+We have a once-in-a-lifetime opportunity to fully fund known needs – to maintain our
+roads and bridges permanently – with no new taxes.
+I am unwilling to put the safety of Idahoans and the maintenance of our state’s roads and
+bridges at the whims of the feds. We must not look to Washington, D.C. to solve our problems.
+Leading Idaho means addressing our own state’s needs. Together, we’ll show Washington, D.C.,
+how to tackle transportation – by fully funding known gaps with no new taxes and providing
+long-term funding for long-term needs.
+Ladies and gentlemen, the challenges of the past two years for many, including myself,
+have driven us to more frequent prayer and a closer relationship with our creator.
+And out of the hardships we have strengthened. We have kept things headed in the right
+direction.
+We won’t spoil the once-in-a-lifetime opportunity before us to give the people back their
+hard-earned dollars through tax relief and make historic investments where they matter most.
+We will stay focused on LEADING IDAHO.
+I want to thank my family for their unwavering support. Family is the nucleus of all that
+is important in life. And our First Lady – her good heart is a source of strength and peace for our
+family and the entire state.
+And I want to thank YOU – the people of Idaho – for Idaho’s success. You have proven
+you will always stand up for the strength and prosperity of our great state.
+Thank you and God bless.</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Leaders, Members, Lt. Governor, First Lady...  Joining us today are a special group of distinguished guests... teachers, doctors, nurses and first responders. I want to sincerely thank ALL of you for joining me under the dome of the old Illinois State Capitol building.  So many of you have showed up to work in person during the worst health crisis our state has ever seen.  I figured the least I could do as your Governor was brave a snow storm to deliver the State of the State Address.
+One year ago, I delivered a speech a few miles from here in the Orr Building at the State Fairgrounds as members of our Illinois National Guard readied the facility to serve as a mass vaccination site.  Like all of you, I had hoped that that was the beginning of the end of one of the most challenging times our state and our nation has ever lived through.
+But it wasn't the end.  We continue even now to battle an invisible enemy that has challenged all our institutions and forced every single Illinoisan to confront deeply held convictions about family, work, education, healthcare, science and our collective responsibility to one another.
+It would be the most human of tendencies to obsess during this time over one question: Why?  Why are we going through this?  Why did it start...why won't it end?  Why is this the slice of history we are being asked to carry?
+The answers to those questions remain elusive - and we cannot allow their pursuit to distract us from another more essential question: How will we distinguish ourselves and how will history remember us during this time?
+According to legend, the famed cultural anthropologist Margaret Mead once delivered a lecture to her students that started with this question to her class: "What was the earliest sign of human civilization?"
+The answers her students provided are what you might predict: tools, pots, weapons, iron, agriculture.
+But Mead shook her head no to all these answers and instead held up a healed femur - a leg bone that had broken and mended.  She explained that this healing was the first sign of true civilization because it meant someone had looked after this person - given them food, shelter and rest at great personal sacrifice.  Mead's argument was that true human civilization arrived when our ancestors chose to look out for one another despite personal risk or inconvenience.
+The question of what we owe our fellow humans has been front and center in my mind over the last several years - but most especially the last 12 months.  And I keep returning to Margaret Mead's simple lesson - that the measure of any society is how willing we are to care for those who need us.
+The COVID-19 pandemic has presented us with a challenge the likes of which we have not seen in generations. 
+It has brought families to their breaking points - with parents especially struggling every day to try and make the right decisions for their children as well as their own parents and grandparents.
+COVID has forced a true reckoning about what it means to work and what it means to live - no matter what kind of job you are holding down.  Every worker in every profession is demanding a rethinking right now of the sacrifices they are being asked to make. Every working parent is navigating how to hold Zoom calls with a toddler screaming in the background or facing the impossible choice between going to their hourly job or staying home with a sick child.  
+And I talk to so many entrepreneurs who want to do right by their workers — at the same time they have to keep up with their competitors in order to survive. 
+But no one in our state has born a greater burden in the last twelve months than the nurses and doctors and first responders who have had no respite from the unrelenting agony of the most brutal parts of the global pandemic.
+TO THE ILLINOIS MEDICAL COMMUNITY: I know that every career in healthcare begins with someone who wants to help sick people get well.  I know that during the months and years you practiced and trained for the job you hold now, you had to come to terms with the idea that you couldn't save everyone - that some people would be too sick, some cases too hard to solve.  
+I know you learned to cope with that inevitability by discovering the balance between joy and grief.  I know that underneath that balance you felt the world owed you a promise to never let one side of that scale get too overwhelming.  
+And I know that you feel like that promise has been broken - that too much grief has robbed the profession you have devoted your life to of all its joy.  I know that as you have watched your hospitals fill with patients once again these last two months - that there is a small but persistent voice inside of you asking you how much more you can take.
+I wish I could lift this burden from you.  I wish it with all my heart.  
+But in the absence of the ability to do that - I feel it important to stand here, in the most visible public forum I can think of, and say: I see you.  Our entire state sees you.  And while we can't take away your burden, we can directly acknowledge it and assist you in carrying some of it.  And as Governor I can offer you my most deep and heartfelt thanks on behalf of a grateful state.
+One thing we can all do right now is continue rising to the challenge of combatting the pandemic head on. And we are. 
+A larger percentage of Illinoisans have been vaccinated than in any other Midwestern state. Our state has led with equity, with the highest regional vaccination rates for our Black and Brown residents. We are the leader in vaccinating kids 5 to 17 years old. We've held over 7,350 mobile vaccination clinics at churches, senior centers, schools, day camps, and YMCAs to make getting the vaccine easier for every Illinoisan who wants it. 
+The battle to keep people safe from the virus isn't over, though we are more experienced at managing through it. When the surge came last fall, we put our masks back on - and it helped keep our hospitals from being overrun. To protect the most vulnerable people in our state's care, I required vaccinations at state-run congregate care facilities, including our veterans' homes and homes for people with developmental disabilities.
+Our schools have remained safe and open.  Of the more than 850 public school districts in our state, fewer than a dozen have had to take an adaptive pause recently because of COVID-19. That's because we have three tools that we know work: masks, testing and vaccines.  And I have not hesitated to use these tools and make them available to schools so they can maintain in-person learning for Illinois' children while protecting parents, teachers, and staff.  In fact, we set the national standard for how to safely keep kids in schools when the CDC adopted our Illinois "test-to-stay" model.
+The virus has remained a threat for far longer than any of us would like, but we continue to find ways to live our lives AND protect the vulnerable all at the same time.
+The pandemic recession has taken an enormous financial toll on workers and businesses.  Government must continue to do everything possible to help people recover.  With all our efforts over the last two years — city, county, state, federal — we're seeing signs of progress every single day.  Our investments in working families and small businesses are paying off.
+Since the bottom of the pandemic recession in April of 2020, we have added 600,000 jobs and grown the overall state GDP beyond pre-pandemic levels. Illinois job growth now outpaces the national job growth. Wages have increased for working class families, and jobs are available for workers of nearly every skill. Workers have bargaining power like never before. And businesses have applied ingenuity and creativity to rebuild and grow and are making Illinois one of the best places to do business in the country.
+Our recovery is happening because our people have an unmatched work ethic and our employers an incredible commitment to workers and the communities they serve.  It's also happening because we've focused on providing as much stability as possible for small businesses and workers and families here in Illinois.
+To succeed we've had to acknowledge that working parents need childcare. In the early months of the pandemic, we launched a childcare support program that is now nationally recognized — delivering relief grants to provide a safe work environment for caregivers, and allowing childcare providers to stay afloat during the worst of this global health crisis.  We've been awarding retention bonuses to Illinois' childcare workers. We're providing out-of-work parents with three months of low-cost or free childcare so they can look for a job without worrying about their kids.
+Then we partnered with the General Assembly to award nearly $1 billion in grants to more than 12,000 small businesses - covering every sector of the Illinois economy, especially those that were left out of the federal PPP program.  Because of it, tens of thousands of jobs in every part of our state were saved.
+We also needed to keep struggling families from being forced out of their homes by the pandemic recession. So with the help of Representative Delia Ramirez and Senator Omar Aquino, the Illinois Housing Development Authority went to work, providing some of the fastest relief for landlords and tenants among all the states.  More than $1 billion has kept renters and homeowners from losing their housing, with hundreds of millions more to support them in the first half of 2022.  A prohibition on COVID-related evictions, utility shutoffs, and vehicle repossessions protected those suffering pandemic-related hardships.
+Throughout this deadly pandemic, I've governed with a consistent philosophy: protect the most vulnerable, offer simple and straightforward help through the hard times, and make Illinois an example for the rest of the country for how to manage through the crisis.
+Because of the amazing residents of this state, we've been able to do that.
+Within weeks of being sworn in as governor in 2019, I appeared in the front of the General Assembly for the very first time with a dire report on the state of the state's finances and an overview of the true fiscal wreckage left for us to clean up.  Back then we had a $3.2 billion deficit.  We had $7.9 billion owed in unpaid bills.  The state had doled out over $1.2 billion in late payment penalties.  We had suffered an astonishing eight credit rating downgrades in the years 2015 to 2017, and our credit hovered at just one notch above junk status.  
+I made a promise that day. I said: "Budgeting will not be done any more by taking the state hostage, or by court orders, consent decrees and continuing appropriations but instead by debate and compromise and a return to regular order. We will work together earnestly to solve the state's problems. We will disagree at times on important things, but the work we all came here to do will get done."
+I believe that if we are ever going to fix what is broken in the American political system, it starts with politicians keeping their word.  
+So let me offer an update on the promise of fiscal responsibility I made to you three years ago.
+After decades of credit downgrades, by the end of my second full fiscal year in office, Illinois received two credit upgrades - the first upgrades the state has received in over 20 years.  The massive bill backlog that contained bills past due for as long as 500 days, now contains only unpaid General Funds bills averaging 15 days old.
+And that $3.2 billion structural deficit? Well today I'm pleased to announce Illinois will end this fiscal year with a $1.7 billion surplus, the first of its kind in more than 25 years.
+Now, I know that the same tired old characters who are always so desperate to bad-mouth Illinois will falsely attribute our fiscal success to the federal American Rescue Plan Act.  As usual, they're wrong.
+Let me set the record straight for you — our state budget surpluses would exist even without the money we received from the federal government.  Painstaking work has been done in coordination with the General Assembly and Comptroller Susana Mendoza over the last 3 years to diligently and meticulously reverse the irresponsible decisions of the past and ensure that responsible budgeting would become the rule, not the exception. 
+What a self-indulgent position the cynics take, always opposing what's in the best interest of the people of Illinois if they think it will advance their own political standing. It's a curious position - but then again, there have long been people in Illinois state politics who have cared more about promoting their own propaganda than they do about what's best for your pocketbooks.  During this budget cycle especially, seats at the grown-up table will be off limits to those who aren't working in the public's best interests.
+Back in 2019, I promised you that we would not allow political posturing by those people to again take the state's finances hostage. I ran for Governor to move beyond that.  And we have.  If you don't believe me, take it from the credit rating agency S&amp;P.  In their announcement last year of Illinois's credit upgrade they said: "The political gridlock that stymied governance a few fiscal years ago has dissipated."
+Look, the actual work of managing Illinois' state finances is decidedly unglamorous.  It is hours of hammering away at calcified problems of the past, persistently reducing liabilities on our state's balance sheet, finding and implementing efficiencies and savings, upgrading systems that track expenditures, and asking every government employee to be a partner in smart budgeting.  It's not partisan work, it's not political work...it's just hard work.  It requires resisting the temptation to let political expediency take over our budget process, and it demands discipline and a commitment to do what's right.
+And that is what my administration and a majority of the General Assembly have been committed to doing — no matter how difficult the circumstances or how unprecedented the times.  
+So let's talk about good governance and what fiscal responsibility looks like. 
+During those first few terrible months of the COVID crisis - when it was unclear whether the bottom would completely fall out of state revenues — we borrowed $3.2 billion from the federal government so we wouldn't wonder if the state could meet the needs of people who were suffering.  Not a chance I was going to allow an interruption of vital services by our hospitals or let our schools close for lack of PPE.  And as soon as our state revenues rebounded, paying down our borrowing was among my highest priorities. We paid our debt back nearly 2 years early, saving taxpayers $82 million in interest costs.
+Then there were the short-term borrowings that date back to the budget crisis five years ago. The bill backlog, that at its height reached nearly $17 billion, and the $1.5 billion borrowed from the state treasury, have now been paid down.
+I believe in paying our debts. 
+Each year I've served as Governor, our state has met its pension payment obligations. But when we are able, I think we ought to do more than just pay the minimum. That's why I propose making not only our minimum pension payment this year but also an additional half a billion dollars.
+If approved by the General Assembly, this will be the first time since the beginning of 1994 pension funding ramp that we will reduce our pension debt by more than our required contribution. I am asking Democrats and Republicans to work together with me to get this done because it will save taxpayers $1.8 billion in interest payments over the coming years.
+For longer than I can remember, the pension naysayers have told us we should ignore the constitution and the protections it provides and instead break our promises to retirees. I won't do that. Instead we are tackling our pension problem with responsible pension investment decisions, solid investment returns, and expansion of the pension buyout program. As a result, pension liabilities are down, and pension assets are up. There's more work to do, but pension payments as a percentage of our budget have finally flattened and are projected to decline. Great news for pensioners and taxpayers alike. 
+For years, Illinois has been without any financial cushion in the event of a downturn, and 22 months ago we experienced how debilitating that could be. Now that we've paid down our bill backlog and consistently balanced the budget, it's time to begin restoring our state's long neglected Budget Stabilization Fund, also known as the Rainy Day Fund. Right now the average state can run for 29 days on its Rainy Day Fund. In Illinois, we can run for 15 minutes.  I'm proposing that we set aside $600 million for the fund this year plus another $279 million next year. The past few years have shown us that rainy days do actually arrive, and it's time to begin rebuilding protections from future fiscal calamities.
+At the beginning of my term, I tasked Illinois Central Management Services with taking a comprehensive look at ALL real estate holdings that Illinois has accumulated over the years - and to make an honest effort to eliminate the waste and inefficiency that had previously been overlooked.
+As a result of their work, I made the decision to consolidate multiple long term leases in downtown Chicago - saving taxpayers an average of approximately $20 million a year, for the next 30 years. 
+Then there's the James R. Thompson Center, the least efficient building owned by the state.  For twenty years governors have talked about selling the building — one even pretended to sell it in two of his budget proposals.  I decided I would just get to work and actually sell it in real life.  A private buyer now has offered to purchase it by assuming several hundred million dollars in liabilities and paying the state $70 million in cash.  Altogether, the net savings for state taxpayers approaches three quarters of a billion dollars — and the city of Chicago will get a brand-new, revenue-producing, renovated property in the heart of downtown.
+Overall, with this real estate restructuring we will have reduced Illinois government office space by over 640,000 square feet by 2024 and lowered the cost of leasing Chicago office space from $41 a square foot to just $20 a square foot.
+This is an example of how we're bringing operational improvements to state government to reduce waste, inefficiency, and liabilities. 
+Here's another example of past mismanagement we're repairing. College Illinois was a program started in the 1990's to help parents pay for college for their children.  The idea seemed simple - Illinois residents could purchase college tuition at current rates and that money would be invested and grow to cover the eventual costs of their children's college education.  Over 70,000 Illinois families took advantage of this opportunity. But 25 years later, the program was underfunded by nearly 30%, leaving parents holding the bag for a promise unfulfilled by state government.  That's not right.  So my budget proposes to pay off that unfunded state liability in full. Parents will sleep better at night, and it saves an additional $75 million dollars in future taxpayer liabilities.
+Responsible fiscal management is yielding substantial savings, unburdening our state from the anchor that has weighed us down for far too long.
+So, as we move on to tackle the questions of what vital current priorities our government should fund, know that we start from a place where our bills are paid, our most pressing short-term debts are nearly gone and our most critical long term financial liabilities are in the best fiscal shape they have been in since the turn of the century.
+The proposed 2023 budget I have submitted today includes substantial increases in the highest yielding investments we can make: early childhood, K-12 and higher education. Notably, there is a $350 million increase for the K-12 Evidence Based Funding Formula, driving critical resources to our state's most underfunded schools. I have also increased early childhood education by $54 million, which together with the $200 million investment in upskilling our early childhood workforce will go a long way toward meeting our goal of making Illinois the best state in the nation to raise young children.
+In years past, higher education had become an afterthought in our state budgets. Because of the disinvestment, post-secondary education became more and more expensive for students and their families. That's why at the beginning of my term I pledged to do three things to address this problem: Increase MAP scholarships by $200 million, get more Pell Grants and low cost federal loans for Illinois students, and increase direct support for institutions of higher learning. With this FY23 budget proposal, we will have achieved all three during my first term in office, with substantial increases in MAP grants, community college and university operational support, and job training investments.  The cost of pursuing higher education in Illinois is finally going down, and we're opening the door to a brighter future for more Illinoisans.
+I'm also asking the General Assembly to broaden the allowable uses of MAP scholarships for career training programs in critical industries like healthcare. This small change will open more training and education opportunities for thousands of Illinoisans, and it will put people to work addressing the critical healthcare workforce shortage.
+Our healthcare institutions and healthcare workers need help. That's why this proposed budget creates the Pipeline for the Advancement of the Healthcare Workforce — or PATH — program. The goal is to model this program after the highly successful Workforce Equity Initiative championed by State Representative Jehan Gordon-Booth. The PATH program will invest $25 million in our community colleges to remove barriers for recruitment and training of new front-line healthcare workers.  My budget also proposes to invest new resources in nursing scholarships and loan forgiveness programs.  
+And finally, I'm proposing to eliminate licensure fees for 470,000 nurses, physicians, pharmacists, pharmacy technicians, respiratory care workers, social workers and others in the coming fiscal year. Let's recognize the burden our healthcare workers have borne and give them a much-needed reprieve.
+Aggressively protecting and supporting vulnerable children and families is a high priority for us all.  Since coming into office, I've substantially increased the budget at the Department of Children and Family Services to reverse the damage of the prior administration, bringing on hundreds of new staff, retraining every DCFS worker and manager, allowing our private partners to increase wages, and helping them make a dent in the hundreds of shelter beds lost under the prior administration. This year, as the agency continues to battle pandemic-era worker shortages and increased case-load, I propose we add another $250 million to hire more child welfare workers, and increase the number of safe and supportive settings available to care for vulnerable children.
+Nobody has escaped the isolation, burn out, and trauma of the past two years. Now more than ever, it's important to invest in behavioral health. That's why I will be appointing a Chief Behavioral Health Officer to oversee and coordinate behavioral health services directly with the Governor's Office. Behavioral health is an area where Representative Deb Conroy is a real leader, and with partners across the rotunda like Senators Sara Feigenholtz and Laura Fine, I'm confident the Chief Behavioral Health Officer will succeed in streamlining and coordinating these services across state agencies.
+And we can't talk about health in this state without recognizing the tremendous leadership of Lt. Governor Stratton to expand Alzheimer's awareness and bring the world closer to eradicating this heart-breaking disease. Over the summer, we made Illinois the first state in the nation to require regular Alzheimer's diagnosis training for all licensed, adult-serving healthcare professionals. Building on that progress, today I'm proposing an expansion of Illinois' Alzheimer's outreach, research, care and support.
+With the state and the nation experiencing a rise in violent crime, addressing public safety requires major investments. But too often those elected officials yelling the loudest about public safety concerns are also those voting to defund government budgets.  Crime is a complex and multi-faceted problem to tackle, and it's cynical and counter-productive to simply shout "Lock them up" while providing fewer resources to the people and programs that prevent crime in the first place.
+A truly effective approach to tackling crime involves both short term and long-term investments and a commitment to see those investments through. 
+Let's start with this: If we want to reduce crime, we have to solve crimes. That's why I reestablished the Division of Criminal Investigations when I first took office. It's why we are building a new, state-of-the-art crime lab near Joliet and opening another in Decatur. My proposed budget continues to increase the number of Illinois State Police forensic scientists and evidence technicians. And we're already succeeding in one important arena — we've substantially reduced the backlog of DNA and other analyses on evidence in sexual assault cases. As a result, victims and survivors will finally get the justice they deserve.
+On the front lines, I've been growing our state police every year since I took office, but they need even more support. Under my predecessor their ranks had been severely depleted to only 1,625 troopers, down 31% from its peak. So every year I've worked with the majority in the General Assembly to rebuild the ISP. On top of the hundreds of sworn officers we've hired already, the FY23 budget provides resources to add largest number of state police cadets in any single year.
+Victims and witnesses need to feel safe if they're going to be willing to come forward and identify violent criminals. Nearly a decade ago, Speaker Welch and Senator Van Pelt led the creation of the Gang Crime Witness Protection Program.  It was intended to provide resources to prosecutors and the Attorney General to pay for the protection of victims and witnesses who are assisting in the prosecution of gang violence perpetrators. Disappointingly, the program was never funded. Today I'm proposing we immediately authorize a $20 million investment in it.  If we want people to speak up without fear of intimidation, we need to give law enforcement the resources they need to protect victims and witnesses that want to do the right thing.
+To prevent violent crime and reduce the direct burden on police, Illinois is awarding grants to organizations that implement data-driven, community-driven violence prevention efforts.  This budget proposal advances our $250 million multi-year investment in crime prevention in the Reimagine Public Safety Act.  From the time I became Governor until this current fiscal year, we more than doubled the funding for violence interruption, diversion, and youth employment programs to $517 million. I'm proposing we increase that appropriation to $832 million. And as an additional relief for police departments, this budget provides greater funding for police body cameras.
+Smart investments in front line personnel, in protecting witnesses, in community renewal, in mental health, in economic opportunities, and in solving crimes are the best ways to reduce violence on our streets.
+The 2023 budget continues providing direct grants for thousands more small businesses supporting their recovery. We're extending the Rebuild Downtowns and Main Streets program to revitalize community business districts across Illinois. On top of that, I propose suspending license fees for more than 23,000 restaurants and bars, bringing some additional relief to an industry hard hit by the pandemic.
+Along with this small business support, I am calling on the General Assembly to renew the Economic Development for a Growing Economy, or EDGE, Tax Credit Program which is set to expire in June. EDGE is one of our most effective tools to grow and attract jobs.  
+Right now, everyone is feeling the crunch of rising prices for goods and services.  The higher cost of even basic necessities is making it harder to make ends meet. Whether it's supply chain interruptions or increasing oil prices, inflation is squeezing Illinois families. Government ought to do more to ease the pain and put more money back in the pockets of hardworking Illinoisans. Our budget success gives us the opportunity to do just that.
+Therefore, today I am proposing the Illinois Family Relief Plan — to provide immediate assistance to help families fight inflation.
+First, let's freeze the gas tax for the coming fiscal year.  Back in 2019, working with the General Assembly, we passed a historic bipartisan infrastructure improvement plan.  Since then, countless roads and bridges across the state have been repaired and improved to the benefit of local communities and businesses, and the federal infrastructure bill passed last year in Congress has provided additional funding.  Because the Illinois Department of Transportation has been efficiently completing projects on time and on budget, it has collected enough infrastructure dollars already to allow us to freeze the gas tax for a year without affecting any of our road projects. It will bring immediate relief at the gas pump and still allow us to upgrade our infrastructure.
+Another place where families are getting hit hard by rising costs is at the grocery store.  Access to affordable food is fundamental to the American promise, but with the price of milk and eggs and bread going up, pocketbooks are being pinched.  We can afford to suspend the state tax on groceries in the coming year, and have the state make up any lost revenue to local governments, so we can bring some relief to families at the check-out counter.
+Finally, local property taxes have long been an unsustainable burden for homeowners across Illinois. Local governments, who impose property taxes, have received an unprecedented influx of cash from the federal government in the last year, and an additional $1.1 billion in annual support due to actions taken by the state. It's time for every local taxing district to take a long hard look at reducing the burden of high property taxes they impose on their local residents. 
+At the state level, we can also take action. I propose immediate property tax relief funded by the state surplus.  If we double the property tax deduction for Illinois homeowners, we can bring relief to nearly 2 million Illinois taxpayers.
+The Family Relief Plan can't solve all the challenges of global inflation, but we can do our part to alleviate some pressure on working families.
+When I was first elected, I pledged to budget responsibly and with a focus on reducing burdens on working families.  I'm proud to say this proposed fiscal year 2023 budget plan does just that.
+With all the challenges we have overcome, with all the work it took to get here, with all the things we may face in the future - here's one thing I know for sure: Illinois is the best place to live in the entire country.
+Our history is more interesting, our food more flavorful, our businesses more innovative, our workers more industrious, our schools more distinguished, our culture more illuminating and our people more diverse and intelligent and creative than any other state in this great wide country of ours.
+Contrary to those folks who spend their time orbiting Illinois politics just spelunking for misery, our state has a lot to be proud of.
+We are modernizing our roads, our bridges, our schools and our broadband. Thanks to Rebuild Illinois, we've repaired over 3,300 miles of roads and 320 bridges in just the last two and a half years. We now have the number one ranked infrastructure in the country.
+We have become a national leader in addressing climate change, even being recognized on the world stage at the United Nations climate conference in Scotland last year, when Illinois became the first Midwest state to require 100 percent carbon-free energy by 2045.
+We acted swiftly and boldly last fall to reap the potential financial benefits of the new energy economy by passing the REV Act, providing attractive incentives for electric car manufacturers to se</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Mr. Speaker, Mr. President, Madam Chief Justice, Lt. Governor, members of the General Assembly, my fellow Hoosiers, it is indeed an honor to once again discuss the state of our great state and the work before us as we seek to make life better for all Hoosiers.
+Winston Churchill once said, “A pessimist sees the difficulty in every opportunity; an optimist sees the opportunity in every difficulty.”
+Ladies and gentlemen, color me an optimist, because there has never been a more opportune time to realize our true potential than right now.
+Even as we’re contending with the challenges of a global pandemic, we’re simultaneously strengthening our economy, reskilling our workforce, building out our infrastructure, and enhancing our quality of life. And now, because we’re ready and able, we’re revitalizing and connecting our communities across the state like never before.
+Tonight, I’ll report on what we’re doing for our economy, our people, and our communities.
+When it comes to our strong economy, we’ve earned it. Sound fiscal management over time has become our state’s reputation.
+We’ve produced nine straight honestly balanced budgets since 2005. And from June of 2017 to June of 2021, we’ve reduced our debt by 24 percent. Thank you, Senator Mishler and Doc Brown.
+Our discipline has led us to record revenue and reserves, and we remain just one of 13 states that has received a Triple A credit rating from all three primary rating agencies.
+We closed the 2021 fiscal year with $3.9 billion in reserves, so we put an extra $1.1 billion toward our obligation to our teachers’ pension fund. And we’re sending $545 million back to Hoosier taxpayers in the form of an automatic taxpayer refund.
+Our rigorous oversight of taxpayer money has solidified Indiana’s distinction as a place of investment-certainty, stability, predictability, and continuity that our families and businesses love and our neighbors envy.
+Among every state we border, Indiana now ranks No. 1 in GDP growth from 2015 to 2020. In fact, our GDP has grown from $353 billion in 2017 to now $415 billion, at a rate outpacing Michigan, Ohio, Illinois, and Kentucky.
+We rank No. 1 among those states in personal income growth from 2015 to 2020 as well.
+And our unemployment rate – 3 percent – is our lowest in 21 years and lower than every state we touch.
+Today, 73,000 more Hoosiers are working compared to just before the pandemic hit.
+In another measure of our growth and vitality, more people are choosing to live in Indiana.
+Since 2010, our population has increased by 300,000 people, far eclipsing the rate of any neighboring state.
+In fact, the U.S. Census just put out that from July 2020 to July 2021, Indiana saw more people move to our state than any of the 11 other states that make up the entire Midwest region. We increased our population by 20,000 people at the same time Ohio lost 10,000, Michigan lost 16,000, and Illinois lost 113,000 residents.
+U-Haul just released its annual report showing Indiana ranked 6th-highest in the nation for inbound migration.
+And it’s not just individuals who are choosing Indiana. Businesses are, too.
+Our last four years have been record-breaking years of investment and job commitments.
+Last year, the Indiana Economic Development Corp. set all-time records in three key categories:
+* $8.7 billion in new capital investment
+* Over $1.8 billion in new payroll
+* And 31,700 new job commitments with average wages over $28 an hour.
+We saw 29 new headquarters plant their flag in Indiana, both home-grown start-ups and out-of-state relocations. Our monthly single-family home building permits are more than every state we touch and our statewide home sales are hot.
+Ladies and gentlemen, the state of our economy is Indiana strong!
+Strong like Indiana steel. We’re No. 1 in the country for steel production, part of our rich heritage.
+And we’re also becoming a magnet for the industries of the future, such as hypersonics, microelectronics, cyber, solar, drones, quantum computing, advanced manufacturing, plant genetics, and battery technology. I could keep going, so I will.
+For example, we’re putting new energy into new energy. More and more solar projects are cropping up all across our state.
+After I visited Tel Aviv last year, Israel-based Doral Renewables announced they were building the largest solar farm in the United States on 13,000 acres in Starke and Pulaski counties.
+Eventually, it will generate enough electricity to power hundreds of thousands of homes, all by cultivating the sun.
+Thank you, Nick, for your incredible investment in Indiana.
+These industries make Indiana the shiny new buckle on what used to be known as the old Rust Belt.
+And, to keep this momentum going, we need to revise the Indiana Economic Development Corp.’s toolkit to:
+Invest in once-in-a-lifetime, transformational opportunities
+Provide greater flexibility within our existing tax-credit incentive programs
+Recruit more remote-worker jobs
+And, as the No. 1 manufacturing state in America per capita, we must eliminate the 30 percent business personal property tax floor on new equipment to instantly ensure Indiana is more competitive with surrounding states, encouraging further capital investment here, and positioning us to become an even more dominant player in the advanced manufacturing age.
+So, herein lies our most pressing challenge. With more than 150,000 current job openings posted and a record number of new jobs coming, we need to ensure all Hoosier students and workers can, and will, fill them.
+That starts in the classroom, which is why, with your support, the budget passed last session. We made historic investments in education.
+We’re investing a record $1.9 billion in new dollars for K-12 education over the biennium, and we’re increasing the K-12 tuition-support formula by 9 percent, which is more than $1 billion.
+That investment is already paying big dividends.
+More than 85 percent of school corporations raised teacher base salaries by an average of nearly $1,800 in the 2020-2021 school year, and 99 percent are expected to raise salaries in the current school year.
+The state’s goal for new teacher salaries is $40,000 by July 1. Some 80 percent of schools will have achieved that goal.
+Their partners at our Department of Education are laser-focused on providing more pathways and opportunities for lifelong student success, be it enlistment, employment, or enrollment.
+Those efforts start early in life, so we must strengthen both the quality and access to early learning opportunities all across Indiana from birth to age 5 to better prepare students for kindergarten and everything beyond it.
+Moreover, we know our children have suffered academically because of the pandemic.
+So, in response, last year, the DOE launched several accelerated learning programs, totaling nearly $160 million extra, with a second round underway.
+And we’ll be rolling out the Graduates Prepared to Succeed Dashboard, so for the first time, parents, community leaders, and school corporations themselves can have easy public access to robust data regarding school performance.
+And let’s make progress on strengthening our teacher pipeline and attracting and retaining more educators, focusing on diversity and teachers in high-need areas, like in special education and STEM.
+To do that, we’ll launch a statewide teacher marketplace that connects them with school openings in real time.
+While education is the starting point, we must do more to align our state’s K-12, higher ed, workforce, and economic development efforts. There is power in their synergy.
+That’s why we launched the one-stop-shop website that proactively connects unemployed and underemployed Hoosiers with customized job and training opportunities.
+Two-hundred and forty employers and 16,000 individuals have already created profiles.
+And our Workforce Ready and Employer Training Grant programs continue to move more Hoosiers into higher-paying jobs and increase the number of people achieving a post-secondary education.
+Since 2017, more than 52,000 Hoosiers have enrolled in our Workforce Ready program, and those who earned a credit saw an average wage gain of $6,800 a year.
+And through our Employer Training Grant program, 3,700 employers have trained more than 41,000 Hoosiers, and they achieved an average pay raise of over $4,000 a year.
+All these programs give Indiana a leg up in growing our businesses and bringing in new ones.
+A great example is Small Business Entrepreneur of the Year Donte Wilburn, who owns Premier Auto Detailing and Wash in Lafayette.
+As a troubled youth, Donte served a three-year sentence in community corrections.
+But a work-release program enabled him to work at an auto detailing company and finish a degree at Purdue.
+He had big ambitions, so he started his own detailing company with a goal not just to make money, but also to give employees opportunities for careers and advancement.
+Today, he owns several businesses, has 40 employees, and continues to expand. Donte says, “State agencies have been the backbone of my growth and there is no way I could have done it without them.”
+We want more Donte Wilburns, and more Hoosiers to have greater opportunities to succeed.
+Donte, thank you for making a difference, and thank you for joining us tonight.
+Now, as we strengthen Hoosier talent, we also must strengthen Hoosier health.
+While we’ve made progress in areas like reducing infant mortality, we have a lot of work ahead to truly be clicking on all cylinders.
+Here are the facts: Indiana ranks 46th in obesity, 46th in smoking, and 40th in childhood immunizations, each of which can lead to life-threatening and costly complications down the road.
+Like everywhere else in America, our efforts to tackle addiction in our communities have been compounded by the pandemic and we’ve seen increased fentanyl use. So we must double down to reach more people with substance use disorder and get them into recovery and back to their families, work, or school.
+Lieutenant Governor Crouch has made it her personal mission to promote a comprehensive strategy to support Hoosier mental health, which has never been more important.
+Our strategy includes making investments to grow our mental health workforce with more recruitment, retention, and quality efforts by:
+Expanding access to mental health services
+Rolling out the new federal 988 Suicide Hotline
+And investing more to reduce the stigma of mental health challenges
+We will also promote young Hoosier health and wellness by strengthening the guidelines for childhood lead screening and gathering more knowledge about the causes of sudden infant deaths so we can continue reducing infant mortality and saving these precious lives.
+The task of improving Hoosier health couldn’t be more important and the time to do it, never more pressing.
+To realize new results, addressing these challenges will require new approaches. That’s why the Indiana Public Health Commission will submit a report this summer with recommendations ready for the 2023 budget session, so we can modernize and strengthen the state’s public health system overall, one person at a time.
+Even as we put renewed efforts into public health, we’re maintaining our aggressive pace to build a 21st century infrastructure network that links Hoosiers to each other, the nation, and the world of opportunities before us.
+We’re in the midst of deploying $60 billion over 20 years to expand and enhance the roads and bridges that connect our communities, paid for with cash, not debt financed.
+We’re investing $3.6 billion just this year in road projects throughout Indiana. And we’re near completion, three years ahead of schedule, on I-69, which will create one continuous route from Canada all the way to our nation’s southern border.
+Add to that, through our Community Crossings program, cities, towns and counties have resurfaced or reconstructed more than 20,000 lane-miles of road and repaired or replaced 119 bridges in just the last four years.
+We’re also working with our federal and local partners to fast-track two of the nation’s most transformational commuter rail projects.
+When the South Shore double track and West Lake Corridor projects are completed, they won’t just reduce travel times, they’ll fuel an explosion of new investment and opportunity in Northwest Indiana.
+We’ll continue working toward the construction of a number of new capital projects throughout the state, including $420 million committed to wastewater, drinking water, and stormwater infrastructure improvements, and $780 million for a new state archives building, Westville Correctional facility, blind and deaf schools and a new inn at Potato Creek State Park, DNR’s first since 1939.
+We’re also in the middle of the largest expansion of walking, hiking and biking trails in our state’s history, investing up to $150 million helping Hoosiers and our guests enjoy our state’s natural beauty, linking 112 miles of new happy trails to neighborhoods. Thanks to this effort, 94 percent of Hoosiers now live within five miles of a trail.
+And you’ll find more shade on those trails, because our commitment to planting 1 million new trees is ahead of schedule. We’ve planted more than 400,000 trees so far and another 200,000 will be planted this spring.
+And to fortify our information highways, we’ve made the largest investment in broadband in our state’s history, as well.
+Since the Next Level Connections program was announced in 2018, we’ve allocated $350 million to provide everyone, wherever they live in Indiana, with access to affordable, quality broadband and the limitless opportunity it affords.
+This most recent round saw more than $600 million in requests from nearly every county in the state. It’s no surprise that Forbes calls us a national model.
+I hear about the difference this is making every day.
+Like when Amy and Scott House from New Castle decided to run their business out of their home and care for their family, they considered moving. But because of a Next Level Connections grant, their home was covered along with 69 other homes and 10 businesses with 1 gigabyte service.
+Thanks to Scott and his mother Patti for connecting with us here tonight.
+And now, we’re taking a giant leap toward creating One Indiana.
+We’re a state with incredible urban, rural and suburban areas, and yet many of our rural areas have struggled to maintain their population.
+That’s why, last year, I proposed dedicating $500 million to help communities throughout our state accelerate their economic growth, improve quality of life for their residents, and become magnets for talent.
+To all of you in this Chamber, I salute you for going big and bold.
+This READI Program is the largest investment in Hoosier history aimed at transforming every region of our state, representing all 92 counties.
+Every region received a portion of the $500 million. But that’s just the tip of the iceberg.
+Local leaders identified nearly 800 projects and $1.5 billion in demand, with $15 billion in their own matching funds.
+That’s why we’ll need to come back in 2023 and go big again.
+And to further help communities prosper, we’ll continue to partner on public safety efforts and deliver the good government service Hoosiers have come to expect.
+That includes supporting and appropriately funding our law enforcement officers by investing $70 million in our state law enforcement academy and continuing to implement best practices.
+To Indiana’s law enforcement community, I say, we say, “Thank you” and “We’ve got your back!”
+Two more thank yous before I close.
+This September, Camp Atterbury was transformed from a military training site into a temporary home for some of the men, women and children who fled Afghanistan.
+We took in 7,500 evacuees, more than 40 percent of them children, provided medical care, traditional Afghan meals, lessons in English, and what to expect in their new country.
+We saw an outpouring of donations and volunteers on a scale like no other state experienced.
+Now, most are starting their new lives somewhere in America, with about 500 calling Indiana their new home.
+I commend everyone involved in this tremendous, uplifting effort. To me, it’s a great example of what Hoosiers are all about and what we’re capable of accomplishing when we work together.
+Finally, I couldn’t give a State of the State Address without giving an update on COVID-19 and the extraordinary personal toll it’s had on our families.
+To date, more than 19,000 Hoosier lives have been lost — more than live in Huntington, or Crawfordsville or Jasper.
+Hospitals are diverting patients in search of available beds.
+The number of ICU beds in use is almost at an all-time high, and it’s difficult to find one around the state.
+I want to thank over 3.5 million Hoosiers who are vaccinated and those getting boosted. You are a big reason our hospital network hasn’t collapsed.
+We know that people who are getting vaccinated and boosted overwhelmingly stay out of the hospital, stay out of the ICU, and don’t die.
+If you haven’t been vaccinated, I encourage — I plead — I even beg you to speak to your doctor and do so.  I say this, even if you’ve disagreed with every position I’ve taken. I just want us both to be around to continue to have those disagreements.
+And a special thank you to all of those who are putting others above themselves to continue the battle against COVID-19.
+Our hospitals have been under siege. Our healthcare providers are exhausted, physically and mentally, as are those taking care of our nursing home residents, and students in our schools, and our own State Health Department quarterbacking it all, and everyone supporting them.
+You’ve all been operating in overdrive for two years.
+No words, salary, or earthly awards will ever be enough to repay you for the lives you’ve cared for and saved. The ultimate judge will be kind to you for living your love for your neighbor.
+History has shown again and again that it’s when we’re facing the toughest challenges that we can be at our best.
+Despite our challenges, this is a time of unprecedented Indiana growth, connections, momentum, and opportunity for all Hoosiers. This is our time to build an even stronger Indiana, not just for today, but for decades to come. And that my friends is what we’re doing!
+Thank you, and may God continue to bless us all and our great state.</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. President, Mr. Speaker, Lieutenant Governor, legislative leaders and members, justices and judges, my fellow Iowans:
+Two years ago, Ilee and Michael Muller were living in California but they were looking for something else. Something away from the hustle and bustle, the crowded highways and high cost of living. 
+They had visited the city of Elk Horn in Shelby county and fallen in love with it, so when a restaurant came up for sale, they made the leap and put their faith in Iowa. 
+They bought an acreage outside of town, packed their belongings, and began to build a life and introduce themselves and their two daughters to the community.
+They opened their restaurant, Grace on Main, in March of 2020—and you know what came next.
+But the Mullers quickly realized that the Iowa way of life isn’t a myth. 
+The community came together—and came in droves to the restaurant window to buy their unique pizzas.
+Unlike so many states, Iowa’s economy stayed open, and so did Grace on Main.
+And they did more than stay open. The Mullers and their restaurant have thrived, winning multiple awards, including the Rural Operator of the Year from the Iowa Restaurant Association.
+When I stopped by Grace on Main for lunch this fall, Ilee told me “Iowa Nice isn’t just a slogan, it’s real. It’s not who has a nicer car and how much money you have. If you need help, everyone is willing to drop everything. You don’t get that back in California.”
+I couldn’t help but smile, because that’s exactly what we’ve always done. And what we’ll always do. 
+The Mullers had faith in Iowa. And Iowa came through. 
+The Mullers couldn’t be with us tonight, but we’re joined by some of their most loyal customers. Won’t you please join me in welcoming the Mullers to Iowa and recognizing the community that embraced them.
+Two years ago, about the time the Mullers were moving to Iowa, I stood here before you at the beginning of a new decade. I talked about how far we’d come in ten years. 
+About how we’d gone from a time when families lost their life savings, Iowans lost their jobs, and our state government lost control of its budget—to a time of record-low unemployment, a budget surplus, and record investments in K-12 education. 
+But most important, I talked about a vision for our future. About the need to be bold; to show the world that Iowa truly is the state of opportunity. 
+The pandemic delayed some of our efforts, but it didn’t change our direction. In the last eight months alone we:
+Invested $300 million more in broadband, strengthened funding for mental health by making it more sustainable, made our communities safer and supported our law enforcement; encouraged more quality housing, extended and expanded our water-quality efforts, repealed the inheritance tax on families, gave parents more choices in their child’s education, protected life, and expanded telehealth services to increase access to affordable health care across every part of our state.
+When US News and World Report ranked Iowa the #1 state for opportunity last year, it wasn’t because we wanted it. It was because we earned it. 
+It was because we had faith in Iowans. And Iowans came through. 
+Of course, rankings are nice. But they’re not what matters. 
+What matters is how we come together in our own communities —from cities like Des Moines to small towns like Elk Horn—where we live and work and worship.
+This is my fourth time speaking to you from this chamber on the condition of the state. And I’m proud to report, for the fourth time, in every corner of Iowa, the condition of our state is strong. 
+We’re strong because we’ve been guided by the lights of common sense, fairness, and freedom. By the knowledge that bold action isn’t always government action. It’s Iowans making their own decisions for their own families and future. 
+Under these high ceilings, next to this marble, among these columns and portraits, it’s tempting to believe that nothing good happens unless we legislate it, regulate it, or fund it. 
+But in the small towns, around kitchen tables, in the fields and back-offices, Iowans understand that we in this building don’t fund anything. They do. 
+And right now, they’re paying too much. 
+Last year, the state ended with a $1.2 billion surplus, on top of nearly $1 billion cash reserves. 
+That’s good. We kept spending down. 
+But it also means that, despite the historic 2018 tax cuts, we’re still taking too much from Iowans’ paychecks.
+That needs to stop. Now.
+Tonight, I’ll introduce a comprehensive bill that significantly cuts taxes for all Iowans.
+First, it eliminates our complex system of multiple tax brackets and sets one tax rate of 4%. Flat and fair. 
+The cuts will occur gradually over the next four years so that we protect priorities like education and public safety. But in the first year alone, taxpayers will save almost $500 million. And by 2026, when the bill is fully implemented, an average Iowa family will pay over $1,300 less in taxes, which is on top of their $1,000 tax cut from the 2018 bill. 
+That’s money that can be reinvested into our economy and used to promote the prosperity of every Iowan.  
+Yes, we’ll have less to spend once a year at the Capitol, but we’ll see it spent every single day on Main Streets, in grocery stores, and at restaurants across Iowa. We’ll see it spent in businesses instead of on bureaucracies.
+We’ll put our faith in Iowans, and they won’t let us down. 
+Also, starting next year, for Iowans who have worked all their lives and saved for retirement, this bill will do even more by eliminating the taxation of retirement income. 
+For the vast majority of retired Iowans—those who rely on their 401K, IRA, or pension—that’s not just an income-tax cut; it’s a full income-tax repeal. 
+And that’s how it should be. You’ve worked hard all your life, saving for retirement and paying your fair share in taxes. It’s time you get a break from the tax collector; you’ve earned it, now you should enjoy it.
+Under my plan, the tax repeal on retirement income won’t be limited to bank accounts.
+For farmers, whose savings is as much the black dirt under their boots as the money in the bank, this bill will eliminate the tax on cash-rent payments they receive when they retire from farming.
+And for employees who received stock in their company for years of hard work, the bill will eliminate the tax on the sale of those shares. 
+This will be a game-changer that will incentivize employers to share ownership with their employees and send a message to the rest of the country:  Come. Move to Iowa. Work here and become an owner in a company and grow your investment tax free. Have faith in Iowa and we’ll come through. 
+All of these tax cuts have one thing in common—they reward work. Work to be done and a lifetime of work to be proud of. 
+That’s never been more important, as the country is facing an unprecedented worker shortage. 
+Across the nation, job openings far outnumber the workers available to fill them, and 4 million fewer Americans are working now than they were before the pandemic. 
+Iowa is better positioned than most, with the ninth highest labor participation rate in the country. But we’re still down from where we were at the beginning of 2020. And if we don’t take bold action, other states will. 
+Thanks to the leadership and careful planning of many of you in this room, we’re building on a solid foundation.
+Through bipartisan efforts, we established Future Ready Iowa, which provides tuition-free community college and certification programs to Iowans training for high-demand jobs. 
+Since the fall of 2019, more than 35,000 scholarships have been awarded, empowering nearly 17,000 Iowans to pursue careers and advance Iowa’s workforce—with thousands more to come. 
+We’ve also focused on expanding apprenticeship programs, incorporating work-based learning in our schools, integrating computer science into the curriculum, and so much more.
+With these efforts, we’re on the path to giving every Iowan the opportunity to find a rewarding career. But barriers to work still exist, including the need for childcare. 
+That’s also a national issue but, contrary to what some in D.C. believe, there isn’t a national solution.
+In Iowa we’ve taken a bottom up approach. Last legislative session we created the Childcare Challenge, a program where providers apply for grants that fit the needs of their communities. It’s already paying off. 
+In less than a year, we’ve awarded grants that will create 4,000 new childcare spots across the state. 
+Sprouts Early Learning Academy in Carlisle is a great example. Paige and Taylor Smothers own the Academy, and thanks to a state grant they overcame inflated construction costs and regulatory burdens to open an amazing preschool and child care center for 70 2-5 year-olds.
+When I visited the academy, I could see that we’re on the right path.
+I’ve invited Paige and Taylor to be with us tonight so they can be recognized for their achievement and hear firsthand that their efforts, and the efforts of others like them, have inspired us to do even more. Won’t you please stand.
+Because of the positive results from the Childcare Challenge, and because of the overwhelming number of outstanding applicants, I’m announcing that the State is expanding this program to provide another 5,000-plus childcare openings across the state.  
+Last week, I had the privilege of calling some of the applicants to let them know they would be receiving a state grant. Let me give you a sample of what’s to come. 
+In Dubuque, Aspire Home Daycare Network will remodel and equip homes that will help stay-at-home moms start their own daycare business. In Williamsburg, the school district will renovate a vacant house, in partnership with the high-school construction club, that will serve as a childcare center for teachers’ children. And in Hull, the Bright Start Daycare and Preschool will expand its facility to help cut the current waitlist of 67 children in this rural community.
+These are more than just buildings. They are the physical reminders of the thousands of lives that will be enriched.  And it’s not just the children—it’s also the lives of parents empowered to go to work knowing their child is cared for.  
+Last spring I established the Governor’s Childcare Task Force and charged the group with developing a comprehensive strategy to address this issue. I’m happy to report that we’ve already made progress in implementing many of their recommendations, including relieving childcare providers of onerous regulations. 
+There’s more to do, and I look forward to working with the legislature this session. Because no one should be forced to choose between earning a living and caring for their child. 
+There are many reasons for the worker shortage, but we need to recognize that, in some cases, it’s because the government has taken away the need or desire to work. The safety net has become a hammock. 
+Don’t mistake me; this isn’t the only cause. But it’s a growing problem, and it’s not just an economic one. 
+There is dignity in work; it gives us meaning and purpose. So when it’s degraded, when idleness is rewarded with enhanced unemployment and stimulus checks, when work begins to seem optional rather than fundamental, then society begins to decay.
+I’m worried that we’re reaching that point. Where workers who stay home are being put ahead of the workers who show up. 
+Tomorrow, somewhere in Iowa, a carpenter will struggle to set rafters by himself in the freezing cold. He needs help, and he’s been asking for it. But too many are at home, living on his tax dollars. It’s been the same for almost two years now. His hands are tired; his back is tired. He’s just tired.
+He has faith in Iowa—he believes we’ll come through—but D.C. doesn’t seem to care.
+So let’s show him that Iowa does care. Let’s show him that in this State, we appreciate the value of work and will promote it at every turn. 
+We start by revamping our unemployment system so that it becomes a re-employment system. 
+Unemployment benefits serve an important purpose as a short-term safety net for Iowans who are unexpectedly out of work, through no fault of their own. But we can’t forget these are taxpayer funds, and we have to recognize that we’re living in a time of prolonged low unemployment.
+Today, there are many more job openings than Iowans on unemployment.
+Those Iowans have six months to collect unemployment benefits while they look for one of the many open jobs. Frankly, that’s more time than necessary. 
+I’ll be introducing a bill that lowers benefits to 16 weeks—about four months—and ensures that those collecting unemployment can’t turn down suitable jobs while living on taxpayer funds. 
+We’ll also increase our efforts to match unemployed Iowans with new opportunities. To that end, I’m announcing the creation of a separate re-employment division within the State, whose sole focus will be helping Iowans get back to work. 
+We want these Iowans to succeed, and we’ll give them every opportunity to do so. 
+Unemployment payments and stimulus checks aren’t the only government-created problems we’re facing.    
+We need to continue our work this session to eliminate unnecessary licensing requirements that keep people from moving to or working in Iowa. 
+We also need to address a legal system that is awarding millions of dollars in damages without regard to the consequences. 
+When accidents and mistakes happen, injured Iowans deserve to be fairly compensated. But arbitrary, multi-million dollar jury awards do more than that. They act as a tax on all Iowans, raising the costs of goods and services and jeopardizing our healthcare system. 
+Like many states have already done, we need to put reasonable caps on non-economic damages for trucking accidents and medical malpractice. Let’s work together to do just that. 
+The shortage of healthcare workers is one of our greatest workforce concerns, especially in rural Iowa. 
+Five of the state’s top-10 job postings are healthcare careers, with registered nurses and nursing assistants at the top of the list. And the problem is expected to get worse, as the US Bureau of Labor Statistics projects the need for 1.1 million more nurses nationally by 2030. 
+Once again, Iowa is ahead of the curve, as we’ve already begun the process to recruit and train.
+We’re expanding our loan forgiveness programs for healthcare professionals who commit to Iowa, especially our rural areas. And we’re making it easier for part-time nurses to teach while they work. 
+We’re also starting our training programs earlier, to give our students a first-hand view of what a career in healthcare looks like. 
+In Pella, the high-school Career Academy recently launched a patient-care registered apprenticeship program that offers students hands-on experience in a variety of medical settings, while at the same time earning a wage. 
+Before they even leave high school, these students can become a certified nursing assistant, and then qualify to work as a lab or surgical technician. And within a few short years, they can go on to become an OB tech, RN or BSN—all while being paid. 
+This innovative approach, and the public-private partnerships that make it possible, are what Iowa’s education and healthcare systems need. That’s why we’re launching a new healthcare registered apprenticeship program that will provide funding to at least five communities to scale what Pella has done.
+Marie Vander Wilt, the first apprentice in Pella’s program, said that getting hands-on experience in healthcare gave her a new appreciation for this career path. She told me “the job isn’t always easy but I get to leave work each day knowing that I made a difference.”
+Marie, along with her instructor, Kay Landon, and the program partners from Pella Regional Hospital and Wesley Life are with us tonight. Let’s thank them for leading. 
+Across the state, educators are teaming up with professionals in their field to train our students. In fact, we’re a national leader in work-based learning.
+But for all the real-world experience we’ve brought to the classroom—from welding to information technology to healthcare—we’ve missed an important one: education. 
+When it comes to training the next generation of teachers, we haven’t been using our best asset: our teachers in the classroom. The ones who put their skills to work every day to make a difference.
+Starting tomorrow, we’ll be launching the first teacher registered apprenticeship program in the country, letting schools effectively grow their own workforce. 
+High school apprentices start classroom instruction in their junior year and, within a year of graduation, they can earn a paraeducator credential and associates degree. And for paraeducators, their day jobs will count toward student teaching requirements, greatly reducing the cost and time required to become a teacher.
+The teachers of tomorrow are in our schools today. Let’s give them a head start on their journey to one of the most rewarding careers. 
+Talk to someone who’s been successful and without fail they’ll tell you about a teacher who set them on their path. About someone who inspired them; who pushed them to be who they are today. 
+Our teachers provide more than textbook instruction. They give emotional support and structure. They help guide our children through their most difficult and formative years. 
+That’s why it was, and remains, so important that our schools stay open. And that’s why I’m proud of the tens of thousands of Iowa educators who stayed in the classroom when so many in other states did not. 
+As a means of saying “Thank you”—and to help retain our educators—I’m announcing tonight that we’ll use federal ESSER funds to award a $1,000 retention bonus to teachers who stayed on the job through the pandemic and who will continue teaching next year. Your work is essential and we want you to know it. 
+The importance of a strong public school system is reflected in the State budget, where public education accounts for more than 56% of all state spending. 
+And for PreK-12 education, that’s $3.7 billion, with an increase of nearly $1 billion in the last decade. 
+For most Iowa families, that’s money well spent. Across the State, in every one of our 99 counties, there are strong schools with dedicated teachers. 
+But for some families, the school district doesn’t fit their values or meet the needs of their child. 
+And sadly, in some cases, school administrators are ignoring the problem or just not listening. Some even believe that it’s a school’s responsibility to not just teach kids to learn but to control what they learn—to push their worldview. 
+The problem has been building for some time, but parents are no longer in the dark. 
+Recently, several parents brought to light that schools are buying and teaching with books that contain vulgar and sexually explicit material involving minors. These books are so explicit they’d be X-rated if they were movies. The content is so bad that after a parent read them at a school board meeting, the district took the live stream down from its website because the passages were too inappropriate—and yet many of these books remain in school libraries today.
+We live in a free country with free expression. But there’s a difference between shouting vulgarities from a street corner and assigning them as required classroom reading. There’s a difference between late-night cable TV and the school library. 
+If school boards and administrators refuse to understand that—if they believe the classroom is about pushing their worldview—then we’re on the wrong path. 
+So to the parents who are listening tonight, who are frustrated with what’s happening: Know that I and members of this legislature have heard you loud and clear. Enough is enough. Parents matter, and we’re going to make sure you stay in charge of your child’s education. 
+It starts with full transparency. All schools should be required to publish what they’re teaching. There’s no reason to hide it—at least no good reason. 
+The same goes for the books in the library. Parents should know what their kids have access to, and they should have a timely process to address their concerns. Because when our parents are fully informed, they can make informed choices. 
+And ultimately, that’s what every parent deserves: a choice.  Even when the school is doing what it should, that doesn’t necessarily mean the unique needs and values of every student are being met. 
+Wealthier parents always have an alternative. But many middle- and lower-income families don’t. They don’t have a choice.
+Jacky Ochoa, a mother of four daughters who attend St. Rose of Lima Catholic school in Denison said it best. Writing to the Des Moines Register, she said that “school choice is personal; it’s about students. Choice empowers parents—a child’s strongest advocates, and the people who best know their skills and interests—to select the learning environment that will allow their child to shine.”
+Jacky, I couldn’t agree more—which is why I’ll be introducing legislation that allows middle- and low-income families and students with an individualized educational plan to receive a portion of the ‘per pupil’ funds allocated annually by the state to move their child to the education system of their choice.
+About 70% (over $5,300) of those funds will go directly into an account for families to customize their child’s education. The remaining 30% will be distributed by the state to smaller school districts. 
+We want to ensure our small schools stay strong while, at the same time, empowering parents to choose what’s best for their child. 
+As I said last year, school choice isn’t a zero sum game. It has the potential to raise the quality of all schools. After we expanded open enrollment last session, one superintendent responded by setting the goal of making his district the “destination of choice.” 
+That is precisely what we want: For every school, public or private, to strive to be the best it can be. Because when our schools succeed, Iowa becomes a “destination of choice” for parents everywhere.
+My focus tonight is about work and workers. About what puts food on the table and a roof over our head. About what gives us meaning and purpose.   
+But sometimes work means more than that. Sometimes—for a small but brave few—it means putting someone else’s life above their own.  
+For those workers—those who serve in our armed forces, who patrol our streets, guard our prisons, or in any other way protect and serve—an occasion like this would be incomplete without saying thank you and recognizing those Iowans who gave the ultimate sacrifice last year. 
+Cpl. Daegan William-Tyeler Page, who was killed by terrorists as he bravely protected US citizens and Afghan refugees attempting to evacuate Kabul. 
+Nurse Lorena Schulte and Correctional Officer Robert McFarland, who sacrificed their lives to stop two inmates from escaping Anamosa prison.
+And State Patrol Sgt. Jim Smith and Trooper Ted Benda, who spent their careers protecting Iowans and keeping our communities safe, who tragically lost their lives in the line of duty. 
+I also want to honor the life of Congressman Neal Smith, a man who served this state and his country for almost all of his 101 years, including as a military pilot who earned the Purple Heart in World War II.
+And I want to recognize the absence of my friend, John Landon, who served his country in Vietnam and served his State as a representative of this body. John, I miss seeing your reassuring face from this podium, but I’m so happy that your legacy lives on.  
+To honor all of these brave men and women we lost this year, please join me and the family members who are with us tonight in a moment of silence.
+Whether it’s patrolling our streets or guarding our prisons, public safety jobs are difficult and absolutely vital. 
+I want to thank the legislature for giving additional funds to the Department of Corrections to help keep our prisons secure. And I want to recognize the importance of the Back the Blue Bill you passed last year.   
+It’s more important than ever that we show these men and women that we appreciate what they do. 
+Because across the country, far too many don’t have that appreciation; they don’t believe in prisons and don’t see the need for police. 
+That way of thinking isn’t just wrong; it’s dangerous. And in Iowa, it has no place.
+To re-enforce that message, we’re using federal ARPA funds to give our brave men and women in law enforcement and corrections a $1,000 retention bonus, while also aggressively recruiting officers in other states. 
+When officers are treated like villains and other jobs are plentiful, it’s no wonder that applications nationally are down and resignations are up. It’s no wonder that our young people are saying “no thanks” to a career in public safety.
+While we can’t fix attitudes in other states, we can certainly let our officers—and officers across the country—know that in Iowa, they’re welcome and will receive the respect and support they deserve. 
+Most of what we do here in this building is about what happens in Iowa. It’s about educating our children in our schools, getting Iowans back to work, or just making sure that we, the government, aren’t standing in their way. 
+But Iowa is also a national and international leader; what we do here reverberates beyond our borders. 
+That’s certainly true when it comes to agriculture and energy—especially when the two meet. 
+Iowa is a leader in renewable energy. In fact, we lead the nation in the production of both ethanol and biodiesel and the crops that make them. 
+Everyone knows that renewable fuel is important to Iowa. But D.C. is losing sight of its importance to the country.
+Time and again—in administrations of both parties—the federal government has walked away from its commitment to renewable fuels, and we’ve had to bring them back. 
+We need to do it again. The Biden Administration has focused almost all of its efforts on electric vehicles, actively working to eliminate gas-powered cars. 
+That’s a mistake, especially as China works to lock up the precious metals that make EV batteries. 
+Instead, we must continue to embrace an all-of-the-above approach, where we support energy sources that come from right here in Iowa. 
+To do that, I am introducing new legislation that will improve access to E15 and B20 and upgrade Iowa’s fuel infrastructure to offer higher blends. And I’m proposing that we invest in carbon-capture solutions to sustain and build on our leadership position in renewable energy.
+Let’s send D.C. a message that can’t be ignored. Let’s remind them that America’s energy is growing, right here, in Iowa’s fields. 
+I want to end tonight where I began—by highlighting the amazing things that are happening in our communities. 
+I do this to shine a light on what Iowans are doing, and to remind us, in here, that it’s not our doing.
+In Mason City, residents are completely remaking their downtown. With the historic Frank Lloyd Wright hotel as an anchor, they’ve created a beautiful park on Main Street, repurposed a mall as an ice arena, and lined the street’s buildings with second-floor housing. 
+In Elkader, the small community of just 1,200 remade itself into a destination by creating one of Iowa’s first whitewater courses, by reviving landmarks like the Elkader Theater and the Opera House, and by opening numerous restaurants, bars, and coffee shops that have created a cultural hub. 
+In Woodbine, the school, businesses, and local leaders partnered together to create the CREW Center, a place that combines recreation, education, and community. Where the small school district created an innovative work-based learning program, IGNITE Pathways, that is a magnet for all of SW Iowa. 
+Revitalization efforts like these are happening all over the state. They’re happening because people see something special in our small towns and cities. They see something special in each other. 
+At the end of Field of Dreams—a magical movie we got to relive last summer—James Earl Jones’ character tells Ray Kinsella, in a baritone voice I can’t imitate: “People will come Ray. They’ll come to Iowa for reasons they can’t even fathom.”
+If we get this right, if we take this opportunity, then people will come—but for reasons that are obvious. 
+They’ll come because here they can find freedom and opportunity. Because of our small towns and thriving cities. They’ll come because we reward work, value personal responsibility, and care for our neighbors.
+Above all, they’ll come because we put our faith in Iowans—and because Iowans always come through. 
+Thank you, God Bless you, and God Bless the great State of Iowa. </t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Mr. Speaker, Mr. President, Madam Chief Justice, Lt. Governor Toland, statewide elected
+officials, members of the Legislature, Cabinet officers, leaders of the Kansas tribes, honored
+guests, and fellow Kansans.
+After two years of challenges, of limited gatherings, it is my high honor to stand before you
+once again this evening to deliver my fourth State of the State Address.
+To report on our shared successes.
+And to present a blueprint for the final year of my first term.
+Joining me tonight in the east gallery is the third “First Gentleman” in Kansas history, my
+husband, Ted Daughety.
+Ted has retired from practicing medicine.
+But he returned during the pandemic to support our state's many dedicated healthcare
+professionals as they toiled to keep Kansans safe and healthy.
+I'd also like to welcome my daughter Kathleen Daughety and my son-in-law Mathias
+Weiden. And I welcome, virtually, my other daughter Molly Daughety, who is watching
+online.
+I also welcome and thank my Cabinet Secretaries who are seated behind me in the west
+gallery.
+The COVID-19 pandemic brought challenges for every agency - and I could not have asked
+for a better, more prepared team.
+They have not only faced those challenges head on, but each of them has steered their
+agency to be more fiscally responsible, more nimble, more efficient and more responsive
+than ever before.
+Page 2 of 21
+And finally, it is my pleasure to welcome Lt. Governor David Toland and Second Lady
+Beth Toland, to their first State of the State in their new capacities.
+David took the reins as Lt. Governor last January after I appointed our former Lt.
+Governor, Lynn Rogers, to serve as our State Treasurer.
+Lynn is a compassionate, hard-working, and dedicated public servant ---- and he has been a
+fantastic Treasurer. Lynn has already returned more than $5 million dollars of unclaimed
+property to the rightful owners.
+Thank you, Lynn, for your leadership and your continued service.
+For the past three years, Lieutenant Governor Toland has worked tirelessly as the Secretary
+of the Department of Commerce.
+He has spearheaded efforts to help small businesses weather the pandemic. He has rebuilt
+Commerce programs to - once again - make Kansas nationally and globally competitive.
+I'm fortunate to have him by my side, as we continue to put his economic development
+expertise to good use for Kansans and Kansas communities.
+Thank you, Lieutenant Governor.
+It's not just the Lt. Governor and my Executive Cabinet who have gone above and beyond
+during the pandemic.
+All of you seated here are serving during a uniquely challenging moment in our state’s
+history.
+And the work you're putting in, the collaboration, is helping Kansas turn the corner, paving
+the way for a more prosperous future for all who choose to call this place home.
+Needless to say, it has been an arduous couple of years for Kansas and the nation.
+We've lost loved ones, coworkers, friends, and neighbors.
+Unfortunately, we continue to lose too many Kansans to this virus.
+But we also saw, and we continue to see, the very best of Kansas rise up in every corner of
+our state.
+Page 3 of 21
+Our health care professionals have persevered, working long, hard hours, for weeks, then
+months, now years, to save lives. They continue to be our heroes.
+Here with us tonight is one of our heroes: Whitney Freel, a charge nurse on the medical
+intensive care unit at Stormont Vail Hospital right here in Topeka.
+Whitney, could you please stand for a moment.
+Whitney and her fellow front-line workers have risked their own lives for nearly two years,
+working around the clock to keep Kansans safe.
+Please know how grateful I am, how grateful Kansas is, for your dedicated service.
+In every corner of our state, ordinary people continue to do extraordinary things.
+The Kansas spirit of neighbor-helping-neighbor has never been stronger.
+The people of Kansas are getting back on their feet. The state of Kansas is getting back on
+track.
+However, right now, and likely for the next few months, the threat of COVID-19 remains,
+particularly for the unvaccinated and the immuno-compromised.
+While the long-term outlook is much more positive with the new Omicron variant, our
+hospitals and nursing homes have sounded the alarm.
+Rising case numbers from the winter holidays and Omicron have created the toughest surge
+the medical community has faced since the pandemic began in 2020.
+Last week, I issued two new executive orders that create staffing flexibility to keep residents,
+patients, and staff safe.
+It will be imperative that we work together to quickly extend my orders through legislation
+to help our nursing homes and our hospitals.
+For those of you watching at home, I ask that all of you think of your family, your friends,
+and our front-line health care workers. 
+Page 4 of 21
+Help each other by getting vaccinated, getting your children vaccinated, and getting the
+third shot.
+This is how you keep yourself - and those around you - healthy.
+We owe it to each other.
+Folks, we are going to get through this.
+Since we began the fight against this pandemic, we've taken a clear-eyed, balanced approach
+- acting responsibly to stop the spread of the virus, while also ensuring that our Kansas
+economy grows and stays strong.
+And because we managed our budget responsibly and saw record economic growth and
+investment in our state, I'm now proud to say we have the largest budget surplus in the past
+40 years.
+That's the largest surplus in 40 years all while balancing the budget and fully funding our
+schools.
+Whereas, just a few years ago, Kansas was making headlines for its budget mismanagement - I believe Kansas is now the most fiscally responsible state in the nation.
+We've paid down state debts.
+And we're adding $600 million dollars to the state's Rainy Day fund, the most money that's
+ever been put in there.
+Growing the Rainy Day Fund is the responsible thing to do.
+To make sure critical services like schools and law enforcement are always funded even if
+our economy takes a turn for the worse.
+Because we've managed the budget so responsibly, I was proud to announce that every
+working Kansan who filed taxes in 2021 will get a $250 dollar rebate this year - $500 dollars
+for married couples filing jointly.
+That's money back in your pocket to pay for child care, to take your family on a minivacation, or to buy groceries.
+Page 5 of 21
+While we’re on the topic of groceries….
+Here's something we all know: Food in Kansas costs families way too much.
+And even as we sit here with a record surplus, Kansans continue to pay higher taxes on
+groceries than anyone in the country.
+It makes no sense.
+For years, many of us, on both sides of the aisle, have been calling for an end to the state's
+sales tax on food.
+Now, with this surplus in the bank and increased revenue because of our economic growth,
+we can finally, responsibly, afford to totally eliminate the grocery sales tax.
+I've called on the legislature to send a bill to my desk to end this tax, once and for all.
+It will save Kansas families hundreds, perhaps thousands, of dollars a year.
+This is a commonsense policy on which Democrats and Republicans can completely agree.
+The only obstacle that could block this legislation is the same type of toxic political games
+that have poisoned Washington D.C. …. where denying a political opponent a win has
+become more important than getting things done for the people they represent.
+We are better than that in Kansas.
+Let's not overcomplicate this.
+The essence of the bill can be summed up in 13 words:
+We hereby eliminate the state sales tax on food in Kansas, effective immediately.
+Just 13 words.
+Send me a clean, bi-partisan bill, that eliminates the state sales tax on food by Kansas Day,
+January 29th.
+I'll sign it the moment it hits my desk.
+Page 6 of 21
+We must not delay. Every day we delay costs Kansas families money, each and every day.
+It will be a win for every one of you in this room. And, much more importantly, a win for
+working Kansans.
+And, we know working families need a break, particularly, after the last two years.
+This pandemic has created so many strains, so many stressors, and so many challenges, we
+simply cannot let it derail the careers or the dreams of our young people.
+That’s why we have remained laser-focused - to protect their futures.
+That meant upholding my promise to bring fiscal sanity back to our state government.
+It wasn’t easy, and not a day has gone by that I haven’t been tasked with making tough
+financial decisions.
+But our resolve to keep the state checkbook balanced is paying off in a big way.
+Today I'm announcing that my budget includes a total freeze on college tuition increases.
+You heard that right. No tuition increases whatsoever.
+This virus took something from our students. And, we are going to give them something
+back.
+Again, it’s a huge win for our young people and for all working Kansans.
+These are the types of things we can do when our state's economy is growing the way it is.
+And it is economic growth we should all be proud of.
+Look at where we are…
+We've created more than 30,000 new jobs. That's 30,000 - even during a pandemic.
+Our unemployment rate has been below 4 percent for over a year.
+And in 2021 alone, the private sector invested nearly $3.8 billion dollars in new facilities
+and equipment.
+Page 7 of 21
+That's a new state record. By a long shot.
+That means: new businesses coming to our state.
+Existing businesses expanding.
+Big companies opening new divisions.
+Small businesses hiring new employees.
+It means jobs for Kansans living in our cities.
+And in our suburbs. And in our rural communities.
+Our small businesses are growing.
+Our big companies are hiring hundreds of new employees and expanding, like Hilmar
+Cheese in Dodge City, Superior Boiler in Hutchinson and the Schwan's Pizza Plant in
+Salina.
+And big national companies, like Urban Outfitters, are choosing to build distribution centers
+here - because we have a strong economy and the best workforce in the nation.
+Listen to this…
+Over the past three years, we have secured a total of more than $7.6 billion dollars in new
+business investments in Kansas.
+That's more than any previous administration's total in the entirety of their first term - and
+we still have another year left.
+Remember several years back, Kansas was in the national news for all the wrong reasons.
+Well, in 2019, we were back in the national news - but this time as CNBC's Comeback State
+of the Year.
+And in 2021, Kansas was recognized with the prestigious Gold Shovel Award - a national
+award given to Governors who lead the way in attracting job-creating investments to their
+states.
+Page 8 of 21
+There's more economic opportunity in the state of Kansas today than at any time in our
+history.
+And Kansans should really take pride in the role they have played in helping our state and,
+all of the nation, successfully navigate through this pandemic.
+Everyone here knows this: Kansas processes 25% of the nation's highest quality beef.
+If our meatpacking plants had shut down during the pandemic, it would’ve created a food
+crisis for our entire country.
+We really couldn't let that happen.
+So, during those first days and weeks of the pandemic, I partnered with then-Senator, Pat
+Roberts, who was chair of the senate ag committee. Together, Senator Roberts and I worked
+with President Trump to make sure our meat-packing plants stayed open, safely.
+It wasn't about political party, it was about keeping Kansans who feed our nation, and the
+world, on the job.
+As a result, Kansas was the only state in the nation to keep our major meatpacking plants
+open during the entirety of the pandemic.
+I'd like to thank our federal delegation, particularly Representative Sharice Davids and
+former Senator Pat Roberts, for their hard work in making that happen.
+After all, we know that the agriculture industry is the lifeblood of our economy. And
+farmers are truly the heartbeat of our state.
+Right now, our hearts go out to the Kansas farmers and ranchers who have lost their
+livestock, their crops, and even, in some cases, their own homes to wildfires.
+I want you to know we're doing everything in our power to provide relief to restore your
+livestock, and rebuild your farms, your ranches, and your lives.
+With us here tonight is Russell County Emergency Manager Keith Haberer.
+Keith, could you please stand for a moment. 
+Page 9 of 21
+Keith has been a firefighter and an emergency manager in Russell for more than 20 years.
+During the recent wildfires, I witnessed how hard Keith worked to help the people in his
+community stay safe.
+For weeks he’s been working nonstop. He coordinated the county’s response to the raging
+fires and delivered resources to the families, farmers and ranchers who were impacted by the
+devastation.
+He is one of the thousands of first responders all across the state: our firefighters, our law
+enforcement, our national guard, and our EMTs, who step up when a crisis hits.
+Thank you Keith, for your service to your neighbors and to your community.
+Our farming and ranching families are lucky to have men and women like Keith, who stand
+ready to provide support when times are tough.
+This administration is equally committed to supporting our agriculture industry.
+Whether it is through:
+Being the only Democratic Governor in the country to support the USMCA trade
+agreement;
+Responding to COVID-related challenges;
+Or adding Short Line rail projects to move product to market more cost effectively, more
+efficiently.
+But still, we know that farming isn't getting any easier – particularly with the natural
+disasters and global supply chain challenges.
+But we also know, our farmers and ranchers are the most resilient people on earth.
+As I travel across Kansas, the stories I hear are so inspiring.
+Farmers like Vance and Louise Ehmke, owners of Ehmke Seed in Lane County.
+They took over the family farm in the mid '70s, as the fourth generation of Ehmkes to
+operate it.
+Page 10 of 21
+Now Louise is a Democrat from California, and Vance is a Republican from right here in
+Kansas. The two met while students at Bethany College in Lindsborg.
+Recently, the Ehmkes celebrated 50 years of a happy, bi-partisan, marriage.
+And they’re with us tonight. I’d like to have Louise and Vance, representing all Kansas
+farmers and ranchers, please stand to be recognized.
+You know, Louise and Vance are still out there each morning with their fellow farmers and
+ranchers, rain or shine, snow or sleet.
+That toughness, that grit, that sense of pride, so often passed from one generation to the
+next …. that's what makes Kansas farmers so special.
+Now, looking ahead, I’m excited to share with you that my budget this year also restores
+full funding to the State Water Plan for the first time in 15 years.
+The water plan is a five-year blueprint for action that will ensure that we have a reliable,
+quality water supply to support not only the needs of Kansas communities, but a thriving
+farming economy.
+Because everyone in this room knows, as I do, that agriculture built the Kansas economy,
+and it will always be the backbone of our state.
+And, despite all of the obstacles that our farmers and ranchers have faced, and thanks to
+their unrivaled persistence, Kansas is on its way to another record year of agricultural
+exports.
+In fact, we’ll surpass the $4 billion-dollar mark in exports for the second consecutive year.
+A feat not accomplished in nearly a decade.
+Four billion dollars. That's a big deal.
+Growing our rural economy has been a major focus of my Administration.
+Our efforts to rebuild our rural economy began day one when we established the Office of
+Rural Prosperity. 
+Page 11 of 21
+We then moved expeditiously to re-start the Kansas Mainstreet program - to help our rural
+communities keep their downtowns vibrant.
+We cherish our Main Streets - as the heart of our communities, the cultural centers of our
+communities, and as their economic engines.
+And, if we've learned anything these past couple of years about doing business in this day
+and age, it's that if you don't have access to high-speed Internet – you are going to get left
+behind.
+When I got into office, Kansas was way behind the eight ball on broadband development.
+The state had no roadmap, no funding, and no plan.
+So, we established the Office of Broadband Development, and now, we have expanded
+internet access to over 50,000 new households and businesses. We’ve connected rural
+communities that were frustrated for years by the lack of access.
+During the pandemic, hotspots were strategically deployed to ensure that our students in
+low-income households could continue their education remotely.
+We won't stop until every Kansan who wants, or needs, high-speed Internet has access to it.
+For as much as rural Kansas - all of Kansas for that matter - needs a strong information
+superhighway, they also need better actual highways.
+The type you drive on to get your product to market, to get to work, or get your kids to
+school.
+Sadly, for the past 10 years, politicians have taken money that was supposed to go for roads
+and bridges and instead used it to clean up the mess created by the tax experiment.
+The highway fund became known as: “the Bank of K-DOT.”
+Well, it's not a bank. It's been a slush fund.
+And this year the slush fund goes away, and the “bank” closes for good.
+We'll make sure that money meant for roads and bridges is actually used for roads and
+bridges.
+Page 12 of 21
+We have already completed numerous projects across Kansas, and many others are in the
+pipeline.
+They are important projects like:
+The widening of U.S. 69 from a two-lane to a four-lane expressway in Crawford and
+Bourbon Counties.
+This project completes the much-needed, long-overdue, 4-lane highway from Kansas City to
+Pittsburg. A promise made years ago, and, now, finally kept.
+Late last year, we announced design modifications in Johnson County for K-10 that will
+improve a stretch of highway serving 65,000 drivers per day.
+In Wichita - the state has partnered, for several years with the city, the County, and the
+federal government to finish the $86 million North Junction project.
+When completed, it will, finally, alleviate Wichita's worst bottleneck. Every member of the
+Sedgwick County delegation sitting here tonight knows exactly what I’m talking about.
+Now new road projects like North Junction don't always create splashy headlines.
+But they do make communities safer.
+They do create jobs.
+They do stimulate economic activity.
+And, they change the very quality of life for residents who rely on these roads every day.
+While we’re on the subject of improving quality of life for the people of Kansas, we cannot
+forget about our health care systems and our hospitals.
+For years, we've debated Medicaid expansion….. round and round.
+Folks, medicaid expansion is the quickest, the easiest, and the most common sense way to
+help Kansans.
+And we’re not just talking about 150,000 Kansans accessing quality, affordable health care.
+Page 13 of 21
+The fact is, communities can’t grow or survive if their hospitals close.
+Kansas has lost five hospitals in recent years.
+We can’t afford to lose another.
+We owe it to our rural families and businesses.
+Medicaid expansion won’t just protect small towns and their residents, it will keep health
+care professionals from moving to neighboring states - most of which are Red states - all of
+which have expanded Medicaid.
+Right now, we’re the stubborn, self-defeating, state in the middle of all of them, we are
+sabotaging our rural communities and their efforts to recruit new jobs and residents. We are
+shooting ourselves in the foot.
+Medicaid expansion is something we can do right now.
+It is well past time. Let’s get this done.
+A strong health care system will always be a hallmark of a healthy state and a healthy
+economy.
+Just as important, however, is the strength of our public education system.
+Four years ago, when I ran for office, I ran to be the Education Governor.
+After years of budget cuts and neglect, Kansas needed one.
+And, now, I am proud to say, that for the Fourth straight year: we are fully funding our
+public schools.
+And, we are doing it with a balanced budget.
+Because it's not an either-or.
+We can balance the budget while also funding our schools, fixing our roads and bridges,
+funding other essential services, investing in economic development. 
+Page 14 of 21
+The full funding of our schools is something everyone in this Chamber can celebrate.
+But, I also know that, for these past couple of years, during the pandemic, the challenges
+facing our schools have gone way beyond just funding.
+Last year, in my State of the State, I spoke directly to teachers - who - nearly overnight -
+reinvented the way they taught, doing whatever it took to educate our children during the
+pandemic's worst days.
+We’ve worked hard to get everyone back in the classroom, but the job of a teacher hasn't
+gotten any easier. If anything, it’s more difficult and more stressful.
+Teachers have always deserved our deepest gratitude, our respect, and our support.
+To all the Kansas teachers out there, we thank you. We applaud you.
+This year, I'd also like to take a moment to speak directly to Kansas parents. Especially
+those with school-aged children.
+You have been through a lot these past couple of years. A whole lot.
+Now I have two daughters, both well out of the house - thank goodness - but I often think
+about what it would have been like if they were still young and had been at home during the
+pandemic.
+I know it would have been incredibly hard to balance their education and my job.
+It would have been hard dealing with their losses not being able to hang out with their
+friends, not going to birthday parties, not participating in graduation ceremonies.
+And with this virus, particularly because it has gone on for so long, sometimes, you feel like
+there's no right answer.
+When all you really want is to do right by your children, to have a voice, to have a say, in
+the decisions that impact their lives.
+I want you to know that I’ve heard you. I have approached decisions I’ve made not only as
+a Governor, but also as a parent.
+Page 15 of 21
+I know, with all the ways this virus has changed and keeps changing our lives it can be
+difficult to keep up.
+This has been unchartered territory.
+This pandemic has deprived our kids of a normal childhood for far too long.
+That’s why our Department of Wildlife and Parks, together with our Tourism Division,
+partnered with the State Department of Education to launch the Kansas Sunflower Summer
+program.
+This program provided kids and their families the opportunity to visit all of our state’s firstclass attractions: our museums, our parks, our zoos:free of charge.
+In total, more than 70,000 Kansans participated in the program. Sunflower Summer was so
+successful that we have every intention, to not only do it again next summer – but also to
+expand it.
+Our schools are now open and they will stay open, but the Sunflower Summer program
+helped make this uneasy time a little more manageable, a little more affordable, and a little
+more normal.
+Back in the classrooms, we also know our kids are feeling the lingering effects of the
+pandemic.
+Not every parent has the means to help their children get the attention or the tools they need
+to fill the learning gaps created by the pandemic.
+Just yesterday, we announced a bipartisan agreement to allocate $50 million dollars in
+Learning Recovery Grants for students who need that extra help to get caught up.
+These grants will give parents the ability to sign their kids up for counseling, tutoring,
+summer camps, whatever their child needs to close the learning gap.
+We can’t turn back the clock on the last two years, but we can lay out the path to support
+parents and put students in the best position to find success.
+Another thing on the minds of parents these days is not having to worry about their child’s
+safety. 
+Page 16 of 21
+I know I’m speaking for parents when I say that the world is a whole lot bigger and much
+more complicated than when we were growing up.
+We sense it as leaders as well, and I’ve made protecting children and keeping them safe a
+top priority as Governor.
+That starts by supporting our law enforcement officers.
+My budget contains historic levels of funding for law enforcement.
+Funding that will provide better equipment, better training facilities, and greater public
+safety.
+And for our state highway patrol - a much deserved pay-increase.
+We're also increasing funding for evidence-based juvenile delinquency programs, so we can
+reach these kids before it's too late and keep them out of the system.
+There’s no question that as the world has changed, it has become harder to be a kid.
+From social media pressures, to life during a pandemic, growing up in 2022 is a lot more
+complicated, and difficult.
+Imagine, dealing with all that they have to deal with - and what’s happened over the last 2
+years - while also being a child in foster care.
+When I took office, our foster care system was a mess.
+It was an embarrassment, it was immoral and it did not reflect how Kansans value and
+cherish their children.
+It wasn’t going to be easy.
+But I knew if we were going to create real accountability, that we would have to pull the
+curtain back and do a full, honest assessment of our foster care system and make the
+necessary and critical changes, to protect our kids.
+And after three years, we have made significant progress. 
+Page 17 of 21
+We have decreased the number of children in foster care by over 15 percent. That’s one
+thousand fewer kids in the system.
+That progress started with the tireless work done by Secretary Laura Howard and her team
+at the Department for Children and Families.
+They studied the mistakes of the past and they took an intentional approach, to move the
+state away from a child welfare system and toward a child and family well-being system.
+Secretary Howard directed the agency to focus on things like kinship care, where a child is
+placed with a family member or a very close family friend, instead of being placed in the
+system.
+Kansas was also one of the first states in the nation to implement the Family First
+Prevention Services Act.
+This program provides support services for struggling parents to increase their ability to care
+for their own children, in their own home, rather than in the foster care system.
+Just last year, I signed an executive order creating the Division of Child Advocate.
+The Child Advocate will ensure that the progress we have made is not fleeting or subject to
+political manipulation.
+The advocate will ensure an independent, accountable system to investigate complaints, to
+help families navigate a very complex system, and act as a data-resource for further
+improvement of the system.
+Most importantly, the child advocate will make sure kids in our care are healthier and safer.
+The Division of Child Advocate has been a deeply bipartisan effort and would not have
+been possible without the support and input of legislators and stakeholders on both sides of
+the aisle.
+I know some of you here have spent years working to get this issue over the finish line, and
+I'm grateful for your efforts.
+Likewise, an area where we should be able to find common ground is our state's mental
+health system.
+Page 18 of 21
+Whether we talk about children or their parents, veterans or farmers, small business owners
+or health care workers, this pandemic has exacerbated mental health challenges for so many
+Kansans.
+That's why I've included additional funding in my budget, to make it easier for local
+communities to provide critical mental health services closer to home, and reduce the strain
+on our law enforcement agencies, our jails and our hospital emergency rooms.
+It will save lives and it will protect our communities.
+I know many of you care deeply about this issue, and I look forward to working with you to
+create a mental health system in Kansas that is second to none.
+Speaking about second to none, as you all know, just last month, we lost our proudest
+native son, Bob Dole.
+Senator Dole was a passionate voice for Kansas. He was also a passionate voice for an
+entire generation, the greatest generation.
+In fact, it's because of people like Bob Dole that the greatest generation got its name.
+Senator Dole once told us: “In politics, honorable compromise is no sin. It is what protects
+us from absolutism and intolerance.”
+Senator Dole also said: “When it's all over, it's not about who you were, it's about whether
+you made a difference.”
+These are words we should all keep close to our hearts.
+Whether you made a difference.
+Now, if you only looked at social media, you'd think nothing gets done around here, at all
+… just a bunch of bickering.
+But the truth is - that's not the case.
+Thanks to the good work of the people in this Chamber, I have signed 187 bipartisan bills.
+Let’s look at the list:
+Page 19 of 21
+• A bi-partisan bill to fully fund our public schools.
+• A bi-partisan transportation plan, which will lead to 130 new infrastructure
+projects.
+• A bi-partisan scholarship program for our students in high-demand, highskilled fields.
+• A bi-partisan bill that extends the tax credit program that helps Kansas startups succeed.
+• A bi-partisan bill to support our military families and encourage them to stay
+in Kansas.
+• A bi-partisan emergency loan program to help families and businesses pay
+their utility bills when they skyrocketed last February.
+The list goes on and on.
+When we think back several years, and reflect on why things in Kansas went so far in the
+wrong direction, it’s because we weren’t prioritizing what Kansans want and what they
+need.
+Kansans want their government to focus on the day-to-day needs that most of us can agree
+on - and not on the ideological issues, or the culture wars, that divide us.
+That means they want:
+New businesses that bring good jobs.
+Strong public schools.
+Roads that don't wreck their cars.
+Safe communities.
+Access to basic health care.
+A balanced budget.
+Page 20 of 21
+And when possible, and when responsible, tax relief to help working families.
+When I talk to Kansans from all political parties in all corners of the state, the most
+common theme I hear is: “I am so sick and tired of all the political fighting.”
+And usually, they're not talking about the people in this building.
+They're talking about in their own lives.
+And the feeling that politics now dominates everything.
+The friendships that are being torn apart.
+Social media feeds you're afraid to look at anymore.
+Family members you can barely talk to.
+Politics rearing its ugly head in our children's schools.
+I'm sure all of you in this room can think of people in your lives who, just a few years ago,
+you could have a civil conversation and talk about the issues of the day - and now, you
+really can't.
+It's all become so toxic.
+Now the people in this Chamber didn't cause this problem. Much bigger forces are at play.
+But the people in this Chamber can be part of the solution.
+We can turn down the temperature.
+We can be civil and compromise.
+We can be role models for our children.
+We can put allegiance to Kansans ahead of allegiance to political party.
+We can be as good and as decent as the people who sent us here.
+Now, some of you may know that I am a baseball fan. 
+Page 21 of 21
+And one of the great joys of my life was spending a day, 20-some years ago, with the great
+Buck O'Neil, at the Negro League Museum.
+Buck was an iconic player for the Kansas City Monarchs, but his larger contributions to
+baseball and to this country came in his later years, when he lead the campaign to establish
+the Negro League Museum.
+He did it to make sure we never forget those players, the injustices they faced, and their
+rightful place in history.
+Buck passed away about fifteen years ago, at the age 94.
+Just a few weeks ago, we learned that Buck was, posthumously, voted into the National
+Baseball Hall of Fame to, finally, be honored alongside the game's very best.
+Long overdue in my opinion, and it's a shame he wasn't alive to see it.
+But Buck was an eternal optimist, even toward the end of a life that had had so many
+hardships.
+One of Buck’s more delightful sayings was:
+“Hold hands with the person next to you. That way, they can't get away. And neither can
+you.”
+So, let us all hold hands these next few months.
+And not let go until we finally get things done.
+God bless our great and beloved state of Kansas.
+Thank you and goodnight.</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>President Stivers, Speaker Osborne, Members of the General Assembly, Lieutenant Governor
+Coleman, constitutional officers, Chief Justice Minton and the justices of the Kentucky Supreme
+Court, secretaries of the Executive Cabinet, General Lamberton – and to all the Kentuckians
+around the commonwealth who are watching safely from home, including Kentucky’s First Lady
+and toy-drive superwoman Britainy Beshear and our children, Will and Lila. And, of course,
+Virginia. Thanks for being there for the people of Kentucky once again.
+I am humbled to stand before you tonight to deliver my third State of the Commonwealth
+Address. In many ways, this address feels both the toughest and the most exciting.
+We come into this New Year with excitement and optimism, with an economy booming like
+never before. At the same time, we are all processing grief and sadness after a year of
+unprecedented natural disasters and a continuing pandemic.
+We are just weeks from the deadliest tornado outbreak in state history, which took 77 lives,
+including one child just 6 days old. Entire towns were nearly wiped off the map, leaving
+thousands of our brothers and sisters homeless or struggling.
+All of this as we continue to fight a COVID pandemic that has now taken more than 12,000 of
+our Kentucky family, friends and neighbors and more than 828,000 of our fellow Americans.
+But even through these trials and the pain we carry from them, I am here to report the State of
+our Commonwealth is strong. And I am confident, even certain, that our time – Kentucky’s time
+– is here. Our commonwealth is strong. It is strong because we are strong.
+In Kentucky, we are good people, tough people, resilient people. We care deeply for one another.
+And while they may knock us down, no tornado, no pandemic, no flood, no ice storm can break
+us. Because we do not break.
+All of America – and indeed the entire world – has now seen who we are: neighbors who open
+our homes and hearts to one another. People who embrace selflessness, generosity and love. All
+while we were reminded that any arguments, any divisions, just aren’t that important.
+And not even the difficulties of our present can stop our excitement of the future. And good
+people deserve a good future. Our time is here. Kentucky is no longer a fly-over state. We are the
+destination.
+2
+We are celebrating the greatest economic progress we’ve seen in our nearly 230-year history,
+with the largest ever private sector investment, the most new jobs and the second highest wages
+in state history – and we are just getting started.
+We will talk more about this exciting time, our time. But first, let’s address our trials and our
+tragedies. 2021 was marked by the loss of far too many of our friends, family members and
+neighbors. Everyone lost someone, maybe multiple some ones, over the last year.
+On top of another year of painful losses to the pandemic, 2021 was bookended by natural
+disasters: devastating ice storms and historic flooding in January and February, and the deadly
+tornado outbreak in December.
+After each of these disasters, I visited the communities that were suffering, to see the damage
+myself and to listen to the stories of our families. I traveled to a warming center in Ashland
+during the ice storm. I found a friend of mine sitting in the corner with his dad, whose dialysis
+machine was plugged into the wall. I watched as volunteers brought in meals, and a medical
+team from King’s Daughters arrived and walked family to family to make sure everyone was
+okay.
+One month later, that same warming center was underwater as record flooding hit parts of
+Eastern Kentucky. Days later, I went to Beattyville, which had been almost completely
+submerged. I listened to one of our county judges describe an amazing helicopter rescue by our
+National Guard. Let’s take a moment to thank the National Guard for their heroic efforts this last
+year – I am proud to be your commander in chief.
+Months after Beattyville, I was in Nicholas County. A historic flood had taken homes clear off
+their foundations, red Xs painted on their doors as a painful symbol that people could not return
+to their homes.
+And then came December, with at least five tornados hitting on the same terrible night, one of
+which stayed on the ground bringing death and destruction for more than 200 miles. The stories
+of that night are tragic, but they are also heroic.
+I met a farmer in Taylor County who pulled multiple neighbors from the basements of their
+collapsed homes, clearing away enough debris to pull them out. He told me one family called
+out: “Please don’t leave us!” And he didn’t. That man, Nevin Price, is with us tonight with his
+wife, Sherrie. Let’s give him the round of applause that a hero deserves.
+Jeremy Creason couldn’t be with us tonight. Jeremy is chief of the Fire Department in Mayfield.
+He was among the first on the scene after a tornado leveled a candle factory with dozens of
+workers inside. I remember talking to Jeremy, the mayor and police chief just after midnight on
+that difficult night as they worked to save so many lives. To all our first responders, the people of
+Kentucky thank you.
+3
+Nothing I’d ever witnessed prepared me for the level of destruction I saw in Western Kentucky.
+One of the hardest hit places was my dad’s hometown of Dawson Springs. This is a place I
+know, a place that I love. This was always a safe place for me, a place where my family sang
+hymns on my grandfather’s porch. Miraculously, that home, that porch still stand, but just a
+block away everything is gone.
+Seventeen people, from a town where bad things simply don’t happen, were lost. My faith
+teaches me that while we struggle to understand the whys of human suffering, we can see the
+presence of God’s in the response. Scripture (Galatians 6:2) tells us: “Bear one another’s
+burdens, and so fulfill the law of Christ.”
+We saw that in the actions of our people and in the outpouring of love and support from around
+the world. People from all over, many with little or no personal connection to Kentucky, have
+pledged millions of dollars to help the recovery and have volunteered thousands of hours. Many
+others – including Lieutenant Governor Coleman, folks from the executive branch and LRC–
+rolled up their sleeves to give blood at drives like one sponsored here at the Capitol. And when
+the First Lady started a toy drive, gifts poured in and piled up by the hundreds of thousands to
+make sure these kids who had already lost so much could have a good Christmas.
+Britainy, I am so proud of your work. I was changed by your toy drive. Passing out those toys,
+and in visiting with those families, I had at least two special moments.
+One was when I joined Coach Cal and Samaritan’s Feet to hand out shoes. A young boy lit up as
+I pulled out a new pair of blue sneakers. He immediately asked if he could put them on right
+there, right then. We got them on him, and he jumped up and began running around, showing
+pure joy in a pair of shoes… just days after devastation.
+And then there was Kara McKnight, a special girl I met at our Christmas celebration at Pennyrile
+Park. It had been a tough month for her and her family. She lost her older brother, Logan, around
+Thanksgiving. And then she lost her house in the tornado. My daughter, Lila, and I volunteered
+to be Kara’s personal shoppers, and I started handing her more and more board games and other
+toys.
+When her hands were full, I started loading Lila up with more, just for Kara. And that’s when it
+happened. She began to laugh. An amazing, special laugh I will always remember. A laugh that
+reminded me that even in the darkness, there is wonderful, pure, joyful light.
+Kara, her brother, Jett, and her parents, Ashley and Jason, are with us tonight. And I know Logan
+is here with us, too. Thank you to Kara and her entire family for their strength and for their
+goodness.
+The courage and compassion Americans and Kentuckians have shown for one another during our
+plight fills me with pride at being your Governor and also with certainty that we – as Team 
+4
+Kentucky – have what it takes to meet this challenge. We are committed to being there for those
+who lost everything in these tornadoes.
+I appreciate President Biden’s support for our people during this disaster. He granted my request
+that the federal government pay for the entire cost of the first 30 days of cleanup. That’s a huge
+help, and I have requested an extension. Because there’s so much more that needs to be done.
+As part of that effort, I am working with House and Senate members on fast-track legislation to
+help our impacted families. This legislation directs $150 million to help our communities
+rebuild. Another $50 million would go to the region’s schools to help them recover and get them
+ready to provide the best possible education to the kids there. It provides additional tools to bring
+and keep jobs in these communities. And it shows that we – Democrats and Republicans, House
+and Senate, Executive and Legislative branches – will stand with these families.
+So I want every family and community touched by these storms to know that I am with you, the
+General Assembly is with you, and the Commonwealth of Kentucky is with you, today,
+tomorrow and however long it takes. We will rebuild. Every structure, every life.
+Now, we cannot talk about the state of our commonwealth without addressing the ongoing
+COVID pandemic. As I noted earlier, we’ve lost more than 12,000 of our fellow Kentuckians to
+this evil virus. The nationwide death toll has surpassed 828,000. Those are 828,000 children of
+God, missed and mourned by their communities and those who loved them. And right now, we
+are seeing a severe, unprecedented escalation of cases due to a new variant we must take
+seriously. In fact, today is the most new cases we have had in a single day during the pandemic.
+Yet even with these concerns, I remain convinced that we can and will beat COVID, because in
+2021 we gained the tools and knowledge we need for victory. And in a point of pride we should
+all share, Kentucky and our people continued to take a leading role in this fight.
+In late December 2020, I visited U of L Health as the very first COVID vaccines arrived,
+delivered by one of our very own UPS employees. Later, I visited UPS Worldport; the workers
+there, proud Kentuckians and maybe a few misguided Hoosiers, continue to ensure these
+lifesaving Shots of Hope reach people here, throughout America and around the globe.
+The testing and vaccine protocols developed here in the commonwealth with the help of partners
+like Kroger and Gravity Diagnostics have gone on to become national models. Think about, in
+little more than a year, we’ve built the most robust testing and vaccination networks in human
+history. It was called the greatest logistics challenge since World War II, and we got it done.
+In just over a year, we’ve vaccinated over 62% of every man, woman and child in the
+commonwealth, something that has never, ever been done before. Right now, people can drive or
+even walk to one or multiple locations where they can receive, free of charge, COVID testing, or
+a vaccination, or a booster. Get your booster.
+5
+We still need many more of our people to choose to get vaccinated and boosted, but we can and
+should take pride in the fact that our vaccination rate has consistently been in the top three in our
+region and now nearly 75% of all Kentuckians 18 and older have received at least their first shot
+of hope.
+My administration’s COVID response is and will always will be based on saving lives: not what
+is easy, not what is popular, but what is necessary and what is right. That’s why we were one of
+the very first states to prioritize vaccinations for our educators. It’s how Kentucky was one of the
+first states to return to in-person instruction in every single school district. The rest of the nation
+later adopted our approach.
+And as our kids went back to in-person learning, they had the support of the First Lady’s
+Coverings for Kids. That effort ensured that students across the commonwealth had a mask to
+wear to protect them as they learned. Individuals and businesses, including Ford Motor Company
+and Humana, donated more than 2-point-4 million masks.
+Folks, COVID is our Spanish flu. It is our plague. But we are strong enough to defeat it no
+matter how long it takes.
+Yes, in 2021 we faced a once-in-100-years pandemic that is the challenge of our lifetime. On top
+of that, we have dealt with flooding, ice storms and deadly tornadoes. Still, we never took our
+eye off the ball and worked every day to build a better future of our kids.
+Along the way, we shattered every economic development record in the books! We attracted a
+record $11.2 billion in private-sector investments. Even better, these investments will create
+more than 18,000 quality jobs for Kentucky families.
+In September, we landed the largest single investment this state has ever seen. At nearly $6
+billion and 5,000 new jobs, Ford Motor Company and its partner, SK Innovation, are going to
+build the nation’s largest electric vehicle battery plants right here in Kentucky.
+Bill Ford Jr. is Ford’s executive chair, and Henry Ford’s great-grandson. He sat in my office and
+said, “Andy, this is the biggest step in the auto industry since the Model T. And this is the
+biggest investment Ford has ever made, and we are making it in Kentucky.”
+That’s when it hit me: Ford Motor Company – a company that is as American as America – was
+betting its future. And who did Ford trust enough to bet its future on? The people of the
+Commonwealth of Kentucky.
+And it is not just Ford.
+Pratt Industries is making its largest ever investment – a half-a-billion-dollars – in Henderson.
+This is the largest project in Western Kentucky in 25 years. 
+6
+Toyota continues to believe in us, investing over $461 million in electric vehicles and adding
+1,400 direct, full-time jobs.
+GE Appliances is expanding in Louisville, showing us that U.S. manufacturing is back. In
+October, the company announced a $450 million investment and 1,000 new jobs.
+Amazon operationalized its new $1.5 billion Air Hub, creating 2,000 jobs in Northern Kentucky.
+Ahlstrom-Munksjo located a second facility in Madisonville with a $70 million investment that
+will create more than 50 jobs.
+And Fidelity Investments in Covington, which was already one of Northern Kentucky’s largest
+employers, announced 600 professional jobs this summer.
+These are world-class companies choosing us; some of the most sophisticated corporations on
+the planet betting their future on Kentucky. These are the jobs of the future and they are coming
+to every part of our state.
+Kentucky is leading on electric vehicles. Ford and Toyota’s investments were joined by
+Firestone Industrial Products, creating 250 jobs in Whitley County.
+We, Kentucky, are leading in agritech, with AppHarvest announcing four expansions in
+Morehead, Somerset, Berea and Richmond. AppleAtcha, who is growing apples on abandoned
+coal mine property, is expected to create 2,000 full-time jobs in Inez. AppleAtchah’s own Bernie
+Kosar – Super Bowl and national champion quarterback – is here with us tonight. Thank you
+Bernie for the work you all are doing to fuel our agritech industry and feed our people. Fresh
+Harvest continues to grow in Stanford and Enviroflight is thriving in Maysville.
+Other high-tech companies have made great strides, including Rajant in Morehead, which
+expanded its mesh telecommunications system, and Novelis, which opened its first new facility
+since 1982 investing over $300 million in Todd County.
+Kentucky was already the worldwide leader in bourbon production, but in 2021 we saw the
+industry continue to expand, both in production and tourism. We welcomed revivals like the
+Dant Family and Log Still. We celebrated exciting new players like Horse Soldier Bourbon in
+Somerset. These folks are the real deal. American heroes that, again, chose us. They are
+investing hundreds of millions of dollars in Southern Kentucky to build something really special.
+We also applauded as stalwarts like Four Roses and Heaven Hill for cutting ribbons on expanded
+visitor centers. And I must say a special personal thank you to Secretary of Commerce Gina
+Raimondo, whom I personally worked with to remove harmful bourbon tariffs and ensure a
+bright future for a signature industry.
+As you can see, the incredible economic leaps we are taking aren’t confined to just a few
+counties or a few cities. And my pledge is that everyone will share in the coming prosperity,
+especially the regions and the neighborhoods that are far too often left out.
+7
+Let me give you one of my favorite examples. A month and a half ago, I returned to Beattyville.
+This time, it was not to respond to a natural disaster, but to welcome LION First Responder back
+to the community. LION, which reopened its PPE manufacturing in the community; and it did so
+in the same building the company left in 2010. What I saw that day was not just hope, it was
+progress; it was a step toward prosperity. Here with us tonight representing LION are Diane Best
+and Patty Barker. Let’s thank them for investing in our Kentucky communities.
+So after a record year – one where we won, and we won, and we won some more – where do we
+go? The answer should be simple: forward.
+With all that we have experienced this year, we should be over the fighting, over the bickering,
+over any games.
+After this year, I am convinced that our role in government is not to move the state right or left,
+but to move it forward.
+So this year, and in this session, we have a duty – a responsibility – to make the investments that
+can turn two years of great progress into 20 years of real prosperity.
+In a little over a week, I will join you again to unveil a budget that does just that.
+I believe a budget is more than lines and numbers. It’s a values statement, and my upcoming
+budget will reflect our Kentucky values of family, faith, community and a deep compassion for
+our neighbors.
+It will make historic investments in education, as world-class companies require a world-class
+workforce. It will create a fund for investing in development sites, so that we attract the next
+Ford or Toyota. It will invest in essential workers, like our Kentucky State Police, our nurses and
+our teachers, to ensure we can not only recruit, but retain these critical jobs.
+It will ensure we remain a leader in agriculture technology in Eastern Kentucky and will build on
+our pharmaceutical footprint in Northern Kentucky.
+It will continue to deliver on our promise of a world-class airport in Paducah. It will continue to
+invest in infrastructure, with more water and sewer grants. And we will continue to expand the
+Mountain Parkway to four lanes and construct the I-69 bridge. It will move us ever closer to the
+announcement – which I hope we can make next year – that we will construct a Brent Spence
+Companion bridge without tolls.
+And it will include a raise for all of our state workers. We simply cannot say that we respect and
+support our teachers, social workers and other state workers while removing their pensions and
+not providing them a raise in over a decade. And I care enough for each and every one of them to
+get them closer to paying them what they are worth.
+8
+Folks our time is here, and our future is now. But for us to achieve our destiny we have to
+embrace it and work for it. President Abraham Lincoln a hero to this state and this country said it
+best: “You cannot escape the responsibility of tomorrow by evading it today.”
+As representatives of the people of Kentucky, we are called at this crucial moment in our history
+to accept this great responsibility and to lead. I know we can agree to work together to rebuild
+and recover. I know we can take the bold actions needed to move us forward.
+If we choose to act wisely, maybe if we choose to act kindly, then we can look back decades
+from now and see that it was this moment, right here, that made all the difference.
+After standing in what used to be downtown Mayfield, after walking through what used to be
+Dawson Springs, after seeing the devastation of Bremen, I think we should all be changed
+people.
+So let’s spend this legislative session focused on bettering the lives of our people. Let’s focus on
+restoring and repairing lives and buildings in Western Kentucky. Let’s focus on reducing the
+number of children or seniors who go to bed hungry each night. Let’s focus on bringing healing
+and recovery to those struggling with opioid and other addiction issues. Let’s focus on making
+sure our children are getting the very best education. Let’s work together to support our
+workforce to fill all the jobs coming our way. Let’s make sure that our incredible economic
+momentum reaches every corner of the commonwealth and every neighborhood in all of our
+cities. And let’s not devolve into anger, division, bitterness or hate ever again.
+We’ve been called to be better people. And we should be.
+Scripture further guides us: “Let us not become weary of doing good, for at the proper time we
+will reap a harvest if we do not give up.” We are too strong to give up. We must go forward.
+Our time is here; our future is now. God bless and God bless the Commonwealth of Kentucky.
+Thank you.</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Thank you, Bishop Duca, for that beautiful prayer.
+All too often, our world is filled with unrest, and right now our prayers are especially with the people of Ukraine as they defend their homes, their families, and their freedom.
+We are joined today by Eddy Hayes who is the Honorary Consul of Ukraine. He represents the economic and cultural interests of the country here in Louisiana. I asked him to be here today in hopes that he will relay our unified support to his colleagues in Ukraine. Eddy, will you stand to be recognized?
+Mr. Speaker, Mr. President, members of the Legislature and my fellow Louisianans.
+It is an honor to be back in this chamber after delivering last year’s speech offsite due to COVID.
+We’ve been through a lot over these past two years, navigating the pandemic and multiple natural disasters. I’ve always been one to count my blessings, but now I cherish the time spent with loved ones even more– especially my children – Samantha Bel, Sarah Ellen, and John Miller. My beautiful wife and my best friend, Donna.
+Like me, I know that many of you have sacrificed seeing loved ones in order to keep them safe. And unfortunately, we’ve all lost people dear to us because of COVID-19. We’ve lost people who should be in this room with us now.
+It was exactly two years ago today that we marked the first death from COVID-19 in Louisiana. Since then, over 16,800 Louisianans have died, and more than 1.2 million cases have been confirmed.
+But a lot has changed. We have safe and effective vaccines that are saving countless lives. We have better therapeutic treatments. High-quality masks are now a practical option for families.
+Cases and hospitalizations have been steadily dropping since we emerged from the Omicron fueled surge this winter.
+Parades rolled again this Mardi Gras. If that’s not a Louisiana breeze of hope, I don’t know what is.
+On March 11, 2020 I signed a public health emergency for COVID-19. And while it changed to reflect the ebb and flow of the pandemic, it has remained in effect since then. This Wednesday, the order expires. And after 24 months, I will not be renewing it.
+This decision was certainly not made lightly. I have met with the Division of Administration, GOHSEP, the Department of Health, and the Louisiana National Guard to ensure that there will be no federal aid repercussions or other adverse consequences from not renewing the proclamation.
+Just because the proclamation is expiring doesn’t mean COVID is over. If the circumstances call for it, I will not hesitate to declare another emergency. But God willing, we will never have to see such difficult mitigation measures in our state again.
+I don’t know what the future holds, but I do know that we are in a much better place today than we were two years ago.
+That is in large part due to healthcare heroes around the state and the stalwart team at the Louisiana Department of Health, including State Health Officer Dr. Joe Kanter and Secretary Dr. Courtney Phillips. They may be weary, but they have not wavered in their efforts to save lives.
+We are ALSO in a much better place today than we were six years ago. At my first state of the state, I had just inherited a billion-dollar budget deficit to close out that fiscal year, and a two-billion-dollar deficit for the year that started July 1, 2016.
+Today, as I stand here before you, we have hundreds of millions in surplus, even more in current year excess, and billions in federal funding through the American Rescue Plan and the Infrastructure Investment and Jobs Act.
+It all adds up to a historic opportunity to transform our state through pivotal investments in every level of education, infrastructure projects that for decades have been pipe dreams, long overdue pay raises for some of our most dedicated workers, and combating the effects of climate change.
+We have a once in a generation opportunity to shape our future, and we must take advantage of it.  It is not an exaggeration to say that the choices that will be made this session over these next three months will have a lasting legacy for the state. We have to get this right.
+Shaping the future always, always begins with education. So the budget I have proposed includes:
+$31.7 million for faculty pay raises in higher education.
+$10.5 million for the MJ Foster Promise Program Fund, created by President Cortez just last year.
+$97.2 million for higher education, which includes $5 million for Title IX offices across the state, $15 million increase in GO Grants, and $25 million into the Higher Education Initiatives fund.
+$43.4 million for early childhood education, including more than $17 million for the LA-4 Early Childhood program.
+And $148.4 million for teacher and support staff pay raises, which is at least a $1,500 raise for teachers and $750 for support staff. This also would be the fifth teacher pay raise since I’ve been Governor.
+However, I believe that working together during this session, we can do even better.
+And that’s why I am recommending that the first $50 million of any increase in the revenue forecast that the REC may recognize before the budget is passed go to increasing teacher raises to $2,000. It is the least we can do for the people who never gave up on our students despite unprecedented circumstances, and it continues our goal of getting teacher pay up to at least the Southern Regional Average. 
+My budget also includes a $12 per diem increase for intermediate care facilities for people living with intellectual disabilities. The funding will be used to support Direct Service Workers in the medical field. Unfortunately, turnover in this field is high – especially over the past two years because of COVID. The pay is unacceptably low and the work is difficult.
+But that hasn’t stopped Sheliaka Harvey who is a certified health manager and direct service worker at Terrebone Arc in Houma. She is here with us today. Sheliaka helps take care of 6 women – cooking, cleaning, making sure they take their prescribed medications and providing companionship, which can be just as important as medical assistance. Sheliaka says she cares for the residents as if they are her own family and seeing them smile makes her day. Please, Ms. Sheliaka, stand so the Chamber can welcome you.
+There are many other direct support workers like Sheliaka who understand how important their jobs are and want to stay in them. But at the end of the day, they have to be able to pay their bills. They deserve so much more than this modest raise, but I hope it can be a step towards change.
+We are also including a $100 per month supplemental pay increase for eligible first responders, which includes law enforcement officers and firefighters. Here in Louisiana, we need to put to rest this talk about defunding the police.
+We can never adequately compensate the men and women who put their lives on the line for public safety. However, it is important that we have the ability to recruit, train, and retain the best of the best in law enforcement. They deserve it. And the public deserves it.
+The items I’ve mentioned so far are recurring expenditures. Thus no one-time dollars are proposed to fund these investments.
+But we also have a momentous opportunity this year to commit one-time dollars to one-time expenses. Most notably, we are going to invest in infrastructure unlike any time in our history. Roads, bridges, ports, railways, water and sewage systems, orphan wells, broadband…They all need our attention, and with funds from the Infrastructure Investment and Jobs Act, the American Rescue Plan, and our normal Capital Outlay program, we will make meaningful progress on Mega-projects and deferred maintenance projects that have been sitting on a shelf for decades.  The longer it takes, the more expensive they become and the more citizens lose confidence in their elected leadership.
+My proposal includes more than $1.1 billion in funding for critical infrastructure, such as $500 million for a new Mississippi River Bridge here in Baton Rouge, an additional $100 million for the bridge in Lake Charles and $500 million for water and sewer improvements statewide.
+These dollars are being strategically placed to best leverage federal dollars for Louisiana.
+We are all tired of the jokes about knowing you’ve entered Louisiana when the roads get bad. Every state is struggling to update their infrastructure. And since becoming governor, we’ve invested nearly $4.7 billion in projects, including 6,312 miles of our highways, in order to change that narrative. We’ve made significant progress, but the funds we are receiving from the federal government will allow us to catapult big ticket projects from talk to action.
+My budget proposal also dedicates $550 million in federal American Rescue Plan funding to replenish Louisiana’s Unemployment Insurance Trust Fund, which had been funded at historically high levels prior to the pandemic. We didn’t just pull this number out of the air. That’s what’s going to be required to meet the solvency goal by September that we have in state law.
+Some folks may ask why this is a priority. Our businesses are still recovering from the pandemic. If we don’t replenish the trust fund, it will automatically trigger an increase in taxes on all businesses in the state – big and small, which pay into the trust fund. That is the last thing they need right now.
+This is a balanced budget that is responsible, transformational, and continues my administration’s practice of only using one-time dollars for one-time expenses. It’s a promise I made six years ago and one that I have not deviated from. We are not going back to the days of deficits, fiscal cliffs and one-time dollars for recurring expenditures. And we will continue to be focused on empowering families and communities for the future.
+It’s also with a focus on the future that we are working to eliminate the digital divide – a goal I have set to accomplish by 2029.
+In this day and age, internet is something most of us take for granted. But there are too many Louisianans, especially in rural communities, who still don’t have access, can’t afford it, or lack digital literacy.
+A strong internet structure is essential to economic competitiveness, access to healthcare, educational opportunities, and an overall better quality of life.
+That’s why my administration worked closely with Rep. Deshotel last year to create the Granting Unserved Municipalities Broadband Opportunities grant program, or GUMBO for short. This program, totaling hundreds of millions of dollars, will provide grants to facilitate the deployment of broadband infrastructure, connecting more than 471,000 unserved residents in our state. And we’re just getting started.
+The rest of my legislative package is also about transforming our future for the people of our state.
+That includes ensuring that the citizens of this state are fairly represented. We just ended the redistricting session, an opportunity that only comes once every decade. As I’ve often said: the voters should be choosing their leaders; leaders should not be picking and choosing their voters. Partisanship and self-interest cannot rule the day. Voting is one of the most important and cherished rights and responsibilities of ALL Americans.  
+It is disappointing and unfortunate, in my view, that the end result of the special session did not reflect what is right and fair and what is required by the Voting Rights Act.
+The current demographic makeup of our state shows that the percentage of African American population has grown over the last 10 years and yet, while numerous maps were filed reflecting this growth, none of these maps made it to my desk. The most egregious in my view is the Congressional map because there are half as many majority minority districts as the law, basic fairness and I believe basic math require. Therefore, I vetoed the Congressional bill.
+You know, the Legislature undertook 5 separate redistricting efforts. A total of 163 districts. And across those 5 bills and 163 districts there’s not one net new majority Black district anywhere. The African American voting age population in this state is 31.2 percent, basically a third of our population. And it’s likely more because according to a recent report by the U.S. Census Bureau, the Black population was undercounted. And I don’t believe we should need a court to tell us how to do basic math: One third of six is two. 
+Our children are watching us. In fact, many took part in the process to make their voices heard, pleading that the right thing be done. We must think beyond ourselves and focus on their future, the future of our state, and the place they want to continue to call home.
+Having personally witnessed redistricting twice now, I can say that the current process is not working. That is why I am supporting legislation to establish an independent redistricting commission to support the Legislature in reapportionment for future redistricting. 18 other states have some type of commission, and I think we should be the 19th.
+Now, if you don’t agree with this, if you think the current process is sufficient, then prove me wrong. Pass a map this session that accurately reflects the current demographic makeup of our state for Congress.
+I mentioned earlier the proposed increase in supplemental pay for law enforcement officers, something that I believe is important to attract and retain the people who are keeping us safe. But an important part of that effort needs to be ensuring that those officers can be true partners with our communities and have the trust of the public. And let me be clear, the overwhelming majority of our law enforcement officers are professionals and excellent public servants who work hard every day to protect and serve. We know that we need to do more to hold the very few officers who violate that trust accountable. I intend to support several bills in this session that will do just that – including a package bill that would clarify the criminal law of malfeasance in office to apply to violations of constitutional civil rights and to provide for revocation of POST certification if an officer is found to have committed such an offense. I know these discussions are difficult, but they are necessary.   
+Another system that is broken is the way our citizens are treated in the aftermath of a natural disaster, which unfortunately here in Louisiana happens way too often.
+The federal government still hasn’t allocated sufficient funds for Louisiana to recover from Hurricanes Laura, Delta, and Ida. And – while I probably should not say this since I know that my Mamma’s watching - it’s a damn shame that they haven’t. When I talk to people in DC, they tell me that more aid is coming, and I believe it will … but I don’t blame folks for feeling like they’ve been left behind.
+Let’s be clear though - it’s not just a federal problem.
+Recent disasters have exposed the unacceptable ways our neighbors are being taken advantage of when they are at their most vulnerable.
+Suffering damage due to a natural disaster is life altering. And yet, there are landlords who have used it as an opportunity for a cash grab.
+So I am supporting legislation by Rep. Landry that has bipartisan support and emulates that of other Southern conservative states that will strengthen tenant protections in the aftermath of a disaster. Many of the reported evictions after Laura and Ida were illegal. But there are no meaningful repercussions to discourage landlords from proceeding with wrongful evictions. We’re going to change that. We all know what it’s like to have to make the difficult decision to temporarily leave our homes because of a storm. Imagine being evicted simply because you chose to keep your family safe.
+It's also unacceptable that many residents are more scared of their insurance companies than the storm itself.
+Kerry Anderson has a beautiful historic home in Lake Charles that was destroyed by Hurricanes Laura and Delta. After 18 months, she is still battling her insurance company to force them to pay even a fraction of what she is owed. Kerry is also a breast cancer patient. Her sole focus right now should be on fighting cancer, not fighting with her insurance company.
+In Southeast Louisiana, Peggy Honore, who teaches at LSU’s School of Public Health, had FIVE insurance adjusters in just the first twelve weeks after Ida destroyed her home in Destrehan. How is that even remotely possible or acceptable?
+Unfortunately, Kerry and Peggy are far from the only ones left in insurance purgatory. There are thousands of other families and business owners as well who have been left in the lurch.
+Pat’s of Henderson is an iconic seafood restaurant that opened its doors in Lake Charles in 1977. I can tell you from personal experience – the food is very good. The day after Hurricane Laura made landfall, owner Nick Perioux hired a contractor so that he could get the restaurant back up and running as soon as possible. Instead, he struggled with his insurance company until November of last year. Had his payments been made on time, the restaurant would’ve reopened by the end of 2020. Instead, it’s slated to reopen this June, nearly two years after the storm. And I can’t wait to go back when it does.
+Vineyard Christian Fellowship Church of Lake Charles has endured a similar story. Co-Pastor George Rodrigues wasn’t able to get the insurance benefit the church was entitled to until last summer. In the meantime, worship service was held in their outdoor pavilion in the sweltering Louisiana heat. The church’s facilities still aren’t back to 100%.
+Kerry, Peggy, Nick, and Pastor George will you all please stand to be recognized.
+Ladies and gentlemen, we have got to hold insurance companies more accountable.
+My legislative package includes a number of bills focused on hurricane deductibles, claim transparency, enforcing insurance fraud laws against bad actors, revamping the adjuster registry so that policyholders can verify their adjusters, and stopping mortgage companies from withholding insurance money from homeowners without good reason.
+I’m not limiting my support to only the bills in my own package, however. Many bills of a similar nature have been filed this session, which signals how much of a problem this is. I look forward to working with all of you on what should be a bipartisan issue.
+Insurance is a wonderful thing – when it functions as intended. Unfortunately, companies don’t always work in good faith with homeowners. All we’re asking is that they play by the rules.
+We are all having to adapt to a changing environment – one where storms are getting stronger and more frequent.
+We don’t get to dictate when the next storm hits or how bad it’s going to be. But we can work to mitigate the impacts of climate change.
+That’s why I established the Climate Initiatives Task Force and set a goal of reaching net zero by 2050. This taskforce, which includes scientists, academics, industry leaders and environmentalists, has adopted a Statewide Climate Action Plan.
+What makes Louisiana’s plan special, and the most attainable in my opinion, is that instead of working against oil and gas companies, we are working with them. In this state, that will look like offshore oil platforms and wind turbines side by side. In fact, many oil companies have already pledged to reach similar net zero goals.
+Additionally, combating climate change is just as much about economic development as it is about anything else.
+Some of our biggest economic development projects recently have been with companies focused on clean energy. Grön fuels is planning a $9.2 billion renewable fuel investment in West Baton Rouge Parish, Air Products plans to build a $4.5 billion blue hydrogen facility in Ascension Parish, there is a $1.1 billion expansion of a green diesel plant in Norco in St. Charles Parish, and the Shell Convent refinery too may get a second life making low-carbon fuels.
+In North Louisiana in Caldwell Parish, we announced plans for Louisiana Green Fuels, a $700 million renewable diesel refinery.
+It all adds up to more than a thousand permanent jobs and thousands of construction jobs.
+If you think that clean energy doesn’t equal jobs, you couldn’t be more wrong. Just two weeks ago, the first offshore wind lease sale in New York brought in more than $4.3 BILLION. That’s BILLION, with a B. It’s estimated those wind leases will power millions of homes.
+We’re scheduled to have the first ever wind lease sale of the Gulf Coast early next year. And as we can see from legislation filed by Rep. Zeringue and Rep. Orgeron, there’s strong interest in wind energy development on both sides of the aisle.
+There’s strong interest in wind energy development in Louisiana waters from stakeholders also.
+This is the future I’ve been talking about harnessing. And we can either get on board or get left behind. 
+Ultimately, our motivation for advancing clean energy should be preserving the land we are so very blessed to call home so that Louisiana will not be washed away.
+Finally, I can’t leave this podium without yet again making a plea for you to do the right thing and raise the minimum wage and reduce the gender pay gap.
+There is not a person in this room who can tell me with a straight face that $7.25, a minimum wage from 13 years ago, is fair or acceptable, especially given the current rate of inflation. 21 other states have increased their minimum wage, including Arkansas and Florida. And yet, every year, efforts to raise the minimum wage in Louisiana, even modestly or gradually, fail.
+Our workers and families deserve better.
+And so do women. I am also supporting legislation to enact pay transparency. It isn’t a silver bullet solution, but it’s a sensible measure that can make a meaningful difference in reducing the gender pay gap, and that too will benefit the families that need it most.
+So let’s make this the session we finally take action on the issues that matter most to the people of Louisiana.
+Some of the bills being brought up this session do nothing to make lives better. Nothing to continue moving us forward. They only serve to divide us. And frankly, some are reminiscent of a dark past that we should learn from, not relive.
+You know the old saying “if these walls could talk”? Well, these walls DO talk. History remembers what happens in this building. And the issues we spend the most time on signal to the public what we value the most.
+So I ask: What do you value most? More importantly, WHO do you value most?
+As I think you all know, my faith is very important to me. It is the foundation that guides me as I strive every day to become a better leader and a better person. Growing up, I believe I had the hardest catechism teacher there was…my mom. Those lessons have stayed with me. And as I contemplate the work I want us to accomplish together in the last two years of this term, I’m drawn to Christ’s Sermon on the Mount and the Beatitudes.
+You all know them, but here are a few of my favorites…
+Blessed are the poor in spirit, for theirs is the kingdom of heaven.
+Blessed are those who mourn, for they shall be comforted.
+Blessed are the meek, for they shall inherit the earth.
+Blessed are the merciful, for they shall obtain mercy.
+Blessed are the pure in heart, for they shall see God.
+As we enter this session, as you consider the many issues that will be discussed from this very spot, I want you to really reflect on the people of this great state. Our neighbors, as their spirits are broken and they mourn two years of loss and hardships. Our children, with their meek and pure hearts. Our moms, the most merciful and blessed of all.
+Our time in office is fleeting, but the decisions we make while here will last generations. I’m asking that we use this time wisely.
+I’ll leave you with my favorite:
+Blessed are the peacemakers, for they shall be called children of God.
+In a world that has too much hatred, strife, and currently war, let us be peacemakers.
+May God bless you and may God bless the great state of Louisiana.</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>President Jackson, Speaker Fecteau, Chief Justice Stanfill, Secretary Bellows,
+Attorney General Frey, Treasurer Beck, Auditor Norton, Distinguished Members of
+the 130th Legislature, Mayors and Honored Guests, it’s good to be back!
+Tonight is the first time in two years we have been together in this chamber. I am
+here to continue the story I shared then, a story about the promise of our state and
+the progress we have made to reach our people’s full potential.
+As we emerge from the early dark days of January, as a waxing moon sheds light on
+a dramatic midwinter landscape, it is a good time to take stock, to reflect on our
+common history, our community progress, and our communal future, to assess the
+State of our State.
+We have been through some difficult and dangerous times together these last twentythree months. This state, and this nation, have endured a time like no other, fending
+off a pervasive, unceasing threat to our lives and to our livelihoods.
+We in Maine have never had it easy, never been able to take things for granted.
+We don’t welcome tough times, but we’re not afraid of them either. And as any good
+Maine forester will tell you, “Good timber does not grow in ease / the stronger wind
+the tougher trees.”
+Our presence in this Chamber tonight is a sign of progress, of recovery — a step
+forward in our march towards normalcy and stability, especially from where we have
+been.
+Early in the pandemic, with no experience with this novel virus, I, like virtually
+every governor across the nation, took steps to protect the health of Maine people,
+following the best available science to protect lives.
+With the development of vaccines – now available to nearly all – science delivered
+to us the life-saving miracle we needed, and, with it, the responsibility to protect
+lives no longer belonged to me alone. It became then, as it is now, both a personal
+responsibility to protect yourself and a shared responsibility to protect us all.
+2
+We have arrived at yet another inflection point in this winding pandemic, a hopeful
+moment as we welcome downward trends and declining hospitalizations; a warmer,
+brighter spring as we emerge from a cold, dark winter.
+Yes, we are tired; yes, we are weary, but we are strong. If nothing else, two years of
+this pandemic have shown us that we are stronger than we ever imagined.
+Last year’s emergency measures no longer serve the purposes they once did, nor
+should they. As science and trends evolve, our response evolves as well.
+Today, we focus not on telling people what they cannot do. We focus on telling
+people what they can and should do.
+We focus on preserving the most vital facets of our lives: our schools, our hospitals,
+our jobs.
+As the storm of the pandemic endures, with peaks and valleys to come, my pledge
+to you is this: that we will work day and night to make vaccines and tests accessible
+to all; to keep our children safe in their schools; to work in close partnership with
+our health care systems, ensuring critical care for all those who need it, and not just
+those with COVID; and to keep our businesses open and thriving and our economy
+moving forward.
+We will continue to expect the unexpected, as common sense, common courtesy and
+vigilance rightfully replace fear and anger, as we protect ourselves from known risks
+and take care that our individual actions do not jeopardize the health of others.
+And as the vaccine becomes available for our youngest children, and as more people
+are fully vaccinated and obtain even greater protection with booster shots, we will
+continue to recommend the common-sense measures that keep our state safe,
+adjusting to meet changing circumstances.
+You can do your part by getting vaccinated.
+More than one million of you have, and to each of you, I am deeply grateful.
+You are why I am proud to report that Maine is one of the most highly vaccinated
+states in the nation and, despite being one of the oldest states, we have one of the
+lowest COVID death rates in the nation.
+Our goal has been to save lives. And we have succeeded better than nearly every
+other state.
+3
+This success, however, is cold comfort to the loved ones of those who lost their lives
+to this insidious virus, the more than 1,800 Maine people - fathers, mothers,
+grandparents, friends - whose absence is felt painfully every day.
+Tonight, we also feel the loss of two good people who served so ably in this
+Legislature: Representative John Tuttle of Sanford and Representative Donna Doore
+of Augusta.
+Let us bow our heads in a moment of remembrance for those good souls and for our
+fellow citizens who lost their lives.
+As we look across the State of Maine right now, we still see local hospitals trying to
+stay on top of the extraordinary crush of very ill, mostly unvaccinated, patients
+fighting for their very breath.
+We see children, resilient in the face of great difficulty, desperate for stability,
+socialization and education.
+We see parents persevering, but searching for a break, hoping not to get the call that
+their day care has closed, because they know they can’t afford to miss work.
+We see citizen school boards patiently listening to students, teachers and parents,
+and deliberating on the right measures to keep kids in school while protecting
+everyone from the virus.
+We see farmers, fishermen, loggers and haulers trying to keep up with the swings in
+demand, the uncertainty of markets and offshore supplies and, for the lobster
+industry, arbitrary federal regulations over the Gulf of Maine.
+We see an economy making an historic comeback, but challenged by longstanding
+difficulties, like a shortage of workers, while shops, manufacturers, trades and
+service providers are anxiously trying to fill thousands of jobs.
+We see Maine people struggling with exorbitant electric bills and inflation at the
+pump and at the grocery store, paying more of their hard-earned paycheck just for
+basics.
+We must work together to address these challenges.
+But there are also things we cannot see as readily that show that our state is on the
+road to recovery. 
+4
+Maine’s economy, like that of the rest of the nation, is making a comeback. Maine’s
+Gross Domestic Product – a key measure of economic growth – has not only fully
+bounced back from the pandemic, it has surpassed pre-pandemic projections. Indeed,
+from when I took office through the third quarter of last year, our GDP grew at the
+second fastest rate in New England and the 14th fastest rate in the nation.
+And our unemployment rate, 4.7 percent – which is still too high – has fallen by
+nearly half from a pandemic high of 9.1 percent. Jobless rates in the Bangor area
+have fallen to 3.8 percent, to 4 percent in Lewiston and Auburn, and to 3.4 percent
+in Portland and South Portland.
+Only about 6,000 people are actually receiving unemployment benefits, a number
+comparable to the number before the pandemic.
+Our auto, building supply, lodging, retail and restaurant sales all were up this
+summer.
+Our international exports are up and on track to be the best since 2012.
+Our tourism industry had a banner summer season.
+Our state parks saw a record number of visitors -- more than 3.3 million last year
+alone -- with thousands more already booked for this year.
+Maine families are enjoying their state, and people are coming here, enjoying what
+Maine has to offer, and contributing to our economy. Thank you, Commissioner
+Beal, and your staff, for being such good stewards of our public parks and
+campgrounds.
+Our population is growing at the second highest rate in New England, and we have
+the 7th highest rate of net migration in the nation.
+We are encouraging new, innovative businesses with exciting partners like the Roux
+Institute, and we are welcoming new businesses across the state, like the data and
+tech company, Dynamic, located in Lewiston, Maine. Congratulations, Mayor
+Sheline!
+Our credit ratings have been reaffirmed -- even as other states were downgraded --
+by credit rating agencies who cited our governance practices and the growth of our
+Rainy Day Fund as signs of stability.
+Our Rainy Day Fund has more than doubled under my Administration to nearly $500
+million. Let me repeat that: half a billion dollars – the highest it has ever been. 
+5
+We have returned $371 million to Maine people and Maine businesses, including
+sending $285 checks to more than 500,000 hardworking men and women in Maine
+and millions more in tax relief for Maine people and businesses.
+And, after passing strong, balanced budgets – the most recent one supported by
+nearly every member of this Chamber – we are reporting a record budget surplus of
+$822 million. This is thanks to good fiscal management and to our careful allocation
+of Federal and State pandemic relief, including hundreds of millions of dollars in
+grant funding to keep Maine small businesses open and their employees on the job.
+And we have achieved all this without raising any taxes.
+All of this is progress.
+At the same time, Maine is not immune from the impact of pandemic-driven
+inflation, from higher energy prices caused by a reliance on fossil fuels, to supply
+chain issues that contribute to higher prices at the grocery store for everything from
+potato chips to plastic ware, to ramen noodles and cat food, and even a scarcity of
+chocolate milk in Houlton and Moxie in Lisbon.
+A global pandemic has had very real and very clear impacts on the national economy,
+and those impacts are felt here in Maine.
+While I cannot control the impact of COVID-19 on global markets, I can make sure
+that we deliver to Maine people the resources they need to grapple with these rising
+costs as we rebuild a stronger sustainable economy that is more resilient to the whims
+of the rest of the world.
+Many of my friends on the other side of the aisle, like Senate Minority Leader Jeff
+Timberlake and House budget lead Sawin Millett – have called for a return of half
+the surplus to Maine people through direct checks. I think they’re right.
+I propose that we send half of this surplus – $411 million – back to the people of
+Maine. These givebacks, by direct checks to the people, will amount to about $500
+per person and will be distributed to an estimated 800,000 taxpayers in Maine to
+help them offset added costs.
+As we continue to rebuild our economy, we know what the largest impediment is to
+sustained growth. It’s the same issue that has garnered headlines for the past decade:
+Maine’s workforce shortage.
+Headlines like: 
+6
+“Here are the jobs Maine employers struggle to fill.” That headline was from the
+Bangor Daily News on November 1, 2015.
+“Some Farmington area stores struggle to get employees.” The Sun Journal, July 7,
+2018.
+“What’s next for Maine’s labor shortage?” MaineBiz, December 10, 2018.
+Sound familiar?
+Maine has long grappled with an aging and declining population, with young people
+leaving our state in search of better opportunities.
+The pandemic didn’t help our workforce by any means. The Maine Department of
+Labor estimates that, of 22,000 people no longer in our workforce, more than 15,000
+of them likely retired, a trend consistent with the rest of the country.
+Our workforce shortage is a serious problem. It is a problem I inherited, but it is not
+one that I will leave to our grandchildren to solve.
+It will take hard work, not simplistic solutions – but we know what we need to do.
+Maine people are telling us that they need child care, that they need housing, and
+that they need broadband, that they need good health care, and strong public schools
+for their kids.
+I agree.
+This is why we have adopted a comprehensive approach to child care, broadband,
+housing, and health care through the Maine Jobs and Recovery Plan, and why we
+welcome a bipartisan effort to improve our schools and make every child ready for
+a career and a meaningful life in the state we hope they will always call home.
+I have five wonderful grandchildren. All here in Maine. One is an adult with special
+needs. Two are young men in college. And two are just starting out their academic
+careers — one in kindergarten and one in pre-K. Their hardworking parents, like all
+Maine parents, juggle jobs, day care, tuition and books, fuel and groceries. They ask
+every day, “What will tomorrow be like for my child?”
+I want us to do everything we can for families like these all across our state to allow
+them to stay in Maine and to succeed in Maine.
+7
+We know that lack of quality affordable child care prevents people from taking jobs,
+from starting new businesses, from moving to rural communities, and it deprives
+kids of important developmental care.
+That’s why we are tackling this issue head on.
+We created the first-ever Child Care Plan for Maine that invests approximately $120
+million in American Rescue funds to help Maine’s child care system recover and to
+improve child care quality, accessibility, and affordability over the long-term.
+With this funding, we have provided $200 monthly stipends to more than 6,000 child
+care workers to encourage them to work in this valuable profession.
+And now we are investing another $25 million in federal funds to help renovate,
+expand, or build new child care facilities and expand early childhood education
+programs.
+But we also need to do more. Speaker Fecteau has proposed legislation to provide
+pay increases for child care workers. I support his proposal.
+To deliver on it, my supplemental budget will include more than $12 million to
+increase pay for our child care workers.
+This is progress.
+The lack of available, affordable housing is also a serious barrier to entering the
+workforce, and Maine’s chronic housing shortage, long neglected in the past, has
+only gotten worse during the pandemic.
+One of the first things I did as Governor was to sign the $15 million senior housing
+bond overwhelmingly approved by Maine voters in 2015 but never released by the
+previous administration. Now we have built more than 200 new housing units for
+low-income seniors, all now occupied or near completion, and we have weatherized
+100 more.
+Two years ago, I asked you to enact Speaker Fecteau’s bill to establish the Maine
+Affordable Housing Tax Credit. You did so, and I was proud to sign into law the
+single largest state investment in housing in Maine’s history. This summer we broke
+ground on the first major housing project under that law and it is making a huge
+difference.
+Under my Maine Jobs &amp; Recovery Plan we are investing $50 million to increase the
+number of energy-efficient, affordable homes for working Maine people. $10 
+8
+million of that is now ready to go out the door and will result in at least 150 new
+affordable, single-family homes.
+This is progress.
+We must make home ownership and affordable rentals reachable for more Maine
+people. It is both an economic and moral imperative.
+Another thing keeping too many people from working, especially in rural areas of
+Maine, is the lack of affordable broadband. High speed internet is no longer a luxury;
+it is a basic necessity, as fundamental as electricity, heat and water.
+Two years ago, I asked you to support a $15 million bond to expand internet for the
+first time in more than a decade. You agreed and the voters approved and those funds
+have already brought high-speed internet to more than 11,000 homes and businesses
+across Maine.
+We proposed, and you enacted with bipartisan support, a new entity charged with
+achieving universal internet access in Maine – the Maine Connectivity Authority.
+With this new Authority up and running, and with the support of American Rescue
+funds, I pledge to you tonight that every person in Maine who wants to connect to
+high-speed internet will be able to do so by 2024 – just two years from now.
+Because this is progress.
+We will make Maine one of the most competitive and desirable places to live and
+work and raise a family and stay connected to the world.
+Reliable child care, affordable housing, high speed internet – all of these things are
+key to people being able to enter and stay in the workforce and provide for their
+families.
+But we’ve also got to do more to help people get ready for work and careers to begin
+with. That starts with our youngest kids.
+That’s why when I took office, I reinvigorated the Children’s Cabinet, neglected in
+previous years, to accomplish two goals: 1) to ensure that all Maine children enter
+kindergarten prepared to succeed; and 2) to ensure that all Maine kids are able to
+enter adulthood in good health, with a good education, and ready for a good-paying
+job.
+Beginning with Pre-K, we are delivering on these plans.
+9
+Pre-K promotes child development, improves early literacy, math, and socialemotional skills, and bolsters student success.
+My Administration has increased our investment in public Pre-K programs by $5.4
+million, resulting in 90 more Pre-K classrooms across the state.
+And just last month, we announced grants from the Maine Jobs &amp; Recovery Plan to
+14 school districts, from Kittery and Sanford to Caribou and Greenville, and in
+between, to further expand Pre-K to more than 500 children across Maine. And there
+is more to come.
+I am also proud of the progress we have achieved in Kindergarten through twelfth
+grade.
+Working with you, we have raised the minimum teacher salary to $40,000, and we
+delivered on one of our most fundamental commitments:
+For the first time in Maine history we met the state’s longstanding commitment to
+fund 55 percent of the cost of education.
+No longer will we underfund education in the State of Maine, as past administrations
+have done.
+We will maintain this commitment to our students, to our teachers, to our
+municipalities, and to our property taxpayers. And to help us do so, tonight, I propose
+creating an Education Stabilization Fund, capitalized with $30 million from the
+General Fund, to continue delivering on that promise.
+It is the fiscally responsible thing and the morally right thing to do by our people.
+In other words, progress.
+We all know that students can’t learn on an empty stomach.
+Last year the Legislature, led by Senate President Troy Jackson, got rid of the
+distinction between paid lunch and free and reduced lunch and asked us to pick up
+the cost of these school meals once federal funding ended.
+I am pleased to announce that my supplemental budget will include money to fully
+fund universal free meals in our schools.
+It is time to keep feeding our children good food — more and more of it Maine
+grown, Maine fished, Maine farmed.
+10
+To that same end, to get more Maine-grown food into our schools and communities,
+and to extend the growing season, I am recommending that we provide one-time
+funds to offer Maine-built greenhouses to as many schools and communities as
+possible to promote community gardens and teach kids and their families how to
+grow their own food.
+Maine has placed a high priority on keeping classrooms open, but even so, too many
+kids have lost the vital connections with their school, their friends, their teachers and
+their academic path. Children need structure. They need to be in school. But kids
+can also learn while doing, and they can learn outside the walls of a classroom.
+I want to show Maine kids the breadth and depth, the experience of our state. Let
+them hike the trails of western Maine. Learn boating at a 4-H camp. Feed the Tilapia
+fish that are fertilizing gardens at Herring Gut Learning Center in Port Clyde and
+SpringWorks in Lisbon. Tend the state’s aquarium in Boothbay. Learn forestry at an
+Outdoor Ed Center in Brewer. Explore Burnt Island and Hurricane Island and learn
+how OceansWide is retrieving ghost gear from the ocean bottom. Ford the streams
+at Baxter State Park. See all the research being done at the University of Maine, at
+UNE, at UMaine Machias, at the Darling Marine Center, the Bigelow Labs, Jackson
+Labs and the Gulf of Maine Research Institute.
+Education is changing in so many new and exciting ways, and we should be at the
+forefront, preparing our children, introducing them to the great outdoors and offering
+them hands-on experiences outside the classroom that will spark new perspectives,
+engender new friendships, and deliver new skills.
+Experiential learning will help kids reconnect while enjoying all that Maine has to
+offer.
+Tonight, I am directing the Commissioner of Education, Pender Makin, to develop
+a new collaborative, using federal enrichment funds, to get children outdoors this
+summer, exposing them to lived experiences that will get them ready for life and
+new careers.
+We have so much to offer for education here in Maine at every level.
+Our kids can take courses at career and technical education centers where they can
+learn critical skills in the trades on the equipment which we have now funded for the
+first time in decades. They can take courses in computer science -- a growing and
+critical part of our economy. Those courses should be expanded, and they should be
+taught earlier. We are working on that.
+11
+And we believe that exposing young people to meaningful work while they are still
+in school can also increase our workforce participation rates. That’s why this
+summer, we will expand our Maine Career Exploration program, connecting Maine
+high school students with paid work that puts them on a path to future careers.
+We are making progress.
+And when they are ready, our kids can attend one of the University of Maine’s seven
+excellent campuses or one of our nationally recognized community colleges.
+This week, we celebrate the University of Maine’s achievement of R1 status as a
+leading research university.
+This well-deserved designation reflects years of hard work by University staff,
+students, and researchers. And it will globalize the University of Maine’s reputation
+as a top-flight research institution and attract and keep the best and brightest in our
+state.
+Congratulations President Ferrini-Mundy and Chancellor Dan Malloy!
+It is also our responsibility to ensure that higher education is affordable.
+And I’ve got some ideas to tackle that.
+First, I am proposing funding in my supplemental budget to stave off tuition hikes
+across the University of Maine System, to keep university education in Maine
+affordable.
+Secondly, thinking especially about all those young people whose aspirations have
+been most impacted by the pandemic, I propose making two years of community
+college free.
+To the high school classes of 2020 through 2023 – if you enroll full-time in a Maine
+community college this fall or next, the State of Maine will cover every last dollar
+of your tuition so you can obtain a one-year certificate or two-year associates degree
+and graduate unburdened by debt and ready to enter the workforce.
+And if you are someone who’s already started a two-year program, we’ve got your
+back too. We will cover the last dollar of your second year.
+There are so many good-paying jobs in health care, engineering, the trades,
+construction, in clean energy technology, and many other industries that are just 
+12
+waiting for you – and, as your Governor, I want you to know the future is yours, and
+we will help you embrace it.
+Because that is progress. Thank you, President Dave Daigler for helping make this
+happen.
+But what about those who have already graduated and still have student debt?
+Recent graduates in Maine carry an average of $33,000 in student loan debt. Some
+have even more, like the nurse who told a radio station that she owes more than
+$100,000.
+That level of debt prevents young people from starting a business, affording a
+mortgage or paying their bills and achieving their full potential. It is simply
+unacceptable.
+Thankfully, Senator Matt Pouliot has had his eyes on this problem for a while now.
+He’s drafted legislation that will streamline the Maine Opportunity Tax Credit after
+so many years of changes that complicated and undermined the program’s good goal
+of attracting and keeping talented people in the State.
+This legislation, which received bipartisan support in Committee, transforms the
+program from an obscure bureaucratic tax benefit available to just a few, into a
+strong student debt relief tool available to all.
+I like it.
+And that is why tonight I am announcing that I will fund an overhaul of the
+Opportunity Maine Tax Credit, consistent with the goals of this legislation.
+We will broaden and simplify the program’s eligibility criteria so that those who
+graduated with student debt – regardless of what type of degree they have or where
+they graduated or what type of work they do now – they will be eligible for up to
+$25,000 of debt relief over the course of their lifetime, so long as they have a job
+and they make Maine their home.
+With these changes, the Opportunity Maine Tax Credit will be the leading student
+debt relief program in the nation and a powerful tool for employers to draw people
+from all walks of life to work and live in the State of Maine.
+This is progress.
+Some of those people may be health care workers. 
+13
+Now, it almost goes without saying that our health care system, like those in states
+governed by Republicans and those in other states governed by Democrats, has been
+pushed to the very brink.
+Our health care system has long confronted a shortage of medical professionals. But
+it is a problem that has grown worse, particularly as the pandemic has dragged on
+and as so many people, largely unvaccinated, have had to be hospitalized and receive
+critical care.
+But these increased demands never stopped our health care workers – all of them
+now vaccinated – from holding the hands of their patients to ease suffering, despite
+their own exhaustion.
+Just as it has not stopped our National Guard members, who have courageously
+stepped up to fight the pandemic, leaving their families, jobs, and communities to
+serve the people of Maine. You have our undying gratitude. You are all true heroes.
+Now, I know there are some who say that requiring our health care workers to be
+vaccinated against COVID-19 was a bad move.
+To them, I say: the American Medical Association, American Nurses Association,
+and the American Academy of Pediatricians; along with the Maine Medical
+Association, Maine Hospital Association, and Maine Health Care Association;
+Maine’s two largest hospital systems; and not to mention – the United States
+Supreme Court which upheld the Federal vaccine requirement and let ours stand –
+they all disagree with you.
+And they can’t all be wrong.
+Yes, our health care system has been stressed, just as the health care systems of our
+neighboring states, including New Hampshire, have been stressed.
+But it is because of the virus, not because of the vaccine.
+Our takeaway from this experience should not be to doubt the overwhelming
+efficacy of a vaccine that has protected those caring for us. The takeaway should be:
+get vaccinated and let’s strengthen our health care workforce in new and profound
+ways.
+And that is exactly what we are doing. 
+14
+Through my Jobs plan, we have invested $21 million to train new health care
+workers, and we’ve already started at Northern Maine, Eastern Maine, and Southern
+Maine Community Colleges, with more courses starting soon, in addition to the
+university’s new nursing program at Fort Kent.
+This is progress.
+And to bolster the healthcare workforce, we have invested more than $600 million
+in state and federal funds to improve MaineCare rates and to provide pandemic
+assistance for health care providers across the spectrum.
+And tonight I propose that we send another $50 million in State and Federal funds
+to our hospitals and nursing homes to sustain them through these difficult times.
+No other Administration in Maine history has invested as much as we have in our
+hospitals, nursing homes, and other health care providers.
+That is progress.
+And I have to say I thank God every day that we expanded Medicaid on Day One of
+my Administration, extending health care to 90,000 people.
+I thank God we reinstated the Drugs for the Elderly program, cut by the previous
+administration; and that we enshrined coverage for pre-existing conditions in state
+law, that we reversed declining health insurance enrollment, covering 11,000 new
+people through CoverME.gov; and that we are lowering the cost of health care for
+5,000 small businesses and their 29,000 employees.
+That is progress.
+But that cannot be the end of our efforts.
+The system of care for people as they grow older in Maine is inadequate.
+It is far past time to ensure that Maine people can live safely and with dignity as they
+age.
+Tonight, I am announcing that I will convene a Silver Cabinet – a mirror to our
+Children’s Cabinet – to mobilize our people, to eliminate silos across State
+government, and to enhance coordination and communication among all players to
+address long-term care issues and ensure that every person in Maine may age safely,
+affordably, in a way that best serves their needs.
+15
+Maine people work hard their entire lives, and they deserve no less.
+Just as people deserve reliable child care that they can count on; and a safe place to
+call home; and internet that isn’t dial up. They deserve affordable health care that
+keeps them on their feet, and a quality, public education that sets them on a path to
+life-long success.
+These are investments in people – our people.
+Maine people deserve every ounce of hard-won progress that we have achieved
+despite the pandemic.
+More than this, Maine people have earned the progress that is yet to come.
+We will make progress on the opioid epidemic, on improving the child welfare
+system, on combatting climate change, on bringing down the cost of electricity and
+curbing our reliance on fossil fuels to cut energy costs, and on addressing the
+devastating impact of PFAS on our health and livelihoods.
+We will make that progress.
+We are making progress because of this Legislature and also because of fifteen
+people in particular. They are sitting in the gallery tonight.
+The fifteen members of my cabinet and their staff have been by my side -- and by
+the side of the people of Maine -- consistently, with focus, fortitude, courage and
+creativity -- through some of the most turbulent times in recent history. And I want
+to thank them publicly tonight for everything they have done, much of it unseen, but
+all of it always to the enduring benefit of the people of Maine.
+[Jeanne, Pender, Kirsten, Mike, Judy, Pat, John, Amanda, Melanie, Heather, Doug,
+Randy, Laura, Bruce, Anne – You have my undying respect. Thank you.]
+In my State of the State address two years ago, I borrowed a quote often attributed
+to Sam Rayburn:
+He said, “Any fool can burn down a barn; but it takes a good carpenter to build one.”
+Let’s build that barn together – a solid shelter to weather every storm.
+16
+And let’s not argue about how many nails are in your nail gun, or mine, or who
+didn’t close the barn door, or who will shovel the roof next winter.
+Or will the very rich pay for the shingles?
+Will Portland developers want to put condos in the loft?
+Will the Steller’s Sea Eagle build its nest in the cupola?
+And if so, will the planning board consider it an accessory dwelling?
+Will there be a tenants’ union?
+Will John Martin want to store cull potatoes in it?
+Will it have Starlink?
+Look, it has been a turbulent year. But not so turbulent that we can’t work together
+on all these things.
+And not so turbulent that the sight of mysterious sea smoke doesn’t take our breath
+away; that the cold lapping of the Atlantic Ocean doesn’t send us into rhythmic
+dreams; that the power of the Maine mountains doesn’t cause us to gasp and bend a
+knee; that the beauty and breadth of our state and the goodness of our people doesn’t
+inspire us all to be better leaders, to take this state to greater heights.
+Our state is beautiful. The state of our state is strong, and it is growing stronger.
+Tonight, we recommit to progress, to recovery, to moving forward towards normalcy
+-- to building our barn, our state, together -- a safe and stable structure, with crossed
+rafters and a solid ridge beam, with firm trusses and brackets and a roof that is
+pointed to the heavens.
+That is my mission, and I ask you all to join me. Because progress is why Maine
+people sent us here, and after these past 23 months, I have never believed MORE in
+the people of our great state.
+Thank you.
+And God bless the State of Maine.</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>My fellow Marylanders:
+I’m speaking to you tonight from the Old Senate Chamber of our historic State House in Annapolis.
+It was in this very chamber that General George Washington relinquished his command of the Continental Forces, laying the foundation for a new republic with the first peaceful transition of power in our history. 238 years ago, the Revolutionary War ended right here, in this very room, with the ratification of the Treaty of Paris.
+For Maryland and for our nation, this is a place where great things begin and where great things are accomplished, and it is from this hallowed place that I have the privilege to report to you on the state of our state.
+What makes the state of our state strong is the caliber and character of our people.
+Earlier today, we laid to rest three of our true heroes of the Baltimore City Fire Department who tragically died in the line of duty—Lt. Paul Butrim, Lt. Kelsey Sadler, and Firefighter Kenny Lacayo.
+Far too often our first responders don’t get the appreciation they deserve. It shouldn’t take a tragedy like this to remind us of the tremendous debt we owe to all of our firefighters, police, and first responders.
+In memory of Kenny, Kelsey, and Paul, I ask for all the people of Maryland to find a way to say thank you to those who run toward the danger as others run from it.
+It has now been seven years since you first granted me the honor of serving as Maryland’s governor, and there has not been a single day—good or bad—when I was not grateful for the privilege.
+I’ll never forget that snowy day when I stood on the steps of this State House to be inaugurated as the 62nd governor of Maryland.
+I spoke about the wedge politics and petty rhetoric being used to belittle adversaries and to inflame partisan divisions in America.
+I vowed that day that the politics that have divided our nation need not divide our state.
+And I pledged to create an environment of trust and cooperation where the best ideas rise to the top based upon their merit, regardless of which side of the aisle they come from.
+I pledged to bring fiscal responsibility and common sense to our state capital, to make Maryland more competitive and our state government more responsive, to provide tax relief for families, small businesses, and retirees, to improve education for Maryland’s children, to protect our environment, and to rebuild our crumbling infrastructure.
+Our mission was to change Maryland for the better, and tonight, I’m proud to report that we have done exactly what we said we would do, and because of that, the state of our state is strong—by any measure, stronger and better than it was when we began our mission.
+Together, we have changed Maryland for the better by facing our fiscal challenges head-on, easing the tax burden, and paving the way for historic economic growth and record job creation.
+We changed Maryland for the better with record investments in education eight years in a row to prepare our children for the opportunities of the future.
+We changed Maryland for the better by protecting the health care coverage of Marylanders and providing lower insurance rates for the first time in a decade.
+We changed Maryland for the better with historic funding for Chesapeake Bay restoration efforts, Program Open Space, and other land preservation programs, and by setting bold goals to reduce greenhouse gas emissions.
+We changed Maryland for the better with record investments in our roads, bridges, and transit systems, transformative projects to relieve some of the worst traffic congestion in America and to expand capabilities at the Port of Baltimore and BWI Marshall Airport, along with historic investment to ensure universal high-speed internet access to everyone in every corner of the state.
+We have been able to accomplish these things despite some formidable and unforeseen challenges.
+None of us could have imagined how we would all be tested by a once-in-a-century global pandemic and the unprecedented turmoil it caused—the lives and livelihoods lost, the unimaginable personal and economic hardship.
+We stepped up and rose to the challenge by bringing to bear the entire arsenal of government and public health.
+We mobilized the citizen soldiers of the Maryland National Guard to lead strike forces into nursing homes to save the lives of our most vulnerable, to stand up surge tents at hospitals, to transport life-saving equipment, and to administer tests and vaccines.
+When no state in America had any testing capacity whatsoever, we led by building an entire testing infrastructure from scratch.
+When hospitals were overflowing, we added 6,000 additional surge beds and stood up new field hospitals.
+When we needed to reinforce our beleaguered health care workforce and emergency personnel, we activated the Maryland Responds Medical Reserve Corps and called retired nurses and nursing students into action.
+We built mass testing and vaccination sites all across the state and established the nation’s first Vaccine Equity Task Force to get shots into arms in hard to reach and underserved communities.
+Together, we have led one of the strongest health and economic recoveries in America thanks to the heroics of our health care workers, our emergency services personnel, National Guard soldiers and airmen, and the resilience of our small business community and all the people of our state who came together, looked out for one another, and who answered the call to be ‘Maryland Strong.’
+We have now spent nearly two years fighting this virus and it has taken far too much from us, including, sadly, 13,316 of our fellow Marylanders.
+But tonight there is hope, because with swift and decisive actions and the vigilance of Marylanders, I’m pleased to report that we have turned back another dangerous variant of COVID-19, and tomorrow, the state of emergency will end in Maryland.
+Our long-term public health response will continue. Our surge capacity, our testing and tracing operations, our vaccine clinics—all those things will remain in place as part of the ongoing operations of government.
+But my message to you tonight is that we must all learn to live with this virus, not to live in fear of it.
+We can’t let it continue to dictate how we live our lives.
+Our offices and businesses need to be open. Our kids need to be in school, in-person.
+Of course we will continue to follow the data and the science, and we’ll keep fighting back with everything we’ve got. But make no mistake about it, we are moving forward full speed ahead, and we will continue to lead the nation in both health and economic recovery.
+We are also going to finish the job we set out to do back in 2015.
+We’re going to keep changing Maryland for the better by passing more much-needed tax cuts for hardworking families, small businesses, and retirees. And fortunately, we are now in a  position to do just that.
+After seven years of fiscal discipline and responsible budgetary actions, record job creation and economic growth, together we successfully brought our economy back from the brink—from the 43 consecutive tax hikes that took $10 billion from the pockets of struggling families, small businesses, and retirees; from losing 8,000 businesses and over 100,000 jobs; and from the crushing $5.1 billion structural deficit we inherited.
+We repealed the Rain Tax mandate and eliminated or reformed more than 14,000 job-killing regulations. We cut tolls at every single facility in the state—the first time tolls had been cut in Maryland in 50 years. We passed the RELIEF Act of 2021—the largest tax cut in state history—nearly unanimously, which provided $1.45 billion in urgently needed tax relief and economic stimulus. We have now cut taxes, tolls, and fees seven years in a row by more than $2.7 billion.
+We changed the mission of state government to be unabashedly pro-jobs and pro-business, and we experienced the biggest economic turnaround in America.
+We launched innovative initiatives, like More Jobs for Marylanders, which helped us go from 50th in America in manufacturing to adding more manufacturing jobs than 39 other states.
+In spite of all the pressures of COVID-19, inflation, and the supply chain crisis, we were able to keep most of our economy open throughout the entire crisis.
+As a result, our economic recovery is one of the very best in America, our unemployment rate is the lowest it’s been since before the pandemic, and a national survey named Maryland as the most improved state for business in America.
+Not only have we submitted balanced budgets every year, but for the first time in nearly a quarter century, the State of Maryland is projecting a long-term structurally balanced budget well into the future, including a $2.5 billion surplus—the largest ever in state history—and we put a record $3.6 billion of savings into our Rainy Day Fund.
+Our fiscal health and our economy are stronger than they have been in decades. But changing Maryland for the better means continuing to help the working families and seniors on fixed income who are getting squeezed by inflation and higher costs.
+So we introduced the largest tax cut package in Maryland history, more than $4.6 billion in additional much-needed tax reductions.
+Our state’s sky-high retirement taxes remain the one area where we are still not effectively competing with other states. Over the course of our administration we have been successful in passing targeted retirement tax relief for our military retirees and for our hometown heroes, our law enforcement, fire and rescue, corrections, and emergency personnel. But that’s not enough.
+The time has come for the General Assembly to finally pass the Retirement Tax Elimination Act to eliminate every single penny of state retirement taxes for everyone, so that Marylanders who have spent their lives working and raising a family here, and contributing so much to our state, can afford to retire here in Maryland near their kids and grandkids.
+Each year when I have proposed critical tax relief for seniors, legislators have said we just can’t afford it.
+Well, with our economy booming and our fiscal health stronger than ever before, we can’t afford not to do it.
+Our tax reduction package includes $650 million more in tax cuts for hardworking families. And to help our small businesses continue to grow, we’re eliminating even more costly fees and red tape.
+And we’re proposing legislation to codify Project Restore and to make it permanent, to incentivize new business growth and to create even more jobs in downtowns, on Main Streets, and in communities all across our state.
+And we’re going to enact the More Jobs for Marylanders Act 3.0, a successful program we first enacted in 2017 and then expanded in 2019, which incentivizes and encourages the creation of more jobs where we need them most.
+Changing Maryland for the better also means finally enacting our legislation to combat violent crime.
+Baltimore City once again ended last year with more than 300 homicides. Among the victims were more young teenagers caught in the crossfire of gang violence, along with 69-year-old Evelyn Player, who was stabbed to death at her church, and Baltimore City Police Officer Keona Holley, who was ambushed and executed in her patrol car.
+On the very first day of the new year, a 16- and a 17-year-old were gunned down in a triple shooting, becoming the first victims of 2022.
+Just last week, Cheryl McCormack, a 51-year-old grandmother who was working as a DoorDash driver, was gunned down during a robbery in northeast Baltimore, and Chelsey Patterson, the general manager of a popular restaurant in Little Italy, was fatally shot in Fells Point.
+It was the deadliest January in the city in nearly 50 years.
+The reality is, no matter how much money we invest or what state actions we take, Baltimore City will not ever get control of the violence if they can’t arrest more, prosecute more, and sentence more of the most violent criminals to get them off the streets.
+The people of Baltimore deserve results from their city leaders and legislators, not more empty platitudes and broken promises.
+Year after year, we have introduced tough anti-violent crime legislation that is supported by more than 80% of the people of Baltimore and more than 80% of every demographic, everywhere, all across the state. But those pleas for action have repeatedly been ignored.
+Enough is enough. The time has come for Baltimore City to take back its streets and communities once and for all.
+Tonight, on behalf of all the people who are sick and tired of all of the senseless violence, I’m calling on the leaders in both parties, in both houses, to immediately pass and send to my desk the Violent Firearms Offender Act to increase penalties for those who use guns to commit violent crimes, and the Judicial Transparency Act, because the public has a right to know about the sentences judges are giving or not giving to the most violent offenders.
+People are being shot and are dying nearly every single day. It’s time to put the politics aside and to finally get this done. There can be no more excuses.
+Homicides and violent crime waves are surging in nearly every major city all across the country. And the violence terrorizing our neighborhoods and cities is made worse by divisive politics and the demonization of the dedicated men and women who risk their lives every day to keep us safe.
+Law enforcement agencies in Maryland and across the nation are struggling to attract and retain qualified officers. There could not possibly be a worse time for anyone to call for defunding the police or for cutting funding for public safety.
+The reality is that our police are underfunded and under attack, which is why we launched a half a billion dollar Re-Fund The Police Initiative to help recruit and retain more quality officers, to increase diversity and expand community policing efforts, to improve training to teach better de-escalation techniques, and to provide body cams and other technology and equipment upgrades for state and local police departments all across Maryland.
+Since we announced our Re-Fund The Police Initiative, many cities and states have begun to follow our lead. Even some of the most progressive cities like New York, Chicago, and San Francisco, are now agreeing that we need more investment in public safety.
+Time and again our police, our firefighters, and first responders bravely answer the call, and as long as I’m governor, I will continue to stand with them and continue to fight to provide them with the support and the resources they need to keep our communities safe.
+Our nation is bitterly divided. We need to find a way to fix the broken and toxic politics that is tearing us apart.
+We need to restore trust and fairness to our political system by allowing voters to pick their elected representatives, rather than having politicians pick their voters.
+Gerrymandering is partisanship at its worst. It’s a cancer on our democracy, and Maryland has the unfortunate distinction of having the worst, most gerrymandered districts in America.
+Maryland legislators had the chance to right that wrong.
+We introduced fair maps, which were created by Maryland’s nonpartisan Citizens Redistricting Commission. But legislators replaced them with maps that they drew up in secret, behind closed doors, which have been universally criticized, receiving a flunking ‘F’ grade by the Princeton Gerrymandering Project.
+These maps make a mockery of our democracy. Fortunately, the courts—not the legislature—will be the final arbiter.
+In his farewell address, George Washington warned that partisanship would create a ‘spirit of revenge’ that would undermine the ‘reins of government’ and lead to the ‘ruins of public liberty.’
+My fellow Marylanders, in this historic place where the founding principles of American democracy were born, and here in our great state where Francis Scott Key wrote of a flag that was still there, where Frederick Douglass and Harriet Tubman forged the path to freedom, where Thurgood Marshall fought for equal justice under law, we still believe in the power of coming together to change things for the better, and we still believe that what unites us is greater than that which divides us.
+To those who say that America is too divided, that our political system is too broken and can’t be fixed, I would argue that we have already shown a better path forward.
+And if we can accomplish that here in Maryland, then there is no place in America where these very same principles cannot succeed.
+So tonight, as we reflect on all that we have accomplished together, and as we embark on the hard work still left to be done, I want to once again say thank you to the people of Maryland for giving me this incredible honor of serving as your governor.
+This truly is the most important work of my life, and I pledge to you that I am going to keep giving this job everything I’ve got, every single day that I am given.
+Let’s finish the work we started together.
+Let’s keep changing Maryland for the better, and let’s continue to set an example for the rest of the nation, so that America can once again be a shining example to the world.
+May God bless the great State of Maryland and the United States of America.</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Madame President. Mr. Speaker. Leaders Tarr &amp; Jones. Members of the House and Senate. Members of Congress. Fellow Constitutional Officers. Members of the Governor's Council.
+Chief Justice Budd and Members of the Judiciary. Members of the Cabinet and our Administration.
+Mayor Wu. Secretary Walsh. Sheriffs. District Attorneys. Mayors. Local Officials. Reverend Clergy. Distinguished Guests.
+Thanks so much for being with us as I deliver my eighth and final State of the Commonwealth Address.
+To Lieutenant Governor Karyn Polito - you are one of the finest public servants and finest people I have ever had the opportunity to work with.
+Your work with local governments has forever changed the way people in public life think about the responsibilities of the Lieutenant Governor.
+There’s a reason a lot of people are running to serve as the next Lieutenant Governor. They’ve seen the way she’s done the job, and they believe that they can follow in her very large footsteps. They can try, but they’ll be wrong. She broke the mold and the new one belongs to her.
+To Lauren Baker, my wife of 34 years, and the vision behind the now spectacular Wonderfund. You are simply my everything.
+You gave me a chance to run and serve these past seven years. And you and your team of 4 made the Wonderfund the one place foster families, social workers and kids can go where the answer is always YES.
+To prepare for this, I did something I’m sure no one else has done. I went back and read all seven of my previous State of the Commonwealth speeches. They were…brilliant.
+They were all different, given the times and the work to be done.
+But they were positive and optimistic. They touted the special qualities of our people, our communities, and our institutions. They marveled at our success as a Commonwealth. They spoke about our challenges and our setbacks.
+But mostly, they focused on our opportunities to be better, to do better, together.
+Each one asked us to find the courage to compromise. To engage. To seek what John F. Kennedy once called, “The Right Answer --- Not the Republican answer or the Democratic answer.”
+And for the most part, we’ve done just that.
+Led by the Lt. Governor, we brought last mile broadband service to the people of 53 Western Mass communities.
+We brought care and compassion to Bridgewater State Hospital after decades of national embarrassment.
+We created the first Section 35 treatment beds for women in state history and became a national leader in the fight against opioid addiction.
+We eliminated the widespread use of hotels and motels to shelter homeless families.
+We fixed a very broken Health Connector and made it a national model.
+We made deep water offshore wind a booming, affordable reality in America.
+We created the first municipal vulnerability planning program in the country and over 95 percent of our communities have participated.
+We modernized local government by updating 50 years’ worth of mostly useless statutory busywork. There were so many happy local officials with us when we signed that bill into law.
+We enacted long overdue changes to our exclusionary zoning laws to unleash much needed housing production.
+We rescued a bankrupt, unaccountable public transportation system. Created an oversight board and invested over $6 billion to modernize its operations and infrastructure.
+We delivered the Green Line Extension into Somerville, and finally, after 30 years of broken promises, we funded and began building commuter rail service between Fall River and New Bedford, and Boston, which will begin operations in 2023.
+We increased public school spending by $1.6 billion, and fully funded the game changing Student Opportunity Act.
+We invested over $100 million in modernizing equipment at our vocational and technical programs, bringing opportunities to thousands of students and young adults.
+We dramatically expanded STEM programming, and we helped thousands of high school students from Gateway Cities earn college credits free through our Early College programs.
+We enacted criminal justice reform legislation that emphasized rehabilitation, treatment and reintegration and we enacted a forward looking, comprehensive and balanced police reform law.
+In 2015, we inherited a billion-dollar budget deficit and a depleted Rainy Day Fund.
+Over the next seven years, we never spent more than we took in. Increased local aid to schools and communities. Cut taxes for working families. Invested hundreds of millions of dollars alongside billions of dollars of private sector investments in housing, downtown development, waterfront and port operations, and job-creating business expansions.
+And that Rainy Day Fund grew from $1 billion to $5 billion among the largest fiscal safety nets in the country.
+As we rolled into calendar year 2020, we had the highest number of people working in state history, wage gains at every level of the economy, and hundreds of thousands of new jobs. It felt like the world belonged to us.
+And then came COVID.
+We all know the past 22 months have been tough. We’ve all suffered some degree of loss, disruption, confusion, anger and isolation.
+But the people of Massachusetts did what they always do. They collaborated, created, reimagined, and made the unbearable bearable.
+On so many issues, Massachusetts led the way.
+We had the largest small business grant program in the country.
+Constructed with the state legislature, this program funneled $700 million to over 15,000 small businesses. The vast majority were owner-operated. Half were owned by women and almost half were owned by people of color.
+Our eviction diversion program, which began before the feds stepped in, has pumped almost $500 million into rental and mortgage assistance programs, making it one of the largest in the country. Eviction hearings are down dramatically and so is demand for emergency shelter and temporary housing.
+Our food insecurity programs served millions of residents across the Commonwealth and brought together partners and providers, ranging from foundations to farmers’ markets to food banks. The knowledge gained has created new, permanent investments and better approaches to supplying and distributing food to those who need it.
+To stop the spread of COVID, we worked with local labs and dozens of community partners to create one of the most expansive free COVID testing programs in the country.
+To keep kids and adults safe and in school, we partnered with colleges and universities, K-12 schools and child-care providers to create a first in the nation COVID testing program.
+We invented Shared Streets to help cities and towns transform their downtowns into beehives of outdoor activities. Dining. Shopping. Street theater. Farmers' markets. Walking. Biking. Pop Up Stores. You name it.
+And the people of Massachusetts got vaccinated.
+Over 80% of our eligible population is fully vaccinated, and those over the age of 65 approach 100 percent. 5.2 million people are fully vaccinated, and about half of them have already received a booster shot. We are a national leader.
+Throughout this pandemic, there’s been no shortage of things we just don’t know, and it’s easy to get lost in that.
+But we should also remember what we do know. Vaccines and all the other resources we have now work. The chance of suffering serious illness if someone is vaccinated is very, very small.
+Special shout out to the vaccinators from across the Commonwealth who stepped up to support their fellow residents.
+Thousands of people got this done and made it possible for Massachusetts to be a national leader in this critical effort. It’s the most reliable and fastest path toward normal.
+I asked former East Boston Neighborhood Health Center CEO Manny Lopes and Gladys Vega, Executive Director of La Collaborativa in Chelsea, to join us tonight.
+Their partnership, and the trust they’ve earned over many years in Chelsea, Revere and Everett, made a major difference there. Vaccination rates in all three communities, despite some early challenges, now come close to or exceed our statewide averages.
+We’re so grateful for all the work your teams have done to keep people safe. Thank you.
+There’s an old expression about what you learn about people when they are truly tested.
+Well – for the past two years, the people, institutions and communities of this Commonwealth have most definitely been tested. Time and time again you have adjusted, and you have responded.
+Together, we set the course for a comeback– and it’s working.
+Our unemployment rate is below 4% for the first time since March of 2020, and we’ve gained back over half a million jobs.
+And because of all you’ve done, and all we’ve done together, I can stand here tonight and say the State of our Commonwealth remains strong.
+As we enter the new year, there are many important opportunities to build on the collaborative work we’ve done over the past seven.
+Two of those opportunities are closing loopholes that threaten public safety.
+The first loophole allows those charged with violent crimes, who may also have lengthy criminal records, to walk free before trial.
+And the second leaves residents, many of them women, with little recourse when an ex-partner attempts to violate them and destroy their lives.
+We've filed bills to deal with these issues three times, to no avail. The time to do something about this is long past.
+The Lieutenant Governor and I recently listened to several women tell us their survival stories. It was one of the most difficult conversations we’ve ever been part of.
+One after another, these women described, in graphic detail, how they survived multiple physical and psychological assaults, and how these loopholes actually protected the men who were terrorizing them.
+It was awful.
+Current law is clearly not working. These women were bothered, battered, bruised and beaten time and time again by their abusers, and nothing changed. We felt their desperation.
+It would be impossible to listen to their stories and walk away believing the Commonwealth is serious about protecting these women.
+Another woman came forward to detail how an ex-partner, unbeknownst to her, had taken dozens of lewd pictures of her and posted them on the internet.
+And if it couldn’t get any more awful, she then saw the note from him on the website: “video coming soon.”
+A lifetime of relationships, a small business she owned, a basic sense of privacy we all take for granted, were shattered by one man’s despicable actions.
+Massachusetts is one of only two states that doesn’t treat this as a crime. 48 other states treat this as a crime. Because it is a crime.
+These women had the courage to come forward and publicly tell their stories. They deserve to be heard. And they and the women they speak for deserve a vote on these two pieces of legislation.
+As we come out of the pandemic, we know we have a mental health crisis.
+Like many things, it was there before COVID arrived. But the anxiety, disruption and the isolation that came with COVID has made it worse and more visible.
+Before the pandemic, we filed a health care reform bill that would improve access to mental health services.
+Some pieces of it, like telehealth, became important parts of our effort to expand access to care during the pandemic. Since that time, the legislature has written telehealth into state law. But many other parts of that 2019 proposal have not been addressed.
+The message remains the same: the healthcare system doesn’t value behavioral health services, primary care and geriatric services. As a result, there are enormous staff and clinician shortages in exactly the areas of care that we need most.
+We know the legislature cares deeply about this issue, and we look forward to working with you to finish this work during this legislative session.
+We also appreciated the chance to testify recently before the Joint Committee on Telecommunications, Utilities &amp; Energy on our fourth climate proposal. This one builds on our very successful offshore wind agenda and includes the creation of a $750 million Clean Energy Innovation Fund.
+There are big ideas looking for a chance to test themselves in our academic institutions and our cutting-edge research organizations. This fund can create the ground-breaking solutions we need to get to net zero.
+We’re also working to put the ARPA funds appropriated by the legislature and signed into law about 6 weeks ago to work across the Commonwealth.
+Housing. Health care. Skills training. Cultural investments. Small business support. Water and sewer improvements. Port development and a host of other investments, all to help us adjust to the changing nature of life and work in a post-pandemic Commonwealth. We know there is much to do, and we need to move quickly.
+In addition, we’ll soon file a transportation bond bill to ensure we get the full benefit of the federal Bipartisan Infrastructure Law.
+As you know, accessing these federal dollars requires state government to authorize the funds that will pay for our share of federally approved projects.
+Smart, disciplined fiscal management has made it possible for us to maximize federal participation in dozens of projects. There’s a long list of opportunities here, but a big piece of these funds will be awarded through a competitive process.
+We need to move quickly to secure these dollars.
+Fiscal discipline also makes it possible for us to make strategic decisions about tax fairness and our competitive position.
+The pandemic has proven that we now live in a new world where people have more flexibility about where they live and work.
+To encourage our citizens to continue to call Massachusetts home and to help those struggling to make ends meet because of rising inflation, we’ll file several tax breaks in our budget proposal later this week.
+First, let’s support parents.
+The past two years have been very difficult ones for families. Our budget doubles the tax break for children and dependents, because every Massachusetts family deserves a break. 
+We’ll also ask lawmakers to eliminate income taxes for the lowest paid 230,000 taxpayers here in the Commonwealth. Instead of paying income taxes, these people should be able to use their earnings to pay for necessities, like food, housing and transportation.
+Rents are also rising while wages remain relatively flat. It’s time to give renters a bigger tax break on their monthly payments.
+It’s also been a tough two years for seniors. We’ll ask the legislature to give them a break on their property taxes and make our estate tax more competitive with the rest of the country.
+We’ve asked the people of Massachusetts to do a lot these past few years. 
+It's time for us to invest in Massachusetts families. To give them back some of the tax revenue they created through their hard work.
+Before I close out my remarks tonight, I want to thank a few more people.
+It’s been a very long two years for everyone, but it’s been an especially difficult period for anyone who has to “go to work.”
+Many people have been able to work from home and continue to get the job done.
+But our friends and neighbors in health care, senior care, education, retail, hospitality, emergency response, public works, public safety, restaurant, food service, grocery, transportation, and a huge number of other fields had to show up. And they did every single day.
+Their work and commitment, their patience and their grace, throughout all this has been extraordinary. Can we give all those folks the round of applause they so richly deserve?
+Thank you.
+As most people know, we’ve been calling on the National Guard since our first month in office. Whether it was Snowmaggedon, bomb cyclones, tornadoes, hurricanes, ice storms, natural gas explosions or forest fires, the Guard has been an amazing partner.
+But they became a godsend during the COVID pandemic. They did it all.
+Transporting medical gear. Testing residents and staff at long term care and other congregate care facilities. Vaccinating people at locations big and small, including here at the Hynes, where I got vaccinated. Driving school buses so kids could return to in person learning. Filling in for absent workers across almost every kind of health care institution. Helping us right the ship at the Holyoke Soldiers’ Home. And protecting our nation’s capital in the aftermath of January 6th.
+All that, and they continue to deploy to hot spots all over the globe.
+General Gary Keefe, on behalf of the people of Massachusetts, I want to thank you, your team, and all members of the Guard for your service. You make us so much better than we would be without you.
+Earlier tonight, several members of our Gold Star Family community led us in the Pledge of Allegiance.
+We’ve gotten to know these families quite well over the past seven years. You represent yourselves and the cause you stand for with grace and dignity and you honor us with your presence here tonight.
+Five months ago, we were horrified when we heard the news that a suicide bomber had attacked a checkpoint outside the airport in Kabul, Afghanistan. Over 200 Afghan civilians were killed in the explosions, along with 13 members of the U.S. military.
+One of those lost that day was Massachusetts’ own Marine Corps Sergeant Johanny Rosario Pichardo.
+She volunteered for that mission. She was there because she wanted to be there to evacuate women and children from the increasingly dangerous streets of Kabul. And she paid for it with her life.
+Lieutenant Governor Polito and I spent time with her family when she returned home. They are kind and decent people. Proud to be from Lawrence, proud of Johanny, and heartbroken that she's gone.
+I'd ask for a moment of silence tonight to honor those we’ve lost and the Gold Star Families they’ve left behind. They are the very best among us.
+Thank you.
+Let me close with this.
+In the fall of 2018, we were rocked by a natural gas explosion that shut down Lawrence, North Andover and Andover.
+18 year-old Leonel Rondon tragically died that day, and many others were severely injured. Everything in most of Andover, Lawrence and North Andover ground to a halt.
+Many members of our team practically lived in makeshift command centers alongside hundreds of emergency response and construction personnel for several months as we worked feverishly to repair the damage.
+It was an avalanche of issues, problems and decisions that didn’t stop for weeks, but we worked through it.
+To this day, I think a big part of our success was due to the relationships we already had with most of the key leaders who were involved.
+The Lieutenant Governor and I knew the local officials and the state legislators. We knew the utility companies. We knew the contractors. And they all knew us.
+We trusted each other. And that trust made much of what we got done over the next three months possible.
+There’s no collaboration without trust.
+If we’ve tried to do anything over the past seven years, we’ve tried to build trust. Others can debate whether we’ve succeeded or not. I believe we have. And I believe it shows in the work we’ve done during good times and difficult ones over the past seven years.
+Today, it’s clearly more difficult to build trust, to collaborate in public life than it once was.
+The explosion of social media, the arrival of hundreds of news channels and information distribution platforms. And the ongoing churn of information have made it almost impossible for anyone in public life who wants to collaborate to build trust.
+Facts are often fungible and curated. Missteps play out in real time and can go viral in the most bizarre and unusual ways. Context is non-existent. And in many cases, history and current events get twisted to support whatever point of view someone is advocating for.
+But the answer to the swirl and chaos of modern life is not more of the same poisonous brew.
+The answer is to stand up and accept the responsibility that comes with the work. To understand that trust is earned and collaboration is how difficult things get done.
+Many of the projects we’ve worked on with our colleagues in local government would never have happened without trust. Many of the most important pieces of legislation we’ve enacted over the past seven years would not have happened without trust.
+Trust is where possibility in public life comes from.
+If you can’t tell someone you work with, partner with, or collaborate with, what you really think it’s very hard to do small things. Much less big ones.
+Here in Massachusetts, we’ve done big things and small ones.
+At a time when so much of our public dialogue is designed to destroy trust, to manipulate facts, and to pull people apart. We’ve partnered with one another, and shared success and blame along the way.
+We should continue to focus on building and maintaining positive, collaborative relationships. Because they work for the people we serve and it’s what most voters expect from us.
+They want us to work hard and collaborate the same way they do. To listen to them as if they were our neighbors, because they are. To appreciate their life stories the same way we expect them to appreciate ours.
+They want us to knock off the noise and focus on building better, stronger communities from one end of the Bay State to the other.
+Me too.
+And honestly, when I think about what I’ll miss most come this time next year, it will be that opportunity to continue to partner with so many of the great people in this room.  And with the great people across this amazing state. Who want nothing more than to leave it better than they found it for those who come after them.
+But before that time comes, we have a responsibility do just that for the next twelve months.
+Let’s get to work.
+God Bless the Commonwealth of Massachusetts.
+And God Bless the United States of America.</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Good evening, Michigan. Today is our state's 185th birthday. To celebrate, we're at Detroit Diesel, built in 1938 to help us win World War II. A lifetime later, it's home to cutting-edge electric vehicle technology built by the hardworking men and women of UAW Local 163. Places like this are where Michigan's future will be forged, and I am thrilled to be here to deliver my State of the State address.  
+But before we begin, let's take a moment to honor those who are not with us. Let's remember the 4 young Michiganders we lost in Oxford-Madisyn, Tate, Hana, Justin. And those living with lifelong injuries and carrying the weight from that horrific day. The Oxford community is in all of our hearts. Michiganders, if you want to help, please go to oxfordcommunityvictimsfund.com  
+Let's also remember the over 30,000 Michiganders we've lost to COVID-19 and thank the first responders, healthcare professionals, and Michigan National Guard for everything they do to keep us safe.  
+Michigan's National Guard is the best in the country. They go above and beyond-at home and oceans away. Recently, I had the honor of pinning Purple Hearts onto 3 guard members who were injured during a ballistic missile attack in Iraq. Michiganders salute their sacrifices. They represent the best of us.  
+I also want to acknowledge my partner in governance-Lieutenant Governor Garlin Gilchrist. He is an innovative, optimistic champion for Michigan. I am so glad to have him by my side.  
+And finally, I want to thank my husband, my girls, my family, and friends. I love you.  
+Clearly, this year's speech is different. Due to COVID, we are not in the capitol. Right now, healthcare professionals are working hard to keep us safe as Omicron surges. While 2021 wasn't as miraculous as any of us wanted, we have made progress. We're stronger in large part thanks to science and life-saving vaccines. We have come a long way, and I am encouraged about the path ahead.  
+After a polar vortex, pandemic, national recession, multiple 500-year flooding events, a kidnapping and murder plot, I've been asked-how the heck do I keep doing this?  
+My answer is simple. I show up for every Michigan family. I want to keep delivering on the kitchen-table issues. On a personal level: I want my girls to see their mom stand her ground and live her values even through unexpected challenges and constant threats.  
+Isn't that what we all want?-to make a difference for the people we love most? And the truth is, we want the same things.  
+A good-paying job.   
+Great schools.   
+Clean water.   
+Safe communities.   
+Thriving small businesses.   
+A chance to get ahead and hope for the future.  
+Tonight, I will stay focused on the things that unite us. I'll speak to the progress we've made together, the opportunity we have right now, and why we all believe in Michigan.  
+The state of our state is strong… and it's getting stronger every day.  
+First, let's talk about the roads. The pandemic slowed us down a bit, but since I took office, Michigan has repaired, rebuilt, or rehabilitated over 13,000 lane miles of road and over 900 bridges in every region of our state while supporting nearly 82,000 jobs. That's enough miles to drive from the Michigan-Ohio border to the Mighty Mac over 40 times.  
+In 2021 alone, we fixed Gratiot in Macomb; I-496 in Lansing; 196 in Allegan; 69 in Genesee; 94 in Kalamazoo; US-41 in Marquette; and we're forging ahead on the Gordie Howe Bridge in Detroit, which will be taller than the Statue of Liberty when it's completed.   
+Recently, the Army Corps of Engineers answered our call to invest in the Soo Locks, securing funding to finish the job in Sault St. Marie. That's a big deal for the UP and our state's economy.  
+Last year, I reinstated prevailing wage for state construction contracts. That means we will get the best-trained workforce and the best value for our tax dollars.  
+Our task on infrastructure-from roads to lead pipes to high-speed internet-is large… due to decades of neglect and underfunding. That's why we're fixing our roads and bridges with the right mix and materials, so they stay fixed. And we're creating good-paying, skilled trades jobs along the way-the kind you can raise a family on, with solid benefits and a secure retirement.  
+Thanks to many in our congressional delegation and our federal partners, we have billions more headed our way from the Bipartisan Infrastructure Plan that we'll use to turbocharge our efforts.  
+So, when you see those orange barrels:  
+#1, slow down-there are people working.  
+And #2, those barrels mean we're moving dirt and fixing the damn roads.  
+I know at times our nation's capital feels hopelessly gridlocked, but at our state capitol, Republicans and Democrats have shown we can come together to put Michiganders first.  
+Together, we delivered over $420 million dollars in relief to small businesses, empowering them to expand operations and retain over 200,000 jobs through COVID.  
+We expanded access to high-quality childcare, and now over 1 in 3 children in Michigan 12 and under are eligible for low or no-cost childcare. You can go to michigan.gov/childcare to see if you're eligible too.  
+For our Michigan State Police, who protect and serve with the utmost professionalism, we built new posts in Walker and West Branch. For law enforcement, we funded better training, delivered hazard pay, and expanded resources for local police departments. As a former prosecutor, public safety is a core issue for me. We will keep making investments to reduce crime and protect families.  
+And our criminal justice reforms have helped hundreds of thousands of Michiganders who served their time secure jobs and housing with a clean slate.  
+Together, we cared for those who served our nation by building a new veteran's home in Macomb County and another home in Grand Rapids.  
+We eliminated the cost barrier for 170,000 Michiganders, who are getting skills and better-paying jobs through Michigan Reconnect and Futures for Frontliners. These programs boost our economy and empower our people.  
+People like Caroline, a former in-home care provider, and mom of 2 who got straight As her first semester at Mott Community College. And Jodi, a Reconnect recipient-the first of 8 siblings to go to college-she's on the dean's list at Grand Rapids Community College. These programs have given them opportunity and opened new doors for their families. I want them to know we're all rooting for them.  
+Together, we made the largest education investment in state history without raising taxes-something we've done 3 years in a row. Last year, we closed the funding gap between schools-something 4 governors before me tried to do-investing $8,700 into every student in every district to improve their in-class experience.  
+We invested in on-campus mental health and delivered checks directly to educators, who go above and beyond for our kids every day.  
+I know how anxious and tired parents are feeling right now. As a mom, I get it. That's why I'm making investments where they matter most-in classrooms, to help our kids get caught up.  
+And to our teachers, childcare professionals, aides, bus drivers, custodians, parapros, administration-I see you. Thank you for working tirelessly to help our kids thrive. We're going to keep investing in recruitment and retention to increase your ranks.  
+Soon, I'll introduce a school aid budget that will mark the biggest state education funding increase in more than 20 years-without raising taxes.  
+I want to be crystal clear: students belong in school.  
+We know it's where they learn best. Remote learning is not as fulfilling or conducive to a child's growth. In-person learning is critical to social development and mental health. That's why we will do everything we can to keep kids in the classroom.  
+We've all been through a lot. It's rational to feel frustrated. Exhausted. Even cynical. Fortunately, the cure for cynicism is competence. These bipartisan accomplishments are a testament to what we can do together. We must believe that better things are possible because that is the only way they ever get done.  
+Yesterday, we saw proof.  
+Last month, we worked together to sharpen Michigan's economic development tools. And this week, we landed a $7 billion dollar investment from General Motors that will create and retain 5,000 good-paying jobs manufacturing electric vehicle batteries in Lansing and Orion Township. The future of the auto industry is being built in Michigan, in plants like this one by union members. And we are just getting started.  
+Historically, the knock on Michigan was that 1) we didn't have the tools to compete with other states 2) we moved too slowly and 3) state government was dysfunctional.  
+Yesterday, the world saw what we can accomplish together. Democrats, Republicans, businesses, utilities, and labor joined forces to equip Michigan with solid economic tools to attract big projects and create thousands of jobs.  
+We showed the world that we have tools, we move fast, and we work together. And Michigan is going to win.  
+That brings us to what's next. Tonight, I'm putting forward proposals that will build on the work we've done together and grow our economy by cutting taxes and lowering costs.  
+First, taxes. I believe that whenever possible, we should make taxes more fair for our seniors and working families. Michiganders should be able to keep more of what they've earned.  
+In December, I signed a bipartisan bill cutting personal property taxes for small businesses owners. And last November, we repealed the tampon tax-the sales tax on menstrual products-saving women hundreds of dollars in taxes. When it comes to delivering for women, I will keep finding ways to lower their costs. And I'll veto any legislation that would take away their right to choose.  
+My proposals tonight will cut taxes for seniors and working families.  
+For our seniors, let's work together to repeal the retirement tax.  
+I first called to repeal this tax back in 2019, and it's time to get it done. If we phase it out over the next few years, we can save half a million households in Michigan an average of $1,000 bucks a year. That's money for prescriptions, rent, car payments, or gifts for grandkids.  
+Repealing the retirement tax will help real people.  
+People like Tim from Marquette or Susan and Dick from Jackson.  
+Tim worked for 30 years as a corrections officer-a difficult, dangerous line of work. Susan and Dick taught for over 30 years in Branch and Hillsdale County.  
+They served their communities, saved, and did everything right. But after they finally retired and budgeted on their fixed incomes, their pensions, 401ks, and IRAs were taxed.  
+They all had to go back to work just to pay the bills. Today, Tim is painting and working odd jobs, while Dick is a Drivers Ed instructor. Susan worked for over a decade at a hair salon. After a lifetime of work, they still worry about affording the essentials.  
+When I was in the legislature, I fought the retirement tax because it was wrong. Let's make it right. We can keep our word to Tim, Susan, Dick, and every Michigander who worked hard and played by the rules.  
+I'm ready to work across the aisle to roll back the retirement tax and save 500,000 households in Michigan an average of $1,000 bucks a year.  
+Now, let's talk about cutting taxes for people working full-time but who still can't get ahead.   
+It's time to increase the Michigan Earned Income Tax Credit. The EITC is a bipartisan tax break for families offered at the federal and state level. It's part of the refund you get when you file your taxes.  
+In 2010, Michiganders received an almost $3,000 tax refund from the combined EITC. But a year later, taxes on working families went up to pay for a tax giveaway for big corporations they didn't need. That's not right.  
+Restoring the EITC lifts more than 22,000 people out of working poverty. And it sends 730,000 families an average refund of almost $3,000 bucks that they can use to pay the bills. Nearly 1 million kids-almost half the kids in Michigan-benefit when we raise the EITC. It means new backpacks, warmer coats, and more hot meals.  
+Let's get it done.  
+Now, let's talk about lowering costs…  
+We are all bearing the brunt of inflation. You see it when you buy groceries or boots for your kids. We have made meaningful progress to lower costs, and we should build on that work now.  
+In 2019, I signed bipartisan auto insurance reform, saving drivers hundreds of dollars a year. Thanks to our reform, insurance companies are sending every driver a $400 refund check per vehicle by May 9th this year.  
+And our Secretary of State Jocelyn Benson is saving Michiganders time and money because we can renew our licenses and plates online or stop in the office for an average of 20 minutes.  
+We also lowered the cost of higher education thanks to Michigan Reconnect and Futures for Frontliners, and we are delivering home heating help on energy bills so over 175,000 families can stay warm and safe through the winter.  
+We've done a lot of good work to lower costs, but I know families are still feeling squeezed. We must do more. Rolling back the retirement tax and raising the Michigan EITC will keep more money in people's pockets, and we can ensure less comes out. Tonight, I have two proposals to lower costs on insulin and cars and one to expand access to mental health.  
+First, insulin.  
+Hundreds of thousands of Michiganders need insulin to survive. The average cost of a single vial is almost 100 bucks. Most people who use it need two or three vials a month, which is up to $3,600 a year. Too many Michiganders are forced to forgo insulin or ration it-putting their lives at risk.  
+For years, drug companies have been jacking up insulin prices. The average price tripled from 2009 to 2019. They reap billions on life-saving medicine because without serious competition, they name their own price. That is unconscionable.  
+Yesterday, Attorney General Dana Nessel took action. She launched an investigation under the Michigan Consumer Protection Act into one of the three largest drug companies that makes nearly all the insulin in the U.S.  
+Meanwhile, in the Michigan Legislature, there have been bipartisan bills introduced to cap the cost of insulin at $50 bucks a month.  
+We all agree that insulin costs too much, and I know we can work together to hold drug companies accountable, lower costs, and save lives. Let's get that done too.  
+Next, let's talk about making electric vehicles more affordable.  
+As we saw this week, we are building on our rich auto manufacturing heritage and moving towards a clean energy future. Tonight, I want to talk about how we can help Michigan's families be a part of the clean energy transition by lowering the cost of electric vehicles.  
+Every year, thousands more electric vehicles are sold in Michigan and all our major auto makers have committed to electrifying 100% of their fleets over the next 10-15 years. Electric vehicles cost half as much to fuel and maintain as gas powered cars. Switching to electric will save families thousands of dollars a year.  
+That's why I am proposing a combined $2,500 electric vehicle rebate for families-$2,000 for the car and $500 for in-home charging equipment. This will build on the $7,500 federal electric vehicle credit. If we get this done, we can lower the cost of electric vehicles by nearly $10,000. We can make it easier for Michiganders to go electric.  
+Finally, let's talk about mental health.  
+We should invest in our mental health workforce so we can expand access. Nearly 40% of Michiganders do not get treatment for their mental illness. We will address this shortfall by expanding Michigan's Loan Repayment Program for mental health professionals. And we will make a historic investment to retain and recruit hundreds more mental health workers.  
+I will propose another bold investment in mental health in next year's school aid budget too, building on work we did last year to help schools hire more than 560 nurses, counselors, and social workers.  
+Together, we can grow our mental health workforce and expand access to mental health services.  
+Tonight, I laid out my plans to cut taxes for retirees and working families, lower costs on insulin and electric vehicles, and expand access to mental health. As always, I will work with anyone to deliver on these kitchen-table issues.  
+I'll also work to invest federal resources we have received with plans I released last year like MI New Economy, which would grow the middle class, support small businesses, and invest in our communities. I also have a message for the folks in DC-fund the CHIPS Act so we can fight the chip crisis head-on.  
+We have a once-in-a-generation opportunity on our hands, and I know that together, we can do big things.  
+Through everything we've faced over the last few years, I thought often about the time in my life when I was sandwiched between 2 generations of my family-taking care of my newborn daughter and my mom who was dying of brain cancer.  
+I adjusted to a new job, fought my mom's insurance company, and cared for my baby. I learned I could do more than I had ever imagined. It can be hard to see in the moment, but tough times make us stronger.  
+Making a difference for the people we love. It's what motivates all of us. It's the reason I'm standing here today. It's why I get up determined and optimistic about our future. I want a better future for my girls and all our kids. Even on the hardest day, I am grateful to serve my fellow Michiganders.  
+That desire to do drives so many of us. We all have a story when we stepped up and did more than we thought we could for the people we love most. That's our spirit. It lives in our stories. We are doers, united against inaction. Optimists, united against pessimism. Believers, united against cynicism. We fight for each other, not with each other. We come together to get things done. We are capable of greatness.  
+The question we have to ask ourselves is: do we believe in Michigan? I know I do. I believe because of you. I will work hard every day to put Michiganders first. I will always believe in Michigan because we are strong and getting stronger every day. Thank you and goodnight.</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>5 GOVERNOR WALZ: Thank you. Good evening.
+6 Madam Speaker, and Members of the
+7 Minnesota House of Representatives, Mr. President, and
+8 Members of the Minnesota Senate. Madam Chief Justice,
+9 Distinguished Members of the Minnesota Supreme Court,
+10 Chief Judge Segal. My fellow Constitutional Officers.
+11 Governor and Mrs. Dayton, welcome back. You are welcome
+12 any time these last two years. Distinguished Tribal
+13 Leaders, Chief Executive Melanie Benjamin of the Mille
+14 Lacs Band of Ojibwe, and President Johnny Johnson of the
+15 Prairie Island Indian Community. To the Escorts in the
+16 Minnesota State Patrol and the Minnesota National Guard.
+17 Father Ivan, blessed Easter and know that the State of
+18 Minnesota stands united with the people of Ukraine.
+19 Lieutenant Governor Peggy Flanagan, and Minnesota's
+20 Second Gentleman Tom Weber. Hi, Siobhan; I did not
+21 forget, and Siobhan. Minnesota's First Lady, Gwen Walz.
+22 To the many guests and my fellow
+23 Minnesotans, this is my fourth State of the State
+24 address but only the second one in this important
+25 chamber. And I think and I hope all of you felt as you
+3
+1 walked in here tonight, and I know I did, the sense of
+2 history that goes with this and the sense that we're in
+3 this together, you can feel strongly. So I'm incredibly
+4 grateful.
+5 It's, I think, what Minnesotans are
+6 feeling, the sense of once again gathering together with
+7 friends and relatives and co-workers and doing the
+8 important things of life, whether it's proms or
+9 graduations, sporting events, or important business.
+10 The last two years have been incredibly challenging, so
+11 not being in here for those two years, I know that many
+12 of you are deeply disappointed you did not get to come
+13 on a Sunday night and listen to me talk, but I promise
+14 you over the next three to four hours I'll make it up to
+15 you.
+16 They think I'm kidding. No.
+17 I will have to say, we know the State of
+18 the State speech is an opportunity to reflect, but it's
+19 also an opportunity of where we're going in the future.
+20 I don't need to say it. Every euphemism has been made.
+21 The last two years have been incredibly challenging.
+22 But in those challenges, both the people of Minnesota
+23 and these two bodies figured out a way in some of the
+24 most challenging circumstances the state has ever faced.
+25 As one of only, for a long time the only one, one of
+4
+1 only two divided legislatures, we figured out how to get
+2 good things done for Minnesota together, not
+3 individually. Very difficult to do that, and it's not
+4 supposed to be that way. It's supposed to be getting
+5 them done together. So I think it's important, if we're
+6 reflecting, we should reflect on our successes together,
+7 too; our budget reserves have hit record highs, and our
+8 COVID infections and hospitalizations have hit record
+9 lows, together.
+10 Nationally, we have the fifth lowest
+11 unemployment rate among states, the third highest job
+12 growth, and one of the highest labor participation
+13 rates. The leadership that's in front of me tonight,
+14 working together, reduced the price of insulin to save
+15 lives, increased education funding for every student,
+16 and passed the largest jobs bill in state history. You
+17 did it together. We picked the energy up over here, and
+18 we did it by cutting taxes for the middle class all at
+19 the same time. We were able to pass the first middle
+20 class tax cut in 20 years all while delivering for
+21 Minnesota. We've proven that compromises can work,
+22 we've proven that we can balance budgets, and we've
+23 proven that we can invest in the future. And because of
+24 that, I'm here tonight to tell you the state of our
+25 state is strong and moving forward.
+5
+1 And to be clear, moving forward doesn't
+2 mean giving up on the tough issues. It doesn't mean
+3 glossing over things that we need to take care of. What
+4 it means is working together like we have so many times
+5 to solve those problems. It's not enough to point out a
+6 problem. It's not enough to come up with a cute slogan.
+7 We need to come up with solutions, and then we need to
+8 get results for the people of Minnesota. That's what
+9 moving forward looks like.
+10 You all do the same things that I do. You
+11 have countless conversations, whether it's this morning
+12 in church or whether it's at a coffee shop or whether
+13 it's someone stopping you on the streets. And
+14 Minnesotans are hopeful and resilient people. They are
+15 also pretty innovative. We know that the solutions are
+16 out there. We know that people are talking about these
+17 things. And the one thing that Minnesotans know, that
+18 if we invest in our people, we can't get it wrong.
+19 That's the opportunity that we have in front of us, so I
+20 would ask all of us let's make that commitment to try
+21 and do the things that we're hearing from our
+22 constituents. We're hearing ideas from them, and we
+23 have the capacity to make that happen. I want to be
+24 clear. We may not agree on everything. And if we're
+25 being totally honest, some of us won't agree on
+6
+1 anything. That is the reality. That is a democracy.
+2 That's the way some of this is. But we owe it to the
+3 people of Minnesota to try and find common ground, to
+4 try and put some of those differences aside to move at
+5 least some things forward. I know it's frustrating.
+6 The fierce sense of urgency on big issues means that you
+7 want to go big, but I think in a divided legislature
+8 like this and the expertise we have in this room, there
+9 is a wide variety of solutions that can be implemented
+10 to solving that problem. And the way I see it, we could
+11 focus our energy in three areas. We could start
+12 thinking right now about investing in the future, what
+13 we need, that future workforce, what future generations
+14 are going to need to make Minnesota the best state in
+15 the nation to live, start a business, and enjoy the
+16 things that we have. But we also know coming out of the
+17 pandemic, nationally, globally, and here in Minnesota,
+18 there's urgent issues that we can't put off and need to
+19 address now. And then we've got unfinished business,
+20 things that we need to solve right now. And I want to
+21 discuss that, this issue of unfinished business. We
+22 know where people are at. We know that globally we're
+23 seeing higher prices, inflationary prices, but we know
+24 it's impacting families. I've made the suggestion, and
+25 I want to work with you on this. We should use some of
+7
+1 this historic surplus, a big piece of it, to put money
+2 back in the pockets of working Minnesotans and those
+3 that are trying to make the bills work for them.
+4 And I'll note, in the spirit of
+5 compromise, I believe one of the quickest, surest, and
+6 most fiscally responsible ways is to return that money
+7 right now if I'll do that. But I've said it many times,
+8 and I'll say in this body, we can cut taxes for middle
+9 class folks and folks trying to get into this middle
+10 class, too, at the same time. But I want to be clear
+11 about this. We can cut taxes for the middle class
+12 without cutting taxes for massive corporations and the
+13 wealthiest people in Minnesota. They don't need a tax
+14 cut. We've signed a tax cut together. We've made it
+15 work, but I think we should be very clear on this.
+16 Cutting taxes for the wealthiest amongst us will not
+17 guarantee opportunities in Minnesota for the wider
+18 variety of folks, and it certainly won't grow our
+19 economy from the middle out. So I ask us on this
+20 pressing issue, folks need a little extra in their
+21 pocket right now. We're sitting on this surplus. Let's
+22 come together in a compromise and see if we can maybe
+23 get some immediate relief and talk about this issue of
+24 tax cuts for the middle class. We can do this. We can
+25 do this. This unites a lot of us around an issue.
+8
+1 So I want to say before, though, we do
+2 that, there are two issues, and I know it is the
+3 elephant in the room and the donkey in the room, if you
+4 will. We've been waiting since last May where we made a
+5 determination that there were countless frontline
+6 workers who put more on the line than anyone else. They
+7 were out there during the pandemic doing the things to
+8 keep our state running and keeping us safe, and we made
+9 a joint effort together, passed and signed into law
+10 relief to send them hero checks. We need to get that
+11 done right now. We need to get that done. And we feel
+12 strongly about this. We need to help Minnesotans
+13 economically. But this issue of frontline workers,
+14 there's people behind this. There are people behind
+15 every decision we do. We are joined tonight by someone
+16 I think many of you know, Mary Turner. She's an RN
+17 nurse. In fact, she worked the night shift last night
+18 in the emergency room. Mary and her colleagues have
+19 spent the last two years, the early part of the pandemic
+20 not only with no vaccines but without adequate personal
+21 protective equipment. They went to work every single
+22 day to ensure that us and our loved ones had the very
+23 best care possible. And the results of what they did
+24 was Minnesota's death rates that came from this when
+25 someone is admitted to the hospital is one of the lowest
+9
+1 in the nation. Those are the folks that we said let's
+2 give them a little extra help. It's not winning the
+3 lottery. It's not a bonus. It's a thank you on behalf
+4 of the people of Minnesota that they serve. And we need
+5 to get this done.
+6 Mary, thank you.
+7 I also want to add, though, there are an
+8 awful lot of small business owners who put their
+9 livelihoods on the line, created jobs in our
+10 communities, and grew our economy who suffered during
+11 the pandemic. And I can tell you this. The
+12 unemployment insurance trust fund is one of the best
+13 anti-poverty programs that we had, and it was paid for
+14 by those businesses to support those workers at a time
+15 of need. It kept the rent paid. It kept food on the
+16 table. And we have a responsibility and the capacity to
+17 replenish the unemployment insurance trust fund both for
+18 those small businesses and for those workers who made it
+19 into the future. I ask us, let's do this now. Let's do
+20 this now.
+21 Once again, I would add, it's a debate.
+22 It's a fair debate. That's how a democracy is supposed
+23 to work. It's a little bit messy, and there are
+24 different ideas. But behind us debating are real
+25 people. With the hero checks, it was Mary. With the
+10
+1 unemployment fund, it's in restaurants like Sammy's in
+2 North Minneapolis or Jules' in St. Cloud. I have two
+3 small business owners here tonight, Sammy McDowell and
+4 Donella Westphal. They went out of their way. They
+5 created jobs. They created their restaurants. They
+6 hired people. They took care of their workers. They
+7 kept the public safe. And they are doing everything
+8 they can to rebuild. They are simply asking us let's
+9 get a compromise, let's get this fixed. Now is not the
+10 time for Sammy or Donella to have a tax increase, and we
+11 can make sure today that that doesn't happen.
+12 So thank you, both.
+13 And in this debate, and I will name it,
+14 too, I said there's an elephant and a donkey in the
+15 room, and there's us in the room as the executive
+16 branch. I understand that today progress is being made
+17 on this very issue. And if that is the case, what I
+18 would ask is, we're here, we have the opportunity.
+19 Speaker Hortman, republican leadership in the Senate, we
+20 should get together. We're prepared. Let's work
+21 tonight. Let's finish this thing. We have a couple
+22 things that fit together, a couple things that serve
+23 Minnesotans. We have the resources to do it, and we
+24 could move Minnesota forward in a bipartisan manner. So
+25 I would ask if we're getting close to a compromise on
+11
+1 this, let's finish this deal, and let's finish it now.
+2 So let's take care of that. We have the opportunity to
+3 get some money back in people's pockets. We can
+4 compromise on how we do that. We can take care of that
+5 frontline hero pay and show Minnesotans and make sure
+6 we're retaining and attracting those really talented
+7 healthcare workers. We can do that, and we can take
+8 care of the trust fund issue. And that still leaves us
+9 about $6 billion to move on with the issues that we need
+10 to deal with. That's just this biennium. So I ask, we
+11 know that we were left with issues coming out of the
+12 pandemic that need to be addressed. I don't think, as I
+13 hear some people say, we can just put it off. We can't
+14 put some of these things off. We can't put off things
+15 that Minnesotans need that are important.
+16 And I want to just be clear. The pandemic
+17 did not impact all of us equally. It impacted
+18 communities differently, and it left us challenges that
+19 we know we have to come together on. Every single
+20 Minnesotan has a story to tell in this. Lieutenant
+21 Governor lost a beloved older brother, a marine, seemed
+22 invincible, strong, one of the first people to die in
+23 this. This body lost a beloved member. All of us have
+24 stories. All of us have the impacts of this. And I
+25 know this. The pandemic has caused rifts between all of
+12
+1 us. It has caused rifts that seem almost
+2 insurmountable.
+3 My pledge to you is to try and listen, to
+4 try and work together and try and heal those rifts,
+5 because the goal of everyone in this body and the goal
+6 of everyone who is a public servant is the health and
+7 safety of our fellow Minnesotans. Now, we might not
+8 have the same idea how to get there, but we have to
+9 continue to follow the science and follow what we know
+10 can get us there to make those differences. And I'm
+11 going to point out, I know it's hard. I want to
+12 acknowledge.
+13 My friend Sheletta Brundidge is here
+14 tonight. Some of you know Sheletta. She served as a
+15 role model in her community. She's a well-known media
+16 personality. She is someone that people listen to
+17 because she's earned that right. And I want to say
+18 Sheletta spent the first year on the radio telling
+19 people not to get a COVID-19 vaccine. She had read and
+20 heard things that worried her. And as a black woman,
+21 she's got a valid historical concern when it comes to
+22 this. On his 15th birthday, Sheletta's son, Andrew,
+23 said all he wanted for his birthday was for his mom to
+24 be safe and asked her to do a little more work. And she
+25 went and talked to her doctor. She went and talked to
+13
+1 folks at different institutions, and she decided to get
+2 the COVID-19 vaccine.
+3 I want to acknowledge to folks that things
+4 that have divided us and these very difficult issues
+5 about people's personal health decisions and how they do
+6 things going forward are a challenge, but I think we can
+7 work through them with grace and dignity and try and get
+8 as much good information out as we can. Sheletta has
+9 since gone on her radio show and talked to people about
+10 the importance of getting the COVID-19 vaccine and save
+11 lives. And I say thank you.
+12 And for all of us, and I include myself in
+13 every one of these discussions, trying to listen and
+14 learn, and to try and be patient with one another as we
+15 understand what it looks like going forward. I
+16 especially ask us to be patient and supportive of those
+17 who continue to be the caregivers of this state. The
+18 pandemic made it very clear that we cannot function in
+19 this state without amazing people who care for our
+20 children, who care for our seniors, and who care for our
+21 most vulnerable, and those that keep us safe in our
+22 communities. I think we all will agree on how important
+23 they were, but we need to acknowledge that even prior to
+24 the pandemic but especially during the pandemic, the
+25 workforce issues around these jobs have been
+14
+1 exacerbated. And we have the capacity, the private
+2 sector has the capacity, our non-profits have the
+3 capacity, and our budget shows that we can address these
+4 very issues.
+5 I want to talk, first of all, just a
+6 little bit about child care. Now, many of us are a
+7 little bit older, but it doesn't take that long to
+8 remember. One of the most important decisions you make
+9 as a parent is trying to get into that quality child
+10 care or trying to figure out what's best for your child
+11 or trying to make it work with your schedule. Maybe
+12 you're on a swing shift and how to make that work as a
+13 family. Child care in this country, in this state was
+14 in crisis long before the pandemic. But during the
+15 pandemic, it was those child care workers were the first
+16 ones on the front lines to ensure that our children had
+17 a safe place to go, and their parents, if you remember,
+18 early on when we kept those open to make sure that
+19 police and firefighters and nurses and doctors had a
+20 place to take their children safely so that they could
+21 do the work to keep the rest of us going.
+22 Now, I want to thank all of you,
+23 Minnesota, clearly protecting our child care industry
+24 better than any other state in the nation, but both
+25 parents and the number of especially women who had to
+15
+1 leave the workforce over this issue and the number of
+2 providers who can't make the economic numbers work
+3 behind this. We have a responsibility. Business is
+4 asking us to work on this. And we have a lot of
+5 bipartisan support to build the workforce behind the
+6 workforce that makes things go. When people are
+7 thinking about where they're going to have a business or
+8 thinking about where they are going to live, to have
+9 Minnesota be known as we were during the pandemic and
+10 come out of it, a state that is committed to child care
+11 and early education, is a hiring bonus to get people
+12 here and to create lives that they want to live.
+13 So I thank all of you for the work you
+14 did.
+15 There's a lot of experts in here on this
+16 issue. And I would like to talk about home healthcare
+17 workers a little bit just because I think this is one of
+18 the hardest and most important jobs in the state. These
+19 personal care assistants, as many in this body know, are
+20 the folks that help our family, our friends, our
+21 neighbors with disabilities live fulfilling and
+22 independent lives. I've had the privilege of seeing
+23 that firsthand, how important, how fulfilling, and just
+24 how caring this profession is. A couple years ago, I
+25 had the opportunity to spend a day with Deb Howze, a
+16
+1 personal care attendant. She cared for my friend Jay,
+2 who is a veteran and has MS. And I spent that day
+3 watching the care, the hard work, the labor that goes
+4 into making this happen, all of that to give Jay the
+5 highest quality of life with independent living and
+6 respect. These are the heroes that make Minnesota a
+7 caring state, and we have a responsibility to make sure
+8 we take care of them.
+9 So, Deb, thank you.
+10 And there's a whole lot of folks sitting
+11 out here that I hope Minnesota knows, understand this
+12 very clearly, and you need to get credit for what you
+13 did. Last year, we finally gave Deb and other personal
+14 care assistants a raise. This year, we're giving
+15 another one. This budget surplus gives us an
+16 opportunity to help correct that profession to make sure
+17 not only people like Deb can stay in it but that we're
+18 attracting the best and brightest into it where they can
+19 make a living wage.
+20 So I congratulate all of you.
+21 I think these are the stories maybe
+22 Minnesotans don't hear. You all did this. You're the
+23 experts in this. You worked on it. There are folks in
+24 here who spent decades working on this issue. There are
+25 folks that know the regulations inside and out. And
+17
+1 what we know is if we make some of these changes, we
+2 strengthen that healthcare workforce. I would argue we
+3 need to start thinking about that broadly. We know that
+4 there's professions, and all businesses are experiencing
+5 a workforce shortage. We can't afford to leave anyone
+6 on the sidelines. And here in Minnesota, we know how to
+7 do that. We saw wonderful public/private partnerships,
+8 and our universities and community colleges came
+9 together around this issue. When we saw the latest
+10 Omicron and Delta surge this last November until March,
+11 we had the severe shortage across the spectrum of care
+12 providers. But one of the ways we could move more
+13 people in quicker that were qualified was changing and
+14 going about recruiting for the Certified Nursing
+15 Assistant Program. And we created a program here in
+16 Minnesota with a goal to train, certify, and place 1,000
+17 CNAs. These are the people that are in our long-term
+18 care facilities, they are in our veterans' homes caring
+19 for our heros, and they are the ones keeping the
+20 hospitals functioning. And we set that goal for 90 days
+21 to try and get 1,000 of them in. We went out and
+22 recruited people. You all helped. And the money that
+23 we used from the Recovery Act was able to do some
+24 inventive things, getting just bus fare for some folks
+25 who got off the sidelines, got their training, got their
+18
+1 certificate, and are now in a new profession making a
+2 living and caring for Minnesotans. We not only got that
+3 1,000, we got about 1,400. That program worked. Now,
+4 the funding is coming to an end. I would ask us all, I
+5 think this is one of those areas, we have a budget in
+6 front of us, let's fund that program, and then let's use
+7 your creativity to continue to figure out how we build
+8 that broader workforce. That's what Minnesotans are
+9 expecting us to do. Now we have those folks in those
+10 facilities doing the work that we know they need to do.
+11 So thank you all for that.
+12 And as we start talking about tackling
+13 these problems that the pandemic created, I do think
+14 it's important to pause to acknowledge, and we've talked
+15 about it, we've learned, we've listened. We got some
+16 right; we get some wrong. But through it all, there are
+17 people that were asked to do this work day in and day
+18 out. And when we had shortages of those people in
+19 long-term care facilities, we had to set up a, Minnesota
+20 is the only one, Critical Care Coordinating Center, the
+21 C4. When I go to meet with other states, and many of
+22 you do the same thing, too, it seems like it would be a
+23 really common thing that would happen, a one-stop place
+24 that you could find and place a hospital bed anywhere in
+25 the state and that we can move people where we needed
+19
+1 them, and we could do the same thing with staff. We had
+2 many, many nights, sometimes dozens of long-term care
+3 facilities that COVID outbreaks decimated the entire
+4 staff and there was going to be no one there in the
+5 morning to care for those residents. It was at that
+6 time that we asked the folks at the Minnesota Department
+7 of Health under Commissioner Jan Malcolm's leadership to
+8 step up and create a plan. And I want to say as we sit
+9 here tonight, still around the clock these employees are
+10 looking, working, and trying to figure out where will
+11 COVID come from next, and how do we make sure we're
+12 ahead of it before it happens. So I want to give a
+13 heartfelt thank you to all of those folks, especially
+14 those state employees, who made that coordinating care,
+15 bringing the hospitals together, and bringing a unified
+16 approach to how we did this. I want to say thank you to
+17 them.
+18 And while they coordinated it though,
+19 somebody had to do the work. And in that case, it was
+20 the women and men of the Minnesota National Guard. I
+21 want to say thank you to General Shawn Manke and the
+22 entire Minnesota National Guards. These last two years
+23 you've stepped up in ways that we could have never
+24 imagined. You've gone into long-term care facilities.
+25 You've gone into our veterans' homes. You've been at
+20
+1 testing and vaccination sites. And throughout that
+2 pandemic, you were there every step of the way to help
+3 Minnesotans in their time of need. Just today, under
+4 Chapter 12 authority, I've authorized 100 National Guard
+5 to provide emergency support for flooding operations in
+6 Northwestern Minnesota. They will leave their homes,
+7 they'll pack up their gear, they'll go to the armory,
+8 they'll receive their mission, and they will protect
+9 homes; they will protect lives. And they will do it in
+10 the most professional manner. And then they will return
+11 back, and they will get their guard training, and they
+12 might be asked by the United States Government to
+13 provide security for this nation. No one does this
+14 better, and the people of Minnesota owe an incredible
+15 debt of gratitude to the people of the Minnesota
+16 National Guard.
+17 With that, General, I salute you.
+18 And right alongside those Minnesota
+19 warriors and our patriots, right alongside them every
+20 step of the way was the women and men of the Minnesota
+21 State Patrol under the leadership of Colonel Matt
+22 Langer. Along with our DNR conservation officers,
+23 you've worked across this state to keep our communities
+24 safe, and you've taken on unprecedented challenges.
+25 Also Minnesota is incredibly indebted to you.
+21
+1 Thank you, Colonel.
+2 All of you came here to make a difference
+3 in your communities, and you bring a wealth of life
+4 experiences. And I think we all know these issues are
+5 tough, and they are tough nationally; they are tough in
+6 Minnesota. Public safety is a complex, evolving issue
+7 in 2022. It's been exacerbated by the workforce
+8 challenge and the pandemic. And whether it's traffic
+9 deaths, crime, wildfires, severe weather, our law
+10 enforcement agencies across the state have stepped up to
+11 keep us safe in some of the most difficult conditions.
+12 Our top priority and my top priority is always the
+13 health and safety of Minnesotans. And I've been
+14 traveling across the state. And no community is exactly
+15 the same. But listening to local mayors, elected
+16 officials, listening to public safety officials,
+17 listening to community leaders, and I'm talking about
+18 it, and we all make the debates here. I'm proposing in
+19 the budget that we have in front of you $300 million
+20 investment in these communities. In some of those
+21 communities, it's going to make sure that they can hire
+22 the law enforcement officers they need. In other
+23 communities, it's going to be to modernize their 9-1-1
+24 system, which is not just a phone system. It's a way of
+25 making sure that those trained professionals who operate
+22
+1 that send out the right responses, if it's a mental
+2 health crisis, if it's a fire, or if it's a situation
+3 that requires law enforcement. Some communities are
+4 talking about buying unmarked vehicles to transport
+5 domestic violence survivors and children so they are not
+6 in the back of a police car as they move from that
+7 dangerous situation. And some are talking about getting
+8 new equipment and new ways of doing things.
+9 Our local officials know we have a surplus
+10 that allows them to do that, and we also have the
+11 capacity to work with those community groups that are
+12 showing a huge reduction not just in those crimes, but a
+13 reduction in the number of youth that are going in wrong
+14 directions. So this has a capacity. Public safety can
+15 be there. We can make this happen. But we need to
+16 agree that we can define the problem, we can set up some
+17 goals, we can work together to get there. This is not
+18 one of those issues that it's enough to point out the
+19 problem. We need concrete solutions with measurable
+20 results that keep Minnesotans safe and make sure that
+21 justice is served. We can do that. We can do that.
+22 And I'll note, if we really are serious
+23 about getting tough on crime, then we need to get tough
+24 on the causes of crime, because that's where it begins.
+25 That means moving back upstream, tackling economic
+23
+1 inequality issues, talking about housing, talking about
+2 gun violence, and then talking about issues like mental
+3 health and addiction. This issue of addiction,
+4 especially around opioids and fentanyl, is devastating
+5 our country and our state. There are few families that
+6 don't know of or been touched by this. In this very
+7 body, we have two individuals, Senator Eaton and
+8 Representative Baker, who turned personal tragedy that
+9 is almost unimaginable into becoming national leaders
+10 with real solutions that are making a difference in
+11 saving lives. We should be listening to them. We
+12 should be investing in those things that make a
+13 difference. And Minnesotans are crying out that we
+14 tackle this issue. The solutions are in this room.
+15 They're in Minnesota. And it unites us all together.
+16 Not only are we going to reduce tragedies in families,
+17 we are going to reduce crime, because these sales are
+18 driving the crime. They are driving the things that are
+19 happening. That is a common goal that all of us have in
+20 here. We have the resources to help make that happen,
+21 and we can start impacting lives in a real way. So I
+22 ask us -- we listen to you. We are trying to learn from
+23 you. At the state level, we're getting ready to hire a
+24 director of the work that will be done here, but it's
+25 going to be these bodies that create the systemic
+24
+1 changes. It's going to be these bodies that come up
+2 with the real long-term solutions. If we do that, we
+3 will save lives, reduce crime, and make Minnesota the
+4 state we know it can be. And the leadership is here.
+5 This is one of the most bipartisan and hopeful things we
+6 can do together, and I would argue no state has the
+7 expertise. This was led, the idea of mental health
+8 parity, of being a part of this issue, was with Paul
+9 Wellstone and Jim Ramstad. It has never known
+10 partisanship. But Minnesota was the state that pushed
+11 on this issue. Minnesota was the state that set up some
+12 of the earliest treatment courts. Minnesota was the
+13 state that knows we must do better around this issue.
+14 So I ask all of you, whether it's taking care of the
+15 people who take care of our kids, whether it's taking
+16 care of the people who take care of our seniors, our
+17 most vulnerable, whether it's taking care of public
+18 safety and the folks who do this work, and reducing
+19 crime, we can do all those things. We can do that this
+20 session, and then we can do what many of you came here
+21 to do. Think about that brighter future. It's
+22 Minnesota, for goodness sakes. Let's get to where the
+23 puck is going to be, not where it is. That's what we
+24 can do next. That's what all of you came here to do.
+25 And the big ideas are out there.
+25
+1 So I would say for most of us, what those
+2 big ideas look like starts with education. Education is
+3 what brought many of us here to Minnesota, myself
+4 included. I know it's a disappointment to some of you,
+5 but it did bring me here. My wife, Gwen, and I, we've
+6 devoted a lifetime to this. We taught together for many
+7 years. We taught at Mankato West. And Gwen is still
+8 involved in education. And I know many of you have done
+9 that, but all of us are touched by it, our own
+10 education, our children's education. We all want to
+11 have the best opportunities, the best resources, and the
+12 best outcomes for our students. And I can tell you we
+13 have the capacity now. We've done it. We passed one of
+14 the largest increases in spending in the last budget
+15 cycle in Minnesota history. And you did it in a
+16 bipartisan manner to make a difference for our students.
+17 We've got more to be done.
+18 Now I'm going to have to tell you. I am
+19 here tonight with two teachers who inspire me. Val and
+20 Lin Whipple are here. They happen to also be my
+21 in-laws. Lifelong teachers and coaches.
+22 So I want to say thank you.
+23 As Lin knows, behind every governor is an
+24 astonished mother-in-law, so. You know in this room,
+25 the experts are in this room, too; education begins at
+26
+1 birth, and it goes through lifetimes.
+2 Minnesota should be the best state in the
+3 country to raise a family. And we're working to make
+4 that a reality. We're making sure that our early
+5 childhood education is the best in the country by
+6 investing in everything from qual</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>"Thank you, Lieutenant Governor Hosemann and Speaker Gunn.
+To the members of the legislature and other elected officials – thank you. Thank you for your commitment to bettering our state. Thank you for your dedication to our people.
+Together, we can do great things. I look forward to partnering with you this session to continue making Mississippi the best state in the nation to live, to work, and to raise a family.
+I would also be remiss if I did not thank the person who enables me to stand here in the first place. Someone who always puts others before herself. Someone who is an amazing ambassador for our state – our great First Lady. Elee, thank you for everything you do for me and for Mississippi. I could not ask for a better partner and Mississippi could not ask for a better First Lady.
+Mississippi has weathered great storms in the last two years. We have bent but we did not break. We dug deep and we stood tall. We got through it all because we decided to get through it all together.
+That is why, after recession and pandemic and hurricanes and tornadoes, I can still stand before you tonight and declare, without reservation, and without qualification, that the state of our state is not only strong, but stronger than it has ever been.
+I would like to start with what I consider to be the crowning achievement of Mississippi’s ride through the pandemic and recession – our educators.
+It is the most basic promise a state government makes to its people. We tell every young parent: we will be your partner in educating your child. Together, we will make sure that if they work hard, they will learn what they need to know.
+It is a solemn promise and one that our state must fulfill – and it is a promise that I am determined to fulfill.
+We all know that there are many who enjoy criticizing Mississippi. They trash our way of life, they trash our institutions, and they frequently deride our education.
+And at times in our past, they might have been at least a little bit right about our educational system. But Mississippi’s schools have made a major turnaround – in fact, a turnaround of historic proportions.
+When you look at the data, it looks like a miracle. But it is not a miracle. It is the product of dedication of our teachers, a result of the intelligence of our people, and conservative, common-sense reforms enacted by many of us here today. And most importantly, it is achievement that was earned by Mississippi students.
+Mississippi’s students with disabilities have seen a graduation rate that has doubled over the last eight years. Overall, our graduation rate is now at an all-time high at 87.7 percent. That’s, by the way, better than the national average. And while the graduation rate is at an all-time high, the dropout rate is at an all-time low of just 8.8 percent.
+Our passing rate on Advanced Placement exams is also at an all-time high.
+The number of students who completed career and technical courses has shot up by 36 percent since 2015.
+Mississippi students are learning more, achieving more, and they are more prepared for a prosperous life.
+You all know how fond I am of data. I love it. I swim in it. It’s what I do for fun – and yes, I realize how uncool that makes me. In fact, just ask my teenage daughters if you have any doubt about how uncool I am.
+But this is not merely data on a page. These numbers are real people. These are real lives that have been transformed – and family trajectories that have been forever altered.
+The Mississippi kids who have out-performed previous generations in the classroom are going to make our state better as adults. We are talking about generational change in careers and horizons – and it is happening in every corner of Mississippi.
+I attribute these educational gains to three important factors. First, the parents and guardians of our students. Without you investing in your children’s educations, without you pushing them to be their very best, none of these gains would be possible.
+It all starts and ends with parents. Mississippi schools and teachers answer to parents. They are paid for by you. They work for you.
+It is shocking to me, that in some corners of this country, the basic right of parents to determine their child’s education is ignored. We must strive to be better than that. We recognize that no classroom can replace a parent’s care. Your voice should not just be heard, it should be sought. It should reign. All public servants answer to the people. In education, we answer to the parents and as long as I’m governor, we always will.
+We’ve also seen these historic gains because of the conservative and effective education reforms we’ve implemented over the last decade.
+Expect more and you will get more. That is a lesson Mississippi has had to learn.
+The rigorous reading standards that we put in place have transformed lives and the data prove it.
+Since those standards were created, we’ve experienced incredible gains in fourth grade reading. Just a few months ago The Economist noted, Mississippi’s fourth graders rose 20 places – from 49th to 29th – on the National Assessment of Educational Progress (NAEP), and in 2019 we were the “only state in the nation to improve its scores.”
+Now, I want to repeat that. In 2019, Mississippi was the only state in the nation to improve our scores. The only state. Out of 50, we were the very best at improving reading scores.
+Students of all backgrounds are having academic success in Mississippi. According to 2019 NAEP results, our students living in poverty are outperforming their peers nationally. Black, white, and Hispanic students from low-income households achieved higher scores than the national average in all four NAEP subjects.
+For decades we were at the bottom, but now we are not. It takes time to go from last to first. But Mississippi kids are on the move, and it is revitalizing our state’s future.
+Now, they say imitation is the sincerest form of flattery. Well, all of you should be flattered. Again, according to The Economist – and this is a direct quote – “Many states have noticed Mississippi’s success and have passed similar legislation.”
+When is the last time you heard that? From Pascagoula to Iuka and from Natchez to Tunica, every single person in Mississippi should be proud.
+These education reforms and the gains they have wrought, is what happens when Republicans and Democrats come together. When we set aside our differences, and focus on what matters most, there is no limit to what Mississippians can achieve.
+That is why I am asking the legislature to keep it up, and to invest in math coaches, just as we did for reading, to ensure that we continue to see improved results.
+The final vital factor in our education gains is our teachers. Unlike other states throughout the pandemic, most of Mississippi’s teachers stepped up. They did not cower in fear and refuse to come into the classroom. In fact, it was just the opposite. While other states resorted to Zoom for years on end, Mississippi’s teachers took to the chalkboard. When teachers in other states said, “no we won’t,” Mississippi’s teachers said, “yes we will.”
+They did not walk out, they stepped up. Now I want you to stand up for them. I would like for everyone to take just a moment and give our teachers the applause they deserve.
+Thank you.
+As the great Mississippian B.B. King once said, “The beautiful thing about learning is that no one can take it away from you.”
+Those who pushed long-term school closures would have taken that opportunity away from our children. In other states, students remained out of the classroom and locked away from their teachers and their peers.
+But we chose to not let that happen. Teachers in Mississippi did not, and will not, back down amid this unprecedented educational battle between a virus and a child’s right to learn.
+That is why we must give our teachers the pay raise they deserve.
+Y’all know that I am a conservative. Many of you are too. As conservatives, we believe in rewarding hard work and success. There is no doubt that Mississippi teachers fit that mold.
+I’m confident that in this session, working together, we will get a significant teacher pay raise done. It is my number one priority. Credit goes to where credit is due and in COVID-19, Mississippi teachers deserve the credit.
+There is one cloud on the horizon for our schools and it’s one that we need to address.
+Across the country, there is a looming threat in too many schools. It is propaganda that seeks to divide us. It’s what’s called critical race theory. It doesn’t really matter what you call it. And I’m not interested in semantics. I’m interested in the integrity of our civic education. In too many schools in other states, they teach the lie that America is inherently racist. They teach students that by virtue of the color of your skin you are inherently a victim or oppressor. They teach this for a purpose.
+It is designed to allow a small group of idealogues to pose as saviors—false heroes. It is arrogance and ambition, masquerading as education. When you are a victim by birth, only their generosity can save you. When you are an oppressor by birth, only your silent cooperation with their radical worldview can sanctify you.
+There is no country on this earth without sin in its past. That is because there is no person on this earth without sin. Sin is inherent in the human condition. Injustice is still too present today. We must teach that truth. We must learn from our history.
+But we can also proudly teach that America is the first nation in history to be born of ideals—not just blood and soil. We are not a nation created by a tribe, but a melting pot of people committed to common purpose.
+We work to live up to those ideals every single day. Yes, sometimes, we fall short. But then we get up. We keep stretching towards that promise, enshrined in our founding documents: that all Americans are created equal with rights bestowed by their creator.
+With the radical founding of America, we set the world on a course towards greater prosperity and freedom. Racism is not unique to America. Injustice is not unique to America. It is endemic in humanity because humanity is sinful. But the American notion that God grants rights that no one can take away – that notion is still transforming the entire planet.
+When we teach American children to fear one another because of their skin, we reverse the great trend towards achieving our American dream. The promise of America is replaced with a vicious lie: that you are doomed to failure or evil based on your race. We must stop this trend in its tracks, and we can do our part in Mississippi.
+Today, I am calling on the State Board of Education to adopt the values that combat critical race theory in their educational efforts. To affirm that Mississippi’s public educators will not indoctrinate students in ideology that insists this country, or this state, are inherently racist. We will not teach that your race determines your status as a victim or oppressor. No school district shall teach that one race is inherently superior or that an individual is unconsciously or inherently racist because of how they are born. No child will be divided or humiliated because of their race. We will strive for equality, and our education will support that aspiration.
+This is an important common step we can take to ensure that Mississippi is committed to equality. Honesty about our past, and bold and optimistic determination about our future.
+The legislature can bolster that effort by passing legislation to this effect. We will teach all of our history — good and bad. And that will lead to a brighter future. I know that our teachers can and will lead the way and I ask the legislature to set down that path.
+These investments in our schools are not a pipe dream.
+We can afford them. We can afford them in large part, because of our economic resilience.
+Mississippi continues to be in the best fiscal shape and the best financial shape in its history. Mississippi ended the year a billion dollars over revenue estimates.
+This was not an accident.
+We kept our businesses open and helped ensure Mississippians could continue putting food on their table. And they kept working. Bravely and calmly and rationally, they put on their boots, they showed up for work, and our state is better for it.
+We also refuse to incentivize the opposite. Mississippi was one of the first states to end the massive pandemic unemployment benefits, because we knew we needed to return to meaningful work. The results are clear:  
+In November, Mississippi’s weekly unemployment claims reached their lowest point since 2018. That’s because, in Mississippi, jobs are plentiful. In the four months after we announced the ending of the pandemic unemployment benefits, employers hired at a pace nearly 60 percent faster than before the announcement. In the month of June alone, Mississippi’s businesses hired more than 72,000 workers. That’s more than any other month in state history.
+While we are proud of how we weathered the economic storm, survival is simply not enough.
+We should never be satisfied until every Mississippian has access to the best jobs, skills, and upward mobility needed to better themselves and their families.
+That’s why one of my top priorities is to continue investing in our people. To continue investing in workforce and skills training Mississippians need to thrive in today’s economy.
+I said in my first address, upon taking this office, that at the end of my time as governor we will measure our success in the wages of our workers. We don’t just want people to have any job. We want them to have a career. A family-supporting career that gives them not just a paycheck, but joy.
+One of the things we should all be able to agree on, is that together, we passed one of the most consequential pieces of workforce development legislation in Mississippi’s history. When we created Accelerate Mississippi, we set our state up to better prepare Mississippians for the jobs of the next 50 years, not the jobs of the last 50 years. Through that legislation, we were able to streamline our workforce development efforts to ensure we have a clear strategy – a strategy that will meet the needs of employers and fill the vacancies for jobs that offer above average wages.
+To date, we have awarded over $11.5 million in RESTORE Act funds towards high-value workforce development programs. Additionally, Accelerate has awarded almost $12 million in grants to get more people into good careers.
+Careers like commercial trucking, advanced manufacturing, welding, utility line working, and fiber. They pay well and they offer security.
+Doing things the right way to build a skilled labor pool takes time. Companies realize this and so should we. Our work is just beginning. Months, and in some cases years, for people to acquire the skills they need to obtain these high-paying jobs.
+The time is now to continue building the pipeline. In my most recent Executive Budget Recommendation I proposed allocating $130 million in American Rescue Plan Act funds to support this effort. I believe that if we make this investment, Mississippi will develop that workforce of the future and set up our state for success for years to come.
+We also know that for Mississippi to grow, we must attract more economic activity. We need to be bold. We need to attract the kind of work that creates wealth for all Mississippians.
+First, we need to take care of the basics. We have a historic opportunity to invest in our core infrastructure – to take nearly $2 billion of federal money and put it into real, transformative projects.
+I want to echo and appreciate the sentiment from Lieutenant Governor Hosemann: We must stay focused on those investments that will have an impact not for one or two years, but for one or two generations. I whole-heartedly support his plan to put the bulk of that money into local infrastructure projects that can put those concerns behind us for years.
+We also need to consider how to attract those companies and economic projects that transform communities—create generational wealth and lift families out of poverty.
+This does not just happen one project at a time. It takes a bold vision that lasts forever. The heart of that vision is the elimination of the state’s income tax.
+By eliminating the income tax, we can put ourselves in a position to stand out. We can win those projects. We can throw out the welcome mat for the dreamers and the visionaries. We can have more money circulating in our economy. And it can lead to more wealth for all Mississippians.
+I am begging Mississippi legislators to be bold. Give us another arrow in our quiver to attract more capital and to continue to transform our economy.
+When someone in California or Illinois or even Louisiana decides to start their own business, let’s make them consider doing it right here in Mississippi. Let’s tell them that they are guaranteed to keep more of the first dollar of profit they earn if they come to our state.
+The only way to make Mississippi a magnet for the entrepreneurs of our nation is to show them our unmatched culture – married to an unbeatable tax code.
+I know that many of you have already demonstrated an appetite for such boldness, and I want to thank you. In the House, Republicans and Democrats voted overwhelmingly for their chamber’s bipartisan tax plan, which would eliminate the income tax. Speaker Gunn and Chairman Lamar, thank you for your hard work and your commitment to this ongoing effort. If we can eliminate the income tax, we will achieve an historic victory for this state. We can become a place that money flows more freely, and all Mississippians will benefit.
+Please do not let this moment pass without achieving something big. We can invest in our workers, water, and workforce. We can attract more wealth that can transform our economic potential. We can grow this great state to achieve what we all know we are capable of. That should be our ambition throughout this session.
+We are governing in a time of plenty. Good decisions have brought us a great harvest.
+If we do not lead boldly, when this time of great resources passes, I believe we will look back with regret. We have done the hard work to secure our fiscal situation. Now let us return that largesse to the people and unleash Mississippi’s economy.
+We know that our economic situation would not be so secure if it were not for our handling of the COVID-19 pandemic. We have lost many Mississippians to this virus. And we mourn their loss every day.
+We also know we cannot lock ourselves away behind screens and live in fear. We choose to protect ourselves as we see fit. We choose to reject panic and embrace a life worth living.
+And here in Mississippi, we realize that your life is a gift from God, and it is sacred. That comes straight from His word, which reads in Deuteronomy: “I call heaven and earth to witness against you today, that I have set before you life and death, blessing and curse. Therefore choose life, that you and your offspring may live, loving the Lord your God, obeying his voice and holding fast to him, for he is your life and length of days.”
+In this time of fear, there are many who have suffered from despair. They have wondered if their lives are worth keeping. I want to tell all of you—anyone who needs to hear it—that you are loved. You are valued. Your life has purpose and your life has meaning. Your state needs you. Even if you don’t know it, your life is a blessing to others. We are glad that you are here, living and with us.
+I pray for the same protection over those who are most vulnerable. Those who need our protection more than any other. Those innocent Mississippi children whose lives are precious. I pray every one of them can be regarded with the same basic respect. That most core human right: the right to life. The right of these children not to be killed before having the chance to be heard.
+Mississippians are leading the charge to defend those children. Mississippi and the Supreme Court’s landmark case is on a path to preserving millions of lives for generations to come. There is no excuse for America’s abortion laws to be closer to the Chinese communists than the rest of the western world.
+If we are successful before the Supreme Court, our work will not be done. We must acknowledge and champion the fact that being pro-life is about more than being anti-abortion. We should be doing everything in our power to make Mississippi the most family-oriented state in the country. We should be doing everything in our power to make Mississippi the safest and most supportive state in the country for mothers. And we should be doing everything in our power to promote a culture of life.
+In the coming months, we will be promoting plans to further protect mothers in our state. To ensure that they don’t just receive the basics— that they get the best possible care during their pregnancy.
+We will work to make it even easier to adopt a Mississippi child into a forever home. We will go further than preventing abortion.
+I have been proud to push for laws that restrict abortion and protect innocent life. But I do not pretend that those laws mean the work for life is done.
+We will lead in the effort to be pro-life in every sense of the word. It is vitally important, and I will be asking all of our legislative allies to commit to that work together.
+Another area where our collaboration is going to be key, is improving Mississippi’s corrections system. Two years ago, as I took office, we were facing prison riots that resulted in serious violence.
+To address the issues in the system, we needed a cultural reset. To ensure that we took control and took proper care of those who were serving time. To preserve the safety of our citizens, we needed to stem the rising tide of violence.
+I am proud to say that culture overhaul is happening. The system is different than it was two years ago. We are making incredible progress. Under the leadership of Commissioner Cain, we are hiring more guards. We are combatting gang violence. We are turning the tide and we are taking control.
+Time in prison often leads to despair. When you have a lack of hope, you don’t just serve your time. You commit to a life of crime. And instead of returning to society, having taken your discipline, the cycle of violence continues. The inmate returns.
+We can break that cycle, for hundreds of inmates, and that will lead us to a safer state. We are committed to offering hope of a better life. That begins with opportunity. Today, in state prisons, we are working hard to offer training and meaningful work. That can not only fill the days, it can set an offender up for a peaceful life on the outside.
+Just last month, Commissioner Cain unveiled a mobile welding training center that will help train inmates for a career in welding, post-release. The mobile welding training center – which by the way was not paid for with taxpayer funds – can train 32 inmates at a time and will rotate between prisons every 90 days. At the end of the program, trainees who complete it will receive a certification that they can use to find a job.
+But that’s not the only program we’re leveraging to train inmates. For example, the Automotive Service Excellence Certification, where inmates can learn to work on car motors and small engines. Or the National Center for Construction Education and Research Certification, which prepares enrollees in a variety of skills that will help translate to jobs in the construction industry. These programs work, and we need more of them.
+Now, some of you may be asking yourself, why should we be offering these types of opportunities to those who have been convicted of a crime? Why should we allocate funds towards educational opportunities for those who are incarcerated? The answer is actually pretty straightforward – because it’s a wise investment.
+The proof is in the numbers. The average cost to house an inmate in 2020 was over $50 a day. The cost for vocational training, depending on the program, is approximately $2,000 a year. The question you may ask is, well is it worth it? The short answer is an emphatic yes.
+Here’s why. In 2020, the general recidivism rate in Mississippi was 37.4 percent. According to the Department of Corrections, initial data shows that under Commissioner Cain’s leadership, the recidivism rate for those who have completed re-entry and vocational training is less than half that.
+What does that mean for you? As a taxpayer, a $2,000 investment can save you over $18,000 a year. But most importantly, there will be fewer crimes, fewer victims, safer communities, and a skilled workforce that has a second chance at life.
+If we want to break the cycle of recidivism, we must invest in a cycle of education and learning. That’s why in my most recent Executive Budget Recommendation, I proposed allocating $2 million for re-entry programs geared toward Mississippians who will be eligible for parole within six months. Additionally, I’ve proposed funding to expand the work release pilot program – that has already shown so much promise – to each of Mississippi’s 82 counties.
+I think and we can all agree that no matter how much we invest in training for those reentering society, there will always be a crime element present. It will never be completely eliminated.
+That is tragically obvious today. In 2020, our capital city set a record of 130 murders. In 2021, it increased to over 150 murders. That is unacceptable. Let’s put these numbers in perspective. In the city of Atlanta, there was a historic crime wave. People there are rushing to reform – electing new city leadership promising to combat the violence. They saw 158 murders in 2021. In Jackson, Mississippi, even though Atlanta is more than triple our size, we saw roughly the same number of murders in that year. The rate of killings in Jackson is three times worse than Chicago. It is worse than St. Louis, Baltimore, and Memphis. The violence scars families for generations. Our community is torn apart by senseless acts of mayhem. If our state is to thrive, we need a capital city of order. Governed by laws, not abandoned to daily violence. We all have an interest in stopping this deadly cycle.
+We can do our part to go down a brighter road. Create a capital city that is vibrant, full of life, and safe. A capital city where residents don’t have to fear for their safety. A capital city where parents can let their children run around in the yard without having to fear if they’ll be home for dinner.
+I believe that Jackson still exists. I have faith that we have what it takes to make Jackson a city that is a hub for business and capital investment. A city where jobs are plentiful, and opportunity is only limited by how hard you want to work.
+Reasonable citizens must take back control from those who only wish harm to their neighbors. Their day is ending in Jackson. The men and women of local law enforcement will always be the first line of defense. The frontline officers who feel abandoned cannot be left to their own devices. That is why I have championed an expansion of the scope of our Capitol Police force. To support local law enforcement and to bring peace back to Jackson.
+To our law enforcement officers who wake up every day, put on the badge, and risk their own personal safety to protect and serve us, thank you. As long as I’m governor, I will do everything I can to provide you with the tools and resources you need to keep us, and yourself, safe.
+That’s why I want to work with the legislature to get you the support you need. It’s why I proposed doubling the size of our Capitol Police, so there will be more boots on the ground as you perform your shifts in the Capitol Complex Improvement District. I’ve said it before and I’ll say it again, we have a lot of brave men and women in blue – there’s just not enough of them. Doubling the size of our Capitol Police, is the first, most immediate action we can take within the State’s jurisdiction. We have the ability to do it, and we must.
+We also know that alone is not enough. Capturing violent criminals does nothing if our justice system puts them right back on the streets. I am eager to work with the legislature to develop resources for targeted prosecution and conviction of violent felons here. Catch and release has caused nothing but record crime and chaos. All of us can agree on that. We need to find those who are leading the efforts to flood our capital with illegal drugs and guns—and put them behind bars where they belong. We need to bring focused attention to those orchestrating these efforts. Not to catch more people speeding or loitering. But to arrest, charge, and eradicate the ringleaders who make life hell for the peaceful residents of Jackson.
+After the day’s shifts have ended, and our law enforcement officers head back to their families, that doesn’t mean our support of the men and women in blue is over. It doesn’t mean we should stop recognizing the sacrifices they make daily. It doesn’t mean we should forget about their gallant actions over the last two years, or the expanded duties placed upon them because of the pandemic. It’s one of the reasons why I authorized $1,000 in one-time hazard pay for each sworn state law enforcement officer who actively served during the COVID-19 State of Emergency. Today, I call on the legislature to do the same for local law enforcement.
+Over the last two years, some of our law enforcement officers made the ultimate sacrifice in their service to us. We have benefits in place for those who fell at the hands of violence or in other tragic circumstances in the line of duty. These officers fell victim to an enemy that couldn’t even been seen – COVID-19. These officers will never again make it home to their families. There will be missed birthdays, graduations, weddings, birth of children, and more. And if they contracted the virus while serving and protecting, that should be counted as a line of duty death. That’s why this session, we need to appropriate additional money towards the Law Enforcement Officers and Firefighters Death Benefits Trust Fund. Doing so will be a final act of gratitude to the men and women who gave it all to keep us safe.
+To all our law enforcement officers, Mississippi will always back the blue. Again, thank you for everything you’ve done and thank you for everything you will do.
+We have many great opportunities before us. We can look back on what we’ve survived. We can look back on the gains we’ve accomplished. And we can be proud of one another. We must also dedicate ourselves to more hard work. To tackle those challenges and seize chances for greatness. We can do amazing things together if we focus on doing what’s right. And, if we have the fortitude to do what’s right, boldly. I know that each of you can commit to that goal, and if so, we will serve our neighbors well.
+Thank you. God bless you. And God bless the state of Mississippi."</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Thank you Lieutenant Governor, Mr. Speaker, statewide officials, Judges of the Missouri Supreme Court,
+and state legislators. It is an honor again to stand before you today as the 57th Governor of the Great State
+of Missouri.
+Once again, we are at an exciting time for Missouri and our future. This past year we celebrated the
+bicentennial of our state and 150 years of the Missouri Governor’s Mansion.
+And I am honored to have served as Missouri’s Governor during this remarkable milestone for our state.
+The First Lady and I were fortunate to be able to tour Missouri and visit communities all across the state
+and witness their individual contributions to our rich history.
+From the Ulysses S. Grant National Historic Site in St. Louis to the Hubble Space Telescope in
+Marshfield…from Walt Disney in Marceline to Jesse James’ birthplace in Kearney…from John J.
+Pershing in Laclede to Mark Twain in Hannibal…
+AND how could we ever forget Maxie the Goose in small town Sumner, Missouri…
+After more than 45 Bicentennial stops, the First Lady and I count ourselves blessed to have experienced
+the history, tradition, and heart and soul of what makes Missouri great.
+Faith, family, neighbors helping neighbors… that’s who Missourians are.
+AND that’s what makes Missouri the best state in the United States.
+We were also able to host the Bicentennial Parade and Inaugural Ball that was enjoyed and celebrated by
+Missourians from all over our state.
+Our historic parade included over 100 entries that proudly showcased communities all across Missouri…
+Including the Lincoln University Marching Musical Storm, the Budweiser Clydesdales, Chinese Dragon
+Dancers, and the Negro League Baseball Museum.
+2
+Missouri Governor — Michael L. Parson
+Office of Communications
+It marked the first time in our state’s history that an Inaugural Ball was held outside.
+And we counted ourselves fortunate to be able to celebrate with thousands of Missourians, many of which
+had never experienced an Inaugural Ball.
+BUT none of this would have been possible without the efforts state government undertook to lessen the
+impacts of COVID-19.
+When I stood before you last year, our limited supply of COVID-19 vaccines were available for only a
+small group of Missourians.
+No one had a roadmap or a playbook, and we knew we faced difficult times ahead.
+Nevertheless, state government accepted the challenges and prevailed by focusing on fairness in our
+vaccine distribution efforts.
+While there will always be endless critics to tell us how we could have done it better, the facts are we
+were the ones in the arena.
+We made the tough decisions and NEVER cowered to the challenge.
+Today, one of our greatest successes is in the fact that more than 94 percent of Missourians 65 and older,
+our most vulnerable population, have received protection from this virus.
+AND nearly 75 percent of Missourians 18 and older have received a vaccine.
+Now, while we have room to improve and encourage all Missourians to consider vaccination…
+We have worked tirelessly to ensure that vaccines are available to every Missourian that wants one.
+And we couldn’t have done it without the dedicated public servants at the Department of Health and
+Senior Services; State Emergency Management Agency; the Missouri National Guard; Department of
+Public Safety; doctors, nurses, and health care professionals; and the thousands of local partners, for their
+bold and heroic actions throughout the pandemic.
+Joining us today, are individuals we would like to give a special thanks to…
+Michael McMillan and James Clark with the Urban League in St. Louis and Pastor Miles and Janet
+Miles-Bartee with Morning Star Baptist Church in Kansas City, were instrumental in helping vaccinate
+some of our most vulnerable populations. 
+3
+Missouri Governor — Michael L. Parson
+Office of Communications
+With these trusted leaders aiding our efforts, we were able to get hundreds of thousands in Kansas City
+and St. Louis vaccinated.
+Additionally, seated in the upper chamber is Colonel Russell Kohl with the Missouri National Guard, who
+helped lead our state vaccine operations.
+Colonel Kohl and our Missouri National Guard members worked around the clock to get vaccines to
+Missourians as quickly as possible.
+Our Missouri National Guard members answered the call… and completed the mission.
+Would Michael, James, Pastor Miles, Janet, and Colonel Kohl please stand to be recognized?
+Missouri is a diverse state and a one-size fits all approach will never work here.
+In this state, we used common sense and took a balanced approach to the pandemic…
+AND while that may not seem like a novel idea…When you look to some of the policies and mandates in
+other states and places… you find that common sense may not be so common.
+That’s why we never had state mandates or forced businesses, schools, or churches to close.
+We protected lives and livelihoods.
+AND when it comes to COVID-19 mandates, I firmly believe that the people should have say through
+their local elected representatives and not be dictated by needless executive action or any one person.
+That’s why I don’t support and have never supported mandates and Missourians can rest assured that my
+position WILL NOT CHANGE.
+Today, our economy has nearly fully recovered, and we have the opportunity to make fundamental
+improvements to our state that will serve Missourians now and into the future.
+Missouri is STRONG today and will be EVEN STRONGER tomorrow.
+Missouri has a solid foundation and that is something we should all be proud of… Republicans,
+Democrats, and Independents … rural, suburban, and urban… 
+4
+Missouri Governor — Michael L. Parson
+Office of Communications
+It is a foundation that has helped propel our state to new heights in just a few short years and has set us on
+a course to achieve even greater accomplishments.
+Unfortunately, it seems success can get purposely overshadowed because positive news doesn’t sell
+headlines. But rest assured, we refuse to discount the good things happening in Missouri.
+Whether you live in the bootheel, the Ozarks, St. Louis, Kansas City, or anywhere across the state, our
+relentless focus on workforce development and infrastructure is paying dividends for ALL Missourians.
+Our unemployment rate sits at 3.5 percent, that’s below where we were BEFORE the pandemic and
+below the national average.
+And when we had an all time high of 385,000 individuals on unemployment, we knew we had to take
+action and solve this problem.
+Missouri was one of the first in the nation to cutoff federal unemployment benefits…and today, only
+21,000 are drawing benefits.
+This was the right call and the right thing to do.
+We are finding economic success, but with 116,000 job openings across the state, now more than ever, it
+is important to double down on workforce development and skill up our workers to fill these open jobs.
+We can’t be satisfied with the same as before. We must focus on making our state even stronger.
+Even during the pandemic, we created more than 21,000 NEW jobs and saw nearly $5.2 BILLION dollars
+in private investment.
+In 2021, we saw new businesses and existing businesses expanding their footprint in Missouri, including:
+Deli Star with nearly $100 million dollars invested and 475 new jobs in St. Louis,
+Gateway Studios with $111 million dollars invested and more than 100 new jobs created in Chesterfield,
+M-E-M-C, a semiconductor manufacturing company, invested $210 million dollars and 75 new jobs
+created in O’Fallon, and
+John Deere Reman with $11 million dollars and 130 new jobs created in Springfield…
+5
+Missouri Governor — Michael L. Parson
+Office of Communications
+BUT business investment didn’t just occur near Missouri’s urban centers.
+We saw…
+Carlisle Construction Materials invest $62 million dollars and create 100 new jobs in Sikeston,
+Swift Prepared Foods invested $250 million dollars and created nearly 400 new jobs in Moberly and
+Columbia,
+American Foods Group plans to invest $450 million dollars and create 1,300 new jobs in Warren County
+Amazon created 400 new jobs in Republic,
+Frozen Food Express invested $6 million dollars and created 60 new jobs in Butler,
+CoffeeTree Group created 50 new jobs in Marceline, a town of just 2,000 people,
+AND we could go on and on.
+But the point is, whether in our small towns, big cities, or anywhere in between, Missouri is open for
+business…and business is GOOD.
+The rest of the nation is taking notice and companies are looking to our state for their future business
+expansions.
+AND while we’re at it, I want all of you to hear some of the amazing recognitions and rankings our state
+has earned because we ALL work together:
+We are 1st in the United States for On-The-Job Training
+We are 3rd in the United States for apprenticeships
+We are 3rd in the United States for our business tax index – far outranking all of our neighboring states.
+We are 4th in the United States for new manufacturing facilities
+We are 4th in the United States for the best place to retire
+We are 5th in the United States for our low cost of doing business
+6
+Missouri Governor — Michael L. Parson
+Office of Communications
+We are 7th in the United States for people relocating to our state
+We are 7th in the United States for Tech Manufacturing Growth
+Believe it or not…I’m only half way through…
+We are 8th in the United States for economic recovery,
+We are 8th in the United States for best place to work for nurses,
+We are 9th in the United States for military retirees,
+We are 9th in the United States for housing affordability,
+We are 10th in the United States for our Automobile and Aerospace industries,
+We are 10th in the United States for new business expansion,
+We are 10th in the United States for site selection,
+And now Ladies, listen to this one…We are 10th in the United States for Women in Technology.
+Later this evening when we share these rankings with each of you, I hope you promote these wins for
+every district…every county…every Missourian.
+The bottom line is Missouri’s economy is STRONG.
+With a historic budget surplus and federal dollars coming to our state, we want to build on our past
+momentum to capture even greater opportunities for the future of Missourians.
+But I want to remind you that our economy is strong despite federal funding. When other states will be
+using federal dollars to fill spending gaps and budget shortfalls…
+We will be making investments in the future, because in Missouri, we took a common sense approach to
+the pandemic, never shutdown businesses, and have always had a conservative and balanced budget.
+You will be happy to hear that thanks to record economic performance…
+Missourians will receive an additional tax cut this year.
+7
+Missouri Governor — Michael L. Parson
+Office of Communications
+The tax rate will be reduced to a new low of 5.3 percent, easing Missourians’ tax burden yet again.
+Thanks to common sense, responsible spending, and working with the General Assembly, this will be the
+second (2nd) time our administration has cut taxes for Missourians.
+However, we must work to maintain this strong economic position by establishing a Cash Operating
+Expense Fund.
+By setting aside an additional 2.5 percent of general revenue, we will achieve financial stability when the
+rainy days come.
+This is the responsible thing to do… this is the conservative thing to do… this is the right thing to do…
+From the beginning, we challenged the legislature to support workforce development and infrastructure,
+strengthen our communities, and improve government.
+AND we have achieved some historic wins in each of those areas…together.
+Workforce and Education
+This session, we must recommit ourselves to helping skill up our workforce and preparing the next
+generations for the demands of the future.
+Over the last few years, it has become more important than ever to provide adults with opportunities to
+learn new skills and develop their career potential.
+In just a short time, and despite the pandemic, our Fast Track program saw a 65 percent increase in
+participants in 2021.
+To our surprise, 80 percent of the recipients are women and 50 percent are first-generation college
+students.
+Additionally, more than 50 percent are enrolled in health care programs, which has become a blessing
+considering the past 22 months.
+We are happy to have two outstanding Fast Track participants from Bolivar Technical College with us
+here today.
+Shanisha Alexander and Bryan Webb are pursuing degrees in nursing.
+8
+Missouri Governor — Michael L. Parson
+Office of Communications
+And we are proud of these students for their commitment and working toward a better future for
+themselves and their families.
+Would Miss Alexander and Mr. Webb please stand to be recognized?
+As you can see, this program is making a real difference for many Missourians and that is why we must
+permanently establish this program.
+In 2019, we also revamped Missouri One Start through the Talent for Tomorrow initiative and today that
+program is ranked NINTH in the United States.
+In just three years, Missouri One Start has assisted companies locating or expanding in Missouri with
+more than 700 programs aimed at recruiting and training new employees.
+More than 76,000 workers have received training through this successful program.
+To continue on this path, we must have a talented and dedicated team across state government.
+I know that many of you would agree, that Missouri has some of the best of the best in our ranks.
+The success of our state relies heavily on these public servants, and we must ensure we are able to recruit
+and retain quality team members to serve Missouri.
+AND that is why we are proposing an immediate 5.5 percent cost of living adjustment for all state
+employees.
+This is long overdue.
+Another group of dedicated state team members is my Cabinet.
+Our administration wouldn’t have success without these individuals leading our state workforce.
+Leading 16 departments and 42,000 individuals is no small task, but we couldn’t be more proud of the
+work they do every day.
+Would members of my Cabinet please stand to be recognized for the incredible things you have done for
+the citizens of the great State of Missouri. 
+9
+Missouri Governor — Michael L. Parson
+Office of Communications
+The future of Missouri – and Missouri families – relies upon children being healthy, safe, and ready to
+learn. We must continue to invest in our children and their education.
+My own daughter is a public school teacher, and I know the tough jobs our educators take on. But they
+answer the call and work hard every day to prepare the next generation of Missourians.
+Our students deserve a quality education and their parents demand it.
+And that is why we are again fully funding the Foundation Formula.
+Our teachers, administrators, and staff work tirelessly to support Missouri’s students…
+Last year, 95 percent of Missouri schools saw the value of in-person learning and did the right thing by
+keeping their doors open and our kids in schools where they belong.
+AND thanks to their efforts, Missouri ranked 5th in the United States for highest proportion of in-person
+learning during the 20-21 school year.
+Nothing can replace the classroom, and we are proud of those who recognize this and thank them for their
+dedication to Missouri children.
+Unfortunately, Missouri is currently ranked 50th in United States for starting teacher pay and half of our
+new teachers leave the profession by their fifth year.
+This is unacceptable, and we must do better.
+That is why we are proposing to raise teacher pay in every corner of this state…
+By partnering with local school districts, we can increase the baseline salary for new teachers to $38,000
+dollars…and take the first step in addressing this issue.
+I want to take a moment to highlight one of our exceptional educators here in Missouri.
+Ms. Beth Houf is the principal of Fulton Middle School and was recently named the National Principal of
+the year by the National Association of Secondary School Principals.
+This marks the first time in our state history that a Missouri principal has earned this top recognition. 
+10
+Missouri Governor — Michael L. Parson
+Office of Communications
+We know the vast majority of Missouri educators get it right day-in and day-out, and Ms. Houf is a
+shining example of someone who gets it right.
+Ms. Houf, would you please stand to be recognized?
+No one in this chamber would be where they are today without quality educators in their lives...myself
+included.
+In the current labor shortage, we must make lasting investments in our state’s continuing education
+programs to prepare the next generations for the jobs of the future.
+That is why we are requesting $31 million dollars for our colleges and universities through MO Excels
+projects. This will help expand enrollment in high-demand jobs.
+Additionally, we are investing $20 million dollars in grant funding for our 57 area career centers to
+expand career and technical education programs.
+With us here today, are students in career and technical education programs that represent schools and
+communities across the state that will benefit from these investments…
+• From Northland Career Center’s law enforcement training academy, we have…
+o Major Audrey Strope and Sergeant Nate Wassam.
+• From Cape Girardeu Career and Technology Center, we have…
+o Nicholas Hodges, Computer Networking and Security
+o Lydia Strickland, Graphic Design
+o Anwyn Suhr, Digital Media
+• From Carthage Technical Center Health Sciences, we have…
+o Olivia Bourgaulet
+o Danny Darland
+o Carly Simpson
+• From Jefferson City Nichols Career Center, we have Cody Elliot, a 2nd year welding student.
+• From Pike-Lincoln Technical Center, we have…
+o Destyni Gabel, Building Trades and Construction
+11
+Missouri Governor — Michael L. Parson
+Office of Communications
+o Haley Dowell, Auto Collision,
+o Joel Mound, Diesel Technology.
+It’s programs like these that offer a path for students to pursue high-demand, good-paying jobs, and we
+must continue to support them in this state.
+Please join me in recognizing these hard-working students.
+After working closely with Missouri’s higher education institutions, we are very proud to be able to
+increase our investment in higher education.
+We will recommend funding for the top capital improvement at state community colleges and 4-year
+institutions.
+Combined with the MoExcels projects and scholarship opportunities, this investment will total nearly
+$600 million dollars…
+AND generate over $1.1 billion dollars in economic impact for our state.
+Infrastructure
+As I’ve often said, workforce development and infrastructure go hand in hand. For our state to be
+successful, we must invest in both.
+Communities across the state are faced with costly public water and wastewater system repair and
+replacement.
+In order for individuals to live, work, and raise a family, the maintenance and improvement of these
+public systems must be a priority.
+The state and local governments must work together to make meaningful and lasting investments that will
+strengthen every town and county in the state.
+Under our proposal, we will make $250 million dollars available to communities across the state to
+enhance access to safe drinking water and responsible wastewater…
+AND $150 million dollars to enhance storm water systems.
+12
+Missouri Governor — Michael L. Parson
+Office of Communications
+While I do not agree with the massive expansion of federal debt, the responsibility falls to us to invest
+wisely and make smart decisions…we must do what the federal government cannot.
+Speaking of strengthening our communities, we are incredibly proud of the progress that has been made
+thanks to Focus on Bridges. This program set out to repair or replace 250 bridges across the state.
+We are now nearing completion of 75 percent of those bridges, and this program’s success has allowed us
+to leverage hundreds of millions of dollars in additional infrastructure investments in every region of the
+state.
+It is critical that we continue making these important investments.
+That is why we are proposing $75 million dollars to continue our Transportation Cost-Share program for
+road and bridge projects that bring economic impact to our state…
+And $100 million dollars to improve low-volume roads and minor routes across the state of Missouri.
+These are the hardest routes to fund and are important to local communities, especially in rural Missouri.
+This investment will help us free up additional funding for much needed projects in suburban and urban
+areas…leaving no region behind.
+This year, we are also proposing $400 million dollars to further increase broadband, the largest single
+investment in state history.
+This investment will increase access across Missouri for rural areas, but also urban areas that are underserved.
+With this plan, we will connect 75,000 households with high-speed broadband.
+AND invest $30 million dollars toward constructing and upgrading cell towers to expand wireless
+networks across the state.
+This is another core investment we are making for the next generation and the future of our state…
+Agriculture
+13
+Missouri Governor — Michael L. Parson
+Office of Communications
+Road and bridge repair and broadband expansion are not only important for every Missourian but are
+critical for our state’s number one industry…Agriculture.
+For Missouri agriculture to remain strong, we must prioritize the extension of critical agricultural tax
+credits that support Missouri farmers and ranchers, ag-businesses, and value-added products.
+Because we must always stand with Missouri’s diverse group of agricultural producers.
+These men and women wake up every day to feed and fuel the world, AND this has been especially true
+over the past 22 months.
+When we were facing tough food-supply chain issues…they adjusted, they adapted, and they put food on
+the table, allowing us to avoid the hardships experienced in other states.
+That is why we are calling for $10 million dollars to expand agriculture innovation and workforce
+programs.
+Investments like this help ensure the agriculture way of life in the state of Missouri can be passed down to
+the next generations.
+Speaking of the next generations, seated in the upper gallery, we have members of the Paris, Missouri
+FFA Chapter, which was recently recognized as the 2021 National FFA Chapter of the year... the highest
+award a chapter can earn in the nation.
+Out of nearly 9,000 chapters nationwide, we are proud to be home to the National FFA Chapter of the
+year and even prouder of the Paris students.
+Would members of the Paris FFA, please stand to be recognized?
+With nearly $94 billion dollars in economic impact and nearly 460,000 jobs, Missouri is an agriculture
+state, and we must never forget it.
+AND as a third-generation farmer, you can rest assured that agriculture will always remain a top priority
+for this administration.
+Community Investments
+Another area of focus this year is on creating more opportunities for our communities. 
+14
+Missouri Governor — Michael L. Parson
+Office of Communications
+To further our goal to use public resources to make meaningful, long-term investments across the state,
+we will set aside $250 million dollars for a statewide revitalization grant program to spur local economic
+development.
+This program will help bring economic opportunity to communities across the state, train more workers,
+define competitive advantages, and bring more jobs to Missouri.
+Another asset for communities all across the state, is our state park and conservation network that is
+enjoyed by hundreds of thousands of visitors each year.
+More and more people are getting out and experiencing Missouri’s great outdoors…
+AND this year, we have an opportunity to solidify this state asset and economic driver and expand
+tourism.
+By investing $69 million dollars to start construction on the Rock Island trail…
+We can help establish the largest circular rail-to-trail network in the United States and a world-class, oneof-a-kind destination for travelers coming to Missouri…while also supporting businesses and creating
+jobs.
+Health Care
+One of the lessons we learned from the COVID-19 pandemic is that we must also support our
+communities by strengthening our health care networks across the state.
+That is why we are asking for a $34 million dollar investment in rural communities to increase access to
+telehealth and telemedicine services.
+Another historic investment we are recommending is a new multi-agency state health laboratory.
+This lab will accommodate the needs of the Department of Health and Senior Services, Department of
+Agriculture, Department of Conservation, and Department of Natural Resources and join them together
+on one campus.
+This will lead to safer, healthier Missourians and a more efficient use of public resources.
+This year, we are also proposing to double the capacity of our Missouri Autism centers.
+15
+Missouri Governor — Michael L. Parson
+Office of Communications
+This will help more families navigate the challenges of treating autism…
+And reduce the backlog for Missouri families desperately needing services.
+I want to thank State Treasurer Scott Fitzpatrick and the First Lady for helping bring this to our attention
+and working to get this done.
+Public Safety
+This year, we must take a renewed look at public safety and how best to fight violent crime.
+We must continue to support our law enforcement professionals who put their lives on the line to protect
+our families.
+We can do this by ensuring consistent requirements and appropriate penalties to hold violent criminals
+accountable…
+While also protecting Missourian’s second amendment rights, just as our administration has always done.
+That said, it’s not just how we deal with violent criminals, we must make sure those with behavioral
+health and substance use disorders receive the treatment and support they need.
+Last year, with the support of the General Assembly, we made great progress in providing proper
+treatment options to Missourians by increasing community support through crisis stabilization centers and
+community behavioral health liaisons.
+This year, we are asking to provide an additional $140 million dollars to support and increase services at
+health centers across the state.
+Last year, we also highlighted the first law enforcement training academy in the country at a historically
+Black college at Lincoln University.
+AND this year, we are building on that investment with over $11 million dollars for upgrades and to
+provide more scholarships for law enforcement officers to receive POST certification and put more
+officers on the streets.
+16
+Missouri Governor — Michael L. Parson
+Office of Communications
+Thanks to the leadership of Senator Williams, Senator Leutkemeyer, and Representative Roberts we can
+ensure our law enforcement professionals are using policing strategies and techniques that make us all
+proud.
+With us here today is a very special guest…Missouri State Highway Patrol Trooper Colton J. Beck.
+In December, Trooper Beck was attempting to conduct a routine traffic stop when the suspect fled and a
+pursuit ensued.
+The suspect then opened fire on Trooper Beck, striking him in the face, neck, and upper torso.
+Despite being seriously injured, Trooper Beck remained calm and assisted his fellow officers despite the
+threat posed to his life.
+He is a proud example of all law enforcement officers who serve this state honorably.
+Would you please join me in giving Trooper Beck a well-deserved round of applause?
+Missourians respect law and order, but as a former Sheriff it alarms me to see some of the attitudes
+toward those who have taken an oath to defend our communities and keep us safe.
+We must work to strengthen our communities by supporting our men and women in law enforcement.
+AND learn from the failed policies in other cities and states to never allow anti-law enforcement measures
+to take hold in this state.
+In Missouri, we DEFEND law enforcement, not defund them.
+During my very first state of the state, I laid out our strategy to focus on workforce development and
+infrastructure…
+Now, we have real opportunity to make lasting investments in these areas and the future of our state…
+But with these opportunities comes a responsibility to be mindful about the role of government and where
+and how it should be involved.
+Government should invest…not waste; 
+17
+Missouri Governor — Michael L. Parson
+Office of Communications
+Government should lead…not dictate;
+Government should support…not mandate;
+AND we must all remember that.
+In this state…
+We have created tens of thousands of new jobs, but we can do more.
+We have built hundreds of new bridges and repaired thousands of miles of road, but we can do more.
+We have expanded broadband to thousands of homes and businesses, but we can do more.
+We have strengthened communities in urban areas, in suburban areas, in rural areas, but we can do more.
+AND we are ready to stand with each and every one of you to do more for the people of Missouri.
+It is our time…and the time is now.
+CONCLUSION
+In closing, there’s a story from this past year that I want to share with all of you…
+In September, I stood on the tarmac at Lambert Airport when a young man made his return home and
+when a family found the courage to welcome him…one last time.
+Corporal Jared Schmitz made the ultimate sacrifice for his bravery in defending his nation during the
+withdrawal from Afghanistan.
+He did his duty with honor and without question to protect freedom for his family, his community, his
+state, and his nation.
+AND in such a difficult moment, one wonders how we can ever make it through…but by taking a look
+around, you can always find the answer… our people.
+When our nation couldn’t be more divided…I saw a community that couldn’t be closer.
+18
+Missouri Governor — Michael L. Parson
+Office of Communications
+When a family felt pain and loss…I saw them embraced by friends, neighbors, and total strangers.
+In THIS challenging moment…I saw the best of who Missourians are.
+And that’s why I’m proud to be the Governor of this great state.
+AND as we close out these past 22 months and look to our next chapter…remember…our strength is our
+people.
+When times are hard, Missourians move forward.
+When someone is down, Missourians lift them up.
+These past years have been tough and dividing for a lot of people, but Missourians stay true…they give
+their best…and they always put others first.
+AND we are a better state…a better people… because of it.
+When we look to the future and not dwell in the past, when we find solutions instead of problems…when
+we stand together instead of apart…we can accomplish anything.
+We must always Keep Pushing Forward in this state, because no one is coming to do it for us.
+Missouri is STRONG today and will be EVEN STRONGER tomorrow.
+It is an honor and privilege to serve as the 57th Governor of the state of Missouri.
+God bless you, God bless the great state of Missouri, and God bless the United States of America.</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NO ADDRESS</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good afternoon. Generally, when a Governor delivers a State of the State message, it happens in the Assembly Chamber in Carson City before a Legislative Session. This year, there is no session, but with the pandemic receding I thought it was important to talk to you about our path forward. That's why I decided to give a State of the State address here at Allegiant Stadium - a location that represents new jobs, new determination, new pride, and new progress for Nevada. What you see here — this state-of-the-art building, the thousands of jobs that came with it, the incredible sports and entertainment it hosts - it all came together because people worked together: Republicans and Democrats, business and labor, north and south. And you know what, that’s always the best way to get things done. We got this and a lot of other things accomplished in the middle of a pandemic, because despite dealing with the worst health crisis in a century, we kept going, people persevered, determined to get things done for Nevadans: Today, our economy is one of the fastest growing in the country. Tourism is up, unemployment is down. Our students are back - with 100% of our classrooms in-person. Gaming revenues are at an all-time high, and, more importantly, wages are up, too. But it’s been hard, we still face challenges every day, and the pain of the pandemic is real. We’ve lost cherished friends and family. Our healthcare professionals and first responders have worked night and day saving countless lives. Teachers, administrators and support staff like bus drivers and cafeteria workers went above and beyond to get our kids back in classrooms safely. Our Nevada National Guard members stepped forward to run testing stations, distribute vaccines, and care for seniors. Our small businesses had to sharpen their pencils, care for their employees – while finding new ways to keep their doors open. Families had to adapt: Helping kids study, working from home, trying to keep it all together. The truth is we never gave up. And while we still have a lot more to do, we refused to let the pandemic stop our progress. Quite simply, because of you, the state of our state is resilient and getting stronger every day. Nevada is on the move. I’m so proud of our state, and of our people. Because despite the noise we hear from some in politics, despite the partisanship that can distract and divide, I know that at our core we all care about the same things a paycheck that keeps up with cost of living, schools that teach, streets that are safe, businesses that thrive and create good jobs and a government that lives within its means. Today, I’m going to talk about how, working together, we can get more done to help make your life better. Right now, the cost of everything is rising. We all see it. Nevada families are getting squeezed at the pump and at the grocery store. Childcare, housing, and healthcare costs are eating too much of a family’s income. It’s hard to keep ahead of bills and save for things like college or retirement. While I can’t promise to solve the national inflation problem, I can promise to do everything in my power to help families with the rising cost of living.   That starts with holding the line on taxes. Since I’ve been governor, we haven’t raised one penny of new taxes on the people of Nevada, not one penny, and that’s also true of every proposal I’m offering tonight – no new taxes, no new taxes. These issues are important to me because I’ve been there. I raised two incredible daughters by myself, cooking dinners they didn’t like, going to the grocery store, trying to figure out childcare. Raising kids isn’t easy or cheap -- and that was over 20 years ago. Things have only gotten more expensive. So, we’re starting by investing in childcare - because Nevadans deserve the opportunity to go to work knowing their children are safe and have every opportunity to succeed. In the last two years we strengthened Nevada Ready!, the State’s Pre-K program, to get high-quality childcare and early education to more kids. We invested over $200 million in childcare centers, to keep staff working and facilities open. And today, I’m announcing a further investment of $160 million to help lower costs for parents and keep childcare workers on the job. This investment will double the number of families we support because I believe every family from West Wendover to North Las Vegas should have access to great childcare. Another big concern is the rising cost of housing. Right now, we have too little supply for a booming demand. In the last decade more than 400,000 people have moved into Nevada. They know what a great state this is, but we have renters and buyers at all levels who are being squeezed out of the market. That’s why we’ve taken steps to remedy our housing shortage. We provided rental assistance that helped over 43,000 Nevada families remain in their homes. We helped build over 2,300 new affordable apartments last year alone. For those thousands of families what really matters is keeping a roof over their head or building equity in a home. But there’s more to be done. That’s why today, I’m announcing the “Home Means Nevada” initiative – a $500 million dollar commitment to lower the cost of housing, help people stay in their homes, and create good-paying jobs. The plan boosts housing construction and homeownership opportunities. It will help seniors retrofit their homes, to lower their costs, improve their property, and stay where they want to be. And we are developing a new partnership with the AFL-CIO through our state infrastructure bank, to help fund new housing developments. This announcement marks the single largest investment in housing in our state’s history. Like housing, I know the rising costs of healthcare also pose a serious strain on many Nevada families. I have been working with Democrats and Republicans to help solve that problem. We went after insurance companies and made it illegal to deny coverage for pre-existing conditions. We were one of the first states to crack down on “surprise billing” by hospitals and medical providers. We took on medical debt collectors who were preying on struggling families. We helped over 100,000 Nevadans purchase affordable health insurance through the Silver State Health Exchange. And our new public health insurance option will make quality care affordable for even more Nevadans. That’s real progress. But we can’t let up. For instance, the cost of insulin has tripled over the last decade to nearly $300 per vial. Lifesaving cancer drugs can cost hundreds of thousands of dollars per year.   That’s why today, I’m announcing that Nevada will join the Northwest Prescription Drug Consortium, along with Oregon and Washington State. By negotiating with drug companies together, we can start holding them accountable and get costs down. But we all know healthcare isn’t just about costs, it’s about people and it’s about jobs. In the coming weeks, I’ll be creating a Healthcare Workforce Committee to build on the lessons learned over the last two years. We must ensure we have the nurses, technicians, and doctors we need so Nevadans can get the care they deserve. Now I want to talk about one of my very top priorities. As someone who went to public school and as the dad of two daughters who did the same, I know how important a great education is. That’s why I’ve been so passionate about getting our kids back in the classroom. During the pandemic we deployed $1.5 billion in federal funds for masks, testing, mental health support and more - so we could reopen schools safely. I am so grateful for our hardworking teachers, support staff, our exhausted parents, and our amazing students. We would not be where we are today without you. When I took office. I promised to do everything in my power to make sure every child in every classroom gets a great education. That’s why we gave teachers their first directly funded raise in a decade. Why we asked educators what they needed and directly funded 11,000 projects to make schoolrooms buzz. And why we raised average per pupil funding to a new high. And when I said I would do everything in my power to help our schools, I meant everything. That’s why I’ve donated every penny of my salary as governor directly to our public schools. Almost $300,000 donated to more than 100 different schools across our state -- from Southside Elementary School in Elko to Basic High School in Henderson. And I want to take a moment to speak directly to parents and caregivers. Your voices, your involvement, your thoughts are an important part of great schools. I will always support strong parent participation in making our education system the best it can be. I really believe that the future of our state is directly tied to the quality of our schools. Last year, I worked with the legislature to commit $200 million to get our students caught up after the pandemic. This investment is going to summer schools, tutors, and other efforts to make sure our kids are back on track and ready to get ahead. We’re also going to invest in teacher recruitment by providing nearly 4,000 future educators with stipends and tuition assistance to help address the teacher shortage. Finally, we all know that you can’t learn on an empty stomach. So, I’m announcing that we're investing federal dollars to ensure that our schools can provide free lunch for all students across the state for the next school year. While we want to make sure our kids are cared for at school… we all deserve to be safe at home, at work and in our neighborhoods. No exceptions. That’s why next I want to talk about something every Nevadan is concerned about. We’ve seen crime rates rise across the country and here at home. Whether it’s a 44% increase in homicides last year in Clark County, or an increase in robberies in Reno - it is unacceptable. Here are some of things we are doing to turn things around. We banned bump stocks, closed the gun show loophole and now require common-sense background checks on all gun sales. We secured nearly $12 million in federal funding to recruit more officers, prevent youth crime, and more. And under my administration, the percentage of our state budget devoted to law enforcement is #1 in the country. But there are still some big holes we need to fill. For example, our state police make less than most municipal officers and as a result we have a shortage of State Police. If you’re someone who is interested in a law enforcement career, go to DPS.NV.GOV because we need you. And here’s my promise back –- when the legislature returns to Carson City, I will be proposing a salary increase, so we guarantee that Nevada state police are well-trained and well-paid. And as we work at the state level, we need our local law enforcement agencies to evaluate the crime-fighting programs they have, while our courts and prosecutors help determine the best ways to reduce crime in their communities. I have always supported increases in funding for our police to make sure they have the resources and training to protect and respect the communities they serve. As Governor, I will continue to partner with anyone and everyone – Democrat, Republican, or Independent – to make our communities safe and to make sure our police have the support they need. I’ve talked about a lot of issues today: safety in our community, the cost of living, healthcare, and education. But the truth is, a vibrant, growing economy with good paying jobs goes a long way towards solving many of these challenges. That’s why I’ve been working to build a stronger and more diverse economic foundation for Nevada -- to help create an economy that works for you and Nevada families. This stadium is an example of just that. It’s created thousands of new jobs -- from construction to transportation, from small business suppliers to technical staff, from the tax dollars it generates, to the hotel rooms it fills. This building represents one part of a more diversified economic future. And we’re building it together. Last year alone, Nevada added over 94,000 jobs to our economy. We’ve been rated the state with the best economic momentum in the country. Over 100 startups launched in Reno in the last two years alone. And, yes, tourism is back. Hotel room revenue is up and our newly expanded Las Vegas Convention Center is getting booked. That means jobs for our workers and tax revenue for our state. This didn’t happen by accident. During the pandemic we did everything we could to keep small businesses open, attract new companies to the state, and support our workers. In December, I hosted the JobFest, which was attended by 2,100 Nevadans. One hundred and eighty-two employers hired 251 attendees, all in just one day. And those jobs aren’t statistics, they’re people, like the woman who came up to me after being unemployed for months. She got hired on the spot and on that day her life – and her family's life – changed. When she cried and hugged me, it proved again what a good job means in a person's life. Another huge economic growth opportunity for us is clean energy. With more sunshine than just about any state in the nation, Nevada is on the way to becoming the leading clean-energy economy in America. Last year alone, we saw the launch of five new solar plants - increasing our state’s solar capacity by 36%, and now Nevada is ranked #1 for solar in the country. Renewable Energy Tax Abatements have created 12,000 construction and 500 operational jobs with an average wage of more than $40 hour. We’re investing in things like clean-energy school buses, which will be funded, in part, by fines on corporate polluters. These aren’t just good jobs, they’re critical tools in the fight against climate change. From the day I took office, I’ve worked to make sure Nevada is resilient as it tackles this serious threat. Today, we’re monitoring our carbon footprint. We’re investing in transportation electrification across Nevada. We’re implementing a plan to ensure that 50% of Nevada’s energy comes from clean energy by 2030, with net-zero greenhouse gasses by 2050. But we can and we must do more. Climate change puts us all at risk. Drought, wildfire, Lake Mead’s record low, it affects us every day. Extreme heat is another one. That’s why this year, I'll convene members of my Cabinet, scientists, and climate leaders to create a statewide strategy for dealing with extreme heat. We will continue leading the fight against climate change and creating good jobs in the process. Because a resilient, clean energy economy is a part of a strong, diversified economy. And let’s not forget the essential role that small business plays in our economy. I know something about this. I was a small business owner myself. And I faced the struggles that come with starting a business, praying that your idea will be successful. It was one of the most terrifying and most exciting periods of my life. Nevada business owners deserve a government that is invested in their success and stays out of their way. That’s why I stopped any increase in unemployment insurance taxes in 2022. It’s why we distributed $100 million to thousands of organizations and small businesses to keep them going during the pandemic. And why I have worked to reduce unnecessary regulation. For example, today I’m announcing a bi-partisan task force to further reduce barriers when it comes to occupational licensing. Here in Nevada, we license everyone from barbers to private investigators and the system needs to change. I’m also creating the first ever Nevada Small Business Accelerator Program -- to help new startups get off the ground and expand, putting Nevada at the forefront of emerging technologies. And one more thing: To make sure more money drops to the bottom line, I will keep Nevada a low tax state. The fact is, as we work to grow the economy, we need great roads, bridges, and highways to move materials and create jobs. The good news is that, today, we’re actually ranked number 1 of all states in infrastructure, and we’re in the top 10 for our roads and highways. That’s real progress. But we’re about to make another leap forward. Using dollars from the federal bipartisan infrastructure bill I supported, and our federal delegation delivered, we will invest $4 billion dollars to upgrade roads, bridges, and water systems. Over five hundred million for new broadband infrastructure, to make sure every Nevadan has access to high-speed internet. Big new improvements to our airports and public transportation systems. And over $8 million dollars to try and get our hands around wildfire prevention. These investments -- overwhelmingly supported by Democrats, Republicans and Independents -- will create thousands of new union jobs, the building blocks of an even stronger economy. And as we continue to move forward, we need to make sure no Nevadan gets left behind. I’ve always believed the key to a good job doesn’t always have to run through the gates of a four-year college. That’s why I’ve worked to create new career and technical training opportunities for students and those looking for retraining. We’ve already expanded STEM education, and apprenticeship programs, with over 30,000 students completing training since I took office. And we’ve created new opportunities for over 10,000 high school students to begin earning their associate degree while finishing their high school diploma. And last, but certainly not least, we know that skills training is essential to our workers and businesses. A high school education isn’t enough, and we should recognize that it’s no longer “pre-school through grade 12,” but at least “pre-school through community college or other post high school training.” For that reason, I’m directing my Workforce Development Committee to explore ways to make community college or other apprentice and training programs free for more Nevadans by 2025. I know we can get it done. Nevada, I have never been more optimistic about our state or where we are going. Despite two difficult years that have challenged every one of us, again and again I’ve seen incredible acts of kindness, heroic acts of selflessness and a determination to never stop moving forward. Family has never been more important – I know that’s true for me as I look over at my wife Kathy and my two daughters, Carley and Ashley. Ultimately this is about making life better for the people we love – I think that’s true for all of us – when we get up each day, go to our jobs, provide for our kids, try to make budgets work, or care for a parent. We’re believers -- that problems can be solved, that big things can be accomplished – whether it’s a stadium that unites us, a new job that excites us, or a classroom that ignites something special in a young child, we’re united in our determination. As I said in my opening, getting things done always works best when we come together – when we put aside party labels, put down our heads, and get to work. That’s the true Battle Born spirit that has propelled our state forward for the last 157 years. It is what I try to do every day as your governor, and with your help, it’s what will build an even stronger Nevada. Thank you.
+</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Through the years, the guiding light of my administration has remained the same: to Grow Nebraska. And, despite weathering floods, fires, and a global pandemic, we have done just that.”
+“I was elected on the promise that I would bring tax relief to our state. It’s what the hardworking men and women of our state deserve. And, given our current financial situation, we must deliver.”
+“ARPA funds are one-time funds. They must be spent as such. Each one of us has a responsibility to guard against spending this money in a way that grows government expenses.”
+LINCOLN – President Foley, Speaker Hilgers, Members of the Legislature, Distinguished Guests, friends, my lovely wife and First Lady Susanne Shore, fellow Nebraskans – good morning!
+Congratulations on the commencement of the Second Session of the 107th Nebraska Legislature.  Welcome back to Lincoln.  I look forward to working together to serve Nebraskans during what is certain to be a fast-paced, short session. 
+Eight years ago, I announced my run for Governor.  I did so out of a love for my state and a desire to see her thrive.  Through the years, the guiding light of my administration has remained the same: to Grow Nebraska.
+And, despite weathering floods, fires, and a global pandemic, we have done just that.
+In the face of unprecedented challenges, the State of the State is strong.
+We’ve been living with COVID-19 for nearly two years.  It’s changed the way we do business, educate, learn, and go about our daily lives.  And in some tragic cases, it’s taken lives.
+But, true to our collective character, we have kept moving forward.  The development of vaccines, boosters, and new treatments has given us the opportunity to return to the pursuit of the Good Life.
+Nebraskans don’t need to be mandated to do the right thing.  They just do it.  Without lockdowns or mandates, businesses were able to stay open.  Parents were able to return to work, and their children were able to return to school.  Where authoritarian states are struggling, we are thriving.
+Politico’s State Pandemic Response Scorecard confirms this.  An in-depth, independent analysis of all 50 states shows Nebraska has weathered this storm better than any other state.
+We have the lowest unemployment rate in history – not only in the history of our state, but of our nation – at 1.8 percent.
+Last November marked the third month in a row with over one million Nebraskans employed.
+And, our manufacturing sector has come roaring back.  In fact, today more Nebraskans are working in manufacturing than pre-pandemic.
+Our economic successes are a testament to Nebraskans’ desire to work hard and earn.  From teachers to truck drivers, mechanics to medical professionals, farmers to fast food workers, and every profession in between, our state’s women and men invest their time and effort to better their communities and support their families.
+Last year, we supported their work and helped them grow Nebraska.
+Thanks to the leadership of Chairwoman Linehan and the Revenue Committee, the 2021 session ushered in a historic level of tax relief—relief that will deliver $2 billion to Nebraskans over the next two years. 
+Many other great bills were passed into law thanks to your hard work.
+Chairman Friesen, Speaker Hilgers, and the Telecommunications and Transportation Committee joined forces to secure passage of the Nebraska Rural Broadband Bridge Act.  As a result, an additional thirty thousand Nebraska households will have access to high-speed broadband.
+Senators Brewer and Gragert shepherded through legislation that fully exempts military retirement pay from state income tax.  Reforms like this are how we will keep talented veterans in our state.
+All this—and more—was accomplished while responsibly managing state spending and limiting expenditures to only 2.4 percent growth.
+Behind the numbers, we’ve experienced intangible growth as well.  Throughout Nebraska, our people’s grit, drive, and selflessness were on full display in 2021.
+From North Omaha to North Platte, folks stepped up to solve problems in their communities.
+In North Omaha, business and community leaders have been working to develop and revitalize Omaha’s historic North 24th Street.  Through physical improvements such as providing high-speed fiber optic upgrades, and a comprehensive streetscape plan, the project’s work promises to bring businesses and customers back to the area.
+In the home of famed Buffalo Bill Cody, North Platte ranchers felt the squeeze that comes with a lack of options for meat processing.  Instead of accepting the status quo, David Briggs and others have launched Sustainable Beef, a beef processing plant that promises to bring nearly 900 jobs to the North Platte community and more than one billion dollars in annual revenue.  More importantly, Nebraska’s ranchers will have more choice as they run their businesses. 
+Today, I’m joined by some of the people who are responsible for these incredible efforts: North Omaha’s Carmen Tapio, CEO of North End Teleservices; Pastor Ralph Lassiter, a leader with the North 24th Street Business Improvement District; and David Briggs, CEO of Sustainable Beef.  Please join me in welcoming them.
+Carmen, Pastor Ralph, and David: thank you for all you do to make our state better.
+Other Nebraskans also continued to step up for one another.  In 2021, over 200 of our men and women accepted the call to join the thin blue line that protects and serves our communities.  They’ve earned that badge.  They were trained, challenged, and tested – thanks, in part, to the work of instructors at our Law Enforcement Training Center in Grand Island.
+We are joined here today by Law Enforcement Training Center Director Brenda Urbanek and Deputy Director Mark Stephenson.  They work to make sure our men and women in blue are ready to respond to the unique needs of their communities.  Brenda and Mark, thank you for all you do.
+Our students continued to pursue personal development.  We enter 2022 with more than 3,900 Nebraskans in registered apprenticeship programs throughout the state—including through our six great community colleges.  That’s 3,900 more Nebraskans who are pursuing growth and contributing to our diverse, skilled workforce. 
+And, Nebraska continues to serve as a beacon for life.  This includes the amazing aid our crisis pregnancy centers and other organizations provide to new mothers and their babies.  It also includes the work our people do for some of Nebraska’s most vulnerable—born and unborn.
+I specifically want to recognize all that Attorney General Doug Peterson does to combat human trafficking in our state.  During his tenure, the State of Nebraska has prosecuted 76 sex trafficking crimes, holding accountable those who are exploiting the vulnerable and delivering justice for victims of this modern day form of slavery.
+Thank you, AG Peterson, for your leadership to ensure that all Nebraskans can expect justice and equality under the law.
+We must also recognize all the doctors, nurses, and health care professionals, whose stalwart selflessness and excellent care has helped us weather this pandemic.  Please help me thank our healthcare heroes. 
+We’ve come a long way in one year.  But there is still work to be done.  Work that will help everyone in our state thrive.
+This legislative session, there are four priorities we must accomplish to keep Nebraska strong for years to come. 
+It’s likely not a surprise to any of you that I am starting with tax relief.  It’s been a staple of my budget recommendations every year.  I was elected on the promise that I would bring tax relief to our state.  It’s what the hardworking men and women of our state deserve.  And, given our current financial situation, we must deliver.
+Last year, we successfully passed a two-year budget that set priorities for this year and next.
+While there is an opportunity to fine-tune this plan, I expect state agencies and our partners to live within our existing budget and limit any budget growth to under three percent.
+By the end of fiscal year 2023, the State of Nebraska is anticipated to have an estimated $1.5 billion in its Cash Reserve Fund.  Let me say that again: 1.5 billion dollars.
+Folks, this is the people’s money, and we must support tax relief that puts this money back into the pockets of the people. 
+To start, we can build on last session’s reforms by accelerating the phase-in of Social Security tax exemptions to five years, instead of the current ten-year period.  This would allow our older neighbors and friends to keep more of their hard-earned money.
+We also need to ensure that we are building upon the historic amount of property tax relief provided during last session.  This fiscal year – and next – $548 million in annual property tax relief will go back to our people through LB1107.  And we must make sure it does not drop below this floor.
+Finally, over the next five years, we must reduce the top individual tax rate by one percent – from 6.84 percent to 5.84 percent.  For those who may try to brand this as a tax cut for the rich, I challenge you to ask Nebraskans earning $33,180 a year, or families earning $66,360 a year, if they feel rich.  They make up the 418,900 Nebraskans in this tax bracket who deserve relief. 
+And we can offer that relief while aligning job creator rates to this new individual income tax rate.
+It’s imperative that we also remember our core responsibility: to protect public safety.  After all, people are our greatest resource.  There are several opportunities this session to strengthen our commitment to keep Nebraskans safe.
+Historic agreements were struck to provide substantial pay increases for our 24/7 public health and safety positions.  This will help us attract and retain quality corrections teammates. We’ve already seen a fivefold increase in Department of Corrections applicants since this announcement was made.
+I am also requesting $16.9 million to enhance our state crime lab, which analyzes forensic and physical criminal evidence to better secure justice for victims of crime.
+And $47.7 million to go toward the expansion of our Law Enforcement Training Center in Grand Island.
+Finally, we must fully fund the replacement of the Nebraska State Penitentiary.  The existing penitentiary was built over one hundred and fifty years ago.  Its walls are crumbling, and its infrastructure is aged beyond simple repair.
+For those wishing to pursue criminal justice reform, this should be a no-brainer.  A modern facility will give our inmates a better quality of life.  Modernizing our State Penitentiary will allow us to offer enhanced services and programming to prepare these men for life after time served.
+I am not asking anyone to choose between supporting a modern State Penitentiary and pursuing policies that aim to reduce crime and recidivism.  These solutions are not at odds, and there is room for both as we work to strengthen Nebraska.
+This year, we can also help secure our water resources for generations to come.
+After our people, water is Nebraska’s greatest natural resource.
+To secure Nebraska’s water supply, I am recommending $500 million to construct a canal and reservoir system from the South Platte River.
+Access to this water enables our farmers and ranchers to produce.  It protects quality drinking water.  It keeps electric generating costs manageable, and it ensures Nebraska remains the best place in the world to live, work, and raise a family.
+If we fail to secure our supply from the South Platte River, we could expect to lose 90 percent of the water that currently comes to us from Colorado.  We must act to preserve, protect, manage, and steward our water supply for our future Nebraskans.
+I am also requesting $200 million be allocated to the water projects presented by the STAR WARS Special Committee.  These projects will also secure our access to water—and they provide the additional promise to grow the Good Life in tourism and recreation.
+In addition, I am recommending: $5 million to support repairs on the Peru Levee; $60 million to restore and protect drinking water systems in rural areas, such as Cedar and Knox Counties; and $23 million in repairs to the Fort Laramie Gering canal tunnel. 
+This year, we also have the rare task of spending the $1.04 billion that Nebraska has been allocated through the American Rescue Plan Act.  These ARPA funds can help our state grow into the future.
+Today, I am releasing a second budget recommendation with proposals on how to spend this ARPA funding, and I look forward to the robust debate that will ensue as you work to determine where this money is best spent.
+I cannot stress it enough: ARPA funds are one-time funds.  They must be spent as such.  Each one of us has a responsibility to guard against spending this money in a way that grows government expenses.
+My proposal includes 29 qualifying initiatives that will better Nebraska.
+It will deliver nearly $200 million for public health emergency response.
+And, for areas that experienced negative economic impacts from COVID-19, I am requesting over $500 million.  This includes assistance for economic development projects in North Omaha and funding for beef processing supply chain issues in North Platte.
+It secures funding for parents of low-income children who have experienced learning loss during the pandemic, and it provides Nebraska’s community colleges dollars to enhance their workforce development programs.
+It also funds behavioral health and nursing incentives to ensure continued access to excellent care throughout our state.
+In addition, my ARPA budget proposal includes over $284 million to water and sewer projects.  This includes partial funding for the Perkins County Canal and Reservoir construction, funding for the STAR WARS Special Committee proposals, and other key water projects I’ve mentioned today.
+Putting money back into the pockets of hardworking Nebraskans.  Protecting public safety.  Securing access to our natural resources.  And investing in one-time projects that will enhance our state.  These are the ways we can keep Nebraska strong and growing in 2022.
+I know that there will be tough debates.  Long nights.  And seemingly impossible time constraints. 
+But I also know that we get the job done when everyone rolls up their sleeves and works together.
+Thank you for your service to the people of Nebraska.  Our work in the coming days will require a spirit of collaboration and cooperation and for each of us to do our part to keep Nebraska strong.
+I look forward to the challenge, opportunity, and honor of working with you.
+Remember: Nebraska is what America is supposed to be.
+God bless you all, and God bless the great State of Nebraska! 
+ </t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 STATE OF THE STATE ADDRESS 1
+2022 NH STATE OF THE STATE
+Remarks as Prepared
+Good morning – thank you Mr. Speaker, Mr. Senate President, honorable members of the
+House, the Senate, the Executive Council, and of course, Chief Justice MacDonald – and to
+our fellow citizens tuning in remotely today, WELCOME
+This State of the State marks the first time we’ve come together—in person since COVID
+arrived 2 years ago.
+Since then, we’ve tragically lost over 2,300 Granite Staters to this awful virus and our
+hearts go out to their families.
+COVID has been extremely tough. But the state of New Hampshire is strong. It is resilient,
+and we are putting systems and policies in place that don’t just make us like everyone else,
+but truly separate us from the pack and capitalize on all our potential.
+So, let’s jump right into an update on how the state is doing, the opportunities we have and
+where we can go.
+Let’s start with some really good news:
+• Today The Granite State is ranked as the Freest State in the Nation
+• We have the Strongest economy and the fastest population growth in the northeast.
+• We are Number One in America for Public Safety
+• First in Economic Freedom
+• and we continue to have Lowest Poverty Rate in in the country with some of the
+highest average wages for our citizens.
+Ranking after ranking shows what we here in New Hampshire have long known – the
+Granite State is the place to be and America is taking notice.
+Our way of life here in the 603 is the best of the best.
+We didn’t get here by accident — we did it through smart management, prioritizing
+individuals over government, citizens over systems, and delivering results with the
+immense responsibility of properly managing our citizens tax dollars. 
+2022 STATE OF THE STATE ADDRESS 2
+As other states were forced to buckle down and weather the storm, we took a more
+proactive approach in 2021. In just the last year, we:
+• Cut the statewide property tax by $100 million to provide relief to NH taxpayers
+• Cut the rooms and meals tax
+• Cut business taxes — again
+• Began permanently phasing out the Interest &amp; Dividends tax
+And while we heard scary stories of how cutting taxes and returning such large amounts
+of money to citizens and towns would ‘cost too much’, the actual results have played out
+exactly as we planned, record tax revenue pouring into NH exceeding all surplus
+estimates, allowing us to double the State’s Rainy Day Fund to over $250 Million.
+A few years ago, we would get excited over $25M in surplus and yet this next year we now
+estimate that we will see 10 times that amount allowing for overdue investments in the
+state’s infrastructure without additional burden on our citizens
+Along with the state, Local Governments have unprecedented amounts of additional
+financial opportunity as well.
+Federal Support has created $600 million in additional education funding.
+Then you add another $250 million in general Federal support to every city, town and
+county in the state through ARPA funds.
+When you add all that up with the $100 Million of property tax relief and don’t forget that
+thanks to Senator Denise Ricciardi and her colleagues in the legislature that 45% MORE in
+meals and room tax revenue is coming to your towns, not just this year but every year.
+That’s an incredible amount of money to offset costs in your towns.
+So instead of downshifting costs, we downshifted cash, giving cities and towns extra
+flexibility — a win for our citizens.
+Because of these investments, many towns are using this increased financial opportunity
+to lower local property taxes, which everyone loves to see.
+I’m here to tell you – if your town isn’t lowering taxes for some reason, town meeting day
+is in less than a month, so go out, make your voice heard, and work with your local town
+officials to help make it happen. Now’s the time to do it.
+2022 STATE OF THE STATE ADDRESS 3
+Last year, our nation continued to grapple with COVID — the pandemic strained our
+health care system and tested us like never before.
+While other states were seemingly caught flat footed just reacting to the surge, we took a
+forward-looking approach and prepared for what we knew would be a tough winter. We
+knew that the government couldn’t SOLVE Covid, but we came together, cut red tape, and
+flexed open our health care system to meet our citizen’s needs.
+Over the last year, New Hampshire:
+• Was the fastest with the initial vaccine roll-out for citizens which meant
+• NH was the first state to open the vaccine up to everyone who wanted it.
+• We Delivered over 1.5 million free rapid tests to households across the state
+• Kept Schools Open with children safely in the classroom.
+• Built out internal surge centers at our hospitals
+• cut red tape to fast-track licensing of hundreds of nurses in just a few weeks
+• Strategically deployed federal dollars to support our health care and long-term
+care providers
+• And when it came to the mixed messaging and mismanagement of the Federal
+Government, we stood up for our citizens and held Washington accountable for
+their illegal mandates.
+New Hampshire has consistently ranked among the safest states in the country for COVID
+— now having one of the lowest hospitalization rates in America — and we did it without
+sacrificing the freedoms we hold dear.
+• We kept businesses open
+• We stopped the federal vaccine mandates
+• We let individuals, businesses, and communities decide what worked best of them
+But we also didn’t go to extremes and tell small businesses who they could hire or fire. We
+know it’s not right to infringe on those businesses’ rights and it’s not what Live Free or Die
+is all about.
+We used a team approach and let local solutions drive our strategy.
+We listened to our citizens and took every question because it is our responsibility to
+inform our citizens. 
+2022 STATE OF THE STATE ADDRESS 4
+The nation has taken notice of the success we’ve achieved here in New Hampshire - and
+that’s thanks to the citizens of this great state.
+- You heeded the advice of public health experts
+- You craft the guidance that kept our economy open
+- You cared for your neighbors, and
+- You took on each day with the resiliency known only by Granite Staters.
+For all of that, we Thank You.
+Now we’re moving forward as a state with the mindset that COVID may be here for quite
+some time — and we can manage.
+We can turn our ‘New Normal’ back to ‘Old Normal’.
+The Pandemic of 2022 is not like March of 2020 because we have so many more tools in our
+toolbox. We have the vaccines, we have boosters, we have at-home tests. We know so
+much more, and we will continue to let data and science guide our approach — just as we
+have from Day One.
+But none of this would have been successful were it not for the dedicated, hardworking,
+and lifesaving Healthcare Workers on the front lines. And the men and women of our
+National Guard. These are New Hampshire’s heroes that have worked nonstop through
+the pandemic, and it is because of them that we stand here today and say: THANK YOU!
+Because of our strength, our resilience, and Granite State innovation, we continue to grab
+the attention of those in Washington, D.C. and in state capitols across the country.
+And unlike those in Washington, D.C., when we say we’re going to do something, we do it.
+I think we can all agree that its long time coming that politicians in Washington take a
+page out of New Hampshire’s playbook.
+We lay out policy goals and go after it.
+Instead of partisan bickering and perpetual gridlock, we deliver results.
+Complacency isn’t in our DNA — and it’s not who we are as Granite Staters.
+State are the ones leading the management of today’s challenges. The states are the
+laboratory for democracy — and thanks to a no-nonsense approach we design flexible
+programs to meet the needs of the 603.
+We had a great year last year — but there is still more work to be done. 
+2022 STATE OF THE STATE ADDRESS 5
+Last year when I delivered my inaugural address, I asked everyone to come together to
+find a more positive path so that we might head into the new year united. Understanding
+that we may disagree on policy or politics, which is OK, but we needed to enter the new
+year united as citizens with the responsibility to uplift our communities for positive
+change. Because I knew that when you break through the ugly political divide that we see
+eating away at the rest of the country, we could get some amazing things done.
+Last year, in my speech, I called for:
+Passing paid family medical leave — without an income tax.
+• The result is that this year New Hampshire is developing the most innovative paid
+family medical leave program in America — one that is truly voluntary and funded
+without an income tax.
+Last year we fought to Expand Educational Opportunities for students and families
+• This year, for the first time in state history, a child’s zip code or family income no
+longer dictates their educational options, with Education Freedom Savings
+Accounts New Hampshire is providing opportunities to thousands of families
+across our state with nothing but positive results.
+Last year I prioritized cutting taxes and attracting businesses
+• Thanks to this legislature, we cut taxes, and then cut more taxes - New Hampshire
+has one of the lowest tax burdens in the country, putting more money back into the
+pockets of families and small businesses — all while continuing robust services
+under a fair and balanced budget. The result is businesses pouring into New
+Hampshire, growing sustainably, and creating the biggest budget surplus in the
+state’s history. TAX CUTS WORK, SO LET’S DO IT AGAIN!
+• And remember back in 2016 when New Hampshire had some of the highest health
+care costs in America? Well, we challenged ourselves to change that. This year we
+redesigned our state-level policies with families in mind. And today in New
+Hampshire, benchmark health insurance premiums are the lowest in New England,
+and below the national average.
+2022 STATE OF THE STATE ADDRESS 6
+And when it comes to mental health, we continued to face that challenge head on.
+When I came into office, the State had a mental health system that was fragmented. It was
+designed by bureaucrats and didn’t work for families. We called it the unspoken crisis of
+our time, which has only been exacerbated by the COVID pandemic.
+It was no accident that when we needed a new Commissioner of Health and Human
+Services that I chose a nurse who had worked her way up through long term care and later
+ran New Hampshire Hospital. We have all gotten to know Commissioner Shibinette and
+have worked with her and her team to dramatically transform the entire mental health
+system.
+As we came through last year’s Covid Emergency Order I immediately issued an Executive
+Order calling for direct action to ensure individuals in mental health crisis receive timely
+and appropriate medical care.
+A key piece of the transformation effort is to increase capacity in community-based
+services. This means providing access to mental health care for children and families
+before they find themselves in crisis, reducing the need for Emergency Room visits.
+• As many know, we recently signed a purchase agreement to buy Hampstead
+Hospital — this is a transformational investment to provide dedicated services to
+New Hampshire’s kids who need and deserve access to high quality mental health
+providers.
+• Last month, we doubled down on our Emergency On-Demand access to mental
+health. When you’re in crisis, you don’t have time to wait. There is now mobile
+crisis support and a 24/7 crisis call center.
+• Over the last year we invested millions to promote youth activities outside the
+classroom and provided access to mental health supports through summer camps
+and in our schools through social and emotional learning.
+• And I am calling on the House and Senate today to continue the progress we’ve
+made in bolstering mental health services by passing SB 234 — which would require
+every student ID card in New Hampshire to have the phone number of the National
+Suicide Prevention Lifeline. Easy access to this 24-Emergency service for every
+family – It’s so simple, cost nothing, but will undoubtedly save lives. 
+2022 STATE OF THE STATE ADDRESS 7
+• And we’re not done. In the next few weeks, the Commissioner and I will be
+bringing forward a historic opportunity for a public-private partnership that will
+for the first time provide New Hampshire with an adequate number of crisis beds
+for those most in need. And at the same time allow us to attract the best and most
+specialized mental health workforce around.
+• Let’s get this done!
+Just a few years ago, alongside the Mental health crisis, New Hampshire was seeing drug
+related deaths continue to skyrocket –from 2013-2017 our drug related deaths doubled.
+When I became Governor, we said Enough is Enough and instead of just pumping more
+money into a failing system with little accountability we took the challenge head on and
+built a new system of care.
+The Doorways:
+A system that didn’t just focus on 28 days of treatment, but one that actually integrated all
+of the wrap around services critical for long term success of the individual.
+Treatment – Recovery - Transitional Housing- Recovery Friendly Workplaces – Harm
+Reduction - Prevention – All of it working together for the first time, many services now
+being offered 24/7
+Where you need them – when you need them.
+Thanks to The Doorway and the incredible men and women that support it, in 2021 New
+Hampshire became one of the only states in America where overdose deaths did not
+increase.
+In fact, over the last two years, we’ve reduced drug overdose deaths by more than 10% -
+while the national statistics have risen 50%
+Here in New Hampshire we are bucking the trend.
+We have not won this battle — far from it, but with the tools and resources we’ve
+deployed, citizens can rest assured that we are leaving no stone unturned in our battle
+against addiction.
+We are making strides with mental health and opioid addiction, but people always ask
+where we are on connectivity and infrastructure.
+2022 STATE OF THE STATE ADDRESS 8
+During Covid, we brought broadband to over 4,500 hard-to-reach households creating
+connectivity to areas often forgotten across the state. And over the next 2 years, we are
+going to be one of the first states in the country to extend broadband to tens of thousands
+of more.
+We made investments to address PFAS contamination in our water systems. PFAS is one
+of the biggest Environmental Concerns this state has ever faced and with the leadership
+and help of Senator Chuck Morse, we allocated $150M to fund water infrastructure
+projects to ensure when you turn on your faucet — you know the water in your cup is safe
+to drink.
+Unfortunately, we see Washington continue to ignore the nationwide inflation crisis that
+has led to skyrocketing energy costs. This affects Granite Staters at the gas pump, on their
+electric bills, and when they heat their homes. Increasing costs hurt our job creators, our
+families, and our seniors on fixed incomes.
+What we have seen over the past year only reinforces my philosophy on energy during my
+time in office: That first and foremost, we have to prioritize our ratepayers and make sure
+our policy decisions do not overly burden them. When possible, we must strive for New
+Hampshire solutions that are innovative and responsible.
+This methodical way of addressing energy policy pays dividends: According to data from
+the Federal Department of Energy, over the last 5 years, Massachusetts residential
+ratepayers have seen over double the increase in electricity rates than New Hampshire
+households have.
+Said another way, if New Hampshire had followed Massachusetts’s lead New Hampshire
+families and seniors on fixed incomes would have paid an additional $100 Million dollars A
+YEAR just to turn on the lights.
+You see, we no longer just say yes to every energy project that comes across our desk just
+because the lobbyists or special interests wants the funding. That’s lazy, it’s political, and
+it costs New Hampshire families a fortune.
+We can be smarter.
+Just last year, we established the Department of Energy and Funded the Office of Offshore
+Wind Industry Development for the First time in history to signal we can move forward in
+a responsible way.
+Clean, reliable, and affordable offshore wind energy will be a reality for New Hampshire.
+You might not be able to see it way out there, but we’ll all benefit from it!
+2022 STATE OF THE STATE ADDRESS 9
+And let’s not forget our big win in net metering. It took a couple years to find the right
+balance, but we passed a bipartisan bill that did things the New Hampshire way.
+Protecting ratepayers, advancing clean energy, and helping cities and towns choose their
+energy future. I was proud to work with Representative Vose and Senator Avard and all
+the legislators that got this done.
+Thank you!
+A few years ago, I stood before you and said those of us that are born in New Hampshire
+are lucky, and those of us who move here are smart. Well, it appears we have a whole lot
+of smart people moving to New Hampshire.
+Families looking for low taxes, good schools, a sense of community, and beautiful lakes,
+mountains, and forests are moving here in droves – and at a faster clip than anywhere else
+in the Northeast.
+Which presents both opportunities and challenges.
+One of our biggest challenges is the availability of housing for our working families. Our
+state’s shortage of available housing was further squeezed by the pandemic as people
+poured in.
+With that challenge I see opportunity. I created the Council for Housing Stability in
+November 2020. That council developed a three-year plan, that aims reduce homelessness
+and to increase housing options for our working families by 13,500 units in the next three
+years.		These are achievable goals within our grasp.
+I’ll also continue to ask the legislature to get SB 400 done — a bill to create regulatory
+incentives for workforce housing across this state.
+But with the post Covid economic boom hitting the Granite State, SB400 won’t be enough.
+I have repeatedly asked the Federal Government to give New Hampshire flexibility with
+our housing relief funds, but they keep refusing.
+Nevertheless, I’m not deterred. We know that New Hampshire needs to make an
+investment today.
+We can and we must move forward and create more workforce housing but just as
+important, do so in a way that preserves what is best about our state. Our shared sense of
+responsibility to our neighbors.
+2022 STATE OF THE STATE ADDRESS 10
+This is the New Hampshire way and that is why today –
+I’m proposing the InvestNH Housing Incentive Fund – a historic $100 Million Fund using
+ARP dollars to rebuild and expand Housing for New Hampshire’s next generation.
+Working with the legislature, this program is a multipronged approach:
+First – This proposal will invest $60 million in flexible grants to match investments for
+multifamily housing projects ready to move to the building stage.
+Second – Slow and uncertain permitting deters investment. So, we want to incentivize
+towns to move quickly. I’m calling for a $30 million commitment to reward municipalities
+that can approve permits within 6-months of application. These grants would be made
+directly to the towns to offset costs and increase their ability to invest locally.
+Third – I want to create a $5 million demolition grant fund for those communities that
+have vacant and dilapidated buildings that they just cannot afford to remove. Let’s clean
+the old lots out to move the next generation of sustainable housing in.
+And finally, I want to invest directly into cities and towns by providing $5 Million in
+planning grants so they can update planning and zoning regulations that facilitate
+modernizing development in New Hampshire.
+These investments are critical to ensuring New Hampshire is the number one destination
+in New England. This housing is for workers and families who work in our communities,
+go to our schools, and contribute to our economy.
+The Data is Clear - Housing creates regional stability for our families and businesses!
+And that’s a win this legislature can deliver for New Hampshire!
+Housing is critical to the success of our communities, but so is the safety of our
+neighborhoods.
+Back in 2020 New Hampshire aggressively took on the challenge of tackling issues
+surrounding law enforcement accountability, correctional reforms for modernizing our
+detention systems. We ensured that law enforcement worked in conjunction with
+community leaders to develop our Commission on Law Enforcement Accountability (we
+call it LEACT). NH law enforcement remains the gold standard across the country, and it is
+because of their collaborative work with the LEACT Commission that we are able to move
+forward on so many of these crucial and successful initiatives 
+2022 STATE OF THE STATE ADDRESS 11
+But we also looked at the correction system designed for our youth. And after years of
+inaction, we brought from the shadows the horrific cases of abuse that occurred at New
+Hampshire’s Youth Detention Facility in Manchester.
+The Attorney General’s Office is continuing the comprehensive criminal investigation into
+these allegations. While this abuse occurred many years ago, in some cases decades ago,
+we will not stop until we have brought all perpetrators to justice.
+And to that end we have put forward a proposal to the legislature to set a $100 million
+settlement fund for compensating these victims. This is the sensible and right thing to do. I
+hope you’ll support me in creating this fund, so that we can bring closure to this incredibly
+painful process, move the current group of kids to a more treatment focus model, and
+bulldoze that facility once and for all for Manchester.
+And despite our ranking as the Number One State for Public Safety in the United States –
+we know there is still more work to do to keep our communities safe.
+I was grateful to see that just yesterday the Senate passed SB 294 – which will ensure
+violent criminals do not automatically walk free on bail.
+This law is critical in protecting victims of domestic violence – attackers shouldn’t be able
+to continue to prey on their victims.
+At a time when law enforcement across the country is faced with unspeakable danger, we
+must continue to stand up and fight for a system that prioritizes safe communities above
+all else.
+NH is the gold standard for public safety, SB 294 will help make us even safer, and I urge
+the legislature to get this bill to my desk.
+I would like to close by talking about one final, very exciting project.
+One area I think we all passionate about is supporting our veterans and active military
+service members.
+This past year we opened new state of the art homeless facilities for our struggling
+veterans, but we can do more. We have to think bigger and broader. 
+2022 STATE OF THE STATE ADDRESS 12
+So many New Hampshire citizens have answered the call to serve; it’s a proud legacy in
+our state. That service comes with great personal sacrifice that we are all eternally
+grateful for.
+Over the past few months, I have worked with Adjutant General David Mikolaities,
+legislative leadership and our Veterans support groups on a proposal that takes advantage
+of an opportunity and partnership with Easter Seals. This $21 million initiative creates a
+unique all-encompassing Veterans Campus.
+The Veterans Campus, being proposed for a site in Franklin, is designed to integrate
+veterans, active military, and their families. A campus that includes housing, supportive
+services, a retreat center, a true integration of care coordination, therapeutic and
+recreational services all designed by veterans and military personnel, for veterans and
+military personnel.
+Like never before New Hampshire is going to be able to create the gold standard in the
+health and wellness of America’s heroes.
+We have had a lot of success over the last year with a lot more opportunity ahead of us.
+But we cannot take any of this progress for granted.
+Too often across the country we see people fight in the extremes. We see ideological
+differences bring great ideas to a screeching halt - all over a political turf battle.
+We cannot let that happen here in New Hampshire.
+As a state we are moving full speed ahead, but we cannot get bogged down or disrupted by
+the extremes. We have to have the courage to reject those notions.
+The citizens of our state did not hire us to just be political ideologues, they hired us to do a
+job. If you are here to relish the attention over a fight that gets us nowhere, I have no
+patience for that. I have never and will never let our state be hijacked by these radical
+elements on either side.
+They let it happen to Washington, every day. No one stands up to stop it. But here in NH,
+together, we have worked hard to keep it from holding us back.
+Let’s not let social media dictate our priorities and sentiments. Because it’s not real. Let’s
+not fixate on cable news, let’s start listening to our constituents and engaging with our
+neighbors. 
+2022 STATE OF THE STATE ADDRESS 13
+Just because we don’t always agree doesn’t mean we can’t continue to do great things as a
+state.
+Let’s work together, let’s meet the moment and let’s deliver results for the 603.
+Thank you, God bless you, and God bless the Great State of New Hampshire. </t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>My fellow New Jerseyans.
+Our state Constitution deems today the day on which I come to report to you on the state of our state.
+That accounting is clear. The state of our state is resilient and ready to keep moving forward. 
+Because this is who we are as New Jerseyans. We believe in ourselves and we believe in each other.
+And we know nothing is beyond our reach because nothing is beyond our willingness to work hard.
+Under our state Constitution, I will also have the privilege of returning here in one week’s time to reaffirm my oath, and to begin a second term as governor.
+I am extraordinarily honored and humbled by the responsibility you have given me. And I am excited by the possibilities that lay ahead for our state.
+And, if that’s not enough, I will be back six weeks after that to propose my budget for the upcoming fiscal year.
+So, over the next two months, and, indeed, the next four years, we’re going to see a lot of each other. I will do my best to not wear out my welcome.
+We begin 2022 just as we did 2021. 
+I’m once again addressing you from an empty theater. 
+And our state remains on a war footing against a virus that has now taken on a form that is overwhelming our collective psyche as it tests our state.
+We’re all frustrated by this pandemic.
+We’re all tired of it getting in the way of everything we do.
+We’re all ready to get on with our lives. And I am committed to seeing us get there …
+… To schools where our kids’ smiles once again light up hallways and classrooms.
+… To Main Street stores and restaurants where communities can once again come alive.
+… To sports arenas where cheers are once again heard loudly and clearly.
+… To living rooms where we can once again freely gather with family and friends, whether for a holiday, a birthday, or just on the spur of the moment.
+  … And to workplaces that are again fully safe and humming with the promise of a prosperous future.
+It has, indeed, been an extraordinarily long two years.
+Yet, as inconvenient as life is for so many of us, it pales in comparison to what some have been through.  
+We will never forget the loss that has hit so many of our neighbors.
+And we will forever honor the tremendous hard work and dedication of all of the women and men working on the front lines – especially the doctors, nurses, and staff across our entire health-care system.
+Hard work, even in the face of great challenge, does not deter us as New Jerseyans. Hard work, especially in the face of great challenge, defines us. 
+Just as we thought we had finally gotten ahead of COVID, the Omicron variant came along. 
+Omicron is doing its best to stop us in our tracks and push us back. We will not let it. 
+We are seeing new case counts that dwarf anything we’d seen to this point – upwards of four times as many New Jerseyans have COVID today than did one year ago. Thirty thousand new cases a day. More new cases day-to-day than even at the pandemic’s start. 
+Even the knowledge that illness from Omicron can be less severe is of little solace, as these tremendous numbers of cases – even with the lower percentage chance of hospitalization that comes with them – mean that we have more people in our hospitals today than at any point since the spring of 2020.
+And it means that more of our fellow New Jerseyans are leaving us all too soon.
+In consultation with my partners in the Legislature, I have taken the necessary step of re-declaring a Public Health Emergency to ensure we keep moving forward – guided by facts and science – and that we keep doing everything we can to beat back Omicron and put COVID behind us.
+In your day-to-day lives, this step won’t bring any changes. But it is vital to ensuring our continued and coordinated response so we can move forward and put COVID behind us …
+… A response that keeps our schools, businesses, and economy open, and allows us to get back to a real and lasting sense of normal.
+… A response that ensures critical testing supplies and vaccines can be distributed to communities where they are most needed and given to the residents who most need them.
+… A response that protects the ability of our hospitals to care for the hundreds of New Jerseyans entering them because of COVID every day.
+… A response that ensures we are getting the data we need from across our health-care system to make smart and forward-looking decisions.
+… A response that keeps state, county, and local health authorities working together. 
+… And a response that ensures we keep following science and fact, and not politics, so we can keep moving forward.
+We are all in this together. And we must keep moving forward together.
+But try as it may to knock us back and further divide us, one thing is certain. Omicron has not knocked us down.
+In fact, despite all the challenges, we continue to move New Jersey forward.
+Across New Jersey, nearly 90 percent of all eligible residents have received at least a first vaccine dose. Let me say that again – nine out of every ten eligible residents have now raised up their sleeve at least once. And 75 percent of you have completed your primary vaccination course.
+But we know that these initial courses – either the two-dose regimen of the Pfizer and Moderna vaccines, or the one-shot from J&amp;J – weaken after several months. It is more important than ever that you get your booster shot.
+Science and reality tell us that what we once called “full” vaccination is no longer that. A booster is not a bonus – it is a necessity. 
+So, if you have not yet gotten your booster shot, here is what I ask of you – go get it. The booster is proven to lessen the impact of illness to keep you out of the hospital. 
+And every vaccine dose is a ray of light through the dark cloud that has hung over our families. Every dose gets us one step closer to regaining the life we knew prior to COVID.
+To each and every one of you who have done the right things – worn your masks even when you didn’t want to, found or made time to get your boosters, and taken precautions even when it meant postponing precious family celebrations – Lieutenant Governor Sheila Oliver and I thank you from the very bottom of our hearts.
+And so do so many millions of your fellow New Jerseyans who have done the very same.
+Across the nation, we’ve seen some of the worst that crises can bring out in people. The selfishness and self-centeredness. The public shaming and finger-pointing. The deliberate misinformation.
+We’ve seen some of this in New Jersey. But, to be sure, it’s a small minority. 
+There are far, far many more of you who have done the hard work and proven our state’s overwhelming selflessness and community spirit. You’ve proven our collective faith in science and facts and medicine – and in each other. 
+Our state has become a beacon of what’s possible when we rise to face a challenge together with fearless optimism, and not use it to cynically drive people apart. 
+And if we hold together to shine bright just a little longer, we will disperse the dark cloud of COVID.
+We may not have yet fully conquered the virus. But we will never let the virus conquer us. 
+We must get to the point where we stay in front of it and don’t fall back again. And we will.
+And even with the pandemic hanging over our work across the past two years, working together over the past four we have accomplished much – and there is much for us to take pride in and talk about. 
+We inherited a state that worked for too few and which was at a crossroads. We chose to move the state in a new direction. We are moving New Jersey forward.
+Today, New Jersey is working again for the many, not the few. 
+We have greater tax fairness. We’ve cut taxes for our middle-class and working families, and our seniors, fourteen times. And I commit to you now that the state budget I propose in a few weeks won’t raise taxes.
+We have more accessible and affordable health care and child care, stronger public schools, and more affordable higher education.
+Our economy is growing again. Across the nine years before I took office, New Jersey’s economic growth ranked 47th among all states. Today, we rank fourth. From 47th to fourth. That’s real progress despite all we’ve been through and all we still face.
+Our state is growing again. For years, we were fed a line that no one wanted to be part of our New Jersey family. But the truth is the exact opposite. Our population is growing. Our real estate market is strong.
+And we’re making more progress against property taxes than any administration before us. Through the policies we’ve put in place, and the community investments we’ve made, our administration has slowed the rate of property tax growth more than any of the previous four administrations – a record that includes four of the lowest year-over-year increases in property taxes on record.
+The reality is this – we’re making New Jersey the place where businesses want to locate and families want to live. The Census counts it in black-and-white – while some states in our region lost population, New Jersey grew.
+The moving vans are driving into New Jersey.
+In any number of issues which are national in scope … 
+… Combating senseless gun violence …
+… Protecting the fundamental right to reproductive freedom …
+… Facing the existential crisis of climate change …
+… Ensuring that every newborn and every new family have a healthy start …
+… Repairing a broken criminal justice system …
+… Standing firm for the rights of organized labor …
+… And securing the dignity of our LGBTQIA+ communities, to name but a few …
+… New Jersey is now an unparalleled leader.
+And New Jersey – yes, New Jersey – is ranked as the best state in which to live for our safe communities, education system, health care, and quality of life. We are the number one state in America to raise a family.
+We are a model that others now seek to emulate.
+We have achieved these accomplishments during the most difficult of times and against some of the darkest of backdrops. And because we all know that these times are not yet over, neither is the work we are prepared to undertake in this new year.
+Over the course of the past two years, nothing has been as important to our state than the health of our families and friends. But we know the cost of health care remains a critical worry for many – and too many families are one illness away, or one high-cost prescription away, from financial insecurity. 
+But we are making high-quality health care both more affordable and more accessible.
+Since our administration took office, health insurance rates in the individual marketplace are 22 percent lower than they would’ve been without our actions. 
+And for 2022, enrollment in health insurance through our individual marketplace is up 25 percent over last year.
+So, here’s what this means – more people have insurance and they’re paying less for it.
+And this upcoming year we will continue to directly take on increasing costs to make health care more affordable and accessible.
+A few weeks ago, I initiated a new program to help us in this effort. 
+It started by working with hospitals and insurers to secure a commitment to limit the growth in health care costs across the next five years. 
+And it will continue by, for the first time, giving us the comprehensive data we need to break down the individual drivers of higher costs, so we can take concrete action to lower them.
+I will also send the Legislature a plan to address prescription-drug affordability – from life-saving medications to the pills millions of residents take every day to maintain their health. This effort will be centered on making pricing across the entire supply chain more transparent, so we can see what drives drug prices higher, and so we can lower them. 
+Lower costs will save families hundreds, if not thousands, of dollars a year. But, across the programs our state administers – from Medicaid and FamilyCare for low-income families, to PAAD and Senior Gold for older residents – lower costs can save us, and you, untold millions in tax dollars.
+Containing and lowering health care and prescription drug costs isn’t just good for your family’s health and bottom line, it’s also good for our state’s. 
+And this is the year where we will see one of our most innovative plans for economic growth take hold. Our groundbreaking new public-private partnership – the Innovation Evergreen Fund – will get to work pairing both public and private investment to support the next generation of leading-edge technology startup businesses.
+In 2021, leading businesses from throughout the innovation economy announced their decision to move or grow in New Jersey, decisions that will create thousands of good jobs. But we don’t want New Jersey to just be a place where businesses move to, we want to be the place where they are born and grow. The Innovation Evergreen Fund will be critical to making this goal our reality.
+As I noted, we moved from 47th to fourth in the nation in economic growth. Our smart and focused effort to reclaim our historic place as the world’s most innovative economy is one of the major drivers of this, and will continue to be.
+And while we take on these new initiatives, we also have some unfinished business from 2021 to attend to.
+I thank and congratulate the Legislature on passing and sending to my desk a bill that will secure a woman’s access to reproductive care and her right to choose into state law. These decisions must be kept between a woman and her doctor, period. 
+I will sign this into law this week. And I am especially proud that we are getting this done before the United States Supreme Court renders its ruling challenging Roe v Wade, which it is poised to overturn.
+And I urge the Legislature to once again take up the next phase of commonsense and comprehensive gun-safety reforms. We cannot go another year without closing dangerous loopholes, requiring safety education for would-be gun buyers, giving law enforcement new tools to go after criminals, and banning super-high-caliber weapons which have no place in the woods for hunting, let alone on our streets.
+Over the next six-or-so weeks, our administration will continue undertaking the work of crafting our proposal for the Fiscal 2023 state budget. That document is where the vision we set today is brought not just into relief but brought to life.
+We will continue to focus on a broad-based economic recovery that works for everyone, not just a lucky few.
+We will continue to focus on making New Jersey more affordable for everyone.
+We will continue seeking fairness for our middle-class taxpayers and working families and seniors to deliver for them with concrete benefits that make their lives and those of their communities better. As I mentioned, the budget I put forward won’t come with any tax increases.
+And we will continue our work taking on the one issue that has stood in the way of too many New Jersey families for far too long – property taxes.  
+Getting these things done will require hard work but is not insurmountable. I know it isn’t because we just completed a four-year cycle where we made possible what so many, for so long, had said was impossible in Trenton.
+The very first day I took the oath of office, we undertook the hard work to strengthen and grow our middle class …
+… to make New Jersey more affordable ...
+… to create opportunity for our middle-class and our working families …
+… and to ensure fairness for our seniors and the next up-and-coming generation looking for their toehold in the American Dream.
+And, of course, over the past two years, in particular, we’ve undertaken the hard work to pull our state back from under the cloud of a global pandemic. 
+And because of the hard work we’ve already put in to build a more resilient and more affordable New Jersey, we start the next four years of our journey together in a better place. 
+For example, before the pandemic, we saw our state achieve the lowest sustained levels of unemployment since the state began keeping records of unemployment. The pandemic put some of this progress on pause but, every day, more New Jerseyans are now getting back to work in jobs that pay better, have better benefits, and can lead them to a better career.
+Many of our residents are getting back to work because of our direct and critical investments in tens of thousands of small businesses – $800 million for retail stores, restaurants, arts and cultural institutions, child care providers, and more – to ensure their survival through some very dark times. 
+Small businesses are the backbone of our economy, and we’re keeping that backbone strong. 
+Many others are getting jobs in the new high-tech and innovative industries we have brought to our state and those which are taking root here.
+They’re finding work in the burgeoning green energy industry … in the growing fintech sector, where we’ve added more than 3,000 jobs in the last year alone … on movie and television production sets … in the online gaming and sports-betting space we now dominate … and in the life sciences. 
+They are going to work in the construction trades … from the South Jersey Wind Port rising in Salem County to the Paulsboro Marine Terminal, where we will create more than 1,500 new jobs to secure our place as a global leader in offshore-wind component manufacturing and logistics … to The Hub in New Brunswick, where doctors and researchers will work side-by-side on the next generation of lifesaving treatments.
+Many jobs await in the cannabis industry ready to take off.
+New businesses and jobs are being created because we restored common sense and fairness to our system of tax incentives. Some are coming because we’re not afraid to run with new ideas for attracting businesses, like the Innovation Evergreen Fund.
+Some are coming from a long-overdue sense of fairness and justice – values we know resonate around corporate board tables just as they do around kitchen tables.
+Others, however, are coming to New Jersey because they know that right here is where they will find the best-trained workforce in the most-advantageous location, with the best public schools in America for their employees.
+Education is a critical piece of this puzzle. Our best-in-the-nation public education system and world-class colleges and universities turn out the best-trained and best-educated workforce in America. Businesses that come here do so because they know we have a nearly bottomless well of talent from which they can draw.
+We are not just restoring, but creating, real opportunity for our young people to stay here and start a career to support a family …
+… Opportunity for those currently in the workforce to build a new career …
+… Opportunities for entrepreneurs to maximize their investment and prosper ... 
+… And opportunity to make New Jersey the launchpad for the next great idea and the home of the next generation.
+We have shown you can make economic progress and social progress at the same time. In fact one helps the other. 
+The proof? As I have mentioned, we’ve jumped 43 spots in economic growth among states – from 47th when I took office to fourth today.
+This is exactly what stronger and fairer looks like. This is what creating opportunity looks like. This is what building an economy that works for every family looks like.
+So many of you across the state – state legislators, county and local officials, advocates, and ordinary residents, alike – have contributed greatly to this progress.
+For that I say, “thank you.” And, I also say, “let’s keep it up.”
+But we also know there are many who do not yet feel your place is secure in this progress. And it is you to whom I recommit my efforts.
+Your place is set. Your seat is here.
+When we began our work in January 2018, our state was stagnant and seemingly broken. The status quo worked for a few but left out the broad majority of New Jerseyans – hardworking New Jerseyans who didn’t want special treatment, just a fair shot at a better future for themselves and their families.
+We leveled the playing field by embracing true tax fairness and asking the wealthiest New Jerseyans – those with incomes in excess of $1 million – to pay a little more in income taxes so we could do more for everyone across our state … to do more to open opportunities for more New Jerseyans to gain the tools they need to have their own prosperous future.
+And let me make one thing very clear. I do not begrudge, for one second, anyone their success. I do not begrudge anyone the realization of their American Dream.
+However, the price for having an unlimited upside cannot be an unlimited downside. New Jersey will never move forward if we cling to the outdated and selfish notion of, “I got mine and the rest be damned.”
+The pandemic is an example of how we are in this together. Millions of New Jerseyans, working selflessly, have done the right things for themselves and their families, their friends and colleagues, and, in the process, for all of us.
+Four years ago, today, New Jersey’s minimum wage was $8.65 an hour – a wage that locked countless hard-working New Jersey families into a cycle of poverty. Today, our minimum wage is $13 an hour and on a path to $15 an hour, with hundreds of thousands of families now starting to reach up and pull themselves into the middle class.
+Here is an obvious truth some still try to deny – one meaningful way to make New Jersey more affordable is to make sure more New Jerseyans have a living wage. And we are on that path.
+Moreover, we are seeing wages increasing across the state and are now trending higher than before the pandemic. This means that as our people get back to work, they are getting back to jobs that pay better. That is yet another way we are building opportunity for more New Jersey families.
+Four years ago, our schools and property taxpayers were reeling after eight years of diminished investment. We got to work investing in our communities by investing in our public schools, from pre-K all the way through to graduation.
+Today, New Jersey’s public education system is ranked the very best in the nation and we continue to bring more and more students and communities under that banner.
+We invested $3 billion more in our public schools across our first four years than the prior administration did across its last four. This year alone, we are investing $1.5 billion more in pre-K-through-12 education than in the year I took office.
+We are doing this not just because our kids deserve it but because our property taxpayers do, too. School funding is property tax relief. 
+Every single one of these dollars we as a state have invested is a dollar kept in the pockets of property taxpayers – whether it be state aid supporting our students and educators in their classrooms or construction aid to build or renovate schools to serve a 21st century education.
+Strong public schools make communities more attractive for families looking to move to New Jersey.
+For so many of you, your home is your single greatest investment. Few public investments will protect the value of your home more than strong and properly funded public schools. 
+But tackling property taxes goes far beyond just properly funding our schools. And here, too, we’ve made real progress.
+When the federal government cut your state and local tax deduction, which I continue to work to restore, we expanded the property tax deduction allowed in your state income tax filing.
+We expanded eligibility of older homeowners for the Senior Freeze program to protect you against any property tax increases.
+We modernized the Homestead Property Tax Rebate and, this past year, we delivered tax rebates of up to $500 to nearly 700,000 middle-class families.
+We extended property tax deductions for veterans and service-members.
+We have also made in-state tuition payments and investments in college savings plans tax deductible.
+We put into law the state’s first child and dependent care tax credit, and made every family making up to $150,000 a year eligible.
+Each of these steps is making our state more affordable and giving middle-class and working families, and seniors, the tax breaks you all deserve.
+I’ll repeat our record on this …
+… The slowest rate of property tax growth than during any of the previous four administrations and four of the lowest year-over-year increases in property taxes on record … 
+… And fourteen middle-class tax cuts, made possible only through a commitment to fairness.
+And we’ve done so much more. I’ve noted our work to lower health care costs, particularly for those with children. 
+We’ve put a college education within reach with our tuition-free community college program.
+And we invested in our child-care providers to make this critical service more accessible for families getting back to work.
+This is the progress we can make together by putting our focus in the right places.  
+And this is the progress that results from restoring responsible leadership to our state’s finances.
+For example, four years ago, no one thought we’d ever pull ourselves up and out of the hole prior administrations and legislatures had dug our pension system into. This not only hurt our hardworking public employees, but it threatened our very financial health as a state.
+Working together, we made living up to our obligation a priority and in this fiscal year we are making the first full payment into our public pension funds in 25 years. With these investments, along with a strong stock market and a new and more responsible investment strategy, our pension funds are performing better than ever. 
+And we’ve saved tomorrow’s taxpayers billions of dollars by living up to our obligation today.
+We also reined-in the cost of public employee and retiree health benefits while preserving high-quality care. For example, we’ve cut more than $36 billion from the projected long-term costs of providing health care to our retired public employees alone. That’s good for them and for you.
+And the size of state government itself is smaller today than it was when we took office.
+Four years ago, NJ TRANSIT was a national model of how not to run a mass-transit system. Today, it stands as a model of how to turn around a mass-transit system.
+When we took office, NJ TRANSIT riders had suffered through eight years that saw them paying 36 percent more in fares but receiving less reliable services in return.
+Rider safety, once a backburner issue, has been restored to the forefront. New locomotives and passenger cars, and newer and cleaner-running buses, are not only finally on order but being delivered and put into service.
+The shortages of train engineers and bus operators that led to canceled routes have been back-filled, giving NJ TRANSIT the roster it needs to keep lines running – and on-time performance is up and cancellations and delays are down.
+And we did it without asking customers to pay one penny more in fares for four straight years.
+Over the past four years, we’ve also restored a basic sense of social and environmental justice, including enacting the nation’s strongest environmental justice law. 
+We’ve expanded and protected voting rights, and we’ve started down the long path of true criminal justice reform that will ultimately lead us to safer communities and stronger bonds of trust and goodwill between law enforcement and the residents they serve.
+We took on a focused and data-driven effort to combat the ongoing opioid use-epidemic, even as we fought the coronavirus pandemic.
+In that, we replaced stigma with compassion to close gaps in treatment, to expand access and use of life-saving medicines like Naloxone, and to support and expand the work of harm reduction centers, among so much more.
+While we are proud of the progress we are making, this critical work is far from done and will continue. We continue to lose too many residents to the grip of opioid misuse.
+Four years ago, we set out to build a stronger and fairer New Jersey that would work for every family and in every community. We set out to make a more affordable and more responsive New Jersey.
+Well, we are who we said we’d be – boldly progressive, but also pragmatic. 
+And because of this, we are accomplishing both.
+Note that I say “accomplishing,” not “accomplished.” We still have much work to do. We are still clearing away the long-fallen brush that has blocked the path to opportunity for too many New Jerseyans.
+Our task now is to take the next giant leap forward – to turn the positive changes we’ve made in our laws into long-lasting and tangible progress for our working families and seniors.
+A few hours ago, my partners in the Legislature swore their oaths as the representatives of the residents they now serve.
+Lieutenant Governor Oliver and I congratulate the new Senate leaders – Senate President Nick Scutari and Majority Leader Teresa Ruiz – as well as the returning Assembly leadership of Speaker Craig Coughlin and Majority Leader Louis Greenwald. 
+And we hold out our hands in partnership and goodwill to the new Republican leaders, Senator Steve Oroho and Assemblyman John DiMaio.
+The people of New Jersey elected each of us in public office for a single purpose – to get things done.
+Up until November 2nd we wore either a letter “D” or “R” after our name. And we all take pride in that letter. That letter speaks to a sense of our core beliefs and our personal ideals.
+But now is the time to take these letters off. Now is the time to seek, in the words of John F. Kennedy, “not the Republican answer or the Democratic answer, but the right answer.”
+You are sick and tired of the hyper-partisanship, the bickering, the inaction, the division, and the endless finger-pointing we see in Washington. So am I.
+And we don’t want that political stagnation to creep into our work here in Trenton. Not in our very backyard. Not when there is still too much uncertainty in our lives and our communities, and too many challenges ahead.
+From today forward, for all of us, the politicking ends and the governing begins. That’s true patriotism.
+We must continue to prove that the promise of a stronger and fairer New Jersey is real and open to every resident, every family, and every community.
+Opportunity, affordability, and fairness must be linked. One without the others is hollow. But all of them together are an unstoppable force for a brighter future and proof that the American Dream lives in New Jersey.
+And no state represents both the glorious history and awesome future of the American Dream more than ours.
+So, this is our shared task for the year ahead …
+A stronger New Jersey where we create opportunity and increase affordability because you want New Jersey to be more affordable …
+A fairer New Jersey where we work for tax fairness, and economic and social justice because you want a fair shot at a more prosperous future and at your American Dream.
+And a New Jersey where we continue down the path of recovery from the pandemic together.
+This is what you expect. Moreover, this is what you deserve.
+Let’s work together in good faith and with common purpose. This doesn’t mean we won’t or even can’t disagree. But it should mean that “compromise” and “common sense” are not dirty words.
+The response to an idea with which we disagree shouldn’t be “no, period,” but rather, “no, but,” meaning an openness to cooperation and negotiation … to a give-and-take, not a take-it-or-leave-it.
+Let’s also be mindful of the words of the late John Lewis, “We’re one people, we’re one family. We all live in the same house.”
+With everything going on across our nation, and as we work to bring our state out from under the cloud of COVID, these words ring true in New Jersey.
+Let’s pledge to put the needs of every New Jerseyan before the wants of our party or any single person in it.
+Let’s stop shouting down each other and get back to talking with each other.
+Let’s prove that our words have actual value and meaning.
+And let’s prove that our best days aren’t in our rear-view mirror. 
+Let’s grab that more affordable New Jersey, a New Jersey rich with opportunity for all willing to work hard, which is just ahead of us.
+Thank you, all. May God bless you and your families with a healthy and prosperous new year. 
+May God continue to bless the Great State of New Jersey and the United States of America.</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Good afternoon. Thank you Mr. Lieutenant Governor, Mr. Speaker, Madam Senate Pro Tem, distinguished senators and representatives, and my fellow New Mexicans, and Happy Birthday to my Mom: I am humbled, once again, to have the opportunity to address the state of our great state.
+I know there is a temptation to view today as the opening kickoff of a big game, or the launch of some great battle. Some will describe it that way. But I encourage you to do what you can to resist the perception of a “competition,” to avoid feeding a plotline that would pit one team against another. This isn’t the sports page. We’re all here to do the people’s business. It’s a sacred thing. And we’re all on the same team today – and in fact every day.
+At the outset of every legislative session I encourage my colleagues in this building to think about the people we are all here to serve. I think about their dreams, their hopes and fears; and I think about what service means, about what effective service can deliver for the workers and families all across New Mexico who are represented here in this building – the entrepreneurs and job-creators, the seniors and students, the New Mexicans of every background and belief system. No, we don’t agree on everything, and we don’t have to. But I believe that the values we share as New Mexicans still truly unite us: The desire to see our families grow and thrive, the willingness to work hard to enjoy what we earn, the optimism that tomorrow can and will be better than today, for ourselves and for our neighbors.
+In the last three years, this Legislature and this administration have gotten a lot done. We raised the minimum wage for the first time in a decade. We’ve guaranteed paid sick leave to every worker in the state. We made early education a key priority and have invested hundreds of millions into the future of our earliest learners. We invested in new economic sectors and we’ve sent thousands more New Mexicans of every age and background to college for free, no strings attached. And I could go on. I could talk for a long time about the good work of the last few years.
+But we need to talk, instead, about what people are really feeling. The needs of this moment remain great. The grief, the loss, the volatility brought on by this hideous pandemic has wreaked havoc on the lives of every family, every American, every human being around the planet. And add on top of that inflation, a supply chain crisis, gridlock in Washington: It’s all making it harder for everybody, and especially regular working people, to feel safe, to feel comfortable, to feel optimistic. And we all feel it. My family and I, my daughters, my fiancé, my grandkids – all of us, there are no exceptions. New Mexicans are calling out for safety and stability, for more and more equal opportunity, for an open and fair and free democracy that works and works for them.
+Over these next 30 days, we can and we will answer that call, together.
+Once again, this incredible state, our home, is on the precipice of momentous positive change. I said that three years ago when I first swore an oath to carry out the duties of this office to the best of my ability. It’s been true every day since then. If anything the opportunity has grown, has multiplied exponentially; the sun is rising on a pivotal day, and I believe everything and anything is possible.
+We have, right now, unimaginable financial resources at our disposal. I believe we can fulfill, once and for all, after a hundred-and-ten years of statehood, the destiny of New Mexico as a genuine homestead of the American Dream, a place where people can grow and thrive and live in peace and prosperity, where people have the resources they need to support themselves and their families. What we do here now, what we do in the coming weeks, will set the stage.
+Dating back decades, a timid mindset has afflicted people in this capitol building, a pessimism that can be self-fulfilling. Thinking small is a curse. Big and meaningful changes are possible, but the biggest change may be our attitude, our perspective. At a moment in time when we have the money to do it all, let’s not limit ourselves; let’s not be unnecessarily incremental. Can’t New Mexico be a state – can’t we be the state – where everything is possible?
+So, on that note, let’s give every single educator in this state a 7% raise this year, minimum. That would be the biggest pay bump in recent memory, and it would put us first in the region for average educator pay. They deserve it, and we can afford it, and it’s the right thing to do. Let’s also raise the starting salaries for every tier of educators, which means some teachers will see a 20% raise this year. And let me be clear: This kind of progress pays for itself. When we support educators, when we retain high-quality teachers and keep our schools brimming with talented professionals, our other strategic investments in New Mexico children and in public education are supported and sustained. Our graduation rates will continue to rise. Our literacy rates will continue to improve, especially with a targeted new phonics program that we have initiated and that the Legislature must continue to support. We get more kids into high-quality apprenticeship programs and institutions of higher learning that will help them build fulfilling careers and lives. It all starts with demonstrating support and respect for our educators; Day One, I said we would do that, and we’re getting it done.
+And we’re going to keep going: Let’s cut taxes for every single person in New Mexico. We haven’t cut the sales tax in this state in 40 years. It’s only gone up and up and up, for decades, burdening New Mexico households and making it harder for our small businesses to be competitive. But under my tax cut proposal, New Mexicans would save more than 170 million dollars every year. As my colleagues from across the aisle have pointed out in years past, correctly, that money doesn’t belong in government accounts; it belongs in the pockets of hard-working New Mexicans. I agree, and I expect the Legislature to prioritize this relief.
+I feel the same way about the taxes that are taken out of social security benefits. New Mexico is one of only a few states that taxes social security. I am calling today for that taxation to end. We must unburden the New Mexicans who rely on social security benefits by cutting their taxes. This is good government, serving the people who have asked us to serve them. New Mexicans deserve it. Because I believe we have an obligation to find ways to make life easier for the people of New Mexico, and I will keep looking for ways to do exactly that.
+And there are more tax cuts on the horizon. Our expansion of the Working Families Tax Credit last year has already saved hundreds of dollars each for about a quarter of a million New Mexicans – the New Mexicans who need those savings the most. Every dollar counts when we’re trying to support the middle class, when we’re trying to help workers build careers and help families build stability. Next year, a half a million more New Mexico taxpayers will benefit from these expanded credits. This has been the most significant and progressive reform of our tax code in a generation; this is real and meaningful change that helps families keep the lights on and keep food on the table. This is money that is going right back into the pocket of the single mom, the small business owner, the veteran who served our country and our state. Day One, I said we were gonna make this economy work for the everyday New Mexican, and we’re getting it done. So let’s keep going. In the next 12 months your state government is going to deliver an additional $230 million in rent and utility assistance to the New Mexicans who need it most. Your state government will continue to help keep the heat on in hundreds of thousands of households across our state. We will not leave families behind. And if the Legislature provides the resources, your state government will do more than just help families stay afloat; we can and we will genuinely invest in New Mexico families and lift them up. Because families don’t need to be worrying about a surprise medical bill or car repairs; they don’t need to worry about hunger either. In the first two years of this administration, New Mexico reduced food insecurity at the second-best rate of any state in the country. We all know there’s more to do. But that’s the kind of progress you can build on. It should inspire us to keep going. Reducing poverty and shielding more families from its effects is the most important work any government, any worker anywhere, can do.
+In the last year, we’re 11th best for job growth in the country overall. In three years, we have created over ten thousand jobs in every corner of our state; and those jobs now have an average salary better than $90,000 a year: That’s a record high, and it’s a big bright signal to other businesses, like the hundreds of businesses that have relocated here in the last three years, showing them how successful our public-private partnerships can be, and how business-friendly New Mexico is. We’re cutting red tape, and it is making a real difference for New Mexico business owners; I’m thinking of folks like Maurice Lemus in Raton, who was seeing business evaporate into Colorado before we made changes; he was the first New Mexican to receive a new liquor license under the long-overdue reform we enacted. That kind of aggressive go-get-it attitude, supported by a proactive state government that wants to actively support businesses, will not only keep more patrons in Maurice’s restaurant but help entrepreneurs throughout our state. People see the economic potential of New Mexico now; we’re creating a real pipeline of jobs and opportunity. We are the frontier of economic growth. Unlike in the aftermath of the Great Recession, we’re not gonna let the pandemic stall us and take away years of growth; we will not have another lost decade – in fact, despite the challenges of the last two years, we’ve hardly lost a step. The fact is: Unemployment has gone down every month for 10 straight months. The number of unemployed New Mexicans dropped by 5 percent in November alone. We’re expanding our economic footprint into every single community. Legal cannabis is going to create thousands of jobs and serious tax revenue for local governments to support local services in every corner of our state. Almost forty thousand more students receiving high-quality college education for free under my Opportunity Scholarship program means more skilled workers building 21st-century careers right here in Roswell, Espanola, Sunland Park, Rio Rancho, Chama and so many more; the intellectual infrastructure of a nationally competitive state economy is being built right here, right now, on campuses and in communities through our state. And clean hydrogen will support thousands of jobs, especially in rural New Mexico, while helping us sprint toward our net-zero carbon deadlines and decarbonize the transportation sector.
+But if we want to keep up our economic momentum, and we have to, we have got to get crime under control. I don’t accept the argument that this is an issue in only one part of our state. I don’t accept that any decision-maker in this building would say that somehow this isn’t their problem. We all have a role to play in keeping New Mexico safe. Public safety doesn’t just exist on its own; we have to create it, and support it, and own it. So we need tougher penalties for the worst of the worst, the repeat offenders and those who have proven themselves to be a danger to our communities; I support rehabilitation and this administration has done a lot of innovative good work in that area, but at the end of the day I stand with the families and communities who have been victimized unnecessarily by the violent criminals that this system needs to secure. The worst offenders, the most serious and dangerous criminals in our state, need to be behind bars, simple as that. And we are going to pass a law, this session, that will keep violent criminals behind bars until justice can be done. We will put a wedge in the revolving door of violent crime in New Mexico. The safety of our communities cannot be up for debate. A smart-on-crime approach can work; it has worked. In my first year in office, violent crime went down for the first time in 6 years: We can regain that momentum when we make sure our local communities (and public safety officers) have the resources and support they need.
+So I am asking the Legislature for a 19% increase in the budget of the department of public safety to fund innovative new crime fighting strategies and hundreds of new positions, including a 19% raise for our state police officers. And I am asking for 100 million to support hiring and retention efforts to get a thousand more officers in place statewide as quickly as we can. I am asking for those things because New Mexicans are asking for them. New Mexico is a state that respects and supports law enforcement officers. I reject the rhetoric from Washington and elsewhere that has made public safety a political battleground. This isn’t about politics; it’s about basic human respect for one another: Respect from officers to the people they serve, and respect for officers from the communities they protect. If we have that, we can move forward, unified, in our desire to clean up the streets of this state, to keep violent criminals behind bars, and to ensure every day that justice is done, equally, under the law.
+We all want safe communities. And we all want healthy communities. This administration has made important strides: We have capped costs for life-saving medications, we’ve protected safeguards for those with pre-existing conditions, we’ve invested in affordable care for thousands of lower-income families, we have eliminated co-pays for behavioral health services and we’ve begun the great task of rebuilding a mental health care infrastructure that was decimated. But, still, too many people, especially people in the rural areas of our state, don’t have timely access to the health care they need – or access at all. Every community deserves high-quality care. I propose a new Rural Health Care Delivery Fund that will provide bridge financing to communities that have been waiting for assistance to kickstart construction without massive upfront costs; state government can help fill these gaps. With interventions like these, communities like those in Valencia County are moving toward securing a brand new hospital, after years of delays. And with investments like those I have proposed in my executive budget, we will put tens of millions of dollars into new behavioral health services, expanding access to treatment for substance abuse, suicide interventions and more. New Mexicans call me about this issue more than almost any other, and we will answer that call.
+We can and must ensure that kind of service-delivery is available throughout the state – we have the resources to do so. That means endowing our medical school with 10 million dollars, ensuring that we keep our best and brightest here to provide care for New Mexicans after they graduate. That also means endowing our nursing school with the power of the state, ensuring more highly skilled professionals enter this all-important field. And it means, once and for all, delivering the health care families in the rural parts of our state still desperately need. When I visited Clayton last year I met Eloise Valdez, 92 years young, whose family cares for her 24/7. It’s not easy. Thousands of New Mexicans are living the same story, unable to pay for outside help, because it’s too expensive, and it’s not covered. As a caregiver myself, I know the strength and resilience it takes; I know it can be physically and mentally exhausting. Well, I think it’s time we start saying thank you, and I propose a dramatic expansion of the state program that directly supports caregivers; what that means is we are going to pay families who are doing the work of taking care of their elderly loved ones, regardless of Medicaid eligibility. Let’s call it New Mexi-Care, and let’s make it a model program for the rest of the country. This is an investment in people that goes well beyond politics or any one politician; this is the kind of investment that can be and should be a lasting service, one that reflects our shared values as a state. In this state, we provide for and care for our parents, our grandparents, our disabled loved ones. This state government, under my leadership, will help provide for that care, unequivocally. Caregiving is a full-time job, I know it first-hand; and we respect working people in New Mexico. Let’s invest in the dignity of our elders, and of their families, by helping caregivers and those they care for stay in their homes with the financial support they need.
+On the same note, it is time that we build a new veterans home – a state-of-the-art independent assisted-living facility for those who sacrificed to protect our freedoms. The original building on the campus in T or C was built in 1936. I think it’s time for an upgrade. So I am calling for 60 million dollars, which we will leverage with an additional $60 million from the federal government, to build the kind of modern facility our veterans, and their families, deserve. We’re going to get it done.
+Because when government has the right tools, and the right people, problems are solved. Yeah, we can dream big and make bold plans – it doesn’t matter much if we’re not solving people’s problems, each day. And we are. Just a few months ago, Veterans Service Officer Dagmar Youngberg in Carlsbad took a call from a veteran who needed some help taking a fresh look at an old benefits claim, a claim that had been denied for decades. This state employee at the Department of Veterans Services did some digging and got to work talking with the feds about what went wrong. Turns out, a lot went wrong. In the end, Ms. Youngberg helped this disabled veteran get full back pay dating back 20 years, recovering 738,000 dollars in total that was owed to this individual, a person who served their state and their country. She helped this veteran get off food stamps and pay off their mom’s mortgage. This is a government that is solving problems. And here’s why: Because it’s filled with New Mexicans, and New Mexicans look out for their neighbors; we make the extra effort to do what’s right; we get up when we’ve been knocked down and we fight for what’s ours.
+The state of our state is ready to move forward. Ready to rise. We have all the tools we need. My vision is this: Communities all across our state where families aren’t worried about the next bill, or their kids’ future, or a job market or health care system that doesn’t quite seem to work for them. My vision is a New Mexico where the founding ideals of this great country – equal opportunity and justice for all – are made real, and meaningful; where the pursuit of happiness is more than a phrase from a dusty piece of paper; it’s something tangible, something everyone can actually feel.
+We can do it all. We have the finances. We’re going to fund an unprecedented suite of new affordable housing programs at the state level. We’re going to expand protections for voters because we believe in democracy and everyone’s right to vote. I subscribe to an optimism that says: Big things are within our reach, and blue skies are ahead – and hopefully some snow, too.
+When my grandfather was a young man he traveled across this state, across mesas and over mountains, in a covered wagon. He never could have imagined that by the time he was an old man he would see the Sandias from 30,000 feet in an airplane. He never could have imagined his granddaughter would watch a rocket blast off and literally reach space from New Mexico. None of us can predict the future. It feels unsettled, especially these days. But what I know, for a certainty, is that we have the power to make that kind of a bold leap into the unknown beyond, together; we have the power to envision a bright tomorrow, and to execute that vision, on behalf of the people. And we must recommit ourselves to that unifying purpose today.
+So for the next 30 days, let’s be aggressive on behalf of the New Mexicans we’re all here to serve. Let’s remember who benefits from good public service. It’s not about politics, it’s about community: Your community; our community; the families and workers and seniors and parents who just want to live in peace, and with dignity, confident in the promise of tomorrow and the stability of today. We’ve made so much progress. Let’s make sure New Mexicans feel it. Let’s go above and beyond and embrace the potential of this pivotal moment in time.
+Thank you, God bless New Mexico, and let’s get to work.
+Recent Posts
+Governor orders flags to half-staff in mourning for Hiroshi “Hershey” Miyamura
+Gov. Lujan Grisham announces Scott Groginsky as education policy advisor
+Governor tests positive for COVID-19
+Governor Lujan Grisham concludes time at U.N. Climate Conference in Egypt
+DFA Secretary Deborah Romero to retire after nearly 50 years in state government
+Archives
+December 2022
+November 2022
+October 2022
+September 2022
+August 2022
+July 2022
+June 2022
+May 2022
+April 2022
+March 2022
+February 2022
+January 2022
+December 2021
+November 2021
+October 2021
+September 2021
+August 2021
+July 2021
+June 2021
+May 2021
+April 2021
+March 2021
+February 2021
+January 2021
+December 2020
+November 2020
+October 2020
+September 2020
+August 2020
+July 2020
+June 2020
+May 2020
+April 2020</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Thank you, Lieutenant Governor. You have been doing an outstanding job in such a short time and I’m proud to have you by my side as we deliver for the people of New York.
+I also want to thank my partners in government. State Comptroller Tom DiNapoli, State Attorney General Tish James, Senate Majority Leader Andrea Stewart-Cousins, Assembly Majority Leader Crystal Peoples-Stokes, and I hope Speaker of the Assembly Carl Heastie gets well soon.
+And thank you to Pastor Soloman Dees and to Allie Navarette, for representing the Girl Scouts so well.
+As I stand before you, I am well aware of the significance of this moment: the first time in New York’s history that a woman has delivered this annual address. But I didn’t come here to make history. I came to make a difference.
+To be sure, I have a deep reverence for our State’s remarkable past. And we’re honoring it by coming together in this beautiful Assembly Chamber, its original, and rightful, setting with elected leaders, joined together to serve the public.
+I’m fond of quoting a former member of this body, and one-time Governor, Teddy Roosevelt, who said: “It’s not the critic who counts… The credit belongs to the man – or, shall we say, the woman – who is actually in the arena.”
+To my colleagues and partners in government, for too long, Albany’s Executive and Legislative branches were fighting each other in that arena. No more. That ends now.
+What I am proposing is a whole New Era for New York. The days of Governors disregarding the rightful role of this legislature are over. The days of the Governor of New York and Mayor of New York City wasting time on petty rivalries are over. The days of New Yorkers questioning whether their government is actually working for them are over.
+And the days of three men in a room are clearly over – just ask the Majority Leader.
+We know that women are always held to a higher standard. So I know that I must not just meet but exceed expectations for this to no longer be an historic achievement… but rather the norm. So we will do things differently.   From now on: we will share success. We will find common ground. We will restore trust in this government, because it has been eroded for far too long. And we will fight like hell – not for turf…not for credit – but for New Yorkers.
+I’ve been proud to stand with the members of this legislature, signing more than 400 of your bills into law since September. And we’re just getting started.
+New Yorkers need the help of everyone in this room to pass an ambitious agenda. One that responds to the Covid-19 pandemic but also rebuilds our healthcare and teacher workforces, provides tax relief to those who need it most, speeds up economic growth and creates good paying, middle-class jobs, strengthens our infrastructure and confronts climate change, secures public safety, makes housing more affordable, ensures every New Yorker has a roof over their heads and enacts bold reforms for our State government.
+My fellow New Yorkers: This agenda is for you.
+Every single initiative is filtered through the lens of how it will help you and your families. I know you’re exhausted, I know you want this pandemic to be over, I know you’re worried about the economy, inflation, your kids and their education and what the future holds.
+We’ve endured so much hardship over these past two years. We’ve buried loved ones, experienced seismic shifts in our daily lives and missed out on so many of life’s precious milestones – holidays, weddings, graduations,the birth of a grandchild.
+There has been so much loss – of too many lives, and of too many of our hopes and dreams. And now, just when we thought we were turning a corner, there’s a new variant. Another surge in cases. It feels like déjà vu.
+And I know you’re all asking: Will we ever get through this? 
+Yes. We will.   
+We’re New Yorkers. We’ve been knocked down before. We’ve been counted out. And in response, we never fail to defy the odds and rise to new heights.
+New York always rises from the ashes. That is why I believe that this is not a moment of despair….but a moment of great possibility. Because while we are in the midst of an all-consuming crisis we must also remember that if we make the right choices, right now it will end.
+But first, we must weather the storm around us. That means controlling this virus and not letting it control us. 
+When I took office, we immediately enacted a comprehensive pandemic plan and we’ve continued to adapt as new variants like Omicron have emerged. We’re doing everything we can to keep New Yorkers healthy: setting policies that have made our vaccination rate one of the highest in the country, activating a military-style operation with vax and test sites, deploying the National Guard to our hospitals and nursing homes and sending out 37 million tests across the state.
+During this winter surge, our laser focus is on keeping our kids in school, businesses open and New Yorkers’ lives as normal as possible.
+We are attacking this virus head-on, armed with a tactical, science-based approach and we are ready for whatever comes next.
+But as we all know too well, this is more than a public health crisis. We now need to support the people, places and industries hit hardest starting with the New Yorkers who have been on the frontlines since day one.
+During those terrifying early months, while many hunkered down at home our healthcare workers and first responders showed up, day after day, night after night, double shift after double shift, putting their lives on the line to save others.
+They’re not only physically exhausted – they’re emotionally exhausted too. I’ve seen it in their eyes, in hospitals from Buffalo to Potsdam just last week.
+That exhaustion combined with pre-existing staffing shortages, has resulted in a crisis. We simply do not have enough healthcare workers in our hospitals or in our long-term care facilities in our ambulances or in the homes of our loved ones.
+The health of every New Yorker depends on a strong, stable, and equitable healthcare system and healthcare workers are its very foundation. Bold action is required – before any more time passes.
+First, we must stop the current hemorrhaging of healthcare workers and we’re going to do it not just by SAYING we owe them a debt of gratitude but actually PAYING them the debt we owe, starting with a retention bonus of up to $3,000 to our health and direct care workers and we will drive higher salaries throughout the healthcare workforce, so those doing God’s work here on earth are no longer doing it for minimum wage.
+Beyond salary, we will make it easier for doctors and nurses from other States to practice with their existing licenses here in New York. We’ll expand the capacity of our medical institutions so more students can train for high-demand healthcare jobs, and we’ll make it possible for them to get that training with free tuition and stipends if they remain here after they graduate.  
+A once-in-a-lifetime pandemic demands a once-in-a-lifetime response:
+That’s why I’m setting an ambitious goal to grow our healthcare workforce by 20% over the next five years. And we will make the largest investment in healthcare in State history, $10 billion dollars. As we bolster our bone-tired healthcare workforce, we know they aren’t the only heroes of the pandemic.
+I am so grateful to the county leaders, school superintendents, administrators, parents and teachers for working so closely with us … to get kids back to school this week.
+The role of a teacher is irreplaceable in a child’s life and as the past two years have hammered home, they’re irreplaceable in a parent’s life, too.
+As a mother, I know this first hand. This workforce is also stressed and overworked. So we will ramp up efforts to recruit and retain teachers – with more effective training and support, faster and easier certification, and stronger career pipelines and ladders.
+And we will add more mental health professionals in schools to heal the wounds inflicted during the isolation of remote learning. Others are hurting as well. Families, small business owners, farmers – they all need our help. They need it now and they’re going to get it.
+We will accelerate a $1.2 billion-dollar tax cut originally scheduled to take effect between now and 2025, so that it all occurs earlier. That means more than 6 million middle-class taxpayers get more money in their pockets sooner at a time when inflation is robbing them of any gains in income.
+To help with property taxes, we will provide a $1 billion middle-class property tax rebate to more than 2 million homeowners. And to help parents get back to work, we’re going to expand access to affordable childcare to 100,000 more working families and invest $75 million in childcare worker wages.
+We will also deliver $100 million in much-needed relief to nearly 200,000 small businesses, to keep their doors open and weather what the next few months bring. These businesses are the economic engines of small towns and big cities alike, they’re what make our communities unique and give them personality.
+I should know, I’ve shopped and eaten in diners in most of them.
+I also helped my mother open a flower shop and my sister start a small tech company, so I know firsthand how hard it is. I know the risks taken by owners and entrepreneurs, and the barriers faced by women. So many small businesses were pushed to the brink. Thousands of bars and restaurants – the souls of our neighborhoods – have had to close.
+For others, hanging on by a thread, survival depends on whether they can create more space outdoors, a tough task during our New York winters. To help offset these costs, we will provide a tax credit for COVID-related purchases, like outdoor heaters and seating. And we’re also going to do something bars and restaurants have been asking for….to once again allow the sale of to-go drinks – a critical revenue stream during the lean times last year.
+Cheers, New York.
+The farmers who supply restaurant kitchens – and our own – need a lifeline as well.  I’ve visited farms from Genesee County to the North Fork of Long Island, and life is tough, even in good years. So we’re going to support them through a tax credit for the overtime hours they are paying, an increase in the Investment Tax Credit and an extension and doubling of the Farm Workforce Retention Credit.
+This will also begin to address the workforce shortage so many farms struggle with.
+This is how we will begin to help healthcare workers, educators, small businesses, farms and families deal with the devastating economic impacts of COVID.
+But beyond the pandemic, my agenda reflects my belief that we cannot allow the virus to grip us so tightly that it constrains us from looking to the future. Longing for a simple return to our pre-pandemic world and way of life would not only be timid and unimaginative. It would ignore our history and go against everything that makes New York, New York.
+If we can’t embrace the possibilities that come out of times like these, then we fail to honor the legacy of the daring, visionary New Yorkers who came before us.
+The portrait of Franklin Roosevelt that hangs above the mantle in the Governor’s residence is my daily reminder of what leadership during a crisis is all about. First as Governor, and then as President, FDR literally rebuilt the economy from the ground up after the crash of ‘29. More than giving people jobs, he gave people hope. 
+The policies of his New Deal didn’t just help families who lost everything, they spurred decades of economic growth and the birth of the middle class. Again and again, he focused on the storm swirling around him, but kept one eye on the horizon, always planning for the day when the clouds would part.
+That is exactly what we are doing now. This pandemic did not create all the problems we’re facing today. It simply forced us to hold up a mirror and see the cracks in our society that had been too easy to ignore before. This crisis has created an opportunity to redefine ourselves – and we must embrace it.
+But as we embark on this New Era for our State, we need to take a hard look in that mirror and deal with harsh realities. Like the fact that 300,000 New Yorkers left our State last year. That’s the steepest population drop of ANY State in the nation, an alarm bell that cannot be ignored. To those who left temporarily because of the pandemic or are trying to decide their next steps during these uncertain times, I have one message: you do not want to miss what’s going to happen next.
+Right now, in real time, we are building a new New York worthy of your talents and ambitions. We’re going to jumpstart our economic recovery by being the most business-friendly and worker-friendly State in the nation.
+To entice people and businesses, we’re investing millions of dollars to transform the downtowns of our cities into magnets for new jobs and new opportunities and position both legacy and emerging industries for success.
+New York is already home to some of the most consequential industries in the world. Finance, retail, healthcare, technology, fashion, entertainment, just to name a few.
+But there is plenty of room for growth. More shovel-ready sites for new manufacturers and warehouses, improvements in our freight infrastructure and investments in the technology that will power the jobs of the future. And we’re going to make sure we have a workforce trained to step into these jobs.
+That’s why we will invest smartly and strategically in workforce development programs which simply means matching people to training, to jobs.
+I know the demand is strong. At every one of the thousands of workplaces I’ve visited, the universal complaint is not having enough trained workers. Every single place, it’s the same.
+That’s why we will reboot our Workforce Development Office, house it in Empire State Development so we can build stronger partnerships with employers and move funding through our Regional Economic Development Councils so we grow programs that train for jobs that are actually in demand in different parts of the State. 
+And the smart way to do it is to have school districts, community colleges, SUNY and CUNY all focused on the same objectives.
+We are going to incentivize success, by tying a portion of workforce funding to high job placement rates.  We’re also going to make it easier to qualify as an MWBE, so everyone can have access to opportunities. It’s a commonsense approach, backed by an uncommon level of funding. And it’s going to help supercharge our economy.
+Our goal is for New York to be known nationally as the place that grows and attracts the talent – and the businesses will follow. And for businesses to succeed, they need a well-trained and educated workforce.
+I believe to my very core that there is nothing more valuable than education and training when it comes to unlocking opportunity and prosperity. It changes lives, across generations.
+I know what education did for my own family’s circumstances. My grandparents fled Ireland as teenagers because they had nothing – they were poor, with no hint of opportunity in their home country. My grandfather first became a migrant farm worker in the fields of South Dakota, then later he and Grandma were domestic workers and then, it all changed when he heard there were great jobs in a place called Buffalo, New York at the Bethlehem steel plant.
+Grandma found a job at Bell Aerospace, making parts for our planes during World War II.  That was their ticket to the life that they came in search of. 
+But what really transformed my family was the fact that my father was able to get a college degree – at night, while working by day at the same steel plant as his father.
+If he hadn’t taken that leap, and invested in his own education, I would be living a very different life today. My whole family would be. That’s why I am so focused on expanding educational opportunities, starting by making the State’s tuition assistance program available to part-time students. 
+I believe that SUNY and CUNY are engines of social mobility and still have untapped potential that needs to be harnessed and unleashed.
+So today, I am outlining a vision to make SUNY the BEST statewide public higher education system in the nation. How? Recruiting world-class faculty, creating flagship institutions at Stony Brook and the University at Buffalo, investing more in our premier research facilities at Binghamton and Albany, leaning into the strengths of our four-year comprehensive colleges, our technology colleges, and our community colleges, providing childcare on each campus, Increasing enrollment to 500,000 students by 2030, making SUNY a national leader on equity, increasing the number and diversity of people in every community with degrees and credentials that launch middle class careers and ensuring that SUNY campuses spur economic growth in their surrounding communities.
+As we upgrade our Statewide higher education institutions, we also acknowledge that there are populations at-risk of falling through the cracks unless we target job training and education opportunities to them as well.
+For example, we know that incarcerated people who participate in correctional education programs are far less likely to reoffend and 13 times more likely to obtain employment after returning home.
+That outcome benefits the formerly incarcerated…employers in need of workers….the taxpayers of New York State – and it’s the right thing to do.
+So today I’m announcing a new “Jails-to-Jobs,” initiative, so incarcerated people with have the support they need to find employment during re-entry. We’re also going to restore the Tuition Assistance Program for incarcerated people—ending a 30-year ban. 
+As we create economic opportunity in every sector, there’s one industry that will be working around the clock for years to come, my friends in the construction trades, building infrastructure the likes of which we’ve never seen.
+Infrastructure can mean different things to different people. To me, it’s exciting because it’s all about creating connections.  Connecting neighborhoods, connecting people to jobs and connecting people to their families.
+Substandard infrastructure can mean long commutes, lost time from family, even missing a child’s bedtime. Time in a tire repair shop after hitting a pothole adds more stress than anyone needs. That’s why I view building and improving our infrastructure as a quality of life issue.
+In November, I stood with my former colleagues in Congress on the White House lawn when President Biden signed the historic infrastructure bill, giving us a once-in-a-century chance to invest. 
+We cannot let this moment slip by, and we won’t.
+New Yorkers demand the best and that’s exactly what they’re going to get. Just look at what my administration has already announced over the past four months.
+We will finally transform Penn Station into world-class facility worthy of our City, ensure that the Gateway Project finally moves forward, deliver long overdue upgrades to both LaGuardia and JFK Airports, and finish the 2nd Avenue Subway to connect East Harlem to jobs.
+But we’re just getting started.  
+Today, I’m announcing a bold idea—— take an old, unused, 14-mile-long right-of-way and create what we’re calling the Inter-Borough Express, new rail service that will connect Brooklyn and Queens.
+I am directing the MTA to immediately commence an environmental review, so we can get this project rolling down the track and I’m also directing the Port Authority to get moving on the Cross-Harbor freight tunnel.
+As I said, infrastructure is about connections. We need to reconnect neighborhoods that were severed by asphalt highways, disproportionately impacting communities of color.
+We’re going to reverse the damage done more than half a century ago, with projects like the Kensington Expressway in Buffalo, I-81 in Syracuse, the Inner Loop in Rochester, and the Cross-Bronx Expressway.
+I’ve traveled to every one of our 62 counties in each of the past seven years, so I know nearly every road, highway, bridge.
+I also have personal experience with just about every pothole in New York – especially on the Long Island Expressway. I’m coming after them, too.
+And we are making the largest ever investment in New York’s digital infrastructure, putting $1 BILLION into connecting more New Yorkers with high-speed internet. This investment will boost innovation and economic growth—especially in our most remote communities.
+There’s one more critical piece of our plan to rebuild our infrastructure — making it more resilient against climate change. Just days after being sworn into office, we were slammed with Hurricane Ida.  I walked the flooded streets of East Elmhurst, Queens, and witnessed the aftermath of an epic collision between Mother Nature and our inferior infrastructure, with devastating consequences.  
+It was a cruel reminder that too much time has already been lost in the fight against climate change. These events are no longer rare – the next one is coming. Look no further than the Upstate counties constantly battered by “500 year” flooding or the tunnels in New York City and communities on Long Island still undergoing repairs more than a decade after Hurricane Sandy hit.
+This is a threat to our way of life – here and now – and that’s why we must, and will, implement an ambitious agenda to meet this moment.
+We’ve already started with increasing the Environmental Bond Act to $4 billion to go on the ballot this Fall so we have the resources we need.
+I’m now announcing a nation-leading, $500 million investment in offshore wind energy that will create thousands of good-paying green jobs.
+As we build out our wind-energy capacity, and continue our transition to clean energy, our reliance on fossil fuels must be phased out. In September, I announced two clean energy mega-projects to put us on a path to achieve the ambitious goal of cutting 80%  of New York City’s power plant emissions by 2030. New construction in the State will be zero-emission by 2027, and we will build climate-friendly, electric homes and promote electric cars, trucks, and buses.
+Protecting our environment is personal to me. I was born at a time, and in a place, where orange smoke billowed out of factory smokestacks literally blocking the skies, with a horrible stench I can still recall to this day while also dumping toxic waste into one of the world’s largest freshwater lakes.
+I lived surrounded by the causes of climate change – and now I’m living with its effects.
+Now, while we confront the climate crisis – we will address one of the most basic of human needs, that is to feel safe, on streets, in schools and in homes.
+Time and again, New Yorkers tell me that they don’t feel safe, that they don’t like what they see on the streets and that things feel different right now – and not for the better.
+It’s not just New York City – it’s cities across America. Many factors contribute to our streets feeling less safe, including the very real uptick in gun violence nationwide since the start of the pandemic.
+Now, this isn’t a return to the dark days of the 70s, ’80s and ’90s. But that’s not our metric for success. We need to get back on track. 
+In October, I signed a bill that closed loopholes in gun possession and registration, making it easier for law enforcement to track down weapons used in crimes and prevent gun trafficking.   
+And we banned the sale of ghost guns. Going forward, we will double down on practical, proven law enforcement strategies to combat gun violence. Working with Mayor Adams and the Lieutenant Governor, who I’ve asked to take the lead for our Administration, we will form a new consortium between the New York State Police, the NYPD and other law enforcement agencies, including neighboring states to trace guns used in crimes and stop the flow of guns into our State.
+We will triple the resources for both our gun-tracing efforts as well as for successful community-based programs.  
+Fighting gun violence is critical, but we must address other factors contributing to tthe pervasive unease many are feeling on our streets.
+That includes the humanitarian crisis unfolding before us: the rise in street homelessness. Our fellow New Yorkers who are in this situation deserve our compassion and they will receive it – along with our support.
+We will create teams of mental health professionals and social workers, who will partner with New York City outreach workers, to reach homeless individuals and move them into shelters and housing.
+At the same time, we know that street homelessness only accounts for a small fraction of the homeless population.
+Beyond those sleeping on the streets, tens of thousands more people move in and out of shelters as they try to secure a place to call home and tragically many of them are children.
+We need to focus on addressing the root causes of homelessness unmet mental health needs: poverty, addiction, and housing insecurity. 
+Every New Yorker deserves access to affordable housing, whether they are at risk of homelessness or simply struggle to pay the rent on time each month.
+So many people not only face tremendous economic hardship, but the double hit is that housing prices have also continued to escalate beyond the reach of many, worsening the situation even more.
+That is why I am launching a new, five-year housing plan to create and preserve 100,000 affordable homes, including 10,000 units with supportive services for high-risk populations, like runaway youth and formerly incarcerated individuals.
+And we can no longer ignore the plight of NYCHA residents living in sometimes deplorable conditions. The Lieutenant Governor and I will work with the City of New York and the Legislature on concrete action this session. We’ll also fix outdated land use laws that hold back housing supply.
+We’ll encourage transit-oriented development and the conversion of hotels and offices to housing is also part of our housing strategy.
+Accomplishing everything I’ve proposed hinges on one thing a government people trust.
+Across the country, trust in government is reaching all-time lows. We know why. Misinformation and lies on social media a widening partisan divide, gridlock in Washington even outright attacks on the right to vote.
+It’s getting harder and harder for people to believe in their elected officials at all levels of government.
+The question is: How do we restore their faith?
+Here in New York, our answer is to demonstrate what good and honest governance looks like.
+And we’ve already announced our first step.
+We are submitting a proposal to the legislature to enact two term limits for Statewide officials. 
+For government to work, those of us in power cannot continue to cling to it.
+We need to continually pass the baton to new leaders with different perspectives and fresh ideas.
+Our reforms include a ban on outside income for Statewide officials because our only job should be to serve the people of New York.
+But that’s not the only part of the system that’s not working.
+It’s no secret that recent events have called into question the effectiveness of the Joint Commission on Public Ethics, JCOPE.
+I will introduce legislation to replace that commission with a new ethics enforcement watchdog.
+One with real teeth. One that answers to New Yorkers – not to politicians.
+None of these changes will fix our government overnight and having these safeguards in place won’t mean those of us in elected office won’t stumble or make honest mistakes.
+But by putting much-needed reforms in place, we can at least begin to restore public trust by focusing on what REALLY matters to our residents.
+What you’ve just heard is a mere sampling of the more than 220 proposals that fill a book we’re releasing today.
+Quite an extraordinary accomplishment given our 134 days in office.
+And I commend the hard-working staff who helped me shape this agenda— I’m proud to have the most diverse… talented team New York State has ever had.
+Before we leave here and get to work.
+I want to pause a moment to reflect on our State’s unique story and the destiny that lies before us. 
+Since its beginning, our country has attracted people from around the world, in search of an ideal that made leaving their homeland worth the risk.
+Two simple words: American Dream.
+And in pursuit of this, millions found their way here, to us.
+New York has always meant the promise of a better life, for those immigrating through Ellis Island, fleeing slavery in the South, or resettling here as refugees from Afghanistan.
+Our state is nationally recognized as the birthplace of movements for equality and progress, the labor movement, the women’s rights movement, the LGBTQ+ movement, the environmental movement, the racial justice movement, they all were started HERE by enlightened New Yorkers.
+We attract the best, the brightest and the boldest. We embrace and celebrate racial, ethnic and gender diversity, culture and entertainment, where a single word like Broadway says it all.
+Where the unsurpassed beauty of Niagara Falls, .the Adirondacks, Jones Beach, the Finger Lakes, Erie Canal and the Hudson River Valley…
+And the grandeur of the New York City skyline aglow at night, it’s breathtaking
+This is who we are and we are proud of it, keepers of the flames of movements past. Stewards of the natural treasures entrusted to us and the visionaries who will lead our State into the future…with courage and confidence.
+While we may be imperfect, New Yorkers have always been the risk-takers, entrepreneurs, the innovators, the builders, the new, immigrants, the students, the true believers and the dreamers, who know that there truly is only one New York. 
+My fellow New Yorkers, members of the legislature, the time has come for a new American Dream.
+A better, fairer, more inclusive version that I call The New York Dream.
+For New York is not just a place, like other States … it is also an ideal.
+One that embodies excitement, energy, and endless possibilities.
+Just as we are inspired by the history bequeathed to us by the great New Yorkers who led our nation’s social justice movements and the leaders like FDR, who navigated us through a crisis with a calm, steady hand, so too will history look back at our time.
+How we are judged will be determined by what we do right here, right now. 
+Let us seize this moment with great confidence and optimism.
+And create a legacy of accomplishment that will endure through the ages, A New Era for New York.
+And May God bless the people of the great State of New York and our Nation.
+Thank you.</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before I begin, on behalf of the people of the State of Ohio and all who love freedom -- I say in
+salute: “Glory to Ukraine! Glory to the Heroes!”
+Speaker Cupp, President Huffman, Leader Russo, Leader Yuko, Members of the General
+Assembly, Justices of the Supreme Court, Elected State Officials, Lieutenant Governor Husted,
+My fellow citizens of Ohio….
+The state of our amazing state IS STRONG! OHIO. IS. STRONG!
+I’m so grateful to be back here today with all of you in this historic chamber -- the first time all
+three branches of government have gathered together in three years.
+It truly is a great day!
+TRIBUTE TO FORMER HOUSE SPEAKER BILL BATCHELDER
+I want to thank all of you for yesterday honoring our friend, former colleague, and former
+Speaker of the House -- Bill Batchelder.
+At this time, I invite Judge Batchelder and her family to come the Well.
+Joining Judge Batchelder are her son Bill and wife Xela; daughter Elisabeth and husband
+Matthew; and grandchildren Sophie, Eilidh, William, James, Eleanor, Matthew, Bethany, and
+Mary Ruth.
+Judge -- thank you for being here today and bringing your children and grandchildren. It is a
+special moment for all of you -- and all of us -- to have you stand in this Chamber that he loved
+so much -- in the “People’s House,” as he always described it.
+Speaker Batchelder was an amazing man. He never forgot his roots. He loved Medina County.
+And, he loved Ohio.
+Long before he was Speaker, he was the “go to” person when a member had a tough legislative
+challenge, and there has been more than one Governor, of both political parties, who has called
+on him for help when faced with a very difficult problem. 
+2
+In his farewell address to the Legislature, the Speaker reminded us that “it is the ultimate
+responsibility of all of us to [keep our Republic]” and that we all must “stand strong” to protect
+it. And so today, let his words remind us of our obligation as public servants and our duty to the
+people we were elected to serve.
+To the Batchelder family, we are honored to pay tribute to Speaker Batchelder today.
+OUR WORK TOGETHER
+Mr. Speaker, Mr. President, Members of the General Assembly -- While no Governor and
+General Assembly agree on everything, there are core truths and fundamental values that we all
+share.
+What unites us is stronger than what divides us, and I know that we are solidly united in our deep
+love for Ohio and in our belief that EVERY Ohioan deserves the chance to succeed -- no matter
+their zip code; no matter if they live in Appalachia, in our cities or in our suburbs; no matter who
+their parents are.
+They deserve the chance to get a good-paying job, to raise a family comfortably, to be secure in
+their future, and to live their version of the American Dream.
+Mr. Speaker, Mr. President, Members of the General Assembly -- Thank you. Thank you for
+believing in the future of our state and for investing in the things that will build a firm foundation
+that can lift all Ohioans.
+In my previous State of the State Address, I asked you -- and I asked the people of Ohio -- “to
+invest in things where the returns will not all be immediate.” I said that “in many cases, we will
+notsee results during this Administration or even in our lifetimes. Yet, we still must act!”
+And act you did!
+Together, we have invested in the PEOPLE of Ohio.
+My friends, I want to start by talking about some of the significant investments we have made,
+and then I will talk about the work that remains to be done.
+Let’s first talk about what we have done for our children, for they are our future.
+With your support, we are helping Ohio’s youngest, most vulnerable children get the best
+possible start in life by doubling our investment in Ohio’s voluntary home visiting programs,
+where trained professionals meet regularly with new and expectant moms to teach valuable
+parenting skills.
+We are making important investments in similar services so that fewer Ohio babies are born
+exposed to opiates. 
+3
+And, we are working so that children do not grow up with life-long brain damage from toxic lead
+paint that’s peeling from walls in their homes.
+Together, we are ensuring that more at-risk, pregnant mom will have a roof over their heads,
+because inadequate housing is a huge risk factor for infant and maternal mortality, and we’ve
+worked to protect those who cannot protect themselves -- the unborn.
+By increasing eligibility levels and access to quality childcare, we are empowering thousands
+more families to take on full-time, full-year employment, promotions, and higher-wage jobs, and
+we’ve taken significant steps to change our child welfare system so that the health and safety of
+the child always comes first!
+Because of your support, we have enabled thousands of Ohio seniors to stay in their own homes
+longer, and we’ve helped those with disabilities to gain fulfilling employment and live more
+independently.
+In the last two years, we’ve realized that when you need healthcare and behavioral health
+services, a virtual visit can save time and money, so we’ve eased restrictions on telehealth
+services to expand access to care. In December, I signed House Bill 122, sponsored by
+Representatives Fraizer and Holmes and Senators Huffman and Antonio, to expand insurance
+coverage of telehealth -- and I am pleased to say that this new law takes effect today!
+Members of the General Assembly, we are blessed in Ohio with an abundance of water. We are
+the stewards of this precious resource. And together, we have taken unprecedented steps to
+preserve that water and make it accessible to all Ohioans.
+We are now, with your help, in our fourth year of H2Ohio -- our visionary plan to rid Lake Erie
+of toxic algae blooms, which threaten the drinking water of nearly three million of our fellow
+citizens. And, we have repaired and replaced decades-old, lead water pipes. Now, with the
+placement of new lines that never existed before, there are parts of Ohio where -- for the very
+first time -- citizens will not have to travel miles to get clean drinking water!
+Together, we are investing in our neighborhoods to demolish dangerous, decaying, unsightly
+buildings and to clean up hazardous, brownfield properties to spur economic development. And,
+we are closing the digital divide in Ohio, with the goal that everyone in Ohio will have the
+necessary broadband services on which our citizens depend for everything -- from homework to
+healthcare!
+I want to recognize and thank Lieutenant Governor Husted for spearheading this effort.
+He has also worked diligently with you as we have invested significantly in career education, job
+training, and workforce development to help give every Ohioan an opportunity to get a satisfying
+and well-paying job. We’ll be working with you to provide additional help to our career centers,
+community colleges, and four-year universities to provide them advanced, high-tech equipment
+for even better training for the jobs of the future.
+4
+With help from you and JobsOhio, we are positioning our state to become a global leader in
+science, technology, and medicine through the launch of three, cutting-edge “Innovation
+Districts” in Cincinnati, Cleveland, and Columbus. They are poised to produce 60,000 jobs over
+the next ten years and generate billions of dollars in pioneering, life-saving research and
+development.
+And -- while some people talk of defunding the police -- we are doubling down on our support
+for law enforcement by giving them more resources to keep our communities safe!
+Working together, we’ve slashed state spending by a whopping $1.2 billion! And, we cut taxes
+by more than $3.6 billion -- creating Ohio’s lowest taxes in more than 40 years, leaving more
+money for businesses to re-invest in our economy and more money in the pockets of our fellow
+Ohioans!
+And to think -- to think we have done all these many things -- all of them -- during a once-in-ahundred-years pandemic!
+COVID PANDEMIC
+Though we have had many shared successes, the past couple of years certainly been difficult for
+Ohioans, and we continue to pray for those who died from COVID, and we pray for their
+families.
+My Fellow Ohioans -- Two years-ago at this time, we began our battle against an invisible and
+deadly enemy. Here in Ohio -- you did what Ohioans always do.
+You rallied together. You made extraordinary sacrifices. And, you showed the world that
+Ohioans are RESILIENT!
+We owe such a debt to our healthcare workers -- our nurses and our doctors -- our first
+responders, frontline workers, grocery store clerks, restaurant workers, local health department
+personnel, teachers, educators, and so many, many others -- all of whom have stepped up in
+countless ways over these past two years.
+At this time, I would like to ask our Ohio National Guard Adjutant General, John Harris, to
+stand. General Harris, on behalf of all Ohioans, we thank you. We thank you and the members
+of the Ohio National Guard for your tireless efforts during the pandemic and for all that you do
+every single day to help us and to protect us.
+Our Guard members responded to every call when asked during the pandemic -- from testing to
+vaccinations. They assisted with staffing at our nursing homes, and most recently, they worked
+in more than 64 hospitals and at 21 testing sites across Ohio, preventing a crisis in care during
+the recent Omicron surge.
+Members of our Guard also traveled to the southern border in Texas and Arizona to help stop the
+influx of deadly fentanyl and other lethal drugs into our state and into nation.
+5
+So, I want to thank them, and I want to thank all the men and women in the military and in law
+enforcement and our firefighters, who risk their lives every single day to protect us -- and we
+must remember all the Ohioans who have made the ultimate sacrifice.
+Please join me now in a moment of silence for Marine Gunnery Sergeant James W. Speedy from
+Cambridge. He died Friday night during a NATO training exercise. We pray for him. We pray
+for his family.
+[MOMENT OF SILENCE]
+OHIO HAS ASSETS
+Members of the General Assembly -- This is Ohio’s time!
+People are returning to the heartland! They are coming to Ohio because we have lower taxes, a
+strong business climate, and a good regulatory environment -- made better by recently enacted
+Senate Bill 9, sponsored by Senators Roegner and McColley!
+But, my friends, it is so much more than this. It’s also about the great quality of life we have here
+in Ohio!
+No matter where you live in Ohio, you’re within driving distance of amazing art, theater, and
+major league sports teams!
+We have 14 public universities, 74 private colleges and universities, 23 community colleges, and
+a host of great career centers all over Ohio!
+And, we have a world-class State Fair that is BACK this year!
+There is simply no better place to raise a family than Ohio! No better place to live. No better
+place to start or grow a business. And no better place that provides more opportunity than Ohio!
+What Wilbur Wright said 100 years ago is still true today: “If I were giving a young [person]
+advice as to how [they] might succeed in life, I would say . . . pick out a good father and mother,
+and begin life in Ohio!”
+My friends -- Now is the time to seize our Ohio moment!
+Our economy is surging! Our state budget is on firm footing. Our bond rating is the highest it
+has been since 1979. Our unemployment rate is only 4.3 percent -- near historic lows. And,
+manufacturing is flourishing!
+Ohio has always been a manufacturing state. But now -- now we are bringing the highest tech
+manufacturing known to man into the State of Ohio, and the world is taking notice! 
+6
+Just a few short weeks ago, we announced the single, largest economic development investment
+by one company in the history of the State of Ohio! Intel Corporation will be investing $20
+billion in Ohio, just in its first phase, to build two new, state-of-the-art fabrication facilities to
+make semi-conductor chips. This will impact not just Central Ohio, but our entire state as many
+of their suppliers move to Ohio.
+To all of you -- Thank you -- thank you for helping make this deal a reality! It’s a game-changer
+for our state and will have positive economic ripple effects across Ohio. Your support of the
+Mega Projects Legislation through House Bill 110 made a big difference.
+But, Ohio’s economic success is not limited to Intel. New manufacturing companies are locating
+all over Ohio. They could have gone anywhere. They chose Ohio!
+Just a few examples:
+Cleveland-Cliffs built a state-of-the-artsteel plant in Toledo.
+Sherwin Williams is building a new research facility in Brecksville, and they are building their
+new headquarters in downtown Cleveland.
+Leading aerospace company, Sierra Nevada Corporation, recently set up operations in the Miami
+Valley.
+And then there’s Global Cooling in Athens County, Ultium Cell in the Mahoning Valley, NestlePurina in Clermont County, and so many, many more.
+My friends -- Ohio is taking off! And, all of us in this Chamber are building the environment in
+this state, where every Ohioan can have a better life, and where Ohio kids can dream -- and those
+dreams can really come true.
+But our work is not done. In many ways, it is just beginning.
+Ohio will not rise to its highest level unless we do even more than we already have in several
+important areas. Let me begin by talking about mental health.
+MENTAL HEALTH
+I am proud of the work we have started together -- and we have done a lot in the area of mental
+health. For example, we have started the reform of Medicaid out of our shared-commitment to
+multi-system kids, through a program we call OhioRISE. Under OhioRise, children who have
+multiple medical and behavioral health challenges will now get the help they need -- in their own
+communities. Parents will no longer be forced to give up custody in order to get their children
+the help they need -- and families will stay together.
+We have also worked to create a landmark program to address the mental and physical health
+needs of children right in their own school buildings! 
+7
+We’ve specifically focused dollars for schools across Ohio to provide for on-site medical clinics;
+additional counselors and mental health services; prevention and after-school care; family
+supports, such as English classes and access to healthcare; as well as new training and
+programming around childhood trauma and mental health for our most vulnerable kids.
+We are helping struggling families get better access to addiction and mental health treatment, so
+that their children don’t end up in foster care. And, we have more than doubled medicationassisted drug treatment capacity across Ohio, and have dramatically increased crisis stabilization
+services.
+But -- despite our best efforts so far, it still is not enough.
+Mental illness remains on the rise in Ohio. Suicide is one of the top ten causes of death for
+Ohioans ages 10 to 64, with the rate rising in rural Ohio and in our communities of color.
+Accidental drug overdose deaths remain at record levels. The shared adversity of the COVID
+pandemic has worsened rates of depression, anxiety, addiction, and post-traumatic stress
+disorder. Access to care still remains elusive for too many Ohioans. And over 40 percent of
+Ohio children have experienced one or more Adverse Childhood Experiences, putting them at
+higher risk for lifelong health and mental health challenges.
+Now, to better understand how we got here, let’s go back in history. Let’s go back 60 years to
+the federal Community Mental Health Act of 1963, when hundreds of thousands of women and
+men with brain disorders were released from psychiatric hospitals, promised -- as President
+Kennedy said at the time -- that “the cold mercy of custodial care would be replaced by the open
+warmth of community.”
+Despite good intentions -- tragically -- that promise was never kept -- not nationally, nor in Ohio
+-- and the community system was never fully built.
+Ohio closed psychiatric hospitals without prevention or residential services in place and without
+building full capacity outpatient care. Many Ohioans in need of support became homeless or
+languished in jail or in prison.
+And now -- every day in Ohio, we have families in crisis. They need immediate help. And too
+often, they have nowhere to turn, no idea where to go, so their loved ones suffer -- and
+sometimes, these individuals -- our friends, our family members -- die needlessly.
+We can change this.
+While we can never fully remedy the mistakes of the past, we can resolve to change the course of
+history moving forward by making help visible, accessible, and effective in all communities in
+Ohio. We can do this by investing significantly more resources in the following:
+1. We must grow our behavioral health workforce;
+8
+2. By increasing research and innovation; and
+3. By building a community capacity for care that offers better crisis response services and
+treatment, increased prevention efforts, and more residential and outpatient services.
+Seated in the Gallery today next to the First Lady is my long-time friend, Terry Russell and his
+wife Retta and their son Luke. Terry leads Ohio’s chapter of the National Alliance on Mental
+Illness. I have met no stronger advocate for those suffering from mental illness and their
+families -- the “real heroes,” as Terry calls them. After 50 years of dedicated work, he will be
+retiring later this year.
+I know that Terry shares my goal for Ohio to lead the world in behavioral health research,
+community care, and workforce development. Ohio can be the model.
+The future Ohio that I envision has the best, most robust behavioral health workforce in the
+country -- a workforce that is hailed as heroic and valued as a vital part of our healthcare system.
+I see an Ohio with expanded residential and community-based, outpatient treatment options, so
+fewer Ohioans need to be institutionalized or placed in long-term hospital care.
+I see an Ohio that catches and treats mental health problems and addiction at their earliest onset
+to lessen the chances of life-long challenges.
+I see an Ohio where families get support in their own communities and at school, so that teachers
+can teach, kids can learn, and parents can worry less, because ALL kids benefit when every child
+has the support to be physically and mentally healthy and the opportunity to live up to their Godgiven potential.
+I see an Ohio that harnesses the innovative potential of our research colleges and universities to
+conduct strategic, cutting-edge research. . . an Ohio with fewer emergency room visits, and
+where fewer Ohioans with mental illness are living on the streets. . . an Ohio where mental
+illness isn’t criminalized, lessening pressure on the criminal justice system.
+In the Ohio I see -- fewer families face the unimaginable grief of losing a son, a daughter, a
+brother, a sister, or a parent to suicide or overdose. Shame, fear, stigma, and embarrassment are
+erased. Mental illness is treated as a health issue -- not as a crime. And, those who seek help are
+met with respect -- and treated with the dignity they deserve.
+Realizing this vision will require us to take a giant step forward. But, if we build on our
+successes and the work we have started together, we can truly bring about lasting change.
+My friends, the system isn’t broken -- it was just never fully built, and it does not exist
+everywhere in Ohio…. YET!
+And so, we must build it! We must do the work that has never been done. We must fulfill the
+promises made over 60 years ago, but never kept.
+9
+The bottom line is this: Ohioans with untreated addiction and mental illness will remain underemployed and unemployed, and so much potential -- for people, for families, for our state -- will
+be lost if we look the other way.
+In the weeks ahead, I will be coming to you with specific proposals for how we finish this
+important work. It won’t happen overnight -- and it will take a major, long-term commitment
+from ALL of us.
+We can create the opportunity for people with mental illness or addiction to build the skills to
+lead joyful, meaningful lives. And if we do, it will result in reduced community costs, more
+people working, and more people contributing -- to the vitality of their communities.
+We have the ability. We have the talent. We simply must have the will.
+STATE PARKS
+Let me now talk about our State Parks, wildlife areas, nature preserves, and scenic rivers, which
+really are the crown jewels of Ohio.
+We are blessed with a system of 75 -- soon to be 76 -- State Parks, with many Ohioans
+discovering them for the first-time during pandemic. From Maumee Bay to Geneva to Lake
+Hope to Great Seal to Hueston Woods, to John Bryan, our State Parks add so much to our quality
+of life and make Ohio such a great place to live.
+Access to nature is a vital part of both our physical and mental wellbeing, and our Parks have
+something for everyone -- the calming influence for those looking to relax, the adrenalinepumping activities for those looking for a thrill -- and everything in between!
+Thanks to your support and investments, we are working to make these wonderous places even
+better. Improvements are being made at Parks across the state.
+To the east -- we are working on a masterplan that will connect fantastic places -- The Wilds, the
+new amazing Appalachian Hills Wildlife Area, Jesse Owens State Park, and Burr Oak State Park
+-- to create a one-of-a-kind adventure. I’m also excited about the development at Shawnee State
+Park. On the banks of the Ohio River, guests will be able to mountain bike, paddle, travel along
+one of the Imagination Library’s Storybook Trails, and stay at a full-service campsite.
+Soon, more people will be able to stay at the new Lodge at Hocking Hills -- Ohio’s first new
+State Park lodge in more than 30 years! And, our newest State Park will be at Oldtown, in
+Greene County, honoring the heritage of the Shawnee Indians, Tecumseh, and the intersection of
+the Native Americans and the pioneers.
+Members of the General Assembly -- Our dream is for Ohio to have the best State Park system in
+the country! In the weeks and months ahead, I will be asking you to reinvest in our magnificent 
+10
+State Parks, as I know we share a commitment to preserving the natural beauty that God has
+graciously bestowed upon Ohio!
+By continuing to invest in our Parks, when visitors come, they will feel like family. And they
+will say: “THIS IS OHIO!”
+APPALACHIA
+Developing and showcasing our State Parks in Appalachia is just part of the larger renaissance
+happening in our Appalachian region. This, also, is THEIR moment!
+We can be a part of it -- we need to be a part of it -- by re-igniting the pioneer spirit of the
+Ohioans who built this state! One of the most important things we can do that will benefit -- not
+only the 32 counties in the Appalachian region, but also our entire state -- is to make a longoverdue, comprehensive investment in Appalachia.
+And so, Members of the General Assembly, I intend to work with you and local leaders to create
+an investment program to revitalize and rebuild the economies and the Main Streets of the area
+where Ohio began. We have an historic opportunity to dedicate resources to an area of our state
+that is ready to flourish!
+In the coming days and weeks, I will work together with you and community leaders to help the
+region plan and implement improvements that reflect the vision of local communities, investing
+in things, such as downtown re-development, further expansion of broadband coverage,
+workforce development, student wellness in schools, and fighting the on-going battle against
+addiction.
+Our citizens in Appalachia are strong! They have a great and proud history. Generations have
+built a life there, planting roots deep in the soil along the Ohio River. And THIS -- this is now
+Appalachia’s time.
+MENTORS/SCHOLARSHIPS
+Ohio is a great state, but there remain gaps in access to opportunity for too many children, and
+we have a moral obligation to remove the barriers to their success Every child needs a
+responsible, reliable adult in their lives. For most kids, those mentors are their parents or
+grandparents. But there are some children in Ohio who don’t have that, or they don’t have it
+consistently.
+All children need mentors -- someone they can look up to. Someone they can count on.
+Someone who can help keep them in school and out of trouble and away from the dangers of
+drugs and alcohol. Someone who can teach them life skills and help them deal with the
+challenges of growing up and the added burdens of living in difficult, chaotic,stressful, complex
+situations.
+11
+Members of the General Assembly -- we have the ability to transform the lives of so many kids,
+who -- for whatever reason -- don’t have someone in their young lives who can be a role model.
+In the coming days, I intend to work with you and with community leaders and our colleges and
+universities to create a combined scholarship and mentorship program,so that no child in this
+state lacks guidance and direction, and so they can have the financial support to continue their
+education to become career-ready, whether by earning a credential, a certificate, or a degree.
+I will need your help and your ideas. There are so many strong advocates in this Chamber for
+children. We also have some great examples of programs in right here Ohio, such as “I Know I
+Can” in Columbus, “Say Yes Cleveland,” and many more.
+We need to do this because, frankly, it is the right thing to do for these kids and for the State.
+Just as I said regarding those with behavioral health challenges, our state’s economy -- our state
+-- will not fully flourish if we leave these kids behind. There is so much untapped potential --
+potential that our state simply cannot afford to waste.
+An area I have cared deeply about throughout my life is highway safety. Whether driving under
+the influence of alcohol, marijuana, or other drugs or driving while texting, too many Ohio lives
+-- too many family members -- are still being lost on our highways.
+Last year, fatalities on our roads in Ohio were at their highest level since 2002 -- and we all
+know that distracted driving is a key factor behind many of these crashes. There were nearly
+12,000 distracted driving-related crashes last year in Ohio, causing more than 300 serious
+injuries and 43 deaths. And, 39 percent of these crashes involved drivers who were 15 to 24
+years-old.
+We must do more. And, Ohioans want us to do more. A 2021 survey of Ohio drivers found that
+78 percent of respondents support legislation to toughen our laws on distracted driving.
+Representatives Abrams and Lampton have a bill -- House Bill 283 -- pending before you now,
+that -- if passed -- willsignificantly help decrease distracted driving tragedies. Twenty-four
+other states have implemented similar legislation, and those states have seen significant
+reductions in serious and fatal accidents.
+Members of the General Assembly -- lives are at stake. Please pass this bill.
+LAW ENFORCEMENT
+Let me now turn to law enforcement. Our current generation of law enforcement officers are the
+most educated, best trained, and most technologically savvy individuals to ever work in the
+profession. Yet, state funding for on-going training has been haphazard at best.
+Some years, the State funds police training. Most years, we don’t.
+Professional development training, year after year, is something that every single police officer
+wants, and it directly benefits the public. In last year’s budget, you created a Commission to 
+12
+study this problem. This Commission was chaired by Senator Hoagland and had representatives
+from law enforcement; the community; the Attorney General’s Office; and also included
+Representatives Richardson, West, and Abrams; and Senators O’Brien and Thomas.
+I am asking you simply to adopt the recommendations of the Commission that you
+created. These recommendations will create a permanent funding source for on-going training.
+In addition to properly funding law enforcement training, we also must do a better job of treating
+and viewing our deputies, officers, and troopers like we do other professionals in this state.
+Representatives Abrams and Plummer have been working on legislation that would help
+standardize oversight of our law enforcement professionals, increase transparency within the
+system, and require independent investigation of officer-involved critical incidents. I support
+this bill and look forward to signing it into law.
+Finally, we must work hard to support our officers and deputies by giving them the resources to
+go after violent criminals. We know that just a small number of dangerous offenders are causing
+the vast majority of violent crime in this state. Together, we recently allocated $250 million to
+address, in part, violent crime in our communities. But, money, alone, is not enough.
+We must also strengthen our laws to deal with violent offenders who have lost their legal right to
+possess a firearm, but still carry and use weapons to commit violent crime. Now, it’s a small
+group, but we must target them, and we must remove them from society!
+There is a bill currently pending before you that achieves this goal by increasing penalties on
+these dangerous felons. Chiefs, deputies, prosecutors, and frontline patrol officers have asked us
+to support this legislation, as it will help them deal with the most violent offenders in their
+communities.
+We need to get tough on the convicted violent offenders who carry and use weapons in violation
+of the law. If we can remove this small group of dangerous offenders from our streets, the
+violent crime in our neighborhoods will be reduced dramatically -- and the citizens and families
+who live there will be safer, and lives will be saved.
+GOVERNOR’S IMAGINATION LIBRARY
+Before I conclude, I saved the best for last! I am very pleased now to introduce my bride of
+almost 55 years -- First Lady of Ohio, Fran DeWine.
+Frances is -- and always has been -- an amazing champion for children. At the start of our
+Administration, she partnered with the Dolly Parton Imagination Library to create the Ohio
+Governor’s Imagination Library. I want to thank the Legislature for providing the funds -- that
+are being matched by the local communities -- to provide a book each month to Ohio children
+ages zero to five.
+When we started, only 13 percent of eligible Ohio kids were receiving these books. Now, that
+number has risen to 43 percent, and so far over 6.9 million books have been mailed to children in 
+13
+all 88 Ohio counties! This month, we are up to nearly 313,000 children, who will receive an
+age-appropriate book in the mail at no cost to their family!
+We know that a child’s brain is 80 percent developed by the time they turn three years-of-age.
+So, these first years of development are so very important. Enrollment in the Imagination
+Library improves Kindergarten readiness and family literacy habits. And, no matter where you
+live in Ohio, your child or grandchild is eligible.
+CONCLUSION
+Spring is here! And everything is possible in the springtime!
+You’ve heard me talk about my grandfather who, well into his later years, continued to plant
+trees, knowing he likely would not live to see them fully grown. He did it, nonetheless, because
+he had faith -- faith in the future -- and wanted those trees to be there for his children,
+grandchildren, and great-grandchildren.
+At the conclusion of my address, I invite everyone here today to join the First Lady and me on
+the South Plaza across from the Ohio Theater, as we plant a Dogwood tree on the Statehouse
+grounds. This tree, native to Ohio, represents renewal and rebirth. We plant this tree today as a
+symbol of our shared faith in Ohio’s future and as a recommitment to investing in things that
+may not have results today, but will transform tomorrow!
+The sun is coming up in Ohio, the wind is at our back, and together, we have the power to
+change the course of Ohio’s history!
+We have opportunities before us that come once-in-a-lifetime, so we must seize them! Ohio --
+This. Is. Our. Moment!
+Perhaps fellow Ohioan, Joe Burrow,said it best after the Bengals advanced to the AFC
+Championship game when he said: “We’re a really, really good team. We’re here to make noise,
+and teams are going to have to pay attention to us [because] we are coming for it all!”
+Well, My Fellow Ohioans -- so is the State of Ohio!
+Ohio is making some noise! People are going to have to pay attention to us! And, we are
+coming for it ALL!
+Thank you very much, and may God bless you, and may God bless Ohio! </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Mr. Speaker.
+Mr. President Pro Tem.
+Lieutenant Governor Matt Pinnell.
+Members of my cabinet.
+Mr. Chief Justice of the Supreme Court.
+Mr. Presiding Judge of the Court of Criminal Appeals.
+Members of the 58th Legislature.
+Tribal leaders.
+My wonderful wife and partner, First Lady Sarah Stitt.
+Thank you so much to my family for being here today.
+It means a lot.
+And most importantly, my fellow Oklahomans.
+I’m honored to stand before you today and begin my fourth year as your governor.
+It has been a great privilege to lead our state.
+I am thankful to the citizens of Oklahoma and my heavenly Father for giving me this
+opportunity.
+Mr. Speaker, Mr. Pro Tem, members of the House and Senate, last year, we showed
+Oklahomans what's possible when we work together.
+We cut taxes for all Oklahomans.
+We made record investments in education and gave parents more choices.
+We grew our economy.
+We modernized our government, and we stood up to defend the rights of Oklahomans --
+including protecting the lives of our unborn children!
+Today, I am proud to say we are well-positioned to continue our momentum toward becoming
+a Top Ten state.
+Full text version
+2
+I want to praise my colleagues in the Legislature for being fiscally conservative and responsible
+with taxpayer dollars.
+In the face of criticism, we stayed the course.
+We made smart decisions instead of going on a spending spree.
+It’s a different story in Washington, D.C., and so are the results.
+Our national economy is struggling.
+Inflation is at a forty-year high.
+Gas and groceries are more expensive.
+Supply chain issues have made everything harder to find.
+But if you live in Oklahoma, it’s a different story.
+While other states are shutting down their economies, we’ve never been more open for
+business.
+In fact, 40,000 more Oklahomans have jobs today compared to when I took office.
+As unemployment skyrocketed in some parts of the country, ours is down to just 2.3%.
+That’s the lowest it’s been in our state’s history!
+Across the country, huge numbers of Americans are moving to states that value freedom and
+trust their citizens to make choices for themselves.
+There has never been a bigger difference between a red state and a blue state.
+Freedom-loving Americans cannot escape liberal lockdown states fast enough.
+Since April 2020, more than 27,000 of them have moved to Oklahoma.
+That includes Jonathan and Erica, who moved here from Seattle because they believe in
+freedom and personal responsibility.
+Can you imagine leaving a place like Norman, Oklahoma for Southern California?
+I mean, who would do that?
+Oklahoma, I’m proud of the progress we’ve made in just three short years.
+But today, the state of our state is at a crossroads.
+We have a choice between two paths.
+One path leads toward a Top Ten State.
+Full text version
+3
+It’s a familiar road, and it’s paved with unity, fairness, and equal protection under the law.
+The other path leads to a jigsaw puzzle of jurisdiction.
+From the beginning, I’ve sounded the alarm on the Supreme Court’s McGirt decision.
+Because I knew then, and I know now, that even a narrow Supreme Court ruling can
+fundamentally change a state.
+Oklahoma has been robbed of the authority to prosecute crimes.
+Put simply, McGirt jeopardizes justice.
+Over the past year, we’ve done everything we can to protect law and order and limit the
+impacts of this decision.
+Our broad coalition includes Attorney General John O’Connor; all 27 district attorneys across
+the state, especially Steve Kunzweiler in Tulsa County and Matt Ballard in Craig, Mayes and
+Rogers Counties; Police Chiefs like Wendell Franklin in Tulsa, the Oklahoma Sheriffs’
+Association; the Oklahoma Farm Bureau; the Oklahoma Cattlemen’s Association;
+environmentalists; The Petroleum Alliance of Oklahoma, and city leaders.
+Recently, we’ve won two major victories to protect law and order.
+First, the Supreme Court agreed McGirt is not retroactive.
+This means that convicted criminals stay in prison.
+The Supreme Court also agreed to hear another case.
+A win in that case would let the state go back to enforcing law and order and protecting more
+crime victims in Eastern Oklahoma.
+That’s the way we’ve done it since 1907.
+The new rules put the federal government in charge, and it isn’t working.
+In 2013, a 12-year-old boy named Billy Lord was riding his bike in Wagoner.
+Richard Roth was driving drunk and hit Billy and killed him.
+The state convicted Roth for Billy’s death and sentenced him to prison.
+But Mr. Roth is white, and since Billy was Cherokee, the guilty verdict was overturned.
+The case can’t be retried in federal court, and Roth could go free from punishment without
+even so much as a traffic ticket on his record.
+That’s not fair. And it’s not equal protection under the law.
+Billy’s mom, Pamela, is here today.
+Full text version
+4
+She told the court that while her son was a tribal member, he was also a citizen of the United
+States and the state of Oklahoma.
+She said allowing the man who killed her son to walk free is an insult to Billy’s memory and an
+insult to justice.
+Pamela, I’m sorry for your loss. I’m fighting for justice for Billy.
+Surely, we can all agree that no crime should go unpunished.
+Billy deserves justice. All victims deserve justice.
+Oklahoma, here’s the deal.
+This isn’t about winning and losing. This isn’t personal. It’s not Kevin Stitt versus the tribes.
+Instead, it’s about certainty. It’s about law and order. It’s about fairness, equal protection under
+the law, and one set of rules.
+We’re all Oklahomans. Let’s work together to solve this.
+With that, let me turn to our legislative agenda for this session.
+We start this year with an incredible opportunity. Oklahomans have elected the largest
+supermajority in state history. We have a very clear mandate to enact strong conservative
+policies that protect liberty and defend against the Biden administration’s federal overreach!
+I challenge each of us to be bold. Let’s capitalize on the opportunity we have and make
+Oklahoma a Top Ten state.
+To reach our destination, we need a map to stay on course.
+Our road to Top Ten has four checkpoints:
+Driving hope for all Oklahomans, protecting Oklahomans and our way of life, making Oklahoma
+the most business friendly state in the country and delivering taxpayers more for their money.
+Let’s start with driving hope for all Oklahomans.
+Hope is not a wish or a feeling.
+It’s a proven science that can be measured and applied.
+More than 2,000 studies have shown that hope is the greatest predictor of success.
+That applies to education, work, health, mental health, social relationships, family and trauma
+recovery.
+Hope impacts everything that matters to us.
+I want to take a moment to recognize the First Lady, my wife, Sarah Stitt.
+Full text version
+5
+She’s created the Sarah Stitt Hope Foundation to bring the science of hope to communities
+across Oklahoma. Over the next two years, we’re training every state employee how to apply
+the science of hope to their agencies.
+Sarah, thank you so much for your hard work.
+We can drive hope for all Oklahomans through education. Throughout my time as governor,
+I’ve committed to putting our students first.
+Across the country, parents are waking up to the learning loss caused by closed classrooms.
+They’re demanding better for their kids.
+I’m proud that Secretary of Education Ryan Walters and I have been fighting to put our students
+first and keep our schools open longer than anyone in the country!
+In Oklahoma, we listen to parents, because we know God gave kids to parents – not the
+government!
+We expanded the equal opportunity scholarship to provide more choices for low and middleincome families.
+That helps students like Jonathan Wright. He’s a freshman at Oklahoma Bible Academy in Enid.
+When Jonathan was three years old, he was adopted out of foster care by a single mom named
+Lisa. Jonathan has used the Equal Opportunity Scholarship to go to Oklahoma Bible for four
+years.
+His mom said the mentors and positive role models at his school have transformed his life.
+Jonathan and Lisa are here today. Would you please stand and be recognized?
+We provided record funding for all public schools, including charter and rural schools. These
+initial investments were good first steps for Oklahoma’s education turnaround, but there’s
+much more to do.
+Just 15% of Oklahoma high school graduates are ready for college in English, math, reading and
+science -- less than one out of five.
+We can do better than 47th in the nation when it comes to our kids. We’ve tiptoed around the
+edges for far too long.
+It’s clear the status quo isn’t working.
+We need to take bold steps. It will take courage, and it will take a desire to make a generational
+impact. This is our moment!
+We know education is not one-size-fits-all, and I pledge to support any legislation that gives
+parents more school choice, because in Oklahoma, we need to fund students, not systems!
+Full text version
+6
+Pro Tem Treat filed a bill called the Oklahoma Empowerment Act.
+It makes sure that money follows the student, and it would make us a national leader in school
+choice.
+Let me be clear: Oklahoma has a lot of great schools, but the results don’t lie.
+We need new ideas, more options, and higher standards for our kids.
+This is just common sense.
+We have a duty to make sure nothing stands in the way of an Oklahoma student achieving their
+full potential.
+There are roadblocks – literally. State law creates artificial barriers for school districts that don’t
+put our students first.
+Our school transportation formula is outdated and broken. We desperately need to modernize
+it.
+Another roadblock in our current system keeps some of the best teachers out of the classroom.
+Right now, some talented teachers choose to leave the classroom to make more money as an
+administrator.
+Oklahoma students can’t be the best without the best teachers. That’s why I’m proposing
+matching funds so that our best teachers can make six figure salaries and stay in the classroom.
+It’s the right thing to do for our teachers and for our kids!
+Another way to support Oklahoma educators is to protect their paychecks from union bosses.
+The same unions that have pushed critical race theory and school closures intimidate new
+teachers into handing over part of their salaries.
+Liberal unions want to keep a stranglehold on their cut of teacher pay. Enough is enough!
+Every other profession lets you opt-in to health insurance and other benefits at work every
+year. Unions should be opt-in, not opt-out!
+The second checkpoint on our road to Top Ten is protecting Oklahomans and our way of life.
+As elected officials, this is one of our most important duties.
+We can’t do that if we don’t focus on securing fairness and safety in the Medical Marijuana
+industry.
+To the citizens of rural Oklahoma, I hear you.
+This is causing major problems in our communities, and we must get it under control.
+Full text version
+7
+When Oklahomans voted for Medical Marijuana, they were sold a bill of goods. The state
+question was misleading, and it has tied our hands as we regulate the industry.
+Because of that state question, Oklahoma charges just $2500 for a commercial license. Even
+California charges up to $181,000 – 72 times more!
+As a result, we have 7 times the growers than California with just 10% of the people.
+Next door in Arkansas, they have 8 growers. We have 8,300.
+You know as well as I do that not all of that product is being sold legally.
+This is a perfect example why we need to make sure initiative petitions represent Oklahomans,
+not out-of-state special interest groups. Oklahomans deserve to know the details before voting
+to change our constitution.
+While we can’t change the past, we can learn from it and improve our future. We are getting
+the right leaders in place and untying their hands to enforce the laws.
+I’ve directed our law enforcement to crack down hard on the black market. Agents have been in
+the field making arrests.
+Let me be clear: drug cartels, organized crime and foreign bad actors have no place in
+Oklahoma. We will find them, and we will bring them to justice!
+Oklahoma is a proud law and order state.
+As other states and cities are still defunding their police, we have a chance to stand apart. Brave
+men and women who put their lives on the line deserve leaders who will have their back.
+Now is the time to transform and modernize our state law enforcement system into the
+nation’s best.
+To do this, we need to tackle four critical areas: the recruitment, retention, health and training
+of our troopers, agents and investigators.
+First, we must protect our officers.
+Mental health does not discriminate. Depression and suicide do not discriminate.
+It’s long overdue, but this year we must prioritize the health of our officers and
+create the Oklahoma First Responders Wellness Division. Its foundation is a peer to peer system
+designed to recognize the early signs of trauma and give immediate help to officers who need
+it.
+This could have saved Ronald Hook. 
+Full text version
+8
+The continued trauma he experienced as an officer seemingly went unnoticed and
+unaddressed.
+After 15 years of dedicated service in law enforcement, this family man, husband, father and
+friend, tragically ended his life.
+Ron’s daughter Alisha, and his sisters, Sissy and Suzy, are here today. They support creating this
+wellness division so other officers and their families won’t experience the same tragedy.
+Alisha, Sissy and Suzy, I am so sorry for the loss of your dad and brother. Thank you for being
+here.
+In the same way we can attract and support teachers, we need to provide law enforcement
+officers competitive pay, the best training available, and more career options.
+I’m requesting that we pool our resources and build a joint statewide training facility.
+Officers put their lives on the line every single day. The least we could do in return is provide
+them with the highest quality training.
+Our state’s law enforcement also desperately needs a consolidated, unified command structure
+within a single department.
+43 other states have this. Oklahoma should be no different.
+A unified command will create the career growth opportunities that today’s recruits expect.
+I want to pause here and thank each one of our brave men and women in law enforcement
+who sacrifice each day to keep our communities safe.
+Other states may turn their backs on the blue, but as governor, I will always stand with those
+who protect and hold that thin blue line.
+Our third Top Ten checkpoint is making Oklahoma the most business-friendly state in the
+nation.
+Last year’s pro-business policies are already paying dividends.
+Canoo, an electric vehicle manufacturer, is a perfect example.
+Last summer, Canoo announced it will open a factory in Pryor next year and bring 2,000 jobs to
+Oklahoma. Canoo’s CEO, Tony Aquila, said he chose Oklahoma because he wants to be where
+the puck is going – not where it’s been.
+Since Canoo’s initial announcement, it’s added a technology hub, software development,
+customer support and financing centers to Oklahoma. That’s at least 700 more high-paying jobs
+for our state.
+Tony Aquila is here in the gallery today.
+Full text version
+9
+Tony, thank you for believing in Oklahoma. And for helping to pioneer the future of our state’s
+economy.
+Canoo is just one company that has seen the benefit of Oklahoma being open for business.
+Thanks to the Governor’s Closing Fund and the Legislature’s investment in business
+development, the Department of Commerce is coming off its best year ever.
+Secretary of Commerce and Workforce Development Scott Mueller and his team are working
+hundreds of opportunities, thousands of jobs, and billions of dollars invested in our economy.
+But “open for business” isn’t just about recruiting new companies.
+We’ve launched an innovative platform to help Oklahoma manufacturers solve supply chain
+issues. Our system connects them to buyers and sellers and keeps their money in Oklahoma.
+More than 400 companies are already signed up.
+We are delivering on creating jobs and growing our economy, but we are at a critical junction
+when it comes to our state’s workforce.
+Across the nation and here in our state, businesses are struggling to find the employees they
+need. We need more nurses, more teachers, more engineers.
+Tinker Air Force base is rapidly expanding.
+I met with the Secretary of the Air Force at the Pentagon because we expect to add 6-10,000
+jobs there in the next five years.
+Our state’s workforce needs to grow at the same pace as our businesses.
+That means we have to be bold.
+Our entire education system must be aligned and motivated to meet this challenge head on.
+Let’s tear down the silos between K-12, Career Techs and Higher Ed to train the next
+generation. Every student needs to be college ready or career ready.
+I know we can do it.
+The road to success looks different for every Oklahoman.
+We’re all made in God’s image, and He has a unique plan for each of our lives.
+That’s why we have to provide career paths to match the skills of our students with the jobs in
+our communities.
+Let’s increase apprenticeships in high school and pathways to jobs that don’t require a college
+degree.
+Full text version
+10
+Let’s align and leverage our system to train every Oklahoman with the skills they need to
+provide for their family.
+In the middle of a nursing shortage, our universities can’t be turning away qualified applicants
+like they are now. Instead, we need to reward universities for producing graduates in critical
+areas.
+Our state depends on it.
+Last year, while states like New York were billions of dollars in the hole, we cut taxes for every
+single Oklahoman. We took care of the 300,000 working families being hit the hardest by
+increasing the Earned Income Tax Credit.
+We can, and we should, do more for Oklahoma families.
+That’s why I’m proposing to eliminate the grocery tax.
+Oklahoma is one of just 13 states that taxes groceries, and ours is one of the highest.
+Many Oklahomans are already struggling under the weight of record inflation. Let’s give them
+more help this year.
+Because, after all, we need more taxpayers, not more taxes.
+States across the country are continuing to cut taxes on their citizens.
+Nine states don’t charge a personal income tax. Many others are racing to join them, and we
+can’t be left behind.
+My vision is to create a taxpayer protection plan that responsibly lowers income taxes
+according to our state revenue.
+Cutting taxes based on how our economy grows ensures we’ll always have money to pay for
+core services like education and roads and bridges.As our economy grows, Oklahomans share in
+our success by keeping more of their hard-earned money.
+I look forward to working with the Legislature to modernize our tax code this session.
+Another way to do that is to get rid of the income tax on military retirement benefits.
+Our military installations are so important to our state, and we want to keep our retired
+veterans here in Oklahoma. It’s a commonsense way to support those who defend our
+freedoms.
+Let’s get it done.
+The fourth, and final, checkpoint on the road to Top Ten is delivering taxpayers more for their
+money.
+Full text version
+11
+This requires strategic investments in modernizing government agencies, transparency, building
+our savings account, and infrastructure.
+Oklahomans hired me as Governor because they wanted their government to run more like a
+business.
+From day one, I’ve challenged my agency heads to deliver taxpayers more for their money.
+We’re doing it by making agencies more effective and responsive to our citizens, not by growing
+government.
+We have 2,000 fewer state employees than just a few years ago, and we’ve invested into
+technology to provide better results.
+In May, we’ll launch a unified, cutting-edge human resources system for all state agencies for
+the first time in history.
+In the past year, too many Oklahomans had to wait too long to get a driver’s license.
+Basic services that should have taken a few minutes were taking days or even months.
+This is unacceptable. We can’t let it happen again.
+That’s why I’m calling for the Legislature to partner with me to make it easier than ever for
+Oklahomans to interact with state government.
+Let’s start with drivers’ licenses and vehicle registration, because that’s something we can all
+agree needs to be fixed.
+There’s not a business in the world that measures success based on how much it spends.
+Government should be no different.
+I want to thank this Legislature for its commitment to transparency, especially in education.
+Last year, I worked with 22 state lawmakers to request the first-ever comprehensive audit of
+the Oklahoma State Department of Education, because tax dollars belong in the classrooms,
+not in the pockets of bureaucrats!
+There are no rubber stamps and blank checks on my watch.
+That’s why we’re launching a new budgeting process for our agencies. It’s called Transparent
+Oklahoma Performance. You can track our progress online at top.ok.gov.
+I will keep shining a light to protect the taxpayers and hold our government accountable!
+I want to also applaud the Legislature for prioritizing saving over spending. Today, we have the
+largest savings account in state history at over $2 billion!
+This year, I’m asking the Legislature to raise the cap on our savings account to continue
+protecting our future. 
+Full text version
+12
+This would give us financial security and the ability to make strategic investments like never
+before.
+One of the ways we can make a generational impact is by investing in infrastructure. Secretary
+of Transportation Tim Gatz has taken this challenge head on.
+Across the state, we’re improving pavement and safety on urban and rural highways. We’ve
+made it to Top Ten in bridges. A major project at I-235 and I-44 in Oklahoma City is almost
+finished.
+We’ve made great progress, but more can be done.
+The future of our economy will depend on having a modern highway system that manages
+congestion and has reliable travel times.
+Let’s be bold.
+I’m calling to invest $13 billion in transportation over the next 10 years.
+This will let us close the loops around Oklahoma City and Tulsa. We’ll widen the Turner to 6
+lanes the entire way. We’ll expand the Will Rogers in Northeast Oklahoma and parts of the
+Kilpatrick in Oklahoma City.
+We’re also adding more access points for communities along our system. This will make travel
+easier and lead to more economic development across the state.
+Here’s an example: the Kickapoo Turnpike has been open east of Oklahoma City for a year now.
+It’s created an economic explosion for the city of Harrah. In the last year, more than 2,200 new
+homes have started construction. Harrah’s first hotel opened in November, and the city
+estimates its population will almost double in three or four years.
+We have an opportunity to bring that kind of growth to more cities across our state.
+We’ll announce more details – including drone corridors and emerging mobility -- later this
+month. This is our moment to make Oklahoma’s transportation system the best in the nation!
+Infrastructure is not the only place we can make a generational impact. The opportunities this
+year are endless.
+Will we prioritize special interests or the people we serve? Will we prioritize the next
+generation or the next election?
+Now is the time for big, bold decisions. Let’s leave a legacy for generations.
+As I begin the final year of my first term as governor, let’s look back at the progress we’ve
+made.
+When my administration took office, Oklahoma was coming off two years of revenue failures.
+Full text version
+13
+We had almost no money in savings, which meant budget cuts were an annual challenge.
+State agencies reported to unelected bureaucrats, and they weren’t being held accountable.
+It was so out of control that the Department of Corrections wanted a billion dollar budget
+increase!
+Our state was reeling from a teacher walkout.
+And on a personal level, I felt our state lacked the confidence and pride I saw in other parts of
+the country.
+Because of our great work together, Oklahoma’s turnaround is well underway.
+Our fiscal house is in order.
+We’re coming off a year where we made record investments in education while still cutting
+taxes.
+We’re fourth in the nation in budget reserves.
+Our state’s credit rating has gone up.
+We’ve held state agencies accountable by putting the right leaders in place and aligning them
+with a common vision.
+Oklahomans have a renewed sense of pride in our state and our way of life.
+Thousands of people across the country have said, “sign me up!”
+But to get to Top Ten, we can’t be satisfied with the status quo.
+Jim Collins wrote in his book Good to Great, “good is the enemy of great.”
+Will Rogers put it another way: “the road to success is dotted with many tempting parking
+spaces.”
+Oklahoma has all the bones and the capabilities to be the greatest state in the nation, and
+we’ve come too far to settle for anything less than our best.
+We must never lose sight of the fact that Oklahomans elected us as leaders. They sent us here
+to protect their rights and to make sure everyone in our state has equal opportunity to succeed.
+Just because your life is fine, or your school is great, or your business is thriving, doesn’t mean
+we don’t have an obligation to make sure everyone has that same chance.
+We’re all here because we have a higher calling to do what’s right, not what’s easy.
+I truly believe Oklahoma can be, and will be, a Top Ten state.
+Let’s work together, and let’s get it done.
+Full text version
+14
+I’m so proud to be an American, but I thank God every day that I’m an Oklahoman!
+God bless you.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Good afternoon, and thank you for joining me today.
+Thank you Senate President Courtney, after more than 40 years of public service, your imprint
+on Oregon will not be forgotten. Congratulations to new House Speaker Dan Rayfield, and a
+warm welcome to all of our new legislators — you are in for quite a ride.
+It is my incredible honor to, one last time, follow our tradition of addressing Oregonians at the
+start of the legislative session, and lay out the critical issues facing our state and how we are
+working to address them.
+I stand here today at a pivotal moment for Oregon. Since I took office seven years ago, the
+world has fundamentally changed. Oregon has undoubtedly faced some of the most challenging
+times in our state’s history: the beginning of a global pandemic. Wildfire seasons that have
+increased in intensity, with devastating impacts to match. Historic floods, ice storms and heat
+waves brought on by a worsening climate crisis. And divisions that have deepened across our
+country in ways we have never experienced before.
+Despite these difficult times, Oregon has also fundamentally changed for the better. We have
+accomplished some incredible work over the past few years. We’ve shaken up the status quo.
+Oregonians — more than ever — have come together to weather these storms, and our state is
+better for it.
+Our economy is stronger than it was before the pandemic.
+Family incomes are on the rise.
+The unemployment rate is near record lows.
+And as we continue to recover from the pandemic, together, we are building a just and equitable
+Oregon.
+Collaboration, a deep love for Oregon, and our collective determination to continue making our
+state a better place for everyone have led to our successes every step of the way.
+Just a few months ago, I sat in a conference room with representatives from Oregon’s timber
+and environmental industries. These two groups could not be more opposed. For fifty years,
+they have been challenging one another with ballot initiatives and fights in the Legislature. The
+“Timber Wars” of Oregon are not an urban legend; they were real.
+The meetings I convened in October were the product of more than two years of work to chart a
+collaborative path toward meaningful, science-based forest management.
+I remember showing up for that final week of negotiations thinking that my team, as the
+facilitators to these conversations, had pushed the discussions to the limits. Even at 10:30 on
+that Friday night, I honestly wasn’t sure if everybody would be driving home empty handed.
+Sure enough, in the early hours of the morning, these Oregonians came together and reached
+an agreement. As one of them said, “There’s no reason to fight forever on these issues.” That
+doesn’t serve anyone.
+The result? A historic agreement to update the Forest Practices Act that will ensure Oregon
+continues to have healthy forests, fish and wildlife, as well as economic growth for our forest
+industry and rural communities. Issues of paramount importance to all of us who call Oregon
+home.
+It is the perfect example of the “Oregon Way” — coming together and finding common ground.
+Innovating to build resilience. All in service to the state we love.
+Over and over, I’ve seen the power of collaboration and innovation during my time as Governor.
+• We increased the graduation rates for Oregon kids by 8%, and while it took almost 30
+years, we finally invested in our education system. The Student Success Act is making
+targeted investments in K-12 schools, with the goal of helping our kids graduate from
+high school with a plan for their future and the tools to compete in a global economy.
+• And to invest in an education system that truly serves Oregon children from cradle to
+career, we expanded early learning programs as well, so that more rural families,
+families of color, and those with low incomes would have access to Pre-K in the critical
+early years of brain development.
+• We have reduced the number of children in foster care by 11% to just over 5,000 kids —
+our lowest number in 16 years — by investing dollars to connect families with resources
+earlier and more effectively.
+• In 2001, then-Senator Bev Clarno and I co-sponsored Senate Bill 770, which codified
+our government-to-government relationships with the nine federally recognized
+Tribes. As Governor, I’ve worked with tribal leaders to strengthen these relationships, so
+Oregonians can continue to learn from the people who have inhabited this special place
+since time immemorial.
+• We passed the state’s largest transportation package, making a 10-year investment in
+Oregon’s roads, rail, bridges and ports.
+• Now, more than 95% of Oregonians and 100% of our children have access to health
+care coverage. And because of our state’s commitment to equity, we continued
+coverage during the pandemic to ensure access to quality health care during a time
+when people needed it most.
+• We also led the nation by passing the most comprehensive reproductive health
+legislation in the country, expanding access to reproductive health services for all
+Oregonians.
+• During an era when state after state is rolling back voting rights, we were the first in the
+nation to pass our automatic voter registration bill, serving as a model of voter access for
+the country.
+And yet, we had no idea how important collaboration and innovation would be until COVID-19
+changed everything.
+We have over 5,000 COVID infections and more than 1,000 people with COVID in our hospitals
+today — this is the impact in Oregon of the Omicron wave that has swept the world. And while
+this is indeed one of our more difficult chapters of the pandemic, Oregon continues to
+prevail. From its onset, managing the pandemic has required aggressive and decisive actions
+to preserve the health and safety of our communities. And Oregonians stepped up for each
+other to truly make a difference. Thank you.
+I’m so pleased to see the “Oregon Way” with the Legislature as well. I called five special
+sessions since the pandemic hit to address critical issues like providing assistance for our
+businesses, balancing the state budget, and getting urgent rent relief out the door for families in
+need.
+Quite frankly, because of our work together, Oregon has fared better than most.
+• We remain third in the nation for lowest cumulative case counts. If our response to
+COVID matched that of the average state, more than 4,000 Oregonians wouldn’t be with
+us today.
+• We continue to be among the top states for getting shots in arms and administering
+boosters.
+• And all three branches of government came together to get money to renters in need. In
+less than a year, we have helped more than 90,000 Oregonians stay safely in their
+homes.
+That’s not to say it hasn’t been hard. It has been utterly heartbreaking at times. We’ve buried
+friends and family. Our kids have suffered through remote learning. Our home grown small
+businesses, which are the heart and soul of Oregon’s economy, navigated challenges unlike
+ever before. We’ve missed precious moments visiting with grandparents and other vulnerable
+loved ones.
+However, even with all we’ve lost, we can see a path forward.
+We have an opportunity before us. Our economy is strong, and we must keep it humming. Most
+importantly, we have to make sure that every Oregonian feels it.
+While our unemployment rate is nearly as low as it was before the pandemic, too many
+Oregonians have struggled to find good paying careers. Employers are having difficulty hiring.
+There are glimmers of hope, like higher wages for those hardest hit by COVID. But, we also
+know that more and more workers are dissatisfied with their jobs, and too many are facing
+burnout.
+In order to make transformational change in our state, we need to lift up the communities that
+have been left behind.
+And let’s be honest, the families who have faced discrimination and barriers to economic
+opportunity for generations. Simply due to who they are, where they live, or the color of their
+skin.
+In my last year as Governor, I view every day, every moment, as one more opportunity to focus
+on the big and bold work we still have to do. For Oregon’s working families.
+I am dedicated to building a strong workforce for Oregon.
+I will bolster that workforce by providing access to child care so that parents can go to work
+knowing their kids are cared for.
+And I will marshal my colleagues to once again make a significant investment in affordable
+housing.
+These three investments work together to ensure every working family can thrive.
+As always, my eyes are set on giving our children a future that is brighter than the one we
+inherited from our parents.
+And, it is not lost upon me that we also have a unique moment, right now, to leverage record
+resources and funding to achieve this vision.
+Let’s get this done.
+Building a strong future for our kids and working families means removing the roadblocks that
+prevent them from reaching their full potential, and putting the pieces in place to build fulfilling
+careers.
+High wage careers — not just “jobs.”
+Every single employer I talk to is having a hard time hiring the workers they need. You can
+literally see and hear this — with “now hiring” signs hanging in store windows, and stories of
+interviews conducted on the spot.
+In the spring of 2020, I launched my Racial Justice Council to center our work in the voices of
+those most impacted by systemic and institutional racism. What became very clear was that an
+underlying theme touched every single issue the RJC focused on: our workforce system was
+broken. Even today, in the middle of Oregon’s strong economic recovery, the doors of
+opportunity remain closed for too many families––particularly Black, Indigenous, Latino, Latina,
+Latinx, Asian, Pacific Islander, Tribal and people of color; people with low incomes; and those
+living in rural communities.
+But the truth is, herein lies an opportunity: to connect Oregon’s people to Oregon’s jobs.
+So, I directed my team to work with the Racial Justice Council, as well as business leaders and
+workers, to develop a comprehensive package that would seize this moment and open up
+pathways to a workforce of the future; one that reflects the face of Oregon and meets the needs
+of our communities, businesses and industries.
+Future Ready Oregon is a $200 million package that invests in job training with a focus on three
+key industries in need of skilled workers: health care, tech and manufacturing, and
+construction.
+However, we must do more than give people particular job skills. At the heart of Future Ready
+Oregon is the idea of “earn and learn.” We need to help Oregonians create a career ladder. We
+need to take an entry-level job, like a Certified Nursing Assistant, and provide the skills to
+advance to careers in paramedicine, nursing, or health care administration. That’s turning a job
+into a career.
+Future Ready Oregon will help people like Ada (ah-da), who was born and raised in Astoria.
+Ada loves the water, loves working on Oregon’s beautiful coast, and plans to become a
+maritime engineer, helping build ships.
+Growing up, Ada’s household was just her and her mom. When her mother was forced out of
+work due to an injury, Ada needed to start working to support their household. Picking up night
+shifts at a local cannery, she struggled to balance her high school and trade work — all while
+working hard to make rent and pay the bills. She often got little-to-no sleep, and she found
+herself with almost no time to complete her homework. So Ada went to the GED program
+advisors at Clatsop Community College and explained her situation.
+They connected her with Oregon’s Youth Development Division and NW Oregon Works, and
+with their support, she was able to both earn her GED, and learn new skills in her trade, all while
+gaining access to rent assistance and a computer to complete her school work.
+Earning that GED set Ada on the course to achieving her dreams. She is now a student in a
+Seamanship Program, learning the skills needed to truly take her career to the next level as a
+maritime engineer.
+In Ada’s own words: “Being a first generation student, daughter of an immigrant mother, the
+hope I was given was extremely appreciated.”
+The building blocks of Future Ready Oregon can be summarized in three key investments:
+First, we will surge an immediate $92 million to the programs we know are currently working —
+like Constructing Hope, which helps Oregonians get back on their feet with no-cost construction
+training and career advancement support.
+Second, we will drive innovation through flexible grants to community-based organizations that
+uniquely target the industries I just mentioned. Like OCHIN, who is providing technology training
+for people in their own communities with a goal of placing them in good-paying jobs in health
+care. Centered in equity, this program meets people where they’re at, whether you are a single
+parent, veteran, or a person living with a disability. This is a win-win.
+And last, we know Oregonians cannot be successful and productive in our economy without
+meeting their basic needs, like stable housing and child care. We will be launching navigators
+across the state to make sure Oregonians in our job training programs have what they need to
+succeed. That could mean financial help with school tuition. It could mean providing software
+programs to help someone complete their coursework. It could be assistance with transportation
+or housing. We are asking Oregonians: What do you need to stay on your career path and land
+that good-paying job? We will help.
+Done right, Future Ready Oregon will set us on a course to greater prosperity and equity for all.
+One thing we know people need in order to get back to work is consistent and accessible child
+care. Child care is a basic necessity –– it is just as critical to our economic recovery as
+infrastructure. For working parents, child care is infrastructure. That’s why, alongside Future
+Ready Oregon, I’m working with the Legislature to pass a $100 million investment that will
+expand child care access to serve more families, and provide professional learning
+opportunities and higher compensation to develop and retain our providers. I will also continue
+to advocate for additional federal investments in our youngest, so we can ensure that every
+family has access and every single child has care.
+Even with these investments, we also know one of the greatest barriers to showing up to work,
+or sending your kids to school, is dealing with the impacts of houselessness. It is a vicious cycle
+that must end — one that requires good paying jobs and affordable housing.
+You can see the housing crisis everywhere in Oregon — from Coos Bay to Ontario and back
+again.
+Since 2000, single family home prices have tripled in Portland. Rent in Portland has gone up
+25% in the last five years alone. But this is not just a Portland issue. Statewide, nearly half of all
+renters pay more than a third of their income to rent.
+With supply not keeping up with demand, the home-buying market has become a feeding frenzy
+of cash offers and bidding wars well above asking price. Would-be first time homeowners are
+priced out of homeownership, putting more pressure on rentals. In downtown Portland, million-
+dollar condos rise on the same city blocks where people huddle over open fires to stay warm.
+There is no avoiding the fact that these two issues are undeniably linked –– a lack of affordable
+housing and some of the highest rates of people experiencing homelessness. In Oregon, today,
+missing one paycheck can be the difference between going to bed in a home with heat and
+running water, or sleeping unsheltered.
+We have invested more in affordable housing, homelessness prevention, and rental assistance
+in my tenure as Governor than any other administration. With our local partners, we paid out
+more than $400 million in rental assistance last year alone to keep more than 36,000 families
+housed. We have approached unprecedented challenges with innovative solutions –– like
+Project Turnkey, a collaborative effort to turn hotels into safe shelter space.
+And yet, as we can all see, it is still just a drop in the bucket. We know that on any given night
+more than 15,000 people remain without a home in Oregon –– and more than half of them are
+living unsheltered. In every tent you see –– in a city park, under a highway overpass, along a
+river –– is a person — a person who deserves a warm, safe, dry place to call home.
+I will level with you: Housing affordability and homelessness are not issues we can solve
+overnight. This crisis has been decades in the making, and in the last two years it has only
+worsened due to the pandemic and natural disasters. Thankfully, we have strong partnerships
+with local governments and a broad range of community-based organizations to implement
+solutions we know can help.
+And with the resources we currently have available at the state and local level, we have an
+opportunity to make a real difference.
+There’s an old saying in politics: Don’t tell me what your values are. Show me your budget, and
+I’ll tell you what your values are.
+This session, I am asking the Legislature to join me in supporting an additional $400 million
+investment in affordable housing.
+Because we have so much more work left to do.
+Let me tell you about one person who is doing the work: Misti. A few years ago, Misti left an
+unsafe home in Klamath Falls, so that her three teenage boys could grow up in a safer
+environment.
+At the same time, she was struck with severe medical issues, undergoing several major
+surgeries that left her unable to work.
+Unfortunately, Misti lost her apartment, and bounced from one place to the next. Time and
+again, she ran into bureaucratic barriers and people who didn’t understand the trauma she had
+experienced. Even while homeless, she kept her kids in school, and eventually connected with a
+community action agency and caseworker. One step at a time, she found a home, took classes,
+got her GED. Today, she is a case manager helping veterans, wildfire survivors, and others
+experiencing homelessness in Klamath and Lake Counties.
+As we make investments in housing and services to prevent homelessness, we’re investing in
+people like Misti. From her own experience of homelessness, to helping other people back into
+homes of their own.
+Addressing this crisis is not just about investing resources. It’s about fixing a system that has
+been rigged against working families, particularly families of color. We must keep our eyes fixed
+on the deep racial disparities in housing stability and homeownership caused by decades ––
+centuries –– of racism in housing policies in this country.
+And, we must address the intersection of housing and health needs. Expanding access to
+behavioral health services and substance use disorder prevention, treatment, and recovery is
+critical. I will continue to partner with the Legislature to finalize significant investments in
+behavioral health this year.
+This, all of this, is the work we must carry forward, in my last year, and under the next
+administration. And we must continue to act with urgency.
+If the housing crisis is the most pressing issue in our communities today, then climate change is
+the crisis that threatens our very way of life — today, tomorrow, and for generations to come. As
+leaders, we are charged with leaving our children a better world than the one we inherited.
+If we are truly honest with ourselves, that is not the trajectory we find our planet on right now. If
+you’ve sat down recently with young climate leaders, like I have, they will tell you so to your
+face.
+Every year I have been Governor we have seen more extreme weather than the last. We have
+experienced unprecedented devastation, from historic drought, to expansive flooding, to a
+deadly heat dome and massive power outages from winter storms. And the effects of every one
+of these extreme weather events were felt across the Oregon landscape. Climate change is a
+hammer hitting us in the head.
+Over the past two years, we’ve invested hundreds of millions of dollars and called upon
+Oregonians to help one another prepare for, respond to, and recover from climate-related
+disasters. Thank you to our National Guard, local police, and fire teams who helped evacuate
+people during emergencies, and our first responders for stepping up. We are grateful that you
+all answered our call for help, but I wish you didn’t have to.
+We must act now, decisively, to lower carbon emissions, transition to clean energy sources, and
+ensure a just transition for our historically-underserved communities.
+Because I’ve seen firsthand how climate change directly impacts our people, our family
+businesses, and Oregon’s iconic produce.
+I am proud of the progress Oregon has made since I became Governor.
+We have led the nation in proving it is possible to address climate change and grow our
+economy, at the same time.
+In 2020, Oregon closed our last coal power plant — decades ahead of schedule. We have
+created a comprehensive approach to tackling the climate crisis that can serve as a model for
+others around the globe. We have set targets to reduce our carbon emissions. We’ve
+established one of the most aggressive timelines in the nation for transitioning to 100% clean
+energy sources. And we have expanded rebates and access for electric vehicles and
+infrastructure.
+What I’m most proud of is how Oregon approaches these challenges––through an equity lens.
+With a focus on our communities hardest hit by climate change: rural communities, people with
+low incomes, and people of color.
+We’ve come together before to make investments like the ones I just outlined. And those
+investments are a big part of the reason that Oregon was able to weather the last two years of
+turmoil better than most of the country. No one needs any proof that investments like these
+work. We just need the will to put our differences aside and focus on that which is greater than
+ourselves — and greater than our political aspirations. For the success of our state and
+everyone living in it.
+As I enter my last year as Governor, I still have moments where it feels surreal to have sat in
+this office and guided our state through a global pandemic. While COVID-19 may have defined
+these times, it doesn’t need to define our lives.
+Oregonians have worked together to prevent the worst impacts of this virus. Now, we must
+transition from a rolling crisis into a sustainable posture that supports our workers, businesses,
+and health care industry.
+I have always believed that it is the Governor’s job — and government’s role — to serve every
+Oregonian, no matter who they are, where they come from, or how they vote. That is our job as
+public servants.
+As leaders, we’re charged with leaving the world a better place than we’ve inherited. As adults,
+we strive to pass the torch to our kids so they can succeed as the next generation on a higher
+plane of life.
+These will not be the last challenges our state faces, but I sure hope those that follow can learn
+from how we navigated them.
+To all the future Governors of our state. To the elected leaders who will come next. To our
+future business and community leaders, and youth who will follow our footsteps. Let me leave
+you with this: find the opportunity, even in times of crisis. Especially, in times of crisis.
+That’s how we continue on this journey of transformational change for Oregon. That’s how we
+pursue justice. That’s how we heal divides and collaborate in ways that serve our state. That’s
+how we honor this beautiful place we call home.</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Today, Governor Tom Wolf delivered the following speech to the General Assembly:
+Speaker Cutler, President Corman. . .
+Lieutenant Governor Fetterman. . .
+Leader Ward, Leader Costa, Leader Benninghoff, Leader McClinton. . .
+Members of the General Assembly, invited guests, friends, family—especially my wife, Frances—and my fellow Pennsylvanians:
+Seven years ago, I stood here to deliver my first budget address as Governor.
+I tried to strike a hopeful tone. But the truth was, we were in rough shape. The Commonwealth was failing to deliver on the fundamental promise of opportunity to all citizens.
+The list of challenges was long. We weren’t funding our schools adequately or fairly. We were ranked near the very bottom of the country in job creation. Too many Pennsylvanians were going without health insurance. Too many were incarcerated in our state correctional institutions.
+And we were in no financial condition to do much of anything about any of it.
+As I took the podium that day, we were facing a structural budget deficit of between $2-3 billion. We had become one of the least creditworthy states in the nation. We couldn’t even pay our annual pension bill.
+And our Rainy Day Fund was down to its last $231,800. If you do the math, that’s about 20 minutes’ worth of the Commonwealth’s annual operating budget.
+In other words, our finances were a mess. And there was no speech that I, or anyone else, could have given that day that would change that reality.
+So all I asked was that we try something different. We needed to acknowledge the failure of the approach Harrisburg had long taken in the face of these challenges, and try to forge a new path forward.
+It didn’t happen overnight. In fact, our journey began with a nine-month budget impasse that only reinforced Pennsylvanians’ skepticism about our ability to get anything done. In the years since, there’s certainly been plenty of wrangling, arguing, negotiating, and plain old yelling in the halls of our Capitol.
+But we stuck it out, Democrats and Republicans. We didn’t give up on each other. We didn’t give up on Pennsylvania.
+And now look how far we’ve come.
+Over the last seven years, we’ve invested nearly $2 billion into our classrooms: investments in early childhood education, investments in pre-K, investments in K-12 education. We even came together to create a bi-partisan public school Fair Funding Formula.
+We’ve driven Pennsylvania’s uninsured rate to the lowest level ever.
+We’ve cut our prison population by 11,000 at the same time we cut the crime rate.
+We’ve reduced our carbon footprint and paved the way for a transition to a sustainable energy future.
+We’ve reformed our pension system.
+And so much more.
+Hey, we can even buy beer and wine where we buy our groceries.
+I’m proud of what we’ve accomplished together. But I also know that we still face significant challenges. If you’re a Pennsylvanian worried about how you’re going to support your family. . .
+. . . or if you don’t know how you’re going to pay for your kid’s college education. . .
+. . . or if you’re struggling to keep up with the rising costs of everything from groceries to health care. . .
+. . . you don’t want to hear about how far we’ve come over the last seven years. You want to know what we’re going to do next.
+So let’s take advantage of the opportunity before us.
+—
+Indeed, these are days of opportunity for our Commonwealth.
+That’s because, at long last, our fiscal house is in order. Over the past seven years, we’ve turned that $2-3 billion structural budget deficit into a $2-3 billion budget surplus. We’ve built our Rainy Day Fund to more than $2.8 billion—more than 12,000 times what it was when I took office. That’s the highest it’s ever been.
+We are no longer digging out of a hole. We’re ready to build. And this year’s budget does exactly that, making new investments that will build a brighter future for Pennsylvania families.
+But let’s take a moment to be clear about how we got here. We did not achieve our sound financial position by raising taxes. In fact, we eliminated the Capital Stock and Franchise Tax entirely.
+No: We got here by paying our bills.
+And when I say that, I’m not just talking about fiscal responsibility. I’m talking about taking personal responsibility for addressing our challenges instead of passing them off to someone else.
+I’ll give you an example. For years, we used all sorts of creative ways to avoid fully paying our pension bill—remember “collars”? But we were merely postponing the inevitable, and, in the process, raising the ultimate cost of fulfilling our obligations.
+It didn’t happen overnight, but we finally took responsibility. Democrats and Republicans came together and decided that we were going to start paying our bill in full, even if that meant overhauling our system to bring it into line with reasonable employee retirement expectations.
+For all the innovative policies we’ve introduced and debated here in Harrisburg over the last seven years, the most radical thing we’ve done is simply live up to our commitments.
+—
+But there’s still one big commitment left unfulfilled.
+The Fair Funding Formula was created by a bi-partisan commission chaired by two Republican legislators, and it represents a long-overdue step towards achieving equal opportunity in our Commonwealth. It promises that a child’s chance to thrive will not be determined by their zip code.
+Now it’s time to keep that promise.
+This is one of those cans it would be easy to kick down the road. We could make it someone else’s problem, leave it for another governor and another legislature to figure out.
+But we know better. We know that putting off the inevitable is not a victimless crime. The truth is, the longer we go without paying this bill, the more it will wind up costing us.
+Refusing to fund education equitably does not save us money. It just means we wind up spending more on social services, remedial programs, even prisons. And that calculation doesn’t even take into account the opportunity costs of failing to invest in our kids: the skills our workforce doesn’t develop, the products and services that never become reality, the business growth and tax revenues that vanish.
+We’re going to have to pay this bill eventually. And there’s never been a better time to take a giant step forward than right now.
+We can afford to invest a whole lot more in the fair funding formula without raising one penny in state taxes. And we can afford to do it without asking any school district, anywhere in Pennsylvania, to sacrifice one penny in state funding.
+Let’s not waste this opportunity. Let’s not force our successors in public office—not to mention our kids and grandkids—to pay the price for our failure to act.
+Last year, we made a historic investment in our schools. This year, we have an opportunity to build on that momentum and make a generational difference for students all across the commonwealth.
+—
+Speaking of paying our bills, we should also make this the year we make it a little easier for Pennsylvania families to pay theirs.
+Most states across the nation have a higher minimum wage than Pennsylvania.
+In fact, on January 1 this year, minimum wage workers in our neighboring states of Ohio, Delaware, Maryland, New Jersey, and New York all got a raise. Most of the states in our region are on their way to a $15 minimum wage.
+Not here. Pennsylvania’s minimum wage is still stuck at $7.25. Pennsylvanians haven’t gotten a raise in thirteen years. Adjusted for inflation, they’ve actually taken a $2 an hour pay cut.
+We are literally surrounded by states that are giving minimum wage workers a better deal.
+This is embarrassing. And just like school funding, refusing to address the problem won’t make it go away.
+In fact, quite the opposite. Our failure to increase the minimum wage is costing us dearly. It’s very simple. When people are able to earn a decent wage, they can contribute to the economic life of their communities – and the commonwealth. On the other hand, when they work full time but still don’t earn enough to pay for bare necessities like food, shelter, clothing, and heat, taxpayers wind up footing the bill.
+This is not complicated. And it isn’t abstract, either. If we adopted, for example, Senator Tartaglione and Representative Kim’s plan to raise our minimum wage, the economic benefit to our commonwealth would amount to over $77 million in the first year. That includes not only increased revenues, but also savings from state benefits programs – because when more Pennsylvanians get paid fairly, reliance on public benefits goes down.
+It’s time to do the right thing. It’s time to do the smart thing. It’s time to raise our minimum wage.
+—
+The truth is, the experience we’ve had here in Harrisburg over the last seven years—digging out of a massive financial hole—is familiar to a whole lot of Pennsylvanians. In recent years, we’ve faced a once-in-a-lifetime financial crisis and a once-in-a-century pandemic. Working people have been dealt some really tough cards.
+We’ve weathered those storms relatively well. We’re going to be okay.
+But when it comes to their families’ economic futures, we cannot ask Pennsylvanians to settle for just “okay.” Now that we’re out of the hole, it’s time to start building something better.
+And we’re in a position to help families in our Commonwealth do just that.
+In fact, we owe it to them. Because they have carried us through these difficult times and laid the foundation for our Commonwealth’s comeback.
+Thanks to our workers and businesses, Pennsylvania’s economy is thriving. If we were our own independent nation, that nation would have the 18th-largest economy in the entire world.
+We’re strong in manufacturing, in natural resources, in human capital. We’ve seen explosive growth in traditional industries like tourism and agriculture, and in cutting-edge industries like robotics, life sciences, and petrochemicals.
+We didn’t get here by slashing taxes for corporations—in fact, I think our corporate tax rate is too high, and this year I’m once again calling for a reduction.
+No: We got here by investing in our people.
+For example: We have made our institutions of secondary and post-secondary education better and more relevant to the career needs of all Pennsylvanians by making major investments in STEM education, dual enrollment programs, and Career and Technical Education programs.
+We’ve also invested heavily in our Pennsylvania state universities, which are transforming themselves for a brighter future.
+These investments have allowed us to expand registered apprenticeship programs into new industries and expand these opportunities to more people. And we’ve been able to develop more educational and training offerings tailored to the specific needs of Pennsylvania businesses.
+Our budget surplus is not an excuse for a spending spree—but it is a chance to make more investments that can open the doors to opportunity for more Pennsylvania families.
+More investments in job training and small business assistance so people can find not just a job that pays, but a career they’re passionate about.
+More investments in clean energy and infrastructure so we can lay the foundation for another generation of economic success.
+More investments in health care so we can fight the opioid epidemic and improve mental health.
+We’re no longer near the bottom in job creation. But a job is just the beginning of what people need, what people want, what people should expect. We can do so much more for our people.
+And we can do it without raising taxes one penny.
+That is the opportunity we’ve earned. Now it’s time to seize it.
+—
+Paying our bills and investing in our people put us on the road to our Commonwealth’s comeback.
+And paying our bills and investing in our people will pave the way for many more days of opportunity ahead.
+What got us here will move us toward the future we want, the future Pennsylvanians deserve.
+But I want to suggest one more principle that will help us continue down the right path, a principle that applies not just to elected officials here in Harrisburg, but to every citizen watching or reading this speech, today or in the future.
+It’s about our brand of partisan politics.
+Now, I’m not naïve. And I know partisanship is a part of our jobs. It’s what democracy is all about. People disagree. People argue.  And then we move on with policies that have been made better by all that arguing and disagreeing.
+I know that, as soon as I’m done here, folks are going to run out into the hallway to take shots at the pieces of my budget they don’t like. And that’s okay. Because a lot of those same people have brought some really good ideas to the table, and some of those good ideas are already part of my proposal.
+I may not get everything I want in this budget. And that’s okay too. Because there’s nothing we can’t get done if we stick with it and refuse to get discouraged.
+In our political system, the future belongs to the coalition-builders and the consensus-seekers. Those who understand our true impact can only be measured by the work we actually get done and the people whose lives we actually improve.
+That’s a good thing. Those are the people you want in charge.
+But: What we’re seeing happen in the country right now—that’s something different. A significant number of our political leaders are turning against the very idea of democracy itself. And that kind of nihilism is poisonous. It denies the whole idea of civil disagreement. It denies the whole idea that we can eventually find common ground without force. It denies that democracy can ultimately bring us to a better place.
+After all, we can choose to be cooperative or we can choose to be intransigent, but when we walk away from the very idea of democratic governance, we wind up somewhere we can’t come back from. We lose the only mechanism we have for resolving our disagreements fairly, or even peacefully. And without it, we become irrevocably fragmented, a nation where we have no responsibility to work alongside our neighbor, just an incentive to gain and wield power at any cost.
+This is the last opportunity for this group to convince Pennsylvanians that we can work together to do some truly important things for the people we were sent here to serve. We have a chance here in Pennsylvania to make a substantial contribution to our democracy.
+Let’s remind the world that democracy works. And let’s do that with this budget.
+By all means, let’s argue over it. But in the end, let’s roll out an on-time budget that continues on the path we’ve traveled for the last seven years. Let’s agree on a budget that continues to make Pennsylvania better for the people who live and work here. Let’s remind the world that a democracy can, in fact, deliver.
+This is important, because I know we all love this commonwealth.
+I can’t tell you what a gift it’s been to be able to serve for two terms as Governor. Not every day has been easy, but every day has been rewarding. It has been a privilege to do this noble work—the greatest privilege of my life.
+I’m so, so grateful.
+I’m grateful to my Cabinet and my staff, who have worked so hard and committed so much of their lives to this work.
+I’m grateful to the people who work here in Harrisburg—not just the legislators and their staffs, but the people who keep this building going and the people who keep us safe.
+And while I’m at it, I want to say a special thank-you to all the employees of the Commonwealth all across the state who typically receive too much blame when things go wrong and get too little credit when things go right.
+From the day I took office, I’ve been impressed by the dedication and selflessness of our state employees. And I’ve worked to make sure we do a better job of rewarding them for their hard work.
+Over the last seven years, I’ve implemented changes to make the Commonwealth a premier employer, with benefits and policies to support workers that keep up with changes in the private sector. We’ve raised the minimum wage for state workers, implemented a telework policy that has increased productivity, established paid parental leave, and modernized the hiring process—and this year’s budget includes funding for two new child care options to help them balance career and family.
+We’ve taken big steps towards making Pennsylvania a model employer for one simple reason: we are blessed to have model employees.
+I also want to thank my family, who have been my source of strength and wisdom and joy. This has been their service, too, and it’s been lengthy and hard—I have grandkids now that I didn’t have when I was first sworn in, and I can’t wait to spend more time with them.
+I’m especially excited to spend more time with Frances. And I think it says something about how lucky I am that, after 47 years of marriage, we’re hoping to spend more time together in the years ahead.
+Frances didn’t sign up for this. When I proposed to her in that subway station all those years ago to ask her to marry me, I didn’t know our journey would lead to public office. But she’s not only come along on this journey with me, she’s encouraged me every step of the way, and made me a better public servant and a better person every day.
+She is the love of my life. She is my best friend. She has been an incredible First Lady.
+—
+Finally, I’m grateful to the people of Pennsylvania, for entrusting me with their families’ future.
+I offer this last budget proposal more confident in their future than I have ever been, and more excited than I have ever been to help build it.
+Thank you.</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Mister Speaker, Mister President, distinguished members of the Assembly, our General Officers, members of the Judiciary, municipal leaders, and members of my cabinet – good evening.
+Tonight, I want to speak directly with the people of Rhode Island.
+This COVID-19 pandemic has been part of our lives for nearly two years now. It’s what we talk about at our kitchen tables over breakfast in the morning, and again over dinner at night. It gets brought up in nearly every conversation we have throughout the day, and it’s a topic at nearly every special gathering we attend.
+It’s been stressful, and it’s been frustrating because we all want it to be over. I know that’s how Rhode Islanders are feeling right now – and I want you to know that when we’re sitting around our kitchen table, my family and I feel that way too. But I also want you to know that there is no question in my mind that we will get through this as we have for the past 21 months – together.
+Understanding that COVID-19 is still going to be the topic of conversation for a bit longer, we know that it’s time to also start looking to the future. We can’t fall behind.
+Tonight, I am here to lay out our Administration’s plan to build a stronger tomorrow – to increase per capita income for individuals and families across our state. This means increasing earning power for all Rhode Islanders. It means putting more money in your pocket and improving your quality of life for years to come. And the only way to do that is by building a stronger, more stable, and fairer economy while prioritizing public health decisions that keep us all safe.
+I'm a lifelong Rhode Islander. I was born here and met my wife Susan here. Rhode Island is where we raised our son and daughter and where I owned and operated small businesses in the Blackstone Valley. It is where I coached youth basketball and served as President of my hometown’s Boys and Girls Club. 
+I’ve seen where Little Rhody has been, and I know where it can go.
+Rhode Island already has so much to offer, and at the same time, has so much more potential not yet tapped. We have a once-in-a-lifetime chance to strengthen Rhode Island’s economic recovery and propel our state into the next decade with strength.
+In 2021, Rhode Island received $1.1 billion in economic stimulus funds from Washington, D.C. These dollars belong to you and were delivered with the purpose of improving your life and your future. In 2022, that is exactly what we are committed to do – to continue investing these dollars responsibly to improve your life and your family’s future. 
+My Administration has worked hard to plan accordingly on your behalf. I have engaged with thousands of residents with the help of the Lt. Governor and members of my team through a process that we’ve called, Rhode Island 2030 – a series of community conversations that envision what Rhode Island can become as a result of the decisions that we make today.
+We have held public meetings across the state to hear directly from Rhode Islanders on what you thought the priorities and future plans for the state should be. Together, we have discussed the important topics of housing, small business, climate change, children and youth services, supporting seniors, higher education, and much more. The outcome was a working document outlining dozens of priorities for Rhode Island’s next decade. If you want to take a look at those priorities and share some of your own, visit RI2030.com. I want our state’s plan to be your plan, a plan for the future that charts the strategic path for what we need to do today to make a brighter tomorrow.
+Now, tonight’s State of the State is different than most years. But unlike last year, I am not speaking to an empty room. That's because we’re making progress and we’re doing what we need to do to keep Rhode Islanders safe.
+You’ve heard me mention once or twice that I’m a former mayor, and while I couldn’t have every municipal leader here tonight like we normally would, we have several here in the chamber with us. I want to thank them for their leadership in helping us get shots in arms and expand our testing capacity. We have a flag from every city and town here in the chamber representing the people of our 39 cities and towns, the people we serve.
+This once-in-a-generation public health crisis has taken more than 3,000 of our fellow Rhode Islanders – and we remember each and every one of them. The pandemic continues to challenge our health care systems, our schools, our small businesses and it has created significant staffing challenges across many industries. It continues to challenge our resolve, our patience, and our strength. But time and time again, Rhode Islanders have shown that we are persistent. And even when we are faced with historic challenges, we continue to live with purpose and hope.
+I want to give a special thank you to Dr. Nicole Alexander-Scott for her dedication and service to the State of Rhode Island. Thank you, doctor.
+Rhode Islanders should be proud of how far we’ve come together. We’re number two in the country for putting shots in arms. We are number one in the nation for tests per capita. Just two weeks ago, we did 175,000 tests, four times more per capita than Massachusetts.
+That’s because we’ve been able to respond and adapt quickly – just as we have over the last several weeks. I recently reassigned our Emergency Management Director Marc Pappas to lead our whole of government COVID-19 response with a focus on expanding testing and vaccinations. Thank you, Marc. Under General Callahan’s leadership, we reactivated the National Guard to assist with everything from testing, to vaccination, to hospital staffing. Thank you, General. Dr. Chan and Dr. McDonald and the staff at the Department of Health continue to step up and serve as important resources to our team. Thank you, doctors. Later this week, I will be announcing a committee of Rhode Island health professionals to lead the search for the interim and permanent director of the Department of Health.
+While there are still pandemic challenges facing our schools, our students are largely back in the classroom where we know they learn best. Our doctors, nurses and health care professionals continue to prove that they are the best in the country. Together, we will continue to make the best decisions possible for our families and loved ones to keep them safe.
+As a result of Rhode Islanders looking out for one another, our economy has seen progress too.
+Think back, during pandemic our unemployment rate was as high as 17 percent and we lost over 100,000 jobs. Our leisure and hospitality industries alone lost 37,000 jobs. But for the first time in recent memory, our state didn’t suffer its usual fate of first in and last out of the economic downturn. During the first 8 months of our Administration, Rhode Island had the 7th largest unemployment rate decline in the nation. While there are still pandemic workforce challenges, the number of jobs in our state has increased significantly. Key sectors of our economy like construction and manufacturing are even above pre-pandemic job levels.
+Because Rhode Islanders stepped up, we were able to have music in Newport last summer, WaterFire in Providence and Tunes on the Dunes in Westerly. Ours is the strongest economic recovery in the Northeast – the best in the region for once. We have a unique competitive opportunity, and we must keep going and take advantage of that.
+Rhode Island is in a different place today with this pandemic than we were a year ago – and that’s because we came together as one state – one team – all 39 cities and towns, and never lost hope. We’ve made this progress because of you. So, to each and every one of you, thank you. It’s because of you, Rhode Island, that I can stand here before you tonight with confidence and say that the state of our state is resilient and full of opportunity.
+We’ve been able to accomplish a lot this past legislative session and I’m especially thankful for my partnership with Speaker Shekarchi and Senate President Ruggerio. Among other key pieces of legislation that were passed, I’m grateful to the General Assembly for approving my RI Rebounds proposal. This provided $119 million in immediate relief and investments in our children, families, small businesses and affordable housing. These investments are down payments to strengthen our economic recovery.
+Besides making immediate investments to sustain our economic momentum, we also need to invest for the long-term.
+That’s why, later this week, I will submit my Administration’s budget – a budget that’s fiscally responsible with no broad-based tax increases – but at the same time proposes long-term investments to grow our economy and support our people. I'll also submit a spending proposal for investing the remainder of the State’s American Rescue Plan funds to launch Rhode Island into the next decade with strength. This is a big moment for us.
+I want to thank our Congressional Delegation – Senator Reed, Senator Whitehouse, Congressman Langevin and Congressman Cicilline – who fought to make sure Rhode Island got its fair share of American Rescue Plan dollars. We’re ready to take these funds, plus the funds from the Bipartisan Infrastructure Bill, and put them to work. Tomorrow, we’ll be announcing over 100 projects valued at $2.1 billion that we are able to speed up because of these federal infrastructure funds. This initiative will create safer roads, bridges and bike paths and will put many more tradesmen and women to work.
+For Rhode Island to be an attractive place to live, work, and raise a family, we must address the availability and quality of housing – that means everything from providing supports to those experiencing homelessness, to increasing affordable housing, to ensuring we build more workforce housing for our middle-class families. 
+Rhode Island has historically underinvested in housing. We are experiencing a housing shortage in part because too few units have been built over several years. In 2020, we built fewer units per capita than any other state in New England.
+Now, we have made some progress – last year, together with the General Assembly, we created a permanent funding stream for affordable housing and even created the state’s first deputy housing secretary position. But we can do more.
+Let’s come together again and allocate a quarter billion dollars to make a once in a generation investment in our state’s housing stock. 
+The proposal that I’ll send to the General Assembly will not only create and preserve thousands of units of housing, but it will also transform blighted properties, strengthen communities, and create good-paying construction jobs in the process. How can we expect our sons and daughters to stay in Rhode Island if they don’t have housing they can afford to live in?
+Did you know that homeownership is one of the most important ways to build generational wealth, yet Rhode Island has one of the lowest homeownership rates in the country, largely because families and individuals cannot afford the down payment? It’s time to change that. That’s why I will be sending the General Assembly a proposal for investing $50 million to provide down payment assistance to Rhode Island households who need it most.
+We also want our state to be the best place to grow up and raise a family, where young people want to build their futures. We know that when we support children and families, our entire state thrives.
+Together, we have made bold investments in early education, child care, Early Intervention, and pediatric care. Rhode Island is already a national leader in health insurance coverage, with 98 percent of our children accessing insurance. Yet we cannot make progress without providing access to all children that live in Rhode Island.
+That’s why I am proud to propose that we cover all kids in Medicaid – we’ve done it before, let’s do it again. Let’s also extend Medicaid coverage for new moms from 60 days after birth to 12 months. It's the right thing to do – let's get it done. In addition, for the first time in decades, let’s expand the income eligibility threshold for families to access the Child Care Assistance Program and let’s continue our investments in early education retention bonuses.
+The past two years have challenged every aspect of our education system, from pre-K through college, but I’m proud to say that Rhode Island has led the way in getting children back into the classroom safely. That’s thanks to the incredible hard work of our teachers, administrators, parents, nurses, school committees, maintenance staff, union leaders, and countless others who invested their time and energy into giving students the best education possible. I also want to recognize Commissioner Infante-Green and her team at RIDE for the work they have done.
+Despite these efforts, student’s academic growth continues to be impacted by the learning disruption created by the pandemic.
+We’re going to work with the General Assembly to make sure our schools get the funding they need. My budget fully funds the state’s K-12 school system at the funding formula level, which will increase state aid to school districts. We also want to ensure that any school district that would have experienced a cut in funding because of student enrollment decline, will not see that cut this year. We’ll also be continuing the commitment to a $250 million school construction bond with $50 million dedicated to crucial smaller projects like better heating and cooling equipment and safety upgrades.
+In total, my budget will propose over $430 million for the construction of education facilities – kindergarten through higher education – including funding for URI’s Narragansett Bay Campus and Rhode Island College’s Student Success Center. 
+We all know that the economy was changing well before the pandemic. A college degree or credential is a basic qualification for over 70 percent of jobs created since 2008. Although we have made great progress over the last decade, there’s more to do.
+Let’s launch Rhode Island’s first Higher Ed Academy, a statewide effort to meet Rhode Islanders where they are and provide access to education and training, that leads to a good-paying job. Through this initiative, which will be run by our Postsecondary Education Commissioner Shannon Gilkey, we expect to support over a thousand Rhode Islanders helping them gain the skills needed to be successful in obtaining a credential or degree.
+Having a strong, educated workforce is critical for a strong economy – and Rhode Island’s economy is built on small businesses. Small businesses employ over half of our workforce. As these businesses continue to recover from the pandemic – we know that challenges still persist. That’s why in the first several weeks of my Administration, I put millions of unspent CARES Act dollars that we received in 2020 into grants to help more than 3,600 small businesses stay afloat.
+My budget will call for key small business supports like more funding for small business grants, especially for severely impacted industries like tourism and hospitality. It will also increase grant funding for Rhode Island’s small farms.
+As our businesses deal with workforce challenges, I’ll also propose more funding to forgive student loan debt, especially for health care professionals, and $40 million to continue the Real Jobs Rhode Island program which has already helped thousands of Rhode Islanders get back to work.
+Now, there is no doubt that these grants will be a lifeline for our struggling small businesses, but we can do more to structurally improve our business climate overall. This year, in my budget request, we’ll be proposing a separate small business budget article with a plan to make a real difference.
+Here’s a few of our Small Business Article proposals: Let’s allow cities and town to exempt a portion of business property from the tangible tax. Let’s reduce the corporate minimum tax, a tax that impacts our smallest businesses the most. Let’s create a taxpayer steward within the Rhode Island Division of Taxation dedicated to helping individuals and small businesses navigate the taxation process. And let’s make alcohol to go permanent, an out of the box idea that allows restaurants and brewpubs to sell alcoholic beverages with take-out food.
+For far too long, minority entrepreneurs and minority-owned businesses have faced barriers in starting and growing businesses. They’ve had more hurdles to jump to get over that finish line. Let’s reduce those hurdles. I’m proposing a $10 million Minority Business Support Initiative to strengthen our minority business community and increase minority business ownership in the state.
+From Blackstone Valley to the East Bay, South County and beyond, all Rhode Islanders are entitled to clean air, food security, and sustainable communities. That is why my administration is stepping up efforts to combat climate change. Last year, I signed into law the Act on Climate, landmark legislation that establishes our promise for a better planet by requiring the state to achieve net-zero emissions by 2050. My proposed budget will include millions in funding for climate change-related investments, without impacting state general revenues. I’ll be rolling out several of these initiatives tomorrow.
+Rhode Island is a national leader in clean energy innovation because we know that slashing greenhouse gases is not just the right thing to do for the environment – it’s also the right thing to do for our economy. 
+As you all know, we are home to the nation’s first operational offshore wind farm which launched the industry. Rhode Island itself has already committed to enough offshore wind to meet one-quarter of our electric demand. These clean energy jobs are no longer the jobs of the future – these are the jobs of today, and we must capitalize on our state’s solid foundation in these industries to continue being a leader in the blue economy.
+To that end, we’ll be sending a proposal to the General Assembly that makes a series of key investments into our state’s blue economy. Here’s our plan:
+Let’s build the nation’s premier Smart Bay in partnership with the University of Rhode Island that will make our state a world-leading center for researching, developing and testing ocean technology. Let’s also increase our port capacity to support the offshore wind supply chain by making critical investments into the Port of Davisville at Quonset and East Providence’s South Quay. Let’s also invest in aquaculture, including seafood processing, so we no longer need to ship so much of our calamari out of state to prepare it for sale. As Rep. McNamara would say, that really is a “Calamari Comeback.”
+These measures don’t include the work we’re planning across our Administration to create a statewide network of electric car charging stations and converting our public transportation vehicles to electric. 
+And our investments in our economy aren’t just centered around the blue economy. We can bring bioscience R&amp;D from Boston and Cambridge by investing in wet lab space here in Rhode Island. This is something that the life science community has been asking for – let’s make it happen. 
+Rhode Island, we have a historic opportunity in front of us. An opportunity to chart a stronger more prosperous way forward for all Rhode Islanders. But to meet this moment, it will take all of us working together. And just as I’ve done since my time as Mayor, I will sit down and work with anyone who is willing to do the work.
+Just like you, when I sit down with my mom tomorrow morning at the kitchen table, I know we’ll still be talking about COVID-19 and understandably so, it’s still with us – but I also hope we’ll be talking about the opportunity that lies ahead for Rhode Island, and how together, we can make it happen.
+Let’s do this, Rhode Island.
+May God bless our service members, our veterans, and everyone working to keep Rhode Island safe.
+Thank you.</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mr. Speaker, Mr. President, ladies and gentlemen of the General Assembly, my fellow South Carolinians:
+We are here tonight to address challenges and opportunities.
+But first, as in prior years, I’d like to recognize those in uniform whom we lost in the line of duty.
+Lance Corporal Melton “Fox” Gore of the Horry County Police Department,
+Chief William Edward “Eddie” McNeill Jr. of the Campobello Fire Department, and
+Lieutenant John Stewart of the Lake City Police Department.
+To the families and loved ones of these men, with all our hearts, we offer our condolences. We are eternally grateful for their service.
+Thirty-three South Carolinians have received the Medal of Honor since it was created more than 150 years ago. The medal, which requires nominees to receive presidential approval before it is granted, is given to those who distinguish themselves “conspicuously by gallantry and intrepidity at the risk of his life above and beyond the call of duty.”
+Two South Carolinians were recently awarded the Medal of Honor.
+Sergeant Major Thomas Patrick Payne, who now serves in the Army Special Operations Command as an instructor, was awarded the Medal of Honor for his actions during a hostage rescue mission in an area of northern Iraq controlled by the Islamic State.  A graduate of Lugoff-Elgin High School, and a veteran of 17 combat deployments, Sergeant Major Payne has also received multiple other combat decorations, including Bronze Star medals for both valor and service and the Purple Heart.  He and his wife Allison have three children and live in South Carolina.
+Christopher Andrew Celiz was a Sergeant First Class in the Army and attended The Citadel before enlisting in the Army in 2007. Sergeant First Class Celiz was killed on his fifth deployment when he willingly exposed himself to heavy enemy fire to direct and lead a medical helicopter evacuation of wounded troops.  A native of Summerville, Sergeant First Class Celiz was also awarded the Bronze Star medal and Meritorious Service medal. 
+The sacrifices these two men made in service of their country and fellow soldiers are difficult to comprehend. Their bravery in the face of imminent danger should inspire us all.
+We are honored to have Sergeant Major Payne and his wife Allison, along with Sergeant First Class Celiz’s wife, Mrs. KT Celiz, and their daughter Shannon here with us tonight. Though we will never be able to adequately show our appreciation for what they have done, I would humbly ask them to stand and give us the opportunity to do our best now.
+I am delighted to have with us once again tonight our First Lady, my bride Peggy, our son Henry Jr. and his wife Virginia, and also our daughter Mary Rogers and her husband Sam.  Please stand and be recognized.
+Also, our lieutenant governor, Pamela Evette, and her husband David.  Please stand and be recognized.
+Ladies and Gentlemen, South Carolina is booming. People from all over the world are visiting and falling in love with our state.  Employers are creating new jobs, entrepreneurs are opening new businesses, and companies are deciding to relocate here. Our business and family-friendly environment has produced historic gains in new jobs, capital investment and population growth.
+Since January of 2017, we have announced 58,803 new jobs with over $17 billion in new capital investment in the Palmetto State.  In the last twelve months, we’ve announced 15,000 new jobs and $4.3 billion in new capital investment.
+As of November 2021, there were 18,000 more South Carolinians employed than there were in February 2020.  Our gross domestic product increased 10% during the COVID-19 pandemic and has increased 26% over the last five years.
+The state’s unemployment rate remains well below the national average and has improved every month of 2021 - dropping from 5.6% in November 2020 to 3.7% in November 2021. The 2020 U.S. Census data shows that South Carolina is the tenth fastest-growing state in the nation. I extend hearty thanks to all here tonight and to those who have gone before, for the excellent stewardship which has brought us to this day.  For now, we have opportunity like we have never seen before.
+Our new Secretary of Commerce, Harry Lightsey, is here tonight. He is a man of vision and accomplishment.  Every indication is that this year, 2022, will be even better than last year for Team South Carolina’s economic recruitment successes.  Welcome Secretary Lightsey. Please stand and be recognized.
+In the last year, we announced numerous transformative economic development victories. Some are represented here tonight.
+In Spartanburg, Oshkosh Defense will invest $155 million and will employ more than 1,000 Upstate residents to manufacture the Postal Service’s new fleet of electric mail trucks that will replace the nation’s current fleet of combustion engine mail trucks.  Welcome Mr. Don Bent, Chief Operating Officer of Oshkosh Defense.
+In Chester County, the Ernest and Julio Gallo Winery will locate their only bottling and cannery facility outside of California, with a $423 million investment and almost 500 new jobs.  Welcome Mr. Stein Edwards, Senior Director of Operations for Gallo Winery.
+In Edgefield County, Generac Power Systems will construct a new facility to manufacture commercial and residential power generators, and has already announced an expansion. These projects will create a combined 750 new jobs.  Welcome Mr. Tom Pettit, Chief Operations Officer and Mr. Steve Andrejack, Senior Director of Operations.
+Walmart continues to invest in South Carolina with the construction of a new distribution center in Spartanburg with a $450 million investment creating more than 400 new jobs.  Welcome Mr. Jeff Holzbauer, General Manager, Walmart Import and Logistics.
+In Kershaw County, Prestage Farms will open an agribusiness processing and canning facility investing $150 million and creating almost 300 new jobs.  Welcome Mr. Zach Prestage of Prestage Farms.
+I would ask all these gentlemen to please stand and be recognized.
+During the COVID-19 pandemic, many states shuttered their economies, closed businesses, and enacted draconian restrictions, many of which continue to this very day.  We took a better approach.  We never closed.  Through our reasonable steps of limited, measured, and temporary actions, we have been able to combat the virus without crippling our economy.
+Also, by being careful and conservative and freezing new spending in 2020, not only did we avoid cutting services, raising taxes, or borrowing money, we saw our State’s booming economy create a large amount of new surplus revenues in 2021.
+Compare this to New York, where there are 476,000 fewer people employed now than in February 2020.  The New York state unemployment rate is the 3rd highest in the country, and 2.7% higher than it was in February 2020.
+Or Michigan, where the unemployment rate in November 2021 was 5.9% - the 9th highest in the country.  More Americans moved out of Michigan during the pandemic than nearly every other state in our nation.
+Today, South Carolina’s state government is in the strongest fiscal condition ever.  We have the largest budget surplus, the largest rainy day reserve account balance, and the lowest debt in our history.
+However, South Carolina is facing a new challenge – the dangerous, irresponsible, and sometimes unconstitutional behavior of the federal government. While we and other states have differed with federal authorities before, this last year has been alarming and unprecedented.
+On his first day in office, President Biden canceled the immigration policies established by President Trump, and halted construction of the border wall, thus surrendering our own nation’s sovereignty and security to millions of illegal and undocumented immigrants, including human traffickers, drug dealers, and foreign agents, who have freely crossed our southern border. 
+The resulting lawlessness and chaos required us to deploy troops from the South Carolina National Guard to defend the border, and to protect our state and others from the danger posed by the cartels and traffickers.
+I traveled to the border to visit our troops and border patrol agents. The challenges they face are steep. The Biden administration - and the media - have turned their backs on these brave men and women, but South Carolina will not.  We always answer the call for help, and we always step into the breach. We will carry the banner of freedom even if the federal government walks away.
+The Biden administration also took aim at South Carolina’s pro-life and pro-family policies.  They challenged my policy of preventing taxpayer dollars from going to abortion providers like Planned Parenthood, which sued to overturn our Heartbeat Law and to stop the State from protecting the most precious of rights – the right to life.
+They attacked South Carolina’s faith-based foster care providers like Miracle Hill, despite a recent U.S. Supreme Court ruling that upheld the right of faith-based foster-care providers who choose to work with parents holding similar religious beliefs.
+They even canceled South Carolina’s requirement that Medicaid recipients must work, volunteer, or attend school to receive benefits.  While at the same time, the Biden administration was paying people on unemployment to stay at home rather than return to work or get a job.
+President Biden and his liberal allies sued to force South Carolina to adopt universal mask mandates in public schools, despite clear constitutional authority to the contrary.
+And finally, the Biden administration has illegally attempted to impose vaccine mandates on private citizens all across the country, in clear violation of constitutional authority and of common sense.
+Thankfully, President Biden has been about as successful in defending his mandates in court as he has been selling them to the American people.
+Despite this barrage of unwarranted challenges, we will continue to grow and prosper. We will not let the federal government violate the Constitution and dictate decisions that rightly belong to South Carolina and her people. We will fight to defend the Rule of Law, preserve our State’s sovereignty, and reject efforts to destroy individual liberty, wherever they occur.
+A determined warrior in our effort is with us tonight, our Attorney General, Alan Wilson.  Please stand and be recognized.
+As you are aware, the AccelerateSC task force has played a vital role in the State’s response to the COVID-19 pandemic.  This task force is comprised of volunteers from every sector of our State’s economy, along with officials from state and local agencies, and organizations. 
+Almost two years ago, the AccelerateSC task force produced recommendations which guided us in taking very targeted and limited measures to combat the spread of the COVID-19 virus without shutting down our state’s economy. 
+In addition, AccelerateSC conducted a thorough and complete review of the CARES Act and the American Rescue Plan Act (ARPA) for the purpose of providing expenditure recommendations to my office. 
+I believe that AccelerateSC is the model for collaboration, cooperation and communication between the government and the private sector, and on behalf of our entire state, I thank them for their extraordinary accomplishments. 
+Tonight, we have the leaders of this remarkable effort with us: former Senator Greg Ryberg served as chairman, and Mr. James Burns, served as the executive director.  Thank you for your service.  Please stand and be recognized.
+South Carolina’s booming economy, with almost $3 billion in surplus revenue, along with the $2.4 billion in ARPA funds - presents us with a once in a lifetime opportunity. 
+We know that the competition for jobs and investment is fierce, both nationally and globally. We cannot be complacent.  We must act.  We must make big, bold, and transformative investments in the areas of education, infrastructure, workforce, and economic development to strengthen the foundations of our prosperity for generations to come.
+For the second year in a row, my Executive Budget places $500 million into our state’s “rainy day” reserve fund.  By saving this money instead of spending it - something that served our state well last year - we will double the size of our reserves and will be prepared for any future economic uncertainties, should they arise. 
+I ask the General Assembly to consider maintaining a minimum balance in the rainy-day reserve account equal to 10% of the total amount of funds available to be appropriated in any year.
+Despite our great successes, South Carolina’s marginal income tax rate of 7% is the highest in the southeast and the 12th highest in the nation.
+For example, Tennessee and Florida have no income tax at all.  Louisiana is at 6%.  Arkansas is at 5.9%, Missouri at 5.4%.  Georgia and Virginia are at 5.75%.  North Carolina is at 5.25% and just passed legislation to cut it again. Alabama, Mississippi, and Kentucky are at 5%. 
+This makes South Carolina less competitive for new jobs and capital investment. 
+This year marks the fourth year that I have proposed a 1% rate reduction over five years for all personal income tax brackets, starting with an immediate $177 million cut.
+A tax cut has the impact of a pay raise; and more money in the pockets of our people to spend is a catalyst for even more economic growth and prosperity.
+Ladies and gentlemen, we have almost one billion dollars in surplus recurring revenue available for this state budget.  Our State’s booming economy will likely create more. Our work will not be done this session unless I am able to sign an income tax cut into law.
+We must also re-examine those issues, practices and laws that make our State less competitive and make it difficult for our businesses and entrepreneurs to invest, grow and thrive.
+One issue in need of re-examination is in the area of civil litigation known as joint and several liability. Business owners should not be penalized for the actions of others, simply because they have money.  Nor should they be absolved of their actions.  We can find a balance that provides the opportunity for justice without damaging our economy.
+There is no infrastructure more in need of big, bold, and transformative one-time investments than our State’s roads, bridges, highways, and interstates.  Our booming economy and rapid population growth have outpaced the State’s ability to keep up with improvements to our transportation infrastructure.
+Utilizing a combination of $660 million in federal ARPA funds and $600 million from surplus revenue, I am recommending that the General Assembly provide no less than $1.26 billion to the Department of Transportation to accelerate construction, expansion, or improvements to our State-owned roads, bridges, highways, and interstates.
+This one-time investment of over one billion dollars will allow the DOT to accelerate the start and completion of some of their highest priority projects.  Projects such as the widening of Interstate 26 to six lanes between Columbia and Charleston, the widening of Interstate 95 to six lanes in the Lowcountry, lane widening on Interstate 85 in the Upstate and the long-awaited start of construction on I-73 from the Pee Dee to the Grand Strand. 
+In addition, DOT will have sufficient state matching funds to apply for an additional $250 million in federal funds each year for the next five years. These federal matching funds will allow the DOT to expedite completion of local and regional projects designed to relieve traffic congestion, to repair or replace over 400 bridges, and to enhance repaving and resurfacing on our local and secondary roads.
+Three years ago, on the south steps of this Statehouse, I pledged that we would work together as a team.  I proposed that we make bold reforms to K-12 education in South Carolina, so that every student is ready to learn when he or she enters the classroom. And that the words "Corridor of Shame" would soon become a fading memory. 
+I proposed that we unleash the free market and expand access to full-day kindergarten for every lower income, four-year old child. Parents should be able to choose the public, private, or for-profit childcare provider that best suits their child’s educational needs.
+Today, we have fully funded full-day, four-year-old kindergarten programs for every Medicaid-eligible child in South Carolina.
+As a result, the Education Oversight Committee reports that 4K enrollment has increased 47% or by 4,600 children. There are 50 new private, nonprofit, and faith-based providers who have opened 66 new 4K classrooms.  In our public schools, there are 120 new 4K classrooms.  
+In a recent survey by First Steps, two out of three parents reported that enrolling their child in First Steps 4K also allowed them to go to work or continue their own education.
+We know that parents in South Carolina must be confident that their children are safe and secure when they are at school. The presence of a certified law enforcement school resource officer in every school is more important now, than ever.
+We must also recognize that a mental health crisis exists in South Carolina, especially among our young people who have weathered two years of disruptions, virtual instruction, isolation, and constant changes to normal routines. This crisis is here, right now.  Students must have access to professional mental health counseling and services.
+Because sixty percent of South Carolina children are served by Medicaid, I have directed Health and Human Services Director Robbie Kerr to initiate an immediate review of our State’s behavioral health funding and delivery system.  Time is of the essence.  We must do better. The cost of doing nothing is unimaginable.  And the damage, well, the damage will likely be immeasurable.
+South Carolina’s system of state-run treatment programs and facilities need a modern-day refreshment, re-evaluation, and re-invention.  I also suggest to members of the General Assembly that the time has come to evaluate whether the State should privatize behavioral health services currently provided by the Department of Mental Health. 
+When the Education Finance Act of 1977 was signed into law, there were only three line-item appropriations for K-12 education.  Today, there are approximately 29.  This 44-year-old funding system is archaic, confusing, and inadequate. 
+The way we fund K-12 education must be simplified and it must be transparent and accountable.  State funds must follow students directly to the classroom.  School districts must be held accountable for how they spend the taxpayer’s money – and graded on their results.
+I have proposed that funds for K-12 education be appropriated in a manner that is simple and easy to understand. School districts will receive the funds necessary to support an average ratio of 11.7 students per teacher, with an average salary of $66,524 including benefits.
+In exchange, every school district must disclose how they spend every dollar, be it local, state, or federal.  This information must be published online by the state Department of Education, so parents and taxpayers will know where their money is being spent. In the classroom? Or is it being spent on administration?  Or overhead?  Or somewhere else?
+My Executive Budget also raises the minimum salary for a starting teacher from $36,000 to $38,000. We have made progress in raising teacher pay.  Just five years ago, the minimum salary for a brand-new teacher was $30,113. 
+Tonight, we have the 2022 South Carolina Teacher of the Year with us. Ms. Amy Carter is an English teacher from Chapin High School and is here representing our state’s classroom teachers.
+We’re also joined by the Superintendent of Kershaw County School District, Dr. Shane Robbins. Dr. Robbins’ innovative leadership helped guide his school district through the pandemic with minimal disruption to the classroom, remaining open for in-person instruction throughout.
+Ms. Carter, Dr. Robbins, please stand and be recognized.
+Charter schools in our state have seen explosive growth in both enrollment and demand. The South Carolina Public Charter School District and the Charter Institute at Erskine are expected to authorize a total of 67 charter schools for the school year starting in August.  My Executive Budget provides an additional $60.2 million to meet the growing demand of parents seeking new educational opportunities and in-person classroom instruction for their children.
+In addition, I am proposing $20 million be used to create education savings accounts, which by the way, have been available to parents in “red” and “blue” states for years.  Although some may say otherwise, we know that parents know what’s best for their children.  They know the type of education environment and instruction that works best for their child’s unique needs.
+Speaking of parents, we need more parental involvement in the classroom - not less.  You may have been as surprised as I was when the Attorney General of the United States, Merrick Garland, instructed the FBI to begin investigating parents who attend school board meetings. In the annals of dangerous ideas, that one takes the cake.
+So did assertions that “parents have no business telling schools what they should teach.”  Parents have every right to express their concerns to a teacher, to a principal, or to members of the school board. In fact, it is their duty.
+Recently, a group of concerned parents contacted my office about a book containing age inappropriate, sexually explicit, obscene, and pornographic images, which was available in their school’s library.
+If school personnel had performed even a cursory review in this instance, it would have revealed that the book contains sexually explicit and pornographic depictions, which easily meet or exceed the statutory definition of obscenity.
+For explicit materials of this nature to have been introduced or allowed into a South Carolina school, without oversight, without public review, and without parents’ prior knowledge, is highly troubling and destroys public confidence in our schools.
+Parents must know what their children are hearing, seeing, and learning in the classroom.
+South Carolina, just like every state in the nation, is facing a historic labor crisis.  It has affected every sector of our economy.  With one hundred thousand open jobs, there is a paycheck waiting for anyone willing to work.
+I’d like to share with you an innovative public-private initiative designed to fill those open jobs. SC Future Makers is a first-in-the-nation program that connects students and individuals with internship, apprenticeship, and career opportunities throughout the state.
+SC Future Makers has reached virtually every high school, is available to all 16 technical colleges, and is now engaging our state’s military community to connect our servicemen and women with the many opportunities available in South Carolina. This innovative approach in using technology to enhance connectivity throughout our state is a valuable resource for addressing our workforce needs.
+In addition, to fill those open jobs, I am requesting that the General Assembly invest $124 million to expand Workforce Scholarships for the Future, a program that allows residents to earn an industry credential or an associate degree in high-demand careers.  Careers in manufacturing, healthcare, computer science, information technology, transportation, logistics, or construction. 
+We know this program will work.
+Last year, we partnered with the South Carolina Technical College System to create these scholarships and we dedicated $29 million in federal relief funds to start the program.  In that short period, over 5,000 South Carolinians have been retrained and employed. 
+For example, the program has produced:
+485 Nursing Assistants
+283 Commercial Truck Drivers
+253 Emergency Medical Technicians (EMTs)
+239 Welders
+235 Phlebotomists
+177 received Information Technology (IT) Certifications
+130 received the SC Manufacturing Certification
+79 certified as Forklift Operators
+61 certified as Heavy Equipment Operators
+In fact, we have a few of those students with us tonight in the balcony.
+Lilianna Cruz, 25, grew up in Indiana. Justin Smith, 25, grew up in Georgia.  Now they live in Clemson. Both were raised by parents who didn’t complete high school. They enlisted in the Marine Corps after high school. They met while they were stationed in Japan.  After completing their service, they began taking classes at Tri-County Technical College.
+Lilianna’s goal was to become an architect, and Justin’s was to own his own business. When the pandemic hit and classes went online, they went to work instead. Online classes didn’t work for them.  Justin was making $18 an hour and Lilianna was making $16 an hour.  Neither of them enjoyed the work or the pay. They hoped to find a new and better opportunity.  And they did.
+Last month Lilianna and Justin completed the five-week commercial truck driving program at Tri-County Tech.  Before they finished, they were offered a job driving as a team for Schneider National.  Now they have a combined salary of $140,000.
+Tasha Frazier of Sumter went through the Certified Nursing Assistant program at Central Carolina Technical College. She successfully earned her accreditation and was immediately offered a job with McLeod Health in Manning.
+William Westbrook lives in Graniteville and had worked for many years at a local chemical company.  He was laid off in 2019 and continued to look for work. He enrolled at Aiken Technical College after learning about these scholarships and obtained his Manufacturing Certification at no cost.   William was hired immediately after graduation by Central States Manufacturing.
+I’d also like to recognize Dr. Tim Hardee, the President of the South Carolina Technical College System, who is with us tonight. Dr. Hardee and his staff worked with our 16 technical colleges to successfully implement this program.
+Some of the presidents of those colleges are also here with their former students:  Dr. Galen DeHay, President of Tri-County Technical College, Dr. Kevin Pollock, President of Central Carolina Technical College, and Dr. Forest Mahan, President of Aiken Technical College.
+Thank you all for joining us tonight. Please stand and be recognized.  
+Access and affordability to higher education are essential to ensuring that our state has the trained and skilled workforce to compete for jobs and investment in the future.  That means higher education - our colleges, universities, and technical colleges - must be accessible and affordable for the sons and daughters of South Carolina.
+Once again, my Executive Budget freezes college tuition for in-state students, in exchange for an indexed appropriation based on the number of in-state students enrolled at each public institution. Funds for deferred maintenance are also distributed pro-rata and based on a school’s in-state enrollment. 
+Also, every South Carolina resident who qualifies for a federal Pell Grant will be eligible for 100% of their tuition to be paid for with a grant at any in-state public college, university, or technical college. 
+The college transition program was created for students with intellectual disabilities as they transition from high school into college and eventually into the workforce. The program teaches students how to learn independently, how to maintain employment, and how to live self-sufficiently. 
+This year I am proposing that we invest an additional $4.3 million in lottery proceeds to enhance scholarships for the college transition programs offered at Clemson, Coastal Carolina, the College of Charleston, the University of South Carolina, and Winthrop University.
+Tonight, we are joined by two students from the college transition program, Michael Harmon from CarolinaLIFE, and Hunter Hopkins from ClemsonLIFE.  Gentlemen, please stand and be recognized.
+In rural South Carolina, water and sewer is key to life, to good public health and economic health.  And it’s key to a community’s health.  The right water and sewer assets in a county can transform a tax base.  That means jobs, good schools, strong families, and a safe and vibrant community.
+The state's rural water, sewer and stormwater infrastructure is becoming old and outdated. Many of these systems have exceeded their useful life, some are barely hanging on.
+I have proposed that we use $500 million in federal funds to transform these water, sewer, and stormwater systems in our state’s poorest counties.  To upgrade or replace deficient rural water and wastewater systems.  And to incentivize large systems to “connect” with smaller and faltering systems.
+In recent years, facilitating access to broadband connectivity has become a top priority for South Carolina. From health care to education, more people are working or learning from home. Quality internet service has quickly become a necessity for the prosperity of our state and people.
+I ask that the General Assembly appropriate an additional $400 million in federal funds for the State’s Broadband Infrastructure Program being overseen by the Office of Regulatory Staff.
+The Good Lord has richly blessed South Carolina, from the mountains to the sea.  Our pristine coastline is a major economic driver for the state, as well as a source of beauty and happiness. It is roughly 2,876 miles long with approximately 200 miles of direct beachfront. The coastline contains several ecosystems including marshes, estuaries, barrier islands, tidal creeks, and beaches. The State’s 35 barrier islands and the surrounding marshes are natural mechanisms for absorbing energy, flooding, and storm surge.
+Three years ago, I issued an Executive Order creating the South Carolina Floodwater Commission, a collaborative effort charged with providing short and long-term recommendations to alleviate and mitigate the impact of flooding. One recommendation was for the governor to appoint a Chief Resilience Officer to lead a new state resilience office.
+Last year, I had the honor of appointing Mr. Ben Duncan, who was serving as the director of the Disaster Recovery Office, as South Carolina’s first Chief Resilience Officer.  At the time, South Carolina was one of a handful of States with a chief resilience officer.  Mr. Duncan is here with us tonight.  Please stand and be recognized.
+To protect South Carolina’s abundant natural resources, I am proposing the General Assembly provide the state Office of Resilience with $300 million in federal funds.
+A portion of these funds should be used to complete the construction of homes in the Pee Dee that were destroyed by Hurricane Florence, as well as completing green stormwater mitigation projects throughout the state. In addition, I am recommending that the Office identify pristine coastline properties and tracts where public access may be in jeopardy of being lost, or destroyed by flooding, erosion, or storm damage.
+Also, these funds should be used for a complete remediation and removal of hazardous materials from the hull of the USS Yorktown, including hundreds of thousands of gallons of old petroleum, polluted ballast waters, and polychlorinated biphenyl compounds, or PCBs, that were not removed from the ship’s 428 vessel tanks and compartments by the Navy.
+I can think of no more meritorious use of taxpayer funds than to protect our pristine natural resources for future generations of South Carolinians.
+With the opening of the new Hugh K. Leatherman Terminal in North Charleston, the Port of Charleston is no longer the only major container port on the east coast of the United States without significant near dock rail access.
+The new Navy Base Intermodal Container Transfer Facility will provide near dock “dual” rail access for both Norfolk Southern and CSX, allowing for the movement of goods and commerce throughout the United States.
+In 2021, the General Assembly appropriated $200 million toward the $500 million cost of construction.  My Executive Budget proposes $300 million to complete construction on time and debt free.
+Tonight, we have the CEO of the South Carolina Ports Authority with us, Mr. Jim Newsome.  As you know, he is retiring this year.  I ask that you join me in thanking Mr. Newsome for providing the port with years of exceptional leadership and vision.  You will be missed.
+Mr. Newsome, please stand and be recognized.
+To keep South Carolinians safe, we must maintain a robust law enforcement presence - and properly “fund the police.”
+Our state law enforcement agencies continue to lose valuable and experienced personnel be</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Lieutenant Governor Rhoden, Mr. Speaker, members of the House and Senate, Chief Justice Jensen, Supreme Court justices, constitutional officers, and my fellow South Dakotans:
+I am honored to stand before you today as the Governor of a state that is proudly leading the nation. We are leading with a talented workforce. We are leading by growing our businesses. We are leading with strong schools. We are leading with freedom, limited government, fiscal responsibility, and a commitment to defending the values that have made our country great.
+I am proud to report that the state of our state is stronger than it has ever been in our 133-year history.
+This did not happen because of what government did. It happened because of what government did NOT do.
+And it is because of our people.
+Two years ago, we made a decision in the face of a global threat. We chose not to compromise our values. We kept businesses, schools, and churches open. We did not decide who is essential and who is not. We chose freedom and personal responsibility over mandates and lockdowns. We took steps to be safe, to guard public health. But we also trusted people to make decisions that were best for them and their families.
+We did what was right — and we were attacked for our decision.
+Today we are thriving because we upheld our principles. Our economy is strong. We have one of the lowest unemployment rates in the United States.
+South Dakota saw new families and new businesses move here from other states. From July 2020 to July 2021, South Dakota’s population grew nine times faster than the national average. While places like California, New York, and Washington, D.C., are LOSING population.
+The reason why is no secret. People want to live somewhere that respects them – that respects their freedoms. They want to share in our quality of life. They’re coming here because they want to be like us. 
+Last year, we were ranked the Number 1 state for helping our workforce and small businesses get through the pandemic. We’ve had record tourism numbers and created opportunities for success for everyone.
+No group is succeeding in higher numbers than women in South Dakota. During the pandemic, South Dakota was Top 3 for smallest negative impact on female workers. We also are one of the Top 10 Best States for Women to live and work. I am very proud that South Dakota is one of the Top 5 states for providing career opportunities for working moms.
+ We are seeing inspirational testimonies from women like our very own State Senator Jessica Castleberry. I am so grateful she is allowing me to share her story with all of you today.
+Fifteen years ago, Jessica suddenly found herself a single mother with three very young mouths to feed and only $3 in her checking account. She went to visit with a credit counselor to get some advice on what she might do to improve her situation. Jessica shared her dreams of getting a business degree and becoming a business owner someday. The woman responded to Jessica by saying that there was no magic wand that could make her dream come true.
+Well, that didn’t sit well with Jessica. She went and bought herself a magic wand and kept it close to remind herself that she could make her dreams come true, regardless of what others thought was possible. Through hard work, Senator Castleberry advanced her education and launched her career. This year, she celebrated the 11th anniversary of her business in Rapid City, which has three commercial locations. To this day, that magic wand sits in her office as a reminder of all that is possible.
+Sen. Castleberry’s story has good company here in the Capitol. In fact, all of the legislators have inspirational stories that led them to where they are today. That is what is so special about South Dakota. The Representatives and Senators in the SD Legislature truly do reflect the people of South Dakota. They understand challenges, hardships, and loss. Today, you will hear more stories about the amazing people in our state who have faced and overcome adversity. I believe you will find inspiration in their stories and gain hope and excitement for the year ahead.
+The South Dakota people worked together to navigate the pandemic. Over and over again, we are recognized as one of the best states in the country because of our willingness to trust each other. 
+Other states took a different course. They locked down. Closed up businesses. Shut schools. Mandated masks. Their economies — their people — are paying the price. They have suffered. And it didn’t have to happen. Unfortunately, we’re starting to see it happen all over again in some states.
+But even here in South Dakota, we have new challenges  —  new barriers to the American Dream. Inflation is rising. Washington is threatening to raise taxes as it piles on more debt and spending. It’s getting harder for families to put food on the table, gas in their car, or keep the lights on. 
+The world economy is changing, too. We’re seeing new technologies, emerging industries, and international competition. We must be ready. 
+On top of all that, our children, our history, and our values are under attack.
+These threats are already here. We’re seeing it in our schools and communities. It’s happening in the news, on TV, in social media, and with what is taught to our children. It is up to us to defend our values and prepare for the future.
+So today, I will talk to you about the state of our great state — how we are succeeding – and the steps we can take together to preserve what we have and grow even stronger.
+Life, Liberty, Pursuit of Happiness
+We can make that happen by remaining true to the principles that made America so great in the first place — and that make South Dakota the greatest state in the union. 
+Thomas Jefferson famously outlined our founding ideal in the Declaration of Independence: “that all men are created equal, that they are endowed by their Creator with certain unalienable Rights, that among these are Life, Liberty, and the pursuit of Happiness.”
+Jefferson continued by reminding us why government is here in the first place – to secure those rights, not to grant them. Our rights come from God, NOT from government. And GOVERNMENT must remain LIMITED to serve its proper role of securing those rights.
+Life  
+It’s no mistake that when Thomas Jefferson wrote those famous words, that LIFE came first. Government’s most fundamental role is to defend the lives and safety of the people. That includes the rights and the lives of unborn children. 
+Over the last decade, abortions have dropped sharply in South Dakota. In 2020, the total number of abortions was down approximately 80% from a decade before.
+That’s something to celebrate, and it’s thanks in part to the policies passed by some of the legislators in this room. You have proven that abortion does not need to be a divisive issue. Last year, every single legislator supported my bill to guarantee protections for unborn children with Down syndrome. 
+I look forward to the day when all unborn lives are protected. The Supreme Court has a historic opportunity to make that a reality. As soon as Roe v. Wade is overturned, our state laws are ready to protect every unborn South Dakota child. But until then, we can take steps to protect South Dakota children, today.
+Heartbeat
+There is more we can do. Every human life is unique in a truly beautiful way from the moment that they are conceived. It isn’t long before they have their own unique heartbeat, too. Science tells us that an unborn child’s heartbeat starts 6 weeks after conception. And any abortion after that point stops that heartbeat — stops that life — stops that gift from God.
+Today, I am asking all of you to protect the heartbeats of these unborn children. I am bringing legislation to ban all abortions once a heartbeat can be detected.
+Telemedicine Abortion
+Last year, I signed an executive order banning telemedicine abortions in South Dakota. Today, I am asking all of you to ban telemedicine abortions in state law.
+Chemical abortions happen when a woman ends an unborn life with a pill. These procedures are four times as likely to cause the woman getting the abortion to end up in the Emergency Room. Chemical abortions are dangerous. I am asking all of you to take action to protect South Dakota women from this dangerous procedure. 
+Adoption and Foster Care
+We can also protect lives by expanding access to adoption and foster care. This past year, 262 South Dakota children found their forever families, and 135 children were placed into a legal guardianship.
+All children deserve to grow up in a family where they are loved and protected. When I stood at this podium for my first State of the State in 2019, I promised to talk about foster care at every opportunity. Since then, we have made tremendous progress. 
+We have launched our Stronger Families Together initiative with the Department of Social Services alongside America’s Kids Belong and South Dakota Kids Belong. I need faith-based organizations, church leaders, business leaders, and other community organizations to come alongside me in your hometowns and support those who choose to adopt or foster children.
+In South Dakota, we support and serve others. My parents instilled that in me from a very young age. We helped struggling families put food on the table or keep the lights on. I also had the opportunity to grow up with a foster brother. I remember my parents telling me years later that they wished they would have had more tools, more information, or more training so that they could have helped him adjust better to becoming a part of our family.
+Today, we have people in the room who can provide that kind of help. We have the leadership of South Dakota Kids Belong here with us. Would you please stand, and everyone please join me in thanking them for their efforts to help families going through crisis?
+While we’re on the subject of Foster Care, today, I want to highlight a family that has been providing foster care for twenty-two years. Rodney and Peggy Anderson have adopted nine children out of the foster care system and have fostered many more. They’ve dealt with childhood trauma and connected their foster kids with professionals to help them. Rod and Peggy give kids a place to live, but more than that, they give them a home where they are loved and cared for. 
+One of our Family Services Specialists had this to say about the Andersons: “This family is by far the most resilient, knowledgeable, fantastic, flexible, amazing family I have ever worked with. They go above and beyond – always putting the children in their home first. They have some of the toughest kids I’ve ever had on my caseload. And they handle them with patience and grace! We are so incredibly lucky to have them as foster parents!”
+I would like to have Rod and Peggy please stand.  Three years ago, I created the Governor’s Heroism Award to honor South Dakotans who went above and beyond. Rod and Peggy Anderson are heroes. They’re heroes for how they’ve changed these kids’ lives. And this year, I’d like to recognize Rodney and Peggy Anderson with the 2022 Governor’s Heroism Award. Let’s thank them and every foster parent in this state for their tremendous, heroic efforts!
+With more foster families like Rod and Peggy, we will be able to help even more children and families in the years to come.  
+Expanding Healthcare Access
+Another way that we can advance life in South Dakota is by giving our people healthcare options close to home.
+Many South Dakotans live on farms, ranches, and in small towns. No matter where you live in our state, you should have access to the highest quality care available. You should be able to get the medical help you need.
+We’ve increased flexibilities to bring healthcare directly to our patients. I signed legislation to address this, and my budget this year expands telehealth to our emergency responders so that they are available to help in a time of crisis, no matter where you live.
+For years, emergency services in small towns across South Dakota have been largely run by volunteers. Today, we have a volunteer ambulance crew with us from Onida. Would you all please stand? The Onida Ambulance Service has been in operation since 1956. In 2000, they were named the South Dakota Emergency Medical Service of the Year. They won that award again in 2020. To win such an honor twice is a testament to their hard work and training.
+They complete the hours and hours of training to become Emergency Medical Technicians and ongoing training as well. They answer calls across Sully County. And they do it all as volunteers. Their dedication to saving the lives of their fellow South Dakotans is inspirational. Will you help me thank them for their service to the people here in South Dakota?
+Unfortunately, our emergency responders are getting fewer and fewer. Many have gotten older, and less people are stepping up to volunteer. We must reverse this trend. We need to recruit more volunteer firefighters and emergency responders. And we need to support them with modern tools – my budget does that. I look forward to working with all of you to get these wonderful folks the equipment and training that they need.
+For over a year, we have offered free at-home COVID tests to the people of South Dakota. Last week, I announced that I had ordered 1 million new tests to be delivered to even more locations in our state. Every citizen in South Dakota will have the access to get a free COVID test in their home community. President Biden had promised this action but has failed to do so. The state will continue to work together to take care of our people.
+Our healthcare workers worked hard to keep us within our hospital capacity. Our systems monitored people from home to ensure their safety while keeping beds available. 
+To our nurses, doctors, and healthcare professionals: we are getting you more help. We’ve invited more healthcare professionals to come and live in South Dakota. We’ve made it possible for out-of-state licenses to be recognized so that they can get right to work. And when they come here, they will have the opportunity to work for some of the greatest systems in the country. 
+Healthcare workers in South Dakota have faced perhaps the greatest challenges of their career over these past two years. I am amazed by their efforts, and I am so grateful for how they have sacrificed to serve others.   
+Mental Health/Addiction
+Another problem we need to address is addiction and mental illness, and we are doing that through our targeted treatment and prevention initiatives. While overdoses have been skyrocketing across the country, in South Dakota, overdose deaths dropped by 19 percent.
+There’s more work to do. In 2022, we will launch a statewide behavioral health campaign, continue to focus on fighting meth, and raise awareness about available resources. These efforts are saving lives. 
+Unfortunately, we are seeing that increased drug activity from the border is making its way into our communities. Counterfeit fentanyl is a serious problem. We can thank our law enforcement agencies who are working to keep this poison off our streets.  
+As for mental health, my budget creates regional behavioral crisis centers. These centers will help us get people appropriate care more quickly and close to home. This will help relieve the pressure on law enforcement and emergency rooms.
+I take our citizens’ health seriously. I don’t make these decisions lightly. And when we create new policy, we’re going to do everything we can to get it right from day one. Our state’s medical cannabis program is one example. It was launched on schedule according to the timeline passed by South Dakota voters. I know there will be some debate about that program this session. My focus is on making sure South Dakota has the safest, most responsible, and well-run medical cannabis program in the country.
+Liberty
+Together, we can make protecting lives our priority so that all South Dakotans can enjoy our God-given gift of liberty – the second unalienable right the Declaration upholds.
+Prayer in Schools
+There is one freedom that is fundamental to our nation’s founding. It is the freedom to worship.
+In the Preamble to our state’s Constitution, we express gratitude “to Almighty God for our civil and religious liberties.” Our state’s motto is, “Under God the people rule.” And we began here today — in this chamber — with a prayer asking for God’s grace and guidance. Yet in our public schools, prayer is absent – forbidden.  
+ I am introducing legislation that would allow for a moment of silence at the beginning of each school day. Students can choose to reflect on the upcoming day or have a quiet moment – they can also exercise their First Amendment right to pray. We will protect the freedom to worship and re-instill a right that has been absent for far too long in our schools.
+Economic Freedom
+Another fundamental liberty is the right of individuals to provide for themselves and their families. Government, at times, abuses its power and interferes with that liberty. But never in our history have we seen government shut down liberty as we saw during the pandemic. 
+State after state imposed mandates and lockdowns. Closed businesses and churches. America is still suffering the consequences.
+Small Business Stories
+Other states told people that they weren’t essential -- picked winners and losers. We kept the doors to businesses open.
+Ace Hardware in Sioux Falls is a great example of a thriving business in South Dakota. They weathered the worst days of the pandemic without laying off a single employee. They innovated quickly, protected the health of their staff and customers, and continued their passion for quality service and customer care. Similar success stories can be found time and time again around our great state.
+Here with us today is a young woman named Alyssa Nix, a small business owner in Sioux Falls. Alyssa was born and raised in Sioux Falls and started working in retail and fashion when she was 16 years old. In February 2018, she took out a loan to purchase a women’s clothing boutique, which fulfilled a life-long dream for her. She is proud to sell clothing and accessories that make women feel confident about themselves at all budget levels and for all occasions.
+Alyssa was nervous when the pandemic hit. She didn’t know what the future had in store, and she didn’t think she could keep her business going if she had been forced to close.
+I heard about Alyssa’s store from my daughters, so I decided to stop in one day when Bryon and I were in Sioux Falls running errands. While I was there, Alyssa and I chatted about the weather, horses (which we both love) and 4-H -- we have both been 4-H leaders for years. During our visit, Alyssa told me with tears in her eyes that if our state made different decisions during the pandemic the past 2 years and not trusted her, she didn’t know if her store would still be open.  Her life-long dream would have come to an end. She was so grateful she was respected by her government and thankful to still be able to serve her customers.
+Alyssa’s American Dream is alive and well in South Dakota. Because we trusted small business owners, like Alyssa and Ace Hardware, to find ways to adapt, we gave them an opportunity to survive. Every other state in this country ordered some businesses to close. That didn’t happen here.
+Alyssa, I’d like to ask you to please stand and also thank you -- thank you for your love for people and willingness to share your story. So many little girls dream of growing up and striking out on their own, owning their own business, and they can look up to you. Thank you for your strength and for not giving up on your dream. Would you all join me in giving Alyssa a round of applause?
+Cutting Regulations - Department of Labor
+One way that we can continue to expand liberty is by remembering that government should not make it harder to have a career. 
+My Department of Labor is eliminating barriers to employment. And they’re partnering with others to promote job training  and match students with the best career for them. Here are a few examples:
+In 2021, the Department of Labor worked with the Department of Education and schools across the state to promote “South Dakota Week of Work.” The week included job fairs, job shadowing opportunities, and visits by professionals to classrooms to share their experiences in communities across the state. For example, Hanson High School hosted 40 guest speakers representing 16 different career areas.
+We have partnered with Dakota State University to create a Future Workforce Finder tool. We are expanding the Upskill program to the South Dakota Women’s Prison and other career fields to get workers trained for in-demand jobs. We are partnering with adult education providers across the state to offer more options for adults to achieve their GED, to help them in their career.
+We are focused on EXPANDING opportunities and liberty, not regulating it away. And South Dakota’s jobs market continues to be a national leader as a result. 
+Revenue Update and Tax Cuts
+In order for us to defend liberty, government must remain limited. And part of how we do that is through our budget process -- through our commitment to fiscal responsibility. I want to assure every South Dakotan of this: we will not use one-time money -- whether federal or state dollars -- for ongoing expenses or new programs. It would be irresponsible to create or expand any ongoing programs with one-time dollars.
+A month ago, I reported to you the exceptional revenue growth that South Dakota has enjoyed because of the steps that we took in South Dakota. Since that time, we’ve received even more great news, which I’m prepared to share with you today. 
+In addition to the estimates I gave you back in December, our economy is even stronger than expected. Ongoing general fund revenues were $20.8 million higher than the revised estimates from December. So far this fiscal year, we’re $116 million above ongoing legislative adopted estimates. That’s fantastic news, and we should return a portion of these strong revenues to the people of South Dakota.
+I am announcing three proposals today to cut taxes and fees for the hard-working men and women in South Dakota.  
+First of all, let’s eliminate fees associated with starting or renewing a business with the Secretary of State in South Dakota. In 2020, the theme of my State of the State was “Open for Business,” and we are continuing that commitment today. We are already among the most business-friendly states in America, and with this step, we will make it even easier to do business here.
+Let’s also eliminate all fees for concealed carry permits in the state. We will pay the costs for federal background checks, as well. It will not cost you a penny to exercise your Second Amendment rights in South Dakota.
+Three years ago, Constitutional Carry was the very first bill that I signed as Governor. We guaranteed the right of our people to keep and bear arms. Together, we will continue to defend this key constitutional liberty.
+Finally, although we don’t have many taxes in South Dakota, I am proposing that we eliminate a ridiculous tax. Did you know that we have a bingo tax? This is largely a tax on our elderly populations and veterans. I’m proposing that we get rid of it, and this is just the beginning.
+Vaccine Legislation
+Financially, we see the impact of protecting liberty in South Dakota, but unfortunately, personal liberties are under attack. But that attack IS NOT coming from state government. It’s coming from the Biden Administration in Washington, D.C.
+I always promised you I would protect our state from overbearing federal intrusion into our daily lives. So we took action. South Dakota has joined four lawsuits against the Biden Administration's unconstitutional vaccine mandates, and we are winning in court.   The issue has advanced to the United States Supreme Court and oral arguments were heard last week.
+The COVID vaccination should be a choice. And we should reject the efforts that we’re seeing in other parts of the country to divide us into two classes: vaccinated and unvaccinated. Unvaccinated Americans are still Americans. We live in a free country – free to make our own decisions. The government does not get to make them for us.
+I am bringing legislation this session to protect the people’s right to a medical or religious exemption from COVID vaccines, just as my executive order did for state employees. We will also recognize natural immunity. I hope you will support the bill.
+Game, Fish, and Parks
+From day one, it has been my priority to focus on the next generation of South Dakotans. Our way of life here is special, but so are our natural resources.
+Teddy Roosevelt once said, “Of all the questions which can come before this great nation, there is none which compares in importance with the great central task of leaving this land even a better land for our descendants than it is for us.”
+We take that message to heart here in South Dakota. We take care of our natural resources because we want them to be available for our kids and grandkids.
+U.S. News &amp; World Report ranks South Dakota in the Top 3 for Natural Environment and top 3 for the least pollution. We are nearly four-times higher than the national average for using renewable energy.
+Second Century
+One of the first priorities I outlined as Governor was the Second Century Initiative. This Initiative raises money to support pheasant habitat, trap predators who threaten our pheasant populations, and educate South Dakotans about our wildlife and land. It helps preserve our state’s status as a top destination for pheasant hunting.
+The Second Century Initiative has benefitted hunters, while also supporting our farmers and ranchers. They’re improving water and soil quality and enhancing opportunities for all who enjoy the outdoors.
+Last year, we raised $1.4 million for the Second Century Habitat Fund. These dollars go directly toward expanding habitat acres across South Dakota. We also raised almost five and a half million dollars with the Habitat Stamp. Between these efforts, we have added more than 10,000 acres of habitat for our wildlife, created additional public access for fishing and hunting, and completed hundreds of habitat improvement projects on existing public lands.
+Habitat helps our economy, too. Hunting and fishing adds $1.3 billion to the state economy. As a result, South Dakota is the number one state for licensed hunters per capita. We’ve seen an 8% increase in sales for resident combo hunting and fishing licenses and a 16% increase in out-of-state small game licenses over the 3-year average. We’ve also had big increases in youth hunting, including a record increase in youth participation for the Nest Predator Bounty program. Youth fishing licenses and small game hunting licenses grew by 23% for residents and 83% for nonresidents. More of our kids are becoming interested in the outdoors.
+Record Park Visits
+Meanwhile, our state parks saw a 10% increase for park entrance licenses over last year’s record, with an estimated 8.5 million visitors. We plan to add more campsites at Custer State Park to expand our ability to host people from in and out of state. Since 2015, we have seen an increase of nearly 100,000 camping nights reserved throughout the state park system. I am hopeful you will support these projects.
+We have a fantastic army of volunteers who work at our parks each year. This past year, we had 443 volunteers log a total of 103,000 hours of service. I am so grateful for all those folks who volunteer to welcome people who visit our state parks.
+Because we trusted in liberty, people chose to visit our state by the millions. We didn’t just keep the “open” sign on. We rolled out the welcome mat for tourists. We broke records for visitor spending, visits to our state parks, and so much more. More people came to Mount Rushmore last year than ever in our history. 
+Countless families made South Dakota their travel destination. And because of our world-class hospitality, we can be sure that many of them will be back. 
+Fairness in Sports  
+Freedom and Liberty are about self-determination and the right to achieve — to reach our fullest potential. But there is a troubling movement in our society. Our young girls are having their freedom to achieve taken away by schools and organizations that are changing the rules of the game in competition.
+When our kids participate in sports and activities, they learn valuable lessons like teamwork, perseverance, and hustle. For many activities, it may not matter whether kids are male or female – they are on an equal playing field: debate, theater, and academic competitions, to name a few. But for other activities, the playing field is not equal. 
+Allyson Felix is an American track and field star. She’s won 25 Olympic and World Championship medals, including 17 gold medals, the most of any track and field athlete ever – male or female. She specialized in the 400-meter race, with a lifetime best of forty-nine-point-two-six seconds. Yet HUNDREDS of high school aged boys have run faster times than that. Common sense tells us why. Boys' and girls’ bodies are biologically different.
+In South Dakota, only girls can play in girls’ sports according to the executive orders I signed almost a year ago. But I am introducing -- and hope you will support -- a bill that will be the strongest law in the nation. Congress passed Title IX  years ago to guarantee that girls have a level playing field on which they can succeed — to ensure their liberty to achieve. 
+They can win high school championships, maybe earn scholarships, maybe even go on to play professional sports. We need to protect the freedom of our young girls to go out there and do it. 
+Pursuit of Happiness
+Success in America is by no means a given. But if you work hard and put your mind to it, you can accomplish anything. That’s the American Dream. That’s what the pursuit of happiness is all about. 
+But there’s a new ideology taking hold in our country. It redefines our culture. It rejects the American Dream. It tells children that our country is racist. It divides us based on the color of our skin. It teaches a distorted view of our history — and it undermines the foundation of our society. 
+We must act now to protect the American Dream – to preserve the pursuit of happiness for future generations. 
+True, Honest History
+Over 30 years ago in his farewell address, President Ronald Reagan asked the nation an important question: “Are we doing a good enough job teaching our children what America is and what she represents in the long history of the world?” He reminded us that we need to educate our kids and our grandkids that, quote, “America is freedom – freedom of speech, freedom of religion, freedom of enterprise. And freedom is special and rare. It’s fragile. It needs protection.”
+President Reagan was right. We have to make sure our children know America’s promise. We have to teach them the true, honest history of our country. 
+In state after state, school after school, children are being exposed to radical political ideologies like Critical Race Theory. We are not going to let that happen in South Dakota.
+Our state supports opportunity for all. We don’t teach our children to be divisive and organize them into separate groups based on skin color. I am bringing legislation this year to enshrine these values and protect our students from hatred and division. 
+Schools are where our children learn the consequences of making mistakes and the hard work of success. By the same token, they should learn from both America’s triumphs and our mistakes. And then they learn the overwhelming benefits of working together to fix those mistakes so that we all share a brighter future.
+As we update our social studies standards, they must reflect America’s true and honest history. Native American history will be a part of that. Our tribal culture and heritage are essential to who we are as a state – and it must be balanced and woven into the full cont </t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Thank you very much. Lieutenant Governor McNally, Speaker Sexton, Speaker Pro Tem Haile, Speaker Pro Tem Marsh, Members of the 112th General Assembly, Justices, Constitutional Officers.
+I first want to acknowledge someone who for the last three years has been a steadfast partner to me in this journey.
+She has also been a faithful friend to Tennesseans in distressed counties through her Tennessee Serves initiative.
+I'm so proud of the work she has done to provide underserved Tennesseans hundreds of thousands of meals, thousands of backpacks, and thousands of shoes for school children.
+Tennesseans are proud of you, and I’m proud of you, Maria, our First Lady.
+A spirit of humble service matters in times of trial, and it matters in times of prosperity–So I also want to thank members of my Cabinet and staff who are here tonight who have served Tennesseans tirelessly over the last year.
+I'm thankful for each one of you. Thank you.
+To everyone here and to everyone listening across this state, it is the highest honor I have to serve as your governor.
+I am grateful that you have allowed me to serve in this position.
+We stand here today in a different place than we were a year ago, but our gratitude to Tennesseans is unchanged.
+You have kept this state moving forward.
+Tennesseans like the members of the National Guard who have met the worst of circumstances with grit, and yet also provided comfort.
+Nurses and other health care workers who have cared for the sick.
+Teachers and administrators who have taught our children.
+Troopers and police officers and sheriffs deputies who patrol the roads and keep our neighborhoods safe.
+Small businesses who have kept their doors open and workers who have worked extra hours to keep our economy moving.
+You are what makes Tennessee exceptional.
+Last June, we commenced Untold Tennessee, a celebration of how the ordinary makes us extraordinary, to commemorate 225 years of statehood.
+Folks along the way this year have shared with me the deep connection they feel to Tennessee.
+Folks like my friend Wally Childress, whose family owns a century farm, Childress Farms, in West Tennessee, and has grown thousands of acres of crops since 1906.
+Wally and Tracy are with us here tonight. We thank you for representing generations of families that have helped make Tennessee what it is. Please stand up, Wally and Tracy Childress.
+For 225 years, Tennessee has been a beacon to those who wanted something more and needed a frontier to build their American dream.
+In 1965, the General Assembly recognized this and passed a resolution to adopt the state slogan: “Tennessee - America at Its Best”.
+Over the years, leaders have reminded Tennesseans that America at Its Best is more than our slogan - it's our north star.
+However, America at Its Best means something different today than it did in 1965 or even in the last decade.
+I think about what was going on in our country in 1965 and the very real tension of becoming a more perfect Union.
+There were moments of great optimism with the passage of the Voting Rights Act.
+There were moments of tremendous innovation as Americans stepped into space.
+Yet, there were also great challenges in 1965 as American combat troops landed in Vietnam, and the Civil Rights movement continued but with painfully slow progress.
+Tennessee - America at Its Best embraces both sides of the coin: we acknowledge our shortcomings but build on our best.
+It reminds me of the truth in Scripture: Great faith is required to keep pushing for the things not yet seen.
+Today, our country faces challenges of a different kind, but I believe now more than ever, Tennessee embodies America at Its Best.
+And in order to ensure that, I am proposing a budget and America at Its Best policies that reinforce freedom, innovation, exceptionalism and optimism.
+Freedom: Make Government Smarter &amp; Smaller
+If we are to embody America at Its Best, that starts with acknowledging that it is our Creator who endows us with freedom, and the government merely maintains that freedom.
+I believe now more than ever, we must show great discipline and regard for our freedoms.
+One way we do that is through a small government that contributes to a safe and well-ordered society.
+In recent history, big government has attempted to take over society instead of contributing to it.
+That’s no way to live, and Tennessee has pushed back on that big government.
+In fact, Tennessee has recently been ranked as one of the top five freest states in the country.
+Folks around the country see this and are moving to our state in record numbers.
+They are fleeing states with rising crime and plummeting support for police.
+Bob and Darcy Armanino each served in the San Francisco Police Department for over 30 years. They recently packed up everything they had and left behind everything they’d known, in search, as they say, of more freedom. And they moved right down the road from me.
+Bob and Darcy are our new California neighbors, and they represent thousands of new neighbors. They are here with us tonight, and we welcome them as new Tennesseans. Please stand and be recognized.
+Law enforcement officials from across the country see Tennessee as a destination for more freedom.
+Just late last year, we put out a call to officers from New York to LA who were facing restrictive mandates, and they responded.
+We welcome these new Tennesseans who are committed to keeping our neighborhoods safe.
+My budget adds 100 additional Highway Patrol Troopers and 50 new personnel to support the mission of the TBI.
+We will also commit more than $150 million directly into law enforcement agencies to create safer neighborhoods through the violent crime intervention grant fund.
+We are proposing more than $350 million that will support a new law enforcement training academy to ensure we have the most professional force in the country.
+Our funding commitment shows a respect for the rule of law but a rejection of the defund the police movement that we have seen across the country.
+Both drug trafficking and human trafficking are on the rise in our country and in Tennessee.
+This is unacceptable.
+Last Wednesday, I spoke to 50 Tennessee National Guard soldiers the day before they were deployed to the Southern Border to fight the flow of fentanyl that is killing Tennesseans.
+These men and women are deploying at a time when Border chaos is at an all-time high. America desperately needs our stability, especially on the Southern Border.
+I thank Lt. Governor McNally and Speaker Sexton for their early support of this mission as it directly impacts the health and safety of our state.
+We will continue our anti-human trafficking investments as Tennessee sends a loud message that those who participate in human trafficking will be prosecuted to the fullest extent of the law.
+I also believe that communities of faith are critical to the preservation of American freedom.
+Last year, I met with a group of Jewish leaders who conveyed their worries about safely worshiping while antisemitism is on the rise.
+Recently, a shocked world watched as a Texas synagogue was taken hostage.
+The rabbi credited the outcome to extensive safety training through partnership with their local law enforcement agency.
+I have directed the Department of Safety and Homeland Security to create a plan so that every house of worship in our state can receive high quality safety training, and we will continue to protect Tennesseans’ ability to worship freely.
+A strong commitment to public safety includes a wise approach to criminal justice.
+I want to thank the General Assembly for the criminal justice legislation that was passed last year.
+In the last three years, we have expanded educational pathways. We have ensured every inmate has a photo ID. We have increased job opportunities for inmates.
+Evidence clearly shows small efforts make a large impact on public safety, and we will build upon that.
+I recently had the remarkable privilege of placing a life-changing phone call with a man who served his time in prison and was back in society. In fact, he’s a pastor now, here in Tennessee. But, he was living with many of the burdens that currently exist for those previously incarcerated. It was a call to grant clemency, but it ended up being a reminder to me that people who have served their debt to society for the mistakes that they have made can absolutely become productive, contributing citizens to their community if we will just clear a path.
+Pastor Quantel Lindsey and his wife Kaley are here with us tonight, and we are honored that you are. Please stand and be recognized. I am honored you are here.
+Innovation: Investing in the Future of Tennessee
+The freedom to innovate requires a healthy balance sheet, but unfortunately, that’s not something we’re seeing at the national level.
+The national debt recently surpassed $29 trillion.
+That amounts to more than $220,000 per household.
+We pay a staggering $900 million per day in national debt interest payments.
+This is a bipartisan problem working within a broken system, but states with balanced budgets offer a guide to what could be if Washington would just act.
+While Washington saddles our kids with trillions of dollars of debt, Tennessee’s strong fiscal position allows us to instead invest on their behalf.
+Education, health care, infrastructure, and economic development - all areas where we can make smart and strategic investments that most states cannot.
+In Tennessee, we’ve also prioritized efficiency.
+Unlike many other states, since I’ve taken office, our employee headcount at our departments has actually reduced by five percent without making layoffs.
+I thank members of the General Assembly for being partners in this prudent management approach.
+While some are forecasting a recession, we remain prepared with a healthy savings account and minimal liabilities.
+Our proposed budget will boost the Rainy-Day Fund to a highest-ever $1.6 billion.
+We have the financial capacity to innovate and approach key areas like education and infrastructure with fresh eyes.
+With the support of thousands of Tennessee parents, I am committing to updating the 30 year-old way we fund our K-12 public schools.
+I'm proposing an innovative approach that sets aside dollars for each student, based on their individual needs, and these dollars will be used in whatever public school they attend.
+We have spent months engaging parents, teachers, students and stakeholders in a fully transparent process across the entire state.
+The Department of Education and partners in the General Assembly have received thousands of public comments, including more than 16 townhalls and meetings across the state.
+I thank every Tennessean who participated in the process, especially those who served on our 18 subcommittees.
+It’s not just hundreds of millions of dollars on the line - it’s our kids, their childhoods, and most importantly their futures.
+Time and time again, we have heard the same message: we need a smarter, more transparent, accountable education funding formula, and the time is now.
+A formula that prioritizes the needs of students above all else, and that pays particular attention to students with disabilities, rural students, low income-students, and students with other priority needs.
+If we do this correctly, we can create a funding formula that demands accountability and rewards districts for performance, but most importantly funds students and not bureaucracies.
+If we do this right, then and only then, can we feel confident investing the dollars that are needed for our public schools and the future of Tennessee.
+Therefore, in tandem with this new funding formula, I am proposing $1 billion in new, recurring education spending for our public schools across Tennessee. The proposal will be finalized in the coming days, and I look forward to working with you, the members of the General Assembly, to get this done.
+This budget also includes one-time funding to expand high school and middle school career and technical opportunities so every student can graduate with the industry credential they need to join the workforce of tomorrow.
+Let me tell you what else this one-time funding will be used for: I went to Waverly, TN after the devastating floods late last year.
+The tragedy, the heartache, the loss was hard to take in. I walked into the elementary school where the water rose to four feet in 10 minutes.
+I saw desks and backpacks and books piled up against the door where water rushed out. If the Waverly flood happened on Friday instead of Saturday, we would be mourning the loss of hundreds of Tennessee children.
+I am proposing one-time funding to ensure that no student in Tennessee attends a public school located in a flood zone.
+While we are improving our funding strategy, we also need to empower parents with a candid look into not only how their children are learning but what they are learning.
+The vast majority of parents believe they should be allowed to see books, curriculum and other items used in the classroom.
+That’s how I felt about my own kids, and I stand with those parents today.
+We are proposing a new law that will ensure parents know what materials are available to students in their libraries.
+This law will also create greater accountability at the local level so parents are empowered to make sure content is age-appropriate.
+As we again work to make gains in elementary reading and mathematics, we will work to ensure students have tailored options in science, technology, engineering and technical training.
+We will grow our investment in the Future Workforce Initiative by $2.5 million and will propose new legislation to make computer science and coding available to every high school student in Tennessee.
+We are seeing steady enrollment in our Tennessee Colleges of Applied Technology when other academic disciplines have declined.
+These Tennesseans stand ready to wire our houses, build our cars and nurse our sick back to health. We need them on the job now, not on a waitlist.
+So, I am committing $200 million in TCAT expansions to help double our skilled workforce by 2026 and ensure that any Tennessean wishing to further their education can immediately enroll in a TCAT.
+Make no mistake - Tennessee is “Working People USA,” and we will do whatever it takes to train and retrain Tennesseans so that both our businesses and our families can thrive.
+The keepers of “Working People USA” have been our teachers.
+When companies look to Tennessee for a pipeline of skilled workers, it is teachers who are busy preparing students for life beyond the classroom.
+We should raise teacher pay this year by $125 million, which is a well-deserved increase into the teacher salary pool.
+Historically, funds put in the salary pool don’t always make it to deserving teachers. When we say teachers are getting a raise, there should be no bureaucratic workaround to prevent that.
+In our updated funding formula, we will ensure a teacher raise is a teacher raise.
+Increasing wages isn’t enough to address a teacher shortage and record number of retirements.
+In 2020, we launched a program to get more high school seniors to pursue teaching and even remain within the communities that raised them.
+Our program, called Grow Your Own, is now nationally recognized as a model for building a pipeline of qualified educators.
+It is the first time teaching has been recognized by the federal government as an apprenticeship pathway, and that path starts right here in Tennessee.
+The Grow Your Own model is proof that giving kids real skills and a roadmap will solve the greatest challenges of the day.
+So much of innovation begins with doing research and committing to reaching full potential.
+At the higher education level, we’re investing $90 million in our nationally-highlighted outcomes-based funding formula.
+With this level of funding, I would expect zero tuition increases for our public universities.
+We are also proud to propose a series of research investments to ensure we stay on track to be America at Its Best.
+Recently, the University of Memphis received a Carnegie R1 designation making it a top-tier school for research.
+We will now have what’s known as an R1 institution in each grand division.
+We are proposing $50 million toward a research endowment to propel work that will make Memphis a global leader in AgriTech, cybersecurity, and the digital workforce.
+Meeting our full potential also means being home to some of the best historically black colleges and universities in the country.
+Back in November 2020, the Speakers appointed a Joint Land Grant Committee, chaired by Representative Harold Love, to explore how the state can better understand the new needs of Tennessee State University.
+Today, I'm recommending a $250 million dollar investment to improve the physical infrastructure at TSU.
+Our commitment to innovation will continue east right through the Oak Ridge corridor.
+We’re investing more than $70 million to complete the Oak Ridge Innovation Institute, which is a partnership with the University of Tennessee to invest in data science, technology, advanced materials, and much more.
+For decades, East Tennessee has been home to some of the best kept secrets in nuclear energy and American innovation.
+Today, many may not realize that Tennessee derives more power from nuclear energy than from any other source.
+Recently, I visited the TVA’s Watts Bar nuclear facility, the last nuclear facility to be built in America, to see firsthand how nuclear power keeps our grid dependable even when the weather is not.
+Nuclear power is clean energy that actually works for the private sector.
+It has enabled us to land major economic projects because not only is it clean, but it is also cheap to produce.
+Tennessee’s expanded nuclear potential rests at the Clinch River site as one of the few undeveloped, certified nuclear sites in the country.
+We are working directly with TVA to formalize a long-term strategy so the Clinch River site can be part of powering America.
+If we’re going to have a real conversation about energy in America, it needs to be safe, cheap to produce, and reliable. I believe that conversation starts right here in Tennessee at the Clinch River site.
+Our state is one of the fastest growing states in the country.
+We have an obligation to future generations to invest in our roads and bridges to accommodate that economic growth.
+My budget proposes accelerating the IMPROVE Act by allocating $100 million to ensure progress on critical projects.
+I'm also proposing more than $170 million toward interchange improvements in 12 counties across the state that will propel economic growth in rural areas, because if we want to look at what’s right about America, we’ve got to look at rural Tennessee.
+I'm also proposing more than $250 million toward road infrastructure projects in the fastest growing counties.
+All of these amount to well over $600 million additional dollars invested in road infrastructure, over and above what was already in place, and that is what meeting our obligation to the future looks like.
+Exceptionalism: Preserving What’s Best About America
+Earlier, I mentioned Tennesseans are what make our state exceptional.
+I recently watched President Reagan’s farewell address, made just before he left office in January of 1989.
+As many other Presidents have done, his farewell address includes a warning to the American people.
+He reminds us that what we want to have in this country is “informed patriotism.”
+Then, speaking about American history, he says, “If we forget what we did, we won't know who we are.”
+He said, “I'm warning of an eradication of the American memory that could result, ultimately, in an erosion of the American spirit.”
+But he offered a solution by saying: “Let's start with some basics: more attention to American history and a greater emphasis on civic ritual.”
+Some 30 years later, those words are still true, and now more than ever, it is important that we teach true American history, unbiased and non-political.
+Two years ago, we launched the Governor’s Civics Seal program which included grants to support public schools implementing high-quality civic education programs.
+Since then, we’ve nearly tripled the size of the program, and thousands of Tennessee students have received this education, and we expect the opportunity to grow.
+The Fordham Institute recently ranked us as one of the top five states for civics education.
+I’m proud of the “informed patriots” graduating from our Tennessee schools.
+But there is still more to do, especially if we want to provide Tennessee parents with more educational choices.
+Two years ago, I traveled to Hillsdale College to participate in a Presidents Day celebration and spend time with champions of American exceptionalism.
+For decades, Hillsdale College has been the standard bearer in quality curriculum and the responsibility of preserving American liberty.
+I believe their efforts are a good fit for Tennessee, and we are formalizing a partnership with Hillsdale to expand their approach to civics education and K-12 education.
+Informed patriotism should stretch beyond the K-12 classroom and into higher education.
+In many states, colleges and universities have become centers of anti-American thought, leaving our students not only ill-equipped but confused.
+But, in Tennessee, there’s no reason why our institutions of higher learning can’t be an exceptional part of America at Its Best.
+I’m including in my budget $6 million to establish the Institute of American Civics at the University of Tennessee.
+This will be a flagship for the nation - a beacon celebrating intellectual diversity at our universities and teaching how a responsible, civic-minded people strengthens our country and our communities.
+However, our universities not only face internal threats, but are facing very real external threats as foreign powers target them to steal or influence American research.
+The federal government estimates more than $225 billion worth of intellectual property is stolen each year by China, much of this at institutions of higher learning.
+Last year, we shut down Confucius Institutes at our public Tennessee universities to cut ties with an organization that is working for the Chinese Communist Party.
+The State of Tennessee has to remain vigilant with regard to countries and foreign entities who don’t have our best interests in mind.
+Our administration has also strengthened our vetting approach to ensure we do not spend state dollars or incentivize any company doing the work of foreign adversaries.
+We’re doing this to protect our Tennessee economy, our taxpayer dollars and our American security.
+Our state will continue to be a destination for other global companies who are honest brokers, and we welcome them to the table.
+Good faith partnership is core to the American spirit.
+And while we welcome foreign investment, we also welcome individuals from other countries who have legally made America home, and that is something we should always value.
+It’s been said that Americans by birth need to spend time with Americans by choice from time to time to help remind us all of what makes this country so exceptional.
+An American by choice who has impacted me is Rocky Ghazi. He is a Kurdish refugee from Iraq and a proud American citizen by choice. He also serves our state as a trooper in the Tennessee Highway Patrol.
+Rocky and his wife Jeehan are here with us tonight, and we’re proud that you call Tennessee home. Please stand and be recognized.
+Optimism: Best State for Families
+Tennessee fulfills America at Its Best because of our optimism.
+Optimism that our best days are ahead of us, and that we can be the best place in the world for families to form and thrive.
+My office has proposed and supported some of the soundest pro-life legislation in the country.
+Thanks to our partners in the legislature, we passed thoughtful laws that protected the unborn and supported expecting mothers.
+If the federal courts return full authority to the states, Tennessee’s laws will automatically provide the maximum possible protection and offer a glimmer of redemption as America reconciles our troubled past.
+I believe Tennessee can be a major part of that reconciliation by offering both hope and resources to families in crisis.
+This begins with mothers and continuing big investments in their health.
+TennCare’s Health Starts Initiative will now have the funding to put an even greater emphasis on maternal health and holistic care for mothers and children.
+Our support for families will continue through Tennessee Fosters Hope, where we have certified new foster families, offered trauma training statewide, recruited "foster friendly" businesses, and moved many children into forever homes.
+I'm proposing the funding of relative caregiver placements which will allow extended families to keep loved ones close by. We are also proposing a childcare support program for all foster families, regardless of their DHS eligibility.
+You can’t be the best state for families unless you’re the best state for all families. I believe we have significant work to do in improving access to health care for Tennessee families.
+Because of our prudent fiscal management, we’re making huge investments in rural healthcare in this budget. And that means actual care, not just keeping hospitals open.
+We need qualified, dedicated physicians and staff in rural areas.
+We are dedicating more than $18 million to attract 150 new primary care residents for rural Tennessee.
+Because of the confidence we have in our block grant waiver, we are able to make significant investments in health care, including an additional $55 million in our Medicaid Pathways to Independence program.
+This simply means more benefits and smarter spending for our TennCare population.
+We are dramatically expanding dental care for more than 600,000 TennCare recipients through a $25 million dollar investment and working on a multi-year commitment to broaden dental services across the state.
+It’s no secret that the opioid epidemic has ravaged many of our communities all across Tennessee.
+Therefore, we are increasing investment to support addiction recovery through mobile units and improved walk-in care.
+In spite of this challenge of opioid addiction, we are at a hopeful moment thanks to a tireless fighter who serves our state.
+Our Attorney General Herbert Slatery has worked to ensure every county in Tennessee is entitled to part of the $26 billion dollar suit against pharmaceutical companies who fueled the opioid tragedy.
+General Slatery is a national leader who was recently recognized as the Best Attorney General in America. General Slatery, please stand, and let Tennesseans say thank you for all you have done.
+From education to infrastructure,
+From economic development to healthcare,
+This budget is bold and balanced, and most importantly, it doesn’t ask Tennesseans for a penny more in taxes.
+Members of the General Assembly, the state of our state is strong, and I look forward to working with you to make it stronger, yet.
+Closing
+Tennessee is, in fact a beacon for America, a harbinger of opportunity, of security, of freedom.
+We are the reminder of what can be, but is not yet, very much like the formation of a more perfect Union.
+Every child doesn’t yet have access to a high-quality education.
+Every neighborhood is not yet safe.
+Every family doesn’t yet have opportunity.
+But what I know is this.
+Every single member of the Tennessee General Assembly, every court justice, every constitutional officer, and this governor knows that if anybody can do it, Tennessee can.
+In First Chronicles, scripture describes the leaders of ancient Israel at a particular time in its history.
+These leaders are described as ones who understood their times and knew what they should do.
+May we be those leaders.
+May we ensure that the beacon that is Tennessee - America at Its Best - shines brighter than ever before.
+May the Lord grant His favor upon the great state of Tennessee. Thank you.</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>To Utah’s public servants gathered here tonight and my fellow Utahns: Welcome.
+Our time together this evening is brief — indeed our time in public service is brief — so I will
+forgo many of the formalities of this setting. Although a departure from custom, I would ask you
+to hold applause until the end as we examine together the many critical issues facing our state.
+For some of you, I know that holding applause won’t be hard.
+You see, we have many important things to accomplish together. Real work. Hard work. And I
+don’t want to waste a single moment.
+It seems like nearly all we have talked about for the past two years is COVID. And while we,
+along with the rest of the world, find ourselves in the middle of record cases and hospitalizations,
+there are a few silver linings. I am encouraged that Utah currently has the 6th lowest
+hospitalization rate in the nation — and that our rate is less than half the national average.
+Experts also believe that Summit County has already started declining and assure me that the rest
+of the state will soon follow.
+We have tremendous medical and public health workers in the state who deserve our deep
+respect, support, and thanks. That was true in early 2020 when the pandemic first began. It is
+even more true today.
+To Utahns from all sides of the political spectrum, there has been and will undoubtedly continue
+to be disagreements on how best to respond to this ongoing pandemic. But may we all find
+common ground tonight on this one issue. Our children need us to be strong. They need us to
+2
+point to a hopeful future. And they need to be in school, in person, face-to-face with their friends
+and teachers.
+To those teachers with us tonight, I know that you are on mile 42 of what was promised to be a
+26.2 mile COVID marathon. And while we can never thank you enough, I do believe that we can
+pay you better.
+Thanks to the leadership of President Stuart Adams and many others, last year we made historic
+investments in our schools and teachers, $510 million in all.
+This year we can do even more.
+That’s why I am proposing more than $970 million in education funding with a priority focus on
+at-risk and disadvantaged students. A child’s zip code should never determine their future or
+their opportunities.
+This session I am also proposing the elimination of all school fees for the basic coursework
+required for graduation. This legislation being drafted by Rep. Adam Robertson will save Utah
+parents $55 million each year, with many of those dollars going to Utah families struggling to
+meet essential financial obligations.
+But money alone is not enough. The data is clear — for far too many children an inability to read
+at grade level by 3rd grade means a life of struggle and disadvantages. And that is why I am
+asking you to join me in supporting Sen. Ann Milner’s bill to make sure every child has the
+reading foundation necessary for future success.
+One of the greatest challenges Utah families are experiencing today is the booming tax of
+inflation, which just recently hit rates not seen since 1982. In Utah, we must be a bulwark against
+the bad decisions in Washington, DC that are harming our people.
+Because of critical decisions we made together during the pandemic, and the incredible resilience
+of Utahns, our state is in its strongest fiscal condition ever with the largest rainy day fund, lowest
+unemployment and largest budget surplus in our state’s history.
+Last year we delivered nearly $100 million in tax cuts for Utah seniors, military veterans and
+families. Tonight, I am proposing an additional $160 million grocery tax credit for Utah families
+who are suffering the devastating impacts of inflation. With this year’s surplus, I think we can all
+agree that it’s time we gave some of that hard-earned money back to Utahns.
+3
+This past year was one of the driest on record, with 98% of the state experiencing extreme
+drought conditions. Utahns stepped up in a big way, conserving billions of gallons of water to
+help us through this crisis. Tonight, I encourage you to vote for bills carried by Reps. Robert
+Spendlove and Ray Ward to prioritize water storage and dramatically improve water
+conservation in our state.
+And to Speaker Brad Wilson, you have always been a champion of thinking big and planning for
+the future. I am proud to say in front of this body and the entire state that I am 100% committed
+to helping you accomplish your vision of saving the Great Salt Lake.
+While water is the greatest limiting factor to our growth, there are several other pressing issues
+we must address including air quality, transportation, housing affordability and other
+infrastructure needs. Our goal should never be to grow for growth’s sake. We must prioritize a
+quality of life that all Utahns can enjoy.
+To Utah’s newest residents — and as the fastest-growing state in America there are many of you
+— welcome to our beautiful state. We are happy you have chosen to call this your new home.
+We have so much to learn from you.
+But, if I may make one small request: Please don’t attempt to change us into the place you just
+left. Utah has maintained a high quality of life and abundant opportunity for our residents
+through practical, common sense governance and it is absolutely critical that all of us do
+everything in our power to keep it that way.
+Legislators, this session I ask for your support of new bills spearheaded by Reps. Joel Ferry,
+Steve Waldrip, Joel Briscoe and Sen. Jake Anderegg to remove government regulations that
+needlessly increase Utah’s housing prices.
+We can increase supply without decreasing quality of life. This one will not be easy. But we
+cannot let our state become California.
+For the first time ever, people on the Wasatch Front are experiencing something that those of us
+from rural Utah have felt for far too long: the terrible realization that our kids and grandkids
+might not be able to live near us. In rural Utah that happens because of a lack of jobs. Along the
+Wasatch Front, it’s due to the unsustainable increase in housing prices.
+We have to get this right. We must act now.
+And with the strongest economy in the nation, we have a generational opportunity to invest in
+infrastructure. If the federal government is going to continue recklessly spending money
+4
+borrowed from future generations, it is our duty to invest in projects that will benefit our children
+and grandchildren.
+This session I ask for your support of a dramatic overhaul and removal of many state and local
+economic incentives under bills carried by Reps. Mike Schultz and Steve Handy. In fact, our
+Unified Economic Opportunity Commission will be presenting 26 new policy initiatives,
+including bills on workforce development, education alignment with industry, housing
+availability, a better start-up ecosystem, reimagining rural economics, bolstering international
+trade, multicultural economic empowerment and bridging opportunity gaps.
+I further encourage you to vote for legislation sponsored by Sen. David Hinkins and Rep. Carl
+Albrecht to help Utah become the nation’s leader in sustainable energy development. We can no
+longer be reliant on foreign countries — some of whom actively seek to do us harm — to be the
+primary suppliers of our country’s clean energy future. Twenty-eight of the world’s 35 most
+critical minerals can be found right here in our state. We can show the country and the world
+how to responsibly harness the power of our precious natural resources while being wise and
+protective stewards of this land that we cherish.
+I also need your support for the Utah Sustainable Health Collaborative, which I convened in
+November with the audacious goal of lowering the cost of healthcare AND improving health
+outcomes. The concept is simple but revolutionary: In Utah we can create a new system focused
+on health, not health care.
+In a new Broadway show, one of the main characters says this line: “Happy families only exist in
+orange juice commercials and Utah.”
+Tonight, I am proposing a new position that will make Utah parents and children its singular
+priority. We currently have programs focused on providing necessities for families that are poor
+or in need, but we must do more to make sure families of all shapes and sizes and makeups are
+thriving, including parental leave, access to high-quality child care and mentoring opportunities
+for parents.
+The purpose of this office is not to inject more government into families — it is the exact
+opposite: It is to make sure that government policies are not harming families and that we are
+coordinating government services to help parents and children succeed.
+I firmly believe that Utah’s success in recent years can be directly attributed to our family-centric
+identity — and yes, that includes our nation-leading marriage and birth rates. In fact, that has
+always been part of what makes Utah unique, strong, and resilient.
+5
+After decades of so-called experts warning the world about overpopulation, now the best and the
+brightest correctly cite a low and declining birth rate as a major risk facing human civilization.
+But the risks to our society in abandoning the family are not just macro in scale. This issue
+touches on the things that matter most in the world. We know that the family, the basic and
+fundamental unit of our society, continues to be the most effective and least expensive place to
+solve problems. When families are healthy and happy, society benefits.
+And finally a brief word on election integrity. Over the past seven years as your Lt. Governor, I
+championed bills every single session to improve and strengthen election integrity.
+This year we will continue that trend with another bill from our good Lt. Gov. Deidre
+Henderson. Utah has been and will continue to be a model of election integrity.
+Unfortunately, some in our country have found that unsubstantiated claims and flat-out lies are
+an effective way to destabilize our constitutional republic and make it harder for their opponents
+to participate and vote. Voting security must never be about making it harder for legal voters to
+vote.
+Please beware of false choices. As a conservative, I believe that we should always work to make
+constitutional rights more accessible, not less. I am very proud that voter participation has
+increased since I became Lt. Governor and now Governor. We can have safe and secure
+elections without making it harder to exercise our constitutional right to vote.
+As I have traveled the state, I’ve heard some argue that the Constitution will someday, if not
+now, hang by a thread and need rescuing. I worry that what a few of them fail to see is that, they
+— just like those for whom they have so much disdain and contempt — are daily hacking away
+at those cords, recklessly believing that they will know exactly when to stop slicing and start
+saving. Tonight, I’m asking every one of us to do our part to start tying those “mystic c[h]ords of
+memory” back together again.
+Now, to members of the Legislature, I want to thank you personally and sincerely for the
+sacrifices you make to leave families and employment for these 45 days to do the people’s work.
+I want you to know that I respect you and I admire you. There are many other bills we are
+supporting together that I could have mentioned this evening, but due to time constraints I can’t
+share them all. You will notice I have not mentioned any bills sponsored by my brother-in-law
+Sen. Mike McKell. You may recall that last year I vetoed one of his bills, something I hope we
+can make an annual tradition.
+6
+For about 85% of you, this might be it. As a citizen legislature, you are only guaranteed these
+final 45 days of legislative service. I would ask you how you want to spend these precious few
+days together. We have so much work to do. Real work. Hard work.
+I sometimes worry that we waste too much valuable time on things that tear us apart and
+ultimately don’t matter. You may have noticed last year that I have very little interest in fighting
+the so-called culture wars. Every good and worthy cause — taken to an extreme (and if there’s
+one thing we are good at today, it’s taking everything to extremes) — can become toxic and
+destructive.
+It used to be said that all politics is local. I no longer believe that to be true. Today all politics is
+national. And that is bad. Very bad.
+The easiest thing in the world is to watch MSNBC or Fox News and simply adopt all of their
+talking points and policies. It’s certainly more entertaining than this speech. It’s the most tried
+and true way to get likes on social media. It is also terribly destructive. And it certainly isn’t
+leadership.
+But that’s not us. That’s not Utah. At least it’s not Utah at its best.
+The good people of our state — and our country — are in desperate search for leadership. A
+desperate search for hope. In past generations as Americans, we dreamed big. Now, I’m afraid
+that our eyes are consistently in the gutter.
+But not in Utah. Not yet anyway. In Utah, we still look up.
+I firmly believe in my heart that if America is the last great hope of the world, then Utah is the
+last great hope of America.
+But this is no guaranteed birthright. We have a choice, and we must make it every day. We can
+either become like every other state in the union or we can continue to be that quirky state out
+West that still believes in working together.
+Cynics like to attack this concept of “the Utah Way.” They say it’s a useless slogan: overplayed,
+untrue, or trite. Some lose interest in the concept as soon as something happens that they disagree
+with, forgetting that, as Judge Learned Hand taught us, "the spirit of liberty is the spirit that is not
+too sure it is right."
+7
+We may not always get it right, but in Utah we reject false choices. Here in Utah, we proudly
+protect religious liberties and love and proudly protect our LGBTQ neighbors. We deeply love
+our refugees and immigrants from all parts of the world and deeply respect the rule of law.
+In Utah, we wisely invest in the future, and wisely don't spend beyond our means, even saving
+for rainy days. We share a love of community while holding individual freedoms as sacred. We
+protect our unborn and support our single mothers and children facing poverty and trauma. And
+we fully stand behind our beloved people of color and our beloved people in law enforcement.
+So, let’s not be distracted for a second by cynics who fail to appreciate the Utah Way. Let’s
+cheerfully and resolutely go about doing the people’s work, the real work and the hard work of
+governance. Competently, and often quietly, lifting Utahns up and improving lives.
+As a point of personal privilege, Mr. President and Mr. Speaker, I will conclude with a brief
+family story of mine (and yours, Mr. Speaker). My ancestor Orville Sutherland Cox moved to
+this state from Illinois where his home was burned to the ground by angry mobs. They lost
+everything.
+Well, almost everything. When two men showed up with torches to burn the house, my pregnant
+grandmother refused to leave until those men helped remove her favorite piece of furniture. After
+ignoring their threats and realizing she was serious, the two men put down their torches, carried
+the cabinet from the home and then burned the rest of the house to the ground. When my
+grandfather returned, they cooked dinner on the ashes of the home and soon made their way to
+the barren desert of Utah.
+Upon his arrival in the Salt Lake Valley in 1847, Orville was immediately sent up the canyon to
+help bring back timber to help solve Utah’s first housing crisis. Losing sight of his mission to
+bring back lumber to build new homes, Orville instead brought back a “magnificent specimen of
+a pine” for a Liberty Pole that was raised on Pioneer Square just a few blocks from where we sit
+tonight. This was the first pole to carry the American flag in the Salt Lake Valley.
+You see, my great-great-great grandfather had every reason to hate the United States of America,
+a country that promised him his First Amendment right to a free exercise of religion only to see
+that same government stand aside when the mobs assembled.
+But he never gave up on the IDEA of America. He believed in the promise of what America
+could be — not what it was at that moment.
+To my friends of color: You may believe the immortal words of Martin Luther King Jr. that, “the
+arc of the moral universe bends towards justice ...,” but you also know it sure takes a long time
+8
+to get there. Let’s walk together and do the work to make Utah a place where there is truly
+liberty and justice for all. Please don’t give up on the idea of America.
+To my friends in rural Utah, who for far too long have exported our kids away from home: I
+understand that you’re hurting. We have seen far too many deaths of despair. Let’s walk together
+and do the work to make Utah a place where the promise of life, liberty and the pursuit of
+happiness is found in every community. Please don’t give up on the idea of America.
+To my Republican friends, who feel like the world is moving too quickly and the other side is
+trying to change our very way of life: I agree with George W. Bush who said, “Too often we
+judge other groups by their worst examples, while judging ourselves by our best intentions.”
+Please don’t give up on the idea of America.
+And to my Democratic friends, who worry that our country is broken beyond repair because we
+are failing to take care of each other: I agree with Bill Clinton, “There is nothing wrong with
+America that cannot be cured by what is right with America.” Please don’t give up on the idea of
+America.
+To you my fellow public servants, I pledge my hands and my heart in this work. It is our
+privilege to represent the great citizens of this state for but a moment in time.
+Let’s do the big things. Let’s do the things that matter. Real work. Hard work.
+May God bless you. And may God forever bless the great state of Utah.</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Madam President, Madam Speaker, Mr. Chief Justice, members of the General Assembly, and fellow Vermonters:
+It is our tradition at the opening of the legislative session to come together and chart our course for the work ahead.
+Whether in times of peace or war, prosperity or depression, those who came before us felt the same hope and optimism we share today, ready to do the work to take on new problems and solve those that have eluded us for years.
+It is a day I have been a part of many times. I have delivered, presided over, or sat through 21 of these addresses. And I have always felt that on this day, with all of us together, anything is possible.
+In this moment, we get to decide where we will focus over the coming months, which challenges we’ll work on and those we’ll set aside to do what is best for our fellow Vermonters.
+***
+It has been almost two years since we were last together in one room. I know your decision to legislate remotely was a difficult one, but it was the right one, for now. And it proves that our government – through great adversity – can and will move forward.
+But I think most agree remote legislating doesn’t have the same energy and emotion, comradery, cooperation, and occasional conflict that are essential for good policy making.
+And it’s left many feeling a bit nostalgic for the chance to see friends, even those we don’t always agree with; for the ideas that come up in cafeteria conversations and go on to become bills and then laws; and for the privilege to be recognized on the floor, to represent your district, to make your case, and to know that the voice of your constituents has been heard.
+Friends, we will get through this and be back together soon. But for now, I know we will find a way to take on our challenges, to see them through, and to make a difference for those we serve.
+***
+There is no doubt the last 21 months have been difficult. But if we are willing to make the most of the silver linings, there is much to be gained.
+Thanks to the work of our Congressional Delegation – especially Senator Leahy – we’ve received billions in federal aid. And with that aid, we came together to fund significant needs.
+We rolled up our sleeves to achieve the highest vaccination rates in the country and then kept them rolled up, went to work, and passed historic investments in housing, broadband, climate change, water and sewer, and economic recovery – dedicating over $600 million to transform communities, large and small, across the state.
+I am pleased to report that nearly half of this funding has already been approved for release, with public servants in just about every agency moving projects forward every day. And that is on top of the more than $500 million we spent on infrastructure through our typical funding sources.
+These investments will help reverse decades of economic inequity in every single county.
+This has put us on a new path, creating more opportunities for the future than most of us thought possible just a few short years ago.
+For these reasons, I can report to you today that the State of the State is strong.
+And we are growing stronger every day, so that every new generation in every county and every community is healthier, better educated, and more secure and prosperous than those who came before.
+***
+To get there, we must be clear about the challenges we face, the problems we must solve, and the people and places that need our help most.
+Continuing to navigate out of this pandemic remains one of those issues. We know the next several weeks are going to be incredibly challenging across the country, and we’ll be focused on this issue. But for today, let’s focus on the future.
+Because we have to learn to manage life with this virus and cannot let it derail us from addressing our most fundamental challenges: Our desperate need for more people in our communities and more workers to fill the tens of thousands of jobs available in Vermont today.
+In January 2020, when the new virus was just a fleeting mention on the nightly news, I stood before you and shared my biggest concern: That for years our working-age population and the number of kids in our schools had been shrinking unsustainably, creating deep economic inequity between the northwestern part of our state and everywhere else.
+I reported at the time that only three counties had added workers while the other 11 had lost them. Today, all 14 have lost workers, even Chittenden. And Windsor, Windham, Caledonia, Bennington, Essex and Rutland are down 15% or more since their peak. Statewide, we have seen our workforce decrease by nearly 30,000 since 2010.
+It’s clear that while the pandemic didn’t create this problem, it has made it much, much worse.
+***
+The hardest part of addressing our workforce shortage is that it is so intertwined with other big challenges, from affordability and education to our economy and recovery. Each problem makes the others harder to solve, creating a vicious cycle that’s been difficult to break.
+Specifically, I believe our high cost of living has contributed to a declining workforce and stunted our growth. As we lose Vermonters who cannot afford to live, do business, or even retire here, that burden – from taxes and utility rates to healthcare and education costs – falls on fewer and fewer of us, making life even less affordable. 
+With fewer working families comes fewer kids in our schools. But lower enrollment hasn’t meant lower costs and from district to district, kids are not offered the same opportunities, like foreign languages, AP courses, or electives. And with fewer school offerings, it is hard to attract families, workers, and jobs to those communities.
+Fewer workers and fewer students mean our businesses struggle to fill the jobs they need to survive, deepening the economic divide from region to region.
+And for years, state budgets and policies failed to adapt to this reality.
+***
+But here’s the good news: This is the moment we’ve been waiting for and working towards.
+We’ve been making headway on these issues for the last five years, putting ourselves in a position to reverse our workforce trends, revitalize every county in our state, and secure the future we’ve envisioned:
+One where Vermonters can find a good job, a good school, and an affordable home in each of our 14 counties and 251 cities, towns, and villages. Where kids in the smallest communities have as many opportunities as kids in the largest. Where young families can afford to enjoy all our state has to offer. And where a strong economy generates the tax revenue to easily serve all people, protect the vulnerable, and invest in the things we care about most.
+I am more optimistic than I have ever been that this future is within our grasp. But we have got to work together, so we do not squander this once-in-a-life time opportunity to truly transform our state.
+Five years ago, I said, “when you are in a hole, stop digging.” My friends, today I am happy to report: We are out of that hole, and we are sitting on a pile of bricks, mortar, lumber, and steel.
+So, let’s grab hold, and start building.
+***
+Now we know this will not be easy. It is going to take all of us committing to this goal and pulling in the same direction.
+And I want to acknowledge up front that I will not have all the answers. Many solutions will come from local communities and legislative committees.
+You can expect proposals on my end to be geared towards workforce. Because whether it is training and recruitment, childcare, tax policy, housing, healthcare, infrastructure, or climate change, we must reverse our workforce trends.
+And just so we are clear, for any legislation to have my support, it cannot make this problem worse.
+If we look at everything through this lens, if we have the discipline to stay focused and don’t get distracted by the antics of an election year, I have no doubt we can succeed far beyond the incremental steps of a typical session and make significant, lasting, transformative leaps forward.
+***
+So, let’s start with the people already here and do more to connect them with great jobs.
+First, our internship, returnship, and apprenticeship programs have been incredibly successful, not only giving workers job experience, but also building ties to local employers. To improve on this work, the Department of Labor assists employers to fill and manage internships statewide and we’ll invest more to help cover interns’ wages.
+And let’s not forget about retired Vermonters who want to go back to work and have a lot to offer. I look forward to working with Representative Marcotte and the House Commerce Committee on this issue and may others.
+Next, let’s put a greater focus on trades training. And here’s why:
+We all know we need more nurses and healthcare workers. And as I previewed with Senator Sanders and Senator Balint earlier this week, I will propose investments in this area. But if we don’t have enough CDL drivers, mechanics and technicians, hospital staff won’t get to work; there will be issues getting the life-saving equipment and supplies we need; and we will see fewer EMTs available to get patients to emergency rooms. If we don’t have enough carpenters, plumbers and electricians, or heating, ventilation, air handling and refrigeration techs, there are fewer to construct and maintain the facilities in our healthcare system or build homes for the workers we are trying to attract.
+If we make smart changes to current policy, we can open the door to Career and Technical Education, giving kids multiple paths to a lucrative career and filling these crucial jobs.
+But more importantly, we need to do more to encourage students to pursue these programs. And I can say from my own personal experience, it is not easy to choose the CTE track, even when it is your passion.
+For far too long, we have not done enough to point students toward these great opportunities to build a real future for themselves. It is time we end the stigma around CTE. Because the fact is, many of the smartest, most successful people I know are in the trades.
+So, let’s all recognize that it is just as important, valuable, and impressive to become an electrician, welder or EMT as it is to go to Stanford, Dartmouth or Harvard.
+***
+Our strategy to grow the workforce cannot just be about training, it must be about meeting the needs of families. That’s why my workforce proposals also include things like housing, affordability, and jobs.
+Twice over the last five years, we have passed the largest investments in housing in the state’s history.
+Last year, we focused heavily on permanent housing for homeless Vermonters. As a result, we have built about 800 new affordable units with another 800 under development. And we have helped over 1,300 struggling families transition out of homelessness, giving them the dignity and security of permanent homes to regain their independence.
+And to help with heating costs and reduce emissions, we are working to deploy the $20 million in weatherization funds passed last year.
+This is important but it is not enough, and it does not get at the heart of our problem: the lack of decent, affordable homes for middle income families.
+Without it, workers we have can’t afford to move up and the workers we want can’t afford to move in.
+We must recognize housing policy is workforce policy. If you will work with me in budget adjustment to allocate $80 million more, we can show we are fully committed to this cause. And in the budget I will present in two weeks, you can expect to see another $100 million – because it’s time get serious about putting the benefits of a good home and a good investment within the reach of every Vermonter.
+***
+Housing is not the only area that remains unaffordable. Our fiscal discipline over the last five years – including multiple budgets that did not raise taxes or fees – narrowed the gap between the increasing costs of state government and growth in paychecks. 
+But the fact is, Vermont is still ranked near the top of the list when it comes to tax burden and cost of living. So, we should do our part to keep the costs of government policies from rising faster than peoples’ wages. Because when these costs rise faster, we are pushing people down the economic ladder. But when take-home pay is growing faster than these costs, we are helping people move up.
+So, I will put forward a balanced and progressive tax relief package with a focus on those who need it, like retirees, middle income families and young workers.
+We all want to see Vermonters take home more in their paychecks and for every family to have some breathing room once their bills are paid. If we work together, we can make this happen this session. 
+***
+We know we need more workers, and that also means we need to keep the good jobs we have and add more of them.
+That is why I will propose expanding the Capital Investment Grant program, which we created with $10 million last year, but we received applications for six times that amount. This program is helping employers, like childcare and senior centers, museums, theaters and agricultural businesses, enhance their facilities and keep good jobs and services here – so let’s do more.
+We are also continuing our work to attract new businesses from Canada with the help of our new business recruitment office in Montreal.
+And let’s also help our most cutting-edge employers, like Northern Reliability and Beta Technologies, become global leaders to grow our tech and climate sectors right here in Vermont.
+***
+As I have said many times, if we build the strongest Cradle to Career education system in the country, it will be one of the best economic development tools we could ask for.
+And this means looking beyond a preK-12 system.
+We have worked together to increase the State’s investment in childcare by over 30% since I took office. To build on that, I will propose changes to our Childcare Financial Assistance program to increase access to quality care and learning.
+And alongside this focus, two years ago at my request, we started down a path toward universal afterschool and summer programs. Last year we joined Senator Sanders, schools and private partners to take some big leaps forward. Through our Summer Matters initiative, we added 30,000 more summer camp slots and about 240 more weeks of programming. And we will do it again because we should be offering these opportunities to young Vermonters, year-round.
+***
+This initiative came at a time when our kids desperately needed to reconnect with friends, get outside and just have fun.
+Because we must acknowledge that many of the difficult decisions we made to keep people safe before vaccines, while necessary at the time, had negative effects. These are the real-life consequences we must consider when thinking about returning to restrictive pandemic measures.
+Just look at our hospitals, where many patients are sicker and getting admitted because of deferred care. Or our mental health system, where demand for crisis services has never been higher.
+And when it comes to our kids, who lost out on months of full in-person instruction, not to mention music, drama, sports, field trips, dances and all those normal interactions we took for granted, this pandemic has taken a significant toll.
+The strain was far too much for some, sending them to the ER for mental health needs. And while it was less severe for others, the grief was still felt.
+Last spring, I heard directly from students about the impact of hybrid learning. A 13-year-old from Fair Haven put it best: She said, “Not being able to enjoy school and socialize with friends has made a lot of us feel lonely and down.” And she asked me to “bring back some enjoyable activities so students will look forward to going to school.”
+From academics to extra curriculars, we have a lot of ground to make up. So, the Agency of Education, Department of Mental Health and schools are putting $285 million in recovery dollars to work to address social, emotional and educational gaps.
+I know teachers, parents, school nurses and administrators are working harder than ever to make up for these losses, all while dealing with high case counts. I thank every single one of them. I know it is not easy, but it is so much better for students to be back in school.
+Please know, we are in this together and for the sake of our kids, we must keep moving forward.
+***
+As I said, they are not the only ones impacted by the State of Emergency, which is why we need to remember that COVID-19 is not our only serious public health challenge, and we cannot continue to address just one, at the expense of the others.
+Our mental health system is facing serious stress and it is not uncommon for emergency departments to have many people in mental health crisis, as they await treatment. Which is why we will continue to increase the number of mental health beds throughout the state.
+And I’ll ask you to expand our mobile crisis pilot and suicide prevention model to make sure when our friends and family, neighbors and co-workers need us most, we have the tools to help.
+And while we did our best to support those struggling with addiction during the pandemic, the data is clear: It was not enough. So, my budget will expand prevention, treatment and recovery efforts.
+Supporting those dealing with substance misuse and addiction has been a priority and a commitment we have all shared for nearly a decade. No matter what other challenges come our way, we cannot weaken our efforts to reduce the number of Vermonters struggling with drugs and alcohol, the number of families it touches, and the lives it claims.
+***
+This work not only keeps people healthier, but it also makes communities safer.
+As we modernize law enforcement policy, we cannot forget that police and other first responders are essential to public safety. And this is another area where we have a significant labor shortage.
+The work we are doing to continuously improve fair and impartial policing is necessary and important. And much of it is being led by our state and local officers themselves. We have also taken meaningful steps like universal body cameras, new training and a statewide Use of Force policy.
+There will always be more to do, but we must account for what is already being done and make sure we continue to have the tools and the people to serve and protect our communities.
+***
+Law enforcement, human service and healthcare workers cannot do it alone, so let’s recognize that safe communities start with strong communities.
+Investments in infrastructure, like water and sewer, broadband and climate change resiliency will help increase economic equity and strengthen our communities from region to region.
+This is exactly why the American Rescue Plan Act (ARPA) investments we made last year were so important. For example, with the wastewater funding going to Westford, the town can move forward on new housing and bring small businesses to its town center, a plan that has been 16-years in the making. We are also working to help Montgomery with its plans for a similar project that will also bring jobs and housing. And with our investments in broadband, we will bring fiber to people, who for far too long, have had little or no access to this service. But only a portion of the $1 billion proposal I presented was funded, so this year we will ask for the rest of it.
+Just making the investments is not enough because it remains difficult and expensive to build here in Vermont. So, let’s continue expanding tax credits for our downtowns. And let’s add more tools to revitalize vacant, and once vibrant properties, including some of our shuttered campuses like Green Mountain College in Poultney and old industrial sites like Jones &amp; Lamson in Springfield.
+There are many ways to strengthen our communities and we finally have the funds to do this work.
+But we must ensure our regulatory system does not become the bottleneck that holds us back. So, I will once again ask you to bring our 51-year-old land use law into the 21st century. Given the time constraints on the federal money and the need to move quickly to truly make the most of this incredible moment, the time to modernize Act 250 is now.
+***
+This is what can be achieved this session: Major additions to our education system that make it the best in the nation. Good jobs and an affordable cost of living, so families can prosper. And safe and healthy communities with thriving town centers that – along with our incredible natural resources – offer the best quality of life in the nation.
+This benefits the people here now and gives us the workforce recruitment tools we need.
+But we can’t rely on that alone. We have to tell our story. We have to make sure people know all we have done to make Vermont such a great place for families and workers, and we have to make it easy for them to move here.
+So, I will again propose a comprehensive relocation package that makes the best use of marketing dollars to identify and directly reach people who have past ties to or current interest in Vermont, like young adults who moved away after graduation or those who enjoy the outdoors.
+In addition, my budget will support the Senate’s worker relocation incentive program – with some changes – to bring in more families who contribute to our communities, schools and economy.
+And let’s finally eliminate the tax on military pensions because if we want members of the military – after a 20-year career – to join our workforce, we must be able to compete with the 47 other states that have already greatly reduced or removed this burden.
+In the past, we have worked with Secretary of State Condos to improve our licensing laws, becoming one of the first states to give credit for experience gained in the military, accepting more credentials from other states, and speeding the process for licensed alcohol and drug counselors. This is putting more skilled professionals to work, so let’s further modernize these laws.
+And when bringing in more people, we should go beyond our borders to welcome more refugees – especially the Afghan allies who served alongside our servicemen and women in the Global War on Terror. Because the truth is, we need them. And more importantly, welcoming refugees is the compassionate thing to do; it is the right thing to do; and it is the American thing to do.
+***
+There is no doubt we face significant challenges and fixing one is dependent on fixing several others. But we now have the resources to make a big difference and that is exactly why this is such a unique moment in our history.
+Late last year, our nation lost a great American. General Colin Powel devoted his entire life to our country. He fought for freedom and democracy, liberty and equality, even though – because of the color of his skin – those ideals weren’t always equally applied to him.
+With a thoughtful and honest approach, he viewed the world from the center and always looked both ways before making decisions.
+General Powel believed, “There is no end to the good you can do if you don’t care who gets the credit.”
+I guess that’s why he never ran for office.
+But we did. And the way I see it, there is one thing that could pull this incredible opportunity out of our reach, and that is election year politics.
+So, let’s remember the work done here and across state government, is not about us.
+It’s not about how many votes we get, how many followers and likes we have on social media or how many times our name is in the news. It’s not about checking things off a national political agenda, or proposing policies to raise money, earn endorsements, or to have better answers for all those special interest questionnaires. 
+It’s just not about us.
+It’s about the workers who want to know they will still have a job as we continue to manage COVID, like the waitress in Burlington who told us she was worried about her paycheck, and her kids, if they get shut down again.
+The high school senior who is not planning on going to college but has talent for a trade that could lead to a lucrative career or a business of their own.
+The communities like Sheldon and Orleans that depend on the local plant for jobs and economic activity.
+The kids like that 13-year-old Fair Haven student and thousands like her who need us now more than ever and are relying on us to leave them a healthy planet.
+It’s about the people of Vermont. We are here for them.
+Because the fact is there is no amount of money, infrastructure projects, or government policy that can rebuild and grow our communities without people. The volunteers in the fire department and on the planning commission. Those who step up to coach and train, mentor and inspire our kids. Neighbors willing to drive someone to pick up groceries, to visit a loved one, or to get their booster.
+Our success through the pandemic and the opportunity in front of us is thanks to the hundreds of thousands of Vermonters who stepped up. But there is more work to do, and it is going to take all of us, recognizing that this moment is one of service.
+So, for those still looking for a way to give back, this is your time. Help out at a place like Jenna’s House in Johnson or Josh’s House in Colchester – both started by parents who experienced incredible loss but transformed their grief into good, helping others and saving lives. Join a school board or become a substitute teacher. Sign up and train to be an LNA to start on the path towards your dream of a career in healthcare. Volunteer at the senior center, take that extra step to welcome a refugee family to your town or simply call a friend who may be struggling through hard times.
+It’s the little things, along with the big, that will make certain we meet this moment.
+We have a big job ahead of us, but a brighter future is within our grasp:
+The best education system in the country; resilient kids and thriving families; clean water, and a healthier planet; strong communities with good jobs, affordable homes, and vibrant downtowns in every corner of our state.
+Friends, this is all within our grasp. We just need to reach out – together – and take hold.</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Good afternoon.
+Standing here before you, and looking around this room, I’m struck by the history that’s been made in this place, the people’s house.
+As well as the fact that the work you do here has great consequence for the people of Virginia. And so it is as we gather here today.
+Mr. Speaker, Madam President, Lt. Governor Earle-Sears, Chief Justice Goodwyn, and Justices of the Supreme Court, members of the General Assembly, my fellow Virginians, today we begin anew, all of us together.
+After years of fractured politics, a deadly pandemic, lives and livelihoods lost, soaring mental health incidents and drug overdoses, rising crime rates, ever-increasing costs for housing, food and fuel, Virginians have sent us here to turn the page.
+They came out in record numbers to make their voice heard. They chose a new vision for the future.
+Today, I want to speak to that vision and begin our partnership to address the priorities of the people.
+I’ve enjoyed getting to know so many of the members of these two legislative bodies both Republicans and Democrats.
+You have invited me to your homes. We’ve shared meals together. We’ve done community service together. And I thank you for that.
+We’re all part of Team Virginia.
+And as I shared on Saturday, we can take inspiration from Dr. Martin Luther King’s life which we celebrate today and his words that “we may have all come on different ships, but we’re in the same boat now.”
+The work we have to do, we must do together.
+And there isn’t a better example of people coming together on behalf of Virginia than the brave crews, the law enforcement heroes, and the first responders who worked during yesterday’s storm in the freezing cold, ice and snow to keep our streets safe, the lights on and our hospitals open.
+Before I speak to the work ahead, I want to recognize someone who has traveled with me every step of the way.
+She inspired me to live a life of faith as a younger man. She is an example of humility and strength not just to our children but to women across this great commonwealth.
+She is the best partner I could ever imagine our First Lady, Suzanne Youngkin.
+After a year of campaigning at diners, senior centers, schools, housing projects, courthouses…even pickup basketball games, I’ve taken the measure of our people.
+I’ve found them to be resilient, optimistic, courageous. I listened to their hopes and concerns their dreams and fears. Their stories of inspiration and stories of tragedy.
+Some cried on my shoulders. Some prayed over me. And some spoke bluntly maybe a little too bluntly at times.
+Almost all expressed a desire for a Virginia worthy of the ambitions of its people.
+I come here today to echo their clarion call for change.
+To form a government that works for ordinary citizens. That’s a catalyst for opportunity and not an obstacle. And that addresses the kitchen table concerns of working families that are real and mounting.
+It’s been said that all great change starts at kitchen tables across America.
+You see, that’s where families talk about what matters to them. It’s also where parents discuss their worries stagnant wages in the face of rising expenses caring for an elderly parent and trying to find a way to save for their kids’ future.
+I want to share with you something that we’ve all heard from voters.
+They’re genuinely concerned that the cold halls of government are disconnected from the cold realities families face while sitting at their kitchen tables every day.
+In that respect, we shouldn’t misconstrue record revenue for government as economic success for Virginians.
+The view from the people, whose labor generates those tax receipts is quite different than the talk in Richmond.
+They see an economy whose growth has stalled at less than 1% per year for 8 years. With household incomes stagnating over the last year --- as the cost of living has sky-rocketed.
+They see declining schools, they see violent crime reports dominating the news, they see record low labor participation, they see small businesses struggling, and they see government failures and encroachments on their liberties.
+From the perspective of every day Virginia families times are tough. And the state of our Commonwealth is not what it should be.
+Today we’re at the proverbial “tipping point” where the cash flow to the government from rising tax burdens is very high.
+And yet the impact of high costs and high taxes, and an increased regulatory burden are clearly being felt in the real economy and the real lives of Virginians.
+The good news is that we have the ability to course-correct before this poor performance becomes permanent.
+With current and projected tax driven surpluses we can lower the tax burdens on Virginia families.
+And make crucial investments in those critical pillars to the great Virginia promise of a lower cost-of-living, excellent schools, safe communities, a rip-roaring economy that lifts up all Virginians, and a state government that works for Virginians.
+To do that, I’m asking each of us in this body Republican and Democrat alike to come together.
+To rise above the Richmond of divisive, special interest politics, the small and the parochial to usher in a sweeping vision of change
+And to put this commonwealth on a pathway to prosperity.
+On day one, we hit the ground running, signing 11 executive actions, and swearing in a full cabinet, outstanding individuals, who are qualified and share Virginia’s values.
+As of today, we’ve worked with legislators to introduce 59 pieces of legislation to tackle our day one agenda.
+And we’ll be submitting a package of 25 budget amendments to reflect our bipartisan priorities.
+We’re addressing issues that are critical to the future of this commonwealth. And that every member in this chamber can get behind.
+Virginians have given us a license to lead. They have charged us all to deliver on a Day One agenda.
+We know on some issues there’ll be deep disagreement.
+But I believe this chamber is big enough for us to talk through our differences. And there is more that binds us than divides us.
+For we all share a common goal to leave a better Virginia for our children.
+We’re going to start by investing in Virginia classrooms.
+Education is the key to opportunity. The means by which all children and their parents can realize their greatest dreams.
+Virginia schools have a lofty reputation. But lately we’ve not lived up to that reputation.
+In fact, our education standards for math and reading are now the lowest in the nation.
+Unelected political appointees lowered standards which inevitably led to a decline in student performance.
+60% of our students don’t meet national proficiency standards, including over 70% of Latino students, and over 80% of black students, failing to meet standard on the math NAEP tests. Remarkably, despite these dramatic declines noted by the National Center for Education Statistics only one Virginia school has been deemed failing
+because accreditation standards were lowered.
+Starting now we’re ending the accountability shell games intended to make us feel good but amount to the often stated “soft bigotry of low expectations.”
+Let’s stop cheating our kids.
+On this we should join arms and purpose together so that when our time here is done we’ll collectively have raised education standards from the lowest to the highest in the nation.
+I’m also calling for $150 million to help us meet our goal of starting 20 new charter schools.
+Whether they’re called charter schools, lab schools, or schools of innovation – it doesn’t really matter.
+I don’t care what we call it I just care that we do it.
+We’re joined today by the students of Green Run Collegiate Charter School in Virginia Beach. Green Run Collegiate shares a facility with Green Run High School.
+They have an innovative curriculum. They provide access to every child in the school district to attend the collegiate program. They’re thriving and their parents are thrilled.
+Please join me in welcoming these future Virginia leaders to our commonwealth’s capitol.
+We’re going to build partnerships between the commonwealth and our great universities to create lab schools of excellence.
+It could be a lab school in Southwest Virginia in partnership with UVA Wise.
+It could be an entrepreneurship or entertainment industry-focused school partnering with one of our amazing historically black colleges and universities.
+Or a partnership with Old Dominion University for opportunities in offshore wind development or maritime projects.
+When it comes to the education budget, I’ve heard consistent bipartisan agreement from all of you that the budget you’ll pass, and that I’ll sign will reflect a record investment in education including a significant boost in teacher pay.
+With the exception of a parent or guardian no one impacts the future of a young child more than a quality teacher.
+We will attract quality professionals to Virginia schools. And we will pay teachers as the professionals they are.
+We must also recognize that the people most responsible for a child’s education are parents.
+My message to parents is this,
+You have a fundamental right, enshrined in law by this General Assembly, to make decisions with regard to your child’s upbringing, education and care.
+And we will protect and reassert that right.
+Hear me clearly when parents are empowered and engaged, a child’s life is enhanced.
+I’ve heard the concerns of parents about curriculum.
+Virginia parents want our history – all of our history, the good and the bad to be taught. And they want their children to be told how to think, not what to think.
+That’s why we should not use inherently divisive concepts like Critical Race Theory in Virginia. And why we should not be teaching our children to see everything through the lens of race.
+That’s also why I want to give parents the right to be informed before their child is exposed to sexually explicit materials.
+Please, send me the same bill you passed on a bipartisan basis in 2017 and I will sign it.
+The classroom environment must be safe, so children can learn.
+I’m asking members of this general assembly to prioritize school safety by putting a school resource officer on every campus.
+I also ask you to join me in protecting students from sex trafficking organizations that recruit them on and off campus.
+Let’s train educators to see the signs of trafficking. And to stand in the gap for children at risk of being preyed upon.
+Let’s also involve local law enforcement agencies in the approval of school safety audits.
+And whenever someone preys upon a child in a Virginia school --- we must require it to be reported to local law enforcement for investigation.
+No more cover-ups. No more sweeping it under the rug. Parents deserve to know if their child is at risk.
+Schools exist for the educational benefit of children, and for that reason they must remain open. I strongly encourage everyone to get vaccinated for Covid-19, and get the booster.
+As we battle covid, its parents that should decide the health measures taken for their children.
+That is why I signed an executive order that allows parents to opt out of mask mandates in schools. This is a matter of individual liberty.
+Again, this body passed a law that protects parent’s fundamental right to make decisions concerning the upbringing, education, and care of their children.
+And health care workers should get to make those decisions too.
+And I will continue to oppose President Biden’s COVID vaccine mandate for health workers as we continue to fight a crisis of staffing in Virginia’s healthcare system.
+Our fight against COVID-19 will move forward based on this simple principle we will protect lives and livelihoods.
+That means no more mandates and no more shut downs. As I said on Saturday it means Virginia is open for business.
+It also means the science since the beginning of the pandemic has not been static. We now have therapeutics better testing protocols and fortunately a less severe variant.
+And of course we have vaccines. It means, educating our friends and neighbors and encouraging them to get the vaccine and the booster.
+There are 1.6 million unvaccinated Virginians today.
+And speaking to you as your Governor, I’ll never tell you what you must do. But speaking to you as a friend and a neighbor I strongly encourage you to get the vaccine.
+The data is clear people who do not get the vaccine are four times as likely to be hospitalized.
+The vaccine will not only help keep people out of the hospital, it will also keep people working, earning a paycheck and growing our economy, something that has to remain a top priority for us all.
+Our Day One Plan will jump-start jobs.
+We’re going to repeal needless regulations. We’re going to invest in job training. We’re going to foster innovation. And we’re going to win the competition for jobs and corporate re-locations.
+I support a significant investment in mega-sites.
+To make sure we don’t lose the next advanced battery manufacturing plant after seeing several go to Kentucky, Tennessee, North Carolina and Georgia.
+And while we’re at it let’s broaden the baseball stadium authority to include football. And perhaps we’ll get one of those too.
+I want our rural Virginians to know we’re spreading prosperity far and wide. And rural Virginia won’t be left behind.
+We’re not only bringing jobs, we’re bringing high-speed broadband.
+Every governor for the last decade has stood in this chamber and told you that rural broadband was a priority. This time we’re going to get it done.
+We’re also going to make certain that key projects at our ports and our highways are completed.
+So the message is clear, if your cargo container ships is stuck off the coast of another state come to Virginia.
+We’re ready for your business. And we won’t make supply chain problems worse with regulatory red tape.
+And let me be clear, I believe in the fundamental right to work.
+If anyone tries to bring me a bill that creates forced unionization it will meet the business end of my veto pen.
+The states around us have created more jobs, grown their economies faster, and took steps years ago that we must take now, lower taxes, business-friendly regulations, workforce development and more.
+This is a real competition, and to win, we have to “play to win.”
+One of the other challenges businesses face especially small businesses is the high cost of providing health care for their employees.
+Over the last three years, you sent the governor eight versions of an association health plan bill to make it easier for workers to get health care.
+It was vetoed eight times. Pass that bill again and I will sign it.
+Virginians are struggling with the high cost of living, in a commonwealth with skyrocketing housing costs, rising fuel prices, and the silent wage theft of inflation.
+There are economic fundamentals we don’t control in Virginia – that must be dealt with at the federal level.
+But Washington continues to fiddle in the face of real supply chain challenges. And allows our nation to be overly-reliant on China for critical goods and services.
+But there is one vital thing we can do to help Virginians. And that is remove some of the tax burden --- added on top of rising prices for groceries, gasoline and housing.
+That’s why I support suspending the recent gas tax increase for a year and fully eliminating the grocery tax immediately.
+There’s bipartisan support for eliminating the grocery tax. Together, we will give Virginians real relief.
+We also need to give Virginians a real break on their personal income tax by doubling the standard deduction. And providing the largest tax rebate in Virginia history.
+These tax cuts benefit the people who need it the most.
+And represent the largest tax relief ever given to the people of Virginia $1,500 this year for the typical Virginia family.
+But beyond the economic implications of this package, I believe we have a special obligation to a group of individuals that have served our country with distinction our military veterans.
+Those who risk life and limb for country and community don’t do it for the pay. They do it because service is in their blood.
+The care and support of our veterans, have always transcended partisan politics.
+That’s why I’m asking this General Assembly to act on something long talked about.
+Let’s eliminate the tax on the first $40,000 in military retirement pay together.
+Anyone who wears the uniform risks their life each day on the job. And this includes police officers, firefighters, EMTs, every first responder that keeps us safe.
+We’re in a fractious era and no group of individuals is under greater scrutiny today than our law enforcement.
+A culture of lawlessness has filled the void in Virginia with violent crime on the rise.
+In November, Police Officer Michael Chandler of the Big Stone Gap Police Department was violently gunned down by a vicious criminal.
+Incidents like this are all too common today.
+We’ll never know the depth of his loss to his family but we grieve with them and pray for them.
+In Virginia, we must stand with our law enforcement agencies. And therefore, I’m asking you to fund our police to protect our communities.
+Officer Michael Chandler’s widow --- Natasha Chandler is also a member of law enforcement. She’s a Wise County Deputy Sheriff who even after losing her husband, insisted on returning to serve.
+She’s watching this afternoon.
+Please join me in recognizing the sacrifice that her husband, Michael, made on our behalf.
+The budget submitted to this General Assembly includes pay raises for troopers, sheriffs’ deputies and corrections officers.
+Those are strong first steps I know we all support.
+But we need to provide more funding for our police departments. And more funding for training and equipment.
+Together, we should dedicate $100 million in ARPA funds to a training and equipment grant program for law enforcement. And provide capital funding for a new state police training facility.
+Furthermore, I’m asking you to dedicate $26 million in state funding for police departments. But only in localities that are increasing funding for their police departments.
+We’ll also fund community violence intervention by dedicating at least $5 million to Operation Cease Fire.
+It’s time to take down the temperature around discussions of policing.
+The solution is constructive engagement and dialogue. Not inadequate funding which creates more lawlessness.
+And when it comes to lawlessness, I want to be crystal clear.
+If we won’t tolerate it in communities across the commonwealth then we certainly won’t tolerate it within a state agency.
+On Saturday, I fired the entire parole board.
+And I asked Attorney General Miyares to begin an investigation into what happened there.
+The violations of law and the Constitution, the unconscionable refusal to notify families, of victims about pending decisions to release murderers, were simply unacceptable.
+We will not accept selective violations of our constitutional rights. We will protect all of them.
+We don’t get to pick and choose the parts of the Constitution we want to preserve and protect.
+In order for our government to work for the people, we must also reform the institutions of government that fail to serve the people.
+I’ll admit I’ve never run a government agency. But I know something about running a business.
+And we’re going to bring business efficiency to government bureaucracy.
+That’s why I appointed a Commonwealth Chief Transformation Officer --- to oversee government transformation.
+We will make government more responsive, more efficient, and more transparent and we’ll start by fixing the Department of Motor Vehicles and the Virginia Employment Commission.
+Furthermore, we will be innovative in leveraging federal transportation funds to address the challenges of growth and gridlock.
+In Virginia, we are going to build roads, bridges, rail lines and utility lines.
+We are going to be better prepared for weather events that strain our highways and the electric grid.
+And we will marshal our resources to make our infrastructure the most reliable in the nation.
+As I travel Virginia, I remain in awe of the raw natural beauty of our Commonwealth.
+The mountains, waterways, beaches, parks, farm land, livestock, vineyards, and natural resources testify to our Creator’s artistry.
+I deeply treasure the natural beauty of Virginia. And my administration will dedicate itself to protecting and promoting it as a core principle of our service.
+That’s why we will end the dumping of raw sewage in the James River once and for all.
+I also support fully funding best management practices on our farms in order to protect our soil and water from the Chesapeake Bay to the Jackson River.
+And we are going to see the cleanup of the Chesapeake Bay to the finish line.
+Coastal resiliency is critical to me.
+And it’s critical to our nation because of our Port and military assets in Hampton Roads.
+That’s why we’re going to create the Coastal Virginia Resiliency Authority to battle rising seas and make sure the federal government does its part too.
+Let me state our goal.
+Let’s work together in partnership. To build a government as virtuous as our people. One that serves.
+You don’t have to look too far to find examples of that spirit among the people of Virginia.
+I met a veteran of our military on the campaign trail by the name of Natasha Barijon (BEAR-ee-un).
+She’s an immigrant. And like so many first generation immigrants, she loves this country with a passion few can understand though certainly our lieutenant governor can.
+Natasha knows what life is like in other parts of the world.
+Which is why tears flowed down her face when she told me about her journey to America her pride in serving in our military and the hopes and dreams she has for her daughter to grow up in a better America.
+Natasha represents the best of America.
+She may not have been born here but she is every bit American as someone who was. Because she has lived the ideals of this great land.
+Natasha is also watching today.
+Please join me in recognizing her service to our country and her dreams for her daughter.
+Virginia is home to heroes. Many living and many who lie in eternal rest.
+I attended the funeral of one such hero last month, in Virginia Beach – the Commanding Officer of SEAL Team 8, Brian Bourgeois.
+Brian could light up a room with his laugh and he could put his subordinates at ease during the most tense moments.
+He gave his life in service to freedom. And he left behind a wife, Megan, and five children. One of which – Barrett – led us in the pledge of allegiance on Saturday.
+What price would we in this room put on freedom?
+For some freedom is so precious they would offer everything in its defense.
+Those of us who live in the freedom they so valiantly protect must live lives worthy of their sacrifice. Set aside petty divisions. Set aside ego and self-advancement. And join together to make this Virginia we love better, stronger, freer.
+My friends in this esteemed legislature, I’m inspired to be with you this afternoon. And to be working with you to build a future of limitless opportunity and strengthen the spirit of Virginia.
+Thank you, God bless you, and may God bless the Commonwealth of Virginia.</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Welcome
+Hello and welcome, Washingtonians, to a critical year for our state.
+We know every day of this legislative session is going to be an opportunity to make good on our commitments and to change the course of our future for the better. We have begun a short session with a long list of things to get done.
+I can encapsulate the state of our state very simply – we need action.
+We can wake up every morning the next 60 days understanding we need “action, this day” – which was Churchill’s first order at the beginning of World War II, but it serves to focus on the many tasks before us.
+Gratitude
+I would like to start today by thanking our frontline workers, educators and childcare providers, and our state employees for all they’ve done the last two years. I want to thank those who administer emergency services and plow the roads to keep Washington moving – unprecedented weather events have demanded much of you already this year, and we are all grateful.
+Thank you to the health care workers who have worked tirelessly for two years with little time for rest. You are heroes, and we are grateful for your service.
+I am happy to welcome our new members in the Senate – Yasmin Trudeau and John Lovick – and Brandy Donaghy in the House.
+My thoughts are also with the family of former state Supreme Court Chief Justice Mary Fairhurst, who we lost in December.
+And I would like to reiterate our condolences to the family of Sen. Doug Ericksen, who we lost after a struggle with COVID in December. He is one of more than 10,000 Washingtonians lost to this virus – each one of whose lives mattered. And while we mourn our losses, let us also realize that because of our actions, we have saved thousands of lives.
+We still need to contribute to the fight against COVID, that’s why attendance here today is limited, and everyone is socially distanced. We’re doing everything possible to keep people safe statewide right now: We are increasing access to testing, masking, and helping educators find new ways of doing business. The Legislature has been a strong partner in this pandemic. Last session, they extended 26 emergency orders through the end of the pandemic and made laudable investments in our recovery efforts.
+This has been a long effort, but we are undaunted.
+Legacy
+Look at all we have done together. If you compare our success to other states, we’ve saved more than 17,000 lives. These people are still with us because of what all Washingtonians have contributed to stay safe and healthy.
+It’s not an accident that our state continues to be named one of the best places anywhere to live, work and do business.
+Since I’ve had the honor of being governor, we have implemented one of the best paid family leave programs in the country; provided significant new funds to schools under McCleary; passed the best environmental justice legislation in America; passed the Fair Start for Kids Act to protect childcare options; and successfully created more ways to connect people to careers beyond just the college path. We came back from disasters such as the Skagit Bridge collapse, the Oso landslide, historic wildfires, heat waves, drought and now unprecedented flooding.
+You as legislators have a lot to be proud of. But now we are going to be called upon to do more.
+Action This Day
+We face a variety and dimension of demands greater than ever as we enter 2022.
+We must take action this day to keep and strengthen our commitments to those in need right now and in the future. We must take action this day to fight the homelessness crisis; to reverse social and economic disparities; to educate our children and serve those in foster care; to fund our transportation system; and to protect our salmon and orca. We must take action, this day, to fight the threat of climate change that is now hitting us hard.
+Economic and Social Disparities
+Over the last year I have met people experiencing homelessness across our state, in Tacoma, Moses Lake, Walla Walla, Seattle and Spokane. We have seen what works to improve people’s lives: A private place to live with a sense of dignity. That’s why my supplemental budget includes an unprecedented $815 million investment in safe housing for those experiencing homelessness and to create more options for those struggling with housing availability.
+This budget would also increase behavioral health services, continuing my administration’s successful investments in these life-changing programs.
+All of us know that wrap-around services are critical to helping people out of long-term homelessness. It is fundamental that people not only get a roof over their heads but get access to such services. We must provide rapid supportive housing as soon as possible, this year.
+We also have to realize we need more opportunities for everyone when it comes to housing. We can’t get more housing if there’s nowhere to build it.
+We must pass legislation that removes antiquated barriers to middle housing options in our cities – such as duplexes and town homes – and provides more housing supply to make it available to all income levels. Look, we cannot tell our constituents we are fighting homelessness and yet not provide ways to build more housing. That means we must allow housing that meets the realities of our tremendous population and economic growth this century. This is also a generational issue: If our children and grandchildren are ever going to afford a rent or mortgage, we need more affordable housing.
+My budget also reflects our need to take direct action to reduce poverty. I created a Poverty Reduction Workgroup, made up of people whose lived experiences in poverty could inform our state’s actions. Using their recommendations, my budget would create a $125 million reinvestment fund to address economic and social disparities across decades that are the legacy of federal policies that hurt communities of color.
+Our communities are suffering in other ways as well, like in our classrooms.
+Our Youth
+Students have lost opportunities during remote learning despite the best efforts of our educators. To keep schools open, we must invest more to deal with COVID and address learning opportunity loss.
+We are committed to having our schools open this year, but the impacts of necessary closures linger. To help make sure educators and students have what they need, I propose reinvesting $900 million to help schools address students’ critical needs.
+This proposal further empowers educators so they can innovate to address what kids have suffered through because of COVID, just as they have done throughout the pandemic. Educators, when empowered, can develop solutions to overcome opportunity gaps.
+My budget will increase the number of school counselors, nurses, psychologists and social workers available to serve K-12 students. Anyone who works with kids will tell you these services are needed now more than ever.
+Young people in foster care and their families have also been uniquely impacted by the pandemic. My budget offers $80 million to pay providers more for housing and support foster youth with complex needs; and help young people transition out of foster care or juvenile justice.
+Kayla Barron
+While we put the pieces together to address the current needs that confront our communities, we also must take action this day to address the long-term, existential threats to this state.
+In December, I spoke with astronaut Kayla Barron, a Richland High School graduate. I was in my kitchen – Kayla was aboard the International Space Station. Kayla is a long way from home right now, traveling at 17,500 miles per hour above us and orbiting the Earth once every 90 minutes, so I was honored she took my call.
+I asked Kayla what perspective this experience gave her about our collective home, our planet. She said something that stuck with me.
+Kayla told me she was amazed by how thin our atmosphere is, how at night there is a burnt orange glow at its edge revealing just how paper thin the layer is between a livable world – and nothingness. She said this: “The most important thing we need to survive is the ability to breathe clean air.”
+Our planet’s fragile state is clear on the ground as well. Climate change is not merely a graph on a slide deck with an arrow pointed at calamity. It’s found in the eyes of people who saw floods go through their windows in Everson; evacuees who returned to see the charred ruins of their homes in Malden; or the Colville Tribes who lost 600,000 acres of timber to wildfires.
+When I look into the eyes of people who have lost their home and see the pain they have, that’s the pain of climate change. We have to do everything we can to fight it. Every corner of the state faces climate-related disasters today. Not tomorrow, but right now. This is the fight for the future of our state. And we need action, this day.
+Climate
+My budget builds on the work we’ve done previously and puts $626 million more toward this noble effort.
+Legislators can be proud of the policies they’ve put to work here in our state. And it’s good to know we are not alone in this work.
+The world looks to our state as leaders in climate innovation. This was reaffirmed in November at COP26 in Glasgow, Scotland, where I led a coalition of 68 governments to commit to drastically reduce emissions. Together, we are charting a path to fight climate change by cutting greenhouse gas emissions in half by 2030 and get to net-zero by 2050.
+It is our state’s legal obligation to reduce emissions – but it is also practical, and most importantly it is a moral obligation. Legislators can be proud their work created policies that will remove 43.5 million metric tons of emissions annually. But to meet our statutory commitment, we have to reduce emissions by 6 million more metric tons per year to reach our 2030 emissions limits. That’s equivalent to the annual emissions of 1.3 million vehicles on the road.
+Through legislation, we can rev up this future and make new and existing buildings perform better. We can modernize regulations and incentivize industry to ensure clean energy projects are built here in Washington with living-wage jobs; and make electric vehicles more affordable by giving families thousands of dollars in rebates.
+Buildings are the state’s second largest source of emissions, and many of them are energy inefficient, wasting resources and costing consumers. With buildings lasting anywhere from 50 to 100 years, we must act now to give Washingtonians more efficiencies and to decarbonize our homes, apartments, offices, retail spaces, and more.
+To accomplish this, we have to require gas utilities to chart a path to decarbonize under the Climate Commitment Act. We can improve conditions for developers to grow clean energy resources here in our state.
+Look, there’s good news here.
+We see the future’s promise already burgeoning in Washington, at companies like Eviation in Arlington, where they’re making the world’s first, all-electric, commuter airplane; Vicinity Motor Corp in Ferndale where they’re manufacturing electric buses; at the new solar farms popping up like dandelions in eastern Washington; and net zero buildings such as Climate Pledge Arena in Seattle and the Catalyst building in Spokane. We see clean energy projects built with strong labor standards, growing a broad range of union jobs and apprenticeship opportunities in their local communities, like at the Rattlesnake Flats Wind Farm in Adams County.
+Now, with all the challenges we face, why do I believe this Legislature is up to the job of fighting carbon pollution?
+It’s because this is the Legislature that has in its hands the most beautiful place on the planet and the health of more than 7 million people. I know you won’t let the people down.
+Salmon
+The same goes for salmon. As the future of salmon goes, so goes the future of our state. Our region’s salmon are threatened by climate change, pollution and habitat loss.
+My budget would put $187 million toward salmon recovery.
+We must restore the green corridors along rivers and streams known as riparian habitat, which keeps the water clean and cool. Our legislation sets a unique ecological blueprint for each river and stream habitat to conserve and restore these critical lands.
+This plan includes the Lorraine Loomis Act, named for the Swinomish leader in tribal salmon management, who we lost in August. Lorraine was an inspiration to Washingtonians young and old. She brought us together in favor of salmon.
+Our salmon cannot wait. They need action, this day.
+Tribes
+To realize this future, we must do it together with our partners. Few are as critical in this effort as Washington state’s tribal communities. I am introducing legislation that provides a stronger, clearer consultation process for projects that get funding through the Climate Commitment Act. We make progress when we work together.
+Transportation
+We also need to invest in our aging transportation system in a way that meets the demands of the future while aggressively decreasing the impacts of climate change from the same system. We need more transportation and less pollution at the same time. That’s why my 2022 transportation budget is no ordinary supplemental proposal.
+We have a unique opportunity with one-time and new federal funds – along with state money – to provide nearly $1 billion to fund clean transportation programs and activities that reduce greenhouse gas emissions from the transportation sector; preserve the infrastructure we have; and support critical investments to improve ferry service reliability. This includes $324 million to support ferry electrification. We desperately need boats – cleaner boats – to give Washingtonians reliable ferry services.
+And to legislators: If you have bigger ambitions or bolder ideas, I am ready to engage, discuss and support your efforts.
+My budget also supports increased diversity and inclusion in the transportation sector by addressing disparities in hiring and recruiting a diverse workforce at those entities.
+The broader transportation system remains our number one emitter of greenhouse gases that pollute our air and water and drive climate change. Last session, this Legislature passed historic laws to reduce emissions – including the Climate Commitment Act – and we must not hesitate to take action, this day, to implement those laws. We need a clean fuel standard as well.
+These laws must go into effect in concert with our transportation budget. And I look forward to working with legislators to do this.
+Rainy Day and Reserves
+We have proposed necessary and prudent investments this session, but we also have to invest in our financial stability. To assure financial stability, my plan will build the reserve back to pre-pandemic levels in just four years from now. My budget puts $2.5 billion toward our financial resilience this biennium. Putting this money in our Rainy Day and reserve funds will place our state on better footing for the next emergency.
+Democracy at Stake
+We just marked the 1-year anniversary of the insurrection in our nation’s Capitol. That insurrection continues to this day under the banner of the “Big Lie.” The right to representative government is under attack in this country, and in our state.
+I am pro-democracy. All elected officials and others who care about our state and nation should be pro-democracy, too. Former Secretary of State Kim Wyman deserves our respect for the exemplary and nonpartisan way she carried out her duties in the face of these same threats, and that is why I am so happy to welcome former Sen. Steve Hobbs as our new secretary of state. Like Kim Wyman, he will help keep our state and local elections safe and secure.
+It is time we stand up to those who challenge the integrity of our elections, who undermine basic democratic principles and who would do away with the rule of law. I call on all legislators, Democrat and Republican, to acknowledge forcefully that the 2020 elections were won fair and square under our Constitution – and to denounce those officials who spread deception that strikes at the foundation of democracy.
+So I think we should outlaw efforts by politicians to knowingly spread lies about elections when those lies result in violence – violence we have already seen in state capitals and our nation’s capital.
+Conclusion
+As we close today, I will reiterate that this may be a “short session,” but it is unlike any in our history. We must act according to what this moment demands. We must be big. We must be bold. We must act at a scale commensurate to our challenges because of the multiple, urgent crises facing our state.
+Too much is at stake. I am confident we can do this – because I have seen the Legislature rise to the moment before. But we must take action, this day.
+We will continue to build our resiliency against COVID. We will meet the challenge of climate change while building the clean energy future with good jobs here in Washington. We will restore our children’s opportunities. We will make necessary revisions to our long-term care bill and our police accountability measures. We will protect salmon and bring back our orca. We will house those impacted by homelessness and behavioral health conditions and provide more affordable housing options for everyone.
+This is our charge. We can do this if we act together.
+There is no time to lose. We can start now by taking action – this day.</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Dear Mr. President, Mr. Speaker, and distinguished members of the West Virginia Legislature:
+In times the likes of which we have never seen before, and with this message being conveyed in a manner it has never been before, I am happy to report to you that the State of our State has never been stronger.
+With this message, I am also delivering my FY2023 budget, which I am incredibly proud to say is essentially flat for the fourth year in a row, which includes a third historic pay raise for our state employees.
+I sincerely apologize for not being able to be with you in person to deliver these remarks. As we prepare to embark on the third year of the coronavirus pandemic, I regret to inform you that last evening I tested positive for COVID-19. While I was surprised that my test results came back positive, I am thankful to the Lord above that I have been vaccinated, I have been boosted, and that I have an incredible support system, especially my loving family. For this to happen just one night before the State of the State – knowing I am not able to be there – saddens me. There are so many great things happening in West Virginia right now that I am excited to share with you.
+We have proved that the rocket ship ride I promised the people of West Virginia is real. We have set records with our revenue growth. Our employment numbers are the best they have been in state history. Tourism in West Virginia is exploding – every travel publication says our state is the place to be. And we have accomplished all this while responding to a once-in-a-lifetime pandemic.
+People are more excited than ever to be in West Virginia. From April 2010 to July 2019, more than 43,000 people moved out of the state. But things are changing. People are moving here instead of leaving. Businesses are moving here and expanding operations here. From 2020 through 2021, net migration is up in West Virginia for the first time in decades, with over 2,000 people moving into our state, making West Virginia one of the top states in the entire nation that people are moving into on a percentage basis.
+We are shedding our image of being uneducated, dusty, poor, and backward. We are shedding our image of being bankrupt and a place business cannot operate because of our legal system. Together, we will continue to shed the dead weight that has been holding us back for years so we can continue to climb higher and higher on our journey to prosperity in West Virginia.
+After concluding FY2021 with a $413 million revenue surplus despite the effects of the COVID-19 pandemic on the state’s economy, we continue to achieve surplus after surplus. Halfway through FY2022, year-to-date collections of nearly $2.650 billion are $475 million above estimate.
+Our unemployment rate has dramatically declined from 7.1% in January 2021 to 4.0% today, the lowest rate recorded in all of state history. These figures represent over a 60% improvement in West Virginia’s unemployment rate, which is now one of the lowest in the nation.
+Last year, you honored me with approving my request to create a separate Department of Economic Development and to elevate this position to that of a Cabinet Secretary. The purpose of this was to provide a laser focus on job recruitment and broadband expansion. The new Department of Economic Development is operating efficiently and achieving incredible success.
+In 2021, more than $1.1 billion was invested in West Virginia by 39 different companies through Economic Development efforts and activities. This led to the creation of more than 1,330 new jobs, while retaining more than 6,400 additional jobs in the state. In the calendar year of 2021 – the first year of the Department of Economic Development – total employment in West Virginia has increased by over 36,000 jobs.
+I want to express my support for your plan to get more marketable business-ready sites in West Virginia. Our Department of Economic Development needs the tools and flexibility to get potential industrial and business sites ready for companies looking at our state. Then we can pitch more companies to locate here, knowing the groundwork is already in place.
+We are continuing to recruit world-class companies to our state as shown in three major announcements today. Nucor Corporation announced today that they selected Mason County as the location for a state-of-the-art sheet steel mill. This record investment will exceed $2.7 billion, making it the largest in West Virginia history, as well as the largest single investment Nucor has ever made. Nucor is going to be a key part of West Virginia’s DNA long into the future.
+Also this morning, GreenPower Motor Company announced an agreement with the state to manufacture zero-emission, all-electric school buses in South Charleston, bringing hundreds of new jobs and millions of dollars in economic impact to West Virginia. Their operation will bring up to 200 new jobs to the state when manufacturing begins later this year, with the potential workforce to eventually reach up to 900 new jobs when full production is reached in 24 months. As we continue to diversify our economy, manufacturing these zero-emission school buses in West Virginia will open up a world of opportunities for our state.
+Finally, this afternoon we announced that Owens &amp; Minor, a Fortune 500 company that provides medical supplies, is going to expand on a deal they previously had with WVU Medicine and create over 125 jobs at a healthcare products preparedness and supply center in Morgantown. Together with the state, Owens &amp; Minor will invest an estimated $50 million in West Virginia. The COVID-19 pandemic has taught us all that preparedness and resiliency are incredibly important, so this partnership is more than just another business deal, it will have real-world positive benefits for all West Virginians.
+These announcements are historic, but incredibly, they are just the beginning. West Virginia is finally competing on the world stage and we are all witnessing the results firsthand.
+For the fourth year in a row, I am proposing an essentially flat budget, which includes a third historic pay raise and Inflatocine for our state employees. My budget is only 1.4% higher than last year, far below the 7% inflation rate being seen across our country. We are not dipping into the Rainy Day Fund, which I am proud to report now has over $1 billion in funding! We are blessed as a state with the flexibility to fund projects out of our surplus funds without building the base of our budget into the future.
+We are all aware of the effect inflation has had on all West Virginians. Today, it was reported that the consumer price index rose 7% in the month of December, according to the U.S. Labor Department. This is the fastest increase since June 1982, when inflation hit 7.1%. My proposed Inflatocine will help West Virginians who are hurting when they go to the gas pump or the grocery store. I need your support to pass this one-time pay supplement for our hardworking state employees, teachers, and service personnel.
+West Virginia continues to lead the way with our response to the COVID-19 pandemic. As the first state in the U.S. to offer the vaccine to every single one of our seniors in nursing homes, I have championed the vaccines from the very beginning. Despite being COVID-positive myself, I believe that my symptoms would have been much worse if I were not fully vaccinated and boosted. I know in my heart that the more we have vaccinated, the less will die.
+At the same time, however, we have struck the right balance to make sure our people do not fragment. I stand rock-solid behind our people being able to make that important medical choice for themselves in consultation with their doctor. I do not believe that anyone should be required to get vaccinated to continue collecting a paycheck and put food on the table for their family. Instead of forcing people to get the vaccine, we created incentives to excite people and get them across the finish line. Our Do it for Babydog vaccination sweepstakes was one of the most well-known vaccine incentive programs in the entire country.
+Today, we are leading the way for the nation yet again. Last week, I sent a letter to President Joe Biden, asking him to direct the FDA and CDC to authorize West Virginia to begin offering a fourth dose of the vaccine to certain at-risk citizens four months after their first booster. West Virginia was the first state in the nation to make this request. We will continue to be the light in the dark, until this pandemic is behind us once and for all.
+We continue to feed investment in our food banks. Fighting food insecurity has always been a big priority of mine. But it has been especially important during the pandemic. That is why I am incredibly proud to report that, in 2021 alone, we provided millions of support to food banks across West Virginia! Thanks to your help in the Legislature, we were able to put $1 million into last year’s budget for our state’s two biggest food banks, and I will be respectfully requesting the same amount in my FY2023 budget.
+Using the same responsible and conservative approach that we have utilized in recent years, my flat budget proposal will take care of all of our citizens, while allowing us to continue building upon our momentum right now in West Virginia.
+We are going to continue to make education our centerpiece by investing in our greatest treasure – our children.
+We are going to continue funding Communities In Schools because it’s working, and impacting over 70,000 West Virginia students each year.
+We are going to continue to pave the Roads to Prosperity by funding much-needed road repairs and infrastructure projects.
+We are going to keep supporting our life-changing Jobs &amp; Hope program that continues to rescue West Virginians from the pits of addiction and allows them to re-enter society with a renewed purpose and outlook, and – as always – we are going to continue to invest in economic development all across our state, letting the outside world know that West Virginia is the diamond in the rough that everyone has missed.
+I hope this provides a picture of all the incredible things we are achieving, and will continue to achieve. But our accomplishments in West Virginia – the rocket ship ride that continues everyday – cannot be captured in a few short pages. That is why I would like to humbly and formally request to you, Mr. President and Mr. Speaker, a joint session of your bodies at a time after I have completed my recovery when I can deliver my full address in person and we can all celebrate the incredible State of our State together.
+God bless all of you, and God bless the Great State of West Virginia.
+Jim Justice
+Governor, State of West Virginia</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Thank you. Thank you so much. Good evening, Wisconsin. Good evening. Honorable Supreme Court justices, Tribal Nation leaders, Major General Knapp, members of the Wisconsin National Guard and active and retired members of our armed forces, cabinet members, Senate President Kapenga, Majority Leader LeMahieu, Minority Leader Bewley, Speaker Vos, and Minority Leader Neubauer, legislators, distinguished guests, and, most importantly, all of the folks tuning in from home. Thank you so much. Welcome and thank you for joining us.
+[cheers and applause]
+In case you forgot, I’m Tony Evers, and I’m incredibly proud to be your governor, the 46th governor of this great state.
+[cheers and applause]
+The rest of my kids are watching from home this evening, but my daughter Katie is with us tonight. And my forever junior prom date, Kathy, is also up in the gallery. Well be celebrating our 50th anniversary later this year. Kathleen Frances, I’m just as crazy about you as I was 50 years ago. How about that? Thanks for your support, your wisdom, your patience, and your wit. I love you so much.
+[cheers and applause]
+50 years. As I deliver my fourth State of the State Address to you tonight, I recognize there are those who wouldve said it was very unlikely I’d ever become governor. I was a scrawny kid with big glasses. I still got them. Who grew up in Plymouth, which is for those of you who don’t know, the cheese capital of the world. Yes. I raised hell and played bass guitar in a rock band in high school. I worked in a cheese factory scraping mold off of cheese. I took my kindergarten classmate to junior prom and ended up spending the rest of my life with her.
+[applause]
+I didnt plan my career just so I could be standing up here tonight. I didnt spend years pining to run for this office. And I’d much rather spend time listening to others than talking about myself, which, I’ve found out, isnt something I have in common with most politicians. I guess, in so many ways, maybe it was unlikely. But you might not know just how close I was to ending up on a much different career path. So, tonight, for the first time, I want to begin by telling a story I havent shared before. I grew up in a house of healthcare workers. My mom was a nurse, and my dad was a doctor who took care of tuberculosis patients at a sanitorium in Sheboygan County. And I’d grown up always wanting to be like them. I wanted to help people just like they did. So in 1974, I was doing just that and trying to follow in their footsteps. I was in my first year of medical school in Austria when Kathy and I found out that we were expecting our first kid. Well, as you can imagine, spending years going to medical school wasnt exactly ideal for raising a newborn. So I needed to figure out a better way to help support the family, and I needed to do it pretty quickly. So, Kathy and I packed our things, headed back to good old Plymouth. We found an apartment, and I applied for and got a job at the Kohler company. Well, there I was the night before I was supposed to start my job at Kohler. My mom, whod collected mail for us while we were away, said, Oh, by the way, I’ve got a stack of mail here for you, and she handed me a stack of a years worth of mail. Well, in that stack of mail was a letter. It was a letter from the University of Wisconsin-Madison. And I opened that letter that night. It said Congratulations because I’d been accepted into the masters program in education. That moment changed my life. That letter changed my life. It changed my entire trajectory. Because of that letter, I went on to become a science teacher. Because of that letter, I went on to become a principal and state superintendent. And there is no doubt that it is because of that letter that I’m standing here today as your governor.
+[cheers and applause]
+And I tell you that story tonight, in part, to state the obvious: things dont always go the way we plan. In fact, for these past few years, thats been sort of the one constant that we’ve had. If wed had our way, we would not have faced the worst pandemic in a century or the worst economic crisis since the Great Recession. If wed had our way, we wouldve expanded BadgerCare and access to affordable healthcare for tens of thousands of Wisconsinites. We wouldve met two-thirds funding for the first time in two decades and we wouldve done it by fully funding our public schools. We wouldve passed meaningful legislation to address PFAS and lead and justice reform. If wed had our way, 11,637 Wisconsinites would still be here with us today. They’d be at our dinner tables, theyd be in our classrooms, our hospitals, our churches, our farms, and our factories, and theyd still be here celebrating more birthdays, more holidays, and more milestones with us. But I also tell you this story because this work has always been a responsibility and an obligation I’ve met without regret or reservation: to do what’s needed to be done, to do what I must with what I was given, and to always try to do what is right. Not because it was perfect. Seldom is. Not because it was always easy. But because, however different things could have ended up for me, I have never doubted that I’m right where I needed to be because I welcome the duty of doing the right thing when it matters most.
+[cheers and applause]
+Tonight, I am proud to be able to report that the state of our state is stronger and better than it was a year ago, or two years ago, or even three years ago.
+[cheers and applause]
+Weve worked hard to ensure our workers had jobs to return to after this pandemic. Through federal pandemic aid to our state, weve invested $1 billion into supporting our small businesses, our farmers, tourism, lodging, and entertainment industries. To date, weve supported more than 100,000 small businesses, and nearly 3,000 of those small businesses have opened up new storefronts on main streets across our state.
+[cheers and applause]
+Throughout the pandemic, we were also able to keep all 375 transportation projects during the 2020 construction season on track. And because we did, we secured $105 million reallocated from other states to invest back into our infrastructure.
+[applause]
+Thank you to those other states. Weve also improved more than 1,700 miles of highways and more than 1,250 bridgesand if you laid out all those highways weve fixed end to end, you could just about drive from Platteville to Denver and back.
+[cheers and applause]
+I’ve also directed $100 million to support Wisconsin farmers through our farm support program. In one round alone, we were able to help more than 20,000 farmers, and in more than half of Wisconsin’s 72 counties, our support to farmers through this program exceeded $1 million.
+[cheers and applause]
+Ive also directed more than $100 million through federal pandemic aid to expand access to reliable, affordable, high-speed internet across our state. These funds alonewhich included the largest single round of broadband funding in state’s historyare projected to give new or improved broadband access to more than 110,000 Wisconsinites in more than 50,000 homes as well as almost 2,200 businesses.
+[cheers and applause]
+During my time as governor, we will have invested almost 15 times more into expanding high-speed internet than the prior four years combined. All told, our investments since 2019 are providing more than 300,000 homes and businesses with high-quality, high-speed broadband.
+[cheers and applause]
+These efforts have been critical for our economic recovery, and weve worked hard to get support out the door as quickly as we can possibly do it. An analysis from November showed Wisconsin ranked second in the Midwest for getting our federal aid allocated. And I’m proud to report that as a share of the federal aid our state has received, Wisconsin ranked second in the country for aid weve directed to economic development, and we ranked first in the country in aid weve allocated to businesses.
+[cheers and applause]
+And Wisconsinites are working hard. In January of 2019, our unemployment rate was 3.1 %. Today, our unemployment rate has not only returned to pre-pandemic unemployment levels, its better, at 2.8 %.
+[cheers and applause]
+We now have the lowest unemployment rate and the fewest number of people unemployed ever, ever in our state’s history.
+[cheers and applause]
+But with so many Wisconsinites already working, I know employers struggle with the same challenges theyve faced for a decade trying to find new workers to fill jobs. Weve gotten to work trying to find innovative, long-term solutions to the workforce challenges we face. Weve also recognized that different parts of the state have different needs, whether its making childcare more affordable and accessible, training more high-skilled workers, or more apprenticeship opportunities for high schoolers. So, weve invested nearly $60 million into 12 regionally-based programs to meet the unique needs of different communities. And, after workers lost their jobs during the pandemic, we invested $20 million to help thousands of workers get new skills and training to find new jobs.
+[cheers and applause]
+Weve also been working hard to keep more money in Wisconsinites’ pockets. Last year, we provided $480 million in tax relief for Wisconsin businesses and families affected by the pandemic. Republicans and Democrats also found common ground, and I was glad to deliver on my promise to cut taxes for middle-class families by 15 % by signing one of the largest tax cuts in state history.
+[cheers and applause]
+Just sayin’. Just say, just sayin’. Through all of the tax cuts I’ve signed into law, 86 % of Wisconsin taxpayers will see a 15 % income tax cut.
+[cheers and applause]
+At the same time, while the economy has reopened and demand has surged, some corporations have taken advantagetheyve squeezed consumers for every extra penny, raising everyday costs for folks in Wisconsin and across our country. A report released last week showed national inflation is the highest its been in four decades. And now, small businesses and working Wisconsinites and families are concerned about the rising costs of gas and the raising cost in grocery store aisles. And businesses face challenges getting supplies and resources. So, I directed new changes that took effect in the new year to ensure Wisconsinites had extra money each month to help make ends meet. With these changes, coupled with the tax cuts I’ve signed into law, if you and your spouse each make $50,000, youll see over $1,200 more for your household in your paychecks this year.
+[cheers and applause]
+But I also know we must do more. And its our responsibility to do more. We had unprecedented revenue projections last year, and we closed out our fiscal year in 2021 with the highest-ever positive GAAP balance in state’s history at more than $1.1 billion. Last month, after receiving the great news about our low unemployment rate, we received even more good news. A new report showed Wisconsin is projected to have a $3.8 billion surplusthats billion with a “b”in our states checking account at the end of the biennium. And thats not even including the more than $1.7 billion sitting in our rainy day fund, which is the highest its ever been in Wisconsin state history.
+[cheers and applause]
+So, I announced my plan to use our surplus to help address rising costs and gas prices, to reduce barriers to work, and to invest in education at every level.
+[applause]
+Wed start by sending every Wisconsin resident a $150 surplus refund.
+[cheers and applause]
+So, under my plan, if youre a family of four, you would receive $600 to help provide a little more wiggle room and hopefully a little less stress about making ends meet.
+[cheers and applause]
+My plan also works to reduce barriers to work so we can help fill job openings across our state. Having access to quality, affordable childcare and caregiving continue to be a barrier for folks who want to join the workforce. Wed invest more than $130 million into providing tax relief through the child and caregiver tax credits. Our tax credit for childcare would provide tax relief to an estimated 107,000 Wisconsinites whod receive about $274 per filer, and through our caregiver tax credit, most caregivers will receive up to $500.
+[cheers and applause]
+And, finally, as I said last July, the budget that was sent to my desk failed to meaningfully invest in our public schools, possibly jeopardizing more than $2 billion in federal aid for our kids. So wed also invest $750 million into improving our schools and outcomes for students to ensure everyone has access to a high-quality public education.
+[cheers and applause]
+And that includes more than $100 million to hold the line on property taxes across our state.
+[cheers and applause]
+And, folks, the great news is we can do all of this and still not spend our entire projected surplusunder my plan, well still have more than $2 billion with a “b” left over.
+[cheers and applause]
+Ive already heard there are some who want to wait to get this done until the next budget. Thats $3.8 billion that would just be sitting in Madison until then. Well, thats not going to help Wisconsinites buy groceries today. It wont help Wisconsinites pay for gas today. It wont help Wisconsinites pay for childcare, heating their homes, or putting food on their table today. Wisconsinites cannot wait.
+[cheers and applause]
+Indifference in this building is getting expensive, folks. And let me be frank: the people who will bear the burden of inaction are almost certainly not the people sitting in this chamber tonight. So, dont sit here in a white, marble building with state coffers that are full and tell Wisconsinites who are working hard every day we cant afford to do more. Thats baloney.
+[cheers and applause]
+Tomorrow, I will sign an executive order calling a special session of this legislature to take up my surplus plan. Lets help address rising costs, lets help make sure folks can afford to join our workforce, and lets do whats best for our kids. This is the peoples money. Lets get it back to them.
+[cheers and applause]
+Look, Republicans and Democrats in this building dont agree all the time. I understand that. But this isnt one of those times. And heres how I know thatbecause I received a letter last December that read, in part, and this is a quote, There are supply shortages and soaring inflation rates, causing families to have to pay significantly more on items such as food and gasoline. Real people are struggling with these pocketbook issues. Well, Mr. President and Mr. Speaker, that letter was from you. And I think it sounds like we agree on something.
+[cheers and applause]
+Theres no reason we cant do this, and the rising costs Wisconsinites are seeing every day are every reason that we should. So, lets find common ground, lets pass this plan, and lets get it done. Its just the right thing to do, folks.
+[cheers and applause]
+And its the right thing to do because Wisconsinites are the reason that our states economy is such a success. From healthcare workers to first responders, educators and childcare workers, local public health officers, our tribal nation partners, grocery store workers, farmers, small business owners, and so many more. But I also want to say tonight that we would not be here as a state without the extraordinary efforts of the Wisconsin National Guard. Period.
+[cheers and applause]
+Under the longest guard activation in Wisconsin state history, the guards work began almost on day one of the COVID-19 landing in Wisconsin and continues even still today. As fear was spreading across the globe about a new virus, 30 Wisconsinites were stranded aboard a cruise ship for weeks. Our administration, along with Senator Tammy Baldwin, worked to bring them to Wisconsin. And it was the men and women of our National Guard who greeted these Wisconsinites and welcomed them home.
+[applause]
+The guard has also played a key role in our efforts to distribute more than 80 million pieces of personal protective equipment and sanitizing supplies to schools, healthcare workers, first responders, and local law enforcement. Theyve helped administer tests and support testing sites you likely visited in your community. Additionally, we ranked among the best in the country for getting available COVID-19 vaccine shots in arms, and its in no small part due to the guard. They helped distribute more than 1.2 million of the vaccine doses administered as a state and theyve administered more than 230,000 of those vaccines themselves. Go figure.
+[cheers and applause]
+Theyve also been on the frontlines of defending our country and our democracy in more ways than one. When Wisconsinites were exercising their right to vote, the Wisconsin National Guard was there, too. Our guard members joined our exceptional clerks, election administrators, and poll workers to help make sure you could cast your ballot and do it safely.
+[cheers and applause]
+Even now, some guard members are being trained as certified nursing assistants through our partnership with Madison College to help support our overwhelmed healthcare workers and systems. Really good work.
+[applause]
+Well, tonight, we are joined by Wisconsin’s adjutant general, Major General Paul Knapp, as well as members from our Wisconsin National Guard, who you already know this are up in the gallery tonight. Please join me in recognizing these exceptional folks and their service.
+[cheers and applause]
+These folks have stepped up to serve our state time and time again during one of the direst periods in our states history. And their service has not come without costemotionally, physically, and mentally. Our effort to invest more than $3 million into expanding the guards wellness program was gutted from my biennial budget. It would have increased access to important mental health and wellness support for more than 9,000 guard members. Well, tonight, I’m announcing I’m going to do it anyway.
+[cheers and applause]
+Were going to invest $5 million to expand access to the guards comprehensive wellness office and their services to every single member of the Wisconsin National Guard.
+[cheers and applause]
+This program will provide counseling, resiliency training, and crisis intervention and stress reduction programming, to reduce burnout, take care of mental health needs, and prevent suicide, and treat substance use disorders for our service members. And I’ll tell you right now this program will have ongoing funding in the budget I’ll propose next year. And I call on this legislature tonight to join me by ensuring this program receives long-term, sustainable funding it deserves.
+[applause]
+But at the end of the day, we also know the effects of this pandemic will exist whether this virus is here or not. Troops came home at a time of increased isolation and uncertainty, including some whove returned and taken their own lives. We need long-term solutions to support our veterans and the challenges they faceboth those that existed before this pandemic and others that worsened because of it. Weve worked hard to proactively address some of the challenges facing our veterans, and the legislature even agreed with me on several provisions in the last budget. In fact, folks on both sides of the aisle even called that budget a really good budget for veterans. I agree. But our work cannot end there. So, in the coming days, I’ll sign an executive order creating a blue-ribbon commission on veteran opportunity to develop new, innovative initiatives to support the more than 300,000 veterans who live in our state.
+[cheers and applause]
+We can help reduce barriers to higher education, employment, and job training, and streamline issues around getting people into the workforce. We can help make sure we have sustainable, ongoing funding for programs that support these folks by ensuring our veterans’ trust fund remains solvent. And yes, we can help invest in housing security, more mental health supports, and more substance use treatment. And this blue-ribbon commission is going to make recommendations for me to do just that in my next budget.
+[applause]
+And support for our veterans isnt the only area where we can do more. This pandemic exposed serious concerns about our healthcare infrastructure and capacity, especially in our rural communities and areas of rural Wisconsin. Weve expanded access to telehealth services, protected healthcare for Wisconsinites who have pre-existing conditions, and worked to reduce the costs of prescription drug prices. But we also know that there is a great need for emergency services and responders in our rural communities. In Wisconsin, we rely on nearly 800 emergency medical service providersmore than half are either operated exclusively by volunteers or through a combination of volunteers and paid staff. These folks are doing outstanding work, but many have been doing it for years, and sometimes decades. And sometimes it’s difficult finding new volunteers to step into these important roles. It also hasnt helped that, for a decade, local governments have been asked to do more with less. Since 2011, state aid to communities has gone down even as the costs have gone up. Help from the state was cut by more than nine percent, while public safety costs have increased more than 16 percent. Between these rising costs and lack of available staffing, some have even gone without ambulance services, left with no other option but to hope and rely on neighboring providers. Well, no one should be calling for an ambulance and have to wonder whether help will come. So, tonight, I’m announcing were investing nearly $30 million into supporting emergency medical service providers and services across our state.
+[cheers and applause]
+$20 million of this investment will be going to folks in our rural areas for whatever help they need the most, whether its increasing staffing support, getting first responders more training, purchasing an ambulance, medical equipment or supplies. Every emergency medical service and every emergency medical response provider will qualify for this funding.
+[cheers and applause]
+Additionally, as part of this investment, were going to increase reimbursement rates for these providers to help ensure they dont have to cut back on critically important services.
+[applause]
+This pandemic didnt just expose the need for us to expand access to rural healthcare. It also highlighted that our kids need more mental health support in our schools, and this pandemic has highlighted it. It’s also highlighted that our kids need more mental health support in our schools and this has only been made urgent because of the pandemic.
+[applause]
+I came into office after years of disinvestment in our kids, and our educators, and our schools. So weve worked to make historic investments in education at every level. Weve increased special education funding for the first time in a decade, made the largest investment in general aid in a decade, and invested more than $900 million into providing local property tax relief.
+[cheers and applause]
+Now, our schools have returned to being in the top 10 in the countryour K-12 schools rank eighth best in the nation after ranking 17th just five years ago.
+[cheers and applause]
+The pandemic hit in the spring of 2020. States across this nation closed schools for the rest of the semester, Wisconsin included. Parents are the first and best teachers our kids have. But I also know turning kitchen tables into classrooms wasnt easy. Im very concerned about how this pandemic affected our kids, and I know parents are, too. Thats why weve trusted school districts, parents, and teachers to work together to do whats best for our kids. Weve trusted them to make the best decisions at the local level based on their kids and their classroom needs. Many schools across our state returned in-person learning during the fall of 2020. So, we doubled down on our efforts to get resources and support to our kids and our schools to keep our kids safe, healthy, and in the classroom
+[cheers and applause]
+Weve distributed almost eight million pieces of PPE and sanitation supplies to schools to help keep our kids and educators safe in our classrooms. I also delivered on my promise to invest $110 million in new, additional funding to every school district in the state. Schools could use those funds to hire educators and staff, provide more after-school programming, or buy art supplies or computerswhatever our kids needed.
+[applause]
+But thats just one part of the equation for ensuring our kids success. We know this pandemic has affected our kids in more ways than one, including their mental health. And a kid whos in crisis isnt going to be able to pay attention at school, finish their homework, or engage with their friends or teachers. If the folks in this room want to have real conversations about our kids success and achievement, then start by fully funding our schools and making sure our kids can bring their full and best selves to the classroom and to their studies.
+[cheers and applause]
+If thats not where were starting this conversation, then all youre talking about is our kids barely getting by when we should be making sure kids get ahead. So, tonight, I’m announcing our new Get Kids Ahead initiative to invest $15 million into additional mental health services for our schools.
+[cheers and applause]
+Every public school district can opt in to receive these fundsno matter how big or how small. With this investment, kids in every corner of our state will have increased access to mental health support through their schools, on top of investments weve made in our budgets. Schools will be able to use these funds to provide direct mental health care, hire and support mental health navigators, provide mental health first aid and trauma-based care training, or provide family assistance programswhatever our kids need.
+[cheers and applause]
+And students in our higher education institutions need our help, too. Students have had to adapt, keep up with their coursework, and juggle work, family, and keeping themselves and their classmates safe. And its been tough. UW President Tommy Thompson talked about this a lot. Smashed a lot of pumpkins. Based on a national health survey, during the spring of 2021 semester alone, 75 percent of UW students screened positive for moderate or severe psychological distress. And, frankly, this was a trend we saw even before the pandemic. Between 2009 and 2019, the use of counseling services on our UW campuses increased 55 percent. So, were also investing $5 million into our UW system to provide more mental health services through telehealth counseling and additional mental health staff support for our campuses.
+[cheers and applause]
+And, clearly, our students at our higher education institutions already have enough to worry abouttheyre under a significant amount of pressure and stress as it is, and rising costs at the grocery store and the gas pump affect them, too. They sure shouldnt have to worry about the price tag of their education going any higher. So, tonight, I’m announcing I am providing a $25 million investment in our University of Wisconsin System so that they can use these dollars to fund the tuition freeze through the end of the biennium.
+[cheers and applause]
+With these additional funds, the UW System and Board of regents can ensure that tuition prices for our in-state students will not go up for the next two years, giving our students and families one less thing to worry about.
+[cheers and applause]
+Finally, as I conclude my fourth State of the State Address, I want to acknowledge that it is a privilege for us to be here together tonightand on election day, no lessto participate in an enduring but profound function of our democracy, one thats much like the peaceful and respectful transfer of power or like the fundamental right to cast a ballot. Functions that, especially today, we must not take for granted.
+[cheers and applause]
+As some work to undermine these basic tenets, we must recognize that what makes this state and this country exceptional is not that these profound functions existits that they are derived from our collective ability to will them to continue. We are also reminded of this: democracy is not a prophecy; it is self-actuating. We must choose every day to continue this grand experiment. We must choose every day to accept the duty of our forebears entrusted to us. We must choose every day to affirm the certainty of this legacy for future generations.
+[cheers and applause]
+In the summer of 1783, as the future of the United States and its independence remained uncertain, George Washington wrote a letter to the governors. It’s called a circular letter to the states. In it he described four things essential not just for the well-being of the United States of America but for the very existence of it. And on that list of four things was this and this is a quote: the prevalence of that pacific and friendly disposition among the people of the United States, which will induce them to forget their local prejudices and policies, to make those mutual concessions which are requisite to the general prosperity and in some instances to sacrifice their individual advantages to the interest of the community.
+[applause]
+We are reminded tonight of the spirit of our serviceto forget our own prejudices, to make concessions where the greater good demands, and to find common ground wherever and as often as we can. I still believe, as I said three years ago, that there is more that unites us than divides us, chief among them our responsibility to do whats right when it matters most. Weve accomplished so much together. And tomorrow, our work continues. So, lets get to work folks. For Wisconsin, always. May God bless our state. May God bless our democracy. And may God bless these United States of America. Thank you, and On Wisconsin! UW Marching Band, take it away!</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Dockstader, Speaker Barlow, members of the 66th Legislature, thank you for your welcome this morning. 
+It is with a heavy heart that I begin by remembering some friends of Wyoming that we lost this past year: US Senator Mike Enzi and Senator Leland Christensen. They both have a history in this body and continued to serve Wyoming long after they made their impressions here. They will both be sorely missed. There are others we will miss as well - friends and family, but I also want to share that Bobbi Barrasso had significant surgery and is recovering well with her husband Senator John Barrasso at her side. They ask for best wishes and prayers and are thankful to live in Wyoming. 
+Jennie, I love you and want you and everyone to know Wyoming is a better place because of your work on the Wyoming Hunger Initiative. Programs like Food from the Field, Food from the Farm and Ranch and one of my favorites that we will talk about a little later, Grow a Little Extra, have made the lives of so many of our citizens better. You have shown how Wyoming takes care of our own. 
+It is an honor to be here with Chief Justice Fox, Justices Kautz, Boomgaarden, Gray, and newly robed Justice Fenn. I am also joined by Secretary of State Ed Buchanan, Auditor Kristi Racines, Treasurer Curt Meier, and Superintendent of Public Instruction Brian Schroeder who is just beginning his second week on the job. 
+Distinguished guests, friends, family and most importantly you, the people of Wyoming; thank you for this opportunity to address you here in this remarkable chamber. Over the past couple of years, Wyoming has faced down many challenges. Together we have emerged stronger, more engaged, and better equipped to tackle new challenges and seize fresh opportunities. 
+As I was thinking of this State of the State, I was remembering the June mornings in my youth, when my family drove our cattle to the mountain. The hardest and longest days always came midway through the drive, when we were already tired from a week's worth of 2 AM risings. Regardless of whether it was snowing, raining, or clear, dusty or muddy, that day we rode the 9 miles from our barn, gathered, mothered, and started our cattle up the “Slip,” a steep, rocky, and densely timbered trail. Beyond the elements, there were always challenges that came up: a bull might duck off into a canyon, or a calf might break back. 
+The day was always brutal for the horses and exhausting for us. The drive had to be completed before the day could become too hot. That meant most of the drive happened before sunrise. It was a hard pull, and at times it seemed like it was never going to end. 
+Here in Wyoming, we have had a hard pull too over the past couple of years, and folks are wondering if the end will ever come into view. But I believe we are beginning to see the first rays of our sunrise. Over the past couple of years, Wyoming's people kept working. Our students kept learning. Instead of rolling over when DC mandates came our way, we countered and led coalitions of states to test the constitutionality of federal vaccine mandates, leasing moratoriums, and we offered aid to secure our borders. 
+Despite tremendous challenges, Wyoming is strong and getting stronger. We are strong because of our character, resilient because of our nature, and optimistic because Wyoming people are doers. We respect folks who get things done, not the critics and naysayers. I believe there is an undeniable momentum in Wyoming these days. We can feel that momentum as businesses rebound and unemployment falls away to the lowest level since 2008. 
+Part of the reason we can feel good about our future is the work of our National Guard. I want to take a moment to recognize these folks, represented today by Adjutant General Greg Porter and Major Jacque Morey. General Porter calls our Guard the sword and the shield of Wyoming and they have earned it. These men and women are essential to our national security. But they have also pulled shifts in Wyoming's hospitals and long-term care facilities, delivered supplies, fought fires across the West, and generally made our lives more secure. I am proud of our airmen, and women, our soldiers, and our civilians. General Porter and Major Morey, would you stand so that we can show our appreciation for our Guard and all they have done. Thank you. 
+You know, the world has become a decidedly scarier place with China and Russia rattling sabers. Bear in mind, what is happening in the Ukraine is as much about energy as it is about geopolitics and security. The old adage of peace through strength remains true. 
+That is why our nation's nuclear arsenal remains essential. We can be proud that Wyoming will remain a critical component of our nuclear triad. F.E. Warren Air Force Base - just up the street - will remain a central element of the new Ground Based Strategic Deterrent. Wyoming has always welcomed members of our Armed Forces as family. There is a relationship here in Cheyenne that is historic and, accordingly, I would like to recognize Colonel Catherine Barrington, Commander of the 90th Missile Wing, and 90th Missile Wing Command Chief Master Sergeant Nicholas Taylor. Colonel and Command Chief Master Sergeant, please stand so we can express our appreciation to you and to what the Air Force means to our nation and our state. 
+Wyoming is a patriotic state, and that is why I remind everyone of the words of Article 1, Sections 2 and 3 of our Wyoming Constitution which speak clearly and emphatically about civil rights and equality for "all members of the human race." And that's why I remind the world that we always stand for our national anthem in Wyoming. 
+This patriotism is found in one of the most amazing museums anywhere in the world, the National Museum of Military Vehicles. It is the brainchild of Dan Stark who is here with us today. 
+Dan built this museum in Dubois and laid it out in a very educational way. It tells a story about America's involvement in the world. I saw there the same vintage Army Ambulance that my dad drove during World War II, as well as the kind of river boat from the Mekong that my business partner, friend, River Rat and former Senate President John Schiffer served on in Vietnam. There are lessons in that collection that every American needs to know. Thank you, Dan for putting Dubois on the list of must-visit places in Wyoming. You have helped us to remember who we are and how we got here. Dan, would you stand so that we may recognize you. 
+Across this state, we are stepping up our efforts to remember our Veterans. In a little over a month, we will be recognizing the 50th anniversary of the Vietnam War. That war, perhaps more than most, reminds us of how important it is that our nation stands together and behind the men and women who fought to keep us free. 
+There are more than thanks needed as we appreciate those who have fought for our freedom. Far too many have suffered PTSD and other war-related injuries. Suicide sadly remains an all too frequent event, especially for our veterans. 
+I ask you to consider using American Rescue Plan dollars to do more in our fight against suicide. My budget also staffs and opens the new Veterans' Skilled Nursing Facility in Buffalo. 
+Particularly poignant this summer was the honor of attending the dedication of the new Path of Honor Veterans Memorial in Ethete, Wyoming. It was too long in coming, but it is absolutely worth the wait. 
+I want to recognize our neighbors and fellow Wyoming citizens, the Eastern Shoshone and Northern Arapaho tribes. We have always been able to enjoy direct, respectful, and committed dialogue that allows us to work through difficult issues and find a path that is beneficial to all of 
+us. 
+I am pleased to recognize Chairman Jordan Dresser of the Northern Arapaho Business Council and Wyoming Liaison to the Eastern Shoshone, Marine veteran Lee Tendore. 
+I am particularly grateful for our work with the Business Councils of both tribes in raising the issue of Missing and Murdered Indigenous Persons and improving enforcement procedures and victim services. Chairman Dresser is working on a documentary that will highlight this important issue to a wider audience. We are proud to lead with you and Chairman St. Clair in stopping this devastating inhumanity. 
+There are two constitutional duties that need to be addressed in the coming days: preparing a balanced budget for the upcoming biennium and making sure that legislative districts are properly reapportioned after the last census. Last year you passed and I signed into law a strong voter ID law. Election integrity is critical. Wyoming is proud of its citizen legislators -- and the way we select them. 
+BUDGET 
+Wyoming's Constitution obliges me to present a balanced budget. The one you have before you this session is well-planned, transparent, and forward-looking. And appropriately, it is a frugal 
+one. 
+We all recognize the challenges we have faced over the last couple of years and it is encouraging that we have seen an uptick in revenues. But even these have come in the teeth of the highest inflation rate we've seen in 40 years. Those of us building businesses at that time remember how devastating the cure to high inflation was too many of our farms and ranches. It crippled energy businesses, and it changed Wyoming. 
+That is why the budget I have submitted to you reflects a dual commitment - to keep our state government operating effectively and efficiently, and to ensure Wyoming continues to live within her means. We have not seen the end to the assault on our state's core industries perpetrated by this Administration. Therefore, my focus must remain on the long-term fiscal viability of Wyoming and our ability to fight back. 
+That is why I have proposed placing an additional $400 million in savings. I have also proposed several other actions to deal with inflation. 
+My top priority is a market adjustment for state employees. I regard this as critical to the functioning of our state enterprise. From our troopers, snow plow drivers, social workers and others, Wyoming is struggling to staff the very agencies that provide the services the people of Wyoming need. 90 percent of Wyoming state employees are earning less than their peers were - five years ago. And 30 percent of our workforce need a second job to make ends meet. 
+We cannot ignore these sobering facts. We must do better. Our towns and counties can. They are by hiring our staff away. Neighboring states can and do hire our folks away. This market adjustment is absolutely essential. It cannot be put off any longer. 
+ENERGY 
+The actions of the Biden Administration regarding public lands and energy, are deeply flawed and clearly miss the mark. Instead, they hit Wyoming squarely in our breadbasket. Stopping the exploration and production of federal oil, gas and coal means that our state bears a disproportionate burden of reduced royalties, reduced severance taxes, and reduced economic benefit. And, for what? These actions won't reduce global warming or benefit consumers. Instead it has caused inflation to soar. 
+Page 5 
+As a matter of fact, during 2021, while the Biden Administration limited oil production in Wyoming, it increased Russian oil imports and called for more production from OPEC. So, I ask you, does anyone in this room think there is an iota of common sense in that policy? 
+Mr. Biden, tear up your energy policy! Let Wyoming power the country! 
+Give us the tools and the chance to make this nation energy independent again. Wyoming has it all: the best wind, solar, gas, coal, nuclear and the ability to store 50 years' worth of our nation's total carbon emissions. 
+Innovation, not regulation is our way forward to give our nation the energy it requires and simultaneously solve the world's climate concerns. We do not need to choose between fossil fuels or new types of energy, to quote the old baseball sage Yogi Berra, "When you come to a fork in the road, take it." And that's what we should do, because we need an all-of-the-above energy strategy. 
+One company took Yogi's advice. L&amp;H Industrial is from Gillette. It still maintains a strong commitment to coal mining, but they have also taken their expertise to expand to alternatives like wind energy and even aerospace. Today, we are joined by Jason Percifield. He is the third generation of his family to help lead L&amp;H and shows vision about where our state can go while respecting its core industries. Jason, will you stand so that we might recognize you and the industrial spirit of Wyoming. 
+We have a plethora of opportunities coming our way: advanced nuclear; carbon capture utilization and sequestration; bio-energy CCUS; hydrogen; better, cleaner ways to burn and use coal. Wyoming is leading the research on ways to keep our legacy industries viable and take up new ones as well. We must seize these opportunities. And we will, by fighting ridiculous regulation, promoting sensible development, and embracing new opportunities. 
+In this budget I have asked for the ability to access $100 million so we can be ready to - and I say this again -- seize the opportunities that match federal and private investments in large-scale energy projects that will help us innovate and grow our mineral and energy economies. 
+Wyoming is committed to remaining an energy exporter. However, to export energy, we must have reliable, secure sources of transmission. Years ago, Wyoming was a leader in identifying transmission corridors. I remain supportive and committed to ensuring that transmission lines to energy consumer states, particularly to our south and west, are established. 
+AGRICULTURE AND TOURISM 
+Just the other day, Jennie was at the Fremont County Farm and Ranch Days. You all know her passion has been to end food insecurity in Wyoming. She reminded me of a story about Bobby Lane who works at the Honor Farm. Bobby knows how to grow hay. But when we had to cut 
+budgets last year, Bobby was given a new task - grow vegetables for the Honor Farm. He was so successful he donated the excess produce to Jennie's Grow a Little Extra program. So, Bobby raises food, but more importantly he raises self-esteem. 
+The inmates that tended to the garden have come away with an interest in farming and a chance to lead productive lives. This is just another example of what state employees do- they go above and beyond. Bobby is here today. Would you stand and be recognized. 
+The First Lady and I have not been idle with regard to agriculture. We are engaged across the sector to promote our industry. And we look forward to doing even more in the years to come. 
+As ranchers, Jennie and I know how critical water is to our lives. Water in Wyoming is sacred, and we need the ability to stand our ground when it comes to protecting it. The ongoing drought in the West has raised the stakes over water rights in the Colorado, Snake, Platte, and Yellowstone drainages. When drought or the federal government threatens Wyoming water users, our agricultural producers, our industry, our communities; we cannot afford to be short- handed or unprepared. That is why you will see that I have asked for additional resources for both our State Engineer and our Attorney General. 
+One continued bright spot for Wyoming is our tourism industry. More people continue to come here to visit and enjoy what we love about this state. Revenue from lodging is now saving the general fund money and creating opportunities for new investments in outdoor recreation. People love Wyoming. We need more camping spots, boat ramps and trails so we can continue to provide more access to Wyoming's great outdoors - Wyoming people love the great outdoors. 
+We love our wildlife and we love our open space. That is why now is the time to use one-time revenues to fill the Wyoming Wildlife and Natural Resource Trust. This investment will bring returns many times over for Wyoming, our ranches, our businesses, and our way of life. 
+HEALTHCARE 
+The pandemic has revealed that the demands on Wyoming's healthcare system and the accompanying costs require a focused approach. That's why I established the Health Task Force as a way for stakeholders to improve accessibility and affordability. We began by focusing on Wyoming's fragile Emergency Medical System. We need stability in emergency medical response in Wyoming, and the Task Force is recommending funding to standardize emergency medical dispatch. The Wyoming EMS system will be a top priority for me and the Task Force in 2022. 
+Remember, our state's healthcare system is only as effective as the people who work in it. 
+With us today is Will Deans, a Critical Care Nurse at Cody Regional Health. Will and his colleagues have been dependably providing care for patients with COVID-19, along with the other ailments that require medical attention, regardless of pandemic waves. Will, we salute you and all healthcare workers. 
+EDUCATION 
+One of our state's top priorities must be our education system. Wyoming schools were reported as having educated more kids in-person for more days during the pandemic than any other school system in the country. That is amazing stuff, and when I report this to my colleagues they ask how we did it. I have to answer it has been our school boards, school staff, students, parents, teachers and communities that made it happen and deserve our gratitude. 
+I want to take this opportunity to recognize Anne Ochs, an educator for more than 30 years. Mrs. Ochs was elected to the Campbell County Board of Trustees in 2010 and has served as the Board Chair since 2017. She is a great example of how many Wyoming citizens are willing to serve their community on behalf of Wyoming students and families. Anne, thank you for your courage and your leadership in this truly remarkable time. Please join me in a round of applause for Anne and those she represents who serve on local school boards around the state. 
+There are two other individuals I would like to recognize. The Wyoming Teacher of the Year from 2021, Alexis Barney, and the 2022 Teacher of the Year Brittney Montgomery. You two are absolutely amazing and your students know it. Alexis, who was unable to join us today, is a fourth- and fifth-grade teacher at Evansville Elementary and Brittney teaches first grade at Harrison Elementary in Green River. Your commitment to our children is critical to our state's future. Let's give them a hand. 
+The future of our state depends on a quality education system that helps students stay competitive in a changing world and continues to make Wyoming an attractive place to raise a family. There is more to that equation than just cost. To that end, I have launched the Reimagining and Innovating the Delivery of Education Advisory Group, or RIDE, to examine Wyoming's primary and secondary education system and make recommendations to elevate it into a position of national leadership. We cannot do that without understanding what those closest to education expect from their schools, and that starts with parents, businesses, and community members. 
+WIP 
+- 
+We rightfully invest a lot in the education and development of our kids. But data show what we all know they are leaving. The crux of this issue is a catch 22: our children leave because they don't see long-term opportunities for employment or careers, and businesses are hesitant to relocate or expand because they are uncertain about their future workforce. But this is changing. Our focus on economic diversification has broken this Catch 22. Wyoming kids have a work ethic that is second-to-none, and already new enterprises are coming: Ranging from advanced nuclear, to digital assets and outdoor recreation because they are seeing what Wyoming is doing to change the game. We are investing in new ways of looking at career, technical and higher education. It's essential that we always stay ahead of the curve. We have to keep this momentum going, and that is what the Wyoming Innovation Partnership or WIP is all about. 
+WIP was born of communication across community colleges, and the University; but it quickly has evolved to include the Business Council and Workforce Services, and shortly, it will expand 
+to include community economic development organizations, and industry. All of these entities will be important in identifying opportunities and local needs, building curriculum, and importantly measuring performance. More than a set of programs, it is a way of envisioning how Wyoming can use her unique strengths to attract, build, refine, and engage our entire capacities to advance Wyoming and diversify our economy. If you are not at the table in this new time, then you are on the menu. 
+Wyoming is actually bursting with opportunity across all of our sectors. We want our education system to be part of the way we grow. WIP is all about more people who do, and more people who can. I want to thank the presidents of our community colleges and UW, and the others who have nurtured this effort for their vision. 
+CLOSING 
+Let me close by finishing the story of our cattle drive. 
+When we got to the top of the Slip, we knew the drive would be easier. And to be there, just as the sun came up, I could look out over the red hills of my home, and make out the shadow of the Pumpkin Buttes to the east and the Big Horns to the North. I could smell the pine and hear the meadowlark. Being there on a Wyoming morning, with a good horse, a sense of accomplishment, and a clearer path forward was a feeling I will never forget. Things were right in the world and our job would become easier. It made all the struggle of the earlier darkness worth it. 
+And so it is with our state these past few years. 
+As Governor, I am always asked why am I so optimistic? It's simple. To paraphrase a wise man, what lies behind us are small matters compared to what lies ahead, and that depends on what lies within us. 
+Members of the 66th Legislature, thank you for your service to the State. Thanks to your families that are here or at home supporting you. I especially want to thank President Dockstader and Speaker Barlow for their leadership through these trying times and for their friendship. I know for some of you this could be your last session, while others are just starting, but together we can and must do much for Wyoming. Let us move forward with courage, confidence, and conviction. 
+There are a lot of things that come to mind when the term "cowboy" comes up. To me it is not a big hat, angora chaps, or tough talk. A cowboy is a decent, practical, hard-working, sort of person, whose humility is infectious, whose ability knows no bounds, and who would do anything for a buddy, knows horses, and is not afraid to admit mistakes. 
+Right now, the world needs more cowboys. 
+Thank you. God bless America and God bless Wyoming. </t>
+  </si>
+  <si>
+    <t>Thank you, Speaker Shepherd; Senate Pro Tem Hickey; Lt. Gov. Griffin; Mr. Chief Justice Kemp
+and Justices of the Supreme Court; and Members of the General Assembly.
+It is an honor to stand before the joint chambers today for my 8th and final State of the State
+speech.
+For that reason please allow me a moment of personal reflection.
+The opportunity to serve and lead the state I love has been the highest privilege of my public
+career.
+As you know, I was raised on a farm on the Spavinaw Creek near Gravette. I was the youngest of
+six children born to John Malcolm and Coral Hutchinson. They were married in the Great
+Depression and understood tough times; they did not have college degrees but they valued
+learning and encouraged me to pursue my dreams and, most importantly, to have faith and trust
+in our Creator who reigns sovereign in the affairs of man.
+But the most important person in my life is the girl I was so crazy about that I hitchhiked from
+Fayetteville to Memphis on the weekends to see her. Susan has celebrated every victory with me
+and walked with me through every trial. Let me introduce my sweetheart of 48 years and the
+First Lady, Susan Hutchinson.
+Susan has devoted time, energy, and her voice to helping the abused and neglected children in
+our state.
+My family is important to me, and I am grateful, my son and namesake is here, Asa Hutchinson
+III.
+1
+Today, I am also grateful for the partnership of the General Assembly. Every once in a while we
+disagree, but all in all, we have worked together and accomplished a great deal for the people of
+our state. Our work together has not been for the weak of heart but it has been transformative and
+will impact generations to come.
+Seven years ago, I took office with the desire to improve the quality of life in Arkansas by
+improving education, increasing our manufacturing, preserving our outdoor heritage, and
+supporting our farmers.
+I wanted to be the jobs governor, and through the work of Mike Preston and the Arkansas
+Economic Development Commission and our many partners, we’ve had historic success.
+We now have the lowest unemployment ever at 3.1% and a record number of Arkansans
+working.
+We have signed 556 incentive agreements that created 25,000 jobs.
+81,000 more people are employed now than when I took office in 2015.
+On my first day in office, I called the CEOs of six companies. One of those companies was Sig
+Sauer.
+A year later, they opened a facility in Jacksonville employing Arkansans and continue to grow.
+The long list of companies that have expanded or moved to Arkansas represents billions of
+dollars of investment.
+This is a sampling of the companies that have moved here or expanded
+- Cynergy Cargo in Crossett.
+- Nestle in Jonesboro.
+- Aerojet Rocketdyne in Camden
+- Trex in Little Rock.
+- EnviroTech in Helena-West Helena.
+- Vexus Boats in Flippin.
+2
+- Canoo in Bentonville.
+- Resolute Forest Products in El Dorado and Glenwood.
+- West Rock Coffee in Conway.
+- Riceland in Stuttgart.
+- Mars Petcare in Fort Smith.
+- Drax in Russellville,
+- Tractor Supply in Maumelle
+Last week we broke ground on the largest economic development project in state history. The
+U.S. Steel announcement on the construction of a new steel mill in Osceola. This is another
+calling card for our state.
+It means:
+- A $3 billion investment with more than 900 new high-paying jobs;
+- Mississippi County will be the Number 1 steel-producing county in the nation.
+- And this would not have been possible without the support of the General Assembly in passing
+legislation necessary to win the project. Thank you.
+But there is more. In Arkansas, we support our military bases and their missions. That is why we
+worked so hard to bring in the F-35 pilot training mission to Ebbing Air National Guard Base in
+Fort Smith. This will be an economic boon for Western Arkansas for decades to come.
+But another reason that we have been successful in job creation is that we made it a priority to
+cut taxes.
+When I came into office I promised to cut middle-income taxes by $100 million. People said it
+couldn’t be done. Well, we did it in the first year. Then we went on to provide tax relief to every
+Arkansan. We have lowered the individual income tax rate from 7.0% when I was elected to
+5.5% this year. And there is more to come.
+3
+These reductions return money from the government coffers to the hard-working Arkansans who
+need this money to pay for the increasing costs of providing for their family. They need fuel to
+get to work each day and tax cuts allow them to have more money in their pocket to invest or
+spend on the necessities of life.
+The cumulative total of these annual income tax reductions over the past seven years exceeds $1
+billion.
+We did this while also giving teachers raises, increasing funding for education, and creating a
+record $1.2 billion reserve fund.
+In addition, we saw the need for improved roads and highways in Arkansas, so we met the
+challenge by doing the heavy lifting of passing the largest highway funding plan in history.
+We saw the need of our foster children and we gave them HOPE.
+We wanted a more efficient and responsive state government, so we transformed it from 42
+departments down to 15. We have reduced the number of state employees by over 2,000 since
+2015.
+We navigated our way through a pandemic and we kept our schools open because we knew our
+children needed to be in the classroom. I knew in Arkansas every business was essential, so we
+never sheltered in place or stopped producing.
+These businesses are not only essential for our families but also for the world. We produce and
+the world depends upon us.
+In the spirit of comity and friendship, the General Assembly and the Executive Branch came to
+an agreement on most issues during the last two years; and when we disagreed, well we just
+disagreed. But that did not stop the goodwill or our ability to work together.
+Now, let me pause and recognize 3 representatives of public servants who have sacrificed and
+endured extraordinary hardship to get us through this pandemic.
+Let me introduce Juanita Ellison. Juanita was a senior in high school in Camden when she
+decided she wanted to teach school. She earned a degree at Southern Arkansas University. She
+4
+taught at Camden Public Schools and then moved to Jacksonville where she teaches K-5 special
+education.
+Juanita Ellison is a dedicated teacher and she represents all of our teachers who have gone the
+extra mile to help our students.
+Please join me in recognizing Juanita Ellison and saying thanks to our teachers across Arkansas.
+Next, I want to introduce Emily McGee who is a critical care nurse in the ICU unit of St.
+Bernard Regional Medical Center in Jonesboro. Emily was the director of critical care and
+oversaw the expansion of critical care at the hospital during the pandemic.
+Emily represents our health care professionals who we all celebrate as heroes during the last two
+years. They serve us every day. Let’s express our thanks and God bless you.
+Our third and last special guest is Trooper Zenda Staab of the Arkansas State Police. Zenda was
+an Assistant Basketball Coach before she joined the State Police. She is also an MP in the
+Arkansas National Guard.
+Without going into all the details Zenda took heroic actions in 3 separate incidences in order to
+save lives. In one instance, Zenda initiated the pursuit of a stolen car. When the suspect crossed
+over to drive against traffic on a four-lane highway, she executed a U-turn and stopped him
+head-on with her cruiser. The suspect was traveling 70 mph. Before the stolen car stopped
+spinning, she was out of her seatbelt, out of the car, and drawing her weapon. The actions of
+Trooper Staab, at great risk to her own safety, kept the public safe and saved lives.
+Please recognize Trooper Staab. She represents all those in law enforcement that risk their lives
+every day for our safety and to enforce the rule of law.
+Thank you to Juanita, Emily and Zenda for your service.
+Before we move into the future, let’s spend a moment reflecting on history. In 1956, the
+Eisenhower administration laid out a bold plan to change the way Americans moved. The
+Interstate Highway System connected all parts of America, even previously remote states like
+Arkansas. This concept was bold at a time when many Americans traveled interstate by train.
+Investment in the interstate system helped create unprecedented growth in travel, business, and
+tourism. Without our interstates, companies like Walmart, J.B. Hunt, and FedEx may never have
+5
+grown into the business titans they are today. President Eisenhower wisely saw where the future
+of mobility was heading, and his vision made America a leader in that future.
+Now, let’s talk about our own future. You have supported our students by giving them
+opportunities in computer science education that make Arkansas a national leader. Tens of
+thousands of more students have an opportunity to choose a path that will make a difference in
+shaping the world and will provide them with a high-paying job.
+But now, Arkansas is in a unique position to lead in future technologies that will change our
+world.
+Today, I am challenging Arkansas to lead in this world of innovation by focusing on the future of
+advanced mobility. This focus includes autonomous vehicles, upward mobility platforms, electric
+vehicles, and modes of transportation that do not exist today but could be the dream of an
+Arkansas student right now.
+Why Arkansas?
+We have always led in transportation from entrepreneurs like J.B. Hunt who started hauling rice
+hulls from Stuttgart to NWA; and Sheridan Garrison who started Arkansas Freightways that is
+now FedEx Freight; and also Steve Williams of Maverick Transportation.
+We all know that the success of our transportation industry is critical to the economic future of
+Arkansas. And to position our state for the future we must act today because the future of supply
+chain deliveries will be different tomorrow from the trucks on our road today. So, let’s keep
+leading.
+This past year between the Delta variant surge and Omicron, I was able to make an economic
+development trip to Israel. I spoke at the Prime Minister’s Mobility Summit. I was preceded on
+the stage by the Israeli Transportation Minister who announced that they hope to get a bill
+through the Knesset to allow the piloting of autonomous vehicles.
+Well, I was the next speaker following the Minister and I announced that Arkansas passed a law
+in 2019 (2 years ago) that allowed the piloting of autonomous vehicles. Further, the pilot
+program was successful, and we are now using fully automated vehicles delivering goods from
+the warehouse to the retail store. It was a proud moment for Arkansas. But to accomplish this, it
+6
+took the work of the General Assembly, the Arkansas Department of Transportation, and the
+leadership of the private sector. In this case, Walmart and Gatik.
+We have also recruited the headquarters of an electric vehicle manufacturing company, Canoo;
+and in south Arkansas, Standard Lithium is piloting the production of a critical element in the
+supply chain for electric vehicles. In eastern Arkansas, we produce the steel that is required for
+the battery casing in electric vehicles. So, we are in a good position to shape the future from
+Arkansas.
+In order for us to lead, we need to have electric charging stations across the state. Arkansas is
+scheduled to receive $54 million over the next 5 years from the federal government for electric
+charging station infrastructure. Quite frankly, this needs to be accelerated. Oklahoma already has
+it in place and we may need to devote state dollars to get it done more quickly.
+As governor, I won’t be here for the end of the story but together we can write the first chapter.
+Today, I am announcing the creation of the Arkansas Council on Future Mobility. The Advisory
+Council will be charged with identifying state laws and regulations that create a barrier to the
+development and enhancement of electrification, autonomous vehicles, drone delivery, and
+advanced air mobility in Arkansas. It will examine workforce training, accessing federal funding,
+and will make recommendations before the next general session of the legislature.
+In the future, you will have choices to make. You will have the opportunity to remove regulatory
+burdens and to pass legislation to advance new modes of transportation that will keep Arkansas
+in the lead. I encourage you to build on the private sector success we have in Arkansas and allow
+innovation and new technologies to bolster our future. The businesses that drive these
+innovations in mobility will be leaders in the future economy. I want these companies to find a
+home in Arkansas and for our state to be a leader in future mobility.
+Of course, the reason we are here is the Fiscal Session of the General Assembly. So, let me
+discuss the budget that has been presented.
+The budget before you includes increased funding for education, health care and public safety. It
+includes stable funding for the victims of crime through the Crime Victims Reparations program.
+It provides funding for child abduction response teams and for 2 new drug courts. And even with
+those spending priorities, we will continue to have a healthy surplus.
+7
+Most importantly, this session will be remembered for our support of law enforcement.
+Because of your advocacy and hard work, I am able to announce support for the $5,000 one-time
+payment to every county and city-certified law enforcement officer. This will be one-time
+payment from our surplus effective June 30 when the fiscal year ends. It is designed to reward
+and incentivize those dedicated officers who keep our streets safe and our homes protected. The
+total costs of this initiative in support of law enforcement will be approximately $45 million.
+Next, you passed Act 786 of 2021 to create the Public Safety Equipment Grant Program. This
+was one of the recommendations of the Task Force on the Advancement of Law Enforcement
+that I convened after the murder of George Floyd and the subsequent nationwide protests. The
+Task Force wanted to increase trust between police and our communities and to improve the
+training, equipment and pay for our law enforcement officers.
+The grant program has received applications for funding to purchase everything from body
+cameras to bulletproof vests. We have about $5 million in equipment requests from cities and
+counties but we don’t have $5 million to cover those grant requests. I recommend $10 million of
+one-time funding from our June 30 surplus to adequately fund the $5 million in applications and
+another $5m for new requests.
+Currently, our law enforcement is underfunded, underpaid, and underappreciated. The actions of
+this General Assembly to fund more, pay more, and to appreciate more will send the
+unmistakable message that in Arkansas…..we support and value our law enforcement partners.
+As part of this effort, our budget will significantly increase the pay of our state troopers. Col. Bill
+Bryant has been a star in leading the State Police and the troopers are deserving of a more
+competitive salary. The troopers not only patrol the highways but their SWAT units are regularly
+deployed in crisis situations across the state. They back up local law enforcement in the response
+and investigation of violent crime. I am very proud of their dedication and professionalism. So,
+while some across the country advocate for reducing police funding, we are doing the opposite.
+We are increasing support and affirming that the first duty of government is public safety.
+I also challenge our counties and cities to step up to the plate and do more. Police funding must
+be a priority at every level.
+8
+Currently, we have a record back up of state prisoners in our county jails. This limits the counties
+and cities in their capacity to enforce local laws. This backlog must be remedied and for that
+reason, I recommend another one-time investment from our surplus to fund a new 498 inmate
+prison facility.
+Let me emphasize that this need for a new facility is not a reflection of a change in incarceration
+policy. It is simply the fact that we have a growing state. We are growing in projections of 1.4%
+percent.
+My finance team led by Secretary Larry Walther conservatively estimates that we will have a
+$500 million surplus on June 30. We have sufficient room to address these urgent public safety
+needs.
+And, yes, if this surplus continues to grow then there will be an opportunity next year to return
+part of the growing surplus to the taxpayers.
+As to the state of our state, I am grateful to say that Arkansas is leading. We are leading in
+computer science education; technology innovation; agriculture; tourism; job creation; and
+support for veterans and law enforcement. Sure, we have more to do but our state is blessed.
+And our nation is blessed as well. I think back in my lifetime and I can recall the division and
+protests of the Viet Nam War; the turmoil of Watergate; the assassinations of Presidents and civil
+rights leaders; and the bitter political fights in Washington. If you simply concentrated on those
+tragic moments in our history then you might be discouraged about America. But I also
+remember and lived through the Berlin airlift; the Cuban Missile Crisis when our leaders stood
+tall against a Soviet threat; I witnessed Neil Armstrong land on the moon to win the space race
+and I saw the fall of the Berlin wall. I observed from a very personal standpoint how we all came
+together as a nation after the 9-11 attack.
+These moments in history remind us that leaders make a difference and that we can do more, and
+earn the respect of the world when we are united and when we are following the better angels of
+the American spirit.
+Leaders can appeal to the instincts of fear or they can lead with hope. In today’s world and, yes,
+in Arkansas, let’s join together to bring out the best of our fellow citizens. I have never been
+9
+more hopeful and optimistic about the future of our state. Let’s work with courage to unite,
+inspire and lead with hope.
+Thank you. May God bless the state of Arkansas and give us the courage to keep America
+strong, united, and free.
+10</t>
+  </si>
+  <si>
+    <t>Thank you Lieutenant Governor Meyer, Senate President Micciche, Speaker
+Stutes, and members of the 32nd Legislature.
+I’m glad to be back at the capitol addressing the Legislature in person, and I thank
+you for the invitation to speak to you tonight.
+I first want to recognize my wife of 34 years, First Lady Rose Dunleavy.
+Alaska made history this past year. A stellar young Alaskan who could not be here
+tonight also deserves some recognition.
+Lydia Jacoby of Seward stunned the world last summer in Tokyo when she won
+gold with a thrilling finish to the 100-meter breaststroke in record time.
+We saw Lydia’s friends and neighbors cheering her on in that famous video that
+quickly went around the world from the Seward ferry terminal.
+Alaskans around the state were cheering right along with them.
+On behalf of Lydia’s fellow Alaskans, I know we’re going to keep cheering her on
+in everything she does going forward.
+We can’t wait to see what else she’ll accomplish. Let’s all give Lydia a great round
+of applause.
+Another special guest that made history this past year is our own Miss Alaska now
+known as Miss America, Emma Broyles.
+Emma, a graduate of Service High in Anchorage, broke through as the first Miss
+Alaska, and first of Korean heritage, to win the title of Miss America in the 100-
+year history of the competition.
+Because of her personal experiences, she is using her platform to bring awareness
+to ADHD and OCD, and highlighting community building through the Special
+Olympics.
+This past semester at Arizona State, where she is enrolled in the Honors College
+studying biomedicine with plans to enter medical school, Emma passed 21 credit
+hours, worked two jobs, and took three finals on the day she left for the Miss
+America competition.
+2
+Her hard work and tenacity embodies the 21st Century Miss America.
+But her victory almost didn’t happen.
+During the interview competition, Emma shared her experience of hitting “rock
+bottom” while isolated in her dorm early in the pandemic.
+At times, her schoolwork and distance from her home state made her wonder if
+she should give up her Miss Alaska title.
+At the competition, Emma was asked why she was sharing her most vulnerable
+self with the rest of the world.
+“A lot of people,” she said, “don’t recognize that their low points are what are
+going to propel them to their future.”
+Emma, we are so glad you stuck with it, and we are so proud of you.
+You have only just begun a lifetime of making a positive difference in the lives of
+others with the story you share, and the example you set.
+You represent Alaska’s strength, our diversity, and how we stand up when we get
+knocked down.
+Thank you, Emma, for being here tonight, and for being an inspiration to all of us.
+Could you please stand and be recognized?
+Young people like Emma and Lydia are showing the world what Alaskans are
+made of.
+We take great pride in being Alaskans.
+We take great pride in facing challenges head on.
+We don’t retreat, and we don’t accept defeat.
+We also take great pride in helping our neighbors when things get tough.
+From the Interior to Western Alaska, from the Mat-Su Valley to Southeast,
+including right here in Juneau, we have seen winter weather that has wrought
+tremendous destruction on our Great State.
+The storms have required state disaster declarations covering almost half of our
+boroughs and the communities they include.
+3
+We are so thankful that we haven’t suffered any loss of life, and it’s always
+heartening to see and hear stories of Alaskans pitching in to help each other.
+Neighbors, utility workers, contractors, our Department of Transportation, our
+National Guard, and countless others, have all answered the call to help,
+sometimes under the most hazardous conditions.
+We couldn’t be more grateful.
+Our National Guard is ready to respond at a moment’s notice when called upon
+thanks to members like Captain Andrew Viray.
+Captain Viray is a lifelong Alaskan, a graduate of East High in 2010, and the
+University of Alaska Anchorage and ROTC in 2014.
+He was commissioned into the Army National Guard as an infantry officer after
+graduating, and is serving as a plans and projects officer with the First-297th until
+he takes command of an Infantry Rifle Company in the coming months.
+Captain Viray has been a leader in our COVID response through the Joint Task
+Force we stood up in March 2020.
+After returning from deployment to Kosovo in June 2020, he volunteered for the
+Joint Task Force assignment.
+He has assisted in warehouse operations, our airport testing program, and
+elections support in the Y-K Delta.
+More recently, he’s served as a staff planner in our Joint Task Force emergency
+responses in Fairbanks, the Mat-Su, and Yakutat.
+When he’s not answering the call for our National Guard, he is enrolled at the
+University of Alaska Anchorage pursuing his master of social work degree and is
+on track to graduate in May 2023.
+Captain Viray is here tonight, and I’d like to ask him to stand and be recognized
+for his dedication to Alaska, his exemplary service, and on behalf of all our
+National Guard members.
+Thank you for being here tonight, Captain, and for standing up for all Alaskans.
+4
+After everything we’ve faced over the past three years, it’s my honor to report
+that not only is the State of our State Resilient, we’re fulfilling our motto of
+“North to the Future.”
+Despite earthquakes; despite floods; despite fires, wind, ice, and snow;
+Despite hostile policies coming from Washington, DC; despite a once-in-a-lifetime
+pandemic;
+Despite these obstacles and against all odds, we’re not only still here, we are
+moving forward, and, yes, we are Open for Business.
+Here’s what I’m talking about:
+The state of our fiscal situation has vastly improved from the budget deficit of
+$1.6 billion I inherited upon taking office.
+Thanks in part to our fiscal restraint over the past three years, we’re on track for a
+budget surplus in the current fiscal year for the first time in a decade.
+Based on current trends, we could see revenue in the current year increase by
+more than $281 million over the fall forecast and by $466 million in the upcoming
+fiscal year.
+This can generate a surplus this year, and next, even without one-time federal
+funds.
+Regarding crime, thanks to the repeal of Senate Bill 91, Alaskans are safer today
+than we have been in decades!
+When I first stood before this chamber three years ago, I declared war on
+criminals and asked for the Legislature to repeal and replace the catch-andrelease policies in SB 91.
+With the help of many of you, we got it done.
+Policies do matter. We’ve seen our overall crime rate decline by 10 percent in
+2019 and another 18.5 percent in 2020!
+According to the FBI, reported property crimes are at the lowest level since 1974.
+The murder rate has declined by a whopping 31 percent from 2019 to 2020.
+We all remember the huge spike in car thefts after SB 91 was signed in 2016. 
+5
+Following the repeal of SB 91, vehicle thefts were down 54 percent in 2020
+compared to 2017.
+Burglary and larceny theft dropped by 22 percent from 2019 to 2020; robberies
+dropped by almost 15 percent in the same time.
+These figures from the FBI are indisputable.
+Never again can we put criminals ahead of victims, or social engineering ahead of
+public safety.
+When we express appreciation for law enforcement, we usually just think about
+our State Troopers or local Police forces.
+Too often, we forget about our men and women serving in the Department of
+Corrections.
+It’s a difficult, typically thankless job, but no less critical to public safety.
+One of our most senior Corrections officers is Staff Sergeant of Operations Ken
+Noland.
+Sergeant Noland, an Alaskan since age 8 and a graduate of Bartlett High School in
+Anchorage, started his career with the department in 1994 at Spring Creek in
+Seward.
+He’s been at the Anchorage Correctional Complex since April 1998, and he was
+promoted to Sergeant in June of 2005.
+Sergeant Noland is a diligent and generous officer who has mentored and trained
+his peers in those values for more than 25 years.
+According to those peers, his positive attitude and exceptional work ethic help
+create an environment that recognizes the difficulties faced by Corrections staff
+while treating everyone with the dignity they deserve.
+Sergeant Noland is a fine example for our Corrections Department, and I’m happy
+he is here tonight to be recognized not only for his service, but for the service of
+all his fellow officers he represents.
+Sergeant Noland, could you please stand and be recognized?
+Thank you, Sergeant.
+6
+I’m also glad to report good news from the North Slope. To date this fiscal year,
+our oil production and prices are better than forecasted.
+As Alaskans, we know the price of oil is volatile. In just the past two years we’ve
+seen prices go from negative to nearly $90 per barrel.
+We know better than to take current prices for granted, and we must continue to
+hold the line on state spending without sacrificing core services, and that includes
+the PFD.
+Our Permanent Fund is now worth $82 billion, and our multi-billion-dollar pension
+gap is virtually closed.
+The performance of the Permanent Fund solidifies our state government’s fiscal
+situation by smoothing out the highs and lows in oil prices.
+The outstanding returns of our pension funds are freeing up revenue that can be
+devoted to core government responsibilities like Public Safety and Infrastructure,
+without imposing taxes.
+This just didn’t happen on its own.
+It’s not just an accident.
+It’s the result of great investment decisions, policies, vision, and direction.
+Our great state is pointed in the right direction; our focus is where it should be on
+Alaska’s future.
+In the near future, our $4.5 billion tourism industry is poised to welcome millions
+of travelers back to Alaska.
+Together with our industry partners, we’ve invested millions of dollars in
+marketing efforts that saved many businesses in 2021 and will revitalize this pillar
+of our economy in 2022, and for many years to come.
+Our mining sector is poised to supply our nation and the world with the critical
+minerals we need for national security and cleaner forms of energy and
+transportation.
+Compared to the dire predictions at the onset of this pandemic, our health care
+system has surprised many with its resiliency and resourcefulness. 
+7
+As of today, 1,039 of our fellow Alaskans have unfortunately passed away with
+COVID-19.
+We mourn their loss, and our hearts go out to their loved ones.
+At the same time, of the more than 194,000 cases we’ve identified, nearly 99.5
+percent of our fellow Alaskans have survived this infection, and for that we are
+immensely thankful.
+While we battled the delta variant surge this past fall, our staffing shortfalls for
+medical professionals was of grave concern to all of us.
+My administration acted last August before the surge fully hit when we took
+decisive action after receiving a notification that health care workers were
+available.
+We consulted with the state hospital association to identify their needs, and
+secured nearly 500 contract professionals covering specialties from nurses to
+respiratory therapists.
+After finalizing the contract in September, it took less than a month for us to
+deploy these workers around the state to our hospitals, nursing homes, and the
+Department of Corrections just in time to deal with the surge.
+Again, good policies and decisive action can make all the difference.
+We brought the needed resources to bear to reinforce our hospitals, but we
+recognize temporary workers are not a long-term solution.
+We now have three initiatives to address the shortages we’ve identified in our
+health care workforce.
+First, we’re working with the Board of Nursing and the state hospital association
+to recruit and retain over 600 Certified Nursing Assistants.
+This is a huge accomplishment achieved in a very short amount of time to boost
+our health care workforce for the long-term.
+Second, we’ve issued a $2.1 million grant to the University of Alaska Anchorage
+Nursing School to recruit and retain additional faculty to train and graduate more
+registered nurses.
+Third, my administration’s FY23 budget includes a 50 percent increase to the
+number of students in the WWAMI program.
+8
+If approved by the Legislature, we’ll go from 20 seats to 30 seats at the University
+of Washington School of Medicine to train doctors to work in Alaska.
+Together with these partners, we’ll build a stronger, more durable health care
+system in Alaska that can respond to most any situation.
+Every state, every nation, has been confronted with this pandemic, and its
+periodic surges as new variants emerge.
+But make no mistake about it, we’ve been very different from many others in how
+we’ve responded, and our outcomes prove it!
+We’ve led on testing.
+We’ve led on vaccine distribution.
+We’ve led on the distribution of therapeutics such as monoclonal antibodies as
+the first state to establish a community site to receive treatment.
+We recognized early on that specific populations were more vulnerable to this
+virus than others, particularly our elders, those with underlying health issues, and
+some residents of our remote communities with limited health care
+infrastructure.
+From the beginning, I was determined that there would be no repeat of 1918 on
+my watch here in Alaska.
+By any measure, history will reflect that our actions helped us achieve some of
+the best outcomes in the nation.
+The data speaks for itself, and it’s irrefutable.
+We’ll also continue to lead on protecting Alaskans’ medical freedoms.
+My administration will continue to defend Alaskans’ rights to make their own
+medical decisions about vaccines and therapeutics for themselves and their
+families in consultation with their doctors and pharmacists.
+It’s not the State’s job to make those decisions for you.
+My administration’s job is to make sure our health care system is strong and you
+have the tools available to take care of yourself.
+9
+What we’ve learned about this virus is that it impacts certain groups more than
+others, that inevitably it will continue to mutate into new variants, and that it will
+most likely be with us for a very long time, if not forever.
+We’ve learned with the latest variant that it won’t be vaccinated away.
+As a result, we need to live with it and incorporate it into our daily lives.
+We cannot simply exist. We can’t run away from life.
+We must live without fear.
+Fear is not a substitute for knowledge, and what we’ve learned about this virus
+allows us to move forward and get on with our lives.
+While we’ve had to respond to this virus, an effective public health policy is not
+just about one disease.
+An effective public health policy must include all aspects of health: physical;
+mental; spiritual; educational; and economic well-being.
+Mental health is a critical issue in Alaska as we all know.
+We remember the dire situation my administration was handed at the Alaska
+Psychiatric Institute at the beginning of my term.
+API was in such disarray that it was in danger of losing its certification and its
+ability to receive federal funds, but, most importantly, its ability to serve Alaskans.
+One of the promises I made when I ran for this office was to ensure that
+government works for the people.
+Thanks to our Health Department, we turned that situation around.
+From a low of 20 staffed beds soon after I took office, we now have more than 55
+staffed beds.
+The crisis was so bad at API in the winter of 2018 that it led to a halt in admissions
+for the unit that serves adolescents in crisis.
+I’m glad to report today that we have reopened the unit, we now have seven
+staffed beds, and are continuing to build up its capacity.
+My administration has added mental and behavioral health resources to our
+Pioneer Homes and our Department of Corrections as well. 
+10
+By focusing on effective policies, Alaska is now situated to provide the right care
+at the right time to our families, friends, and neighbors.
+Making sure government works for Alaskans wasn’t the only promise I made
+three years ago.
+I also pledged that we would live within our means, that we would make
+government more efficient, and we would find reductions before we ever asked
+Alaskans to be taxed.
+We’ve done this.
+My proposed budget for state spending in the next fiscal year is 7 percent less
+than the 2019 budget in place when I took office.
+Because of our insistence on being as efficient as possible, and with an improved
+revenue situation compared to when I first took office, we’re funding the core
+services that Alaskans expect.
+Three years ago, from this chamber, and throughout my time in office, I have
+pledged to fight for the PFD.
+Fighting for Alaskans’ share of our resource wealth will always be a top priority of
+mine.
+I’ve asked the Legislature to follow the statutory formula, and if these bodies will
+no longer follow that law, they should change the law with the approval of
+Alaskans.
+Year after year, I’ve offered the Legislature solutions that I believed would honor
+Alaskans and solve this issue for the long-term.
+Isn’t that why we’re here? To honor the people who sent us here and work on
+their behalf?
+Our purpose is to be servants of the people.
+I agree with former Governor Jay Hammond that the government should never
+take more from the Permanent Fund than is distributed to the people of Alaska.
+To break through the gridlock that has paralyzed the Legislature since the PFD
+was first vetoed in 2016, I’ve offered a plan that would protect the PFD in the
+constitution for generations to come, and would give the people a say in how
+their PFD is determined. 
+11
+The Permanent Fund was created by the people, for the people, and the people
+must have a voice in the future of their PFD.
+Keep in mind, the government’s finances are doing quite well. This is great news.
+However, our focus must be on how well our fellow Alaskans are doing.
+Inflation is now at a 40-year high!
+The price of everything is going through the roof. Inflation is eating away
+paychecks faster than wages are rising for most Americans and Alaskans.
+Yet, Alaska is fortunate.
+The Permanent Fund is the envy of every state in the country.
+Now is the perfect time to settle this issue for Alaskans during this critical period.
+The people of Alaska must not be an afterthought!
+They must be foremost in every decision we make.
+There are a lot of lobbyists who come to Juneau to argue for a bigger piece of the
+pie for their clients from the Permanent Fund, but, as I’ve often said, my job is to
+represent Alaskans who don’t have lobbyists.
+That’s not just my job. That’s your job as well.
+We can’t forget why we’re here, and who sent us here.
+Everyday Alaskans who play by the rules and follow the law are wondering how
+the people they’ve given the power to make laws can excuse themselves from
+following those very laws when it appears to be inconvenient.
+They’re wondering how we’ve come to a place where the PFD is nothing more
+than what’s left over after government takes the lion’s share.
+They’re wondering how we’ve reached a place where the last Permanent Fund
+Dividend wasn’t even paid for from the Permanent Fund.
+These everyday Alaskans have watched the Permanent Fund boom over the past
+two years thanks to a record run in the stock markets and they wonder why
+they’ve been left behind.
+Just two years ago, the Permanent Fund was worth $65 billion, and today it is
+worth $82 billion.
+12
+But as we know, stock market gains do not equally benefit everyone.
+Working and middle class Alaskans and their fellow Americans have struggled to
+keep their paychecks, or keep their businesses open for the past two years.
+At the same time, we’ve witnessed the largest transfer of wealth to the top 1
+percent in the history of mankind.
+Under our constitution, the people of Alaska are the resource owners.
+Under our constitution, they are owed their share of this wealth.
+I will continue calling upon the Legislature to either follow the law, or change the
+law with the consent of the people.
+Settling this issue can’t be avoided any longer.
+Let us write the history that this was the year we all came together to find a
+solution once and for all.
+Another pledge I made to Alaskans as I stood here three years ago was to
+promote economic growth and opportunity.
+As 2019 ended, we had finally clawed out of a multi-year recession.
+Our GDP was growing as fast or faster than all but seven of our fellow states; our
+unemployment rate continued to reach record lows.
+But we all know what happened next as we entered 2020.
+The economic devastation hit Alaska like no other state.
+Nearly overnight we lost more than 42,000 jobs.
+We are still a long way from recovering the jobs lost in 2020, but we are moving in
+the right direction.
+Oil production has rebounded from the industry cuts at the onset of the
+pandemic.
+Back in 2013, after years averaging 6 percent annual production declines, the
+forecast for production in the current fiscal year was projected to be just 340,000
+barrels per day.
+13
+Instead, we are in fact, around 500,000 barrels, with multiple large projects in
+development and billions of barrels still in the ground.
+If allowed to come to fruition, these projects can add more than 300,000 barrels
+per day in production.
+Ten years ago, some had the idea that policy didn’t matter, that the oil was
+running out and the decline was inevitable. There was basically nothing we could
+do.
+Today, our production numbers prove that good policy that encourages business
+works.
+At the same time, our ability to increase production is under attack from
+Washington, DC, and federal courts that side with extremist environmental
+groups.
+No state has been targeted more by the current administration than our Great
+State of Alaska.
+At every turn and since day one of the Biden Administration, this hostility has
+been perfectly clear. They don’t care about Alaska, and they don’t care about you.
+Out of all 50 states, we are the only state that was specifically admitted to the
+Union compelled to support ourselves through the development of our rich
+natural resources.
+For those who want us to invest in programs such as renewables, as I do, the cost
+of transition can only come from the revenue from our oil and gas.
+From that perspective, the policies coming from Washington DC make absolutely
+no sense and, quite frankly border on insanity.
+Why do I say that?
+Because no president should have to beg for more oil from the Middle East or
+Russia’s Arctic when we can produce it right here better and safer than anywhere
+else on the planet!
+This is common sense!
+This misguided policy only caters to extremists in the environmental movement,
+and strangely, to the leaders of countries that are not our friends.
+Folks, our enemies are laughing all the way to the bank. 
+14
+This is why my administration’s Statehood Defense Initiative is vital to protect
+Alaska from these crazy policies.
+I will not stand idly by and allow Washington to throttle Alaska’s future without a
+fight … and I thank the Legislature for standing with my administration and the
+people of Alaska by funding this effort.
+We must be allowed to fulfill the promises made in the Statehood Act to support
+ourselves with resource development!
+Along with increased oil production, another bright spot this past year was a
+record run of 63 million sockeye salmon in Bristol Bay.
+The state salmon harvest overall was valued at $644 million, the third-best ever.
+But we also know that some salmon returns across the state set different records,
+unfortunately, for all-time lows, particularly in many parts of Western Alaska.
+In conjunction with local and industry partners, we secured tens of thousands of
+pounds of salmon for the impacted villages.
+At the same time, we know this isn’t a solution for Alaskans who have survived off
+their lands and waters for thousands of years.
+The issue of bycatch has long been a contentious one.
+To help solve this longstanding issue, my administration has created a Bycatch
+Review Task Force that will take in all the science and data to ascertain causes
+and then put forth recommendations to solve this issue for the benefit of
+Alaskans.
+We know that natural forces cause ups and downs in wildlife populations, but we
+must understand the causes of population declines and the possible manmade
+effects from other fisheries in the Bering Sea and Gulf of Alaska.
+Every possible impact must be examined, and we must make sure our valuable
+species such as salmon, crab, and halibut are protected.
+As we all know, the main purpose of government is to provide security for its
+citizens first and foremost, and that includes food security.
+This is an area we are proposing further initiatives to boost our agriculture and
+mariculture industries.
+15
+As a state disconnected from the Lower 48, at the top of the world with a small
+population, we are at the start and the end of the supply chain and too often at
+the mercy of others for our state’s survival.
+What we’ve seen at backed up ports around the country powerfully illustrates
+how fragile that supply chain can be.
+Whether caused by a natural disaster or a port closure, Alaskans are well aware of
+how a disruption in the supply chain can affect us.
+It’s often noted that Alaska’s grocery stores only have about two weeks’ worth of
+food in stock.
+At the onset of the pandemic, and more recently, we’ve seen some empty shelves
+in Alaska.
+The key component of a modern state is the ability to produce what it needs to
+ensure its survival, and that means we must build our own supply chain.
+That is where our Alaska Grown businesses have a huge part to play.
+Because, and make no mistake, at some future date, there will be another
+disruption to our supply chain.
+We must be prepared for that inevitability. We must be self-sufficient.
+Through our Pioneer Homes, our Department of Corrections, our schools, and
+more, the State of Alaska can be the biggest supporter of our Alaska Grown
+products to ensure our agriculture, mariculture, and food processing industries
+have the level of business they need to sustain and expand, and to be there when
+we need them!
+Soon, we will be introducing legislation and an Administrative Order creating a
+Food Security Task Force in support of this effort.
+Food security starts with land, and Alaska has more farmland potential than any
+other state.
+In Texas, more than 95 percent of the land is privately-owned.
+But in Alaska, the biggest state in the country by far, we have barely 4 percent of
+our land in private hands.
+This must change. We often rail against the federal government that holds so
+much of our land, yet as a state we hoard our own land like no other.
+16
+This makes no sense.
+To increase our agricultural production, and to make the Alaska dream of owning
+a piece of the Last Frontier attainable, we must have land reform.
+We introduced several bills last year that would facilitate the goals of growing an
+agriculture sector, and make land easier for Alaskans to acquire as well.
+But we need these bills to move to make this happen.
+Our constitution demands that we encourage the settlement of our land, and the
+development of our resources by making them available for maximum use.
+I call upon the Legislature to act upon these land bills.
+We must meet our responsibilities under the constitution and to give Alaskans a
+piece of the Last Frontier.
+Over the past several years as we’ve faced multi-billion-dollar deficits, we’ve been
+forced to have a debate about how much the state spends and how we should
+prioritize that spending.
+But where there can be no debate is that the Number One job of any government
+is public safety.
+When I took office, the Department of Public Safety, our brave State Troopers,
+and Village Public Safety Officers had been weakened through years of budget
+cuts.
+In 2016, the State Troopers had lost 38 positions in just two years, posts were
+being closed around the state, and our services to rural Alaskans were being
+shortchanged as well.
+While restraining state spending elsewhere, my administration has proposed four
+years of increased resources for the Department of Public Safety, and I thank the
+Legislature for supporting these efforts.
+We now have 20 more funded Trooper positions than when I took office.
+We’re on track for two full Public Safety academies in 2022 that could add as
+many as 60 Troopers to our ranks.
+We’ve added dedicated major crimes investigators to Western Alaska for the first
+time. These new resources will be a game-changer.
+17
+Four of those investigators are now based in Bethel, where we are adding a
+deputy fire marshal and a crime scene technician as well.
+One of our outstanding State Troopers is also based in Bethel.
+Sergeant Elondre Johnson is an 18-year veteran of the State Troopers assigned to
+the Bethel Post.
+Over the years, Sergeant Johnson has developed an impeccable reputation and
+positive relationships with the communities he serves.
+Sergeant Johnson serves the villages of the Y-K Delta where he also helps train
+local law enforcement and new Troopers assigned to the Bethel Post.
+Sergeant Johnson has won praise from stakeholder groups, residents of the
+communities he serves, survivors, and the local District Attorney’s office.
+The local District Attorney cites his high caliber case work as essential for
+successful prosecution of serious crimes.
+Serving rural Alaska is the primary mission of the State Troopers, and Sergeant
+Johnson puts that mission into practice every day in harmony with his division’s
+purpose of “Public Safety through Public Service.”
+In recognition of his outstanding service and his model example to fellow
+Troopers, Sergeant Johnson was named the 2020 Alaska State Trooper of the
+Year.
+We are fortunate that he is here tonight, so please, Sergeant Johnson, could you
+stand to be recognized?
+We are so grateful for the service and sacrifice you and your fellow Troopers are
+giving Alaska every day. I assure you it does not go unnoticed.
+Again, I want to thank you, Sergeant Johnson, for your service to Alaska.
+In furtherance of our goals to revitalize service to rural Alaska, we’ve authorized
+pay increases for Village Public Safety Officers, and we’ve hired 22-year Trooper
+veteran Colonel Joel Hard to take over the new position of VPSO Operations
+Director.
+Thanks to previous funding from the Legislature, we’ve finally cleared the
+decades-old backlog of thousands of untested sexual assault examination kits!
+18
+We must never let such a backlog happen again, and we’ve put into place the
+personnel and policies to make sure it won’t.
+In the bill that repealed SB 91, another provision was added to require all kits to
+be examined within one year.
+My administration knows we can do much better, so we’ve tasked the Crime Lab
+to complete these examinations in less than 90 days.
+I also appreciate the Legislature approving my funding request for 10 Department
+of Corrections personnel to take on another decades-old problem of collecting
+DNA from those arrested or convicted for certain crimes.
+We’re making great strides with legislative support for funding this important
+program, and I thank you all for that.
+Good things really can happen when we work together.
+These programs will not only aid us in providing swift justice for victims, but are
+also helping us resolve cold cases to bring long-overdue justice for victims and
+their families.
+Justice delayed is justice denied, and I thank the court system for resuming
+criminal jury trials to protect the rights of victims and the rights of the accused.
+My proposed budget also funds additional criminal prosecutors to clear the case
+backlog brought on by this pandemic, and it includes court system funding to
+resume the five-day work week.
+Tonight, I’m asking you, the Legislature, to fund my proposed DPS budget for the
+next fiscal year that supports the People First Initiative.
+The good news for Alaska is that our overall crime rate has declined significantly
+in the past couple years; the bad news is that our rates of domestic violence and
+sexual assault remain stubbornly high.
+As we announced last month, the People First initiative is the umbrella for five
+distinct initiatives addressing our most critical problems that impact our most
+vulnerable:
+* domestic violence and sexual assault
+* human trafficking
+* missing and murdered Indigenous persons
+19
+* the foster care system
+* and homelessness.
+These are not top-down proposals.
+They’ve been crafted from the ground up based upon the input of multiple
+stakeholders in a process that started in November of 2020.
+The People First Initiative is a mix of statutory changes, additional personnel,
+administrative orders, technology, and</t>
+  </si>
+  <si>
+    <t>News ReleaseJanuary 10, 2022
+WATCH THE 2022 STATE OF THE STATE ADDRESS
+View a transcript of the speech below. Read it in Spanish HERE.
+The Governor's full remarks:
+Speaker Bowers, President Fann, Leaders Rios and Bolding, Chief Justice Brutinel, Members of the Legislature and Judiciary, everyone assembled here – the families, the friends, the special guests and dignitaries – all my fellow Arizonans: There is nowhere else I’d rather be right now than here, in this chamber, on this floor, together, in person, smiling, shaking hands, and celebrating the strength and the future of the State of Arizona. 
+Typically in an even numbered year, we’ve logged a lot of hours working together. But today we have an unusually large number of fresh faces. And that makes it all the more exciting. Would all the new members of the House and Senate – those sworn in since our last sine die – please rise? Welcome.
+Without citizens like yourselves and your colleagues willing to participate and make the sacrifices that inevitably come along the way – the cornerstone of our great democracy, “We the People” – is merely words. You make it a reality. Thank you all for your service and civic participation.
+We’ve also got some not so fresh faces among us. Near the top of the list – me.
+​​I have the unique privilege of doing something today no Arizona governor has done in more than three decades, reporting on the State of our State for my 8th time. And so I begin by expressing my sincere and eternal gratitude to the people of Arizona for entrusting me with two terms in this incredible job – and to all of you for your partnership along the way. Thank you.
+And to my family for supporting me, and for all that you didn’t sign up for – most of all, tolerating State of the State rehearsals around the kitchen table year after year – and especially to Angela for her continued advocacy for the most vulnerable children and citizens of our state: I love you, and thank you.
+But for those who think it’s going to be a quiet year on the 9th Floor, you haven’t been paying attention. As I enter the fourth and final quarter, I’m reminded of something my high school coach told me – “Get in and get the job done.” And as I stand here today, the job isn’t done. The goodbyes will come later – much later. I’ve got 357 days, 21 hours, 44 minutes, and 18 seconds before the end of the game, and I intend to make the most of every moment and work hard all along the way for my employers – the citizens of this state.
+Ladies and gentleman, at the risk of sounding repetitive, the State of our State is strong. And we are poised to do what everyone in public service strives for: to leave it stronger than we found it. 
+Last session was one for the record books. Together, we made it the most successful since I’ve been down here – and I’m not just talking about cocktails to-go.
+Liability reform for our small businesses. Bipartisan wildfire solutions and funding to match. New revenue streams through a modernization of our tribal gaming compacts. New school choice options for kids and families. A record investment in roads, infrastructure, broadband and affordable housing. Nearly 100 percent of citizens 65 and older with at least one shot of the vaccine thanks to a national model for distribution brought to you by Dr. Cara Christ, Michael Bidwill and the Arizona Cardinals. We led the way with universal licensing reform. And with the leadership of Dr. Regina Cobb, we passed another first in the nation Arizona policy that everyone is rushing to copy: telemedicine. And a list we are very proud to be at the top of: the largest tax cut in Arizona history, with the passage of the lowest flat tax in the nation.
+And yet anyone who has ever worked with me will attest: I have a hard time stopping to celebrate victory. It was true at Cold Stone, and it’s been true in the public square. So naturally, after we signed the budget, I told my staff: “In 2022, we’re going to top all of this.” And so we’ve been hard at work to make this a banner year.
+One thing that was clear when we went back to review the tape on the last seven years: As co-equal branches of government, working in good faith with the Legislature, we have set the bar very high.
+Arizona is better positioned than at any time in our 110 year history. And that makes our work and our priorities much different than when I stood before you the first time.
+You know the facts: Back then, the state budget was broken – in the red by $1 billion. 
+I remember meeting just days after the 2014 election, and reviewing options. In the easy column, budget gimmicks and tax increases. On the other side, budget cuts and tough decisions.
+In that election, I ran on having built a business, and I committed to shrink a government and grow an economy. And together, we have done just that.
+Today, a lot is different in Arizona. We have lived within our means: We have more citizens, our budget is balanced, our economy is roaring and our government is smaller and more efficient than it's ever been. In fact, we believe so strongly in shrinking government that for the first time ever we are demolishing unneeded state buildings, on track to reduce our footprint by nearly 750,000 square feet since we got here. 
+We are sitting atop a surplus of several billion dollars, fueled not by tax increases – but by the opposite: historic economic growth. It turns out free-market capitalism works. Supply-side economics might not be the sexiest thing for candidates to run on these days, but it sure looks good on a spreadsheet.
+Today, our state revenue is growing at an even faster rate than the so-called experts predicted. So this year, just like in the past, we are going to double-down on what works. Rather than endless, needless programs that waste the people’s money, we are going to be targeted and responsible. 
+We will resist the cries from the spending lobby, and once again, we will allow the people to keep their hard-earned money. We will cut taxes.
+It’s really not that complicated; it’s just basic common sense. Government takes in more than it needs to pay the bills, and the taxpayer should get to keep his or her hard-earned dollars.
+Today, jobs are plentiful. Back in 2014, I remember getting grilled on the campaign trail about how all the jobs Arizona was getting were call centers and construction. My response? There’s dignity in all work, and it was true. But for far too many employers and businesses, Arizona was, in fact, a flyover state on their way to Texas. We knew we could do better if we could get those decision-makers to stop here, so we could make the pitch to show what a beautiful state we live in. Now, because of our combined work, we have an all-of-the-above approach on jobs. Not just call centers but also car manufacturers, autonomous vehicles, tech start-ups and world-class semiconductors. We said we wanted to be a jobs juggernaut, and in the process, we became a paycheck paradise. Plus, unlike California, Illinois and New York, here you actually get to keep your paycheck.
+But still, there’s no denying what’s happening on a national level is straining families and seniors’ checkbooks. Washington’s spending spree, combined with mismanagement of COVID, has broken our supply chain and inflated the cost of everything. A staggering surge of 6.8 percent – food, clothing, gas, prescription drugs. The largest increase in the cost of daily life in nearly four decades. A White House in denial it’s even occurring. And a President hell bent on printing and borrowing money while raising taxes. This is not a strategy that will help working people.
+It all makes our commitment of returning money to the people more important than ever. Washington D.C. might have their eye on your paycheck – but at this Capitol, the only special interest on our mind is the taxpayer.
+We have made Arizona a top destination for jobs and companies. Low taxes. A strong, reliable energy grid, with the largest nuclear power plant in the United States. And a great quality of life — they all go a long way. 
+But as any business person knows: The hidden taxes of the regulatory state can be the real killer. And for small businesses, start-ups and independent contractors, these regulations are a death sentence. 
+We’ve taken a baseball bat to that bureaucracy, with a moratorium on new regulations ever since 2015. I don’t know about you, but I haven’t heard any complaints. Maybe because we’ve already saved taxpayers $169 million. Let’s make these reforms permanent, in law, and ensure Arizona is always the land of economic freedom and opportunity for all.
+Arizona workers are the ones truly fueling our healthy and transformed economy. Our manufacturing sector is on fire – it’s even outpaced construction, which is a tough hill to climb. If we weren’t turning out so many electric cars, I’d say: ‘Let’s pour on the gas.’ Instead – I’ll put it this way: Let’s invest in the worker, arming them with the skills they need for our growing semiconductor and advanced manufacturing industries. Whether your top issue is workforce or rural jobs, this is the way to do it: Our budget makes historic investments into community colleges to empower our people with a quality education and the skills of the future.
+Nevertheless, leave it to Washington D.C. – politicians there are doing everything they can to stand in the way of freedom. Big government socialism is a failed and dangerous experiment. But it doesn’t stop some from trying it time and time again – paying people not to work and disincentivizing initiative and self-determination.
+That’s not the Arizona way. So we called D.C.’s bluff and instead said: “Thanks, but no thanks” to unnecessary unemployment benefits. There’s no such thing as a free lunch or free money. Instead we will focus on rewarding hard work.
+This approach has meant that people keep moving here. Less taxes means more taxpayers. During the pandemic, as other states grandstanded, Arizona protected lives, livelihoods and individual liberty. People flocked here, and they’ve stayed. And who wouldn’t love it?
+President Ronald Reagan once said that if the pilgrims had landed on the west coast, they wouldn’t have bothered to discover the rest of the country.  But today, there is an exodus from California. And the same is true of other states with similar flawed policies. The lack of opportunity, fueled by bad governing philosophies, are hurting real Americans and pushing them out to states like Arizona, where opportunity is abundant.
+Sure, some have groaned, but growth is a good problem to have. The alternative is to be a state in decline, misery and decay. No state’s path to success has ever been paved with “Closed for Business” signs. Our only request to our new citizens is: Don’t forget why you came here in the first place. Freedom, opportunity and good government matter. 
+Make no mistake: We will keep Arizona – Arizona. 
+Our way is tried and true. In the past, when Arizona has veered off course, it hasn’t turned out well. And that brings us to another thing we found seven years ago when we got here. The state had amassed billions of dollars in debt through the recession, fueled by out-of-control spending in the early 2000s and budget shellgames. They even had to sell off this building. A couple of years ago, thanks to the leadership here, we got the deed back. And last year, we paid off billions more in debt – ratcheting it down to historically low levels. We took our Rainy Day fund to a record-breaking $1 billion. As a result, we have higher credit ratings than when we got here and that means even more savings to the taxpayer. So why stop now?
+I’ll present a budget on Friday that keeps this stewardship going – paying off more debt, and topping off our Rainy Day Fund, so that we don’t just own this house, but we leave the people’s house truly in order.
+We are blessed to be a magnet for America’s veterans. They represent the best of our country, and as any hiring manager will tell you: Veterans are among their most prized and productive employees. 
+We celebrate our veterans and want more of them in the State of Arizona. Would all the veterans here today please rise so we can recognize your service to our nation?
+We continue to find ways to honor our veterans. In the State of Arizona today, thanks to the efforts of Representative Gail Griffin and Senator David Gowan, veterans pay no taxes on their military pension. 
+Under the G.I. Bill, they also get to attend our in-state universities and community colleges free of charge. After all, they’ve already given so much. But how about their spouses? These dedicated husbands and wives have served and sacrificed as well. So this session, let’s launch a program to waive their tuition too.
+K-12 education is one of the reasons so many of us ran for office in the first place. But as an outsider, it was striking to me when I got to this Capitol that our school discussions weren’t about what kids actually learned. Bureaucrats were competing for who could spend more money. Fewer dollars were going to the classroom, and instead lining the pockets of trial attorneys.
+But we pressed forward: positioning Arizona as the number one school choice state in the nation.
+When COVID hit, that designation was a lifeline for families. Some school leaders did everything possible to keep kids in the classroom. But too often, politics and virtue signaling took center stage. In the process, more parents got involved. And thank God they did. Some voted with their feet – moving schools or school districts or to totally different learning models – whether that’s homeschooling or microschools. 
+But other families have seen their kids fall behind. There’s been too much attention put on masks and not nearly enough placed on math; a focus on restrictions rather than reading and writing. And it’s students of color and those in poverty who have been most impacted by the COVID-era posturing and politics of some school board bureaucrats.
+So come June, we’re launching a summer camp with an emphasis on catching kids up in key areas: math, reading and American civics. We will lead the way to eliminate learning loss. And in case you haven’t checked Twitter lately: Arizona schools are open and they will remain open. 
+In Arizona schools, we will not divide people by race. Arizona schools should be instructing our kids in the Golden Rule – to treat one another with respect, and judge people as Martin Luther King Junior taught, on the content of their character and not the color of their skin. This session we’ll make it clear. Students should be taught to think critically – not taught critical race theory. 
+But let’s not stop there. Parents deserve respect – and the occasional parent-teacher conference isn’t enough. It’s 2022. We’ve got the technology. Let’s require all that a child is taught, all curriculum and academic materials be put online and available to search and review by every parent, grandparent and interested citizen.  
+Arizona has set the standard for school choice and innovative education solutions – and it’s because of the vision of Arizona leaders that paved the way. Leaders like Governor Fife Symington, Superintendent of Public Instruction Lisa Graham Keegan and Democratic Representative Armando Ruiz, who worked in a bipartisan way to create new opportunities for students – open enrollment, charter schools. They knew that parents were best equipped to make decisions around their child's education.
+And new people are stepping up every day. Leaders like Janelle Wood, a mom and founder of the Black Mothers Forum. Janelle has led the way in creating new learning models where students receive personalized support. Many of Janelle's students were several grades behind, but with her unique focus on ensuring students feel safe, secure and ready to learn and grow, they quickly made gains towards academic excellence. 
+Janelle is here today. Janelle – thank you for your service and work to benefit Arizona kids.
+Fifty-plus years ago politicians stood in the schoolhouse door and wouldn’t let minorities in, today union-backed politicians stand in the schoolhouse door and won’t let minorities out. Many of our poor kids and children of color are trapped in a failing school. It’s time to set these families free.
+This session, let’s expand school choice any way we can — greater open enrollment, new transportation models, more charter schools and more educational freedom for families, especially those in failing schools or who can’t afford to pick up and move to a new neighborhood. Let’s think big and find more ways to get kids into the school of their parents’ choice. Send me the bills, and I’ll sign them.
+For Angela and I, the children in the care of the state - our foster kids - have had a special place in our hearts. I know you all feel the same. We’ve made notable strides in this area, thanks to our dedicated Child Safety caseworkers. With investments, we’ve seen lower caseloads and rapid placement of kids into safe, loving homes. And when other states switched to virtual home-inspections, in Arizona, these dedicated women and men showed up in person every day to keep these kids safe. 
+But unfortunately, we will never work ourselves out of a job in this area – and the pandemic hasn’t been good for these vulnerable children.
+Often, it’s grandma or grandpa, an aunt or uncle, who steps up to care for these kids. It can be better for the child, and often cheaper for the state because historically, they haven’t been treated as foster families. More than 6,000 children in Arizona live in these homes — all the evidence you need that you can’t put a price tag on love. So moving forward, these loving extended family members should have the same resources as any other foster family. We’ll make sure of that this year.
+We’ve had success getting good ideas done together. But there’s also something to be said for just saying “no” to really bad ideas. When the Left demanded “defund the police”, Arizona said, “no chance.” Instead we invested more in our men and women in blue. And we plan to do it again. 
+Arizona, Texas, Florida, Tennessee: All are among the fastest growing states in the nation. And the policies that made us so attractive can be applied to cities as well. 
+If you are an elected official charged with overseeing a police department and you don’t believe there’s a correlation between the attacks on law enforcement and rising crime rates nationally, you need a reality check because you’re putting public safety and human life at risk. We intend to keep Arizona a place where we honor and value our cops and all of law enforcement, including correctional officers and first responders. A place where public safety matters. No riots. No smash and grab. And a news flash for the DOJ and Merrick Garland: Mr. Attorney General, instead of attacking Police Chief Jeri Williams and her officers for risking their lives and keeping Arizona streets safe during civil unrest, your time would be better spent protecting the federal courthouses in Portland, Seattle and San Francisco. Do your job.
+When we need them, Arizona law enforcement is there. No matter the circumstance. No complaints. No virtual work. Some of our State Troopers are here with us today. Join me in showing our appreciation for their selfless service.
+When it comes to building a budget, public safety will always be at the top of our list. And this year, we have a record surplus. So our budget proposes making our State Troopers in Arizona the highest paid law enforcement professionals in the state. I know you agree – they’ve earned it.
+And we’re going to be leaning on their dedication more than ever. Our southern border has never been more deadly or more dangerous. Meanwhile, the White House and Congress have decided to turn a blind eye. This is a national crisis – and it calls for leadership.
+A few years ago, we came together – every Republican and Democrat in this entire chamber – and passed the Arizona Opioid Epidemic Act. It was historic. But now President Biden and his cabinet members are working against us. Fentanyl is streaming across the border. It’s causing death and devastation, and there’s no plan and zero action from the administration. Secretary Mayorkas is AWOL. The White House has canceled the word “crisis.” And for self-proclaimed border czar, Kamala Harris, this is just another laughing matter. This is a dereliction of duty by the highest officeholders in our nation. And in Arizona, we will do what they refuse to do. 
+We’ve got a strong track record:
+In 2015, we created the Arizona Border Strike Force to take on the cartels and protect our state against the flow of criminals, narcotics, weapons and ammunition. President Biden refuses to deploy the National Guard despite the fact it's been done by every other President in recent history, including Barack Obama. So in April, we deployed them ourselves, providing much needed assistance to local law enforcement. And with the leadership here, we invested $55 million in last year’s budget to amplify all these efforts.
+But more action and manpower are needed. Here’s the plan:
+Number one: Resources.
+Our budget will make significant new investments to strengthen the border strike force, provide advanced equipment to aid in the pursuit of dangerous criminals, and deploy the latest drone technology to bolster surveillance and stop the cartels in their tracks.
+Next: The rule of law.
+This is not just a public safety crisis; it’s a humanitarian crisis. And the human traffickers that prey on the desperation of people looking for a better life need to pay the consequences. It’s time for us to increase the criminal penalties against human smuggling and provide more funding to border counties to ensure prosecution and incarceration. 
+Third: Boots on the ground and multistate intelligence sharing.
+Border security is national security, and the lack of action from D.C. puts every American at risk. In November, I dispatched Arizona’s top-ranking enforcement officers to partner with their peers in Texas: Major General Kerry Muehlenbeck, Department of Public Safety Colonel Heston Silbert, and Department of Homeland Security Director Tim Roemer. In December, we finalized the plan. Texas Governor Greg Abbott and I are teaming up to form the American Governor’s Border Strike Force – a commitment between states to do what the Biden administration is unwilling to do: Patrol and secure our border.
+Fourth: The Wall and physical barriers. They work.
+Representatives Joanne Osborne and Tim Dunn and Senator Sine Kerr were with me in Yuma a few weeks ago and we saw it first hand – people walking across a wide-open and unprotected border. Our border is a patchwork of federal, state, tribal and private lands. Where Arizona can add physical barriers to the border, we will.
+But if the entire southern border isn’t secure, neither is our nation. So fifth: I’m calling on our United States senators to join this fight to secure our border. No member of the Arizona congressional delegation that actually cares about the safety of our communities should vote “yes” on any legislation until the President agrees to language that does the following: Secures our border with a wall, a physical barrier and virtual surveillance; increases resources to the local communities that have been devastated by these dangerous open border policies; and makes it clear that our border is not open to illegal immigration. 
+Senator Kelly, Senator Sinema - check my website. We’ve even drafted the language for you. 
+The takeaway: In Arizona, we will secure our border. We will protect public safety. We will not back down. We will fight this fight until Washington D.C. finally acts.
+Rule of law and equal justice under the law have been bedrocks of our Republic and guiding principles of our work together. A few years ago, when we learned of the massive backlog of untested rape kits, we worked in a bipartisan manner to clear that backlog and to make sure victims were prioritized. But as we’ve learned, government bureaucrats often find a way around the law. In this case, some counties are charging these women – these victims – up to $800 in processing charges, and sending the bill to collections. It’s shameful, so we will be cracking down on this government abuse and with your help, tightening the law.
+One area where our work clearly isn’t done is on water. We passed a monumental policy that we were told would never happen – the Drought Contingency Plan. After that one, I determined – in Arizona, if we can do this, we can do just about anything. Then last year, with Speaker Bowers’ leadership, we put our money where our mouth is: $200 million to invest in the water technology of the future. Now, with resources available in our budget, a relationship with Mexico that we’ve built and strengthened over the last seven years, and the need clear – what better place to invest more? Instead of just talking about desalination – the technology that made Israel the world’s water superpower – how about we pave the way to make it actually happen? So Speaker Bowers, President Fann and I have been working, and we propose that we make a historic investment: $1 billion.
+Our goal: Secure Arizona’s water future for the next 100 years.
+Our state has grown and thrived because of the foresight of past leaders on this issue – Carl Hayden, Barry Goldwater, Bruce Babbitt and Jon Kyl. The result: the Central Arizona Project, the Salt River Project, the Hoover Dam, the Roosevelt Dam. Now it’s our turn, our moment, to leave this state better than we found it. Let’s rise to the occasion.
+More people means more infrastructure needs. Not just on water, but roads and bridges. We’ve made record investments in road repairs and improvements. A few years ago, we got together and prioritized expansion of the I-17. Then, thanks to the leadership of Senator T.J. Shope and Governor Lewis of the Gila River Indian Community, we paved the way for a wider I-10 to improve movement and commerce between Tucson and Phoenix. But that project is still scheduled several years out from now, and 94 visits as Governor to southern Arizona will remind you how important this issue is. So, let’s finish the job. Our budget will invest more dollars to get the I-10 completion leap-frogged to the front of the priority list, ahead of schedule, connecting our entire state, North to South.
+As you see, as much progress as we’ve made – there’s plenty left to do on so many fronts. And we’ll have all year to grind it out together: a continued focus on the health of our citizens, and support for our hospitals, and dedicated healthcare workers; investments in cyber security to protect the identity and data of our citizens; improvements to our elections, to bring confidence and security; better broadband connectivity all across rural Arizona; more efforts to prevent wildfires; maintaining Arizona’s position as the number one pro-second amendment state in the nation; protecting life in every way possible; and all along the way, preparing for another Super Bowl, where our beautiful state will be center stage just a year from now.
+An ambitious agenda, to be sure. One that can cement our successes and the good reforms we’ve made, and further expand opportunity and optimism here in our state. 
+No doubt, there will be challenges. In fact, some have said we can’t get much done this year. Divided chambers. An election. Why bother? I disagree. Let’s aim high and think big.
+We’re smarter today, and as I look around this chamber – I see the wisdom of our veteran lawmakers, side by side with the energy and fresh perspective of the newcomers – and that’s a combo that is sure to produce results.
+So whether you’re like me, in the camp with my friends Rusty and Karen – we’ve only got a year left in these jobs – or you’re just getting started, let’s recommit today to giving our all to getting the job done for the people who have hired us.
+Thank you, and God bless the great State of Arizona.</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Good morning. Good morning, everyone. Thank you for being here in person and thanks for
+those that are watching online. I want to say welcome to everybody. First Lady Kathryn, my sons
+Joe and Tom, my daughter Jesse who is watching online, my sister Barbara and the other
+Burgums in the family. I think everybody knows, as Brent said, when you're serving in these roles
+today, whether it's city commission, county commission, state legislator, any elected official the
+last two years, you're not in this thing alone, you’re in it and your family’s with you. So again, I
+want to say thanks to my amazing family and a special welcome. Now I've got a son who's
+engaged. So welcome, Simone. Looking forward to the June wedding. So way to go.
+Congratulations.
+We've had an incredible year of progress in North Dakota, and people that are here been
+watching and listening. Lots of exciting announcements related to value-added energy, valueadded agriculture, economic development. And of course, right at the forefront, pushing
+tirelessly to get these projects over the finish line has been one person. A lot of people work to
+make all these happen, but I’ve got to tell you, Lieutenant Governor Brent Sanford, and all these
+things that are happening and all these announcements, he's at the front, he's behind the
+scenes, or he's leading the way making it happen. We've got the best Lieutenant Governor in the
+nation. Let's give it up for Brent Sanford.
+As we settle into the year 2022, I think everybody here understands that the world today is a
+complex, changing dynamic and there are conflicts between regions and powers and
+superpowers and countries all over the world that at any moment may boil over. And here at
+home, our nation, as we come out of COVID, everything's emotionally charged and politically
+divided. In D.C., we know we've got an administration that's pursuing regulations and policies
+that actually create headwinds for our two largest industries, energy and agriculture.
+And mainstream and social media seem to be at the forefront of everyone's thinking. They're
+competing for all of our attention all the time. And these are businesses that are driven by
+advertising supported models. Whether it's social media, mainstream media, they are competing
+for all of our attention. And the best way to get us to click on something or view something or
+try to pay attention to something is to convince us what we should be fearing the most, what we
+should be afraid of, what we should be most shocked about, and that creates a dynamic for the
+whole country.
+But right here in North Dakota, in the reality, on the ground, it's different from what you may
+see either nationally or internationally. In North Dakota, examples even this week, where we can 
+get together quickly and easily and frequently get all the people together in the same room and
+on the same page and make things happen.
+Hardworking North Dakotans know that we're in the business of feeding and fueling the world.
+And as such, we're not in competition with our friend, our neighbor, the person we've never met
+on Facebook. We're in competition with other states, and our state is in competition with other
+nations. We're competing for talent and for workforce. We're competing to retain our youth and
+our adults. We're competing for the capital investment to help our state reach its fullest
+potential.
+To be a North Dakotan in 2022 means that we're living in a land of incredible opportunity. Ours
+is clearly a state that's been blessed with abundant natural resources and some of the richest
+and most productive soil. We cherish our wide open spaces, the beauty of our diverse
+landscapes, our endless skies and our stunning sunsets. Regardless of the temperature outside,
+it's always beautiful in North Dakota. We value our God-given freedoms, perhaps like no other
+state, and we honor those who fight to protect them.
+It's no wonder that in 2021, why North Dakota was ranked in the top five for the best state to
+live, the best state for families, and the best state for business friendliness. We've also earned
+top 10 rankings in the best state for millennials, the best state to retire, the best state to start a
+business, and the best state for taking care of our natural environment with some of the cleanest
+air and water in the nation. And certainly at the end of the day, what matters, perhaps most, is
+many sites have agreed that North Dakota is one of the happiest states in the nation. Let's give
+yourselves a hand for all of that.
+Our population in North Dakota grew faster than all but three other states during the decade
+between 2010 and 2020, and families from near and far are finding incredible opportunities
+within our borders.
+Among those, one great example, Miguel Delgado and his wife, Jessica Morales, they're from
+the U.S. territory of Puerto Rico. And Miguel earned, like many people in North Dakota have
+done, an animal science degree in 2014. A friend invited him to take a vacation in Mandan,
+North Dakota. He instantly fell in love with the land and the scenery. He found a job at a local
+cattle ranch and decided with Jessica to move to North Dakota.
+After the pandemic hit, one evening they were sitting with friends and they decided that North
+Dakota needed an authentic, Latin bakery. Miguel felt that he could recreate his family's
+generational recipes. The couple did what entrepreneurs and risk takers do, they invested
+everything they had to launch El Coqui Bakery in south Bismarck in November 2020 with coowners Jossef Feiner and Dyna Mena.
+Today that business is thriving. Miguel, Jessica, Jossef and Dyna are busy running a bakery and
+they couldn't be here today, but we know they're watching online. So please join me in 
+welcoming them as some of the more than 100,000 new residents that have decided in the last
+decade to call North Dakota home. Welcome.
+The 2020 census also revealed that we're now the fourth-youngest state. This is a complete
+reversal from when we were one of the oldest states. We've got a number of students that are
+here in the room. Again, thank you to the Governor's Band and Choir. And we want to give a
+shout out to them for helping us be one of the youngest states in the nation. And so we want to
+give a shout out to them. But as I hear myself saying that, technically, I guess your parents had a
+hand in that, anyway, but let's give them a hand for helping us do that.
+***
+And we gave you one example of a startup, but businesses are booming in North Dakota. Last
+year, we registered more than 30,000 new businesses, well, last two years, 30,000 new
+businesses in the last two years.
+And on the big scale level, in the past year alone, we've seen announcements and transactions
+totaling more than $7 billion in capital investment in our energy industry, over $2.2 billion in
+announcements about projects coming for value-added agriculture, and there's been over $12
+billion invested in North Dakota across bio-manufacturing, unmanned aircraft systems, and
+other technology-based businesses. That is total investment coming into North Dakota, across
+energy, ag, and new, emerging technology businesses of over $21 billion.
+This isn't happening by accident. This massive investment, it's accumulation of years and
+decades of intentional effort by our state leaders to build a stable business tax and regulatory
+environment and to build a business friendly North Dakota. So all of you that are here,
+particularly all the elected officials, current and past, you're all part of that. Give yourselves a
+hand for that incredible work.
+Yes, we think of North Dakota as our Field of Dreams, but that Field of Dreams is becoming a
+reality. We're attracting remarkable levels of investment. We're creating tremendous opportunity
+for today's workforce and for future generations.
+Today, the state of our state is strong and it's growing stronger by the day because of our
+unshakable faith in the unlimited potential of North Dakota and its people.
+***
+Last year we saw again several historic challenges for our state, but North Dakotans showed that
+as always, we're up to the task.
+Regardless of the peaks and valleys of the ongoing global pandemic we know that keeping our
+schools open for in-person learning is the best for our students. And kudos to all of our teachers
+and administrators for making that happen. Let's give those teachers a round of applause.
+We've encouraged people to visit with their trusted medical providers about vaccines. Vaccines,
+statistically, remain the best defense against COVID. They drastically reduce the need for
+hospitalization. And as evidence of our focus from the beginning of protecting the most
+vulnerable, our skilled nursing residents and our staff are boosted and vaccinated at rates well
+above the national average. And at the same time we will, and we will continue to push back
+when the federal government overreaches into personal liberty and individuals’ personal health
+decisions, or if they're overreaching into the rights of private business owners. Washington
+needs to be reminded, the states created the federal government, not the other way around.
+And during the nearly two years of this battle against the invisible enemy, the COVID virus, the
+pandemic has stretched our health care facilities and their personnel to their limits.
+Our state's nurses, doctors, hospital and clinic staff, long-term care workers, first responders and
+others, even as we're here today, they continue to save lives through their tireless efforts. Our
+state agencies and local public health units have supported them with everything from medical
+supplies, technical assistance, case reporting, offering and supporting with mass testing events,
+vaccine clinics, and all of this to help reduce the burden on the health care system so the health
+care system can take care of not just COVID, but all the health needs of the citizens of North
+Dakota.
+And on the front line of that, of course, is our nurses. And so to honor the incredible efforts by
+the state's over 22,000 licensed nurses, we're declaring this week Nurses Week in North Dakota.
+Please join me in sharing our deepest gratitude for the truly lifesaving work of all of our state's
+nurses and the heroes of this pandemic.
+Of course, North Dakotas are not just known for our resiliency. I think it's a source of pride for
+people that live here. And last year, Mother Nature tested us like never before with the worst
+drought conditions recorded in our state's 133-year history.
+Using our whole-of-government approach we provided over $6 million in water supply and
+transportation aid to keep livestock herds watered and fed, leaving no stone unturned to help
+our farmers and ranchers.
+For the first time in recent memory, our state's firefighters fought intense wildfires in every
+single month of the year, 2021. Believe it or not, just last month, it marked the one anniversary
+of a massive January prairie fire along the North Dakota-South Dakota border that kicked off
+what would become the driest winter on record for our state.
+And who could forget last April when windswept flames threatened to engulf our state's top
+tourist attraction, the city of Medora, and forced the city's evacuation. We rapidly deployed our
+'Always Ready, Always There' North Dakota National Guard. They jumped in their helicopters,
+they flew west with 600-gallon water buckets to stop the fire and save Medora. And they 
+collaborated, incredible collaboration among local, state, and federal agencies. They not only
+saved the city, but they also saved the historic Chateau and the Burning Hills Amphitheater.
+This winter, these firefighters are finally getting a well-deserved break after responding last year
+to an unprecedented 2,199 fires that consumed over 122,000 acres. That's more than triple the
+annual number of wildfires in the previous five years. And we're so honored and pleased to have
+some of those firefighter leaders that are here with us today, Ryan, Kyle, Jeff, Josh, Lee, Jimmy,
+and Rod. These heroes along with all of our state's firefighters who worked together all year to
+protect lives, prevent millions of dollars of property damage across the state, have our deepest
+appreciation. Let's have those firefighters stand. Let's give them a big hand. Thank you for
+everything you've done.
+And while smoke and flames make wildfires noticeable by virtually anyone, makes for great
+photos for the press and the papers. Our state continues daily, to face a far less visible threat.
+And it is a threat. It's largely out of the public eye, but there continues to be a war on our state
+and our country led in many cases by state-sponsored cyberattacks. When I say statesponsored, we're talking China, Russia, Iran, North Korea, leading the pack.
+Last year, the state of North Dakota defended against 4.5 billion, yes, that's billion with a B, 4.5
+billion attacks on state government. That includes K-12, higher education, and anybody else
+that's touching our state network. That's more than double the number of attacks from two
+years ago. We have set up automated defense systems that stop most of those attacks. But our
+small set of team members at NDIT still had to handle over 50,000 cyberattack incidents last
+year.
+More must be done to protect our citizens trusted information and our way of life. Cyberattacks,
+ransom attacks, all too common these days. It makes cybersecurity education more important
+than ever. We can and should be, we came close in the special session, we need to get it over
+the finish line, but we can be the first state in the nation to adopt computer and cyber science
+graduation standards for everybody in K-12 through college, through graduate school. Our PK20W initiative, which reflects every student from kindergarten through Ph.D., has already won
+awards for its statewide approach to computer science and cyber education in workforce
+training.
+And speaking of awards, last weekend we held the first ever Cyber Madness Tournament in
+North Dakota. And I want to say congratulations to the team from James Valley Career &amp;
+Technology Center. These are high school students from Jamestown, Montpelier, GackleStreeter school districts. They put their test against teams from all over the state. They put their
+skills to work. They came out on top. They won the competition. That team is here today. Please
+help me in congratulating Coach Heinert and team members, Jordan, Collin, Karl, and Mason.
+So cool. Did you guys have fun at Cyber Madness? Fun to come out on top? That's awesome. I
+love that you got class B and class A schools all working together on the same team. Was there
+anybody from Jamestown or was it all class B kids? One? Okay. All right. They let one class A kid 
+in. The First Lady's happy, Jamestown was represented. There we go. Good job. Her home
+school. Anyway, but that's our future. Defending our state, defending our nation. Thank you.
+We are also the first state to authorize central, shared service approach to cybersecurity across
+all aspects of state government. And our state network has 252,000 daily users. We have over
+400 entities. That gives us a surface area that's equal to a Fortune 50 company. Last spring, we
+signed milestone legislation that helped us defend against cyberattacks. We also invested more
+than $15 million to enhance the state's cybersecurity software initiatives, and thank you
+legislature for that, but we're still facing huge risks.
+It is our duty as a state government to protect our citizens’ data and their digital livelihoods. In
+the 2023 session, looking ahead to that, we've got to advance additional investments in
+cybersecurity defenses.
+***
+In November, we worked really closely with the legislature on a super successful special session.
+It's only the 16th special session in our state's history. We passed in five, quick days, historic tax
+relief. We strategically invested hundreds of millions of dollars of federal funding, not in filling
+budget holes. We invested it in important projects with high return on investment with
+matching dollars that will help drive our state forward. And the legislature completed the
+legislative redistricting.
+Thanks to the legislative leadership and the strong starting point that came out of the work that
+we did with the legislators, and Brent and I, with the work and all the agencies on the Accelerate
+ND plan, again, that special session wrapped up in just five days, limiting the cost to taxpayers
+and probably the most productive five days in the history of the state in a legislative session.
+Now, a lot of credit goes to the legislative leaders. Three of those legislative leaders have since
+announced that their current term in office will be their last. Senate Majority Leader Rich
+Wardner of Dickinson, House Majority Leader Chet Pollert of Carrington, Senate Minority Leader
+Joan Heckaman of New Rockford. They have all served their constituents and they've served all
+of North Dakota with dignity, they've served with grace, they've served with compassion, and
+they've served with courage. Replacing these fine public servants will not be easy and they'll be
+dearly missed, we'll miss working with them on behalf of our citizens. They're here today. Please
+join me in thanking Senator Heckaman, Representative Pollert, and Senator Wardner for their
+exceptional service.
+That may be the last time you see Chet's face, because you're just going to see the back of his
+head on a motorcycle heading out of here. That's what he's got planned. So we wish you well,
+thank you. Thank you, Chet. Thank you Rich. And thank you, Joan.
+***
+Across our work in state government, of course it's a priority that we continue to engage with
+our tribal partners. Our tribal partners are sovereign nations with which we share geography.
+The tribal enrolled members are also citizens of North Dakota, and it's our job as elected leaders
+in North Dakota to serve all citizens of North Dakota.
+Last year, we reached an agreement with MHA Nation over the sharing of tax revenue on wells
+that straddled the edge of the Fort Berthold reservation. This settlement helped take care of an
+unresolved tax agreement with the Three Affiliated Tribes and added that. In October, Chairman
+Fox and I, that was a great point of collaboration.
+In October, there was more. Chairman Fox and I signed what could be the first of what we hope
+will be many, including with all the tribes, mutual aid agreements with our tribal nations,
+allowing the nearest available law enforcement officer to respond to an emergency call,
+regardless of jurisdiction.
+Folks, it's 2022. It's America. A 911 dispatcher in our state should not have to ask someone if
+they're an enrolled member or not before they can determine which law enforcement agency
+can respond to an emergency in their home. This MOU that we signed with MHA, which MHA
+spans five counties, takes care of state, county, local, tribal. Everybody in law enforcement's
+protected. Everybody knows how to make it work. All the tribes can benefit from this kind of
+agreement. I want to thank everybody on the North Dakota Highway Patrol team that helped
+make that happen.
+The legislature also advanced a bill that would allow all tribes to sign collaboration agreements
+with the North Dakota IT Department to enter into agreements with the tribes to assist them
+with cybersecurity response. This is also super important because our networks are integrated.
+We've celebrated victories together with our tribes, but there's so much more work to be done.
+But I can tell you from the meetings that we've had in the last six months, the spirit of
+collaboration is alive and well between the state of North Dakota and the tribes.
+We all have a common desire to work for solutions to the challenges for the benefit of all North
+Dakotans, including the tribal members living across our great state. These are our neighbors
+and our fellow citizens.
+***
+Living in the land of the free and the home of the brave is something for which I know that
+we're all grateful. In North Dakota, we value and respect police officers who enforce the law, and
+we value and respect military service members who defend our most cherished freedoms. As
+some states, and some of the iconic major cities of our nation, in the last two years have
+somehow chosen to tolerate lawlessness, they've chosen to defund their police, North Dakota
+and our cities, we've been backing the blue. Last April, I had the privilege of signing legislation
+that provides health insurance benefits to the spouse and children of any emergency responder
+whose life is taken in the line of duty.
+And we pray for the safety of our North Dakota National Guard soldiers that are stationed both
+at home and abroad. And when I say at home, I mean including in Texas, securing our southwest
+border. The states have stepped up to address this incredible border crisis that the current
+administration apparently refuses to even fix or even acknowledge. And we're showing our
+appreciation for our National Guard soldiers and airmen with more than just words. We fully
+funded the National Guard Tuition Assistance Program. We've approved dollars to lease land to
+expand the training range at Camp Grafton. And we've worked with lawmakers to exempt
+military retirement pay from state income tax, because those who serve their country have
+already paid society's tab.
+We also extended the exemption to surviving spouses because we know when a family member
+serves in the military, so does the family. These are small acts of appreciation to honor the
+courageous service of our military servicemen and women. It helps promote workforce
+participation. It will help those that have served in the military in North Dakota to choose to
+perhaps retire here. And it puts us on a path of our goal to make North Dakota the most
+military-friendly state in the nation.
+I'd now like to ask that all current service members, all military veterans, anybody who served in
+the police forces, or currently serves the police forces, to stand up, so we can express our
+unending gratitude to all of you. Thank you for your service. I see Chairman Fox standing up
+over here, U.S. Marines. Native Americans serve at a higher level than any other group in the
+country. Thank you and thank everybody else.
+***
+Just as law and order is essential to safe, healthy communities, so is infrastructure. Not only the
+physical infrastructure such as roads, bridges, and flood protection, but also the infrastructure
+that supports strong workforce, strong families, and strong communities. Both of these types of
+infrastructure are necessary for us to thrive. Let's take a look at the huge strides we've made this
+past year and where we need to do more in the future, especially on workforce.
+We entered 2021 with a bold proposal to our legislators: to pass the largest infrastructure
+bonding package in state history. Listening to the warnings of economists and reading the
+writing on the wall, seeing all the federal money being printed, we predicted that inflation would
+soar over a year ago with a massive influx of federal government spending, and also inflation
+because I have to say, the current administration's misguided economic policies, which are
+driving energy prices up.
+Turns out we were right, unfortunately. But last week, we learned that inflation had climbed to
+the fastest pace in 40 years, up a staggering 7.5% from a year earlier. And North Dakotans are
+feeling the pinch. As inflation rises, so does the cost of borrowing money and higher interest
+rates. 
+That's why we pushed so hard to pass our historic bonding bill last spring. That swift action,
+those bonds have already been issued, low interest rates have been secured. They're taken at a
+time when interest rates were at a historic low. This is going to save, the legislature taking action
+last year is going to save tens if not hundreds of millions of dollars as we upgrade our roads and
+bridges, build new flood projects, and finish the ones we've started, work on water supply
+projects for our citizens.
+And we are wisely using the Legacy Fund earnings, not the principal, the earnings, to pay off
+those bonds, so we don't have to use $1 of taxes of the state citizens. This was a financially
+conservative thing to do. We thank our legislators for embracing the tool of bonding at this
+strategic time.
+With the costs of goods, services, and materials rising, we've moved quickly to get the biggest
+bang on our federal dollars that have come through. And while some states were waiting until
+their regular session, our legislature acted. They moved quickly. With a special session, we
+deployed those ARPA dollars in November. And we're avoiding some of the corrosive power of
+inflation and putting ourselves at a competitive advantage over states that have yet to act on
+their federal aid. That's smart. It's conservative, and it's really great in terms of how we're doing
+cash management.
+In this biennium alone, we've made a record level of strategic investments in infrastructure, $2.3
+billion. That brings our five-year total in our administration to over $6 billion invested in physical
+infrastructure.
+And this of course, right here, since we're in Fargo, we need to mention the $435 million
+bonding package for the Fargo, Moorhead, West Fargo, Horace, Harwood area diversion project.
+That enabled the project officials, that bonding, to close the contractor agreement, lock in lower
+pricing through a private-public partnership. In fact, the U.S. Army Corps of Engineers has
+estimated that because of that action taken last year, and now the bidding with the privatepublic partnership completed, without that the diversion would've taken until 2042, 15 years
+after what is now the estimated completion date. That cost of taking 15 years longer would've
+been $330 million more.
+Instead, the diversion is now 35% complete. Substantial completion is slated for spring of 2027,
+reducing catastrophic flood risk to a metro area that includes over 20% of the K-12 kids in our
+state, over 25% of the current hospital capacity in our state, over $25 billion of property value,
+and an entire university and 55 and growing K-12 schools. This protection, protecting this metro
+area, this couldn't have happened without the work of our legislature, without the work of city
+and county leadership across the border into Minnesota. Wouldn't have happened without the
+work and collaboration with the state of Minnesota and their governors. And it wouldn't have
+happened without the hard work of our Congressional delegation, especially Senator John
+Hoeven, who helped secure the federal funding that completed the whole project.
+By completing this project faster, we're reducing risk. We're saving homeowners thousands of
+dollars each. Cumulatively, it's tens of millions of dollars annually being saved that will no longer
+have to go towards flood insurance in the metro area. And we're protecting all of this property
+value, all the hospitals, everything I've talked about. So it's really incredible, but so many people
+in this room were involved in that. But I do want to say one other thing because I look around
+the room and I know there's people here that I've been with, and we've been shoulder to
+shoulder. And we've been stacking sandbags for the last – my lifetime in Fargo. So anyway, I'd
+just like to say I think I've done enough stacking of sandbags. So I want to thank everybody that
+was involved in this, to say thank you. It's about time we got this thing done.
+Before Governor Guy passed away in his 90s, and he'd grown up Amenia, my dad grew up in
+Arthur, they knew each other from college at NDSU. They were in the same fraternity. They knew
+each other. They both signed up for World War II at the same time in a line in Casselton at the
+gym. He asked me about 15 years ago to go out to lunch, and when I was just working here in
+Fargo. And what he wanted to talk about was, and it was after we'd had some big floods in
+Fargo, and he wanted to talk about, hey, you know in the '30s, there was a drought. It was an
+extended drought. The city almost ran out of water. He'd been working on Garrison Diversion as
+governor from 1960 to 1972. He's like, "That's something that has to get done."
+This legislature has committed an additional $50 million for the Red River Water Supply Project.
+It's going to provide emergency water supply to central and eastern North Dakota. And we're
+talking about providing water to 40% to 45% of the people in the state. We're talking about the
+entire Red River Valley and everything that's outside of the Missouri River Basin. It's a huge
+piece of our economic engine. But we're going to have this backup water supply. It's only been
+promised, it's been pursued, it's been planned, for six decades. It's going back to the '60s.
+We're finally getting ready to have a drop of Missouri water cross the continental divide and
+come to the eastern part of the state. This is why we went through the pain of flooding the land,
+the tribal lands, the state lands, flooded all of this great bottom land in the Missouri River, which
+everybody loves now for fishing, but all that flooding of all that acreage was meant to provide a
+million acres of irrigation and water supply for the rest of the state. That was the vision of
+Garrison Diversion. It wasn't all about fishing. We love the fishing, but it's not a million acres,
+we're irrigating about 11,000 acres.
+There's not been a drop of water come to the east. We finally have a chance to get this thing
+done, that along with NAWS to get Missouri River water up to the north central part of the state,
+Minot and the Souris River Basin. These are huge things. The legislature understands this.
+They're investing in this infrastructure. And this will provide more certainty and resiliency for our
+farmers and ranchers in the rest of our state. They know they can rely on the abundant clean
+water supply provided by the Missouri. And like flood protection for Fargo, these water supply
+projects, super critical. It's about time. Give yourselves a hand for helping to make this happen.
+Way to go, team.
+And of course, these days in addition to the physical infrastructure of water projects, bridges,
+highways, whether it's telehealth, behavioral health, education, connecting every combine and
+every tractor, we have got to have the world's leading broadband access. And we continue to
+position ourselves in that way. State lawmakers committed an additional $45 million in federal
+funds for building out our broadband infrastructure. We already led the nation before that $45
+million investment. We literally were the best in the country in terms of when the pandemic hit,
+we could reach 99% of our students had an access to internet at home. That was higher than
+any other state in the country. We can be the first state in the nation to achieve 100%
+broadband access.
+And we're not talking dial up speeds. We're talking gigabit type speeds. Why does that matter?
+It levels the playing field for everybody as a citizen, and for students, and it levels the playing
+field for our small communities where people can now literally work from anywhere for almost
+any company in the world, regardless of geographic or demographics. It is a huge advantage.
+We're in the front. Let's keep building on our lead. Let's make it happen. Way to go, North
+Dakota.
+***
+But as we invest in all this future, some people might say, "Wow, where are all the dollars
+going?" But I want you to know again, working with the legislature, we're also saving for the
+future.
+Thanks to conservative budgeting, prudent fiscal management, our state's reserve funds are in
+better shape than they ever have been. The rainy day Budget Stabilization Fund sits at $750
+million. In Century Code, that's it's cap, that's as filled as it can fill. The Strategic Investment and
+Improvements Fund will have an unobligated balance of more than $900 million, unobligated
+balance in just a cash checking account by June of 2023 if the current oil prices continue.
+And based on the current conservative forecast, and I say conservative because we've been
+tracking ahead of that the first eight months of this biennium, the Legacy Fund will have nearly
+tripled in value in just eight years by the end of this biennium, from $3.3 billion in 2015 to $9.3
+billion.
+These reserve funds and our strategic use of federal funding has allowed us to provide historic
+tax relief during this special session. We approved an estimated $211 million in income tax
+credits, allowing approximately half, half of North Dakotans, get to keep their hard earned
+money. The people that were working during the pandemic were the people that have income
+tax to pay, they get to ke</t>
+  </si>
 </sst>
 </file>
 
@@ -2231,10 +10647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37423CF8-B3ED-2048-8739-9427DDFFCF10}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2246,10 +10662,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -2265,71 +10681,399 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
